--- a/data/02_intermediate/cleaned_Ben-J_songs.xlsx
+++ b/data/02_intermediate/cleaned_Ben-J_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Heb alles om me heen gefilterd, loop nu bijna alleen Album af, maar ga pas vieren als we landen op 1 Mensen houden veel van liegen, ik kijk dwars door ze heen Heb je overal problemen, ben je zelf het probleem, huh Normen, waarden en principes, blijf niet liggen als ik val, ookal hebben ze niets liever Een lach op mijn gezicht, maar ik heb ook verdriet in me Wil gewoon me team zien winnen, ik hoef niets minder Liet muziek veel te lang links liggen, maar ben veranderd Lag te slapen in de klas, wist van mezelf dat ik anders was Had een plan, maar volgens mij was dat plan te zwak Nu zijn ze verbaasd, ik zeg ze, Wat had je dan verwacht? Ben nog steeds, op dreef, ben al zo lang bezig zit te denken aan stoppen soms Na regen komt zon, maar zag toch veel dagen zonder zon Me hele team is fam, ik hou die pap liever onder ons, Ramzi Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen You might also like Ik stap in de booth met Yeezy's, ik voel me Kanye Op veld net als Mane, die mannen hebben niks op me Dit is 34 euro per gram, daarna stunten met de winst, kleine bradda, ik ga iets shoppen Ik zit effe in de stress, maar geen stress, dit is niets nieuws, ik doe dit al te lang Je bitch deed al te hype toen dat ze hoorde dat ik kwam Van hoodfame naar shows gaan doen door heel het land Zoveel zeiden dat ik niet kon, afgeleid door beautiful girls net Sean Kingston Bradda, kijk, ik win dom, sinds ik in de scene kom ben ik geen Freddie Konings meer, maar Winston Bro, ik ben een pakje Marlboro, jullie zijn Winston Die chick weet ik bepaal wat er gebeurd, noem me Kim Yung Real gebleven van begin tot het einde Van de hoek naar een hook, maar refreinen Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen</t>
+          <t>Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Heb alles om me heen gefilterd, loop nu bijna alleen Album af, maar ga pas vieren als we landen op 1 Mensen houden veel van liegen, ik kijk dwars door ze heen Heb je overal problemen, ben je zelf het probleem, huh Normen, waarden en principes, blijf niet liggen als ik val, ookal hebben ze niets liever Een lach op mijn gezicht, maar ik heb ook verdriet in me Wil gewoon me team zien winnen, ik hoef niets minder Liet muziek veel te lang links liggen, maar ben veranderd Lag te slapen in de klas, wist van mezelf dat ik anders was Had een plan, maar volgens mij was dat plan te zwak Nu zijn ze verbaasd, ik zeg ze, Wat had je dan verwacht? Ben nog steeds, op dreef, ben al zo lang bezig zit te denken aan stoppen soms Na regen komt zon, maar zag toch veel dagen zonder zon Me hele team is fam, ik hou die pap liever onder ons, Ramzi Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Ik stap in de booth met Yeezy's, ik voel me Kanye Op veld net als Mane, die mannen hebben niks op me Dit is 34 euro per gram, daarna stunten met de winst, kleine bradda, ik ga iets shoppen Ik zit effe in de stress, maar geen stress, dit is niets nieuws, ik doe dit al te lang Je bitch deed al te hype toen dat ze hoorde dat ik kwam Van hoodfame naar shows gaan doen door heel het land Zoveel zeiden dat ik niet kon, afgeleid door beautiful girls net Sean Kingston Bradda, kijk, ik win dom, sinds ik in de scene kom ben ik geen Freddie Konings meer, maar Winston Bro, ik ben een pakje Marlboro, jullie zijn Winston Die chick weet ik bepaal wat er gebeurd, noem me Kim Yung Real gebleven van begin tot het einde Van de hoek naar een hook, maar refreinen Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk You might also like They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm You might also likeBaby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
+          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Baby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>There is a rose in Spanish Harlem A red rose up in Spanish Harlem It is the special one, it's never seen the sun It only comes out when the moon is on the run And all the stars are gleaming It's growing in the street Right up through the concrete But soft and sweet and dreaming There is a rose in Spanish Harlem A red rose up in Spanish Harlem With eyes as black as coal That looks down in my soul And starts a fire there and then I lose control I have to beg your pardon I'm going to pick that rose And watch her as she grows in my garden I'm going to pick that rose And watch her as she grows in my garden There is a rose in Spanish Harlem La la la, la la la, la la la la There is a rose in Spanish Harlem La la la, la la la, la la la la There is a rose in Spanish HarlemYou might also like3</t>
+          <t>There is a rose in Spanish Harlem A red rose up in Spanish Harlem It is the special one, it's never seen the sun It only comes out when the moon is on the run And all the stars are gleaming It's growing in the street Right up through the concrete But soft and sweet and dreaming There is a rose in Spanish Harlem A red rose up in Spanish Harlem With eyes as black as coal That looks down in my soul And starts a fire there and then I lose control I have to beg your pardon I'm going to pick that rose And watch her as she grows in my garden I'm going to pick that rose And watch her as she grows in my garden There is a rose in Spanish Harlem La la la, la la la, la la la la There is a rose in Spanish Harlem La la la, la la la, la la la la There is a rose in Spanish Harlem3</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk You might also like They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Someone like you Nena es un recuerdo Esa última vez que te vi Ya no queda tiempo Cuando me gritabas, estaba' Encendía' y solita pa' mi Y ahora no sé donde está' Estoy perdío' en la ciudad Pensando si tiene otro o si regresará Dejaste mi cora' roto y espero respuesta Que desde que tú te fuiste, no me quiero enredar Sé que nada es como antes Perdón si volví a buscarte Pero en mi piel te grabaste yeah Y ahora escribo pa' olvidarte Y ahora escribo pa' olvidarte Y ahora escribo pa' olvidarte Otro día con otra puta a mi lao' Y yo nunca me he enredao' He intentado con miles y no me ha funcionao' Mai' te quise demasiao' Y otra vez que aprendo para dar el estrés Puede que en este mundo ya no esté Y solo quisiera verte una última vez Solo una, vuelvo otra vez Para darte de nuevo, y chingarte de nuevo Yo caí en tu juego, y me quema este fuego Para darte de nuevo, y chingarte de nuevo Yo caí en tu juego, oh You might also like Nena es un recuerdo Esa última vez que te vi Ya no queda tiempo Cuando me gritabas, estaba' Encendía' y solita pa' mi Y ahora no sé donde está' Estoy perdío' en la ciudad Pensando si tiene otro o si regresará Dejaste mi cora' roto y espero respuesta Que desde que tú te fuiste, no me quiero enredar Que desde que tú te fuiste, no me quiero enredar Que desde que tú te fuiste, no me quiero enredar Ye' ye' Benja Valencia mami, ye' Y8 mami, ye', gang Chris Lopez, Hedo music, ye'</t>
+          <t>Someone like you Nena es un recuerdo Esa última vez que te vi Ya no queda tiempo Cuando me gritabas, estaba' Encendía' y solita pa' mi Y ahora no sé donde está' Estoy perdío' en la ciudad Pensando si tiene otro o si regresará Dejaste mi cora' roto y espero respuesta Que desde que tú te fuiste, no me quiero enredar Sé que nada es como antes Perdón si volví a buscarte Pero en mi piel te grabaste yeah Y ahora escribo pa' olvidarte Y ahora escribo pa' olvidarte Y ahora escribo pa' olvidarte Otro día con otra puta a mi lao' Y yo nunca me he enredao' He intentado con miles y no me ha funcionao' Mai' te quise demasiao' Y otra vez que aprendo para dar el estrés Puede que en este mundo ya no esté Y solo quisiera verte una última vez Solo una, vuelvo otra vez Para darte de nuevo, y chingarte de nuevo Yo caí en tu juego, y me quema este fuego Para darte de nuevo, y chingarte de nuevo Yo caí en tu juego, oh Nena es un recuerdo Esa última vez que te vi Ya no queda tiempo Cuando me gritabas, estaba' Encendía' y solita pa' mi Y ahora no sé donde está' Estoy perdío' en la ciudad Pensando si tiene otro o si regresará Dejaste mi cora' roto y espero respuesta Que desde que tú te fuiste, no me quiero enredar Que desde que tú te fuiste, no me quiero enredar Que desde que tú te fuiste, no me quiero enredar Ye' ye' Benja Valencia mami, ye' Y8 mami, ye', gang Chris Lopez, Hedo music, ye'</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Come on! Uh! If you're ready, I'm willin' and able Help me lay my cards out on the table You're mine and I'm yours for the takin' Right now the rules that we made are meant for breakin' Yeah What you get ain't always what you see But satisfaction is guaranteed They say that what you give is always what you need, oh-whoa If you want me to lay my hands on you You might also like Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Yeah! I'm a fighter, I'm a poet, I'm a preacher I've been to school yeah baby, I've been the teacher If you show me how to get up off the ground, ground, ground I can show you how to fly, never, ever come back down Everything you want is what I need But satisfaction is, huh, guaranteed But the ride don't never, ever come for free, oh If you want me to lay my hands on you Lay your hands on me Lay your hands on me Lay your hands on me All you got to do is Lay your hands on me Lay your hands on me Lay your hands on me Yeah, yeah Don't you know I always aim to please? Yeah If you want me to lay my hands on you Lay your hands on me Lay your hands on me Lay your hands on me You got to do is Lay your hands on me Lay your hands on me Lay your hands on me Lay 'em down Lay your hands on me Lay your hands on me Aw, lay 'em down Lay your hands on me Yeah Oh-oh-oh-oh-oh, oh-oh-oh-oh-oh Won't you lay 'em down Lay your hands on me Yeah, yeah Oh-oh-oh-oh-oh Oh, yeah Oh-oh-oh-oh-oh Lay your hands on me I can hear my heart sing Oh-oh-oh-oh-oh Oh Oh-oh-oh-oh-oh I can hear my heart sing Lay your hands on me C'mon, c'mon Yeah Oh-oh-oh-oh-oh Oh Oh-oh-oh-oh-oh Won't you lay 'em down? Lay your hands on me</t>
+          <t>Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Come on! Uh! If you're ready, I'm willin' and able Help me lay my cards out on the table You're mine and I'm yours for the takin' Right now the rules that we made are meant for breakin' Yeah What you get ain't always what you see But satisfaction is guaranteed They say that what you give is always what you need, oh-whoa If you want me to lay my hands on you Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Yeah! I'm a fighter, I'm a poet, I'm a preacher I've been to school yeah baby, I've been the teacher If you show me how to get up off the ground, ground, ground I can show you how to fly, never, ever come back down Everything you want is what I need But satisfaction is, huh, guaranteed But the ride don't never, ever come for free, oh If you want me to lay my hands on you Lay your hands on me Lay your hands on me Lay your hands on me All you got to do is Lay your hands on me Lay your hands on me Lay your hands on me Yeah, yeah Don't you know I always aim to please? Yeah If you want me to lay my hands on you Lay your hands on me Lay your hands on me Lay your hands on me You got to do is Lay your hands on me Lay your hands on me Lay your hands on me Lay 'em down Lay your hands on me Lay your hands on me Aw, lay 'em down Lay your hands on me Yeah Oh-oh-oh-oh-oh, oh-oh-oh-oh-oh Won't you lay 'em down Lay your hands on me Yeah, yeah Oh-oh-oh-oh-oh Oh, yeah Oh-oh-oh-oh-oh Lay your hands on me I can hear my heart sing Oh-oh-oh-oh-oh Oh Oh-oh-oh-oh-oh I can hear my heart sing Lay your hands on me C'mon, c'mon Yeah Oh-oh-oh-oh-oh Oh Oh-oh-oh-oh-oh Won't you lay 'em down? Lay your hands on me</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Don't play it no more Don't play it no more Don't play it no more No, no, no, no, no, no, no Don't play that song for me It brings back memories Of days that I once knew The days that I spent with you Oh no, don't let it play It fills my heart with pain Please stop it right away I remember jus-a what it said It said Darling, I love you You know that you lied Darling, I love you You know that you lied Darling, I love you You know that you lied Woah, you lied Woah You lied, lied, lied I remember on our first date You kissed me and you walked away You were only seventeen I never thought you'd act so mean But baby, you told me you loved me You told me you cared You said, I'll go with you, darling Almost anywhere Bud, darling, you know that You might also like Darling, I love you You know that you lied Darling, I love you You know that you lied Darling, I love you You know that you lied You lied, you lied, lied, lied, lied Don't play it no more Don't play it no more Stop it, baby, no, no, no, no, no, no, no Don't play it no more Baby, please don't play it, baby Don't play it no more, no, no, no, no, no, no, no Stop it, baby Darling, I love you You know you lied Darling, I love you You know you lied Darling, I love you You know you lied</t>
+          <t>Don't play it no more Don't play it no more Don't play it no more No, no, no, no, no, no, no Don't play that song for me It brings back memories Of days that I once knew The days that I spent with you Oh no, don't let it play It fills my heart with pain Please stop it right away I remember jus-a what it said It said Darling, I love you You know that you lied Darling, I love you You know that you lied Darling, I love you You know that you lied Woah, you lied Woah You lied, lied, lied I remember on our first date You kissed me and you walked away You were only seventeen I never thought you'd act so mean But baby, you told me you loved me You told me you cared You said, I'll go with you, darling Almost anywhere Bud, darling, you know that Darling, I love you You know that you lied Darling, I love you You know that you lied Darling, I love you You know that you lied You lied, you lied, lied, lied, lied Don't play it no more Don't play it no more Stop it, baby, no, no, no, no, no, no, no Don't play it no more Baby, please don't play it, baby Don't play it no more, no, no, no, no, no, no, no Stop it, baby Darling, I love you You know you lied Darling, I love you You know you lied Darling, I love you You know you lied</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>I, I who have nothing I, I who have no one Adore you and want you so I'm just a no one With nothing to give you but, oh I love you He, he buys you diamonds Bright, sparkling diamonds But believe me, hear what I say That he can give you the world But he'll never love you the way I love you He can take you any place he wants To fancy clubs and restaurants But I can only watch you with My nose pressed up against the window pane I, I who have nothing I, I who have no one Must watch you go dancing by Wrapped in the arms of somebody else When darling, it's I Who loves youYou might also like</t>
+          <t>I, I who have nothing I, I who have no one Adore you and want you so I'm just a no one With nothing to give you but, oh I love you He, he buys you diamonds Bright, sparkling diamonds But believe me, hear what I say That he can give you the world But he'll never love you the way I love you He can take you any place he wants To fancy clubs and restaurants But I can only watch you with My nose pressed up against the window pane I, I who have nothing I, I who have no one Must watch you go dancing by Wrapped in the arms of somebody else When darling, it's I Who loves you</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hanh, Yo Que du bon y'en a pas encore finish Hard core phénomène Kiffe mon slang, même si c'est pas du spanish Des rimes en lingo Chiale, baby, chiale Si tu lèves ton flingue haut Moi, je fly, baby, fly Ma situation, mes proches l'a naiss-co C'est pas ce qui se fait de mieux Mais je fais avec, amigo Mon nom est DaFunkyla, ghetto superstar Déteste les mecs qui sont en super-retard Pour ma génération, préparation Freestyle en coulisse, hard core lyrics Du style on nique la Police Les groupies chialent Les larmes innondent Daomen sur les ondes C'est boule à zéro, Timberlands Ce soir c'est sexe, alcool, caviar Showcase improvisé, bédo, Sinsemilla Mon rôle dans la vie mérite un Oscar ou un Grammy Award Jerry DaFunkyla représente pour le Black Power You might also like Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yo, Yo Je mène une triste vie, on dirait de la comédie Il y a des jours où je me dis, je vais me retrouver à Hollywood comme Eddy Mais ma réalité est trop hard core Elle me rappelle que je demeure un black flavor Sur le track je donne, j'explose comme une bonbonne Je suis un MC sapé large avec un gros bonnet Au mic je flingue sec, volontaire est l'homicide Mes pratiques sont répugnantes Mes victimes ont recours au suicide Je débarque, t'embarque dans mon concept de fouleck Et dans la foulée j'en place une pour mes zoulettes Dédicace aux MC's non-tricards Ceux qui sont fiers de représenter leur tié-quar Je suis pas un mafioso, on m'appelle pas Gambino Ma vie je la vois simple, avec une femme et plein de bambino Chiale, baby, chiale DaFunkyla, street niggas Emmène des rimes en roro qui valent plus de 10 keuss' Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yo, Yo, Yo On fait tout pour pas que les guns sonnent Moi, je tope mon flow à la Ben Johnson Après chaque prestation on tire le rideau Interview en standby, you know how we do Evite de me chauffer quand je fais le maniacks Y'a des jours où je fume un max Mes potes me disent que je suis maniaque Hard core nègre, boule à zéro à la Mouss Diouf J'en place une pour ceux qui galèrent au gnouf Underground revelation On dira que mon style est dope Demain on sera encore là pour mettre ça au top Yo, Chiale, baby, chiale Sur le riddim je suis mortel Daomen c'est le style qui fout le bordel Je représente pour la génération next Mes frères et moi chauffons Babylone car hard core sont nos textes Je marche droit pour pas que ma mère chiale Je veux faire partie de ceux qui n'ont pas les mains sales Yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yesh yesh y'all And you don't stop Daomen, hunh Daomen, hunh Please, Please Yesh yesh y'all And you don't stop Jerry DaFunkyla Nouvelle Donne Records Yesh yesh y'all And you don't stop Clark Gordon Nouvelle Donne Records Please, Please Yesh yesh y'all And you don't stop Hunh, hunh, hunh Daomen, yo</t>
+          <t>Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hanh, Yo Que du bon y'en a pas encore finish Hard core phénomène Kiffe mon slang, même si c'est pas du spanish Des rimes en lingo Chiale, baby, chiale Si tu lèves ton flingue haut Moi, je fly, baby, fly Ma situation, mes proches l'a naiss-co C'est pas ce qui se fait de mieux Mais je fais avec, amigo Mon nom est DaFunkyla, ghetto superstar Déteste les mecs qui sont en super-retard Pour ma génération, préparation Freestyle en coulisse, hard core lyrics Du style on nique la Police Les groupies chialent Les larmes innondent Daomen sur les ondes C'est boule à zéro, Timberlands Ce soir c'est sexe, alcool, caviar Showcase improvisé, bédo, Sinsemilla Mon rôle dans la vie mérite un Oscar ou un Grammy Award Jerry DaFunkyla représente pour le Black Power Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yo, Yo Je mène une triste vie, on dirait de la comédie Il y a des jours où je me dis, je vais me retrouver à Hollywood comme Eddy Mais ma réalité est trop hard core Elle me rappelle que je demeure un black flavor Sur le track je donne, j'explose comme une bonbonne Je suis un MC sapé large avec un gros bonnet Au mic je flingue sec, volontaire est l'homicide Mes pratiques sont répugnantes Mes victimes ont recours au suicide Je débarque, t'embarque dans mon concept de fouleck Et dans la foulée j'en place une pour mes zoulettes Dédicace aux MC's non-tricards Ceux qui sont fiers de représenter leur tié-quar Je suis pas un mafioso, on m'appelle pas Gambino Ma vie je la vois simple, avec une femme et plein de bambino Chiale, baby, chiale DaFunkyla, street niggas Emmène des rimes en roro qui valent plus de 10 keuss' Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yo, Yo, Yo On fait tout pour pas que les guns sonnent Moi, je tope mon flow à la Ben Johnson Après chaque prestation on tire le rideau Interview en standby, you know how we do Evite de me chauffer quand je fais le maniacks Y'a des jours où je fume un max Mes potes me disent que je suis maniaque Hard core nègre, boule à zéro à la Mouss Diouf J'en place une pour ceux qui galèrent au gnouf Underground revelation On dira que mon style est dope Demain on sera encore là pour mettre ça au top Yo, Chiale, baby, chiale Sur le riddim je suis mortel Daomen c'est le style qui fout le bordel Je représente pour la génération next Mes frères et moi chauffons Babylone car hard core sont nos textes Je marche droit pour pas que ma mère chiale Je veux faire partie de ceux qui n'ont pas les mains sales Yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yesh yesh y'all And you don't stop Daomen, hunh Daomen, hunh Please, Please Yesh yesh y'all And you don't stop Jerry DaFunkyla Nouvelle Donne Records Yesh yesh y'all And you don't stop Clark Gordon Nouvelle Donne Records Please, Please Yesh yesh y'all And you don't stop Hunh, hunh, hunh Daomen, yo</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Your love, your love Supernatural thing Your love, your love It's a supernatural thing, oh babe Your love Your love, your love Supernatural thing Supernatural Oh, babe Supernatural Your love, your love Your love, your love Supernatural thing Supernatural Mm, babe Supernatural When we touch, give me such a funny feeling in my brain I'm so possessed by your love, sometimes I don't even know my name When we kiss, you know you make me hot I break out sometimes in little bitty green spots You give me, give me all you got Don't stop it, baby, 'cause I need a lot Your love Your love, your love Lord, it's a supernatural thing Supernatural Oh woman Supernatural Your love, your love Your love, your love Supernatural thing Supernatural Mmhmm Supernatural You might also likeSay, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural Listen, interplanetary, oh, extraordinary love Interplanetary I like it Extraordinary That way you love me Supernatural Oh baby Supernatural You give me cosmic feeling, every time that I squeeze you Your love's so electrifying, so satisfying, Lord knows I ain't lyin' Your love Your love, your love Supernatural thing Supernatural Oh woman Supernatural Your love Your love, your love Lord, it's a supernatural thing Supernatural What you say? Supernatural Say, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural Listen, interplanetary, oh, extraordinary love Interplanetary I like it Extraordinary That way you love me Supernatural Oh babe Supernatural Listen, interplanetary, oh extraordinary, ooh Interplanetary I like it Extraordinary Surely I like it Supernatural Baby Supernatural One more time, doo doo do doo do, do doo do doo Do doo do doo do do doo do, uh Supernatural I like it Supernatural I like it Supernatural I like it Supernatural Ooh, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural You give me soul Makes my feeling grow Woman, I love it Love the way you love me Oh baby, I love Love the way you love me Your love Your love, your love Supernatural Supernatural Help me Supernatural Your love Your love, your love Oh, it's a supernatural thing Supernatural Help me Supernatural I've got it Supernatural I've got it Supernatural I've got it Supernatural Lord knows I've got it Supernatural I've got the feeling Supernatural I've got the feeling Supernatural Mm, babe Supernatural Ooh, baby Supernatural Ooh, baby Supernatural Ooh, baby Supernatural You give me Supernatural You give me things Supernatural Make my body hot Supernatural Make my body hot Supernatural Oh, I've got it Supernatural Got the feeling Supernatural Mama, I've got it Supernatural I've got the feeling Supernatural Your love Your love, your love Said it's a supernatural thing Supernatural Help me Supernatural Your love Your love, your love Oh, it's a supernatural thing Supernatural Help me Supernatural Oh Supernatural What you say? Supernatural What you say? Interplanetary, oh, extraordinary, uh! Interplanetary I like it Extraordinary Surely I like it Supernatural Baby Supernatural One more time, doo doo do doo do, do doo do doo Do doo do doo do do doo do, uh Supernatural I like it Supernatural I like it Supernatural I like it Supernatural Ooh, Interplanetary, girl, extraordinary love Interplanetary I like it Extraordinary Help me say it Supernatural I like it Supernatural Ooh, boo boo buh buh-buh-buh-buh Buh buh buh buh-buh-buh-boo Supernatural Oh baby Supernatural I love it Supernatural Tell me, baby Supernatural</t>
+          <t>Your love, your love Supernatural thing Your love, your love It's a supernatural thing, oh babe Your love Your love, your love Supernatural thing Supernatural Oh, babe Supernatural Your love, your love Your love, your love Supernatural thing Supernatural Mm, babe Supernatural When we touch, give me such a funny feeling in my brain I'm so possessed by your love, sometimes I don't even know my name When we kiss, you know you make me hot I break out sometimes in little bitty green spots You give me, give me all you got Don't stop it, baby, 'cause I need a lot Your love Your love, your love Lord, it's a supernatural thing Supernatural Oh woman Supernatural Your love, your love Your love, your love Supernatural thing Supernatural Mmhmm Supernatural Say, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural Listen, interplanetary, oh, extraordinary love Interplanetary I like it Extraordinary That way you love me Supernatural Oh baby Supernatural You give me cosmic feeling, every time that I squeeze you Your love's so electrifying, so satisfying, Lord knows I ain't lyin' Your love Your love, your love Supernatural thing Supernatural Oh woman Supernatural Your love Your love, your love Lord, it's a supernatural thing Supernatural What you say? Supernatural Say, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural Listen, interplanetary, oh, extraordinary love Interplanetary I like it Extraordinary That way you love me Supernatural Oh babe Supernatural Listen, interplanetary, oh extraordinary, ooh Interplanetary I like it Extraordinary Surely I like it Supernatural Baby Supernatural One more time, doo doo do doo do, do doo do doo Do doo do doo do do doo do, uh Supernatural I like it Supernatural I like it Supernatural I like it Supernatural Ooh, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural You give me soul Makes my feeling grow Woman, I love it Love the way you love me Oh baby, I love Love the way you love me Your love Your love, your love Supernatural Supernatural Help me Supernatural Your love Your love, your love Oh, it's a supernatural thing Supernatural Help me Supernatural I've got it Supernatural I've got it Supernatural I've got it Supernatural Lord knows I've got it Supernatural I've got the feeling Supernatural I've got the feeling Supernatural Mm, babe Supernatural Ooh, baby Supernatural Ooh, baby Supernatural Ooh, baby Supernatural You give me Supernatural You give me things Supernatural Make my body hot Supernatural Make my body hot Supernatural Oh, I've got it Supernatural Got the feeling Supernatural Mama, I've got it Supernatural I've got the feeling Supernatural Your love Your love, your love Said it's a supernatural thing Supernatural Help me Supernatural Your love Your love, your love Oh, it's a supernatural thing Supernatural Help me Supernatural Oh Supernatural What you say? Supernatural What you say? Interplanetary, oh, extraordinary, uh! Interplanetary I like it Extraordinary Surely I like it Supernatural Baby Supernatural One more time, doo doo do doo do, do doo do doo Do doo do doo do do doo do, uh Supernatural I like it Supernatural I like it Supernatural I like it Supernatural Ooh, Interplanetary, girl, extraordinary love Interplanetary I like it Extraordinary Help me say it Supernatural I like it Supernatural Ooh, boo boo buh buh-buh-buh-buh Buh buh buh buh-buh-buh-boo Supernatural Oh baby Supernatural I love it Supernatural Tell me, baby Supernatural</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>You won't admit you love me, and so How am I ever to know? You always tell me Perhaps, perhaps, perhaps A million times I've asked you, and then I ask you over again You only tell me Quizas, quizas, quizas If you can't make your mind up We'll never get started And I don't wanna wind up Being parted, broken-hearted So if you really love me, say yes But if you don't dear, confess And please don't tell me Perhaps, perhaps, perhaps Quizas, perhaps, perhaps So if you really love me, say yes But if you don't dear, confess And please don't tell me Quizas, quizas, quizas Mmm, quizas, quizas, quizas Mmm, quizas, quizas Quizas, quizas, quizas, la la la laYou might also like</t>
+          <t>You won't admit you love me, and so How am I ever to know? You always tell me Perhaps, perhaps, perhaps A million times I've asked you, and then I ask you over again You only tell me Quizas, quizas, quizas If you can't make your mind up We'll never get started And I don't wanna wind up Being parted, broken-hearted So if you really love me, say yes But if you don't dear, confess And please don't tell me Perhaps, perhaps, perhaps Quizas, perhaps, perhaps So if you really love me, say yes But if you don't dear, confess And please don't tell me Quizas, quizas, quizas Mmm, quizas, quizas, quizas Mmm, quizas, quizas Quizas, quizas, quizas, la la la la</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>What Happen! OOUU! OOUU! I Love You Benji Its Ty Balla! Balla Brothers, The Movement! We Stuck Starring In The Past That We Wished Was Our Present Not Realizing We Missing The Messages Girl Your Heart Is My Home Like Its The Residents And Honestly Its Your Beauty Your Intelligence I Never Met No One Like You I Know You Heard All That Before Thinking Of So Many Ways I Could Show You Off You might also likeWe Reminiscing, Look At The Stars! Trust Me 1-Day, We Gone Get Ours I Wanna Wake Up To Your Face In The Mornings YEAH! You Like The Way I Put My Fingers All Through Your Hair YEAH! Its No Tomorrow! Last Night We Made Love In The Taho A lot Of Things Change, Baby Yeah I Know I Know But How Low Can You Go!? I Wanna Dive In Your Sunken Place I Aint Talking About Pot Holes YEAH YEAH! Cause Baby Its Your Essence! OOUU! I Dont Know What It Is But You A Blessing YOU A BLESSING! I Was Thinking Loud But You Got Me Rolling YOU GOT ME ROLLING! Shorty You Enjoying The Moment OOUU! Im Just In The Moment Enjoying You! ENJOYING YOU! Now I Dont Know What To Do KNOW WHAT TO DO! But Im Glad Its Just Me You JUST ME YOU! YEAH YEAH! You A Gorgeous Wreck HMM! Even On Your Worst Days You The Best OOUU! OOUU! I Gotta Get This Off My Chest I Wanna Say Next Baby You My Beautiful Mess! YEAH YEAH! Girl You My Beautiful Mess! YEAH YEAH! HMM! My Beautiful Mess! My Love For You Is Like Going Rogue Yeah Its A High Speed Chase! Girl Its Me In The Flesh Vain From A LBJ X A ThrowAway I Really Noticed I Need To Show It Was Moral Change! Shorty I Swear I Think About You All Night Day And Every Line About You Was Written In Tye-Kay So Over The Years I Learned I Had To Stay In My Lanes UH! They Always Pocket Watching Like They Some Weirdos YEAH! She Be Screaming That's My ManMan Like Dinero YEAH! Shorty You Could Forgive But Don't Let Go Hardheaded When She Just Wanna Be Hard To Handle! I Heard They Like It When I Rap Like This She Said I Aint Know You Could Sing On A Track Like This! You Aint Know I Can Blow You Out Your Back Like This! Got Our Future Planned Out She Wanna Have My Kids Cause Baby Its Your Essence! OOUU! I Dont Know What It Is But You A Blessing YOU A BLESSING! I Was Thinking Loud But You Got Me Rolling YOU GOT ME ROLLING! Shorty You Enjoying The Moment OOUU! Im Just In The Moment Enjoying You! ENJOYING YOU! Now I Dont Know What To Do KNOW WHAT TO DO! But Im Glad Its Just Me You JUST ME YOU! YEAH YEAH! You A Gorgeous Wreck HMM! Even On Your Worst Days You The Best OOUU! OOUU! I Gotta Get This Off My Chest I Wanna Say Next Baby You My Beautiful Mess! YEAH YEAH! Girl You My Beautiful Mess! YEAH YEAH! HMM! My Beautiful Mess!</t>
+          <t>What Happen! OOUU! OOUU! I Love You Benji Its Ty Balla! Balla Brothers, The Movement! We Stuck Starring In The Past That We Wished Was Our Present Not Realizing We Missing The Messages Girl Your Heart Is My Home Like Its The Residents And Honestly Its Your Beauty Your Intelligence I Never Met No One Like You I Know You Heard All That Before Thinking Of So Many Ways I Could Show You Off We Reminiscing, Look At The Stars! Trust Me 1-Day, We Gone Get Ours I Wanna Wake Up To Your Face In The Mornings YEAH! You Like The Way I Put My Fingers All Through Your Hair YEAH! Its No Tomorrow! Last Night We Made Love In The Taho A lot Of Things Change, Baby Yeah I Know I Know But How Low Can You Go!? I Wanna Dive In Your Sunken Place I Aint Talking About Pot Holes YEAH YEAH! Cause Baby Its Your Essence! OOUU! I Dont Know What It Is But You A Blessing YOU A BLESSING! I Was Thinking Loud But You Got Me Rolling YOU GOT ME ROLLING! Shorty You Enjoying The Moment OOUU! Im Just In The Moment Enjoying You! ENJOYING YOU! Now I Dont Know What To Do KNOW WHAT TO DO! But Im Glad Its Just Me You JUST ME YOU! YEAH YEAH! You A Gorgeous Wreck HMM! Even On Your Worst Days You The Best OOUU! OOUU! I Gotta Get This Off My Chest I Wanna Say Next Baby You My Beautiful Mess! YEAH YEAH! Girl You My Beautiful Mess! YEAH YEAH! HMM! My Beautiful Mess! My Love For You Is Like Going Rogue Yeah Its A High Speed Chase! Girl Its Me In The Flesh Vain From A LBJ X A ThrowAway I Really Noticed I Need To Show It Was Moral Change! Shorty I Swear I Think About You All Night Day And Every Line About You Was Written In Tye-Kay So Over The Years I Learned I Had To Stay In My Lanes UH! They Always Pocket Watching Like They Some Weirdos YEAH! She Be Screaming That's My ManMan Like Dinero YEAH! Shorty You Could Forgive But Don't Let Go Hardheaded When She Just Wanna Be Hard To Handle! I Heard They Like It When I Rap Like This She Said I Aint Know You Could Sing On A Track Like This! You Aint Know I Can Blow You Out Your Back Like This! Got Our Future Planned Out She Wanna Have My Kids Cause Baby Its Your Essence! OOUU! I Dont Know What It Is But You A Blessing YOU A BLESSING! I Was Thinking Loud But You Got Me Rolling YOU GOT ME ROLLING! Shorty You Enjoying The Moment OOUU! Im Just In The Moment Enjoying You! ENJOYING YOU! Now I Dont Know What To Do KNOW WHAT TO DO! But Im Glad Its Just Me You JUST ME YOU! YEAH YEAH! You A Gorgeous Wreck HMM! Even On Your Worst Days You The Best OOUU! OOUU! I Gotta Get This Off My Chest I Wanna Say Next Baby You My Beautiful Mess! YEAH YEAH! Girl You My Beautiful Mess! YEAH YEAH! HMM! My Beautiful Mess!</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>...written a little tune, he thinks it has possibilities if it's properly arranged I'm to help you arrange it Well he said thathe told you that I was the greatest arranger in America and I should give you a few lessons Oh well, my friend, he's right, there's only one catch I've given up arranging I'm through dressing up silly little tunes for girls shows and beer halls I'm gonna write some real music for a change Momma call me selfish It's a good thing I be handsome Quick to call the Uber, getting moody, throw a tantrum Summrtime maneuvers, doing stupid shit in sandals Summrtime illusions, doing shit to get me cancelled Deep breath, gasp Bitch, don't make me amped up If money grow on trees, well it do and I have some Count it by the twos, playing blues and some jazz songs Desert haikus, I grew outta sandstorms I don't feel the pressure, but the pressure tryna catcall Deception in they ethic, I'm an optimist, I transform Seven steps of severance between me and seven fast cars Electric or unleaded, either way it cost a leg and arm Shh, vroom You might also likeBuying things for women, tried to tell that girl to wait it out Now I'm finally winning, stacking chips inside my bank account Now I be pertinent, now they love to go and chant loud Now I'm finally trending, make a million off of rap songs Ha ha ha But like off the record, ion really like to brag about it Humble, humble, humble, watch it, watch it, they all mad about it Watch the men who crumble They all fumbled baguette after baguette Baggage undercover Me, I love to live and laugh about it Blaka, Blaka What the fuck you doin' standin' there Daily meditation, medicated, with a manicure Pause our conversation boy, I'm late to blast up outta here As-salmu alaykum Let her pay the check and hope it clear Feel the vibe, feel the wind Feeling free to pretend Feel alive, I realize We all die in the end Criticized, imatized Really, I need a friend Been on trial, in denial Like my mind's a prison Simmer down, simmer down The show now will begin Running 'round my hometown Feeling wild, feeling mint Tell myself, I'll be fine if I just dial in Who said life was a vibe? It was me bitch, I did Ohh, shit Alright, alright, look The three of us gonna have to learn to get along, bro, if we're gonna do this shit Brrt brrt, Storybook life Okay look, can y'allcan y'all just give me one second Ay, shut the fuck up If we fucking work together shut the fuck up, bitch we ca Hey, I got something to say Alright, alright that's fine, don't listen to me Brrt Ahhhhh If a picture worth a thousand word Then bitch I'm worth a hundred flicks My partner call me Benjamin Ya partner call ya counterfeit 5 blunts on a Tuesday Watch a movie that I'm acting in I got two accountants, dawg my tax's 32 I been around the world, my mama worried imma lose this shit Started drinking bourbon to subdue the stoop and soothe the kid I usually never do this, they don't look like you though usually It's cool girl, I'm the smoothest dude that's grooving, come and groove with me You say what? Welcome, welcome, welcome, welcome... Welcome to the storybook life</t>
+          <t>...written a little tune, he thinks it has possibilities if it's properly arranged I'm to help you arrange it Well he said thathe told you that I was the greatest arranger in America and I should give you a few lessons Oh well, my friend, he's right, there's only one catch I've given up arranging I'm through dressing up silly little tunes for girls shows and beer halls I'm gonna write some real music for a change Momma call me selfish It's a good thing I be handsome Quick to call the Uber, getting moody, throw a tantrum Summrtime maneuvers, doing stupid shit in sandals Summrtime illusions, doing shit to get me cancelled Deep breath, gasp Bitch, don't make me amped up If money grow on trees, well it do and I have some Count it by the twos, playing blues and some jazz songs Desert haikus, I grew outta sandstorms I don't feel the pressure, but the pressure tryna catcall Deception in they ethic, I'm an optimist, I transform Seven steps of severance between me and seven fast cars Electric or unleaded, either way it cost a leg and arm Shh, vroom Buying things for women, tried to tell that girl to wait it out Now I'm finally winning, stacking chips inside my bank account Now I be pertinent, now they love to go and chant loud Now I'm finally trending, make a million off of rap songs Ha ha ha But like off the record, ion really like to brag about it Humble, humble, humble, watch it, watch it, they all mad about it Watch the men who crumble They all fumbled baguette after baguette Baggage undercover Me, I love to live and laugh about it Blaka, Blaka What the fuck you doin' standin' there Daily meditation, medicated, with a manicure Pause our conversation boy, I'm late to blast up outta here As-salmu alaykum Let her pay the check and hope it clear Feel the vibe, feel the wind Feeling free to pretend Feel alive, I realize We all die in the end Criticized, imatized Really, I need a friend Been on trial, in denial Like my mind's a prison Simmer down, simmer down The show now will begin Running 'round my hometown Feeling wild, feeling mint Tell myself, I'll be fine if I just dial in Who said life was a vibe? It was me bitch, I did Ohh, shit Alright, alright, look The three of us gonna have to learn to get along, bro, if we're gonna do this shit Brrt brrt, Storybook life Okay look, can y'allcan y'all just give me one second Ay, shut the fuck up If we fucking work together shut the fuck up, bitch we ca Hey, I got something to say Alright, alright that's fine, don't listen to me Brrt Ahhhhh If a picture worth a thousand word Then bitch I'm worth a hundred flicks My partner call me Benjamin Ya partner call ya counterfeit 5 blunts on a Tuesday Watch a movie that I'm acting in I got two accountants, dawg my tax's 32 I been around the world, my mama worried imma lose this shit Started drinking bourbon to subdue the stoop and soothe the kid I usually never do this, they don't look like you though usually It's cool girl, I'm the smoothest dude that's grooving, come and groove with me You say what? Welcome, welcome, welcome, welcome... Welcome to the storybook life</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PART 1 PARØSE P-A-RØSE, Clap, Dikka, das ist Gangshit zwei. Habe die Grillz in der Fresse, doch licke die Pussys im Bett nach dem Candlelight. UH! Ich geb ein Fick auf dein Werdegang. Dikka die Clit deiner dreckigen Tochter ist breiter als ich nach nem Doublecup Lean oder meinem so riesigen Pferdeschwanz. Jeder Rapper auf der Welt hat es doch sicherlich erkannt, Jede Nutte die mich dissen will Hat sich an mir verbrannt. Viele Leute heutzutage sind nur Gimpel oder Punks, Deshalb fick ich sie mit Mucke, diese Ficker haben Angst. YTL fickt den Müttern fett in den Arsch, Mark my words you faggot Bald gehen wir mit Tracks in die Charts. Jeder der heute rappt, möchte nur Geld und mit Fame dann auch irgendwann G sein. JA! Schwören auf Gott, dass so keiner ist, also was eigenes, aber sie tragen dann Levis. Y-T-L, P-A-RØSE, Dikka so viele Shows, Keep the realness for street of coke, Fuck in the backyard we need some hoes. AY! Ich bete zu Gott, bitte schick mir den Leancup auf Erden. SKURRR Sonst werde ich pissig und werde auf Rapper mit Viehkacke werfen. You might also likeLebe mein Leben mit Sprite Vibes! UH! Lean in den Cup und das zeitgleich! UH! Tanke den Stoff sowie Bleifrei! UH! Dago und Fokus die Einheit! UH! BRIDGE Dago und Fokus sind Ficker, Together we sippin the Sizzurp. Fuck all these gangs in the city Dago und Fokus sind Killer. x2 HOOK Renn, Renn! Beweg dich du Fotze und leg dich nicht an mit der Gang-GANG! Kipp noch was nach, denn wir brauchen das Purple zum Drank! DRANK! Es wird langsam Zeit, dass die Masse uns feiert und kennt! KENNT! Leg dich nicht an mit der GANG! FOTZE! X2 PART 2 NEELIX Louis V slingbag und Roli am glänzen Neelix und Parøse 2 junge Legenden Gebe kein fick lila Substanz im Cup Sip weiter mein Becher bis alles hier klappt 500k in der goyard Die Krone ist mein und ich verschütt das lean Ein sip für die Legenden Und noch einen sip für die Gs We pull up das ist gangshit Mit ner Cash cannon voll benjis X6 oder Benz Jeep Junge Fick nich mit der Family Fick nich mit dem squad Nacken brechen bei dem drop Meine scheisse is on top Und Dein letztes Release n Flop Neelix Parøse ficken seit gangshit das Game wie Marc Anthony jlo Fuck it man ich bin im beastmode Und gebe meine Liebe nur der Street hoe Pass auf den jetzt komm wir beiden Flowmonster doch hab mehr Technik als die meisten Sitz in meim Zimmer alleine Check meine Ap Geh nie wieder pleite Geh nie wieder pleite Noch immer fick ich Adriana Lima Parøse brudi komm und pass mir die cohiba Nur jetzt hab ich auch noch Geld auf der visa Und groupie Fan Girls wie ein Fußballspieler Volume auf 100 im Beamer X6 bitch viva la vida Kiff kiff nur pur spliff sativa Fokus dmg nh Andre liga Aye Ketten um Hals und Gold um die Zähne Halt die die Waffe gegen deine Schlefe Voll Leaned out kommen wir in die scene Immer chillig nehmen dir trotzdem wenn du bellst deine ehre BRIDGE NEELIX PARØSE Dago und Fokus sind Ficker, Together we sippin the Sizzurp. Fuck all these gangs in the city Dago und Fokus sind Killer. x2 HOOK NEELIXPARØSE Renn, Renn! Beweg dich du Fotze und leg dich nicht an mit der Gang-GANG! Kipp mir noch was nach, denn wir brauchen das Purple zum Drank! DRANK! Es wird langsam Zeit, dass die Masse uns feiert und kennt! KENNT! Leg dich nicht an mit der GANG! FOTZE! X2</t>
+          <t>PART 1 PARØSE P-A-RØSE, Clap, Dikka, das ist Gangshit zwei. Habe die Grillz in der Fresse, doch licke die Pussys im Bett nach dem Candlelight. UH! Ich geb ein Fick auf dein Werdegang. Dikka die Clit deiner dreckigen Tochter ist breiter als ich nach nem Doublecup Lean oder meinem so riesigen Pferdeschwanz. Jeder Rapper auf der Welt hat es doch sicherlich erkannt, Jede Nutte die mich dissen will Hat sich an mir verbrannt. Viele Leute heutzutage sind nur Gimpel oder Punks, Deshalb fick ich sie mit Mucke, diese Ficker haben Angst. YTL fickt den Müttern fett in den Arsch, Mark my words you faggot Bald gehen wir mit Tracks in die Charts. Jeder der heute rappt, möchte nur Geld und mit Fame dann auch irgendwann G sein. JA! Schwören auf Gott, dass so keiner ist, also was eigenes, aber sie tragen dann Levis. Y-T-L, P-A-RØSE, Dikka so viele Shows, Keep the realness for street of coke, Fuck in the backyard we need some hoes. AY! Ich bete zu Gott, bitte schick mir den Leancup auf Erden. SKURRR Sonst werde ich pissig und werde auf Rapper mit Viehkacke werfen. Lebe mein Leben mit Sprite Vibes! UH! Lean in den Cup und das zeitgleich! UH! Tanke den Stoff sowie Bleifrei! UH! Dago und Fokus die Einheit! UH! BRIDGE Dago und Fokus sind Ficker, Together we sippin the Sizzurp. Fuck all these gangs in the city Dago und Fokus sind Killer. x2 HOOK Renn, Renn! Beweg dich du Fotze und leg dich nicht an mit der Gang-GANG! Kipp noch was nach, denn wir brauchen das Purple zum Drank! DRANK! Es wird langsam Zeit, dass die Masse uns feiert und kennt! KENNT! Leg dich nicht an mit der GANG! FOTZE! X2 PART 2 NEELIX Louis V slingbag und Roli am glänzen Neelix und Parøse 2 junge Legenden Gebe kein fick lila Substanz im Cup Sip weiter mein Becher bis alles hier klappt 500k in der goyard Die Krone ist mein und ich verschütt das lean Ein sip für die Legenden Und noch einen sip für die Gs We pull up das ist gangshit Mit ner Cash cannon voll benjis X6 oder Benz Jeep Junge Fick nich mit der Family Fick nich mit dem squad Nacken brechen bei dem drop Meine scheisse is on top Und Dein letztes Release n Flop Neelix Parøse ficken seit gangshit das Game wie Marc Anthony jlo Fuck it man ich bin im beastmode Und gebe meine Liebe nur der Street hoe Pass auf den jetzt komm wir beiden Flowmonster doch hab mehr Technik als die meisten Sitz in meim Zimmer alleine Check meine Ap Geh nie wieder pleite Geh nie wieder pleite Noch immer fick ich Adriana Lima Parøse brudi komm und pass mir die cohiba Nur jetzt hab ich auch noch Geld auf der visa Und groupie Fan Girls wie ein Fußballspieler Volume auf 100 im Beamer X6 bitch viva la vida Kiff kiff nur pur spliff sativa Fokus dmg nh Andre liga Aye Ketten um Hals und Gold um die Zähne Halt die die Waffe gegen deine Schlefe Voll Leaned out kommen wir in die scene Immer chillig nehmen dir trotzdem wenn du bellst deine ehre BRIDGE NEELIX PARØSE Dago und Fokus sind Ficker, Together we sippin the Sizzurp. Fuck all these gangs in the city Dago und Fokus sind Killer. x2 HOOK NEELIXPARØSE Renn, Renn! Beweg dich du Fotze und leg dich nicht an mit der Gang-GANG! Kipp mir noch was nach, denn wir brauchen das Purple zum Drank! DRANK! Es wird langsam Zeit, dass die Masse uns feiert und kennt! KENNT! Leg dich nicht an mit der GANG! FOTZE! X2</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>I want the fame, I want the money, I want the love, I want it all... She got dreams of a million I got dreams wit no ceilings The sky ain't the limit imma need about a billion Bitch I gotta touch money like, Oh, What a feelin' Union Money Gang these niggas Know we finna make a killin' She got dreams of a million I got dreams wit no ceilings The sky ain't the limit imma need about a billion Bitch I gotta touch money like, Oh, What a feelin' Union Money Gang these bitches Know we finna make a killin' She my bottom bitch, lady and a tramp She suck a couple dicks, she get my latest stamp She do what daddy say, she never make demands She just tryna feed her seed, she gon take the chance For her daughter she gon make the choice She never fuck for free, the paper make her moist I tell the bitch to shoot a bundle just to keep her poise Daddy do the talkin for you baby save your voice I keep it simple wit the pimpin I'm like a god to her, say whatever and she listened She believe in me, say that money's her religion Cuz we marathon running and she down to go the distance She a rider... I know it's wrong but we past that Still chasing after money we ain't grasp yet Yea that's my bitch, you can smash that Don't be surprised if she ask where the cash at You might also like You are not fuckin wit a loser, ball hard like an Indiana Hoosier Eric Gordon, what I make make it's not important But sooner, than later getting paper no bullshit Like Derrick Rose or da bul Boozer.. ya feel me Work harder than a Mexican, but spend like a white man I'm scheming like a African, make plays like a tight end Got my shorty at my right, and she got dreams of a million I tell her I need them Benjamins to stack up pass the ceiling What's a dream without action, couple niggas wit me packin They tell me to stick to rappin, but show up like nigga what's happening And you ain't fucking wit no ordinary nigga, that want ordinary figures Don't want ordinary bitches, extraordinary riches Lowkey they only see me if you takin pictures I gave that wedding ring to paper it could never fit ya And if you can't fuck wit that then imma fuckin miss ya Ya coming second if I'm fuckin wit ya 1</t>
+          <t>I want the fame, I want the money, I want the love, I want it all... She got dreams of a million I got dreams wit no ceilings The sky ain't the limit imma need about a billion Bitch I gotta touch money like, Oh, What a feelin' Union Money Gang these niggas Know we finna make a killin' She got dreams of a million I got dreams wit no ceilings The sky ain't the limit imma need about a billion Bitch I gotta touch money like, Oh, What a feelin' Union Money Gang these bitches Know we finna make a killin' She my bottom bitch, lady and a tramp She suck a couple dicks, she get my latest stamp She do what daddy say, she never make demands She just tryna feed her seed, she gon take the chance For her daughter she gon make the choice She never fuck for free, the paper make her moist I tell the bitch to shoot a bundle just to keep her poise Daddy do the talkin for you baby save your voice I keep it simple wit the pimpin I'm like a god to her, say whatever and she listened She believe in me, say that money's her religion Cuz we marathon running and she down to go the distance She a rider... I know it's wrong but we past that Still chasing after money we ain't grasp yet Yea that's my bitch, you can smash that Don't be surprised if she ask where the cash at You are not fuckin wit a loser, ball hard like an Indiana Hoosier Eric Gordon, what I make make it's not important But sooner, than later getting paper no bullshit Like Derrick Rose or da bul Boozer.. ya feel me Work harder than a Mexican, but spend like a white man I'm scheming like a African, make plays like a tight end Got my shorty at my right, and she got dreams of a million I tell her I need them Benjamins to stack up pass the ceiling What's a dream without action, couple niggas wit me packin They tell me to stick to rappin, but show up like nigga what's happening And you ain't fucking wit no ordinary nigga, that want ordinary figures Don't want ordinary bitches, extraordinary riches Lowkey they only see me if you takin pictures I gave that wedding ring to paper it could never fit ya And if you can't fuck wit that then imma fuckin miss ya Ya coming second if I'm fuckin wit ya 1</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Amor, amor, my love This word so sweet That I repeat Means I adore you Amor, amor, my love Would you deny This heart that I Have placed before you? I can't find another word with meaning so clear My lips try to whisper sweeter things in your ear But somehow or other nothing sounds quite so dear As this soft caressing word I know Amor, amor, my love When you're away There is no day And I know that nights are lonely Amor, amor, my love Make life divine Say you'll be mine And love me only Amor, amor, my love When you're away There is no day And I know that nights are lonely You might also likeAmor, amor, my love Make life divine Say you'll be mine And love me only Amor, amor, amor Amor</t>
+          <t>Amor, amor, my love This word so sweet That I repeat Means I adore you Amor, amor, my love Would you deny This heart that I Have placed before you? I can't find another word with meaning so clear My lips try to whisper sweeter things in your ear But somehow or other nothing sounds quite so dear As this soft caressing word I know Amor, amor, my love When you're away There is no day And I know that nights are lonely Amor, amor, my love Make life divine Say you'll be mine And love me only Amor, amor, my love When you're away There is no day And I know that nights are lonely Amor, amor, my love Make life divine Say you'll be mine And love me only Amor, amor, amor Amor</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Broadway, you never shine a light on me I may never live to see my name in lights on a Carnegie Hall marquee Oh, but that's alright Lord, that's alright with me I'm as happy, happy as a man can be Folks in New York may never know my name I may not win that music Hall of Fame Music Hall of Fame Gonna keep on singing my song just the same If I don't make it there, I won't be ashamed 'Cause I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...got to say, oh no Oh no Hollywood, Hollywood Hollywood will never be my style But I know I'm good, oh yeah, not just alright City lights, city lights City lights may never shine for me I may never make it to the top, no, win myself a Grammy Folks in New York may never know my name I may not win that music Hall of Fame Music Hall of Fame But I'm gonna keep on singing my song, whew baby, just the same If I never make it there I won't feel ashamed You might also like 'Cause I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, sugar, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...what they got to say, oh no Oh no Think I'm gonna make it funky Feel like getting down, y'all Think I wanna make it funky Feel like getting down, yeah Blow your horn Yeah, it's alright Well, go blow your horn They say it's alright Feel the music Feel the music I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...I don't care what they got to say, ah nah I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, sugar, that'll be okay Keep on shining I don't care what the folks in Hollywood got to say I'm a star in the ghetto I don't care anyway, ah no I'm star I'm a star in the ghetto and I'm shining, and I'm shining I'm a star I'm a star in the ghetto Yes, I am, yeah, yeah Keep on shining I'm a star in the ghetto If I never make Broadway, that'll be okay If I never make it to Broadway... Keep on shining, keep on shining...said that will be okay People in New York City, ah, they don't bother me... Keep on shining, keep on shining...not at all, not at all I'm gonna make it the top Keep on shining, keep on shining Among the distant stars, alright Keep on shining, keep on shining Sugar, it's alright I'm a star in the ghetto Keep on shining, keep on shining I'm a star in the ghetto</t>
+          <t>Broadway, you never shine a light on me I may never live to see my name in lights on a Carnegie Hall marquee Oh, but that's alright Lord, that's alright with me I'm as happy, happy as a man can be Folks in New York may never know my name I may not win that music Hall of Fame Music Hall of Fame Gonna keep on singing my song just the same If I don't make it there, I won't be ashamed 'Cause I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...got to say, oh no Oh no Hollywood, Hollywood Hollywood will never be my style But I know I'm good, oh yeah, not just alright City lights, city lights City lights may never shine for me I may never make it to the top, no, win myself a Grammy Folks in New York may never know my name I may not win that music Hall of Fame Music Hall of Fame But I'm gonna keep on singing my song, whew baby, just the same If I never make it there I won't feel ashamed 'Cause I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, sugar, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...what they got to say, oh no Oh no Think I'm gonna make it funky Feel like getting down, y'all Think I wanna make it funky Feel like getting down, yeah Blow your horn Yeah, it's alright Well, go blow your horn They say it's alright Feel the music Feel the music I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...I don't care what they got to say, ah nah I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, sugar, that'll be okay Keep on shining I don't care what the folks in Hollywood got to say I'm a star in the ghetto I don't care anyway, ah no I'm star I'm a star in the ghetto and I'm shining, and I'm shining I'm a star I'm a star in the ghetto Yes, I am, yeah, yeah Keep on shining I'm a star in the ghetto If I never make Broadway, that'll be okay If I never make it to Broadway... Keep on shining, keep on shining...said that will be okay People in New York City, ah, they don't bother me... Keep on shining, keep on shining...not at all, not at all I'm gonna make it the top Keep on shining, keep on shining Among the distant stars, alright Keep on shining, keep on shining Sugar, it's alright I'm a star in the ghetto Keep on shining, keep on shining I'm a star in the ghetto</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>At last my love has come along My lonely days are over And life is like a song Mhm, mhm At last the skies above are blue My heart was wrapped in clover The night that I looked at you I found a dream that I can speak to A dream that I can call my own I found a thrill to press my cheek to A thrill I've never known Mhm And you smiled, you smiled, you smiled, you smiled Mhm I said then the spell was cast And here we are, here we are in our heaven For you are mine at last Mhm For you are mine, baby For you are mine at last You might also like</t>
+          <t>At last my love has come along My lonely days are over And life is like a song Mhm, mhm At last the skies above are blue My heart was wrapped in clover The night that I looked at you I found a dream that I can speak to A dream that I can call my own I found a thrill to press my cheek to A thrill I've never known Mhm And you smiled, you smiled, you smiled, you smiled Mhm I said then the spell was cast And here we are, here we are in our heaven For you are mine at last Mhm For you are mine, baby For you are mine at last</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Heb alles om me heen gefilterd, loop nu bijna alleen Album af, maar ga pas vieren als we landen op 1 Mensen houden veel van liegen, ik kijk dwars door ze heen Heb je overal problemen, ben je zelf het probleem, huh Normen, waarden en principes, blijf niet liggen als ik val, ookal hebben ze niets liever Een lach op mijn gezicht, maar ik heb ook verdriet in me Wil gewoon me team zien winnen, ik hoef niets minder Liet muziek veel te lang links liggen, maar ben veranderd Lag te slapen in de klas, wist van mezelf dat ik anders was Had een plan, maar volgens mij was dat plan te zwak Nu zijn ze verbaasd, ik zeg ze, Wat had je dan verwacht? Ben nog steeds, op dreef, ben al zo lang bezig zit te denken aan stoppen soms Na regen komt zon, maar zag toch veel dagen zonder zon Me hele team is fam, ik hou die pap liever onder ons, Ramzi Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen You might also like Ik stap in de booth met Yeezy's, ik voel me Kanye Op veld net als Mane, die mannen hebben niks op me Dit is 34 euro per gram, daarna stunten met de winst, kleine bradda, ik ga iets shoppen Ik zit effe in de stress, maar geen stress, dit is niets nieuws, ik doe dit al te lang Je bitch deed al te hype toen dat ze hoorde dat ik kwam Van hoodfame naar shows gaan doen door heel het land Zoveel zeiden dat ik niet kon, afgeleid door beautiful girls net Sean Kingston Bradda, kijk, ik win dom, sinds ik in de scene kom ben ik geen Freddie Konings meer, maar Winston Bro, ik ben een pakje Marlboro, jullie zijn Winston Die chick weet ik bepaal wat er gebeurd, noem me Kim Yung Real gebleven van begin tot het einde Van de hoek naar een hook, maar refreinen Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen</t>
+          <t>Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Heb alles om me heen gefilterd, loop nu bijna alleen Album af, maar ga pas vieren als we landen op 1 Mensen houden veel van liegen, ik kijk dwars door ze heen Heb je overal problemen, ben je zelf het probleem, huh Normen, waarden en principes, blijf niet liggen als ik val, ookal hebben ze niets liever Een lach op mijn gezicht, maar ik heb ook verdriet in me Wil gewoon me team zien winnen, ik hoef niets minder Liet muziek veel te lang links liggen, maar ben veranderd Lag te slapen in de klas, wist van mezelf dat ik anders was Had een plan, maar volgens mij was dat plan te zwak Nu zijn ze verbaasd, ik zeg ze, Wat had je dan verwacht? Ben nog steeds, op dreef, ben al zo lang bezig zit te denken aan stoppen soms Na regen komt zon, maar zag toch veel dagen zonder zon Me hele team is fam, ik hou die pap liever onder ons, Ramzi Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Ik stap in de booth met Yeezy's, ik voel me Kanye Op veld net als Mane, die mannen hebben niks op me Dit is 34 euro per gram, daarna stunten met de winst, kleine bradda, ik ga iets shoppen Ik zit effe in de stress, maar geen stress, dit is niets nieuws, ik doe dit al te lang Je bitch deed al te hype toen dat ze hoorde dat ik kwam Van hoodfame naar shows gaan doen door heel het land Zoveel zeiden dat ik niet kon, afgeleid door beautiful girls net Sean Kingston Bradda, kijk, ik win dom, sinds ik in de scene kom ben ik geen Freddie Konings meer, maar Winston Bro, ik ben een pakje Marlboro, jullie zijn Winston Die chick weet ik bepaal wat er gebeurd, noem me Kim Yung Real gebleven van begin tot het einde Van de hoek naar een hook, maar refreinen Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Heb alles om me heen gefilterd, loop nu bijna alleen Album af, maar ga pas vieren als we landen op 1 Mensen houden veel van liegen, ik kijk dwars door ze heen Heb je overal problemen, ben je zelf het probleem, huh Normen, waarden en principes, blijf niet liggen als ik val, ookal hebben ze niets liever Een lach op mijn gezicht, maar ik heb ook verdriet in me Wil gewoon me team zien winnen, ik hoef niets minder Liet muziek veel te lang links liggen, maar ben veranderd Lag te slapen in de klas, wist van mezelf dat ik anders was Had een plan, maar volgens mij was dat plan te zwak Nu zijn ze verbaasd, ik zeg ze, Wat had je dan verwacht? Ben nog steeds, op dreef, ben al zo lang bezig zit te denken aan stoppen soms Na regen komt zon, maar zag toch veel dagen zonder zon Me hele team is fam, ik hou die pap liever onder ons, Ramzi Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen You might also like Ik stap in de booth met Yeezy's, ik voel me Kanye Op veld net als Mane, die mannen hebben niks op me Dit is 34 euro per gram, daarna stunten met de winst, kleine bradda, ik ga iets shoppen Ik zit effe in de stress, maar geen stress, dit is niets nieuws, ik doe dit al te lang Je bitch deed al te hype toen dat ze hoorde dat ik kwam Van hoodfame naar shows gaan doen door heel het land Zoveel zeiden dat ik niet kon, afgeleid door beautiful girls net Sean Kingston Bradda, kijk, ik win dom, sinds ik in de scene kom ben ik geen Freddie Konings meer, maar Winston Bro, ik ben een pakje Marlboro, jullie zijn Winston Die chick weet ik bepaal wat er gebeurd, noem me Kim Yung Real gebleven van begin tot het einde Van de hoek naar een hook, maar refreinen Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen</t>
+          <t>Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Heb alles om me heen gefilterd, loop nu bijna alleen Album af, maar ga pas vieren als we landen op 1 Mensen houden veel van liegen, ik kijk dwars door ze heen Heb je overal problemen, ben je zelf het probleem, huh Normen, waarden en principes, blijf niet liggen als ik val, ookal hebben ze niets liever Een lach op mijn gezicht, maar ik heb ook verdriet in me Wil gewoon me team zien winnen, ik hoef niets minder Liet muziek veel te lang links liggen, maar ben veranderd Lag te slapen in de klas, wist van mezelf dat ik anders was Had een plan, maar volgens mij was dat plan te zwak Nu zijn ze verbaasd, ik zeg ze, Wat had je dan verwacht? Ben nog steeds, op dreef, ben al zo lang bezig zit te denken aan stoppen soms Na regen komt zon, maar zag toch veel dagen zonder zon Me hele team is fam, ik hou die pap liever onder ons, Ramzi Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Ik stap in de booth met Yeezy's, ik voel me Kanye Op veld net als Mane, die mannen hebben niks op me Dit is 34 euro per gram, daarna stunten met de winst, kleine bradda, ik ga iets shoppen Ik zit effe in de stress, maar geen stress, dit is niets nieuws, ik doe dit al te lang Je bitch deed al te hype toen dat ze hoorde dat ik kwam Van hoodfame naar shows gaan doen door heel het land Zoveel zeiden dat ik niet kon, afgeleid door beautiful girls net Sean Kingston Bradda, kijk, ik win dom, sinds ik in de scene kom ben ik geen Freddie Konings meer, maar Winston Bro, ik ben een pakje Marlboro, jullie zijn Winston Die chick weet ik bepaal wat er gebeurd, noem me Kim Yung Real gebleven van begin tot het einde Van de hoek naar een hook, maar refreinen Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Please, this shit's so fuckin' hard Helluva Beats Yeah, ayy, ayy Thirty-thousand words in a rap That's a first, and, in fact, that's the most in the world on a track Yeah, I've been searchin' the map For like any other person who could work it like that Do it perfectly slow and then perfectly fast I'm the only one that's out here, and I'm certain of that Play me a beat, it gets turned into ash If I play you a beat, it gets turned into trash Ayy, hold up, wait When I'm on the track, I make no mistakes I can do the shit for like thirty-thousand hours Fuck thirty-thousand words, I don't slow my breaks I go UK, then I make so many pounds Everybody think I'm overweight Gettin' bread, see me eatin' But I gotta go in, better hold my plate Ooh, ooh, gotta switch up I'm so godly, I'm the bishop Now these haters wanna link up My bars make them get the hiccups So I had to run it up real quick Freestyle, gotta do some real shit real quick Everything I do is real big 'Cause I gotta get the crowd to feel this, real lit, real shit Nowadays, they write me and I don't write it back See my future demons like a psychic and a psychopath Swear I'm drivin' down the road and I might'a crashed Do the dash, always movin', don't know where to find me at Hey, movin' on, gotta find a team Earnin' all my stripes like Camilla, but I'm lima beans All these rappers 'bout to get fucked like they Riley Reid I'm your teacher, so be quiet or I am assignin' seats Pioneer to the shit, Leif Eriksson I was even hunted, 2012, like I'm Jerry Lynn All these places got me sneezin', need a Claritin Until I fall off next year, I'ma be arrogant Yeah, I'm runnin' all this shit, run it up Yeah, you know that I be comin' up for a hun'ed bucks At the start, all I wanted was like thirty-thousand hits Got bored, add a couple zeroes for the shits Why not? Look what I got, look what I bought Camera is my true eye, I'm a side-clause Shoes, they go too high, only high-tops Fuck yeah, I'm the new guy, what am I on? Come in, Jaden Smith, I'm a motherfuckin' icon Boy, I'm too cold, I don't even have on my ice on Too lit, I don't even have the mic on And I'm too bright, I don't even have the lights on Better wait up Shit's too easy, like a layup And my bitch too entertainin' See the note, you gotta stay up Takin' bets on that I'll fail It's time to pay up Now you tryna hide your face I'm pretty sure that that ain't make-up, uh I'm droppin' hits and gettin' world records Who's your favorite artist, 'cause I'm sure better? Well, maybe not, but I tried, though Post Malone, I go psycho Leave you a stink, like a rhino 'Cause I rap beef, no gyro And I rhyme fast and I rhyme slow Turned my L's into W's typo Uh, hop into the track Give you the love and you give it right back Ten different flows I be spittin', some trap And some other shit get in it's get on the map Done this for like a year, and now, my writing's clear I've been gettin' respect, 'cause now I am here And I'm here to stay, did you hear me say I'm not here to play? He got a flow and a voice now I remember when he chokin' a boy out But he's back in, showin' no choice now Don't you know that he's gonna destroy now? So I'm gonna get there, and I know how Got these beats, I be blarin' 'em so loud When we talk about bitches and money, this shit is so funny My parents are so proud, damn I'm startin' to try Tryin' the shots at it, look at the ground and see stars in the sky Drawin' the line All of you rappers are dizzy, I can see the stars in your eyes You're probably high If you think that you compare to me, it must be part of the lines Copyin' guys You better send all those beats back to Future, like Marty McFly Thirty-thousand words on a track, lil' bitch Now these people turn my vid on and react, lil' bitch Know I got the clout, I got the stats, lil' bitch And you givin' me a headache, where's the Advil, bitch? But I'm doin' all I can, and I did it in the past-tense Makin' all this money up off of YouTube, off me AdSense Money up off of YouTube, off AdSense All of you are wack, that's a fact, I'ma rap then And I rap, huh, I'm a laptop Eminem holds the world record for Rap God 1.6K words Though, we already have that topped And we'll do it for another hour And I'm underrated and I'm underpowered My bars are so filthy, uh All of y'all need to take another shower For every fan, there's a hundred doubters And they let me know up in the comments But you know that we ain't done 'Cause I gotta talk my nonsense And I gotta keep it clean, uh Do exactly what my mom says And I know when they headed for the top And we still be makin' progress I can spit bars for nine months Then deliver you a new life Yeah, we eatin' in this bitch, uh All y'all better take a huge bite And I didn't even write that shit 'Cause I freestyle, you still like that shit See my video, press 'like' on it That subscribe button? Better wipe that shit I'm getting tired of this beat I think it's time to change it 'Cause I'll spaz on trap Old school boom-bap, you name it Think of that as a intro Now we get into the meat of it This some shit you didn't see comin' I don't give a fuck 'bout what you think of it! You might also like Heh, ayy! Ayy, ayy Uh, switch up Yeah, ayy, ayy, ayy Look out the window, see past it, but we're faintin' reflections You never laugh like you used to, you've got fainter expressions You headin' down the wrong path and they changin' directions Maybe don't mention 'bout how I made me your blessin' And lately, I question the shit that was taught to me I'm awkwardly stoppin' these conversations Hey, how long you waitin' till the day you wake up and thank God you made it? I don't like to dwell, but man, I gotta say it, don't like my songs, but you still gotta play it Don't like your road, just N.W.A., Dr. Dre it Stop contemplatin' and stop complainin' And recreate it, actually, don't recreate it, be creative Reached the place where you still vibe in that shit when we replay it Living a life of pain just to alleviate it When you haven't used nothing but distractions to really take it Yeah, maybe they'll change when they see we made it We headin' onto new platforms and leavin' the basics Uh, my creative process is making progress Despite my background, I haven't gotten to playin' lacrosse yet Don't you know we got a good thing goin'? I've been watchin' all these shows while I could be showin' I've been creeping up on the door, so dangerous You looking at statistics, while I figure how I'm changin' them I done learned so many things in my past life Now I don't give a single shit about the rap life That's nice, ain't it? That's nice to be given advice when I paint it Have twice much the fame, and I can't even comprehend that much in the future Hatin' the teacher, but you loving the tutor Enter the game, I'm a fuckin' intruder Stealin' these flows, man, I'm stuck as a looter Procrastinatin' 'cause my fucking computer No willpower, I'm just stuck as a loser Sittin' alone at 3 AM Chillin' on a late night is the weekday's friend Man, this shit is too wild, I must behave, Ben That's what the teachers are preachin' to me, but even when I'm on the top of this drop and they're rocking the world with confidence Accomplishments topplin' everyone and you try stoppin' it? -Obvious there's a problem, and solvin' it just ain't up to me Luckily, I've been trained to test the system, don't you fuck with me I hope you like my company, I hope you do appreciate it I hope that one day, you'll see we made it No, you cannot recreate it, all of this pain, I just alleviate it I'm just trying to find the mindset, grinding to be the greatest That is why I'm strivin', livin', tryin', I'm buyin' I'm givin' dignity, cryin', I'm winnin', but feel like dyin' I'm shining, I'm like a diamond, but I am dead on the inside Guessin' now we'll rest with this, but set it on my big mind And I'm in time -Workin' all my life, get that in line I'm tryna figure out, everyone get their pictures out Nobody's gonna live without this shit on the incline I'm on the incline, I'm on the incline Stay in your lane, you got your place and I'm in mine I'm on the incline, bitch, I'm on the incline Nobody can really understand how my shit climb Have I been livin' yet? Spendin' time on the internet I'm wastin', they hatin' it, I should be makin' it, aimin' for goals but takin' this shit instead I stay in bed, laughin' at stupid shit, ludicrous Who is this ten-year-old pregnant with two new kids? Why am I doing this? Why the fuck do I care? I don't, but I kinda do I don't know what I try to do, but whatever it is, I say, Bye, to you Hey, me, I lied to you! Don't realize? Well it's time you do You have no idea what I can do, when the skies are gray, you gotta find a blue You gotta try to do, something to put you into a new positive mindset Set headlines, go wreck lines, pass deadlines, leave lines dead I guess that I digress, and I digest the way I'm blessed Impressed after I'm pressed, you seek intent for what I said But I'm just gonna move on, get your groove on for my new song Do right, and you do wrong, got a big head, Jimmy Neutron You try to hate, well, get in line, just delivered some quick rhymes Some straight bars, we have came far, but we lookin' up on the incline Water break I got a lot to say It's been eleven minutes so far Actually, it hasn't, it's been shorter How can I have a believable meaning When all of you livin' in paradise, livin' in luxury Nobody seen it or greet it? But what if it's different? I mean, it's all seeming to be And it's in inconceivable dreaming I know it's so unbelievable, being Stuck in this rare unachievable feeling They givin' me something, I ended up leaving They givin' me nothing, I ended up grievin' No positive side, ended up seeing What life could be like from a different lead in Thank God for a cover zone So I know when and where to cross it All over the place I'm surprised I haven't lost it Yeah, ayy, and I'm feeling like I'm at the top, uh Livin' to the max now Yeah, that's how, and I'ma say it that loud I'm steppin' up, I never back down, more focused on my background And the music and how my rap sounds, speak up, cut the track down Go till the end, I don't back out, stuck in the trap, figure that out After, I'll do the math now, it's garbage, take the trash out But I'm here to stay till I pass out, blackout Okay, it's time to go fast So sit back and relax, and just maybe you'll get it About time, but maybe you're mad I said it You gon' pay attention, cash or credit? I have to let it go back a second I have some lyrics in the past that I have to edit Now we're back in the middle of the track and fed it Mix it up and if you talk, then, nah, forget it We moved on, walked past the exit Want you to come back and pass a message -Never pack bags and trash, you left it Kinda sucks that sometimes we have to end it Money, never am glad I spent it If I ever had told you I'm mad, I meant it If you ever feel bad or sad, accept it Think back to the track and the rap that Ben did Yeah, pretty obvious I'm killing it If this isn't my time, then maybe you need a syllabus I'm feelin' all the rhythm, you can tell that I am into this Voice is more powerful than a million instruments Suddenly, lyrics go demon, like it's somebody else People want me to grow because of you But I'm never going to level my endeavors to be better Than the people that never had trust in me Yeah, uh And I'm feeling like I'm at the top, yeah Livin' to the max now, uh Yeah, that's how, and I'ma say it that loud I'm stepping up, I never back down, more focused on background And the music and how my rap sounds Speak up, and they're messing with the track now People are tellin' me that I'm fallin' short Looking back at you when you're missing all the cash now And I'm mad at the fact that I'm not in my right mind Meant to be a half-decent rapper But I keep on saying all the wrong words at the right time Lookin' at yourself, you never know what you might find Lookin' at the sky in the middle of the nighttime I find so much life I wonder why I can't just find mine Got so many confusing questions So much knowledge, I can't use the lessons I'm emerging out with a new profession I'ma do the best with my new perfection And I'm doin' it I'm moving onto this future shit These hooligans are complete fools in that They just don't understand that I am through with it Improvin' it, I'm improvin' it I got my brain, and I'm usin' it And I'ma make it out alive when I'm playin' and takin' And makin' this cash, that I'm tearing these tools to bits You're clueless Ninety percent of y'all ignorant Keeping your minds oh-so limited Get off your high horse, because it is time to figure it out Seeming so close, I can picture it now Success in my drink, and I'm sippin' it now Envisioning deeper ambitions, and now I'ma get to it, that is what living's about Uh, God! Uh My voice is gone already, shit Alright, ayy, ayy, ayy Think I've got a consensus, bein' lost in the trenches Adolescent lessons expressin' God's job is to tempt us Makin' it hard to stay alive, it's so easy to die Makin' you hang your head low, but say, Reach for the skies Life is a walkin' contradiction, I see through its lies I'm just tryna tell the stories I've seen through its eyes I feel I'm forcing and feeding of off reasons to cry With all this fake deep bullshit, I'm too eager to try Yeah, everybody sendin' blessings in need of reply Tryna sell their own tears, for they bleedin', they dry Fuck your demons inside, I'm in need of the, Why? So I can summarize my life through my breathing and sigh Like, oh well, I can say that I tried Hopped into life and then I stayed for the ride So many beautiful faces, but they vacant inside And I'm just patiently waiting for the day I decide, damn This reminds me of days when I drive in L.A. I'm screamin', Hi to the sky up with a smile on my face Now I'm hidin' my face, I keep tryin' to trace All of the steps that I had taken to findin' my place Swept out to oceans so lonely, waves feel like an embrace And now I'm lookin' at my mic like it's sent as a prophet I used to be an atheist, but that turned me agnostic Recently, I've been wondering if I've fuckin' lost it See my friends from kindergarten go to rehab That's the type of shit that makes you think back To simpler times, blissfully ignorant minds Before reality could ground us, we would live in the skies And as a- and as a kid, I never thought I'd be bein' like this Nah Man, as a kid, I never thought this would even exist I felt elusive, intangible, just steam in the mist And now I'm wakin' up feelin' I ain't even this shit You only look at what you got once you see that it's lost And life's too gradual for me to believe in my sauce Don't understand rappers braggin', I got that paper on me Man, I got kids in schools who doin' presentations on me So what the fuck you really value tryin' to take that from me? To me, I'll take that over Rollies and makin' some money Rain or sunny, I'ma do this every day, I study And write these lyrics till my brain is fuzzy, damn Like Tyler, Creator tweets, I just capitalize These Romans tally up my hits with the capital 'I's This is a natural high I see it comin' from afar, I'm still actin' surprised, but I ain't mastered the skies I wrote this album so much passion, I actually cried They say 'cause I was never trappin', my rap is a lie They think 'cause I'm a awkward kid, I'm invalid As DJ Khaled's son receivin' a platinum plaque for bein' alive Threw out half of my album, it wasn't good enough Shit, I mean it still isn't good enough I'm like a active volcano, I know I could erupt But I guess I am not full enough, damn I swear, the higher you get, that's the lower you feel Man, that's more shit you gotta do, or you won't get a deal Man, that's more shit you gotta prove so they know that it's real Thirty seconds of listenin', thinkin' you know how I feel Yeah, said this a motherfucking thesis statement Yeah, came a long way, I cannot be complacent Every day I wake up stressed, I have to be the greatest And if not, then that's a day I truly feel I've wasted Most of the pressure on my shoulders is comin' from me So when I die, I know I left us with something to leave So when I wake up in the morning with something to see Yeah, I got so much shit that I'm wantin' to be Benny, Ben, Benjamin, Selena Gomez has said If you ready, come get it then, everyone is jealous- Many want to get friends with them just in case he is relevant Got iPhone camera lenses to get the Instagram evidence Yeah, I know I'm way too cocky But I'm workin', I'm figurin' it all out So when people say you can't, that makes you wanna get better That's benefit of the doubt I've been on the top of this, never droppin' the bottom It's opposite from the positives, got them from talkin' often And I'm locked in a pocket of all my thoughts, and they keep turnin' around Always stoppin' my songs 'cause they keep burnin' the sound, I'm like- Yeah, this is freedom of speech Tryna' murder all the people who be keepin' the peace Sacrifice your whole life 'cause you need a degree Opportunity in front of you, you need to achieve, I'm like- Nah, I'm just tryna find some clarity Apparently, it all has to do with popularity There will be obstacles, primarily, people blinded to What is carefully being prepared to me Sometimes you'll have hilarity, parody, and prosperity I'm askin' Hillary Clinton to marry me, powerful in the very least Giving you all of my money, but never see legacy every day that I'm meant to see Everyone here is impaired, it is so scary and menacing, but I know enemy 'Cause I go- uh, walking away, hopping block and what's often the case Shot in the face, gun locked and loaded, been off at the race, droppin' the bass Off of the place, brought in a way, predict what I will probably say And at the end of the day, you still talking to me, so obviously, let the audience say So let me explain this to those who came in, looking at the stages Seeing a white kid thinking he's famous, when they don't understand That I take risks and I make hits, from basic playlist to the greatest Entertaining the nation, be patient whilst waiting for me to break in -Re-energize, got lyrics to memorize Start an enterprise of better guys who cannot be successful and never try That's my dream job, bein' lazy, just sittin' With the TV on, they say that I'm bright like neon But I ain't takin' responsibility, pay me for havin' Limited ability with little humility But whatever I'm doin', it seems to be killin' me I'm unwillingly artistically fittin' into this history Tryna show you why I'm better, but none of you believe me Tryna win this gold and try hard, good game, gg You beat me, and now you see me in 3D, but you can't feel me Showin' up on your device, controloptiondelete Consider myself elite, measure myself in retweets I be talkin' way more chill so you can reach me Instead of pretendin' you understand what I am talkin' 'bout I'm the exhibit you kinda scared for, like a haunted house Tryna show you something instead of just sittin' on the couch I'll be honest now, I rarely- end up walkin' out Into reality, in normality actually happily Found myself doin' nothing, and you don't laugh at me, why? 'Cause, ideally, you would do the same thing Nothing 'cause for- a brain that is amazing Not complainin', but the best part of life is not even livin' it Love sleepin' and just usin' the internet But my time is limited, and I better figure this Before I'm slippin' this opportunity, out my fingertips And let me just tell you what I have came to do Tryna show you I can rap as fast as I'm able to Tryna show you I can hop in here, like a kangaroo And say some stupid metaphors and leave after I'm breakin' through And if a major record label is looking at me I'm a nice guy with bad teeth, got a nice eye for bad beats I can rap fast, and rap slow I may make mistakes but everyone, has, so I'm like MJ back when he had the afro Also, I'm not black, so... maybe not But before everyone gets angry, stop I'm that person, then people naturally hate me, block All the people who keep on going crazy off 'Cause I won't be making amazing songs in a mainstream, got A lot of prominent features, I'm a confident speaker With some dominant teachers I deserve to be a starter, but constantly on the bleachers I'm awfully small-achiever when I'm up on the spot, and eager They be fearin' this every time that they hearin' it To know that my lyrics have the precision to buildin' a pyramid So when you're nearin' this, please let me know When I'm standin' here frozen, please let it go Hear the metronome combined in the compilation To unlock super-stardom and move all across the nation But that is just a dream, and probably a combination Of a big ego and false encouragement on the way in But when I'm playin', just know it's all a big game I was tryna blow up- bang! Have a big name But when you think about it, it is all insane What can be created from chemicals in this brain But when you look at me, you lackin' respect When I'm crackin' my neck so that I can rap to my chest Has in a breath, some say that it's magic, I step Until I'm on the same stage, and you have it again But, but when you think about the hall-of-fame You think about how people used to sit and call you names And you check and wonder if it will be all the same Step back into reality, it all remains, damn Alright, I just spilled water on my computer right now On my computer-'s breaking while I'm doing this thirty-thousands words shit Hold on, uh Goddamn it My lyrics are not showing up on the screen, you knowin' just what I mean This is off the top, I don't need to use no machines Hold up, I know I can freestyle, but I can't do it forever But I am very clever, okay, okay I'm gonna take a drink, if you're watchin' this, take a drink too These are some shit' that you can drink to But drink water unless you're of age You know what I'm sayin'? Ayy Okay, okay Uh Uh Ayy I feel like I'm way too different, ridiculous -Most of humanity's made of idiots I barely even get myself, and you thinkin' you understand? You think hiding behind a screen gives you the upper-hand? Please... what I do is barely poetry There's hope for me, I'm noticing people starting to notice me But still consider me confident Still consider me ready and giving out all my flawlessness But honestly, all of this is haunting me, probably It is just my sense of myself wobbling, toppling Into awfully small pieces, normally all bleedin' It's tragic and not fleetin', it follows me all evening It's calling my name constantly, makes it so hard to stay awake I close my eyes and let it go, and it all fades away Yeah, we're just tryna find that great escape To get away from how we're living life day-to-day Some people find it in a drink or in a cup Or in some bling or in a drug, or in the things that give us love But all I know is that it's tough And all I know is that this stuff isn't enough it's way too much I'm young and ill, like the dictator, man, what I gotta do to make the quick paper? These kid-haters are like ten years old but still claim to be big players That shit will make me go, but I'm aiming high, and you aiming low Got amazing rhymes and a crazy flow, and I may be lyin', but I came to show What I can do when I get on the mic, and I'm keeping it moving, you said I'm the hype And I'm seeing it through in successes inside, I don't take it for granted with plans in this life -Set on the wrong, forgetting the right, like, 2 AM in my head in the lights Ahead of the best of 'em, lettin' the rest of 'em go off to bed in the night -Getting it like I be livin' in first class, I know that you never will surpass -Getting the worst task for this burnt trash whenever I work fast Remember the memos they sendin' and sendin' again and again and they never will end it And say it is splendid, but never relented and every sentence I say is perfected Take a deep breath, 'cause I need that Most of y'all don't even care what I'm saying, you really just like how I speak fast My bars are meta, I got meta bars with meta-eights and metaphors You want better cores and better cars, but you don't know what I'm headin' towards Say that I am the king of this shit, crazy rhymes, they ain't thinkin' of this I'm singin' and rappin', and makin' it happen and makin' you laugh when I'm bringin' this shit Tryna find the other way, y'all just waiting for another day 'Cause what other fourteen-year-old had hit 100K? I'm making the most of a crazier flow, so many ways it could go I'm taking the throne and you chillin' and stayin' at home, I'm willing to make it my own I'm bakin' my cake, and you know that I'm eating it, even if staying up late is the needed bit Reason is, stayin' the same, I'm just fleein' it, leavin' my life while I'm seeing these seasons switch Meaning, these people ain't feelin' rich, reach in the fire, I'm heatin' it Pleasin' these liars, they've peaked, and so now they're recedin' agreein' to be a live without leading it Flow's so dope, I think it's time that we take a break We all make mistakes and play some hate, I got 808s here to save the day 'Cause I am on top of it, lost in my thoughts and I gotta be stoppin' it, rockin' it You know my flow is so dominant, positive, confident, full of accomplishments, compliments All of these offers is boring as fuck, though I am not a part of 'em Start a new part to the charts and I gotta be sure this art is the star on the map when I'm starting it Breaking it up, like cartilage, flow is so crazy, it's dope and you know it I know that you hate to admit it, but really, this shit is the business, rhymes keep darkenin' Under the radar, you don't know what's comin', I'm comin' right up, and your bitch started runnin' I found to be part of a little of something called love, and I guess that's the art of it I try to go slow, but it don't work -Gettin' better, and that don't hurt, and you think I'm dead, and you're sure You're salty and not kosher, slave to the corporates and the owners This is live and love, call it Shrek, like the ogre Hah, bitch, I have had enough, and I am sure I ain't mad enough Forgettin' the rest while I'm gettin' success, and I look at the numbers, I add 'em up My chart is like a parabola, thank you a lot for havin' us And so, every day, I take one step up, man, I am takin' the ladder up -Hundred K- get the plaque, lookin' forward, not heading back Remember what I had said is that we ain't givin' up, remember that Hit me up when you're done whining, I'll hit you up when I'm done rhyming Listen up, 'cause I'm combining all my skills into one finding We run, grinding, you know we do, we got the shit that we're goin' through These lyrics go over you, you don't listen, so you don't know it's true 'Cause we in, and we've done it, thousands, now we a hundred Shoutout to Didac and Momo and the others Shit, I consider them brothers, shit, I consider you all are my family Shoutout to those who will stand with me, even when all of the others abandon me Yeah, drama, we move past that, now I look at you with the last laugh Better trackback, now I rap fast, so many skills in my backpack Started off so terribly, now all of these people compare to me In the past, I never anticipated what there would be And see ya, so long now, off to the end of the song now See ya next at five-hundred and a million, it's on now It's on now Oh shit, I'm almost out of water This is a hard- this a- real challenge This like, physically difficult, ayy When I walk up in the scene, I hear a orchestra Now everybody telling me I don't perform enough My math teacher told me that I'd never be shit And now, I'm searched more then the quadratic formula I got the formula, I got the formula You got the sauce, but goddamn, I got the formula, ayy People always asking Ben, Why you record so much? I got to fry up all these rappers quick, like, order up Formula, like I'm Mr. Krabs I change and transform it up, you stuck in the past Yeah, I wear Supreme goggles to my science lab Uh, it hurts to write this song, 'cause I don't like to brag And now I've tied myself up, like a Nike Mag' People love to criticize me for the life I've had They make it 'bout white and black, like I'm Michael Jack' I make these haters look confused, like it's Dora asking where Swipper at, ayy Uh, bitch, I'm supreme, 'cause I got it on me, now they copy that, like a walkie-talkie And I'm feelin' like they really want to stop me, tryna fold my paper, like it's origami Wanna justify the hate, they call me cocky, and I am, 'cause your girl call me, 'Papi' Tryna take ti-t-uh.. paparazzi, I'm a fax machine up in a lot of copies Ayy, still saying, Who would'a thought?, like, who would'a guessed it? Haven't lifted weights in two years, but somehow, I'm always flexing If you really want to find the answer to your question, here is where you should look Want the secret to the sauce, motherfucker? Better go and find a cookbook Ayy, they doubt a fucker with a dream Looking to the stars for some money and a scheme, yeah Looking at the cars, all the hundreds and the greens Serpent's told you, No, and it's like nothing's as it seems God damn, I guess I really thought he was the man I guess I really thought he had some fans, but that shit is all a sham All that cash he stocked was from a scam All the views he got was from some spam I've been living like, Man, ain't why he been doin' what he can? Why ain't he just sticking to the plan? How has he been living with no limits, getting millions by the minutes? I don't get it, I don't really understand I've been living like, Damn, he ain't getting money by the 'Gram I'll do better if I study my exams, do I really wanna stand Next to all these average fucking sad duds? So I hate this motherfucker with a dream, 'cause he has one Yeah Hate a motherfucker with a dream, 'cause he has one Ayy Just because you gave up, doesn't mean I'm a backup Uh, uh, uh Feel all my good times get replaced by the bad ones And so they hate a motherfucker with a dream, 'cause he 'Cause he been living this passion, I'ma just sit and imagine I've got a bitch on my lap and she listen to rap, and she really been digging my track, and I'm livin' for Snap That shit invisible now, I'm unoriginal now I'm making a- minimum wage, this is literal AIDS, and I'm needin' to figure this out How did I get to the stage? I wanna get up on stage, do this shit everyday And I won't care 'bout whatever they say, let 'em all pester away But I just can't shoot my shot, got a bad gun So I hate this motherfucker with a dream 'cause he has one By now, if you're still watching this shit You are a boss and you deserve some applause for this shit But we ain't over, we ain't done, though Am I takin' a break? Are you dumb, bro? Well, we nearin' 10K, but I still need 30K While all you sit around, I would rather work than play go through your dome, through your vertebrae Hit you back and forth till you end up at the pearly gates That was actually a pretty good bar I just wrote that like, right- a second ago, before I recorded this Ayy, ayy You know, just to add some- fill stuff in, uh Sometimes, I don't know what to think Sometimes, I don't know what'll Make it okay, make it okay I'm snorin' all day for dreams, yeah, ayy Uh, I wake up pondering, damn, my mind is wandering All these opportunities left squandered in my oxygen All accomplishments left haunted in my lack of confidence Often is the result of falling under consciousness You'd make babies cry, I make crazy lives You're just angry, 'cause you're livin' in a fading lie And I've been feeling this energy, feeling that somebody's getting the penalty Fearing that, one day ,you'll end up ahead of me, feeling that this is the end of me No, will I tell you? No, never- I think I'm so clever But in the grand scheme of things, I know that I'm no better But I don't ever Want to go to show, just one mo' letter I'm a go-getter, I go get A's and get grades And get A's, then wake up, and get C's, but get paid Uh... my life is so unusual To most, it isn't suitable, to me, it's irrefutable Can't see me in a cubicle, I'd rather watch my funeral I'd rather go back to stab my own brains out back in utero Uh, but you know that I'm capable You know I'ma pounce at any chance that is available Feeling so unique and I think it's not explainable No one hears my lyrics, and says, OMG, relatable! No, that's not what I'm here to give Been waiting years for this, you're about to experience Something that I've spent time, money and thought on Learned about all the times money had thought wrong Kinda funny, it's long gone, but time is crummy and not long I ain't lucky, I'm n</t>
+          <t>Please, this shit's so fuckin' hard Helluva Beats Yeah, ayy, ayy Thirty-thousand words in a rap That's a first, and, in fact, that's the most in the world on a track Yeah, I've been searchin' the map For like any other person who could work it like that Do it perfectly slow and then perfectly fast I'm the only one that's out here, and I'm certain of that Play me a beat, it gets turned into ash If I play you a beat, it gets turned into trash Ayy, hold up, wait When I'm on the track, I make no mistakes I can do the shit for like thirty-thousand hours Fuck thirty-thousand words, I don't slow my breaks I go UK, then I make so many pounds Everybody think I'm overweight Gettin' bread, see me eatin' But I gotta go in, better hold my plate Ooh, ooh, gotta switch up I'm so godly, I'm the bishop Now these haters wanna link up My bars make them get the hiccups So I had to run it up real quick Freestyle, gotta do some real shit real quick Everything I do is real big 'Cause I gotta get the crowd to feel this, real lit, real shit Nowadays, they write me and I don't write it back See my future demons like a psychic and a psychopath Swear I'm drivin' down the road and I might'a crashed Do the dash, always movin', don't know where to find me at Hey, movin' on, gotta find a team Earnin' all my stripes like Camilla, but I'm lima beans All these rappers 'bout to get fucked like they Riley Reid I'm your teacher, so be quiet or I am assignin' seats Pioneer to the shit, Leif Eriksson I was even hunted, 2012, like I'm Jerry Lynn All these places got me sneezin', need a Claritin Until I fall off next year, I'ma be arrogant Yeah, I'm runnin' all this shit, run it up Yeah, you know that I be comin' up for a hun'ed bucks At the start, all I wanted was like thirty-thousand hits Got bored, add a couple zeroes for the shits Why not? Look what I got, look what I bought Camera is my true eye, I'm a side-clause Shoes, they go too high, only high-tops Fuck yeah, I'm the new guy, what am I on? Come in, Jaden Smith, I'm a motherfuckin' icon Boy, I'm too cold, I don't even have on my ice on Too lit, I don't even have the mic on And I'm too bright, I don't even have the lights on Better wait up Shit's too easy, like a layup And my bitch too entertainin' See the note, you gotta stay up Takin' bets on that I'll fail It's time to pay up Now you tryna hide your face I'm pretty sure that that ain't make-up, uh I'm droppin' hits and gettin' world records Who's your favorite artist, 'cause I'm sure better? Well, maybe not, but I tried, though Post Malone, I go psycho Leave you a stink, like a rhino 'Cause I rap beef, no gyro And I rhyme fast and I rhyme slow Turned my L's into W's typo Uh, hop into the track Give you the love and you give it right back Ten different flows I be spittin', some trap And some other shit get in it's get on the map Done this for like a year, and now, my writing's clear I've been gettin' respect, 'cause now I am here And I'm here to stay, did you hear me say I'm not here to play? He got a flow and a voice now I remember when he chokin' a boy out But he's back in, showin' no choice now Don't you know that he's gonna destroy now? So I'm gonna get there, and I know how Got these beats, I be blarin' 'em so loud When we talk about bitches and money, this shit is so funny My parents are so proud, damn I'm startin' to try Tryin' the shots at it, look at the ground and see stars in the sky Drawin' the line All of you rappers are dizzy, I can see the stars in your eyes You're probably high If you think that you compare to me, it must be part of the lines Copyin' guys You better send all those beats back to Future, like Marty McFly Thirty-thousand words on a track, lil' bitch Now these people turn my vid on and react, lil' bitch Know I got the clout, I got the stats, lil' bitch And you givin' me a headache, where's the Advil, bitch? But I'm doin' all I can, and I did it in the past-tense Makin' all this money up off of YouTube, off me AdSense Money up off of YouTube, off AdSense All of you are wack, that's a fact, I'ma rap then And I rap, huh, I'm a laptop Eminem holds the world record for Rap God 1.6K words Though, we already have that topped And we'll do it for another hour And I'm underrated and I'm underpowered My bars are so filthy, uh All of y'all need to take another shower For every fan, there's a hundred doubters And they let me know up in the comments But you know that we ain't done 'Cause I gotta talk my nonsense And I gotta keep it clean, uh Do exactly what my mom says And I know when they headed for the top And we still be makin' progress I can spit bars for nine months Then deliver you a new life Yeah, we eatin' in this bitch, uh All y'all better take a huge bite And I didn't even write that shit 'Cause I freestyle, you still like that shit See my video, press 'like' on it That subscribe button? Better wipe that shit I'm getting tired of this beat I think it's time to change it 'Cause I'll spaz on trap Old school boom-bap, you name it Think of that as a intro Now we get into the meat of it This some shit you didn't see comin' I don't give a fuck 'bout what you think of it! Heh, ayy! Ayy, ayy Uh, switch up Yeah, ayy, ayy, ayy Look out the window, see past it, but we're faintin' reflections You never laugh like you used to, you've got fainter expressions You headin' down the wrong path and they changin' directions Maybe don't mention 'bout how I made me your blessin' And lately, I question the shit that was taught to me I'm awkwardly stoppin' these conversations Hey, how long you waitin' till the day you wake up and thank God you made it? I don't like to dwell, but man, I gotta say it, don't like my songs, but you still gotta play it Don't like your road, just N.W.A., Dr. Dre it Stop contemplatin' and stop complainin' And recreate it, actually, don't recreate it, be creative Reached the place where you still vibe in that shit when we replay it Living a life of pain just to alleviate it When you haven't used nothing but distractions to really take it Yeah, maybe they'll change when they see we made it We headin' onto new platforms and leavin' the basics Uh, my creative process is making progress Despite my background, I haven't gotten to playin' lacrosse yet Don't you know we got a good thing goin'? I've been watchin' all these shows while I could be showin' I've been creeping up on the door, so dangerous You looking at statistics, while I figure how I'm changin' them I done learned so many things in my past life Now I don't give a single shit about the rap life That's nice, ain't it? That's nice to be given advice when I paint it Have twice much the fame, and I can't even comprehend that much in the future Hatin' the teacher, but you loving the tutor Enter the game, I'm a fuckin' intruder Stealin' these flows, man, I'm stuck as a looter Procrastinatin' 'cause my fucking computer No willpower, I'm just stuck as a loser Sittin' alone at 3 AM Chillin' on a late night is the weekday's friend Man, this shit is too wild, I must behave, Ben That's what the teachers are preachin' to me, but even when I'm on the top of this drop and they're rocking the world with confidence Accomplishments topplin' everyone and you try stoppin' it? -Obvious there's a problem, and solvin' it just ain't up to me Luckily, I've been trained to test the system, don't you fuck with me I hope you like my company, I hope you do appreciate it I hope that one day, you'll see we made it No, you cannot recreate it, all of this pain, I just alleviate it I'm just trying to find the mindset, grinding to be the greatest That is why I'm strivin', livin', tryin', I'm buyin' I'm givin' dignity, cryin', I'm winnin', but feel like dyin' I'm shining, I'm like a diamond, but I am dead on the inside Guessin' now we'll rest with this, but set it on my big mind And I'm in time -Workin' all my life, get that in line I'm tryna figure out, everyone get their pictures out Nobody's gonna live without this shit on the incline I'm on the incline, I'm on the incline Stay in your lane, you got your place and I'm in mine I'm on the incline, bitch, I'm on the incline Nobody can really understand how my shit climb Have I been livin' yet? Spendin' time on the internet I'm wastin', they hatin' it, I should be makin' it, aimin' for goals but takin' this shit instead I stay in bed, laughin' at stupid shit, ludicrous Who is this ten-year-old pregnant with two new kids? Why am I doing this? Why the fuck do I care? I don't, but I kinda do I don't know what I try to do, but whatever it is, I say, Bye, to you Hey, me, I lied to you! Don't realize? Well it's time you do You have no idea what I can do, when the skies are gray, you gotta find a blue You gotta try to do, something to put you into a new positive mindset Set headlines, go wreck lines, pass deadlines, leave lines dead I guess that I digress, and I digest the way I'm blessed Impressed after I'm pressed, you seek intent for what I said But I'm just gonna move on, get your groove on for my new song Do right, and you do wrong, got a big head, Jimmy Neutron You try to hate, well, get in line, just delivered some quick rhymes Some straight bars, we have came far, but we lookin' up on the incline Water break I got a lot to say It's been eleven minutes so far Actually, it hasn't, it's been shorter How can I have a believable meaning When all of you livin' in paradise, livin' in luxury Nobody seen it or greet it? But what if it's different? I mean, it's all seeming to be And it's in inconceivable dreaming I know it's so unbelievable, being Stuck in this rare unachievable feeling They givin' me something, I ended up leaving They givin' me nothing, I ended up grievin' No positive side, ended up seeing What life could be like from a different lead in Thank God for a cover zone So I know when and where to cross it All over the place I'm surprised I haven't lost it Yeah, ayy, and I'm feeling like I'm at the top, uh Livin' to the max now Yeah, that's how, and I'ma say it that loud I'm steppin' up, I never back down, more focused on my background And the music and how my rap sounds, speak up, cut the track down Go till the end, I don't back out, stuck in the trap, figure that out After, I'll do the math now, it's garbage, take the trash out But I'm here to stay till I pass out, blackout Okay, it's time to go fast So sit back and relax, and just maybe you'll get it About time, but maybe you're mad I said it You gon' pay attention, cash or credit? I have to let it go back a second I have some lyrics in the past that I have to edit Now we're back in the middle of the track and fed it Mix it up and if you talk, then, nah, forget it We moved on, walked past the exit Want you to come back and pass a message -Never pack bags and trash, you left it Kinda sucks that sometimes we have to end it Money, never am glad I spent it If I ever had told you I'm mad, I meant it If you ever feel bad or sad, accept it Think back to the track and the rap that Ben did Yeah, pretty obvious I'm killing it If this isn't my time, then maybe you need a syllabus I'm feelin' all the rhythm, you can tell that I am into this Voice is more powerful than a million instruments Suddenly, lyrics go demon, like it's somebody else People want me to grow because of you But I'm never going to level my endeavors to be better Than the people that never had trust in me Yeah, uh And I'm feeling like I'm at the top, yeah Livin' to the max now, uh Yeah, that's how, and I'ma say it that loud I'm stepping up, I never back down, more focused on background And the music and how my rap sounds Speak up, and they're messing with the track now People are tellin' me that I'm fallin' short Looking back at you when you're missing all the cash now And I'm mad at the fact that I'm not in my right mind Meant to be a half-decent rapper But I keep on saying all the wrong words at the right time Lookin' at yourself, you never know what you might find Lookin' at the sky in the middle of the nighttime I find so much life I wonder why I can't just find mine Got so many confusing questions So much knowledge, I can't use the lessons I'm emerging out with a new profession I'ma do the best with my new perfection And I'm doin' it I'm moving onto this future shit These hooligans are complete fools in that They just don't understand that I am through with it Improvin' it, I'm improvin' it I got my brain, and I'm usin' it And I'ma make it out alive when I'm playin' and takin' And makin' this cash, that I'm tearing these tools to bits You're clueless Ninety percent of y'all ignorant Keeping your minds oh-so limited Get off your high horse, because it is time to figure it out Seeming so close, I can picture it now Success in my drink, and I'm sippin' it now Envisioning deeper ambitions, and now I'ma get to it, that is what living's about Uh, God! Uh My voice is gone already, shit Alright, ayy, ayy, ayy Think I've got a consensus, bein' lost in the trenches Adolescent lessons expressin' God's job is to tempt us Makin' it hard to stay alive, it's so easy to die Makin' you hang your head low, but say, Reach for the skies Life is a walkin' contradiction, I see through its lies I'm just tryna tell the stories I've seen through its eyes I feel I'm forcing and feeding of off reasons to cry With all this fake deep bullshit, I'm too eager to try Yeah, everybody sendin' blessings in need of reply Tryna sell their own tears, for they bleedin', they dry Fuck your demons inside, I'm in need of the, Why? So I can summarize my life through my breathing and sigh Like, oh well, I can say that I tried Hopped into life and then I stayed for the ride So many beautiful faces, but they vacant inside And I'm just patiently waiting for the day I decide, damn This reminds me of days when I drive in L.A. I'm screamin', Hi to the sky up with a smile on my face Now I'm hidin' my face, I keep tryin' to trace All of the steps that I had taken to findin' my place Swept out to oceans so lonely, waves feel like an embrace And now I'm lookin' at my mic like it's sent as a prophet I used to be an atheist, but that turned me agnostic Recently, I've been wondering if I've fuckin' lost it See my friends from kindergarten go to rehab That's the type of shit that makes you think back To simpler times, blissfully ignorant minds Before reality could ground us, we would live in the skies And as a- and as a kid, I never thought I'd be bein' like this Nah Man, as a kid, I never thought this would even exist I felt elusive, intangible, just steam in the mist And now I'm wakin' up feelin' I ain't even this shit You only look at what you got once you see that it's lost And life's too gradual for me to believe in my sauce Don't understand rappers braggin', I got that paper on me Man, I got kids in schools who doin' presentations on me So what the fuck you really value tryin' to take that from me? To me, I'll take that over Rollies and makin' some money Rain or sunny, I'ma do this every day, I study And write these lyrics till my brain is fuzzy, damn Like Tyler, Creator tweets, I just capitalize These Romans tally up my hits with the capital 'I's This is a natural high I see it comin' from afar, I'm still actin' surprised, but I ain't mastered the skies I wrote this album so much passion, I actually cried They say 'cause I was never trappin', my rap is a lie They think 'cause I'm a awkward kid, I'm invalid As DJ Khaled's son receivin' a platinum plaque for bein' alive Threw out half of my album, it wasn't good enough Shit, I mean it still isn't good enough I'm like a active volcano, I know I could erupt But I guess I am not full enough, damn I swear, the higher you get, that's the lower you feel Man, that's more shit you gotta do, or you won't get a deal Man, that's more shit you gotta prove so they know that it's real Thirty seconds of listenin', thinkin' you know how I feel Yeah, said this a motherfucking thesis statement Yeah, came a long way, I cannot be complacent Every day I wake up stressed, I have to be the greatest And if not, then that's a day I truly feel I've wasted Most of the pressure on my shoulders is comin' from me So when I die, I know I left us with something to leave So when I wake up in the morning with something to see Yeah, I got so much shit that I'm wantin' to be Benny, Ben, Benjamin, Selena Gomez has said If you ready, come get it then, everyone is jealous- Many want to get friends with them just in case he is relevant Got iPhone camera lenses to get the Instagram evidence Yeah, I know I'm way too cocky But I'm workin', I'm figurin' it all out So when people say you can't, that makes you wanna get better That's benefit of the doubt I've been on the top of this, never droppin' the bottom It's opposite from the positives, got them from talkin' often And I'm locked in a pocket of all my thoughts, and they keep turnin' around Always stoppin' my songs 'cause they keep burnin' the sound, I'm like- Yeah, this is freedom of speech Tryna' murder all the people who be keepin' the peace Sacrifice your whole life 'cause you need a degree Opportunity in front of you, you need to achieve, I'm like- Nah, I'm just tryna find some clarity Apparently, it all has to do with popularity There will be obstacles, primarily, people blinded to What is carefully being prepared to me Sometimes you'll have hilarity, parody, and prosperity I'm askin' Hillary Clinton to marry me, powerful in the very least Giving you all of my money, but never see legacy every day that I'm meant to see Everyone here is impaired, it is so scary and menacing, but I know enemy 'Cause I go- uh, walking away, hopping block and what's often the case Shot in the face, gun locked and loaded, been off at the race, droppin' the bass Off of the place, brought in a way, predict what I will probably say And at the end of the day, you still talking to me, so obviously, let the audience say So let me explain this to those who came in, looking at the stages Seeing a white kid thinking he's famous, when they don't understand That I take risks and I make hits, from basic playlist to the greatest Entertaining the nation, be patient whilst waiting for me to break in -Re-energize, got lyrics to memorize Start an enterprise of better guys who cannot be successful and never try That's my dream job, bein' lazy, just sittin' With the TV on, they say that I'm bright like neon But I ain't takin' responsibility, pay me for havin' Limited ability with little humility But whatever I'm doin', it seems to be killin' me I'm unwillingly artistically fittin' into this history Tryna show you why I'm better, but none of you believe me Tryna win this gold and try hard, good game, gg You beat me, and now you see me in 3D, but you can't feel me Showin' up on your device, controloptiondelete Consider myself elite, measure myself in retweets I be talkin' way more chill so you can reach me Instead of pretendin' you understand what I am talkin' 'bout I'm the exhibit you kinda scared for, like a haunted house Tryna show you something instead of just sittin' on the couch I'll be honest now, I rarely- end up walkin' out Into reality, in normality actually happily Found myself doin' nothing, and you don't laugh at me, why? 'Cause, ideally, you would do the same thing Nothing 'cause for- a brain that is amazing Not complainin', but the best part of life is not even livin' it Love sleepin' and just usin' the internet But my time is limited, and I better figure this Before I'm slippin' this opportunity, out my fingertips And let me just tell you what I have came to do Tryna show you I can rap as fast as I'm able to Tryna show you I can hop in here, like a kangaroo And say some stupid metaphors and leave after I'm breakin' through And if a major record label is looking at me I'm a nice guy with bad teeth, got a nice eye for bad beats I can rap fast, and rap slow I may make mistakes but everyone, has, so I'm like MJ back when he had the afro Also, I'm not black, so... maybe not But before everyone gets angry, stop I'm that person, then people naturally hate me, block All the people who keep on going crazy off 'Cause I won't be making amazing songs in a mainstream, got A lot of prominent features, I'm a confident speaker With some dominant teachers I deserve to be a starter, but constantly on the bleachers I'm awfully small-achiever when I'm up on the spot, and eager They be fearin' this every time that they hearin' it To know that my lyrics have the precision to buildin' a pyramid So when you're nearin' this, please let me know When I'm standin' here frozen, please let it go Hear the metronome combined in the compilation To unlock super-stardom and move all across the nation But that is just a dream, and probably a combination Of a big ego and false encouragement on the way in But when I'm playin', just know it's all a big game I was tryna blow up- bang! Have a big name But when you think about it, it is all insane What can be created from chemicals in this brain But when you look at me, you lackin' respect When I'm crackin' my neck so that I can rap to my chest Has in a breath, some say that it's magic, I step Until I'm on the same stage, and you have it again But, but when you think about the hall-of-fame You think about how people used to sit and call you names And you check and wonder if it will be all the same Step back into reality, it all remains, damn Alright, I just spilled water on my computer right now On my computer-'s breaking while I'm doing this thirty-thousands words shit Hold on, uh Goddamn it My lyrics are not showing up on the screen, you knowin' just what I mean This is off the top, I don't need to use no machines Hold up, I know I can freestyle, but I can't do it forever But I am very clever, okay, okay I'm gonna take a drink, if you're watchin' this, take a drink too These are some shit' that you can drink to But drink water unless you're of age You know what I'm sayin'? Ayy Okay, okay Uh Uh Ayy I feel like I'm way too different, ridiculous -Most of humanity's made of idiots I barely even get myself, and you thinkin' you understand? You think hiding behind a screen gives you the upper-hand? Please... what I do is barely poetry There's hope for me, I'm noticing people starting to notice me But still consider me confident Still consider me ready and giving out all my flawlessness But honestly, all of this is haunting me, probably It is just my sense of myself wobbling, toppling Into awfully small pieces, normally all bleedin' It's tragic and not fleetin', it follows me all evening It's calling my name constantly, makes it so hard to stay awake I close my eyes and let it go, and it all fades away Yeah, we're just tryna find that great escape To get away from how we're living life day-to-day Some people find it in a drink or in a cup Or in some bling or in a drug, or in the things that give us love But all I know is that it's tough And all I know is that this stuff isn't enough it's way too much I'm young and ill, like the dictator, man, what I gotta do to make the quick paper? These kid-haters are like ten years old but still claim to be big players That shit will make me go, but I'm aiming high, and you aiming low Got amazing rhymes and a crazy flow, and I may be lyin', but I came to show What I can do when I get on the mic, and I'm keeping it moving, you said I'm the hype And I'm seeing it through in successes inside, I don't take it for granted with plans in this life -Set on the wrong, forgetting the right, like, 2 AM in my head in the lights Ahead of the best of 'em, lettin' the rest of 'em go off to bed in the night -Getting it like I be livin' in first class, I know that you never will surpass -Getting the worst task for this burnt trash whenever I work fast Remember the memos they sendin' and sendin' again and again and they never will end it And say it is splendid, but never relented and every sentence I say is perfected Take a deep breath, 'cause I need that Most of y'all don't even care what I'm saying, you really just like how I speak fast My bars are meta, I got meta bars with meta-eights and metaphors You want better cores and better cars, but you don't know what I'm headin' towards Say that I am the king of this shit, crazy rhymes, they ain't thinkin' of this I'm singin' and rappin', and makin' it happen and makin' you laugh when I'm bringin' this shit Tryna find the other way, y'all just waiting for another day 'Cause what other fourteen-year-old had hit 100K? I'm making the most of a crazier flow, so many ways it could go I'm taking the throne and you chillin' and stayin' at home, I'm willing to make it my own I'm bakin' my cake, and you know that I'm eating it, even if staying up late is the needed bit Reason is, stayin' the same, I'm just fleein' it, leavin' my life while I'm seeing these seasons switch Meaning, these people ain't feelin' rich, reach in the fire, I'm heatin' it Pleasin' these liars, they've peaked, and so now they're recedin' agreein' to be a live without leading it Flow's so dope, I think it's time that we take a break We all make mistakes and play some hate, I got 808s here to save the day 'Cause I am on top of it, lost in my thoughts and I gotta be stoppin' it, rockin' it You know my flow is so dominant, positive, confident, full of accomplishments, compliments All of these offers is boring as fuck, though I am not a part of 'em Start a new part to the charts and I gotta be sure this art is the star on the map when I'm starting it Breaking it up, like cartilage, flow is so crazy, it's dope and you know it I know that you hate to admit it, but really, this shit is the business, rhymes keep darkenin' Under the radar, you don't know what's comin', I'm comin' right up, and your bitch started runnin' I found to be part of a little of something called love, and I guess that's the art of it I try to go slow, but it don't work -Gettin' better, and that don't hurt, and you think I'm dead, and you're sure You're salty and not kosher, slave to the corporates and the owners This is live and love, call it Shrek, like the ogre Hah, bitch, I have had enough, and I am sure I ain't mad enough Forgettin' the rest while I'm gettin' success, and I look at the numbers, I add 'em up My chart is like a parabola, thank you a lot for havin' us And so, every day, I take one step up, man, I am takin' the ladder up -Hundred K- get the plaque, lookin' forward, not heading back Remember what I had said is that we ain't givin' up, remember that Hit me up when you're done whining, I'll hit you up when I'm done rhyming Listen up, 'cause I'm combining all my skills into one finding We run, grinding, you know we do, we got the shit that we're goin' through These lyrics go over you, you don't listen, so you don't know it's true 'Cause we in, and we've done it, thousands, now we a hundred Shoutout to Didac and Momo and the others Shit, I consider them brothers, shit, I consider you all are my family Shoutout to those who will stand with me, even when all of the others abandon me Yeah, drama, we move past that, now I look at you with the last laugh Better trackback, now I rap fast, so many skills in my backpack Started off so terribly, now all of these people compare to me In the past, I never anticipated what there would be And see ya, so long now, off to the end of the song now See ya next at five-hundred and a million, it's on now It's on now Oh shit, I'm almost out of water This is a hard- this a- real challenge This like, physically difficult, ayy When I walk up in the scene, I hear a orchestra Now everybody telling me I don't perform enough My math teacher told me that I'd never be shit And now, I'm searched more then the quadratic formula I got the formula, I got the formula You got the sauce, but goddamn, I got the formula, ayy People always asking Ben, Why you record so much? I got to fry up all these rappers quick, like, order up Formula, like I'm Mr. Krabs I change and transform it up, you stuck in the past Yeah, I wear Supreme goggles to my science lab Uh, it hurts to write this song, 'cause I don't like to brag And now I've tied myself up, like a Nike Mag' People love to criticize me for the life I've had They make it 'bout white and black, like I'm Michael Jack' I make these haters look confused, like it's Dora asking where Swipper at, ayy Uh, bitch, I'm supreme, 'cause I got it on me, now they copy that, like a walkie-talkie And I'm feelin' like they really want to stop me, tryna fold my paper, like it's origami Wanna justify the hate, they call me cocky, and I am, 'cause your girl call me, 'Papi' Tryna take ti-t-uh.. paparazzi, I'm a fax machine up in a lot of copies Ayy, still saying, Who would'a thought?, like, who would'a guessed it? Haven't lifted weights in two years, but somehow, I'm always flexing If you really want to find the answer to your question, here is where you should look Want the secret to the sauce, motherfucker? Better go and find a cookbook Ayy, they doubt a fucker with a dream Looking to the stars for some money and a scheme, yeah Looking at the cars, all the hundreds and the greens Serpent's told you, No, and it's like nothing's as it seems God damn, I guess I really thought he was the man I guess I really thought he had some fans, but that shit is all a sham All that cash he stocked was from a scam All the views he got was from some spam I've been living like, Man, ain't why he been doin' what he can? Why ain't he just sticking to the plan? How has he been living with no limits, getting millions by the minutes? I don't get it, I don't really understand I've been living like, Damn, he ain't getting money by the 'Gram I'll do better if I study my exams, do I really wanna stand Next to all these average fucking sad duds? So I hate this motherfucker with a dream, 'cause he has one Yeah Hate a motherfucker with a dream, 'cause he has one Ayy Just because you gave up, doesn't mean I'm a backup Uh, uh, uh Feel all my good times get replaced by the bad ones And so they hate a motherfucker with a dream, 'cause he 'Cause he been living this passion, I'ma just sit and imagine I've got a bitch on my lap and she listen to rap, and she really been digging my track, and I'm livin' for Snap That shit invisible now, I'm unoriginal now I'm making a- minimum wage, this is literal AIDS, and I'm needin' to figure this out How did I get to the stage? I wanna get up on stage, do this shit everyday And I won't care 'bout whatever they say, let 'em all pester away But I just can't shoot my shot, got a bad gun So I hate this motherfucker with a dream 'cause he has one By now, if you're still watching this shit You are a boss and you deserve some applause for this shit But we ain't over, we ain't done, though Am I takin' a break? Are you dumb, bro? Well, we nearin' 10K, but I still need 30K While all you sit around, I would rather work than play go through your dome, through your vertebrae Hit you back and forth till you end up at the pearly gates That was actually a pretty good bar I just wrote that like, right- a second ago, before I recorded this Ayy, ayy You know, just to add some- fill stuff in, uh Sometimes, I don't know what to think Sometimes, I don't know what'll Make it okay, make it okay I'm snorin' all day for dreams, yeah, ayy Uh, I wake up pondering, damn, my mind is wandering All these opportunities left squandered in my oxygen All accomplishments left haunted in my lack of confidence Often is the result of falling under consciousness You'd make babies cry, I make crazy lives You're just angry, 'cause you're livin' in a fading lie And I've been feeling this energy, feeling that somebody's getting the penalty Fearing that, one day ,you'll end up ahead of me, feeling that this is the end of me No, will I tell you? No, never- I think I'm so clever But in the grand scheme of things, I know that I'm no better But I don't ever Want to go to show, just one mo' letter I'm a go-getter, I go get A's and get grades And get A's, then wake up, and get C's, but get paid Uh... my life is so unusual To most, it isn't suitable, to me, it's irrefutable Can't see me in a cubicle, I'd rather watch my funeral I'd rather go back to stab my own brains out back in utero Uh, but you know that I'm capable You know I'ma pounce at any chance that is available Feeling so unique and I think it's not explainable No one hears my lyrics, and says, OMG, relatable! No, that's not what I'm here to give Been waiting years for this, you're about to experience Something that I've spent time, money and thought on Learned about all the times money had thought wrong Kinda funny, it's long gone, but time is crummy and not long I ain't lucky, I'm not calm, not by a lo</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>I will not make the same mistakes that you did I will not let myself Cause my heart so much misery I will not break the way you did You fell so hard I've learned the hard way To never let it get that far Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I find it hard to trust not only me, but everyone around me Because of you I am afraid I lose my way And it's not too long before you point it out I cannot cry Because I know that's weakness in your eyes I'm forced to fake A smile, a laugh everyday of my life My heart can't possibly break When it wasn't even whole to start with Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I find it hard to trust not only me, but everyone around me Because of you I am afraid I watched you die I heard you cry every night in your sleep I was so young You should have known better than to lean on me You never thought of anyone else You just saw your pain And now I cry in the middle of the night For the same damn thing Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I try my hardest just to forget everything Because of you I don't know how to let anyone else in Because of you I'm ashamed of my life because it's empty Because of you I am afraid Because of youYou might also like</t>
+          <t>I will not make the same mistakes that you did I will not let myself Cause my heart so much misery I will not break the way you did You fell so hard I've learned the hard way To never let it get that far Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I find it hard to trust not only me, but everyone around me Because of you I am afraid I lose my way And it's not too long before you point it out I cannot cry Because I know that's weakness in your eyes I'm forced to fake A smile, a laugh everyday of my life My heart can't possibly break When it wasn't even whole to start with Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I find it hard to trust not only me, but everyone around me Because of you I am afraid I watched you die I heard you cry every night in your sleep I was so young You should have known better than to lean on me You never thought of anyone else You just saw your pain And now I cry in the middle of the night For the same damn thing Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I try my hardest just to forget everything Because of you I don't know how to let anyone else in Because of you I'm ashamed of my life because it's empty Because of you I am afraid Because of you</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bésame, bésame mucho Each time I cling to your kiss, I hear music divine Oh bésame, bésame mucho Come on and hold me my darling and make all my dreams come true This joy is something new My arms enfolding you Never knew this thrill before Whoever thought I'd be Holding you close to me Whispering It's you I adore Mmm, dearest one, if you should leave me Each little dream would take wings and my life would be through Oh bésame, bésame mucho Love me forever and make all my dreams come true This joy is something new My arms enfolding you Never knew this thrill before, mmm Whoever thought I'd be Holding you close to me Whispering It's you I adore Ahh, but dearest one, if you should leave me Each little dream would take wings and my life would be through Oh bésame, aww bésame mucho Come on and love me forever and make all my dreams come true You might also likeBaby, baby Come on and love me forever and make all my dreams come true Darling, com on Come on and love me forever and make all my dreams come true</t>
+          <t>Bésame, bésame mucho Each time I cling to your kiss, I hear music divine Oh bésame, bésame mucho Come on and hold me my darling and make all my dreams come true This joy is something new My arms enfolding you Never knew this thrill before Whoever thought I'd be Holding you close to me Whispering It's you I adore Mmm, dearest one, if you should leave me Each little dream would take wings and my life would be through Oh bésame, bésame mucho Love me forever and make all my dreams come true This joy is something new My arms enfolding you Never knew this thrill before, mmm Whoever thought I'd be Holding you close to me Whispering It's you I adore Ahh, but dearest one, if you should leave me Each little dream would take wings and my life would be through Oh bésame, aww bésame mucho Come on and love me forever and make all my dreams come true Baby, baby Come on and love me forever and make all my dreams come true Darling, com on Come on and love me forever and make all my dreams come true</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mmm, but I had to come say something to you, girl Now when I saw you standing over there in the corner, yeah I told myself, good God, she's nice and I want her So here I am baby, on the spot You'll need an army to make me stop So pay attention to this You're gonna get kissed You better brace yourself Just snap your finger and I'll start into hopping, yeah You got my mind going wild and there's no stopping So here I am baby, please don't run I know that we could have lots of fun So pay attention to this You're gonna get kissed You'd better brace yourself You make me feel like I've never felt before, whoa I feel like I could lift a hundred tons or more I'd go to pieces, baby, if you should reject me And I know I'd die if I thought you'd forget me I don't know what's come over me I only know that it's heavenly You might also likeSo pay attention to this You're gonna get kissed You'd better brace yourself Here I come baby With all that's love Here I come, baby, with lips that's gonna kiss you Whoa, you better brace yourself</t>
+          <t>Mmm, but I had to come say something to you, girl Now when I saw you standing over there in the corner, yeah I told myself, good God, she's nice and I want her So here I am baby, on the spot You'll need an army to make me stop So pay attention to this You're gonna get kissed You better brace yourself Just snap your finger and I'll start into hopping, yeah You got my mind going wild and there's no stopping So here I am baby, please don't run I know that we could have lots of fun So pay attention to this You're gonna get kissed You'd better brace yourself You make me feel like I've never felt before, whoa I feel like I could lift a hundred tons or more I'd go to pieces, baby, if you should reject me And I know I'd die if I thought you'd forget me I don't know what's come over me I only know that it's heavenly So pay attention to this You're gonna get kissed You'd better brace yourself Here I come baby With all that's love Here I come, baby, with lips that's gonna kiss you Whoa, you better brace yourself</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Come closer to me So I can see heaven in your eyes Ah, come closer to me So I can be close to paradise Thrill me with your kisses Let me learn what bliss is Kiss me once and then We'll kiss and kiss again And life will be divine Come closer my dear So I can hear music in my heart I've waited so long to hear The song that your love will start Darling, I'll adore you Live my life just for you All I ask is this Please give me on more kiss And say that you'll be mine Hacr why vá ter más, why más Why más, pero mucho más Viver sole assím, assím, assím Como queirás tu You might also likeDarling, I'll adore you I'll live my life just for you All I ask is this Please give me one more kiss And say that you'll be mine Viver sole assím Viver sole assím Come closer to me</t>
+          <t>Come closer to me So I can see heaven in your eyes Ah, come closer to me So I can be close to paradise Thrill me with your kisses Let me learn what bliss is Kiss me once and then We'll kiss and kiss again And life will be divine Come closer my dear So I can hear music in my heart I've waited so long to hear The song that your love will start Darling, I'll adore you Live my life just for you All I ask is this Please give me on more kiss And say that you'll be mine Hacr why vá ter más, why más Why más, pero mucho más Viver sole assím, assím, assím Como queirás tu Darling, I'll adore you I'll live my life just for you All I ask is this Please give me one more kiss And say that you'll be mine Viver sole assím Viver sole assím Come closer to me</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Now the band is playing very slow Once again I'll get my coat and go A lonely wallflower, waiting by the wall Without the willpower to face the music at all Please... Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me I feel so silly in my patent shoes So many partners but none of them will choose A lonely wallflower, growing very tired Into the small hours and feeling undesired Please... Won't somebody dance with me Start up a romance with me Just someone somewhere Someone who'll dare Take a chance with me You might also likeWon't somebody dance with me Start up a romance with me Just someone somewhere Someone who'll dare Take a chance with me Just someone to care Someone somewhere For a dance with me Hi my name is Doug would you like to dance ? Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me</t>
+          <t>Now the band is playing very slow Once again I'll get my coat and go A lonely wallflower, waiting by the wall Without the willpower to face the music at all Please... Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me I feel so silly in my patent shoes So many partners but none of them will choose A lonely wallflower, growing very tired Into the small hours and feeling undesired Please... Won't somebody dance with me Start up a romance with me Just someone somewhere Someone who'll dare Take a chance with me Won't somebody dance with me Start up a romance with me Just someone somewhere Someone who'll dare Take a chance with me Just someone to care Someone somewhere For a dance with me Hi my name is Doug would you like to dance ? Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Ik kan je brengen naar de wild wild west Maar luister goed naar wat je mama zegt Want ik heb hier die badman flex En je weet ik heb die badman sex, en Je weet ik heb die badman sauce No lie, ik houd het echt met jou Je weet dat ik vecht met jou That way, ik ga weg met jou my girl I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me You might also like Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Bad gyal o be dada mi Ik wil niet dat je aan me zit aan me zit Maar ik wil dat je met me danst yeah, yeah Come again, want ik grijp mijn kans Pull up selecta Club shutdown like Skepta Matta op de bank, Manchester Ik was al lit voor ik rapte Oh je kijkt me zolang aan Kan je die dingen ook langzaam? Ja ik weet een manier wooh, wooh Manier hoe het kan gaan Baby, ik wil niet meer blijven hangen aan de zijkant Jij bent veel mooier aan mijn hand Wat is het niet, wat is het wel, wat gaat het zijn dan Ik wil niet meer in wachten in de rij, want Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Nobody haffi know, say we're gon' fuck ey Heb die pussy on lock Fine China, you wanna glow up Ik bel Kleine, you wanna turn up Tell me wan fi di whine pon me All the night, till the next morning Je ziet de ice, wanna be darling Je ziet de ice, wanna be darling Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey</t>
+          <t>Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Ik kan je brengen naar de wild wild west Maar luister goed naar wat je mama zegt Want ik heb hier die badman flex En je weet ik heb die badman sex, en Je weet ik heb die badman sauce No lie, ik houd het echt met jou Je weet dat ik vecht met jou That way, ik ga weg met jou my girl I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Bad gyal o be dada mi Ik wil niet dat je aan me zit aan me zit Maar ik wil dat je met me danst yeah, yeah Come again, want ik grijp mijn kans Pull up selecta Club shutdown like Skepta Matta op de bank, Manchester Ik was al lit voor ik rapte Oh je kijkt me zolang aan Kan je die dingen ook langzaam? Ja ik weet een manier wooh, wooh Manier hoe het kan gaan Baby, ik wil niet meer blijven hangen aan de zijkant Jij bent veel mooier aan mijn hand Wat is het niet, wat is het wel, wat gaat het zijn dan Ik wil niet meer in wachten in de rij, want Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Nobody haffi know, say we're gon' fuck ey Heb die pussy on lock Fine China, you wanna glow up Ik bel Kleine, you wanna turn up Tell me wan fi di whine pon me All the night, till the next morning Je ziet de ice, wanna be darling Je ziet de ice, wanna be darling Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>I didn't know what time it was Then I met you Oh, what a lovely time it was How sublime it was too! I didn't know what day it was Then you held my hand Warm like the month of May it was And I'll say it was grand Grand to be alive, to be young To be mad, to be yours alone Grand to see your face, feel your touch Hear your voice say I'm all your own I didn't know what year it was Life was no prize I wanted love and here it was Shining out of your eyes I'm wise and I know what time it is nowYou might also like</t>
+          <t>I didn't know what time it was Then I met you Oh, what a lovely time it was How sublime it was too! I didn't know what day it was Then you held my hand Warm like the month of May it was And I'll say it was grand Grand to be alive, to be young To be mad, to be yours alone Grand to see your face, feel your touch Hear your voice say I'm all your own I didn't know what year it was Life was no prize I wanted love and here it was Shining out of your eyes I'm wise and I know what time it is now</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Do it, do it, you can do it Do it in the name of love Do it baby do it I like to see you Do it in the name of love Oh, woman, why don't you do it I'd like to see you try do it Why don't you do it Do it in the name of love My mama told me a long time ago Remember, in love There's no easy road You've got to give more than you get You never know what to expect Hey, sometimes you're up up Sometimes you're down down Sometimes you whole word will Come crashing down crashing down Oh, love can be No more than you make it Hang on in there And you're gonna make it Just get your strength From the Lord above You might also likeHey, do it do it do do it Do it in the name of love Do it oh, yeah do it Why don't you do it In the name of love do it You've got to work work Fight fight Try with all your might Get your strength from The Lord up above, oh, oh, hey Do it in the name of love Do it and I'd like to see you try Do it why don't you Do it in the name of love I'd like to see you try do it Why don't you do it oh, no, no Do it in the name of love There's temptations all around Don't you let it get you down Think about your woman Think about your woman Think about your man Think about your man Keep it together Stay hand in hand Hand in hand Sometimes you cause Each other so much pain And then again You're sweet as sugar cane You've got to show What you give for each other Then you will succeed as lovers Just get your strength from The Lord up above Lord above And do it, do it Do it in the name of love Do it yeah, hey, hey do it Why don't you do it in The name of love do it You've got to work work Fight fight Try with all your might Get your strength from The Lord up above From the Lord above oh Do it in the name of love Do it why don't you try do it Do it, do it, do it Do it in the name of love Hey, honey Why don't you try do it You can do it do it Why don't you Do it in the name of love</t>
+          <t>Do it, do it, you can do it Do it in the name of love Do it baby do it I like to see you Do it in the name of love Oh, woman, why don't you do it I'd like to see you try do it Why don't you do it Do it in the name of love My mama told me a long time ago Remember, in love There's no easy road You've got to give more than you get You never know what to expect Hey, sometimes you're up up Sometimes you're down down Sometimes you whole word will Come crashing down crashing down Oh, love can be No more than you make it Hang on in there And you're gonna make it Just get your strength From the Lord above Hey, do it do it do do it Do it in the name of love Do it oh, yeah do it Why don't you do it In the name of love do it You've got to work work Fight fight Try with all your might Get your strength from The Lord up above, oh, oh, hey Do it in the name of love Do it and I'd like to see you try Do it why don't you Do it in the name of love I'd like to see you try do it Why don't you do it oh, no, no Do it in the name of love There's temptations all around Don't you let it get you down Think about your woman Think about your woman Think about your man Think about your man Keep it together Stay hand in hand Hand in hand Sometimes you cause Each other so much pain And then again You're sweet as sugar cane You've got to show What you give for each other Then you will succeed as lovers Just get your strength from The Lord up above Lord above And do it, do it Do it in the name of love Do it yeah, hey, hey do it Why don't you do it in The name of love do it You've got to work work Fight fight Try with all your might Get your strength from The Lord up above From the Lord above oh Do it in the name of love Do it why don't you try do it Do it, do it, do it Do it in the name of love Hey, honey Why don't you try do it You can do it do it Why don't you Do it in the name of love</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Down home... Oh, down home There used to be rivers and trees Fresh bread every single morning And sweet magnolia in the breeze Oh, fishing lines and young dreams Oh, I hear them calling to me But there's no way to get down home Cuz down home's just a memory Wish I could leave this big town City living ain't living to me But there's no way to get down home No you can't retrieve it Cuz once you leave it Oh, down home's just a memory Down home... Oh, down homeYou might also like</t>
+          <t>Down home... Oh, down home There used to be rivers and trees Fresh bread every single morning And sweet magnolia in the breeze Oh, fishing lines and young dreams Oh, I hear them calling to me But there's no way to get down home Cuz down home's just a memory Wish I could leave this big town City living ain't living to me But there's no way to get down home No you can't retrieve it Cuz once you leave it Oh, down home's just a memory Down home... Oh, down home</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Every night I hope and pray A dream lover will come my way A girl to hold in my arms And know the magic of her charms 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Dream lover, where are you With a love, oh, so true And the hand that I can hold To feel you near as I grow old 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Someday, I don't know how I hope she'll hear my plea Some way, I don't know how She'll bring her love to me You might also likeDream lover, until then I'll go to sleep and dream again That's the only thing to do Till all my lover's dreams come true 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Dream lover, until then I'll go to sleep and dream again That's the only thing to do Till all my lover's dreams come true 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Please don't make me dream alone I beg you don't make me dream alone No, I don't wanna dream</t>
+          <t>Every night I hope and pray A dream lover will come my way A girl to hold in my arms And know the magic of her charms 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Dream lover, where are you With a love, oh, so true And the hand that I can hold To feel you near as I grow old 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Someday, I don't know how I hope she'll hear my plea Some way, I don't know how She'll bring her love to me Dream lover, until then I'll go to sleep and dream again That's the only thing to do Till all my lover's dreams come true 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Dream lover, until then I'll go to sleep and dream again That's the only thing to do Till all my lover's dreams come true 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Please don't make me dream alone I beg you don't make me dream alone No, I don't wanna dream</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The magic of your kiss Is holding you like this Is ecstasy ecstasy The love that you have given Makes this life I'm livin' Ecstasy ecstasy Never let me go Let that love light show Ah, take me by the hand a And lead me to the land Of ecstasy ecstasy The first time that I saw you You showed me the door To ecstasy ecstasy Now I just keep prayin' That you're always thinkin' Ecstasy ecstasy Oh, but don't you go away For a single day Come on and take me by the hand And lead me to the land Of ecstasy ecstasy Travel up and down Much never have I found Such ecstasy ecstasy Now dear that I know You everywhere I go Through ecstasy ecstasy Kiss me dear and then Oh, kiss me once again Come on and take me by the hand And lead me to the land Of ecstasy ecstasy You might also likeEcstasy Ecstasy Baby, baby, baby</t>
+          <t>The magic of your kiss Is holding you like this Is ecstasy ecstasy The love that you have given Makes this life I'm livin' Ecstasy ecstasy Never let me go Let that love light show Ah, take me by the hand a And lead me to the land Of ecstasy ecstasy The first time that I saw you You showed me the door To ecstasy ecstasy Now I just keep prayin' That you're always thinkin' Ecstasy ecstasy Oh, but don't you go away For a single day Come on and take me by the hand And lead me to the land Of ecstasy ecstasy Travel up and down Much never have I found Such ecstasy ecstasy Now dear that I know You everywhere I go Through ecstasy ecstasy Kiss me dear and then Oh, kiss me once again Come on and take me by the hand And lead me to the land Of ecstasy ecstasy Ecstasy Ecstasy Baby, baby, baby</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>You mothafuckas I eat you for fuckin' breakfast And not even be fuckin' full You're fuckin' appetizers You're my breakfast, fuckin' appetizers Shyea Jesus Christ, I can see in his eyes that he's conniving I'll be defiant till achieving highness like Leonidas I speak my mind and these demons are preaching silence You're marketed like the industry's slut and I'ma treat you like it Get slapped up, kiss ass punk Get snatched up for trying to distract us, diss track this I'll bury you, that's established You know the shit that make you think that your shit's whack? Well, this that shit Ditch that shit, you'll never create a legacy You're the lamest lame will ever be They want me to name an enemy But why would I end a career they ain't even start yet? That's a waste of energy Waste of energy Pay attention, we create our pedigree While they especially are praying desperately to cage us mentally They eventually will taste the recipe of angry tendencies So page the deputy I'll make sure they will credit me You might also like When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me And we don't fuck around You don't actually burn calories when you go run your mouth, so why you sweating so hard? I am the underground, they see the roots in me They root for me, my routine is being the rude teen Who's he? Token I'm different than you chumps though Do I brag about the money, clothes, drugs, hoes While musically losing control? Do I perform a thirty minute set while only using one flow? Fuck no! That's where I draw the line They're loving the intellectual homicide Only really care about the dollar signs Anyone who is gullible qualifies They colonize all your minds and occupy each thought they find Everybody looking like a puppet to me but everyone too stupid to see it, I'm not surprised, nah I am the stop to this I am the prophet not only intent on profiting But still psycho to my psychologist He said the only person fit to battle me is my second personality So I bodied him When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me Yeah Token is a visionary in a fairly twisted, scary, scripted parody And he carries emissaries fit to bury sissy fairies In the very cemetery he's getting married to the dictionary at That's how he kills canaries Blah! I kill a rival on arrival Ever since I went viral they call me vile And I don't use the word faggot anymore cause critics twist my words into a spiral Just tell them I'm feeling homo-cidal I don't know polite Man I'm telling you rappers, you don't need to keep up, you can look at me like a poltergeist If you need a ghost to write I'll blow your mind If I don't, I'll blow your mind I ought to make 'em an ultimatum They automate them then control what they say Say That controls how you think Think, that's controlling your day Day That's controlling your life Life So cut your strings, I'll show you the knife We're needed in this game, I don't give a fuck if they like it When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me3</t>
+          <t>You mothafuckas I eat you for fuckin' breakfast And not even be fuckin' full You're fuckin' appetizers You're my breakfast, fuckin' appetizers Shyea Jesus Christ, I can see in his eyes that he's conniving I'll be defiant till achieving highness like Leonidas I speak my mind and these demons are preaching silence You're marketed like the industry's slut and I'ma treat you like it Get slapped up, kiss ass punk Get snatched up for trying to distract us, diss track this I'll bury you, that's established You know the shit that make you think that your shit's whack? Well, this that shit Ditch that shit, you'll never create a legacy You're the lamest lame will ever be They want me to name an enemy But why would I end a career they ain't even start yet? That's a waste of energy Waste of energy Pay attention, we create our pedigree While they especially are praying desperately to cage us mentally They eventually will taste the recipe of angry tendencies So page the deputy I'll make sure they will credit me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me And we don't fuck around You don't actually burn calories when you go run your mouth, so why you sweating so hard? I am the underground, they see the roots in me They root for me, my routine is being the rude teen Who's he? Token I'm different than you chumps though Do I brag about the money, clothes, drugs, hoes While musically losing control? Do I perform a thirty minute set while only using one flow? Fuck no! That's where I draw the line They're loving the intellectual homicide Only really care about the dollar signs Anyone who is gullible qualifies They colonize all your minds and occupy each thought they find Everybody looking like a puppet to me but everyone too stupid to see it, I'm not surprised, nah I am the stop to this I am the prophet not only intent on profiting But still psycho to my psychologist He said the only person fit to battle me is my second personality So I bodied him When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me Yeah Token is a visionary in a fairly twisted, scary, scripted parody And he carries emissaries fit to bury sissy fairies In the very cemetery he's getting married to the dictionary at That's how he kills canaries Blah! I kill a rival on arrival Ever since I went viral they call me vile And I don't use the word faggot anymore cause critics twist my words into a spiral Just tell them I'm feeling homo-cidal I don't know polite Man I'm telling you rappers, you don't need to keep up, you can look at me like a poltergeist If you need a ghost to write I'll blow your mind If I don't, I'll blow your mind I ought to make 'em an ultimatum They automate them then control what they say Say That controls how you think Think, that's controlling your day Day That's controlling your life Life So cut your strings, I'll show you the knife We're needed in this game, I don't give a fuck if they like it When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me3</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten Baby, jij geeft me fever Ben je m'n Hailey? Schat, dan word ik je Bieber Ey Luister habiba, van ik je kent my baby, had ik geen type Nee-ay Ze zegt ik ben een dief, nu is alles van mij Small waist hoe je movet, baby geef me iets kleins Kijk me ook al daar in Dub, daarna door naar Parijs Baby, zeg alleen maar Poef, en je weet je verdwijnt En ben ik effe weg, ben ik calling Ben een junk voor je font- en je back en Schat, ik weet niet maar je juice is verslavend Want ik wil 't weer again and again and again You might also like Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten Baby, ik voel de liefde Ik wil je hebben, baby, kan niet meer liegen Yeah Je laat me je pleasen We kunnen samen overal naartoe vliegen Baby Ik ben weer in de mood, zet je body op mij Echt je heupen zijn gevaalijk, dit kan zo m'n dood zijn Lieve schat, je bent een ster hoe je in de nacht schijnt Met jou ik heb geen haast, baby girl, ik heb tijd En ben ik effe weg, ben ik calling Ben een junk voor je font- en je back en Schat, ik weet niet maar je juice is verslavend Want ik wil 't weer again and again and again Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten</t>
+          <t>Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten Baby, jij geeft me fever Ben je m'n Hailey? Schat, dan word ik je Bieber Ey Luister habiba, van ik je kent my baby, had ik geen type Nee-ay Ze zegt ik ben een dief, nu is alles van mij Small waist hoe je movet, baby geef me iets kleins Kijk me ook al daar in Dub, daarna door naar Parijs Baby, zeg alleen maar Poef, en je weet je verdwijnt En ben ik effe weg, ben ik calling Ben een junk voor je font- en je back en Schat, ik weet niet maar je juice is verslavend Want ik wil 't weer again and again and again Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten Baby, ik voel de liefde Ik wil je hebben, baby, kan niet meer liegen Yeah Je laat me je pleasen We kunnen samen overal naartoe vliegen Baby Ik ben weer in de mood, zet je body op mij Echt je heupen zijn gevaalijk, dit kan zo m'n dood zijn Lieve schat, je bent een ster hoe je in de nacht schijnt Met jou ik heb geen haast, baby girl, ik heb tijd En ben ik effe weg, ben ik calling Ben een junk voor je font- en je back en Schat, ik weet niet maar je juice is verslavend Want ik wil 't weer again and again and again Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mmm, the very first time you kissed me, it was so thrilling What made it so great was I knew that your heart was willing I never thought that I'd give love a try Then you came a-walking by And gave me my first taste of love Mmm, the very first time you held me, it was so nice I finally found this place they call paradise Oh, I was such a sad and lonely guy Then you came a walking by And gave me my first taste of love Your lips upon my lips Your arms around my waist How can I forget that first date Mmm, so keep your head on my shoulder Stay real close, baby, don't let go Don't think of tomorrow Let's live for tonight because I love you so You see that love light gleaming in my eye Swear it's gonna never die 'Cause I've got my first taste of love You see that love light gleaming in my eye Swear it's never gonna die 'Cause I've got my first taste of love You might also likeSwear it's never gonna die 'Cause I've got my first taste of love Swear it's gonna never die 'Cause I've got my first taste of love</t>
+          <t>Mmm, the very first time you kissed me, it was so thrilling What made it so great was I knew that your heart was willing I never thought that I'd give love a try Then you came a-walking by And gave me my first taste of love Mmm, the very first time you held me, it was so nice I finally found this place they call paradise Oh, I was such a sad and lonely guy Then you came a walking by And gave me my first taste of love Your lips upon my lips Your arms around my waist How can I forget that first date Mmm, so keep your head on my shoulder Stay real close, baby, don't let go Don't think of tomorrow Let's live for tonight because I love you so You see that love light gleaming in my eye Swear it's gonna never die 'Cause I've got my first taste of love You see that love light gleaming in my eye Swear it's never gonna die 'Cause I've got my first taste of love Swear it's never gonna die 'Cause I've got my first taste of love Swear it's gonna never die 'Cause I've got my first taste of love</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>It was fiesta down in Mexico And so I stopped a while to see the show I knew that frenesí meant 'please love me' And I could say frenesí A lovely señorita caught my eye I stood enchanted as she wandered by And never knowing that it came from me I gently sighed frenesí She stopped and raised her eyes to mine Her lips just pleaded to b kissed Her eys were soft as candle shine So how could I resist? Mmm, without a heart that I could call my own Oh, greater happiness I've never known Because her kisses are for me alone Who wouldn't have said frenesí? She stopped and raised her eyes to mine Her lips just pleaded to be kissed Her eyes were soft as candle shine So how was I to resist Mmm, without a heart that I could call my own Oh, greater happiness I've never known Because her kisses are for me alone Who wouldn't have said frenesí? Who wouldn't have said frenesí? Mmm, who wouldn't have said frenesí?You might also like</t>
+          <t>It was fiesta down in Mexico And so I stopped a while to see the show I knew that frenesí meant 'please love me' And I could say frenesí A lovely señorita caught my eye I stood enchanted as she wandered by And never knowing that it came from me I gently sighed frenesí She stopped and raised her eyes to mine Her lips just pleaded to b kissed Her eys were soft as candle shine So how could I resist? Mmm, without a heart that I could call my own Oh, greater happiness I've never known Because her kisses are for me alone Who wouldn't have said frenesí? She stopped and raised her eyes to mine Her lips just pleaded to be kissed Her eyes were soft as candle shine So how was I to resist Mmm, without a heart that I could call my own Oh, greater happiness I've never known Because her kisses are for me alone Who wouldn't have said frenesí? Who wouldn't have said frenesí? Mmm, who wouldn't have said frenesí?</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Its a tricky situation Hard to say just what the outcome will be If you saw the riddle you can save your soul Chase loves shadows till the rivers running cold Hey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love Theres a longing in the people No one knows just when the heartaches will cease You can free and tell her, you can stay and fight You can stand in line and scream Hey, its just my right Hey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love So a smile, another fallin star ........................... So until we find Just put your hand in mine, oh yeah Its a tricky situation Heaven knows just where the struggle must end If it takes forever, Id got the time above I wont desert you when the tables have turned You might also likeHey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love All the way for love, get it up all the way Get it up all the way</t>
+          <t>Its a tricky situation Hard to say just what the outcome will be If you saw the riddle you can save your soul Chase loves shadows till the rivers running cold Hey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love Theres a longing in the people No one knows just when the heartaches will cease You can free and tell her, you can stay and fight You can stand in line and scream Hey, its just my right Hey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love So a smile, another fallin star ........................... So until we find Just put your hand in mine, oh yeah Its a tricky situation Heaven knows just where the struggle must end If it takes forever, Id got the time above I wont desert you when the tables have turned Hey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love All the way for love, get it up all the way Get it up all the way</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Goodnight, my love, the tired old moon is descending Goodnight, my love, my moment with you now is ending It was so heavenly, holding you close to me It will be heavenly to hold you again in a dream The stars above have promised to meet us tomorrow 'Til then, my love, how dreary the new day will seem So for the present, dear, we'll have to part Sleep tight, my love, goodnight, my love Remember that you're mine, sweetheart You might also like</t>
+          <t>Goodnight, my love, the tired old moon is descending Goodnight, my love, my moment with you now is ending It was so heavenly, holding you close to me It will be heavenly to hold you again in a dream The stars above have promised to meet us tomorrow 'Til then, my love, how dreary the new day will seem So for the present, dear, we'll have to part Sleep tight, my love, goodnight, my love Remember that you're mine, sweetheart</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Granada I'm falling under your spell And if you could speak What a fascinating tale you would tell Of an age The world has long forgotten Of an age That weaves the silent magic in Granada today The dawn in the sky Greets the day with a sigh for Granada For she can remember The splendor that once was Granada It still can be found In the hills all around as I wander along Entranced by the beauty before me Entranced by the land full of sunshine and flowers and song And when day is done And the sun starts to set in Granada I envy the bliss of th snow clad serenada For soon it will welcom the stars While a thousand guitars play a soft Habanera The moonlight Granada will live again The glory of yesterday, romantic and gayYou might also like</t>
+          <t>Granada I'm falling under your spell And if you could speak What a fascinating tale you would tell Of an age The world has long forgotten Of an age That weaves the silent magic in Granada today The dawn in the sky Greets the day with a sigh for Granada For she can remember The splendor that once was Granada It still can be found In the hills all around as I wander along Entranced by the beauty before me Entranced by the land full of sunshine and flowers and song And when day is done And the sun starts to set in Granada I envy the bliss of th snow clad serenada For soon it will welcom the stars While a thousand guitars play a soft Habanera The moonlight Granada will live again The glory of yesterday, romantic and gay</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>See my baby coming down the track Bet you my baby's comin' back Soon as she gets back to me We're gonna raise a family And we're gonna groove, oh, groove We're all groove, yeah , groove And we're gonna love, love, until the break of dawn Ah ha hah ha One of these mornings, and it won't be long You'll look for me, and I'll be gone Goin' back to where I'll belong Where 'please' means 'please' and 'come' means com And we're gonna groove, yah, groove We're gonna groove, yeah, groove And we're gonna love, love, love, love, love until the break of dawn Ah ha hah hah Yeah Sweet as sweet as sweet can be You don't know what you doin' to me You had set my soul on fire Let me say you're my one desire You might also likeAnd we're gonna groove, yeah, groove We're gonna groove, oh, groove And we're gonna love, love, love, love, love, love, until the break of dawn Oh oh oh Yes, I'm groovin', woah, groovin' We're gonna groove, yeah, groove And we're gonna love, love, love, love, love, until the break of dawn Ah ha hah hah Come on, babe Hey, babe Hey, babe Hey, babe Come on, babe Come on, babe Hey, babe</t>
+          <t>See my baby coming down the track Bet you my baby's comin' back Soon as she gets back to me We're gonna raise a family And we're gonna groove, oh, groove We're all groove, yeah , groove And we're gonna love, love, until the break of dawn Ah ha hah ha One of these mornings, and it won't be long You'll look for me, and I'll be gone Goin' back to where I'll belong Where 'please' means 'please' and 'come' means com And we're gonna groove, yah, groove We're gonna groove, yeah, groove And we're gonna love, love, love, love, love until the break of dawn Ah ha hah hah Yeah Sweet as sweet as sweet can be You don't know what you doin' to me You had set my soul on fire Let me say you're my one desire And we're gonna groove, yeah, groove We're gonna groove, oh, groove And we're gonna love, love, love, love, love, love, until the break of dawn Oh oh oh Yes, I'm groovin', woah, groovin' We're gonna groove, yeah, groove And we're gonna love, love, love, love, love, until the break of dawn Ah ha hah hah Come on, babe Hey, babe Hey, babe Hey, babe Come on, babe Come on, babe Hey, babe</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>See my baby coming down the track Bet you my baby's comin' back Soon as she gets back to me We're gonna raise a family And we're gonna groove, oh, groove We're all groove, yeah , groove And we're gonna love, love, until the break of dawn Ah ha hah ha One of these mornings, and it won't be long You'll look for me, and I'll be gone Goin' back to where I'll belong Where 'please' means 'please' and 'come' means com And we're gonna groove, yah, groove We're gonna groove, yeah, groove And we're gonna love, love, love, love, love until the break of dawn Ah ha hah hah Yeah Sweet as sweet as sweet can be You don't know what you doin' to me You had set my soul on fire Let me say you're my one desire You might also likeAnd we're gonna groove, yeah, groove We're gonna groove, oh, groove And we're gonna love, love, love, love, love, love, until the break of dawn Oh oh oh Yes, I'm groovin', woah, groovin' We're gonna groove, yeah, groove And we're gonna love, love, love, love, love, until the break of dawn Ah ha hah hah Come on, babe Hey, babe Hey, babe Hey, babe Come on, babe Come on, babe Hey, babe</t>
+          <t>See my baby coming down the track Bet you my baby's comin' back Soon as she gets back to me We're gonna raise a family And we're gonna groove, oh, groove We're all groove, yeah , groove And we're gonna love, love, until the break of dawn Ah ha hah ha One of these mornings, and it won't be long You'll look for me, and I'll be gone Goin' back to where I'll belong Where 'please' means 'please' and 'come' means com And we're gonna groove, yah, groove We're gonna groove, yeah, groove And we're gonna love, love, love, love, love until the break of dawn Ah ha hah hah Yeah Sweet as sweet as sweet can be You don't know what you doin' to me You had set my soul on fire Let me say you're my one desire And we're gonna groove, yeah, groove We're gonna groove, oh, groove And we're gonna love, love, love, love, love, love, until the break of dawn Oh oh oh Yes, I'm groovin', woah, groovin' We're gonna groove, yeah, groove And we're gonna love, love, love, love, love, until the break of dawn Ah ha hah hah Come on, babe Hey, babe Hey, babe Hey, babe Come on, babe Come on, babe Hey, babe</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>I said you looked fair in the evening snow But still a daisy with a yellow glow Now you're off somewhere I don't know But not to a place that I'm willing to go And all those nights when I told you things Traveled far and bought silver rings I'm going back to those stars, yes, I am For I wanna see the sunrise My facing the sea And does the gypsy still dance in your room? Using incense as our daily perfume Cleaning our hands with the same desires Or waking up early to see the fires To see the fires And all those nights when I told you things Traveled far and bought silver rings You might also like I'm going back to those stars, yes, I am For I wanna see the sunrise My facing the sea</t>
+          <t>I said you looked fair in the evening snow But still a daisy with a yellow glow Now you're off somewhere I don't know But not to a place that I'm willing to go And all those nights when I told you things Traveled far and bought silver rings I'm going back to those stars, yes, I am For I wanna see the sunrise My facing the sea And does the gypsy still dance in your room? Using incense as our daily perfume Cleaning our hands with the same desires Or waking up early to see the fires To see the fires And all those nights when I told you things Traveled far and bought silver rings I'm going back to those stars, yes, I am For I wanna see the sunrise My facing the sea</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Here comes the night See the stars in the sky Shining up above, night of love Darling, just you and I And here comes the night How I thrill to your kiss Music fills the air everywhere Night of magic and bliss Think of the moments, the hours and hours That we were apart Moments and hours that kept bringing showers of Tears to my heart, oh oh And here comes the night Like the others before But tonight's divine You are mine once more Think of the moments, the hours and hours That we were apart Moments and hours that kept bringing showers of Tears to my heart, oh oh And here comes the night Like the others before But tonight's divine You are mine once more You might also likeHere comes the night</t>
+          <t>Here comes the night See the stars in the sky Shining up above, night of love Darling, just you and I And here comes the night How I thrill to your kiss Music fills the air everywhere Night of magic and bliss Think of the moments, the hours and hours That we were apart Moments and hours that kept bringing showers of Tears to my heart, oh oh And here comes the night Like the others before But tonight's divine You are mine once more Think of the moments, the hours and hours That we were apart Moments and hours that kept bringing showers of Tears to my heart, oh oh And here comes the night Like the others before But tonight's divine You are mine once more Here comes the night</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>He don't love you like I love you If he did, he wouldn't break your heart He don't love you like I love you He's try-in' to tear us apart Fare thee well, I know you're leavin' I know you're leavin' For the new love that you've found The handsome guy that you've been dating, whoa I got a feelin' he's gonna put you down 'cause He don't love you like I love you If he did, he wouldn't break your heart He don't love you like I love you He's try-in' to tar us apart He uses all the great quotations Says the things I wish I could say Whoa, but he's has so many rehearsals Girl, to him it's just another play but wait When the final act is over And you're left standing all alone When he takes his bow and makes his exit Girl, I'll be there to take you home You might also likeHe don't love you and he never will like I love you If he did, he wouldn't break your heart Oh, he don't love you, girl, like I love you He's try-in' to tear us apart Whoa, he don't love you</t>
+          <t>He don't love you like I love you If he did, he wouldn't break your heart He don't love you like I love you He's try-in' to tear us apart Fare thee well, I know you're leavin' I know you're leavin' For the new love that you've found The handsome guy that you've been dating, whoa I got a feelin' he's gonna put you down 'cause He don't love you like I love you If he did, he wouldn't break your heart He don't love you like I love you He's try-in' to tar us apart He uses all the great quotations Says the things I wish I could say Whoa, but he's has so many rehearsals Girl, to him it's just another play but wait When the final act is over And you're left standing all alone When he takes his bow and makes his exit Girl, I'll be there to take you home He don't love you and he never will like I love you If he did, he wouldn't break your heart Oh, he don't love you, girl, like I love you He's try-in' to tear us apart Whoa, he don't love you</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>What if I had the power to gather all of my favorite MCs With the illest comic book characters and make them arch enemies? Inconcievable? Unbelievable? Yet as wild as it seems The Emperor and Stan Lee would coach the two opposing teams What if I took my love for hip-hop and comics and made it equal And gave the people Secret Wars Part Two the long awaited sequel An animated hip-hop grudge match, I'll make it lethal How would my favorite rappers perform in the face of evil? I'd take the RZA from Wu-Tang, yes the Rzarector Versus Captain America, our nation's oldest protector Of homeland security, the top defender, top Avenger He gets dropped and injured when raw hip-hop commences Now it gets critical when Bobby Digital crosses Captain America Perhaps the Red Skull would have to jump in it too But the RZA was too nimble, the Red Skull licked off shots to hit him RZA then launches the Wu symbol into the New York skyline Timed the Red Skull, get blown apart by the Ghostface Killah alias Tony Starks AKA Iron Man, Ghost Deini the scientist The top contender what other Wu members could I enlist? Who's next to die in this? I would take Masta Killa and Golden Arms versus Power Man and Iron Fist Imagine Blade the black hunter of vampires Goin after DMX the dog from the Ruff Ryders RRRRR... I mean there's no tellin how they might react, I've seen how X can bite the track Would Blade be afraid or fight and then leave with his life intact? Yo Blade, I think you got me wrong, I ain't that type of cat And if you're tryin' to step to the dog I'll have to bite you back I saw DMX break him apart, take him apart He played with the art, I saw X drive a stake through his heart Another mission accomplished, X came, saw and he conquered Buried Blade's body in a shallow graveyard in Yonkers Imagine after seein X puttin in work Watch in the ring, you'll see the illest pitbull in a skirt Reppin' the double R, the first lady from Philly, Eve y'all Versus David Banner's amazon cousin called the She-Hulk Jump in the ring and starts swingin I see punches, they're movin in and out Two femme fatales engaged in a cage match, two woman bout A lot of female rap is played but not Eve They done got Eve knockin chickens out like Leila Ali Then I see the She-Hulk hits the canvas, Stan Lee now gets embarrassed So his plan is to summon Sub-Mariner from Atlantis Far due to include ATL in this war It's foolishness, I just get Ludacris to settle the score In any bout or brawl you're about to fall I spit alcohol, a drowned person named Moore Actually he's no match for me I put him to sleep You need to see and then came Thor Ludacris and the mighty Thor, the battle I chose Had Thor swingin' his hammer while Cris was throwin' 'em bones He sent Thor back to Valhalla, made Sub-Mariner sea-sick Scores a victory for hip-hop plus the DTP clique, uh My battle-rappin is war, my raps is hardcore Imagine the Roc-A-Fella camp versus the Fantastic Four As I get deep with it, Marvel Comics street lyrics As we proceed with it, Jay-Z versus Reed Richards Imagine Mr Fantastic and Hova goin' at it, Jigga spits like an automatic Click click click, it's over damn it Any static from Human Torch, y'all know the procedure Send a message to Young Memphis, he'll go and defeat him Am easy, believe me Johnny callin' my name out, come with it I spit it real cool and I'm puttin' your flame out, uh Remember Memphis, Secret Wars is a critical world Where rappers disappear like a meal in the invincible girl But let's not forget Benjamin J. Grimm Now what kind of rapper could Roc-A-Fella get to slay him? I mean, who would step inside the ring Who would have the right to swing Enough muscle and might to bring? Beanie Sigel fights the Thing! Imagine Beanie and Ben Grimm goin spit for spit Beanie Sigel and The Thing going brick for brick Now what I saw was the board get gully He messed around and got knucked out by the Broad Street bully But yo we got a slight problem as the Hobgoblin glides in I see him droppin' bombs on the crowd So I'll just have to get Freeway with the buckshot He shot him, firing, knockin him down Ow, Reppin the city of Philly back to the ring when I'm distracted by Joey Crack Fat Joe knocks out the Kingpin The Kingpin thought that he could extort Don Cartagena But not in this terrordome, this is Terror Squad's arena And there's a lot of room for these rappers that I produced Keith Murray came home in a hurry to box Dr Doom My miscellaneous instantaneous battle techniques will leave him scarred Courtesy of the Death Squad and LOD Let's see the crowd's reaction from action, turn up the lights No doubt it's hype from all these rappers in my house tonight But live via satellite look who's about to fight From the Brick City it's the Outsidaz versus Alpha Flight The Jersey regulators, Young Zee versus Vindicator Rah Digga took out Snowbird with words that she served and then she slayed her And later Asis and Slangtongue with their pattern of rhymin' Kick back to back freestyles that took out Puck and the Shaman The Outs tore it down like they're doin' on tour Pace1 punched out the Sasquatch and yelled I declare war Now it seems World War 3 is in progress Of course the Punisher would target the leader from Onyx Yeah, Sticky Fingaz, I kill rappers while holdin' my gat That means I slam the Punisher and put a hole in his back You know how I act, what up, try and look, let's see He's finished, I'm in it to win it for the USG As you can see there's no casualties on my team Me versus Stan Lee is more like man vs machine I've seen Xzibit from the West flyin' in Versus Colossus, X-Man with the iron skin Xzibit suckerpunched the rushin' knocked the thing There's no choice in my arena, it's either die or win, but then This is all that happens if heroes target rappers Then wouldn't Matt Murdoch be going after Marshal Mathers Would Eminem then use the Daredevil for target practice Slim Shady maybe Ben Affleck catch record then cause disaster Somebody find a gurdy, I'm'a stretch then blind the turdy Bury him alive and burn him, tell D12 he tried to earn me Now this certainly serves as a hideous mixed win I call D12 to fight the Insidious Six and This fight music produces bumps and bruises as the Scorpion and Rhino fight Kuniva and Proof Swifty McVeigh slayed Mysterio on his illusions Kon Artis gave the Chameleon some minor contusions Then I heard this loud sound at first I thought was a bomb No you idiot! It's just Bizarre versus the Blob They went and took the belt from a battle I felt they insured Back to the 8 Mile where it's wild and held it down for Detroit Now as the time went out, Stan Lee is checkin' the clock There's room for one last battle, let's see if y'all feel me or not My ultimate tag-team would be like Biggie and Pac Stan Lee would get the Black Panther to team up with Juggernaut Biggie snatched off his helmet, threw it to a fan in the audience Turned to the crowd uh and said So all be sure give that man a warning Cuz I'm'a fought'em this is real my performance I'm the, weed smoke helps my endurance Yeah Big, still reppin blocks in BK I say one of the best who was ever destined to rock Rhyme sayer and slayer of Xavier's brother Juggernaut But now let's not forget the Black Panther and Pac Holla if ya hear me, superheroes is tryin' to kill me The son of a panther to slam ya, ride with me It's Stan Lee, I'm sure you remember me, even in death my words leave a legacy Two hip-hop titans and giants at war when they died In the afterlife standin' together, fightin' side by side From Marvel to DC to Dark Horse to Image Bear witness the power of hip-hop, there are no limits To all worthy opponents, heroes, challengers, contenders These are the Last Emperor's Secret Wars, I'm finishedYou might also like1</t>
+          <t>What if I had the power to gather all of my favorite MCs With the illest comic book characters and make them arch enemies? Inconcievable? Unbelievable? Yet as wild as it seems The Emperor and Stan Lee would coach the two opposing teams What if I took my love for hip-hop and comics and made it equal And gave the people Secret Wars Part Two the long awaited sequel An animated hip-hop grudge match, I'll make it lethal How would my favorite rappers perform in the face of evil? I'd take the RZA from Wu-Tang, yes the Rzarector Versus Captain America, our nation's oldest protector Of homeland security, the top defender, top Avenger He gets dropped and injured when raw hip-hop commences Now it gets critical when Bobby Digital crosses Captain America Perhaps the Red Skull would have to jump in it too But the RZA was too nimble, the Red Skull licked off shots to hit him RZA then launches the Wu symbol into the New York skyline Timed the Red Skull, get blown apart by the Ghostface Killah alias Tony Starks AKA Iron Man, Ghost Deini the scientist The top contender what other Wu members could I enlist? Who's next to die in this? I would take Masta Killa and Golden Arms versus Power Man and Iron Fist Imagine Blade the black hunter of vampires Goin after DMX the dog from the Ruff Ryders RRRRR... I mean there's no tellin how they might react, I've seen how X can bite the track Would Blade be afraid or fight and then leave with his life intact? Yo Blade, I think you got me wrong, I ain't that type of cat And if you're tryin' to step to the dog I'll have to bite you back I saw DMX break him apart, take him apart He played with the art, I saw X drive a stake through his heart Another mission accomplished, X came, saw and he conquered Buried Blade's body in a shallow graveyard in Yonkers Imagine after seein X puttin in work Watch in the ring, you'll see the illest pitbull in a skirt Reppin' the double R, the first lady from Philly, Eve y'all Versus David Banner's amazon cousin called the She-Hulk Jump in the ring and starts swingin I see punches, they're movin in and out Two femme fatales engaged in a cage match, two woman bout A lot of female rap is played but not Eve They done got Eve knockin chickens out like Leila Ali Then I see the She-Hulk hits the canvas, Stan Lee now gets embarrassed So his plan is to summon Sub-Mariner from Atlantis Far due to include ATL in this war It's foolishness, I just get Ludacris to settle the score In any bout or brawl you're about to fall I spit alcohol, a drowned person named Moore Actually he's no match for me I put him to sleep You need to see and then came Thor Ludacris and the mighty Thor, the battle I chose Had Thor swingin' his hammer while Cris was throwin' 'em bones He sent Thor back to Valhalla, made Sub-Mariner sea-sick Scores a victory for hip-hop plus the DTP clique, uh My battle-rappin is war, my raps is hardcore Imagine the Roc-A-Fella camp versus the Fantastic Four As I get deep with it, Marvel Comics street lyrics As we proceed with it, Jay-Z versus Reed Richards Imagine Mr Fantastic and Hova goin' at it, Jigga spits like an automatic Click click click, it's over damn it Any static from Human Torch, y'all know the procedure Send a message to Young Memphis, he'll go and defeat him Am easy, believe me Johnny callin' my name out, come with it I spit it real cool and I'm puttin' your flame out, uh Remember Memphis, Secret Wars is a critical world Where rappers disappear like a meal in the invincible girl But let's not forget Benjamin J. Grimm Now what kind of rapper could Roc-A-Fella get to slay him? I mean, who would step inside the ring Who would have the right to swing Enough muscle and might to bring? Beanie Sigel fights the Thing! Imagine Beanie and Ben Grimm goin spit for spit Beanie Sigel and The Thing going brick for brick Now what I saw was the board get gully He messed around and got knucked out by the Broad Street bully But yo we got a slight problem as the Hobgoblin glides in I see him droppin' bombs on the crowd So I'll just have to get Freeway with the buckshot He shot him, firing, knockin him down Ow, Reppin the city of Philly back to the ring when I'm distracted by Joey Crack Fat Joe knocks out the Kingpin The Kingpin thought that he could extort Don Cartagena But not in this terrordome, this is Terror Squad's arena And there's a lot of room for these rappers that I produced Keith Murray came home in a hurry to box Dr Doom My miscellaneous instantaneous battle techniques will leave him scarred Courtesy of the Death Squad and LOD Let's see the crowd's reaction from action, turn up the lights No doubt it's hype from all these rappers in my house tonight But live via satellite look who's about to fight From the Brick City it's the Outsidaz versus Alpha Flight The Jersey regulators, Young Zee versus Vindicator Rah Digga took out Snowbird with words that she served and then she slayed her And later Asis and Slangtongue with their pattern of rhymin' Kick back to back freestyles that took out Puck and the Shaman The Outs tore it down like they're doin' on tour Pace1 punched out the Sasquatch and yelled I declare war Now it seems World War 3 is in progress Of course the Punisher would target the leader from Onyx Yeah, Sticky Fingaz, I kill rappers while holdin' my gat That means I slam the Punisher and put a hole in his back You know how I act, what up, try and look, let's see He's finished, I'm in it to win it for the USG As you can see there's no casualties on my team Me versus Stan Lee is more like man vs machine I've seen Xzibit from the West flyin' in Versus Colossus, X-Man with the iron skin Xzibit suckerpunched the rushin' knocked the thing There's no choice in my arena, it's either die or win, but then This is all that happens if heroes target rappers Then wouldn't Matt Murdoch be going after Marshal Mathers Would Eminem then use the Daredevil for target practice Slim Shady maybe Ben Affleck catch record then cause disaster Somebody find a gurdy, I'm'a stretch then blind the turdy Bury him alive and burn him, tell D12 he tried to earn me Now this certainly serves as a hideous mixed win I call D12 to fight the Insidious Six and This fight music produces bumps and bruises as the Scorpion and Rhino fight Kuniva and Proof Swifty McVeigh slayed Mysterio on his illusions Kon Artis gave the Chameleon some minor contusions Then I heard this loud sound at first I thought was a bomb No you idiot! It's just Bizarre versus the Blob They went and took the belt from a battle I felt they insured Back to the 8 Mile where it's wild and held it down for Detroit Now as the time went out, Stan Lee is checkin' the clock There's room for one last battle, let's see if y'all feel me or not My ultimate tag-team would be like Biggie and Pac Stan Lee would get the Black Panther to team up with Juggernaut Biggie snatched off his helmet, threw it to a fan in the audience Turned to the crowd uh and said So all be sure give that man a warning Cuz I'm'a fought'em this is real my performance I'm the, weed smoke helps my endurance Yeah Big, still reppin blocks in BK I say one of the best who was ever destined to rock Rhyme sayer and slayer of Xavier's brother Juggernaut But now let's not forget the Black Panther and Pac Holla if ya hear me, superheroes is tryin' to kill me The son of a panther to slam ya, ride with me It's Stan Lee, I'm sure you remember me, even in death my words leave a legacy Two hip-hop titans and giants at war when they died In the afterlife standin' together, fightin' side by side From Marvel to DC to Dark Horse to Image Bear witness the power of hip-hop, there are no limits To all worthy opponents, heroes, challengers, contenders These are the Last Emperor's Secret Wars, I'm finished1</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NARRATOR Planet Earth, 1835 Samuel Stratford sits behind a desk A reporter for the New York Sun A new newspaper trying to compete But they're going down and everyone knows it Young man with a pencil Immigrant son with a heart made of gold Young man with potential Imagination, twenty-seven years old SAMUEL Planet Earth needs something different CHORUS Samuel Stratford's flipping through a notebook NARRATOR Earnest, anxious, full of passion Samuel wants to show his boss BENJAMIN He's gonna hate it, everyone knows it NARRATOR Samuel's best friend Benjamin knows it You might also likeSAMUEL Benjamin, you need to see this Rose and I have written something awesome BENJAMIN Every time you have that notebook I know you are gonna cause a problem CHORUS Benjamin, the editor Keys to the press and keys to the door NARRATOR Best friend, the editor He's had this conversation before SAMUEL There are fifteen hundred newspapers in New York City BENJAMIN No there aren't SAMUEL I'm just saying- The one that pays us to produce Is one of many Even if there's minor variations In the way the story's told The news is just the news And the news is getting old CHORUS In 1835 The news of the world has passed us by SAMUEL Now it will take a miracle To keep our printing press alive CHORUS When you look up 1835 Honestly, we would not be surprised If there was not a single word About our ultimate demise BENJAMIN But the Sun revolves 'round Planet Earth And nothing's gonna change that SAMUEL The sun doesn't revolve around the Earth BENJAMIN The one from New York does SAMUEL Why not add a little bit of fiction? Why not add a little bit of style? Why not add a little bit of swagger? Why not add adventure to the pile? A featured story, it could be anything Science, horror, myth, or magic Future lands and future glories BENJAMIN I suppose you'd write the stories SAMUEL Well, you know that we have a few ideas... BENJAMIN We? You and Rose? SAMUEL My sister is incredible Her imagination's just as big as mine BENJAMIN Your sister is incredible But I'm telling you that this is not the time SAMUEL I promised Rose BENJAMIN It's for the best SAMUEL But this is good BENJAMIN Give it a rest I am doing you a favor CHORUS Our paper writes the news BENJAMIN Save your fantasies later NARRATOR Chester Thomas Owner of the New York Sun Opens his door And stares at everyone Standing tall as he projects Power as he puffs his chest But he's nervous as the rest Imagination's been destroyed In his mind, there is a void Failure's made him paranoid He can feel he's losing grip Captain of a sinking ship Still, he's sneering as he quips THOMAS The New York Sentinel THOMAS, CHORUS Our rival THOMAS Have given us our daily pounding Every day is a fight for THOMAS,CHORUS Survival THOMAS I know that isn't news But how often we lose Is really quite astounding Benjamin BENJAMIN Yes? THOMAS Our deadline has arrived Do you have our articles together? BENJAMIN Almost ready, I'm just helping Samuel fix his story on the weather SAMUEL The weather? BENJAMIN The weather SAMUEL But- BENJAMIN Not now NARRATOR Chester Thomas squints his eyes He can tell that Samuel lies THOMAS This is not a trick, is it? Not another trick, Samuel Let me see your notebook SAMUEL ... No THOMAS What? Let me see your notebook BENJAMIN Please, sir, don't- THOMAS I've lost track of all the times You come to me with grand designs My orders always undermined In the name of fiction Tell me, do you think That will save us from the brink? That trash isn't worth the ink SAMUEL You're wrong! SAMUEL It is 1835 Sir, you've got to open your eyes Simply being good is not enough, we must be wise That readers in 1835 Don't just wanna live, they wanna feel alive THOMAS The only one not good enough is you, I've realized Samuel, let me see your notebook CHORUS Let him see your notebook THOMAS Let me see your notebook CHORUS Let him see your notebook Let him see your notebook Let him see your notebook Now THOMAS Great Astronomical Discoveries... NARRATOR Thomas tears the notebook in half He shows Samuel to the door and laughs THOMAS laughs You're fired CHORUS The Sun revolves 'round Planet Earth And nothing's gonna change that THOMAS Everybody, back to work BENJAMIN Samuel... I'm sorry NARRATOR When the working day is through Samuel walks the avenue His footsteps' heavy as they hit the cobblestone Manhattan is a gorgeous site Broadway lit by candle lights And the only city he's ever known He wonders if his boss is right If this is all a losing fight There is one person who might change his mind...</t>
+          <t>NARRATOR Planet Earth, 1835 Samuel Stratford sits behind a desk A reporter for the New York Sun A new newspaper trying to compete But they're going down and everyone knows it Young man with a pencil Immigrant son with a heart made of gold Young man with potential Imagination, twenty-seven years old SAMUEL Planet Earth needs something different CHORUS Samuel Stratford's flipping through a notebook NARRATOR Earnest, anxious, full of passion Samuel wants to show his boss BENJAMIN He's gonna hate it, everyone knows it NARRATOR Samuel's best friend Benjamin knows it SAMUEL Benjamin, you need to see this Rose and I have written something awesome BENJAMIN Every time you have that notebook I know you are gonna cause a problem CHORUS Benjamin, the editor Keys to the press and keys to the door NARRATOR Best friend, the editor He's had this conversation before SAMUEL There are fifteen hundred newspapers in New York City BENJAMIN No there aren't SAMUEL I'm just saying- The one that pays us to produce Is one of many Even if there's minor variations In the way the story's told The news is just the news And the news is getting old CHORUS In 1835 The news of the world has passed us by SAMUEL Now it will take a miracle To keep our printing press alive CHORUS When you look up 1835 Honestly, we would not be surprised If there was not a single word About our ultimate demise BENJAMIN But the Sun revolves 'round Planet Earth And nothing's gonna change that SAMUEL The sun doesn't revolve around the Earth BENJAMIN The one from New York does SAMUEL Why not add a little bit of fiction? Why not add a little bit of style? Why not add a little bit of swagger? Why not add adventure to the pile? A featured story, it could be anything Science, horror, myth, or magic Future lands and future glories BENJAMIN I suppose you'd write the stories SAMUEL Well, you know that we have a few ideas... BENJAMIN We? You and Rose? SAMUEL My sister is incredible Her imagination's just as big as mine BENJAMIN Your sister is incredible But I'm telling you that this is not the time SAMUEL I promised Rose BENJAMIN It's for the best SAMUEL But this is good BENJAMIN Give it a rest I am doing you a favor CHORUS Our paper writes the news BENJAMIN Save your fantasies later NARRATOR Chester Thomas Owner of the New York Sun Opens his door And stares at everyone Standing tall as he projects Power as he puffs his chest But he's nervous as the rest Imagination's been destroyed In his mind, there is a void Failure's made him paranoid He can feel he's losing grip Captain of a sinking ship Still, he's sneering as he quips THOMAS The New York Sentinel THOMAS, CHORUS Our rival THOMAS Have given us our daily pounding Every day is a fight for THOMAS,CHORUS Survival THOMAS I know that isn't news But how often we lose Is really quite astounding Benjamin BENJAMIN Yes? THOMAS Our deadline has arrived Do you have our articles together? BENJAMIN Almost ready, I'm just helping Samuel fix his story on the weather SAMUEL The weather? BENJAMIN The weather SAMUEL But- BENJAMIN Not now NARRATOR Chester Thomas squints his eyes He can tell that Samuel lies THOMAS This is not a trick, is it? Not another trick, Samuel Let me see your notebook SAMUEL ... No THOMAS What? Let me see your notebook BENJAMIN Please, sir, don't- THOMAS I've lost track of all the times You come to me with grand designs My orders always undermined In the name of fiction Tell me, do you think That will save us from the brink? That trash isn't worth the ink SAMUEL You're wrong! SAMUEL It is 1835 Sir, you've got to open your eyes Simply being good is not enough, we must be wise That readers in 1835 Don't just wanna live, they wanna feel alive THOMAS The only one not good enough is you, I've realized Samuel, let me see your notebook CHORUS Let him see your notebook THOMAS Let me see your notebook CHORUS Let him see your notebook Let him see your notebook Let him see your notebook Now THOMAS Great Astronomical Discoveries... NARRATOR Thomas tears the notebook in half He shows Samuel to the door and laughs THOMAS laughs You're fired CHORUS The Sun revolves 'round Planet Earth And nothing's gonna change that THOMAS Everybody, back to work BENJAMIN Samuel... I'm sorry NARRATOR When the working day is through Samuel walks the avenue His footsteps' heavy as they hit the cobblestone Manhattan is a gorgeous site Broadway lit by candle lights And the only city he's ever known He wonders if his boss is right If this is all a losing fight There is one person who might change his mind...</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Aye, I defy gravity I'm going up to a whole 'nother galaxy Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I'm puttin' in work for what's mine My heart was the only casualty Somehow i turn all the stars into poetry Turn a butterfly knife into butterfly wings In the absence of thought, moments of peace Swim through the clouds, otherwise driftin' out to sea Leave em' thunderstruck, make em' fall in love Reach for the stars above, watch it all turn to dust I used to drink till' I was numb, there's nowhere that I'm from The darkness comin' on, by morning I'll be gone Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I put in work for what's mine My heart was the only casualty I stay in the cut, don't fly close to the sun Paper rose drifty I'm dressed like a bum I run it up to marathon, I used to panhandle with skinny jeans on I pair the denim with the camouflage, do this forever with my dawgs You might also like Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I put in work for what's mine My heart was the only casualty Leave em' thunderstruck, make em' fall in love Reach for the stars above i put in work for what's mine My heart was the only casualty Watch it all turn to dust I used to drink till' I was numb, there's nowhere that I'm from The darkness comin' on, by morning I'll be gone but my heart was the only casualty</t>
+          <t>Aye, I defy gravity I'm going up to a whole 'nother galaxy Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I'm puttin' in work for what's mine My heart was the only casualty Somehow i turn all the stars into poetry Turn a butterfly knife into butterfly wings In the absence of thought, moments of peace Swim through the clouds, otherwise driftin' out to sea Leave em' thunderstruck, make em' fall in love Reach for the stars above, watch it all turn to dust I used to drink till' I was numb, there's nowhere that I'm from The darkness comin' on, by morning I'll be gone Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I put in work for what's mine My heart was the only casualty I stay in the cut, don't fly close to the sun Paper rose drifty I'm dressed like a bum I run it up to marathon, I used to panhandle with skinny jeans on I pair the denim with the camouflage, do this forever with my dawgs Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I put in work for what's mine My heart was the only casualty Leave em' thunderstruck, make em' fall in love Reach for the stars above i put in work for what's mine My heart was the only casualty Watch it all turn to dust I used to drink till' I was numb, there's nowhere that I'm from The darkness comin' on, by morning I'll be gone but my heart was the only casualty</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Intro DJ J Hart Masta Ace J Hart, Budamunk, it's ya boy Masta Ace, MA, let's go Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Verse 1 Masta Ace Panorama rap, people from multiple sides Four dimensions, full attention and cultural pride My inventions and extensions that force you to ride With the windows down, those clowns toss 'em aside Like onions on a salad, them sounds are invalid I got something for your palette, that's actual talent They be screaming on the track, when in fact they be silent You listen to the best music, now act like I'm Khaled? Cool Another one, fall back 'til this brother's done Here for the long hole, like Scatman Crothers' run My voice dance on these tracks like doing the Bogle Every time out you hear something new in the vocal Read between the lines, see what I do to insult you Intimidate, eliminate your whole crew and approach you These are fightin' words, dressed in a spiritual touch Holdin' the game in the lyrical clutch, let's go You might also likeChorus DJ J Hart Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Verse 2 Masta Ace I'm a lumberjack knockin' rappers down like bank timber We playin' Spades and I'm holdin' every gang member In the palm of my hand, like I'm King Simba Your clothes small, little boy, like you're King Jimba Recede?, rappers are in jeopardy still If I don't get you then the deputy will This is what you call especially skill And I feel good all over like I'm Stephanie Mills, or cool Patrice Rushen, this percussion is worth a discussion Head trauma flow, give the whole Earth a concussion A CAT scan couldn't protect you from that man This black man is holdin' it down for the Rap fan I'm sick and tired of being tired of being sick and tired Understand that I was hired so you can get inspired To compete in this heat, 'til you win in every race On this real rocky road like Ben Jerry</t>
+          <t>Intro DJ J Hart Masta Ace J Hart, Budamunk, it's ya boy Masta Ace, MA, let's go Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Verse 1 Masta Ace Panorama rap, people from multiple sides Four dimensions, full attention and cultural pride My inventions and extensions that force you to ride With the windows down, those clowns toss 'em aside Like onions on a salad, them sounds are invalid I got something for your palette, that's actual talent They be screaming on the track, when in fact they be silent You listen to the best music, now act like I'm Khaled? Cool Another one, fall back 'til this brother's done Here for the long hole, like Scatman Crothers' run My voice dance on these tracks like doing the Bogle Every time out you hear something new in the vocal Read between the lines, see what I do to insult you Intimidate, eliminate your whole crew and approach you These are fightin' words, dressed in a spiritual touch Holdin' the game in the lyrical clutch, let's go Chorus DJ J Hart Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Verse 2 Masta Ace I'm a lumberjack knockin' rappers down like bank timber We playin' Spades and I'm holdin' every gang member In the palm of my hand, like I'm King Simba Your clothes small, little boy, like you're King Jimba Recede?, rappers are in jeopardy still If I don't get you then the deputy will This is what you call especially skill And I feel good all over like I'm Stephanie Mills, or cool Patrice Rushen, this percussion is worth a discussion Head trauma flow, give the whole Earth a concussion A CAT scan couldn't protect you from that man This black man is holdin' it down for the Rap fan I'm sick and tired of being tired of being sick and tired Understand that I was hired so you can get inspired To compete in this heat, 'til you win in every race On this real rocky road like Ben Jerry</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Imagine there's no heaven, it's easy if you try No hell below us, above us only sky Imagine all the people living for today Imagine there's no countries, it isn't hard to do Nothing to kill or die for and no religion too Imagine all the people living life in peace You, you may say I'm a dreamer but I'm not the only one I hope someday you'll join us and the world will be as one Imagine no possessions, I wonder if you can No need for greed or hunger, a brotherhood of man Imagine all the people sharing all the world You, you may say I'm a dreamer but I'm not the only one I hope someday you'll join us and the world will live as oneYou might also like</t>
+          <t>Imagine there's no heaven, it's easy if you try No hell below us, above us only sky Imagine all the people living for today Imagine there's no countries, it isn't hard to do Nothing to kill or die for and no religion too Imagine all the people living life in peace You, you may say I'm a dreamer but I'm not the only one I hope someday you'll join us and the world will be as one Imagine no possessions, I wonder if you can No need for greed or hunger, a brotherhood of man Imagine all the people sharing all the world You, you may say I'm a dreamer but I'm not the only one I hope someday you'll join us and the world will live as one</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gonna wait, 'til that midnight hour That's when my love, come tumbling down Gonna wait 'til that midnight hour When there's no one, I mean no one else around I'm gonna, take you girl, gonna hold ya I'm gonna do all those, GOOD THINGS that I told ya In the midnight hour-hour-hour-hour-ah-hour in the midnight hour There's no one else around I'm gonna wait, till that midnight hour That's when ya, see my love come tumbling down That's when you'll Lay lady lay You'll lay down on my big brass bed In the midnight in the midnight in the midnight hour Lay lady lay Lay down on my big brass bed In the midnight in the midnight in the midnight hour What ever colors you have, IN YO MIND I'LL SHOW THEM TO YOU, see them shine Stay, lady, stay Stay until I fix my head In the midnight in the midnight in the midnight hour You might also likeLay lady lay Lay down in my big brass bread In th midnight in the midnight in the midnight hour Gonna take yo girl, gonna hold hr one time I'm gonna do all those good thangs that i told her one mo time In the midnight hour-hour-hour-hour-ah-hour in the midnight hour Um-hmm-hmm-hmmm In the midnight in the midnight in the midnight hour Um-hmmm hmmmm-hmm-hmm-hmmm In the midnight in the midnight in the midnight hour Umm-uh-hmmm huh-um-um-hmm-hmmm In the midnight in the midnight in the midnight hour His clothes are dirty, but his hands are clean Girl YOU'RE THE BEST THING that the man has ever seen STAY LADY STAY Lady Stay with your man awhile In the midnight in the midnight in the midnight hour Lay lady lay Lay-down-in-my-big-brass-bed In the midnight in the midnight in the midnight hour Lay lady Layyy Stay until I fix my head In the midnight in the midnight in the midnight hour Why want you stay here Why want YOU STAY HERE? In The Midnight WHY WAIT ANY LONGER? In the midnight CAN HAVE YOUR CAKE AND EAT IT TOO In The Midnight WHY WAIT ANY LONGER FOR THIS LOVE In The Midnight When It's STANDING RIGHT HERE in front of you In The Midnight I LONG TO SEE YA, IN THE MORNIN' LIGHT In The Midnight AND I LONG TO REACH OUT FOR YA, IN THE MIDNIGHT In The Midnight Midnight hour In The midnight hour In the midnight hour I love ya lady</t>
+          <t>Gonna wait, 'til that midnight hour That's when my love, come tumbling down Gonna wait 'til that midnight hour When there's no one, I mean no one else around I'm gonna, take you girl, gonna hold ya I'm gonna do all those, GOOD THINGS that I told ya In the midnight hour-hour-hour-hour-ah-hour in the midnight hour There's no one else around I'm gonna wait, till that midnight hour That's when ya, see my love come tumbling down That's when you'll Lay lady lay You'll lay down on my big brass bed In the midnight in the midnight in the midnight hour Lay lady lay Lay down on my big brass bed In the midnight in the midnight in the midnight hour What ever colors you have, IN YO MIND I'LL SHOW THEM TO YOU, see them shine Stay, lady, stay Stay until I fix my head In the midnight in the midnight in the midnight hour Lay lady lay Lay down in my big brass bread In th midnight in the midnight in the midnight hour Gonna take yo girl, gonna hold hr one time I'm gonna do all those good thangs that i told her one mo time In the midnight hour-hour-hour-hour-ah-hour in the midnight hour Um-hmm-hmm-hmmm In the midnight in the midnight in the midnight hour Um-hmmm hmmmm-hmm-hmm-hmmm In the midnight in the midnight in the midnight hour Umm-uh-hmmm huh-um-um-hmm-hmmm In the midnight in the midnight in the midnight hour His clothes are dirty, but his hands are clean Girl YOU'RE THE BEST THING that the man has ever seen STAY LADY STAY Lady Stay with your man awhile In the midnight in the midnight in the midnight hour Lay lady lay Lay-down-in-my-big-brass-bed In the midnight in the midnight in the midnight hour Lay lady Layyy Stay until I fix my head In the midnight in the midnight in the midnight hour Why want you stay here Why want YOU STAY HERE? In The Midnight WHY WAIT ANY LONGER? In the midnight CAN HAVE YOUR CAKE AND EAT IT TOO In The Midnight WHY WAIT ANY LONGER FOR THIS LOVE In The Midnight When It's STANDING RIGHT HERE in front of you In The Midnight I LONG TO SEE YA, IN THE MORNIN' LIGHT In The Midnight AND I LONG TO REACH OUT FOR YA, IN THE MIDNIGHT In The Midnight Midnight hour In The midnight hour In the midnight hour I love ya lady</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>People all around me But I don't even have a friend Lord knows I've been trying But I just can't win Everything I do Seems to turn out wrong Sometimes I wish Oh, I wish I never was born Talkin' 'bout teardrops Nobody, nobody knows Talkin' 'bout long, lonely nights I've had more than my share Just ain't fair Just ain't fair Some folks got it easy They live the life of love and play Lord knows I've got to struggle Got to struggle to make my way One of these days, y'all Gonna reach the top, yes I will I know I can make it 'Cause these tears won't let me stop You might also likeTalkin' 'bout teardrops Nobody, nobody cares Talkin' 'bout long, lonely nights, listen I've had more than my share It just ain't fair It just ain't fair It just ain't fair You know it ain't fair Nobody to call my own it just ain't fair Just stay at home it just ain't fair Listen to my own it just ain't fair No, it ain't fair it just ain't fair</t>
+          <t>People all around me But I don't even have a friend Lord knows I've been trying But I just can't win Everything I do Seems to turn out wrong Sometimes I wish Oh, I wish I never was born Talkin' 'bout teardrops Nobody, nobody knows Talkin' 'bout long, lonely nights I've had more than my share Just ain't fair Just ain't fair Some folks got it easy They live the life of love and play Lord knows I've got to struggle Got to struggle to make my way One of these days, y'all Gonna reach the top, yes I will I know I can make it 'Cause these tears won't let me stop Talkin' 'bout teardrops Nobody, nobody cares Talkin' 'bout long, lonely nights, listen I've had more than my share It just ain't fair It just ain't fair It just ain't fair You know it ain't fair Nobody to call my own it just ain't fair Just stay at home it just ain't fair Listen to my own it just ain't fair No, it ain't fair it just ain't fair</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Many a tear has to fall But it's all in the game All in the wonderful game That we know has love You have words with him And your future's looking dim But these things Your heart can rise above Once in a while he won't call But it's all in the game Soon he'll be there at your side With a sweet ok And he'll kiss your lips And caress your waiting fingertips And your heart will fly away Once in a while he won't call But it's all in the game Soon he'll be there at your side With a sweet ok And he'll kiss your lips And caress your waiting fingertips And your heart will fly away And your heart will fly away And your heart will fly awayYou might also like</t>
+          <t>Many a tear has to fall But it's all in the game All in the wonderful game That we know has love You have words with him And your future's looking dim But these things Your heart can rise above Once in a while he won't call But it's all in the game Soon he'll be there at your side With a sweet ok And he'll kiss your lips And caress your waiting fingertips And your heart will fly away Once in a while he won't call But it's all in the game Soon he'll be there at your side With a sweet ok And he'll kiss your lips And caress your waiting fingertips And your heart will fly away And your heart will fly away And your heart will fly away</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Outside her window That's where I am Every night and every day And outside her window I cry-y-y-y my life away There's a jukebox playing Just a half a block down Saying I'm going to the river Gonna jump right in and drown But I ain't gonna do that, girl No, no, I'll just keep on hanging around Even though it's All over Can't you hear me All over Don't you leave me It's all over Now, now, now, now, now, now Now, now, now, now, now, now Outside her window A pretty bird come to play And I know I cried, I cried a tear I must have scared that pretty little thing That pretty little thing away, yes, I did You might also likeWhen I see two young lovers Walking down the street, yes, indeed Whoa, how it kills me When I see their two lips meet Then I pass my hand right over Where my heart once used to be And you know it's All over I wonder, do you believe me All over I don't think you understand me It's all over oh, yes, it is Now, now, now, now, now, now Now, now, now, now, now, now I've got to say it Just one more time now Yes, it's all over Soembody help me tell my story All over yes, it is It's all over Now, now, now, now, now, now Now, now, now, now, now, now</t>
+          <t>Outside her window That's where I am Every night and every day And outside her window I cry-y-y-y my life away There's a jukebox playing Just a half a block down Saying I'm going to the river Gonna jump right in and drown But I ain't gonna do that, girl No, no, I'll just keep on hanging around Even though it's All over Can't you hear me All over Don't you leave me It's all over Now, now, now, now, now, now Now, now, now, now, now, now Outside her window A pretty bird come to play And I know I cried, I cried a tear I must have scared that pretty little thing That pretty little thing away, yes, I did When I see two young lovers Walking down the street, yes, indeed Whoa, how it kills me When I see their two lips meet Then I pass my hand right over Where my heart once used to be And you know it's All over I wonder, do you believe me All over I don't think you understand me It's all over oh, yes, it is Now, now, now, now, now, now Now, now, now, now, now, now I've got to say it Just one more time now Yes, it's all over Soembody help me tell my story All over yes, it is It's all over Now, now, now, now, now, now Now, now, now, now, now, now</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ey, ey, 035 is binnen Bariorecords is binnen Ey Ze zegt dat ik de beste ben Asha heeft al uitgespeeld Die klap wordt niet ontvangen broeder Hij wordt eerder uitgedeeld Verbrandde visie Maar toch ben ik liever buiten beeld Die man ziet tien taja Droomt alleen dat die naar buiten wilt Hij drinkt want dat verzacht de pijn Hij weet niet waar z'n matties zijn Van 100 koppen tellen naar weer werken in de appie heijn Dat is hoe het leven is Geloven als het tegen zit We trekken als er reden is Zelfs parra als er vrede is En jij rapt over shows, maar je zit thuis bro, je levert niks Rust aan m'n hoofd sinds m'n leven wat verbeterd is M'n boys met hoge eisen, jij zit nog voor een zedelict Geef me tien seconden nog voor die dooie gast gelezen is Ey, en jij maakt geen hap, geen grap Rijden in een hooptie of kan rijden in een V8 De meest bekende, maar ik ga niet op de fame af We schreeuwen 'fack rap' maar als het moet maak ik de game af Ik ga op stage en daarna weer van de stage af Veels te bruut hoe ik bitches in die Range klap We eten hier aan koppen, ik maak tonnen, meisje geen dank Al m'n brieven hebben geur, meisje geen stank Ik weet nog goed hoe al mijn haters nieuwe matties leken Koud door mij ik moet die actie geven Volop de aanval maar die jongen kan die gimma'tje ook tactisch spelen Wie ben jij a bro, jij mag niet spreken Ik moest er komen had m'n vader gezegd Als ik kijk naar hoe het loopt, heb ik het aardig gered, toch? Ik was het leventje beu Ik draag die ding op m'n heup Want bro we hadden geen keus Wat begint met een lach eindigt vaak in een breuk Je bent verslaafd, je kan niet meer zonder shit in je neus Je wordt gek als je niemand ziet Zo parranoia dat je gek wordt als je iemand ziet Wat weet je van de pijn, verdriet Van een soldier die z'n dingen voor z'n moeder doet Zit je aan m'n trots of eer ik laat je in je onderbroek Stap in de auto en we rijden richting morgen toe Drie nummer één hits op naam, dat weet je dondersgoed Zelfs in m'n trinna drip ik beter dan jouw domme look We staan sterk als Lukaku, noem me Romalu Ook Elon Musk is aan het werk, het is nooit genoeg Bloed, zweet en tranen die gevoel bro heb je nooit gevoeld Ik voel me lekker, ik ben independent Alsof ik ben bevrijd door de interpol Ik zeg die man ga niet te ver, jongen ken je grenzen Ik laat hem uit of trek hem in je mond Omgekeerde wereld, jongens lopen nu als bitches rond Bitches weer als jongens, domme jongens, sjonge jonge Heb respect voor m'n lady Ik zit al jaren in de trap, je beweegt niet Kom eens uit je daydreams Echt ik had al daar moeten zijn Maar ze hielden me tegen Ik was jong en onwetend Maar ook jong en ontketend Gewoon iemand die z'n dromen volgt De beste in de game en zoek je les ben ik de protocol De één zoekt kappers en de ander heeft de hoop op school Me hoofd op buit en deze kanten waren onze hoofden vol Je zag toen niks in mij, maar de kamer is al overvol All-inclusive, Ashafar is overal You might also like Ey, want ik ben op die do or die Ze kent mij en ze voelt me vibe Asha, ey De vraag is of je goed voor mij Ze zitten aan de M, terwijl ik een M sla Bradda luister opnieuw Ze houdt van me stem en ze weet dat ik ham ga Bro, want ik trek en ik duw In Amsterdam, en ik cho in een panthouse Wow, zie de stad als m'n view Stop met die rap, want echt waar je bent oud Hehe, want m'n patta is nieuw, wat is de deal, je wou dat ik viel Ik ben met je zusje in een Tiel, ieuw Asha is slim en jij een debiel De buurt die is heet, je hoort wieuw wieuw Ze weet dat ik trap all night, ik ben op cash all night Pak m'n buit en weg We leven die fast fast live, want ik ben een handsome guy Zeg me geen stress De vraag is wat je doet voor mij, weet 't niet Want ik ben op die do or die, probably Ze kent mij en ze voelt me vibe, o man gerie De vraag is ben je goed voor mij, weet 't niet De vraag is wat je doet voor mij, weet 't niet Want ik ben op die do or die, probably Ze kent mij en ze voelt me vibe, o man gerie De vraag is ben je goed voor mij, weet 't niet Ja man, een dikke SO naar Morad voor deze man, sjees A, a, a, ey Woe En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo Ey, laat me vliegen naar Panama als Tony Montana Geen Fandy maar DolceGabana Me jongen heeft class, ze heeft doekoe in tas Zegt vandaag niet in mood, schat ik zie je tamara Me ezy in Kom van ghana, paranoid deze libi is harra Houd er met hakar, luister naar Lijpe of Martar Ik ben zo zat oe me mara Zij ziet de pijn niet, Asha is consistentie Stand, ik geloof niet in de systeem Ik leef voor de rat die de police scamt Liesscan, niemand nodig ik move alleen Alleen, Rap als er even als kwenka Scarface geen manola ma kenla Ik ben niks, jij beweegt met agenda Kijk nu ik ben daar, ik rij nog steeds op de Vespa Ik sta nog steeds aan kop, ik sta nog steeds aan top Maar ben eenzaam ook Ik heb de game op slot Broeder ik geef geen fock, nee ik geef geen fock Ik ben met 50 of Makka, Sjakie of Zamza Rapper die levert ook Ik heb die game op slot, ik heb de game op slot, de game op slot En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo 035 is binnen voor deze gaan we een beetje losgaan Wazup guys, ey, ey Molenbeek aan vers, elke flow is vers Ilias, Ilias, tro bie, deze beat ik own die, motherfuck de police Ashafar zegt buit na Stacken stacken voor een Panamera Jongen daarvoor was d'r geen hoop Metro kwam in gezeik door m'n ego En we stuurden die blokken geen Lego Ga van Barca naar Londen als Deko Fock die mix heb genoeg aan een demo Door ballon worden drerries hier demoon In de streets en m'n boys hebben geen loon Die eten is bah net als dembah Januari zo spits als december Weer een junk die me belt en om hem vraagt Doe die junk op de pof en ik tem haar Ik ben op de weg, onderweg naar cash Waggie in z'n S, maar geen stress want ik ken het Keek naar mij, ken je mij, voor je ben het Broer die man is niet barkie, ey melk Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Phillip, Phillip Heb de picknick van Je hebt fans Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Noem m'n tijd en ik ben daar Ik move nog stiller dan Tesla's Ben op een fissa met kheb.. Ben van die meta, komen van brakka's op Vespa's Zeg ie niet twee keer, maar één maal Op een moment Banditia In groep één werd die Asha al Liga Als je klaagt ga ik zoeken naar vila's Scheur maar aan Fiat Luister naar Moment supreme Ik was jarig maar kreeg geen surprise, ja Angelina Jolie, zeg je eerlijk die vrouw is te nice, ja Je wordt wakker uit je droom met een big naast je Ik wordt wakker uit m'n droom met je bitch naast me Bel niet aan m'n deur, maar geen Sint Maarten Laat me met rust, ga de Sint vragen Waggie Duits, RR Trappen nu omhoog net als Jetlie Misschien dat ik verdwijn uit NL Haal die taggie uit je mond, bro ik ken die Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Pillip Phillip Heb de picknick van Je hebt fans Want ze vlogen omhoog als een raket Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Phillip, Phillip Heb de picknick van Je hebt fans Want ze vlogen omhoog als een raket Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Sjees Dit was 'm man rotjoch 035 was binnen Dikke SO naar iedereen Freezoeloe nog steeds</t>
+          <t>Ey, ey, 035 is binnen Bariorecords is binnen Ey Ze zegt dat ik de beste ben Asha heeft al uitgespeeld Die klap wordt niet ontvangen broeder Hij wordt eerder uitgedeeld Verbrandde visie Maar toch ben ik liever buiten beeld Die man ziet tien taja Droomt alleen dat die naar buiten wilt Hij drinkt want dat verzacht de pijn Hij weet niet waar z'n matties zijn Van 100 koppen tellen naar weer werken in de appie heijn Dat is hoe het leven is Geloven als het tegen zit We trekken als er reden is Zelfs parra als er vrede is En jij rapt over shows, maar je zit thuis bro, je levert niks Rust aan m'n hoofd sinds m'n leven wat verbeterd is M'n boys met hoge eisen, jij zit nog voor een zedelict Geef me tien seconden nog voor die dooie gast gelezen is Ey, en jij maakt geen hap, geen grap Rijden in een hooptie of kan rijden in een V8 De meest bekende, maar ik ga niet op de fame af We schreeuwen 'fack rap' maar als het moet maak ik de game af Ik ga op stage en daarna weer van de stage af Veels te bruut hoe ik bitches in die Range klap We eten hier aan koppen, ik maak tonnen, meisje geen dank Al m'n brieven hebben geur, meisje geen stank Ik weet nog goed hoe al mijn haters nieuwe matties leken Koud door mij ik moet die actie geven Volop de aanval maar die jongen kan die gimma'tje ook tactisch spelen Wie ben jij a bro, jij mag niet spreken Ik moest er komen had m'n vader gezegd Als ik kijk naar hoe het loopt, heb ik het aardig gered, toch? Ik was het leventje beu Ik draag die ding op m'n heup Want bro we hadden geen keus Wat begint met een lach eindigt vaak in een breuk Je bent verslaafd, je kan niet meer zonder shit in je neus Je wordt gek als je niemand ziet Zo parranoia dat je gek wordt als je iemand ziet Wat weet je van de pijn, verdriet Van een soldier die z'n dingen voor z'n moeder doet Zit je aan m'n trots of eer ik laat je in je onderbroek Stap in de auto en we rijden richting morgen toe Drie nummer één hits op naam, dat weet je dondersgoed Zelfs in m'n trinna drip ik beter dan jouw domme look We staan sterk als Lukaku, noem me Romalu Ook Elon Musk is aan het werk, het is nooit genoeg Bloed, zweet en tranen die gevoel bro heb je nooit gevoeld Ik voel me lekker, ik ben independent Alsof ik ben bevrijd door de interpol Ik zeg die man ga niet te ver, jongen ken je grenzen Ik laat hem uit of trek hem in je mond Omgekeerde wereld, jongens lopen nu als bitches rond Bitches weer als jongens, domme jongens, sjonge jonge Heb respect voor m'n lady Ik zit al jaren in de trap, je beweegt niet Kom eens uit je daydreams Echt ik had al daar moeten zijn Maar ze hielden me tegen Ik was jong en onwetend Maar ook jong en ontketend Gewoon iemand die z'n dromen volgt De beste in de game en zoek je les ben ik de protocol De één zoekt kappers en de ander heeft de hoop op school Me hoofd op buit en deze kanten waren onze hoofden vol Je zag toen niks in mij, maar de kamer is al overvol All-inclusive, Ashafar is overal Ey, want ik ben op die do or die Ze kent mij en ze voelt me vibe Asha, ey De vraag is of je goed voor mij Ze zitten aan de M, terwijl ik een M sla Bradda luister opnieuw Ze houdt van me stem en ze weet dat ik ham ga Bro, want ik trek en ik duw In Amsterdam, en ik cho in een panthouse Wow, zie de stad als m'n view Stop met die rap, want echt waar je bent oud Hehe, want m'n patta is nieuw, wat is de deal, je wou dat ik viel Ik ben met je zusje in een Tiel, ieuw Asha is slim en jij een debiel De buurt die is heet, je hoort wieuw wieuw Ze weet dat ik trap all night, ik ben op cash all night Pak m'n buit en weg We leven die fast fast live, want ik ben een handsome guy Zeg me geen stress De vraag is wat je doet voor mij, weet 't niet Want ik ben op die do or die, probably Ze kent mij en ze voelt me vibe, o man gerie De vraag is ben je goed voor mij, weet 't niet De vraag is wat je doet voor mij, weet 't niet Want ik ben op die do or die, probably Ze kent mij en ze voelt me vibe, o man gerie De vraag is ben je goed voor mij, weet 't niet Ja man, een dikke SO naar Morad voor deze man, sjees A, a, a, ey Woe En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo Ey, laat me vliegen naar Panama als Tony Montana Geen Fandy maar DolceGabana Me jongen heeft class, ze heeft doekoe in tas Zegt vandaag niet in mood, schat ik zie je tamara Me ezy in Kom van ghana, paranoid deze libi is harra Houd er met hakar, luister naar Lijpe of Martar Ik ben zo zat oe me mara Zij ziet de pijn niet, Asha is consistentie Stand, ik geloof niet in de systeem Ik leef voor de rat die de police scamt Liesscan, niemand nodig ik move alleen Alleen, Rap als er even als kwenka Scarface geen manola ma kenla Ik ben niks, jij beweegt met agenda Kijk nu ik ben daar, ik rij nog steeds op de Vespa Ik sta nog steeds aan kop, ik sta nog steeds aan top Maar ben eenzaam ook Ik heb de game op slot Broeder ik geef geen fock, nee ik geef geen fock Ik ben met 50 of Makka, Sjakie of Zamza Rapper die levert ook Ik heb die game op slot, ik heb de game op slot, de game op slot En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo 035 is binnen voor deze gaan we een beetje losgaan Wazup guys, ey, ey Molenbeek aan vers, elke flow is vers Ilias, Ilias, tro bie, deze beat ik own die, motherfuck de police Ashafar zegt buit na Stacken stacken voor een Panamera Jongen daarvoor was d'r geen hoop Metro kwam in gezeik door m'n ego En we stuurden die blokken geen Lego Ga van Barca naar Londen als Deko Fock die mix heb genoeg aan een demo Door ballon worden drerries hier demoon In de streets en m'n boys hebben geen loon Die eten is bah net als dembah Januari zo spits als december Weer een junk die me belt en om hem vraagt Doe die junk op de pof en ik tem haar Ik ben op de weg, onderweg naar cash Waggie in z'n S, maar geen stress want ik ken het Keek naar mij, ken je mij, voor je ben het Broer die man is niet barkie, ey melk Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Phillip, Phillip Heb de picknick van Je hebt fans Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Noem m'n tijd en ik ben daar Ik move nog stiller dan Tesla's Ben op een fissa met kheb.. Ben van die meta, komen van brakka's op Vespa's Zeg ie niet twee keer, maar één maal Op een moment Banditia In groep één werd die Asha al Liga Als je klaagt ga ik zoeken naar vila's Scheur maar aan Fiat Luister naar Moment supreme Ik was jarig maar kreeg geen surprise, ja Angelina Jolie, zeg je eerlijk die vrouw is te nice, ja Je wordt wakker uit je droom met een big naast je Ik wordt wakker uit m'n droom met je bitch naast me Bel niet aan m'n deur, maar geen Sint Maarten Laat me met rust, ga de Sint vragen Waggie Duits, RR Trappen nu omhoog net als Jetlie Misschien dat ik verdwijn uit NL Haal die taggie uit je mond, bro ik ken die Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Pillip Phillip Heb de picknick van Je hebt fans Want ze vlogen omhoog als een raket Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Phillip, Phillip Heb de picknick van Je hebt fans Want ze vlogen omhoog als een raket Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Sjees Dit was 'm man rotjoch 035 was binnen Dikke SO naar iedereen Freezoeloe nog steeds</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Katherine I heard his mother Talking about you Saying how cute you are Oh, but for her son, girl, you'll never do And here's one more thing I've got to let you know If he decided to ever let you go Girl, just call me when things get rough They say you'll never be good enough I hope you'll never be good enough for him But you're good enough for me Katherine They say wedding plans Have already been made I can hear his mother say Oh I'd love to put off until a later day And if he don't seem interested at all Dial my number I'll be waiting on your call Girl, you'll never be good enough They say you'll never be good enough I pray you'll never be good enough for him But you're good enough for me You might also likeOh, Katherine They may never understand I love you Place nobody else right here above you Ooh Katherine I heard his mother talking about you</t>
+          <t>Katherine I heard his mother Talking about you Saying how cute you are Oh, but for her son, girl, you'll never do And here's one more thing I've got to let you know If he decided to ever let you go Girl, just call me when things get rough They say you'll never be good enough I hope you'll never be good enough for him But you're good enough for me Katherine They say wedding plans Have already been made I can hear his mother say Oh I'd love to put off until a later day And if he don't seem interested at all Dial my number I'll be waiting on your call Girl, you'll never be good enough They say you'll never be good enough I pray you'll never be good enough for him But you're good enough for me Oh, Katherine They may never understand I love you Place nobody else right here above you Ooh Katherine I heard his mother talking about you</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Love me, love me, love me, love me Love me, love me, darlin' dear Love me, love me, love me, love me Love me like I love you Tell me, tell me, tell me, tell me Tell me, tell me, darling, do Ahh, that you love me, love me, love me, love me Love me like I love you Mmm, when you kiss me, kiss me, kiss me, kiss me Kiss me, kiss me, darling dear Ah, you say, say, say Say the words I've longed to hear Oh, c'mon and hold me, hold me Hold me, hold me, dear Just love me, love me, love me, love me Love me, love me, my darling dear Ahh, mmm, I love you Mmm, mmm, and I love you Just love me, love me, love me, love me Love me, love me, my darling do Love me, love me, love me, love me Love me, love me, darlin' do Love me, love me, love me, love me Love me like I love you You might also likeOh, c'mon and hold me, hold me Hold me, hold me, dear Just love me, love me, love me, love me Love me like I love you C'mon, love me, love me, love me, love me Love me like I love you Love me, love me, love me, love me Love me like I love you</t>
+          <t>Love me, love me, love me, love me Love me, love me, darlin' dear Love me, love me, love me, love me Love me like I love you Tell me, tell me, tell me, tell me Tell me, tell me, darling, do Ahh, that you love me, love me, love me, love me Love me like I love you Mmm, when you kiss me, kiss me, kiss me, kiss me Kiss me, kiss me, darling dear Ah, you say, say, say Say the words I've longed to hear Oh, c'mon and hold me, hold me Hold me, hold me, dear Just love me, love me, love me, love me Love me, love me, my darling dear Ahh, mmm, I love you Mmm, mmm, and I love you Just love me, love me, love me, love me Love me, love me, my darling do Love me, love me, love me, love me Love me, love me, darlin' do Love me, love me, love me, love me Love me like I love you Oh, c'mon and hold me, hold me Hold me, hold me, dear Just love me, love me, love me, love me Love me like I love you C'mon, love me, love me, love me, love me Love me like I love you Love me, love me, love me, love me Love me like I love you</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Uh, uh Uh, uh You ruin everything, uh Uh, uh Darkspin Yeah, yeah Chopper sing like Lucky Daye It might end your lucky day Got a check that's comin' in, I'm still gon' run it up today Dummy tried to cross me, I might take his ass to church today He say he like fashion, we gon' put him on a shirt today I like all my hoes like my clothes, foreign If I see the goal, I'm scorin' I just did a show, I'm tourin' I work like a machine, Florence You can't get in this room, you need a key Uh-uh He make like three-K in a month, I did that seven days a week Yeah, I'm a wild boy like Steve-O I still don't go outside much 'cause I don't like people I want this green lik eco Got some, but I need more Don't wanna catch anothr case, so we gon' kill his ego The weed stink, laundry day, the cutter sing like Lana Rey Shawty tried to lock me down, I had to go exonerate She like the force and altercate Shout out The bank deposits automate Okay She rushin' me to blow a bag, I told her that girl, Yeah, all the way, huh She a size five, but I rock NUMBER NINE I count five to nine checks like I just worked a nine to five Yeah, Smith Wesson on me, wanna rob, let's see you try Tell your people, Go inside if they don't wanna see you die They gon' watch you when you down, but won't look up to see you fly I had way too many shots, I'm way too drunk to even drive Girl, don't call me 'til you sober 'cause you always kill my vibe Twelve was lookin' through my Lexus, took the weed I couldn't hide Did my night in jail, got out by the morning, still was high Yeah I walked outside the door, a baddie waitin' on me right outside My shawty picked me up, that's when I learned she really ride or die Yeah I got back to the crib and ate an Adderall to clear my mind Ha You might also like Chopper sing like Lucky Daye It might end your lucky day Got a check that's comin' in, I'm still gon' run it up today Dummy tried to cross me, I might take his ass to church today He say he like fashion, we gon' put him on a shirt today Darkspin I like all my hoes like my clothes, foreign If I see the goal, I'm scorin' I just did a show, I'm tourin' I work like a machine, Florence You can't get in this room, you need a key He make like three-K in a month, I did that seven days a week</t>
+          <t>Uh, uh Uh, uh You ruin everything, uh Uh, uh Darkspin Yeah, yeah Chopper sing like Lucky Daye It might end your lucky day Got a check that's comin' in, I'm still gon' run it up today Dummy tried to cross me, I might take his ass to church today He say he like fashion, we gon' put him on a shirt today I like all my hoes like my clothes, foreign If I see the goal, I'm scorin' I just did a show, I'm tourin' I work like a machine, Florence You can't get in this room, you need a key Uh-uh He make like three-K in a month, I did that seven days a week Yeah, I'm a wild boy like Steve-O I still don't go outside much 'cause I don't like people I want this green lik eco Got some, but I need more Don't wanna catch anothr case, so we gon' kill his ego The weed stink, laundry day, the cutter sing like Lana Rey Shawty tried to lock me down, I had to go exonerate She like the force and altercate Shout out The bank deposits automate Okay She rushin' me to blow a bag, I told her that girl, Yeah, all the way, huh She a size five, but I rock NUMBER NINE I count five to nine checks like I just worked a nine to five Yeah, Smith Wesson on me, wanna rob, let's see you try Tell your people, Go inside if they don't wanna see you die They gon' watch you when you down, but won't look up to see you fly I had way too many shots, I'm way too drunk to even drive Girl, don't call me 'til you sober 'cause you always kill my vibe Twelve was lookin' through my Lexus, took the weed I couldn't hide Did my night in jail, got out by the morning, still was high Yeah I walked outside the door, a baddie waitin' on me right outside My shawty picked me up, that's when I learned she really ride or die Yeah I got back to the crib and ate an Adderall to clear my mind Ha Chopper sing like Lucky Daye It might end your lucky day Got a check that's comin' in, I'm still gon' run it up today Dummy tried to cross me, I might take his ass to church today He say he like fashion, we gon' put him on a shirt today Darkspin I like all my hoes like my clothes, foreign If I see the goal, I'm scorin' I just did a show, I'm tourin' I work like a machine, Florence You can't get in this room, you need a key He make like three-K in a month, I did that seven days a week</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Now, that we won I'll never ever be the same again This is perfection This is perfection You're making it all so aaaah You know we'll make it through the night Right, from the start You knew just how to fill this lonely heart A pure confection A pure confection Sweetness of your hmmm hmm I've never felt like this before Made for each other Made for each other You and I You and I Made for each other Made for each other We're flying high We're flying high I'm not afraid to show I want the world to know i'm by your side By your side And, so you'll see We, two, have got the perfect harmony A true reflection Of all you gave to me You know i'll always be with you You might also like Made for each other Made for each other You and I You and I Made for each other Made for each other We're flying high We're flying high I'm not afraid to show I want the world to know I'm by your side I'm by your side Made for each other You and I Made for each other Oh you and I, we're flying high We're flying high I want the world to know I'm not afraid to show I'm by your side I'm by your side Made for each other Made for each other You and I You and I We're made for each other Made for each other We're flying high We're flying high I want the world to know I'm not afraid to show I'm by your side I'm by your side You and I are Made for each other Made for each other Just you and I You and I Made for each other Made for each other We're flying high Flying high I'm not afraid to show I want the world to know that I'm by your side I'm by your side We're made for each other Made for each other You and I Hey babe, Made for each other We're flying high I want the world to know I'm not afraid to show I'm by your side Oh, I'm by your side You and I Made for each other You and I Made for each other We're flying high I want the world to know I'm not afraid to show I'm by your side One man on by your side One man on by your side One man on by your side One man on by your side</t>
+          <t>Now, that we won I'll never ever be the same again This is perfection This is perfection You're making it all so aaaah You know we'll make it through the night Right, from the start You knew just how to fill this lonely heart A pure confection A pure confection Sweetness of your hmmm hmm I've never felt like this before Made for each other Made for each other You and I You and I Made for each other Made for each other We're flying high We're flying high I'm not afraid to show I want the world to know i'm by your side By your side And, so you'll see We, two, have got the perfect harmony A true reflection Of all you gave to me You know i'll always be with you Made for each other Made for each other You and I You and I Made for each other Made for each other We're flying high We're flying high I'm not afraid to show I want the world to know I'm by your side I'm by your side Made for each other You and I Made for each other Oh you and I, we're flying high We're flying high I want the world to know I'm not afraid to show I'm by your side I'm by your side Made for each other Made for each other You and I You and I We're made for each other Made for each other We're flying high We're flying high I want the world to know I'm not afraid to show I'm by your side I'm by your side You and I are Made for each other Made for each other Just you and I You and I Made for each other Made for each other We're flying high Flying high I'm not afraid to show I want the world to know that I'm by your side I'm by your side We're made for each other Made for each other You and I Hey babe, Made for each other We're flying high I want the world to know I'm not afraid to show I'm by your side Oh, I'm by your side You and I Made for each other You and I Made for each other We're flying high I want the world to know I'm not afraid to show I'm by your side One man on by your side One man on by your side One man on by your side One man on by your side</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Moon river, wider than a mile I'm crossing you in style some day Oh, dream maker, you heart breaker Wherever you're goin', I'm goin' your way Two drifters, off to see the world There's such a lot of world to see Were after the same rainbows end, waitin' round the bend My huckleberry friend, moon river, and me Moon river, wider than a mile I'm crossin' you in style some day Oh, dream maker, you heart breaker Wherever you're goin', I'm goin' your way Two drifters, off to see the world There's such a lot of world to see We're after that same rainbows end, waitin' round the bend My huckleberry friend, moon river, and meYou might also like</t>
+          <t>Moon river, wider than a mile I'm crossing you in style some day Oh, dream maker, you heart breaker Wherever you're goin', I'm goin' your way Two drifters, off to see the world There's such a lot of world to see Were after the same rainbows end, waitin' round the bend My huckleberry friend, moon river, and me Moon river, wider than a mile I'm crossin' you in style some day Oh, dream maker, you heart breaker Wherever you're goin', I'm goin' your way Two drifters, off to see the world There's such a lot of world to see We're after that same rainbows end, waitin' round the bend My huckleberry friend, moon river, and me</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>The night is like a lovely tune Beware my foolish heart How white the ever constant moon Take care my foolish heart There's a line between love and fascination That's hard to see, how many names such as this For they both have the very same sensation When you're locked in the magic of a kiss Her lips are much too close to mine Beware my foolish heart But should our eager lips combine Then let the fire start For this time it isn't fascination Or a dream that will fade and fall apart It's love, this time it's love My foolish heartYou might also like</t>
+          <t>The night is like a lovely tune Beware my foolish heart How white the ever constant moon Take care my foolish heart There's a line between love and fascination That's hard to see, how many names such as this For they both have the very same sensation When you're locked in the magic of a kiss Her lips are much too close to mine Beware my foolish heart But should our eager lips combine Then let the fire start For this time it isn't fascination Or a dream that will fade and fall apart It's love, this time it's love My foolish heart</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>If you're in Arizona, I'll follow you If you're in Minnesota, I'll be there too You'll have a million chances to start anew Because my love is endless for you My heart cries for you Sighs for you, dies for you And my arms long for you Please come back to me An unimportant quarrel was what we had We have to learn to live with the good and bad Together we were happy, apart we're sad This loneliness is driving me mad My heart cries for you Sighs for you, dies for you And my arms long for you Pleas come back to me Pleas come back to me Please come back, come back, come back to meYou might also like</t>
+          <t>If you're in Arizona, I'll follow you If you're in Minnesota, I'll be there too You'll have a million chances to start anew Because my love is endless for you My heart cries for you Sighs for you, dies for you And my arms long for you Please come back to me An unimportant quarrel was what we had We have to learn to live with the good and bad Together we were happy, apart we're sad This loneliness is driving me mad My heart cries for you Sighs for you, dies for you And my arms long for you Pleas come back to me Pleas come back to me Please come back, come back, come back to me</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FSK16, macht die Ohr'n eurer Kinder zu Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Yeah Dissen auch uns're Idole, Mann Yeah, ich bleibe real, alle Hater verstumm'n Yeah Wer hat geredet, der redet nicht mehr ohne einen Grund Nie mehr wieder Denn sie gehen bei SKRREON und BeSa in Deckung Ohren zu, Ya Kelb denn wir machen Altersbeschränkung, yeah Ha, ha, ha Rapper machen mir auf TikTok-Streamer Hö? Aber haben wieder Schiss, denn ich diss' sie wieder Immer wieder Bange deinen Promo-Rap mal solo weg, BeSa und SKRREON Yeah Wir bringen Fire in the Booth und deine Wohnung brennt Ja, ja, ja Sie treiben Beef, Bruder, einfach mit 'nem 16 Jährigen Ja, die Pisser haben nichts zu tun, außer uns wegzuhaten No, no Tagelang sind sie nur faded, machen ein'n auf integrated Hö? Aber sind die selben, die die Story-Posts auf Insta faken Du Hund Stimme brennt und der Beat läuft Yeah Ja, wir haben Präzision am Start so wie De Bruyne De Bruyne Guck jetzt zu, wie ich paar Rapper töte, abtauche Und die ganze Szene jetzt mal kurz erwacht wie bei G-Floyd Yeah You might also like FSK16, macht die Ohr'n eurer Kinder zu Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu Ah, ah Unter dem Bandana Lächeln, Yeah wir sind die Täter, werden dein'n Rap zerfetzen Und wieder erretten, echt endkrass, wetten, dass Rapper betteln Ha, ha Möchtegern-Männer steppen in Streams, beleidigen arme Frau'n Barello kriegt kein Messer-, nein, Beretta-Level Pow, pow YAKARY, du warst nach all nach den Disses und Bela Memme Ah Doch kriegtest von NGEE Schellen, bald schon bist du Kek vergessen Cano Die Szene macht nur Fitna, Nutte, wer ist jetzt am bellen? Ihr nicht mehr, denn jetzt habt ihr Eierflattern, ihr Gangster-Rapper Ha, ha Paar Jugendliche dissen sie, denn sie hab'n Dreck am Stecken Oh Flizzy seine Family schreibt mit Freude seine Testamente Vendetta, brechen Yeah seine Verräter-Fresse Yeah Ehrenlos so wie Elimination Chamber Matches BeSa, SKRREON, fick' auf Robbie, schreibe selber Texte Yeah Werd' nie jemanden verhau'n, wen soll ein Zwerg verletzen? Ha, ha, ha Sie stapeln Drecks-Paletten, werf' auf sie 'nen Drecks-Paar Letten Das' FSK16 Yeah, yeah, yeah FSK16, macht die Ohr'n eurer Kinder zu Mach! Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu Diss' jeden, wenn ich will, also fick' ich diesen Kolle, doch Mache JBG Sound Ha, ha und ticke nie mit Knollen Bin mit SKRREON und ich habe keine Angst vor wem auch immer Vor wem? Ich bringe Bars und sie küren mich zu dem Gewinner, ey Ha, ha Sie wollen harten Rap-Sound Ja, ja Bin am Start und dann kriegen sie die Bars in den Bauch Pow, pow Mit dem Alman BeSa, bring'n wir tighte Bretter Sehen wir Rapper zu Boden hechten wie Weidenfeller, yeah Yeah Ey, hör' ich Yakary, den Piç Überleg', ich mir dabei, wie ich sein'n Body zersieb' Du Hund Ich fick' Hunde wie Fler, Yeah weil sie monoton bleiben Kommen zu euch rein und alle gehen zur Seite Zur Seite Sie sagen, weil ich Noname bin No-Name Ist es cringe zu dissen und bei mir ohnehin Yeah, Benjo Mach' ich ein Bild mit Farid Bang, bin ich sehr fotogen Ya Kelb Und sag' ihm Kannst du Hackfresse aus mein'm Foto geh'n? Die Zähne sind ja schlimmer als meine FSK16, macht die Ohr'n eurer Kinder zu Mach! Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu</t>
+          <t>FSK16, macht die Ohr'n eurer Kinder zu Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Yeah Dissen auch uns're Idole, Mann Yeah, ich bleibe real, alle Hater verstumm'n Yeah Wer hat geredet, der redet nicht mehr ohne einen Grund Nie mehr wieder Denn sie gehen bei SKRREON und BeSa in Deckung Ohren zu, Ya Kelb denn wir machen Altersbeschränkung, yeah Ha, ha, ha Rapper machen mir auf TikTok-Streamer Hö? Aber haben wieder Schiss, denn ich diss' sie wieder Immer wieder Bange deinen Promo-Rap mal solo weg, BeSa und SKRREON Yeah Wir bringen Fire in the Booth und deine Wohnung brennt Ja, ja, ja Sie treiben Beef, Bruder, einfach mit 'nem 16 Jährigen Ja, die Pisser haben nichts zu tun, außer uns wegzuhaten No, no Tagelang sind sie nur faded, machen ein'n auf integrated Hö? Aber sind die selben, die die Story-Posts auf Insta faken Du Hund Stimme brennt und der Beat läuft Yeah Ja, wir haben Präzision am Start so wie De Bruyne De Bruyne Guck jetzt zu, wie ich paar Rapper töte, abtauche Und die ganze Szene jetzt mal kurz erwacht wie bei G-Floyd Yeah FSK16, macht die Ohr'n eurer Kinder zu Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu Ah, ah Unter dem Bandana Lächeln, Yeah wir sind die Täter, werden dein'n Rap zerfetzen Und wieder erretten, echt endkrass, wetten, dass Rapper betteln Ha, ha Möchtegern-Männer steppen in Streams, beleidigen arme Frau'n Barello kriegt kein Messer-, nein, Beretta-Level Pow, pow YAKARY, du warst nach all nach den Disses und Bela Memme Ah Doch kriegtest von NGEE Schellen, bald schon bist du Kek vergessen Cano Die Szene macht nur Fitna, Nutte, wer ist jetzt am bellen? Ihr nicht mehr, denn jetzt habt ihr Eierflattern, ihr Gangster-Rapper Ha, ha Paar Jugendliche dissen sie, denn sie hab'n Dreck am Stecken Oh Flizzy seine Family schreibt mit Freude seine Testamente Vendetta, brechen Yeah seine Verräter-Fresse Yeah Ehrenlos so wie Elimination Chamber Matches BeSa, SKRREON, fick' auf Robbie, schreibe selber Texte Yeah Werd' nie jemanden verhau'n, wen soll ein Zwerg verletzen? Ha, ha, ha Sie stapeln Drecks-Paletten, werf' auf sie 'nen Drecks-Paar Letten Das' FSK16 Yeah, yeah, yeah FSK16, macht die Ohr'n eurer Kinder zu Mach! Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu Diss' jeden, wenn ich will, also fick' ich diesen Kolle, doch Mache JBG Sound Ha, ha und ticke nie mit Knollen Bin mit SKRREON und ich habe keine Angst vor wem auch immer Vor wem? Ich bringe Bars und sie küren mich zu dem Gewinner, ey Ha, ha Sie wollen harten Rap-Sound Ja, ja Bin am Start und dann kriegen sie die Bars in den Bauch Pow, pow Mit dem Alman BeSa, bring'n wir tighte Bretter Sehen wir Rapper zu Boden hechten wie Weidenfeller, yeah Yeah Ey, hör' ich Yakary, den Piç Überleg', ich mir dabei, wie ich sein'n Body zersieb' Du Hund Ich fick' Hunde wie Fler, Yeah weil sie monoton bleiben Kommen zu euch rein und alle gehen zur Seite Zur Seite Sie sagen, weil ich Noname bin No-Name Ist es cringe zu dissen und bei mir ohnehin Yeah, Benjo Mach' ich ein Bild mit Farid Bang, bin ich sehr fotogen Ya Kelb Und sag' ihm Kannst du Hackfresse aus mein'm Foto geh'n? Die Zähne sind ja schlimmer als meine FSK16, macht die Ohr'n eurer Kinder zu Mach! Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>On the horizon Out where the ocean meets the sky On the horizon I saw a ship go sailing by This was the ship that I'd often dreamed of A ship made of gold with a golden sail above This was the ship that I dreamed would someday Bring my love On the horizon Out where the lonely seagulls cry On the horizon My ship of dreams came sailing by Sailing to me with this cargo so rare It kept comin' closer and closer, I swear Closer and closer till I woke up and Found you there Mmhmm hmm Oh, on the horizon, the horizon, the horizon Mmm hmm Mmm hmmYou might also like</t>
+          <t>On the horizon Out where the ocean meets the sky On the horizon I saw a ship go sailing by This was the ship that I'd often dreamed of A ship made of gold with a golden sail above This was the ship that I dreamed would someday Bring my love On the horizon Out where the lonely seagulls cry On the horizon My ship of dreams came sailing by Sailing to me with this cargo so rare It kept comin' closer and closer, I swear Closer and closer till I woke up and Found you there Mmhmm hmm Oh, on the horizon, the horizon, the horizon Mmm hmm Mmm hmm</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>I have often walked down this street before But the pavement always stayed beneath my feet before All at once am I several stories high Knowing I'm on the street where you live Are there lilac trees in the heart of town? Can you hear a lark in any other part of town? Does enchantment pour out of every door? No, it's just on the street where you live And oh, the towering feeling Just to know somehow you are near The overpowering feeling That any second you may suddenly appear People stop and stare, they don't bother me For there's nowhere else on earth that I would rather be Let the time go by, I won't care if I Can be here on the street where you live You might also like And oh, the towering feeling Just to know somehow you are near The overpowering feeling That any second you may suddenly appear People stop and stare, they don't bother me For there's nowhere else on earth that I would rather be Let the time go by, I won't care if I Can be here on the street where you live Can be here on the street where you live Standing right here on the street where you live</t>
+          <t>I have often walked down this street before But the pavement always stayed beneath my feet before All at once am I several stories high Knowing I'm on the street where you live Are there lilac trees in the heart of town? Can you hear a lark in any other part of town? Does enchantment pour out of every door? No, it's just on the street where you live And oh, the towering feeling Just to know somehow you are near The overpowering feeling That any second you may suddenly appear People stop and stare, they don't bother me For there's nowhere else on earth that I would rather be Let the time go by, I won't care if I Can be here on the street where you live And oh, the towering feeling Just to know somehow you are near The overpowering feeling That any second you may suddenly appear People stop and stare, they don't bother me For there's nowhere else on earth that I would rather be Let the time go by, I won't care if I Can be here on the street where you live Can be here on the street where you live Standing right here on the street where you live</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>To you My heart cries out Perfidia For I found you, the love of my life In somebody else's arms Your eyes Are echoing Perfidia Forgetful of our promise of love You're sharing another's charms With a sad lament my dreams have faded Like a broken melody While the gods of love look down and laugh At what romantic fools we mortals be And now I know my love was not for you And so I'll take it back with a sigh Perfidious one, goodbye With a sad lament my dreams are faded Like a broken melody While the gods of love look down and laugh At what romantic fools we mortals be And now I know my love was not for you And so I'll take it back with a sigh Perfidious one, goodbye Mmhmm, goodbye Baby baby baby, goodbye I've been mistreatedYou might also like</t>
+          <t>To you My heart cries out Perfidia For I found you, the love of my life In somebody else's arms Your eyes Are echoing Perfidia Forgetful of our promise of love You're sharing another's charms With a sad lament my dreams have faded Like a broken melody While the gods of love look down and laugh At what romantic fools we mortals be And now I know my love was not for you And so I'll take it back with a sigh Perfidious one, goodbye With a sad lament my dreams are faded Like a broken melody While the gods of love look down and laugh At what romantic fools we mortals be And now I know my love was not for you And so I'll take it back with a sigh Perfidious one, goodbye Mmhmm, goodbye Baby baby baby, goodbye I've been mistreated</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>It seems that I just can't win I've been hurt time and time again Every time I give my heart somebody tears it all apart Through the years, lord knows I must have shed a river of tears I tried to be fair in every way I'd even ignored, yes, I have, things that people say Oh, still I'm lonely and all alone I've got no one I can call my own Through the years I know I must have shed a river of tears A river of tears, oh, how I yearned, yeah Tears that flow Somebody tell me what I'm doing wrong Isn't there anyone I can depend on Through the years I know I must have shed a river of tears A river of tears, oh, how I've yearned, yes, I have Tears that flow' oh, how I've yearned Talking 'bout' talkin' 'bout a river Talkin' 'bout a riverYou might also like</t>
+          <t>It seems that I just can't win I've been hurt time and time again Every time I give my heart somebody tears it all apart Through the years, lord knows I must have shed a river of tears I tried to be fair in every way I'd even ignored, yes, I have, things that people say Oh, still I'm lonely and all alone I've got no one I can call my own Through the years I know I must have shed a river of tears A river of tears, oh, how I yearned, yeah Tears that flow Somebody tell me what I'm doing wrong Isn't there anyone I can depend on Through the years I know I must have shed a river of tears A river of tears, oh, how I've yearned, yes, I have Tears that flow' oh, how I've yearned Talking 'bout' talkin' 'bout a river Talkin' 'bout a river</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm You might also likeBaby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
+          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Baby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm You might also likeBaby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
+          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Baby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>This is my last letter Dear, to you This is my last letter, baby I just can't write you anymore My poor little finger's swollen I'm tired of pacing the floor, yes, I am Threw away our favorite record It was tearing me apart This is my seventh letter, baby Just to satisfy my heart One Monday, I wrote and told you I was all alone and blue Two Tuesday, I wrote again, baby I said I loved no one, no one No one but you, no, I don't Three Wednesday, I wired you a cable Begging you to call Four Thursday, I sent the message I said I was wrong and, darling Please come back home Five Friday, I woke up crying With the sniff of a tear Six come along long lonesome Saturday I did the same thing all over again Yes, I did Seven this is my seventh letter, baby On this bright Sunday morning Just got off my knees from praying I said, Oh, Lord, oh, Lord Please send her back home Can't she hear me talking to her This is my last letter Dear, to you Seven letters, seven days Seven long, lonely days There, I said it This is my last letter Dear, to you yes, it is Yes, it is, yes, it is Oh, yes, it isYou might also like</t>
+          <t>This is my last letter Dear, to you This is my last letter, baby I just can't write you anymore My poor little finger's swollen I'm tired of pacing the floor, yes, I am Threw away our favorite record It was tearing me apart This is my seventh letter, baby Just to satisfy my heart One Monday, I wrote and told you I was all alone and blue Two Tuesday, I wrote again, baby I said I loved no one, no one No one but you, no, I don't Three Wednesday, I wired you a cable Begging you to call Four Thursday, I sent the message I said I was wrong and, darling Please come back home Five Friday, I woke up crying With the sniff of a tear Six come along long lonesome Saturday I did the same thing all over again Yes, I did Seven this is my seventh letter, baby On this bright Sunday morning Just got off my knees from praying I said, Oh, Lord, oh, Lord Please send her back home Can't she hear me talking to her This is my last letter Dear, to you Seven letters, seven days Seven long, lonely days There, I said it This is my last letter Dear, to you yes, it is Yes, it is, yes, it is Oh, yes, it is</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>If I had to swim a river Or climb a mountain tall I'd do anything you ask Anything at all No river, no mountain Can keep us apart Show me the way, whoa, whoa, whoa, oh, oh Show me the way to your heart I would gladly cross a desert To prove my love is true I would sail the stormy sea Just to be with you No desert, no storm Can keep us apart Show me the way, whoa, whoa, whoa, yeah, yeah, yeah Show me the way to your heart If you ask for a palace I'll build you two If you ask me for dew I'll bring stardust to you Only you You might also like And if all you're asking Is love in all its care I will pledge true love to you Love beyond compare My darling, I need you Why must we be apart? Show me the way, whoa, whoa, whoa, oh, oh, oh Show me the way to your heart</t>
+          <t>If I had to swim a river Or climb a mountain tall I'd do anything you ask Anything at all No river, no mountain Can keep us apart Show me the way, whoa, whoa, whoa, oh, oh Show me the way to your heart I would gladly cross a desert To prove my love is true I would sail the stormy sea Just to be with you No desert, no storm Can keep us apart Show me the way, whoa, whoa, whoa, yeah, yeah, yeah Show me the way to your heart If you ask for a palace I'll build you two If you ask me for dew I'll bring stardust to you Only you And if all you're asking Is love in all its care I will pledge true love to you Love beyond compare My darling, I need you Why must we be apart? Show me the way, whoa, whoa, whoa, oh, oh, oh Show me the way to your heart</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>I eat the fried calamari with the kobe steak My bitch eat pussy even though she straight I clean the plate and then she throw me face I take her drawers off, a plush beat down at the waldorf I'm whipping the wrangler with the doors off The young Nino, sawed off shooter torpedo leave you in the fetal Living like Vito Andolini in his early age All my opponents meet an early grave So pray you see them pearly gates I treat that .40 caliber just like excalibur My hammer game compares to Gallagher Tell any challenger I'll change your calendar I cut your day short, a made boss, Bernie Madoff, beige porsche Fuck a loss, tuck the corpse then we cut the costs Ain't no checking for his vital signs The devil checking for a idle mind Flight to the top, check the arrival time Peasants idolize, they know the title's mine We made it from the rags to the riches I brought the dope, who brought the swishers I cook the yola in the kitchen, bag it up and then she do the dishes Everything we do is so explicit We made it from the rags to the riches That surf and turf is so delicious Get all my niggas out of jail and excel is my only wishes Everything we do is so explicit You might also like Killer nigga roll a joint with his obituary Tattle-tailing type a shit to get you niggas buried Catch me twisted in the cemetery I'm legendary, cold as Ben Jerry's, shoot like Jason Terry So much money that she started crying tears of joy But got it all from moving squares of boy I light the loud and I inhale the noise, but still I keep my poise I get her moist soon as she hear my voice Ain't taking shorts see I need every payment The prosecution pushing for arraignments Ducking detainment but still on the pavement Like the laces of a pair of asics, you know the basis Came up from the basement, now it's the top floor I chop the raw and then get mop by your top whore Still got them Glocks tucked in the sock drawer I smoke the pot while the yacht tours The shots pour while our stocks soar I smoke the pot while the yacht tours We made it from the rags to the riches I brought the dope, who brought the swishers I cook the yola in the kitchen, bag it up and then she do the dishes Everything we do is so explicit We made it from the rags to the riches That surf and turf is so delicious Get all my niggas out of jail and excel is my only wishes Everything we do is so explicit1</t>
+          <t>I eat the fried calamari with the kobe steak My bitch eat pussy even though she straight I clean the plate and then she throw me face I take her drawers off, a plush beat down at the waldorf I'm whipping the wrangler with the doors off The young Nino, sawed off shooter torpedo leave you in the fetal Living like Vito Andolini in his early age All my opponents meet an early grave So pray you see them pearly gates I treat that .40 caliber just like excalibur My hammer game compares to Gallagher Tell any challenger I'll change your calendar I cut your day short, a made boss, Bernie Madoff, beige porsche Fuck a loss, tuck the corpse then we cut the costs Ain't no checking for his vital signs The devil checking for a idle mind Flight to the top, check the arrival time Peasants idolize, they know the title's mine We made it from the rags to the riches I brought the dope, who brought the swishers I cook the yola in the kitchen, bag it up and then she do the dishes Everything we do is so explicit We made it from the rags to the riches That surf and turf is so delicious Get all my niggas out of jail and excel is my only wishes Everything we do is so explicit Killer nigga roll a joint with his obituary Tattle-tailing type a shit to get you niggas buried Catch me twisted in the cemetery I'm legendary, cold as Ben Jerry's, shoot like Jason Terry So much money that she started crying tears of joy But got it all from moving squares of boy I light the loud and I inhale the noise, but still I keep my poise I get her moist soon as she hear my voice Ain't taking shorts see I need every payment The prosecution pushing for arraignments Ducking detainment but still on the pavement Like the laces of a pair of asics, you know the basis Came up from the basement, now it's the top floor I chop the raw and then get mop by your top whore Still got them Glocks tucked in the sock drawer I smoke the pot while the yacht tours The shots pour while our stocks soar I smoke the pot while the yacht tours We made it from the rags to the riches I brought the dope, who brought the swishers I cook the yola in the kitchen, bag it up and then she do the dishes Everything we do is so explicit We made it from the rags to the riches That surf and turf is so delicious Get all my niggas out of jail and excel is my only wishes Everything we do is so explicit1</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Hang on to the world as it spins around Just don't let the spin get you down Think of moving fast Hold on tight and you will last Give your self respect, your manly pride Get yourself in gear Keep your stride Never mind your fears Brighter days will soon be here Take it from me, someday we'll all be free, yeah Keep on walking tall Hold your head up high Lay your dreams right up to the sky Sing your greatest song And you'll keep going, going on Take it from me, someday we'll all be free Hey, just wait and see, some day we'll all be free, yeah Take it from me, someday we'll all be free It won't be long, take it from me, someday we'll all be free Take it from me, take it from me, take it from me...You might also like</t>
+          <t>Hang on to the world as it spins around Just don't let the spin get you down Think of moving fast Hold on tight and you will last Give your self respect, your manly pride Get yourself in gear Keep your stride Never mind your fears Brighter days will soon be here Take it from me, someday we'll all be free, yeah Keep on walking tall Hold your head up high Lay your dreams right up to the sky Sing your greatest song And you'll keep going, going on Take it from me, someday we'll all be free Hey, just wait and see, some day we'll all be free, yeah Take it from me, someday we'll all be free It won't be long, take it from me, someday we'll all be free Take it from me, take it from me, take it from me...</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>In the midst of all my darkness, baby You came along to guide me You took pity on a lonely man When you said you'd stand beside me I'll never forget you for what you've done I'll never turn my back on you for anyone 'Cause I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you My world was cold and empty And my life was so unfilling When I needed someone to pick me up Ooh, girl, you were oh-so-willing Now to you that might seem like a little thing But to me it's like changing winter to spring I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you There's so few women nowadays Who understand the soul of a man They're always on the taking end Never giving, never offering a helping hand But baby, I can count on you Whenever trouble calls, you see me through You show your love, babe, in so many ways I'm gonna love you, baby, the rest of my days You might also likeBaby, I've got so much love to give you Baby, I've got so much love to give you Well, there's more than enough to last a whole life through And it's all for you</t>
+          <t>In the midst of all my darkness, baby You came along to guide me You took pity on a lonely man When you said you'd stand beside me I'll never forget you for what you've done I'll never turn my back on you for anyone 'Cause I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you My world was cold and empty And my life was so unfilling When I needed someone to pick me up Ooh, girl, you were oh-so-willing Now to you that might seem like a little thing But to me it's like changing winter to spring I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you There's so few women nowadays Who understand the soul of a man They're always on the taking end Never giving, never offering a helping hand But baby, I can count on you Whenever trouble calls, you see me through You show your love, babe, in so many ways I'm gonna love you, baby, the rest of my days Baby, I've got so much love to give you Baby, I've got so much love to give you Well, there's more than enough to last a whole life through And it's all for you</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>In the midst of all my darkness, baby You came along to guide me You took pity on a lonely man When you said you'd stand beside me I'll never forget you for what you've done I'll never turn my back on you for anyone 'Cause I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you My world was cold and empty And my life was so unfilling When I needed someone to pick me up Ooh, girl, you were oh-so-willing Now to you that might seem like a little thing But to me it's like changing winter to spring I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you There's so few women nowadays Who understand the soul of a man They're always on the taking end Never giving, never offering a helping hand But baby, I can count on you Whenever trouble calls, you see me through You show your love, babe, in so many ways I'm gonna love you, baby, the rest of my days You might also likeBaby, I've got so much love to give you Baby, I've got so much love to give you Well, there's more than enough to last a whole life through And it's all for you</t>
+          <t>In the midst of all my darkness, baby You came along to guide me You took pity on a lonely man When you said you'd stand beside me I'll never forget you for what you've done I'll never turn my back on you for anyone 'Cause I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you My world was cold and empty And my life was so unfilling When I needed someone to pick me up Ooh, girl, you were oh-so-willing Now to you that might seem like a little thing But to me it's like changing winter to spring I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you There's so few women nowadays Who understand the soul of a man They're always on the taking end Never giving, never offering a helping hand But baby, I can count on you Whenever trouble calls, you see me through You show your love, babe, in so many ways I'm gonna love you, baby, the rest of my days Baby, I've got so much love to give you Baby, I've got so much love to give you Well, there's more than enough to last a whole life through And it's all for you</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>She was standing there before me With the stars shining above her I took one look in her dark eyes Ah, and I knew that I would love her Told her I'd love her forever That I'd never leave, no, never Then she gave me her heart Ooh, ooh Souvenir of Mexico When I kissed her, I was shakin' Such a kiss I've never tasted Though I've kissed many before her All my kisses, they were wasted I never felt a perfection Never knew such sweet affection Kisses straight from the heart Ooh, ooh-hoo Souvenir of Mexico You might also like Tropical light with the moon shining bright Holding her in my arms Ah, the soft summer breeze Sing a song through the trees and the palm Yeah, the next a-morning, we went walking, mmm Through the hills where I first met her With a tear in her eyes, she told me Boy It's best for you, it's best for you to forget it, mmm 'Cause she made a vow to her mother Vow that she would wed another Now I'm left with a broken heart Ah, souvenir of Mexico</t>
+          <t>She was standing there before me With the stars shining above her I took one look in her dark eyes Ah, and I knew that I would love her Told her I'd love her forever That I'd never leave, no, never Then she gave me her heart Ooh, ooh Souvenir of Mexico When I kissed her, I was shakin' Such a kiss I've never tasted Though I've kissed many before her All my kisses, they were wasted I never felt a perfection Never knew such sweet affection Kisses straight from the heart Ooh, ooh-hoo Souvenir of Mexico Tropical light with the moon shining bright Holding her in my arms Ah, the soft summer breeze Sing a song through the trees and the palm Yeah, the next a-morning, we went walking, mmm Through the hills where I first met her With a tear in her eyes, she told me Boy It's best for you, it's best for you to forget it, mmm 'Cause she made a vow to her mother Vow that she would wed another Now I'm left with a broken heart Ah, souvenir of Mexico</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me You might also like Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darling, darling Stand by me, oh stand by me Oh stand, stand by me Stand by me If the sky that we look upon Should tumble and fall All the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darling, darling Stand by me, oh stand by me Oh stand now, stand by me Stand by me So darling, darling Stand by me, oh stand by me Oh stand now, stand by me, stand by me Whenever you're in trouble won't you stand by me Oh stand by me, oh won't you stand now, stand Stand by meYou might also like</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darling, darling Stand by me, oh stand by me Oh stand, stand by me Stand by me If the sky that we look upon Should tumble and fall All the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darling, darling Stand by me, oh stand by me Oh stand now, stand by me Stand by me So darling, darling Stand by me, oh stand by me Oh stand now, stand by me, stand by me Whenever you're in trouble won't you stand by me Oh stand by me, oh won't you stand now, stand Stand by me</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>When the night has come and the land is dark And the moon is the only light we see No, I won't be afraid, oh, I won't be afraid Just as long as you stand, stand by me So darling, darling, stand by me, oh, stand by me Oh, stand, stand by me, stand by me If the sky that we look upon should tumble and fall Or the mountain should crumble to the sea I won't cry, I won't cry, no, I won't shed a tear Just as long as you stand, stand by me And darling, darling, stand by me Darling, darling, stand by me Whenever you're in trouble Won't you stand by me, oh, stand by meYou might also like1</t>
+          <t>When the night has come and the land is dark And the moon is the only light we see No, I won't be afraid, oh, I won't be afraid Just as long as you stand, stand by me So darling, darling, stand by me, oh, stand by me Oh, stand, stand by me, stand by me If the sky that we look upon should tumble and fall Or the mountain should crumble to the sea I won't cry, I won't cry, no, I won't shed a tear Just as long as you stand, stand by me And darling, darling, stand by me Darling, darling, stand by me Whenever you're in trouble Won't you stand by me, oh, stand by me1</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Finny Music Who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out These niggas got plenty Anna but they ain't got plenty guns I'm bustin' out luxury cars, still got these hoes on the run I'm hearin' plenty mean words, but ain't no actions to boot We can do some straight war for war, we can do some stickin' and movin' We can meet in the middle of these streets or in the middle of this ring I can pop your chest, plastic Glock, or pop your jaw diamond rings Bitch don't hate me hate the bank, for stacks of cheese that I take Or hate my shiny wristband, and big ass rims I rotate See people flip when I'm comin', got suckas sick at the stomach They wonderin' what I brought in, they wonderin' what I got comin' Niggas I'm comin' like this, off in your mouth like a bitch Trust me when you think of me, I'm bringing water, I'll start it You might also like What's the business? It's that player that you love to hate, always see come out the bank Always have to mention my name, when you high on that drank Catch up with this boy you can't, cause you know I'm holdin' rank When you see the platinum Rolex with the ice it make you faint Through the streets now have you heard, 'bout the Mafia droppin' birds Runnin' from the narcs and cops, tossin' out the bags of herb Ain't afraid to pop the steel, hollow tips to make you feel If you wanna punk me out, Cartier's and a Dracula grill These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out I can't take anymore, I'm 'bout to explode I'm 'bout to overload, I'm 'bout to get it, boy All I wanna know is where the G's at, where the key's at Keep it easy, you don't want to get skeeted All on this motherfuckin' room, nigga, boom Lay down on your back so you can get up soon Stab you in your heart with a har-fuckin-poon Nigga, boom, nigga, boom Scarecrow's on it, I'm still hungry, starvin' for a platinum supper Wipe it easy, some black founded, crooked ass set'll be eating rubber 'Cause if they skit-skat, gun 'em all down, even ghost towns Splish-Splash, brains on the ground, with a cannon round Ball bat, bash him in his back, beatin' bitches down Battleaxe blaze from the cross, body never found Catch a close encounter cause the Anna kills off these rap bums Chemical reaction cobra venom shot into his arm These, these, these bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one of y'all step, the first one I'm a toss out Here we go, all you weak ass hoes In my face like you my friend Triple Six dropped in again, time to make ends Dope game, my game, hoes lame, it's a shame How that Gangsta Boo is runnin' the click up on you bitches man Fat cat, what I be, packin', how you love that Fuck a platinum plaque, gimme money, where the dollars at Blap, blap You're dead in a second for 10 G's Where you from? Black haven is where I be on my P's and Q's Parents please, watch out for your children This the one that'll lock 'em in the basement Some of them talkin' so rugged, some corrupted ugly pussa-pussa Close your fucking mouth, my nigga, Koopsta tryin' to tell ya somethin' Peter-Peter, pussy eater, one of them fucked by Koopsta Knicca Lord, I done some sins, cause she married, but I don't know that nigga Figured he is a killa, so he figures he'll watch us fuckin' Put them muthafuckin' slugs upside that thug, cuz, oh my These, the-these, these, these bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one of y'all step, the first one I'm a toss out For that dick game, wouldn't buy your bitch with my loose change Thirsty niggas eatin' bitches ass with the shit stain Insane like my motherfuckin' wrist game, nigga Houses on the hill cost the same fuckin' thing Counted up a hunnid this mornin' Then I went spent me 50 Then I hit the VLive, tryna buy me some ass and titties Rappers sample my old shit, keep runnin' 'em bags, I'm uh rich Get 'em samples cleared 'cause that publish you might not get some Niggas act like they don't owe me somethin' I'm the reason bitches twerkin' they ass, now show me somethin' Payin' homage is a real nigga move, bitch I paid my dues Sold a million out the trunk, you niggas uber poo Pour that mud up like that butter, first nigga with that pipe in the club Used to have to turn my shit up, had niggas tryna fight in the club Y'all leaving with them, we hit them hoes right in the club And I know I'm icy'd up, pinky just like that dub You gotta like my shit, you a hater or somethin' I'm a grown ass man, you a baby or somethin' Probably fucked yo mama on the come up in the 80's, homie Don't you ever try to play me, homie Got a wife now like Kanye And I wish a bitch would try to bite her like Beyonce My daughter 2 months and she been paid Boutta sign more deals, cop more real estate Me and Pat used to rob for 'em petty things Now it's nothin' less than private jets, 7 figure checks Hater, catch yo fuckin' breathe, you broke, ain't got nothin' left We them niggas in Dubai from the north, don't you ever flex Mafia, runnin' shit, Juicy J ain't never quit Ain't a bitch I never hit, still countin' paper, bitch When the smoke clears, nigga, I'm still here Higher than I been in 20 goddamn years, uh Motherfuckin' legend get your smoke right, dope right Who run it Ain't no conversation for that broke life, show right, Who run it bitch Let me talk my shit real quick Who run it, all the real niggas gon' feel this How that's yo' kid but he ain't got bills? Can't find you in family pics Food stamps, they go so quick when you up in a family of six So it's funny how they sell that shit for a little pack of weed and a new pair of kicks Man, I'm so dead, I can't, inside I feel so blank Little girls on Twitter talkin' 'bout they break up, girl, sit back on Paint If I'm alive, no complaints, none of these judges saints Let the black beat her, that's 10 years, but if white beat her, nice tank It's so ridiculous, ain't shit funny, ain't ticklish Don't test me if I'm with the shits, end up in a cage, no Nicholas Everything about me is interesting, I'ma need more and more Benjamins Damn, I can't breathe, stop smoking them trees, got your insides looking like Christmas Ungrateful hoes, get the fuck out of here, you had a rough day and I had a rough year So when I get money I really do care, go and invest it, not spending on gear Think about that, just stating facts, niggas don't chart when it's real rap Earn my respect then you get it right back, that go hand in hand ain't talkin' dap A lot of issues in my past still hurt me to this day, to the core I don't ever open up 'cause I know people change like the oil Over 100k up on tour, still got a mindset like I'm poor But I'm on the roll when it come to rappin' like a pack of aluminum foil Man, I love walking barefoot, I really like the feel when I'm at the bottom what? 'Cause I know it's only for a couple of seconds, then I'm right back to my stardom that's right Motherfuckers ain't woke, man, I gotta fuck around and re-alarm 'em I'm woke all day, 3 AM, when they call me Jake from State Farm Okay, lil' bitch, act like you know, anything I say is right like nose Walk right over there, hoe, like roach, and it's over for these hoes, no dose Walk in that bitch with a white T, they don't really like me but you know how that goes Walk out that bitch you would think I'm little red riding hood, how I got blood on my clothes These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out All I smoke is loud, you got that mild like Darius yeah My son ain't gotta work because he gon' inherit it, uh huh gon' inherit it We yell, Gang-gang first, you don't even know your heritage bitch Took the cash from verses, I give that shit to charity Lovin' my city like Chano, I swear Why the fuck I still gotta ride everywhere with it? Herb I seen you on the news, I was worried We was just jokin' with y'all, that's a parody We don't talk too much, got D's everywhere everywhere We still fresh, double G's everywhere everywhere I put the VV's everywhere everywhere I do Mike Amiri's, every pair And they know me for shittin' on everybody I'm the one that do shit that you hear about I'm the one that told y'all that I move like Obama Then how the fuck they end up with my whereabouts? Hold on everybody gotta clear it out Middle of summer, hot like a sauna We was laid back in the back of the Honda Told young to sneak up, anaconda It ain't happen, not one day, your honor I was somewhere eatin' Benihana's Get valet and Lil' Benny to park it All my life I had been in apartments Move to Bali, get a brib, Im ballin My bitch always primpin', keep ballin' Yes I'm a lil' workaholic Hit the crib with a 50 and all 20's I'ma just make her count all of 'em But I get the backend all blues Nah don't fuck around, bruh, do all of it Know it's goin' right to lil' dude Already got a closet, all shoes Bought 10 pairs of baby G-Fazos And my bitch got a closet with some Loubs Cashed out on the crib, I ain't get the view I'm like, Fuck it, no problem, it'll do Mama's crib got a pond, not a pool We had roaches and rats, I ain't get to move I survived through it all, it's true yes, it's true Slept on couches and floors all through middle school Now I'm cool, now I'm 'bool Now my car go vroom, vroom Niggas hatin' on me, but it's bool Guess I got rich too soon Nigga, I've been rappin' like six years what? I seen ten niggas get killed What about me turnin' down them deals? Huh Now you pissed off 'cause I switched wheels? Uh, who run it? Limit No Limit run it No Limit man No Limit Who run it? G Herbo I'm done with this shit Who y'all think you foolin'? Not me Y'all niggas really ain't airin' nothin' This bust down, tryna scare us or some' Your shit weak, tryna compare us or somethin' What I made last week? Like a million or somethin' Rich, mad 'cause your bitch ate my kids or somethin' Man, I could fuck your wife like you sharin' or somethin' Galore ass mansion with lira or somethin' Nigga tried to get my ho, tried to fuck my bitch You think I'ma miss that? Man she sucked Meen's dick and she sucked Rock's dick So you think I'ma kiss that? I was in L.A., bitch powdered her nose Told her I ain't with that Boy you trippin', SI diamonds on your neck Mean you better give your wrist back Me no broke, Akademiks, yeah, that's where you get your news at Ask your bros, Grammy-nominated songs just to prove that Know your bros told you, nah, you better not just do that, uh I'm going mode, T.Y., tell me when to go, boy, you ain't rich, you a bitch facts Oh you T'd out? Bitch, you beat out Y'all worried 'bout me, better get your lick back Just like bitches, y'all all chit chat Car so foreign got an engine in the back Balenciaga with the Gucci and the Prada With the Louis and the Pucci and it's all mismatched Ho, it's Lil Uzi and I'm far from a goofy In Chiraq, 150, be strapped Got a 40 shorty, boy, better get back Gun loud, backyard party, kick back How I'm broke If I just hired myself a hitman? Be quiet, bro, them niggas over there'll turn to six rats Not lyin', bro, I been fucked this bitch for six racks After I drop that shit, me, Herbo, Ari and my bitch is gonna relax Prolly somewhere on a beach, prolly somewhere on an island You know that my Rollie got XO diamonds in it, so that's that Perfect Timing Said, Elliot, bezel it, ice kettle chips, I run it back like a Heisman Pull up, I'm swervin', I'm mergin', I got the whip, yeah the one right with the curtains Got boys that be workin' their block to be twerkin', the Tesla pull up for diversion On the beat, me and Herbo, we purgin', the Perky the molly the lean got us slurrin' You call her phone, you think she sleep, but she suckin' my dick while her words keep on slurpin' She said that my shit the same size as a two-liter ginger ale, why she keep burpin' I take out my hair and I stand on my money, your bitch think I'm Julius Erving These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out on God I'm on Percocet's, I think I'm finna skydive yeah You little pussycat, you must think you got nine lives 21 I'm so sick of all this fruity shit, you niggas on thin ice That stick gon' cut you half-time, now these niggas wanna switch sides straight up I ain't really with that takin' shit, lil' nigga, I'm walkin' up straight up That .30 like a tree lil' nigga, watch where you barkin' up straight up We got way too many shots, y'all lil' niggas can't dodge enough on God We can even challenge ya, 'cause y'all lil' niggas ain't charged enough fast Quarter million dollar for a walkthrough straight up Get the utmost respect when I walk through straight up I love the way you suck that dick, lil' bitch, don't forget who taught you straight up Way too much, can't stalk you straight up Bogeyman, nigga, I'll haunt you on God All these bullets 'round me, nigga, I ain't got time to punch you 21 Hit 'em wit' the 3-2, all y'all niggas see through yeah Broad day, I'll see food, had to hit a lick at Kiku yeah-yeah Lil' bitch I don't need you yeah-yeah Hell Nah, I can't eat you yeah-yeah Let the whole gang G you, then I left that bitch at Jeju yeah-yeah You must be scared or some, nigga, let's bet the spread or some 21 That's your main bitch, but I bet that lil' bitch spread for some on God I got all these blues like I ain't bangin' red or somethin' trre I bought all these cars like l ain't got no legs or somethin' yeah Fuck that other side, pull up in ya hood switch it 21 Sex, money, murder, two guns, nigga, big B's 21 Every time I hit that bitch she come back like a frisbee yeah I ain't got time to play with nobody kids, go watch Disney yeah Skin made of concrete, nigga, you can never be me 21 My brother down the road with a touchscreen and a FeFe BF Candlelight gang, leave a nigga on the TV 21 Fish fry gang, y'all can't even afford to die Bitch, I'm way too real, I can't even afford to lie Make a bitch wanna stare or something Niggas stare, you queer or somethin'? You's a bitch, yeah we stay done Chose a whip but I'm staying sunny Diamonds sunny like I'm Cher or something Smiley faces with the glasses Fashion brands invite you to Paris Boy you late that's a demerit, dang it Get fucking maggot brain having Rappers claiming the trap and the fashion They only got Louis and the trap I'm causing the flood and the traffic The way that you be moving is whack All of them rumors is facts They've been in clap for the clap back Your baby mama a nag nag Nag nag nag nag nag nag... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Lil' nigga let them llamas fly, leave a young nigga so traumatized Totin' gats jit, all my niggas ride Don't make me make another mama cry Do a drill, catch another homicide Fix your face, nigga, you got butterflies? Chopper at your throat and you afraid to die Big 14, fuck the other side Jugg, jugg, got all this jewelry Man, this shit ain't new to me Your bitch new to you, she ain't new to me I ain't really with the fucking foolery Glistenin' in these fucking diamonds Bad bitch and I'm fucking shining I got a bad bitch from the fucking islands Taking trips to the fucking islands Guess these guys don't realize When they talking fly, man, it's suicide Don't talk, do a nigga do or die Nobody else, nigga, you and I Big chopper, I'ma let the bullets fly That red dot right between your eyes I don't play, pussy, wish a nigga try 'Cause that'd be the night niggas die Niggas act like I ain't G.O.A.T. or somethin' Take a trip, go chill with the bros or somethin' Call a few bitches, chill with some hoes or somethin' Niggas be flexin', they bold or somethin' They don't want that war, go home or somethin' Internet flexin' with the phone or somethin' You a lil' pup, nigga, fetch a bone or somethin' Niggas male strippers when them poles bummin' Gang uh, gang uh, huh, gang uh 1400 gang yuh, 800 gang yuh 1400 gang yuh, 800 gang yuh Lil' nigga talkin' down, we gon' snatch his chain yuh, yuh, yuh, yuh, yuh Hold on Lil Boat Ayy, who you think you ahead of? Not us uh And these niggas they mad 'cause I'm richer than them Stay ganged up, I ain't clickin' with them You can get shot, Terry Richardson them Nigga, I ball like the Pistons and them uh Fuck around, you come up missin' like them yeah You the type run to the sheriff ha Act like you hard and you careless yeah Nigga, I'm a real ass nigga, ain't fake a nigga Free my big brother out the prison cell woo QC and P told 'em, Give 'em hell Ridin' 'round in a Maybach with my nigga Pellz Glock out, running we empty 12 Bitch on my dick, that's a love spell yeah Bitch with the shits, call her Annabelle yeah If they won't call, I don't gotta yell yeah Hundreds so crisp like a pack of kettles Fuckin' her jewels with my nigga Jack Crotched up, all of my brothers sack yep Gotta run up them Ricky Racks yep In the safe in the real, we got hella plaques yep Got more plaques on my wall than your brother teeth facts Boy, you young, where your Similac? Buyin' whips, yeah, we into that yep Fuckin' hoes, yeah, we into that yep Loving hoes, yeah, no nigga Got a .223 inside the Hellcat doot-doot Keep it all in the pack, huh Hundred niggas in your section Hmm, where the hoes? Nigga, that's weird pussy, pussy Cop a new Lamb, cop a new 'Rari Just to go and switch gears skrt Burn out, burn out Every time we turn out, make a big scene yeah 2K, 3K, 4K, 5K, spent it on my new jeans skrt skrt skrt Gave big bro twenty-seven racks for his birthday, the world made a scene facts Y'all don't even know how a nigga live Spend twenty racks like two bands facts Uh, came with the sticks like they hunting nigga Throwing gang signs, call it taunting nigga Can't nobody at QC get punked, nigga What is a one-on-one, nigga? We jumpin' niggas We got the strap, nigga, fuck it, we stompin' niggas I'm just as rich as your favorite rapper, nigga, might be richer yeah Hit the pent like I'm Derek Fisher Fuck the bitch right, then I kiss her Ride around town, you the one who licked her ew Ha, real player like my pops pops Thirty round in my Glock doot-doot-doot We run it, not opps ha Ten toes on my sole, niggas wouldn't double dare to cross the big Boat yeah Last year These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Twenty racks in the back of jeans Tatted sleeves, Patek freeze Pretty nigga, that indeed Thottie with me, black and cream African, Japanese I just call her blackanese I'm just gonna tap that and leave I don't leave the house unless I got a bag waitin' for me at the front door If you short on my cash, thirty niggas hoppin' out a Uber truck So don't try your luck, hoes down to fuck Top floor of the hotel Smokin' weed in the bathroom, put the shower on so it's no smell Street cold, don't tell But I'd rather live where it's no hell It's funny how hatin' niggas be the ones who names ring no bells Oh well, my bitch bad And her pussy got a soap smell She a model, nah she a model She a little bougie And I'm just tryna put this big wet tongue on top of that coochie Earlier she a little mad at me, she a little moody Sometimes I don't understand the bitch, she a little confusing Like half the time I don't be even doin' shit, and she be assuming Like I ain't loyal or somethin' You act like I don't call you or somethin' You act like you a little spoiled or somethin' Is you hot like you boiling somethin'? So all you rappers it's a rap for you like aluminum foil or somethin' Better crown her, came from the ground up, from the soil or somethin' Been 'bout it, every nigga with me poppin' like oil or somethin' I was slackin', had to get on track like I'm recordin' or somethin' I hear a lot of talk, but honestly they ain't really talkin' 'bout nothin' And nowadays I don't trust a thing, so I ain't really sure about nothin' I just fucked your bitch in Givenchy flip flops And yeah we spendin' money, but we also spin blocks Bend blocks, shout out my nigga Jezz, big opps They ain't open up them doors, I had to pick locks Free Bobby, free Rowdy, free the whole 9 Got lit on my own nigga, didn't need a cosign It's Red Lyfe, no red lights, green lights go time But before you get on the road, nigga make sure you know your road signs He asked did I fuck his bitch, I said uh yeah nigga, four times My sex drive longer than my show lines, make her cum in no time RL that's the bro sign, can't come in, we got closed sign Can't hang here, this is not a clothesline Fuck around and get clotheslined No ghostwriter, I wrote mine Wrote the whole rap and the whole rhyme They like MA, where the album at? I just need a lil' more time I got guns, but if I ain't usin' it, no need to show mine Don't mean I won't blow, ma Bitch nigga, you could blow, ma In the club I drink out the bottle, ain't no need to even pour mine Stripper bitches don't like me 'cause I get money and don't throw mine Y'all niggas can't fuck with me, ain't gotta say it, you already know why If I had a dick, you could suck it If I had nuts, you could hold mine I said, if I had some nuts, you could hold mine Haha If I had some nuts, you could hold mine Fuck y'all niggas Ooh, ooh, ooh Ooh, ooh These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Ayy When I look around, don't see nobody in my lane See these rappers need the clout, that's why they always say my name I'm only gettin' better, bitter bitch it ain't gon' change Why you tryna hang around me, bitch, get off 'cause you ain't gang You ain't gang, treat you like a stain All my biz is straight, I'd still be good without the fame I got so many cousins, aunts, uncles that I never knew On me for my revenue, I'm big now like I'm 7'2 New whip and my leather smooth, try me, I'ma play it cool Windows down, AC blowin', 20 below, I'm extra cool You lookin' fed up 'cause of my bread up, I keep my head to the sky Run up, and I'm back to where I'm droppin' the fire Who want it? Tell me, bitches, who blunted? You ain't know my crew run it? All we see is blue hundreds On my dash, 200, these bitches sad and can't run it Ho I'm a star, you wanna walkthrough you better tell me who fundin' These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Ay bitch, this a brand new chain Put her in Vera Wang She got a crazy top I let her go insane G-shit in my veins Limited seats on my plane Get to the country they know my name I could pay for anything I'm ordering Whether it's bitches, California weed, fourth down Got 20 inches I'm rolling up hella green by the pound You wanna pinch this Wondering what the stench is Always played my position We balling cause we the realest ... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Just make sure to always stay true to who you are, and I did that Jeans black with a pink hat Sorry, I don't wanna come to ya kickback Oh no, so cold like Frozone 9-2-0, what I rep, that's home Big racks, big facts, no foolery Got 'em like God damn, man, who is he? It's me, ya boy Roy so crispy Really had to go and hit 'em with the quick speed Too fast, look left, look right You ain't gon' see nothin' like me in sight Hit my dance real quick, ouu, I just might Wanna sleep on me? Okay, good night I'm gone, new song comin' soon Ya boy Roy really been up in the stu' It's nothin' new, yeah, this what I do Been makin' music way before all the views Whi-white T with the white vans Oh man, god damn, I'm fresh Kickin', laid back, life's good, no stress I don't gotta flex, you know I'm up next Sike, bitch, I'm up now I'm holdin' it down I'm feelin' great I cannot frown Who Run It remix Just something light Had to snap real quick, now I'm droppin' the mic Okay Ayy, ayy, gang Y'all know how the fuck I'm rockin' man I'm hearin' a whole lot of talk about who run this shit I be countin' stacks Who run Ohio, that's me Which one of y'all hotter than me? Leave the beat like a hundred degrees And it's still all this ice on me Who getting plays like me? Who getting paid like me? Y'all was not made like me And I put that on my G's Remember they hated on me I knew all I needed was cheese Ran it up and I blew it on jeans Had to run it back up times three None of y'all wanna be like me Run around with them pipes like me Fresh pair of Off-Whites on my feet Gold chain on a Polo white tee In a trap with a whole lot of P's Smoking dope 'til we Vietnamese I threw bro lil thirty He threw like fifty to me All of these rappers is broke That shit be sickening to me You blew the whole bag on the road You look like a victim to me I just pulled up in a foreign And you got a Honda on E All black tints on all my whips 'Cause I know they're looking for me Just know wherever I go It's a glizzy with me right up under the seat I give a fuck what you claiming you is You can get touched with the heat I remember being irrelevant Now I get bands for all of my feats Remember totin' tourists Now we got AR's that's chopping down trees It's a fifty on bro and a thirty on me You don't really really want the beef You can talk that shit on the internet Run up, get done up, get wrapped up in sheets They was talking crazy last night 'Til a hundred shots hit they block I don't even know who got hit with that shit But we smoking all opps Everywhere I go I'm with the gang It's at least three or four of them Glocks If you speaking on who run it, ain't say my name, you smoking on rocks I'm in the street like fuck 12, bitch I'm off the Henny You can find me with the gang 'cause I don't fuck with many Them my brothers, if I'm busting they gon' dump it with me They know I'm a threat and that's the reason they ain't fucking with me, gang These bitches ain't run, shit but they mouths These niggas ain't run, shit but they mouths These bitches ain't run, shit but they mouths These niggas ain't run, shit but they mouths These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Put a nigga in a moutherfucking dropbox Sleepin on rap niggas like its hopscotch Got yo bitch bowin' down like its crockpot Niggas goin down fast like stop drop Run Shit No pass, I can't drop Niggas switch in my lane but I can't stop Trash talk on your bitch like a raindrop Then drop her ass off at the train stop I'm rappin this shit, it get vital These rappers be working with writers Pop a pill on the plane, i'm blind I ride like fast furious Neva text that bitch cause she curious These niggas act like they ain't hearin us Imma make these niggas look up to us These rappers signed up for a couple bucks Neva trust them when its one to trust I stay fast, talking racks Blew a stack on her back Then I left it where it's at Dressed in black Never rat Neva argue neva slack Watch yo back and that's facts Bitch we only fuck a track And i'm straight from the south Use to mob up on How you axe what i'm bout When you ain't got shit or clout? Pussy nigga what you bout'? All I know, it ain't shit Better watch yo fuckin mouth I can end it in this bitch Pullin up on a nigga Get mysterious in dis bitch Fuck that bitch All that shit, she got the in that bitch Ion give a fuck bout shit Imma motherfuckin piper Like its UFC bitch Imma mothafuckin striker They say I'm bougie and cocky I say I'm just getting started Threw a bag at my baby mama here you go, go shopping Every other day I'm waking up to new money Gettin deposits in From negative to positive Dollar boy just landed In the city of angels ... Point me out to who run it Fuckin' man or a woman I kick they ass in the stomach until they vomit from it Nigga I'm sick I'm bubonic and you and that bitch is platonic Stab your ass in the stomach and clean the mess up with Comet Fuck all that extra shit I'm in the bed with a naked bitch and her head just twist like damn exorcist What ya tryna posses me with The way she suck my dick was an accident cause I ain't even have to ask the bitch Nigga I'm stingy as hell I'm face my hoes nigga I don't even pass the bitch And I shit on niggas on accident like I ate some laxatives Try to impress me with that bullshit turn him to an acronym Nigga its Prick Harper I'm a shit starter And all that bullshit you talkin' make my dick harder I treat a rapper like his father I don't text him I don't call him I don't bother Nigga I let the Glock solve problems These rappers ain't runnin' shit but</t>
+          <t>Finny Music Who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out These niggas got plenty Anna but they ain't got plenty guns I'm bustin' out luxury cars, still got these hoes on the run I'm hearin' plenty mean words, but ain't no actions to boot We can do some straight war for war, we can do some stickin' and movin' We can meet in the middle of these streets or in the middle of this ring I can pop your chest, plastic Glock, or pop your jaw diamond rings Bitch don't hate me hate the bank, for stacks of cheese that I take Or hate my shiny wristband, and big ass rims I rotate See people flip when I'm comin', got suckas sick at the stomach They wonderin' what I brought in, they wonderin' what I got comin' Niggas I'm comin' like this, off in your mouth like a bitch Trust me when you think of me, I'm bringing water, I'll start it What's the business? It's that player that you love to hate, always see come out the bank Always have to mention my name, when you high on that drank Catch up with this boy you can't, cause you know I'm holdin' rank When you see the platinum Rolex with the ice it make you faint Through the streets now have you heard, 'bout the Mafia droppin' birds Runnin' from the narcs and cops, tossin' out the bags of herb Ain't afraid to pop the steel, hollow tips to make you feel If you wanna punk me out, Cartier's and a Dracula grill These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out I can't take anymore, I'm 'bout to explode I'm 'bout to overload, I'm 'bout to get it, boy All I wanna know is where the G's at, where the key's at Keep it easy, you don't want to get skeeted All on this motherfuckin' room, nigga, boom Lay down on your back so you can get up soon Stab you in your heart with a har-fuckin-poon Nigga, boom, nigga, boom Scarecrow's on it, I'm still hungry, starvin' for a platinum supper Wipe it easy, some black founded, crooked ass set'll be eating rubber 'Cause if they skit-skat, gun 'em all down, even ghost towns Splish-Splash, brains on the ground, with a cannon round Ball bat, bash him in his back, beatin' bitches down Battleaxe blaze from the cross, body never found Catch a close encounter cause the Anna kills off these rap bums Chemical reaction cobra venom shot into his arm These, these, these bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one of y'all step, the first one I'm a toss out Here we go, all you weak ass hoes In my face like you my friend Triple Six dropped in again, time to make ends Dope game, my game, hoes lame, it's a shame How that Gangsta Boo is runnin' the click up on you bitches man Fat cat, what I be, packin', how you love that Fuck a platinum plaque, gimme money, where the dollars at Blap, blap You're dead in a second for 10 G's Where you from? Black haven is where I be on my P's and Q's Parents please, watch out for your children This the one that'll lock 'em in the basement Some of them talkin' so rugged, some corrupted ugly pussa-pussa Close your fucking mouth, my nigga, Koopsta tryin' to tell ya somethin' Peter-Peter, pussy eater, one of them fucked by Koopsta Knicca Lord, I done some sins, cause she married, but I don't know that nigga Figured he is a killa, so he figures he'll watch us fuckin' Put them muthafuckin' slugs upside that thug, cuz, oh my These, the-these, these, these bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one of y'all step, the first one I'm a toss out For that dick game, wouldn't buy your bitch with my loose change Thirsty niggas eatin' bitches ass with the shit stain Insane like my motherfuckin' wrist game, nigga Houses on the hill cost the same fuckin' thing Counted up a hunnid this mornin' Then I went spent me 50 Then I hit the VLive, tryna buy me some ass and titties Rappers sample my old shit, keep runnin' 'em bags, I'm uh rich Get 'em samples cleared 'cause that publish you might not get some Niggas act like they don't owe me somethin' I'm the reason bitches twerkin' they ass, now show me somethin' Payin' homage is a real nigga move, bitch I paid my dues Sold a million out the trunk, you niggas uber poo Pour that mud up like that butter, first nigga with that pipe in the club Used to have to turn my shit up, had niggas tryna fight in the club Y'all leaving with them, we hit them hoes right in the club And I know I'm icy'd up, pinky just like that dub You gotta like my shit, you a hater or somethin' I'm a grown ass man, you a baby or somethin' Probably fucked yo mama on the come up in the 80's, homie Don't you ever try to play me, homie Got a wife now like Kanye And I wish a bitch would try to bite her like Beyonce My daughter 2 months and she been paid Boutta sign more deals, cop more real estate Me and Pat used to rob for 'em petty things Now it's nothin' less than private jets, 7 figure checks Hater, catch yo fuckin' breathe, you broke, ain't got nothin' left We them niggas in Dubai from the north, don't you ever flex Mafia, runnin' shit, Juicy J ain't never quit Ain't a bitch I never hit, still countin' paper, bitch When the smoke clears, nigga, I'm still here Higher than I been in 20 goddamn years, uh Motherfuckin' legend get your smoke right, dope right Who run it Ain't no conversation for that broke life, show right, Who run it bitch Let me talk my shit real quick Who run it, all the real niggas gon' feel this How that's yo' kid but he ain't got bills? Can't find you in family pics Food stamps, they go so quick when you up in a family of six So it's funny how they sell that shit for a little pack of weed and a new pair of kicks Man, I'm so dead, I can't, inside I feel so blank Little girls on Twitter talkin' 'bout they break up, girl, sit back on Paint If I'm alive, no complaints, none of these judges saints Let the black beat her, that's 10 years, but if white beat her, nice tank It's so ridiculous, ain't shit funny, ain't ticklish Don't test me if I'm with the shits, end up in a cage, no Nicholas Everything about me is interesting, I'ma need more and more Benjamins Damn, I can't breathe, stop smoking them trees, got your insides looking like Christmas Ungrateful hoes, get the fuck out of here, you had a rough day and I had a rough year So when I get money I really do care, go and invest it, not spending on gear Think about that, just stating facts, niggas don't chart when it's real rap Earn my respect then you get it right back, that go hand in hand ain't talkin' dap A lot of issues in my past still hurt me to this day, to the core I don't ever open up 'cause I know people change like the oil Over 100k up on tour, still got a mindset like I'm poor But I'm on the roll when it come to rappin' like a pack of aluminum foil Man, I love walking barefoot, I really like the feel when I'm at the bottom what? 'Cause I know it's only for a couple of seconds, then I'm right back to my stardom that's right Motherfuckers ain't woke, man, I gotta fuck around and re-alarm 'em I'm woke all day, 3 AM, when they call me Jake from State Farm Okay, lil' bitch, act like you know, anything I say is right like nose Walk right over there, hoe, like roach, and it's over for these hoes, no dose Walk in that bitch with a white T, they don't really like me but you know how that goes Walk out that bitch you would think I'm little red riding hood, how I got blood on my clothes These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out All I smoke is loud, you got that mild like Darius yeah My son ain't gotta work because he gon' inherit it, uh huh gon' inherit it We yell, Gang-gang first, you don't even know your heritage bitch Took the cash from verses, I give that shit to charity Lovin' my city like Chano, I swear Why the fuck I still gotta ride everywhere with it? Herb I seen you on the news, I was worried We was just jokin' with y'all, that's a parody We don't talk too much, got D's everywhere everywhere We still fresh, double G's everywhere everywhere I put the VV's everywhere everywhere I do Mike Amiri's, every pair And they know me for shittin' on everybody I'm the one that do shit that you hear about I'm the one that told y'all that I move like Obama Then how the fuck they end up with my whereabouts? Hold on everybody gotta clear it out Middle of summer, hot like a sauna We was laid back in the back of the Honda Told young to sneak up, anaconda It ain't happen, not one day, your honor I was somewhere eatin' Benihana's Get valet and Lil' Benny to park it All my life I had been in apartments Move to Bali, get a brib, Im ballin My bitch always primpin', keep ballin' Yes I'm a lil' workaholic Hit the crib with a 50 and all 20's I'ma just make her count all of 'em But I get the backend all blues Nah don't fuck around, bruh, do all of it Know it's goin' right to lil' dude Already got a closet, all shoes Bought 10 pairs of baby G-Fazos And my bitch got a closet with some Loubs Cashed out on the crib, I ain't get the view I'm like, Fuck it, no problem, it'll do Mama's crib got a pond, not a pool We had roaches and rats, I ain't get to move I survived through it all, it's true yes, it's true Slept on couches and floors all through middle school Now I'm cool, now I'm 'bool Now my car go vroom, vroom Niggas hatin' on me, but it's bool Guess I got rich too soon Nigga, I've been rappin' like six years what? I seen ten niggas get killed What about me turnin' down them deals? Huh Now you pissed off 'cause I switched wheels? Uh, who run it? Limit No Limit run it No Limit man No Limit Who run it? G Herbo I'm done with this shit Who y'all think you foolin'? Not me Y'all niggas really ain't airin' nothin' This bust down, tryna scare us or some' Your shit weak, tryna compare us or somethin' What I made last week? Like a million or somethin' Rich, mad 'cause your bitch ate my kids or somethin' Man, I could fuck your wife like you sharin' or somethin' Galore ass mansion with lira or somethin' Nigga tried to get my ho, tried to fuck my bitch You think I'ma miss that? Man she sucked Meen's dick and she sucked Rock's dick So you think I'ma kiss that? I was in L.A., bitch powdered her nose Told her I ain't with that Boy you trippin', SI diamonds on your neck Mean you better give your wrist back Me no broke, Akademiks, yeah, that's where you get your news at Ask your bros, Grammy-nominated songs just to prove that Know your bros told you, nah, you better not just do that, uh I'm going mode, T.Y., tell me when to go, boy, you ain't rich, you a bitch facts Oh you T'd out? Bitch, you beat out Y'all worried 'bout me, better get your lick back Just like bitches, y'all all chit chat Car so foreign got an engine in the back Balenciaga with the Gucci and the Prada With the Louis and the Pucci and it's all mismatched Ho, it's Lil Uzi and I'm far from a goofy In Chiraq, 150, be strapped Got a 40 shorty, boy, better get back Gun loud, backyard party, kick back How I'm broke If I just hired myself a hitman? Be quiet, bro, them niggas over there'll turn to six rats Not lyin', bro, I been fucked this bitch for six racks After I drop that shit, me, Herbo, Ari and my bitch is gonna relax Prolly somewhere on a beach, prolly somewhere on an island You know that my Rollie got XO diamonds in it, so that's that Perfect Timing Said, Elliot, bezel it, ice kettle chips, I run it back like a Heisman Pull up, I'm swervin', I'm mergin', I got the whip, yeah the one right with the curtains Got boys that be workin' their block to be twerkin', the Tesla pull up for diversion On the beat, me and Herbo, we purgin', the Perky the molly the lean got us slurrin' You call her phone, you think she sleep, but she suckin' my dick while her words keep on slurpin' She said that my shit the same size as a two-liter ginger ale, why she keep burpin' I take out my hair and I stand on my money, your bitch think I'm Julius Erving These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out on God I'm on Percocet's, I think I'm finna skydive yeah You little pussycat, you must think you got nine lives 21 I'm so sick of all this fruity shit, you niggas on thin ice That stick gon' cut you half-time, now these niggas wanna switch sides straight up I ain't really with that takin' shit, lil' nigga, I'm walkin' up straight up That .30 like a tree lil' nigga, watch where you barkin' up straight up We got way too many shots, y'all lil' niggas can't dodge enough on God We can even challenge ya, 'cause y'all lil' niggas ain't charged enough fast Quarter million dollar for a walkthrough straight up Get the utmost respect when I walk through straight up I love the way you suck that dick, lil' bitch, don't forget who taught you straight up Way too much, can't stalk you straight up Bogeyman, nigga, I'll haunt you on God All these bullets 'round me, nigga, I ain't got time to punch you 21 Hit 'em wit' the 3-2, all y'all niggas see through yeah Broad day, I'll see food, had to hit a lick at Kiku yeah-yeah Lil' bitch I don't need you yeah-yeah Hell Nah, I can't eat you yeah-yeah Let the whole gang G you, then I left that bitch at Jeju yeah-yeah You must be scared or some, nigga, let's bet the spread or some 21 That's your main bitch, but I bet that lil' bitch spread for some on God I got all these blues like I ain't bangin' red or somethin' trre I bought all these cars like l ain't got no legs or somethin' yeah Fuck that other side, pull up in ya hood switch it 21 Sex, money, murder, two guns, nigga, big B's 21 Every time I hit that bitch she come back like a frisbee yeah I ain't got time to play with nobody kids, go watch Disney yeah Skin made of concrete, nigga, you can never be me 21 My brother down the road with a touchscreen and a FeFe BF Candlelight gang, leave a nigga on the TV 21 Fish fry gang, y'all can't even afford to die Bitch, I'm way too real, I can't even afford to lie Make a bitch wanna stare or something Niggas stare, you queer or somethin'? You's a bitch, yeah we stay done Chose a whip but I'm staying sunny Diamonds sunny like I'm Cher or something Smiley faces with the glasses Fashion brands invite you to Paris Boy you late that's a demerit, dang it Get fucking maggot brain having Rappers claiming the trap and the fashion They only got Louis and the trap I'm causing the flood and the traffic The way that you be moving is whack All of them rumors is facts They've been in clap for the clap back Your baby mama a nag nag Nag nag nag nag nag nag... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Lil' nigga let them llamas fly, leave a young nigga so traumatized Totin' gats jit, all my niggas ride Don't make me make another mama cry Do a drill, catch another homicide Fix your face, nigga, you got butterflies? Chopper at your throat and you afraid to die Big 14, fuck the other side Jugg, jugg, got all this jewelry Man, this shit ain't new to me Your bitch new to you, she ain't new to me I ain't really with the fucking foolery Glistenin' in these fucking diamonds Bad bitch and I'm fucking shining I got a bad bitch from the fucking islands Taking trips to the fucking islands Guess these guys don't realize When they talking fly, man, it's suicide Don't talk, do a nigga do or die Nobody else, nigga, you and I Big chopper, I'ma let the bullets fly That red dot right between your eyes I don't play, pussy, wish a nigga try 'Cause that'd be the night niggas die Niggas act like I ain't G.O.A.T. or somethin' Take a trip, go chill with the bros or somethin' Call a few bitches, chill with some hoes or somethin' Niggas be flexin', they bold or somethin' They don't want that war, go home or somethin' Internet flexin' with the phone or somethin' You a lil' pup, nigga, fetch a bone or somethin' Niggas male strippers when them poles bummin' Gang uh, gang uh, huh, gang uh 1400 gang yuh, 800 gang yuh 1400 gang yuh, 800 gang yuh Lil' nigga talkin' down, we gon' snatch his chain yuh, yuh, yuh, yuh, yuh Hold on Lil Boat Ayy, who you think you ahead of? Not us uh And these niggas they mad 'cause I'm richer than them Stay ganged up, I ain't clickin' with them You can get shot, Terry Richardson them Nigga, I ball like the Pistons and them uh Fuck around, you come up missin' like them yeah You the type run to the sheriff ha Act like you hard and you careless yeah Nigga, I'm a real ass nigga, ain't fake a nigga Free my big brother out the prison cell woo QC and P told 'em, Give 'em hell Ridin' 'round in a Maybach with my nigga Pellz Glock out, running we empty 12 Bitch on my dick, that's a love spell yeah Bitch with the shits, call her Annabelle yeah If they won't call, I don't gotta yell yeah Hundreds so crisp like a pack of kettles Fuckin' her jewels with my nigga Jack Crotched up, all of my brothers sack yep Gotta run up them Ricky Racks yep In the safe in the real, we got hella plaques yep Got more plaques on my wall than your brother teeth facts Boy, you young, where your Similac? Buyin' whips, yeah, we into that yep Fuckin' hoes, yeah, we into that yep Loving hoes, yeah, no nigga Got a .223 inside the Hellcat doot-doot Keep it all in the pack, huh Hundred niggas in your section Hmm, where the hoes? Nigga, that's weird pussy, pussy Cop a new Lamb, cop a new 'Rari Just to go and switch gears skrt Burn out, burn out Every time we turn out, make a big scene yeah 2K, 3K, 4K, 5K, spent it on my new jeans skrt skrt skrt Gave big bro twenty-seven racks for his birthday, the world made a scene facts Y'all don't even know how a nigga live Spend twenty racks like two bands facts Uh, came with the sticks like they hunting nigga Throwing gang signs, call it taunting nigga Can't nobody at QC get punked, nigga What is a one-on-one, nigga? We jumpin' niggas We got the strap, nigga, fuck it, we stompin' niggas I'm just as rich as your favorite rapper, nigga, might be richer yeah Hit the pent like I'm Derek Fisher Fuck the bitch right, then I kiss her Ride around town, you the one who licked her ew Ha, real player like my pops pops Thirty round in my Glock doot-doot-doot We run it, not opps ha Ten toes on my sole, niggas wouldn't double dare to cross the big Boat yeah Last year These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Twenty racks in the back of jeans Tatted sleeves, Patek freeze Pretty nigga, that indeed Thottie with me, black and cream African, Japanese I just call her blackanese I'm just gonna tap that and leave I don't leave the house unless I got a bag waitin' for me at the front door If you short on my cash, thirty niggas hoppin' out a Uber truck So don't try your luck, hoes down to fuck Top floor of the hotel Smokin' weed in the bathroom, put the shower on so it's no smell Street cold, don't tell But I'd rather live where it's no hell It's funny how hatin' niggas be the ones who names ring no bells Oh well, my bitch bad And her pussy got a soap smell She a model, nah she a model She a little bougie And I'm just tryna put this big wet tongue on top of that coochie Earlier she a little mad at me, she a little moody Sometimes I don't understand the bitch, she a little confusing Like half the time I don't be even doin' shit, and she be assuming Like I ain't loyal or somethin' You act like I don't call you or somethin' You act like you a little spoiled or somethin' Is you hot like you boiling somethin'? So all you rappers it's a rap for you like aluminum foil or somethin' Better crown her, came from the ground up, from the soil or somethin' Been 'bout it, every nigga with me poppin' like oil or somethin' I was slackin', had to get on track like I'm recordin' or somethin' I hear a lot of talk, but honestly they ain't really talkin' 'bout nothin' And nowadays I don't trust a thing, so I ain't really sure about nothin' I just fucked your bitch in Givenchy flip flops And yeah we spendin' money, but we also spin blocks Bend blocks, shout out my nigga Jezz, big opps They ain't open up them doors, I had to pick locks Free Bobby, free Rowdy, free the whole 9 Got lit on my own nigga, didn't need a cosign It's Red Lyfe, no red lights, green lights go time But before you get on the road, nigga make sure you know your road signs He asked did I fuck his bitch, I said uh yeah nigga, four times My sex drive longer than my show lines, make her cum in no time RL that's the bro sign, can't come in, we got closed sign Can't hang here, this is not a clothesline Fuck around and get clotheslined No ghostwriter, I wrote mine Wrote the whole rap and the whole rhyme They like MA, where the album at? I just need a lil' more time I got guns, but if I ain't usin' it, no need to show mine Don't mean I won't blow, ma Bitch nigga, you could blow, ma In the club I drink out the bottle, ain't no need to even pour mine Stripper bitches don't like me 'cause I get money and don't throw mine Y'all niggas can't fuck with me, ain't gotta say it, you already know why If I had a dick, you could suck it If I had nuts, you could hold mine I said, if I had some nuts, you could hold mine Haha If I had some nuts, you could hold mine Fuck y'all niggas Ooh, ooh, ooh Ooh, ooh These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Ayy When I look around, don't see nobody in my lane See these rappers need the clout, that's why they always say my name I'm only gettin' better, bitter bitch it ain't gon' change Why you tryna hang around me, bitch, get off 'cause you ain't gang You ain't gang, treat you like a stain All my biz is straight, I'd still be good without the fame I got so many cousins, aunts, uncles that I never knew On me for my revenue, I'm big now like I'm 7'2 New whip and my leather smooth, try me, I'ma play it cool Windows down, AC blowin', 20 below, I'm extra cool You lookin' fed up 'cause of my bread up, I keep my head to the sky Run up, and I'm back to where I'm droppin' the fire Who want it? Tell me, bitches, who blunted? You ain't know my crew run it? All we see is blue hundreds On my dash, 200, these bitches sad and can't run it Ho I'm a star, you wanna walkthrough you better tell me who fundin' These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Ay bitch, this a brand new chain Put her in Vera Wang She got a crazy top I let her go insane G-shit in my veins Limited seats on my plane Get to the country they know my name I could pay for anything I'm ordering Whether it's bitches, California weed, fourth down Got 20 inches I'm rolling up hella green by the pound You wanna pinch this Wondering what the stench is Always played my position We balling cause we the realest ... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Just make sure to always stay true to who you are, and I did that Jeans black with a pink hat Sorry, I don't wanna come to ya kickback Oh no, so cold like Frozone 9-2-0, what I rep, that's home Big racks, big facts, no foolery Got 'em like God damn, man, who is he? It's me, ya boy Roy so crispy Really had to go and hit 'em with the quick speed Too fast, look left, look right You ain't gon' see nothin' like me in sight Hit my dance real quick, ouu, I just might Wanna sleep on me? Okay, good night I'm gone, new song comin' soon Ya boy Roy really been up in the stu' It's nothin' new, yeah, this what I do Been makin' music way before all the views Whi-white T with the white vans Oh man, god damn, I'm fresh Kickin', laid back, life's good, no stress I don't gotta flex, you know I'm up next Sike, bitch, I'm up now I'm holdin' it down I'm feelin' great I cannot frown Who Run It remix Just something light Had to snap real quick, now I'm droppin' the mic Okay Ayy, ayy, gang Y'all know how the fuck I'm rockin' man I'm hearin' a whole lot of talk about who run this shit I be countin' stacks Who run Ohio, that's me Which one of y'all hotter than me? Leave the beat like a hundred degrees And it's still all this ice on me Who getting plays like me? Who getting paid like me? Y'all was not made like me And I put that on my G's Remember they hated on me I knew all I needed was cheese Ran it up and I blew it on jeans Had to run it back up times three None of y'all wanna be like me Run around with them pipes like me Fresh pair of Off-Whites on my feet Gold chain on a Polo white tee In a trap with a whole lot of P's Smoking dope 'til we Vietnamese I threw bro lil thirty He threw like fifty to me All of these rappers is broke That shit be sickening to me You blew the whole bag on the road You look like a victim to me I just pulled up in a foreign And you got a Honda on E All black tints on all my whips 'Cause I know they're looking for me Just know wherever I go It's a glizzy with me right up under the seat I give a fuck what you claiming you is You can get touched with the heat I remember being irrelevant Now I get bands for all of my feats Remember totin' tourists Now we got AR's that's chopping down trees It's a fifty on bro and a thirty on me You don't really really want the beef You can talk that shit on the internet Run up, get done up, get wrapped up in sheets They was talking crazy last night 'Til a hundred shots hit they block I don't even know who got hit with that shit But we smoking all opps Everywhere I go I'm with the gang It's at least three or four of them Glocks If you speaking on who run it, ain't say my name, you smoking on rocks I'm in the street like fuck 12, bitch I'm off the Henny You can find me with the gang 'cause I don't fuck with many Them my brothers, if I'm busting they gon' dump it with me They know I'm a threat and that's the reason they ain't fucking with me, gang These bitches ain't run, shit but they mouths These niggas ain't run, shit but they mouths These bitches ain't run, shit but they mouths These niggas ain't run, shit but they mouths These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Put a nigga in a moutherfucking dropbox Sleepin on rap niggas like its hopscotch Got yo bitch bowin' down like its crockpot Niggas goin down fast like stop drop Run Shit No pass, I can't drop Niggas switch in my lane but I can't stop Trash talk on your bitch like a raindrop Then drop her ass off at the train stop I'm rappin this shit, it get vital These rappers be working with writers Pop a pill on the plane, i'm blind I ride like fast furious Neva text that bitch cause she curious These niggas act like they ain't hearin us Imma make these niggas look up to us These rappers signed up for a couple bucks Neva trust them when its one to trust I stay fast, talking racks Blew a stack on her back Then I left it where it's at Dressed in black Never rat Neva argue neva slack Watch yo back and that's facts Bitch we only fuck a track And i'm straight from the south Use to mob up on How you axe what i'm bout When you ain't got shit or clout? Pussy nigga what you bout'? All I know, it ain't shit Better watch yo fuckin mouth I can end it in this bitch Pullin up on a nigga Get mysterious in dis bitch Fuck that bitch All that shit, she got the in that bitch Ion give a fuck bout shit Imma motherfuckin piper Like its UFC bitch Imma mothafuckin striker They say I'm bougie and cocky I say I'm just getting started Threw a bag at my baby mama here you go, go shopping Every other day I'm waking up to new money Gettin deposits in From negative to positive Dollar boy just landed In the city of angels ... Point me out to who run it Fuckin' man or a woman I kick they ass in the stomach until they vomit from it Nigga I'm sick I'm bubonic and you and that bitch is platonic Stab your ass in the stomach and clean the mess up with Comet Fuck all that extra shit I'm in the bed with a naked bitch and her head just twist like damn exorcist What ya tryna posses me with The way she suck my dick was an accident cause I ain't even have to ask the bitch Nigga I'm stingy as hell I'm face my hoes nigga I don't even pass the bitch And I shit on niggas on accident like I ate some laxatives Try to impress me with that bullshit turn him to an acronym Nigga its Prick Harper I'm a shit starter And all that bullshit you talkin' make my dick harder I treat a rapper like his father I don't text him I don't call him I don't bother Nigga I let the Glock solve problems These rappers ain't runnin' shit but ya bitch Who, where</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Living on the city street tough Living on the city street tough Living on the city street tough When you're street tough You came down the ups and downs of life turnin' you round You got to keep on moving on Places you know, people you see thats where you find The answers to survive, learning things as you go And now you're traveling down the path Of life where only fools dare to go And even though you're losing You know you just can't let it show When you're street tough You got to learn to be strong When you're street tough You got to take care of your own Street tough Win or lose live or die Street tough When you're street tough And through the years you hold your tears You have to face, you got to to survive Doing the things you got to do, you know you're better If you want to stay alive stay alive You might also likeYou're traveling down the path Of life where only fools dare to go And even though you're losing You know you just can't let it show When you're street tough You got to try for yourself When you're street tough You got to fight like hell to get somewhere Street tough There's nobody out there who really cares Street tough Lord, when you're street tough Living on the city street tough And now you're traveling down the path Of life where only fools dare to go And even though you lose sometimes You just can't let it show When you're street tough Living on the city street tough Living on the city street tough Living on the city street tough Round and round the chances go Where you'll stop nobody knows When you're street tough Lord, when you're street tough Whats right for you is wrong for them Don't wanna hurt nobody but you got to make it for yourself When you're street tough Living on the city street tough</t>
+          <t>Living on the city street tough Living on the city street tough Living on the city street tough When you're street tough You came down the ups and downs of life turnin' you round You got to keep on moving on Places you know, people you see thats where you find The answers to survive, learning things as you go And now you're traveling down the path Of life where only fools dare to go And even though you're losing You know you just can't let it show When you're street tough You got to learn to be strong When you're street tough You got to take care of your own Street tough Win or lose live or die Street tough When you're street tough And through the years you hold your tears You have to face, you got to to survive Doing the things you got to do, you know you're better If you want to stay alive stay alive You're traveling down the path Of life where only fools dare to go And even though you're losing You know you just can't let it show When you're street tough You got to try for yourself When you're street tough You got to fight like hell to get somewhere Street tough There's nobody out there who really cares Street tough Lord, when you're street tough Living on the city street tough And now you're traveling down the path Of life where only fools dare to go And even though you lose sometimes You just can't let it show When you're street tough Living on the city street tough Living on the city street tough Living on the city street tough Round and round the chances go Where you'll stop nobody knows When you're street tough Lord, when you're street tough Whats right for you is wrong for them Don't wanna hurt nobody but you got to make it for yourself When you're street tough Living on the city street tough</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>When marimba rhythms start to play Dance with me, oh, make me sway Like a lazy ocean hugs the shore Hold me close, sway me more Like the flowers bending in the breeze Bend with me, sway with ease When we dance you have a way with me Stay with me, oh, sway with me Other dancers may be on the floor Dear, but my eyes can see only you Only you have that magic technique When we sway I go weak I can hear the sounds of violins Long before it begins Make me thrill as only you know how Sway me smooth, come on and sway me now Other dancers may be on the floor Dear, but my eyes can see only you Only you have that magic technique When I sway, I go weak I can hear the sounds of violins Long before it begins Make the rhythm as only you know how Sway me smooth, come on and sway me now Make the rhythm as you know how Sway me smooth, come on and sway me nowYou might also like</t>
+          <t>When marimba rhythms start to play Dance with me, oh, make me sway Like a lazy ocean hugs the shore Hold me close, sway me more Like the flowers bending in the breeze Bend with me, sway with ease When we dance you have a way with me Stay with me, oh, sway with me Other dancers may be on the floor Dear, but my eyes can see only you Only you have that magic technique When we sway I go weak I can hear the sounds of violins Long before it begins Make me thrill as only you know how Sway me smooth, come on and sway me now Other dancers may be on the floor Dear, but my eyes can see only you Only you have that magic technique When I sway, I go weak I can hear the sounds of violins Long before it begins Make the rhythm as only you know how Sway me smooth, come on and sway me now Make the rhythm as you know how Sway me smooth, come on and sway me now</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>I was sweet and gentle Ah, kind of sentimental No one will deny it I was once so quiet And then one magic night, I learned to do the cha cha And now I'll never be the same For I have turned into a dancing Cucaracha And my muchacha is the same Oh, how can I be gentle Sweet and sentimental While the cha cha's playing And my heart is swaying I find that I am even dancing when I'm walking I'm haunted by that cha cha beat I hear the rhythm start whenever we are walking I do the cha cha in my sleep I find that I am even dancing when I'm walking I'm haunted by that cha cha beat I hear the rhythm start whenever we are walking I do the cha cha in my sleep I do the cha cha in my sleep I do the cha cha in my sleep Cha, cha, chaYou might also like</t>
+          <t>I was sweet and gentle Ah, kind of sentimental No one will deny it I was once so quiet And then one magic night, I learned to do the cha cha And now I'll never be the same For I have turned into a dancing Cucaracha And my muchacha is the same Oh, how can I be gentle Sweet and sentimental While the cha cha's playing And my heart is swaying I find that I am even dancing when I'm walking I'm haunted by that cha cha beat I hear the rhythm start whenever we are walking I do the cha cha in my sleep I find that I am even dancing when I'm walking I'm haunted by that cha cha beat I hear the rhythm start whenever we are walking I do the cha cha in my sleep I do the cha cha in my sleep I do the cha cha in my sleep Cha, cha, cha</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Yeah Let them know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese You might also like Let them know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Woah way too tipsy, baby Yeah, yeah, yeah, yeah, yeah, yeah, yeah No sleep, I'm in my zone Whole team on 10, yeah We outside while you stay home So I come back with the city I know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese Me, me, me, me Repeat, repeat, repeat, repeat Wanna meet, meet, meet, meet These tears, tears, tears</t>
+          <t>Yeah Let them know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese Let them know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Woah way too tipsy, baby Yeah, yeah, yeah, yeah, yeah, yeah, yeah No sleep, I'm in my zone Whole team on 10, yeah We outside while you stay home So I come back with the city I know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese Me, me, me, me Repeat, repeat, repeat, repeat Wanna meet, meet, meet, meet These tears, tears, tears</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Today we're here to talk about, what is luxury? Michaelwarren I just spent a bag 'cause I'm sick of feelin' sad When I pop this pill, I hope I forget who I am It's because every time you talk to me I wanna go back It's because I just keep fucking up, can't go through this again I just keep telling myself that nothing of this is real I just keep telling myself that someone cares about how I feel And I struggle a lot, feel like I'm not enough I don't wanna give up, but I keep nodding off And I struggle a lot, feel like im not enough I dont wanna give up but I keep nodding off Do me dirty like my Prada's I'm breathing in the stardust I don't wanna feel like this That's why I keep spending dollars That's why I keep spending Benji's And maybe it's not healthy Falling back into bad habit's I cannot undo the damage And even if it's over I hope you won't forget me I just want you to know that I keep you in my memories Don't like it when I'm sober Because that's when it hurts the most I think this is going nowhere I wish we would still be close You might also like I wish we would still be close Michaelwarren I just spent a bag 'cause I'm sick of feelin' sad When I pop this pill, I hope I forget who I am It's because every time you talk to me I wanna go back It's because I just keep fucking up, can't go through this again I just keep telling myself that nothing of this is real I just keep telling myself that someone cares about how I feel And I struggle a lot, feel like I'm not enough I don't wanna give up, but I keep nodding off</t>
+          <t>Today we're here to talk about, what is luxury? Michaelwarren I just spent a bag 'cause I'm sick of feelin' sad When I pop this pill, I hope I forget who I am It's because every time you talk to me I wanna go back It's because I just keep fucking up, can't go through this again I just keep telling myself that nothing of this is real I just keep telling myself that someone cares about how I feel And I struggle a lot, feel like I'm not enough I don't wanna give up, but I keep nodding off And I struggle a lot, feel like im not enough I dont wanna give up but I keep nodding off Do me dirty like my Prada's I'm breathing in the stardust I don't wanna feel like this That's why I keep spending dollars That's why I keep spending Benji's And maybe it's not healthy Falling back into bad habit's I cannot undo the damage And even if it's over I hope you won't forget me I just want you to know that I keep you in my memories Don't like it when I'm sober Because that's when it hurts the most I think this is going nowhere I wish we would still be close I wish we would still be close Michaelwarren I just spent a bag 'cause I'm sick of feelin' sad When I pop this pill, I hope I forget who I am It's because every time you talk to me I wanna go back It's because I just keep fucking up, can't go through this again I just keep telling myself that nothing of this is real I just keep telling myself that someone cares about how I feel And I struggle a lot, feel like I'm not enough I don't wanna give up, but I keep nodding off</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>I went to a Hermit of Misty Mountain who lives in a cave above And I asked this wise old man Oh, Mr Hermit, what is a love...? He said, Love is a boat that sails to heaven on a river that has no end... Its a magic carpet to the Valley of Dreams... thats a love my friend... So I asked this Hermit of a Misty Mountain who lives where the cold winds blow If I find this thing called love... oh, Mr Hermit, how will I know...? He said, Youll see the Sun when it isnt shining and the stars when they dont glow... And youll hear songs when there aint no singing... Thats a-how youll know... So I said to a Hermit of Misty Mountain before these things are thru When I find this thing called love,.. oh, Mr Hermit, what do I do? He said, Treasure this love much more than gold and care for it tenderly... Or youll be a Hermit on a Misty Mountain A fool like me A fool like me Aaaw, youll be a fool like me A fool like me...You might also like1</t>
+          <t>I went to a Hermit of Misty Mountain who lives in a cave above And I asked this wise old man Oh, Mr Hermit, what is a love...? He said, Love is a boat that sails to heaven on a river that has no end... Its a magic carpet to the Valley of Dreams... thats a love my friend... So I asked this Hermit of a Misty Mountain who lives where the cold winds blow If I find this thing called love... oh, Mr Hermit, how will I know...? He said, Youll see the Sun when it isnt shining and the stars when they dont glow... And youll hear songs when there aint no singing... Thats a-how youll know... So I said to a Hermit of Misty Mountain before these things are thru When I find this thing called love,.. oh, Mr Hermit, what do I do? He said, Treasure this love much more than gold and care for it tenderly... Or youll be a Hermit on a Misty Mountain A fool like me A fool like me Aaaw, youll be a fool like me A fool like me...1</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk You might also like They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk You might also like They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk You might also like They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk You might also like They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk You might also like They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk You might also like They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk You might also like They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk You might also like They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Your heart used to shelter me from all harm Your strength used to comfort me in any storm When things were too much to bear You were there by my side Now, you're gone, I can't go on Oh, darlin', darlin Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide With you by my side I felt like a king Like a king With you by my side I could do anything Anything Then you turned your back on me Somethin' deep in me died 'Til you come on back to me Oh, darlin', darlin' Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide You might also like When you turned your back on me Somethin' deep in me died 'Til you come on back to me Oh, darlin', darlin' Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide</t>
+          <t>Your heart used to shelter me from all harm Your strength used to comfort me in any storm When things were too much to bear You were there by my side Now, you're gone, I can't go on Oh, darlin', darlin Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide With you by my side I felt like a king Like a king With you by my side I could do anything Anything Then you turned your back on me Somethin' deep in me died 'Til you come on back to me Oh, darlin', darlin' Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide When you turned your back on me Somethin' deep in me died 'Til you come on back to me Oh, darlin', darlin' Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>call evry gal crew mek wi roll out Roll out Kartel call every girlfriend mek wi roll out, toll out So high up on the moon DJ mek yo body groove Dreams are there to come true Sure feels like she mi love you So high up on the moon DJ mek yo body groove Dreams are there to come true Sure feels like our honeymoon Every man grab a gyal wi a rock Bare pretty, pretty, mi nuh see no dead stock Tick to the toc mek yo bumper react Point pon a bwoy mek him haffi come back A yesterday you mek a old man catch hear attack One short shorts and a traffic you block Heaven open up when wi come together Mi feel so good fi inna this magic moment You might also like In a yo hears mi a talk up the things Gyal yo valuable more than Benjamin Must be an angel where are yo wings? Baby yo thirsty, buy her a drinks How da riddim yah suh bad? Big up King Jamis Wine paw mi gyal under bare memories Heaven open up when wi come together Mi feel so good fi inna this magic moment</t>
+          <t>call evry gal crew mek wi roll out Roll out Kartel call every girlfriend mek wi roll out, toll out So high up on the moon DJ mek yo body groove Dreams are there to come true Sure feels like she mi love you So high up on the moon DJ mek yo body groove Dreams are there to come true Sure feels like our honeymoon Every man grab a gyal wi a rock Bare pretty, pretty, mi nuh see no dead stock Tick to the toc mek yo bumper react Point pon a bwoy mek him haffi come back A yesterday you mek a old man catch hear attack One short shorts and a traffic you block Heaven open up when wi come together Mi feel so good fi inna this magic moment In a yo hears mi a talk up the things Gyal yo valuable more than Benjamin Must be an angel where are yo wings? Baby yo thirsty, buy her a drinks How da riddim yah suh bad? Big up King Jamis Wine paw mi gyal under bare memories Heaven open up when wi come together Mi feel so good fi inna this magic moment</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Let's not fight it anymore Unpack the bags and close the door I'll never leave you, no, no Though you lied right from the start I can't convince my stupid heart Not to believe you You've got two good men strung out And there's not the slightest doubt That other men have loved you before But you work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore If I had one ounce of pride I'd stand up or step aside But girl, I love you, can't you tell it? So I'll accept the crumbs you drop 'Cause I'm a fool and I can't stop Or rise above you Let him speak up for himself I speak for me and no one else 'Cause I'm a beggar knockin' on your door You work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore You might also likeI'm too far gone to turn around To lift myself up off the ground And start all over, over and over and over Now him or I must win or lose No matter which one you may choose You'll be in clover, you know you will Darlin', while you're making up your mind Well, I'll be prayin' all the time Prayin' that you'll never, never, never be letting me go But you work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore Girl, you work your thing so well Dream of Heaven and live in Hell Til I can't take it anymore You know that you work that thing so well I dream of Heaven and live in Hell Til I can't take it anymore You work it so well I dream of Heaven and live in Hell</t>
+          <t>Let's not fight it anymore Unpack the bags and close the door I'll never leave you, no, no Though you lied right from the start I can't convince my stupid heart Not to believe you You've got two good men strung out And there's not the slightest doubt That other men have loved you before But you work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore If I had one ounce of pride I'd stand up or step aside But girl, I love you, can't you tell it? So I'll accept the crumbs you drop 'Cause I'm a fool and I can't stop Or rise above you Let him speak up for himself I speak for me and no one else 'Cause I'm a beggar knockin' on your door You work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore I'm too far gone to turn around To lift myself up off the ground And start all over, over and over and over Now him or I must win or lose No matter which one you may choose You'll be in clover, you know you will Darlin', while you're making up your mind Well, I'll be prayin' all the time Prayin' that you'll never, never, never be letting me go But you work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore Girl, you work your thing so well Dream of Heaven and live in Hell Til I can't take it anymore You know that you work that thing so well I dream of Heaven and live in Hell Til I can't take it anymore You work it so well I dream of Heaven and live in Hell</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>They say Jesus was a nephew, you know what I'm sayin'? Boss up, nigga They said his mom was a virgin So when he was born, they told him he was sent from God so he started goin' village to village helpin' the people and they killed his ass, that's crazy That's crazy, man They killed Jesus for helpin' the people That's why I ain't got patience with people In the Bible, God dealin' with evil They said God did a deal with the Devil That's the reason Job has sores on his feet That's the reason Job lost his house That's the reason Job lost his kids I'm readin' the Bible like, What is this? Adam made Eve off of one rib? They made the world in seven days? So Adam and Eve had a thousand kids? Cain and Abel, they fell out beefin' Me and my brother, we fell out beefin' They said cocaine that was on the tree What if Adam would've never fucked Eve? Why Eve make that nigga eat that? That's why I don't eat the bitch food now Job lost his whole fuckin' family And they said God gave him a hundred cows Like two-hunned horses or somethin' How the fuck is that worth my kids? What I did to deserve to go through this? Let me get this right, this because of Eve? Okay, I fuck with Adam, but I'll beat the shit out of Eve How the hell they live at the forbidden tree? Somebody show me the forbidden tree I believe in God, but I ain't too religious How the fuck they really got a picture of Jesus? Name one person who was alive with Jesus How the fuck they tellin' me I need Jesus? If I need Jesus, then where is Jesus? So if I get shot, I'ma meet Jesus? So I gotta die just to meet Jesus? It's a fucked up world with fucked up people The first religion, they worshipped the sun They made some bullshit story 'bout that They said the sun went down 'cause the sins And the sun was never gon' come back Every thousand years it's a new religion Unc in the streets screaming, New religion Pastor got diamonds, rockin' True Religion Pray to who? You must be trippin' Bitch, I'm prayin' to my money racks They said we livin' in Revelations Vaccine got us mutatin' So fuck it then, I'ma go take it If the whole world start purgin' My daughter gon' still have a Lambo I'ma have eighteen-hundred guns Thirty Audi's and twenty Camaros They said the world would end in 2012 I was sellin' crack in 2012 They talkin' about the calendar ended Eight years later, a pandemic Swine flu, Ebola, COVID-19, what's different? All of that shit was killin' people I ain't scared of that, guns kill people I ain't scared of guns, AIDS kill people I can die in a car crash How the fuck you gon' tell me I'm goin' to Heaven? Please tell me when you talked to the dead Who you met that came from the dead? Show me a picture and show me some proof Explain to me why the fuck Benjamin Franklin stood his ass up on the roof How he discover somethin' out the sky? If that's the case, T-Rex discovered it If you ask me, this shit made up I'ma loop the beat 'cause I ain't said enough I ain't said enough In school, I had a lot of questions Boss up, nigga Social studies teacher makin' up shit All that shit was in they head Who the fuck is Christopher Columbus? If he would've came to my block Talkin' 'bout he discovered my trap His ass would've probably got shot How the fuck I'm African American? Bitch, I'm American terrorist Fifth grade, smarter than my parents Grandma couldn't help with algebra Grandma like, What the fuck is algebra? She like, That's a goddamn shame Them people gonna keep makin' up shit Tryna keep you in the same grade They tryna hide shit in the book I was in jail readin' books OG teach me 'bout real estate Every landlord I know a crackhead I'm in the hood with the slum lords Grandma Jehovah's Witness, no Christmas Jehovah's Witnesses people move like a cult They recruitin' people at they door How you gon' force religion on somebody? How you change the Bible and tell it to everybody? Why Jehovah's Witnesses don't like Christians? They fightin' over Jesus' birthday How the fuck y'all know Jesus' birthday? Who the fuck is that white man Santa Claus? They said that nigga was eatin' kids Why would I let that man lie to my kids? Why would I go out buyin' gifts And blame it on the nigga named Santa? Shit, a nigga climb through my roof I'ma beat his ass in the head with a hammer If you eat my cookies, beat you with a hammer Drink the kids' milk, beat you with a hammer You like a hundred somethin' buyin' toys Well, Santa never dropped me off a toy Let's get back to Jehovah's Witnesses How the fuck all of y'all awake? How the fuck y'all church so small But it's a million of y'all everyday? Shit, religious people startin' to scare me Shit, the government wrote the Bible They knew who was gon' win American Idol I never liked Simon off American Idol I ain't really like how he talked to black people How the fuck Flava Flav still alive? Shit, before Kobe, before Deebo I expected his ass to up and die I ain't got nothin' against Flava Flav They said I was ugly as Flava Flav Now I got twenty hoes like Flava Flav Nigga dyin' for jewelry everyday They caught the nigga who killed MO3 How the fuck he get caught in less than three weeks? If you ask me, that's a sacrifice You ain't gotta be rich to pull a sacrifice All those times on the block, bitch, I sacrificed Put my pride to the side, bitch, I sacrificed If that's the case, I'm Illuminati How Tekashi get out before Shotti? Why Jim Jones never went to jail? And he was talkin' 'bout killin' a nigga Shit, that ain't my job, but that's conspiracy All I know is niggas get locked for conspiracy These niggas who talk, they be scarin' me They be wearin' wires in they shoes Askin' questions, wanna talk to you These niggas move like TMZ On a regular day, wanna question me Nigga move like VladTV These niggas look like VladTV They get indicted on VladTV Homie got five years for a TV So what the fuck they thought was gon' happen? They talk too much, they AR-Ab it I always thought that Cassidy was a hustler Cassidy was my favorite rapper Then I find out he wasn't hustling Boss up, nigga He was with Swizz Beatz then went broke Niggas thought Meek Mill wasn't gon' blow I ain't never heard 'bout Meek Mill Until he ran with that C.O I ain't sayin' Meek did the wrong thing But he knew Ross was a C.O Shit, a nigga gotta feed his kids I ain't never think Gucci was a clone They like, How the hell he got so skinny? When you in that cell, shit, they feed you wrong Three meals a day get a nigga right Six pack came from bein' hungry at night Nigga came home then he fixed his teeth Then they changed the subject about a week I'ma get on the beat and say what I want I love stimulus and love Donald Trump Auntie talkin' 'bout Six-hundred coming' It ain't twelve-hundred, but shit, it's somethin' I don't sit on my ass and live with my bitch Just the other day, broke up with my bitch I'd rather go rob some shit PS5 won't come out my lip The Bible told you bitches is grimey Whole Bible, bitches was lyin' They believed that a virgin had kids I hope my daughter don't tell me that shit 'Cause you ain't Mary and the baby ain't Jesus Don't lie to me 'cause I ain't Jesus My last bitch was an atheist She talkin' 'bout pullin' tarot cards She like, Come on Neph', let me tell your future I'm like, Bitch, I'm off more molly than Future I'm like, Bitch, I might die tomorrow Why the hell you tryna be a fortune teller? She on Fashion Nova and she lookin' at dresses Her ass fat, but I ain't even notice She take her time puttin' on lotion I'm like, Bitch, hurry up 'cause I got a lick They talkin' 'bout pray before you eat Bitch, you eatin' a dead animal Bitch, you barely got vegetables Everybody in the world is hypocrites Donald Trump still gon' build that wall MS-13 climbed over the wall Donald Trump can't stop immigrants Lost my ID, I'm an immigrant They pulled me over like, What's your name? Bitch, I forgot my social security number They asked about my mother maiden name I'm like, I don't know, we don't know each other Bitch, I'm on the run from Area 51 I stayed in the corner and boot up Bitch, I forgot where I parked my car My last bitch like, Who are you? I'm like, Bitch, I want sugar in water That movie ain't funny no more Y'all know I don't like Will Smith I used to know the song to Fresh Prince Now this the story all about how Now his mother kid suckin' dick Now he sad, lookin' like How? Who the fuck raised these niggas? What scientist made these niggas? What lab these niggas come from? First time I watched 'I Am Legend' I cried Especially the part when his dog died 'Cause I feel his pain when you out in the streets Then I seen another movie, he was butt naked With another man in between the sheets I'm like, Hell nah, that's 'I Am Legend'? I'ma fuck Jada too, fuck 'I Am Legend' Well Jada Pinkett, if you hear this song I'll fuck you good and you ain't gon' regret it I ain't August Alsina, you don't need him If he was real, he would've knocked out Will Yo' kids grown, fuck that nigga He the reason that y'all son gay now Bitch, shouts out to Chris Brown Will Smith should've took advice from Chris Brown Jada Pinkett should've been on the news With both her eyes black and brown Boss up, nigga Ooh, I looped it again Boss up, nigga They say Jesus was drinkin' grape juice, I'm drinkin' gin I used to think Snoop Dogg was tough I hated niggas who acted tough I used to love the Chum Bucket I used to feel like the Chum Bucket I been knew SpongeBob was a bitch That's why I fuck with the Chum Bucket Pull up lookin' like Plankton, nigga Everybody hate that nigga Cougar bitch wanna watch Martin Bitch, that shit ain't funny I fuck with Hustle Man more than him Martin always stressin' 'bout a bitch This whole world stressin' 'bout a bitch It ain't even these bitches, it's niggas too 'Cause the bitches move like niggas do And these niggas, they move like bitches do I don't even wanna get in the industry 'Cause if I do, I'm doin' somethin' crazy I'ma fuck Keke Palmer, get her pregnant Then leave her single with a baby Don't judge me, that's what Adam did If Adam and Eve had two kids Once Adam got a taste of that fruit He went to the left and found him a bitch Shit, Cain and Abel was trippin' anyway Shit, they tryna kill each other with an axe They put this shit all in the Bible So you know damn well this ain't cap They say there's seventy-seven sextillion stars in the sky I ain't even heard that number before until they told me that lie I'm like, How the fuck? Hold on, which telescope and what person count that with they eyes? When I was in church, I had questions My grandma like, Hold on, grandson got a question They passed me the mic at the kingdom hall I'm like, Who told y'all it's that many stars? They told me, Don't question the Bible I'm like, Grandma, stop goin' to the kingdom hall Them people ain't your friends anyway Nigga doin' Bible study tryna get pussy Same people bringin' demons in the house How the fuck y'all throwin' water 'round that house? How the fuck y'all make that holy water? Let me get some of that so I can cook a quarter How y'all say I'm evil for sellin' crack When I'm out here tryna feed my daughter? Where your money go? I don't judge you Them old church bitches be cougars And the pastor drive a brand new Caddy But the church broke down and raggedy How the fuck niggas scam CashApp? They thought they was scammin' CashApp Well CashApp scammed CashApp They got social numbers in CashApp Why the fuck I gotta give you my social? How you know I ain't forget my social? Why the fuck I need a drivers' license? If I crash, I'm the only one dyin' If somebody else die, it was meant to go Y'all the ones who put that shit in the Bible How the fuck y'all talkin' 'bout Turn the other cheek When y'all killin' black people left and right? I don't beef with white people, they good licks My white bitch got good credit I ain't never think Donald Trump was racist Wanna talk to him, gotta have good credit Wanna talk to me, gotta have good credit Rx Papi a bitch, the whole hood said it Meagan Good booty flat, Slitherman said it Wendy Williams a man, Slitherman said it Them big ass titties look dumb Lil Kim face look dumb Cardi B mouth look dumb Bitch talk like she always chewin' gum Migos lookin' tough, they look dumb Joe Budden told them niggas they was ass He told that shit to 'em dead in they face Boss up, nigga He was probably high off a fifty bag YuhYou might also like12</t>
+          <t>They say Jesus was a nephew, you know what I'm sayin'? Boss up, nigga They said his mom was a virgin So when he was born, they told him he was sent from God so he started goin' village to village helpin' the people and they killed his ass, that's crazy That's crazy, man They killed Jesus for helpin' the people That's why I ain't got patience with people In the Bible, God dealin' with evil They said God did a deal with the Devil That's the reason Job has sores on his feet That's the reason Job lost his house That's the reason Job lost his kids I'm readin' the Bible like, What is this? Adam made Eve off of one rib? They made the world in seven days? So Adam and Eve had a thousand kids? Cain and Abel, they fell out beefin' Me and my brother, we fell out beefin' They said cocaine that was on the tree What if Adam would've never fucked Eve? Why Eve make that nigga eat that? That's why I don't eat the bitch food now Job lost his whole fuckin' family And they said God gave him a hundred cows Like two-hunned horses or somethin' How the fuck is that worth my kids? What I did to deserve to go through this? Let me get this right, this because of Eve? Okay, I fuck with Adam, but I'll beat the shit out of Eve How the hell they live at the forbidden tree? Somebody show me the forbidden tree I believe in God, but I ain't too religious How the fuck they really got a picture of Jesus? Name one person who was alive with Jesus How the fuck they tellin' me I need Jesus? If I need Jesus, then where is Jesus? So if I get shot, I'ma meet Jesus? So I gotta die just to meet Jesus? It's a fucked up world with fucked up people The first religion, they worshipped the sun They made some bullshit story 'bout that They said the sun went down 'cause the sins And the sun was never gon' come back Every thousand years it's a new religion Unc in the streets screaming, New religion Pastor got diamonds, rockin' True Religion Pray to who? You must be trippin' Bitch, I'm prayin' to my money racks They said we livin' in Revelations Vaccine got us mutatin' So fuck it then, I'ma go take it If the whole world start purgin' My daughter gon' still have a Lambo I'ma have eighteen-hundred guns Thirty Audi's and twenty Camaros They said the world would end in 2012 I was sellin' crack in 2012 They talkin' about the calendar ended Eight years later, a pandemic Swine flu, Ebola, COVID-19, what's different? All of that shit was killin' people I ain't scared of that, guns kill people I ain't scared of guns, AIDS kill people I can die in a car crash How the fuck you gon' tell me I'm goin' to Heaven? Please tell me when you talked to the dead Who you met that came from the dead? Show me a picture and show me some proof Explain to me why the fuck Benjamin Franklin stood his ass up on the roof How he discover somethin' out the sky? If that's the case, T-Rex discovered it If you ask me, this shit made up I'ma loop the beat 'cause I ain't said enough I ain't said enough In school, I had a lot of questions Boss up, nigga Social studies teacher makin' up shit All that shit was in they head Who the fuck is Christopher Columbus? If he would've came to my block Talkin' 'bout he discovered my trap His ass would've probably got shot How the fuck I'm African American? Bitch, I'm American terrorist Fifth grade, smarter than my parents Grandma couldn't help with algebra Grandma like, What the fuck is algebra? She like, That's a goddamn shame Them people gonna keep makin' up shit Tryna keep you in the same grade They tryna hide shit in the book I was in jail readin' books OG teach me 'bout real estate Every landlord I know a crackhead I'm in the hood with the slum lords Grandma Jehovah's Witness, no Christmas Jehovah's Witnesses people move like a cult They recruitin' people at they door How you gon' force religion on somebody? How you change the Bible and tell it to everybody? Why Jehovah's Witnesses don't like Christians? They fightin' over Jesus' birthday How the fuck y'all know Jesus' birthday? Who the fuck is that white man Santa Claus? They said that nigga was eatin' kids Why would I let that man lie to my kids? Why would I go out buyin' gifts And blame it on the nigga named Santa? Shit, a nigga climb through my roof I'ma beat his ass in the head with a hammer If you eat my cookies, beat you with a hammer Drink the kids' milk, beat you with a hammer You like a hundred somethin' buyin' toys Well, Santa never dropped me off a toy Let's get back to Jehovah's Witnesses How the fuck all of y'all awake? How the fuck y'all church so small But it's a million of y'all everyday? Shit, religious people startin' to scare me Shit, the government wrote the Bible They knew who was gon' win American Idol I never liked Simon off American Idol I ain't really like how he talked to black people How the fuck Flava Flav still alive? Shit, before Kobe, before Deebo I expected his ass to up and die I ain't got nothin' against Flava Flav They said I was ugly as Flava Flav Now I got twenty hoes like Flava Flav Nigga dyin' for jewelry everyday They caught the nigga who killed MO3 How the fuck he get caught in less than three weeks? If you ask me, that's a sacrifice You ain't gotta be rich to pull a sacrifice All those times on the block, bitch, I sacrificed Put my pride to the side, bitch, I sacrificed If that's the case, I'm Illuminati How Tekashi get out before Shotti? Why Jim Jones never went to jail? And he was talkin' 'bout killin' a nigga Shit, that ain't my job, but that's conspiracy All I know is niggas get locked for conspiracy These niggas who talk, they be scarin' me They be wearin' wires in they shoes Askin' questions, wanna talk to you These niggas move like TMZ On a regular day, wanna question me Nigga move like VladTV These niggas look like VladTV They get indicted on VladTV Homie got five years for a TV So what the fuck they thought was gon' happen? They talk too much, they AR-Ab it I always thought that Cassidy was a hustler Cassidy was my favorite rapper Then I find out he wasn't hustling Boss up, nigga He was with Swizz Beatz then went broke Niggas thought Meek Mill wasn't gon' blow I ain't never heard 'bout Meek Mill Until he ran with that C.O I ain't sayin' Meek did the wrong thing But he knew Ross was a C.O Shit, a nigga gotta feed his kids I ain't never think Gucci was a clone They like, How the hell he got so skinny? When you in that cell, shit, they feed you wrong Three meals a day get a nigga right Six pack came from bein' hungry at night Nigga came home then he fixed his teeth Then they changed the subject about a week I'ma get on the beat and say what I want I love stimulus and love Donald Trump Auntie talkin' 'bout Six-hundred coming' It ain't twelve-hundred, but shit, it's somethin' I don't sit on my ass and live with my bitch Just the other day, broke up with my bitch I'd rather go rob some shit PS5 won't come out my lip The Bible told you bitches is grimey Whole Bible, bitches was lyin' They believed that a virgin had kids I hope my daughter don't tell me that shit 'Cause you ain't Mary and the baby ain't Jesus Don't lie to me 'cause I ain't Jesus My last bitch was an atheist She talkin' 'bout pullin' tarot cards She like, Come on Neph', let me tell your future I'm like, Bitch, I'm off more molly than Future I'm like, Bitch, I might die tomorrow Why the hell you tryna be a fortune teller? She on Fashion Nova and she lookin' at dresses Her ass fat, but I ain't even notice She take her time puttin' on lotion I'm like, Bitch, hurry up 'cause I got a lick They talkin' 'bout pray before you eat Bitch, you eatin' a dead animal Bitch, you barely got vegetables Everybody in the world is hypocrites Donald Trump still gon' build that wall MS-13 climbed over the wall Donald Trump can't stop immigrants Lost my ID, I'm an immigrant They pulled me over like, What's your name? Bitch, I forgot my social security number They asked about my mother maiden name I'm like, I don't know, we don't know each other Bitch, I'm on the run from Area 51 I stayed in the corner and boot up Bitch, I forgot where I parked my car My last bitch like, Who are you? I'm like, Bitch, I want sugar in water That movie ain't funny no more Y'all know I don't like Will Smith I used to know the song to Fresh Prince Now this the story all about how Now his mother kid suckin' dick Now he sad, lookin' like How? Who the fuck raised these niggas? What scientist made these niggas? What lab these niggas come from? First time I watched 'I Am Legend' I cried Especially the part when his dog died 'Cause I feel his pain when you out in the streets Then I seen another movie, he was butt naked With another man in between the sheets I'm like, Hell nah, that's 'I Am Legend'? I'ma fuck Jada too, fuck 'I Am Legend' Well Jada Pinkett, if you hear this song I'll fuck you good and you ain't gon' regret it I ain't August Alsina, you don't need him If he was real, he would've knocked out Will Yo' kids grown, fuck that nigga He the reason that y'all son gay now Bitch, shouts out to Chris Brown Will Smith should've took advice from Chris Brown Jada Pinkett should've been on the news With both her eyes black and brown Boss up, nigga Ooh, I looped it again Boss up, nigga They say Jesus was drinkin' grape juice, I'm drinkin' gin I used to think Snoop Dogg was tough I hated niggas who acted tough I used to love the Chum Bucket I used to feel like the Chum Bucket I been knew SpongeBob was a bitch That's why I fuck with the Chum Bucket Pull up lookin' like Plankton, nigga Everybody hate that nigga Cougar bitch wanna watch Martin Bitch, that shit ain't funny I fuck with Hustle Man more than him Martin always stressin' 'bout a bitch This whole world stressin' 'bout a bitch It ain't even these bitches, it's niggas too 'Cause the bitches move like niggas do And these niggas, they move like bitches do I don't even wanna get in the industry 'Cause if I do, I'm doin' somethin' crazy I'ma fuck Keke Palmer, get her pregnant Then leave her single with a baby Don't judge me, that's what Adam did If Adam and Eve had two kids Once Adam got a taste of that fruit He went to the left and found him a bitch Shit, Cain and Abel was trippin' anyway Shit, they tryna kill each other with an axe They put this shit all in the Bible So you know damn well this ain't cap They say there's seventy-seven sextillion stars in the sky I ain't even heard that number before until they told me that lie I'm like, How the fuck? Hold on, which telescope and what person count that with they eyes? When I was in church, I had questions My grandma like, Hold on, grandson got a question They passed me the mic at the kingdom hall I'm like, Who told y'all it's that many stars? They told me, Don't question the Bible I'm like, Grandma, stop goin' to the kingdom hall Them people ain't your friends anyway Nigga doin' Bible study tryna get pussy Same people bringin' demons in the house How the fuck y'all throwin' water 'round that house? How the fuck y'all make that holy water? Let me get some of that so I can cook a quarter How y'all say I'm evil for sellin' crack When I'm out here tryna feed my daughter? Where your money go? I don't judge you Them old church bitches be cougars And the pastor drive a brand new Caddy But the church broke down and raggedy How the fuck niggas scam CashApp? They thought they was scammin' CashApp Well CashApp scammed CashApp They got social numbers in CashApp Why the fuck I gotta give you my social? How you know I ain't forget my social? Why the fuck I need a drivers' license? If I crash, I'm the only one dyin' If somebody else die, it was meant to go Y'all the ones who put that shit in the Bible How the fuck y'all talkin' 'bout Turn the other cheek When y'all killin' black people left and right? I don't beef with white people, they good licks My white bitch got good credit I ain't never think Donald Trump was racist Wanna talk to him, gotta have good credit Wanna talk to me, gotta have good credit Rx Papi a bitch, the whole hood said it Meagan Good booty flat, Slitherman said it Wendy Williams a man, Slitherman said it Them big ass titties look dumb Lil Kim face look dumb Cardi B mouth look dumb Bitch talk like she always chewin' gum Migos lookin' tough, they look dumb Joe Budden told them niggas they was ass He told that shit to 'em dead in they face Boss up, nigga He was probably high off a fifty bag Yuh12</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>What a difference a day made Twenty-four little hours Brought the sun and the flowers Where there used to be rain My yesterday was blue, dear Today I'm part of you, dear My lonely nights are through, dear Since you said you were mine What a difference a day makes There's a rainbow before me Skies above can't be stormy Since that moment of bliss, that thrilling kiss It's heaven when you find romance on your menu What a difference a day made And the difference is youYou might also like</t>
+          <t>What a difference a day made Twenty-four little hours Brought the sun and the flowers Where there used to be rain My yesterday was blue, dear Today I'm part of you, dear My lonely nights are through, dear Since you said you were mine What a difference a day makes There's a rainbow before me Skies above can't be stormy Since that moment of bliss, that thrilling kiss It's heaven when you find romance on your menu What a difference a day made And the difference is you</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>What is soul? What is soul, babe? Some few people really know It's deep within us, it doesn't show A soul is somethin' that comes from deep inside But a soul is a somethin' that you can't hide What is soul? What is soul, babe? Search your heart, go deep down low Way down there you'll find your soul Come near girl, you look so cold Touch my hand and warm your soul Baby, baby, what's wrong with you You don't know what I'm going through Hold me so tight, so tight I can't breath Can't you feel it girl? Don't you know what I mean? This is soul! This is soul! Feel the soul, babe! What is soul, babe? Don't you know? What is soul, babe?You might also like</t>
+          <t>What is soul? What is soul, babe? Some few people really know It's deep within us, it doesn't show A soul is somethin' that comes from deep inside But a soul is a somethin' that you can't hide What is soul? What is soul, babe? Search your heart, go deep down low Way down there you'll find your soul Come near girl, you look so cold Touch my hand and warm your soul Baby, baby, what's wrong with you You don't know what I'm going through Hold me so tight, so tight I can't breath Can't you feel it girl? Don't you know what I mean? This is soul! This is soul! Feel the soul, babe! What is soul, babe? Don't you know? What is soul, babe?</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>What is soul? What is soul, babe? Some few people really know It's deep within us, it doesn't show A soul is somethin' that comes from deep inside But a soul is a somethin' that you can't hide What is soul? What is soul, babe? Search your heart, go deep down low Way down there you'll find your soul Come near girl, you look so cold Touch my hand and warm your soul Baby, baby, what's wrong with you You don't know what I'm going through Hold me so tight, so tight I can't breath Can't you feel it girl? Don't you know what I mean? This is soul! This is soul! Feel the soul, babe! What is soul, babe? Don't you know? What is soul, babe?You might also like</t>
+          <t>What is soul? What is soul, babe? Some few people really know It's deep within us, it doesn't show A soul is somethin' that comes from deep inside But a soul is a somethin' that you can't hide What is soul? What is soul, babe? Search your heart, go deep down low Way down there you'll find your soul Come near girl, you look so cold Touch my hand and warm your soul Baby, baby, what's wrong with you You don't know what I'm going through Hold me so tight, so tight I can't breath Can't you feel it girl? Don't you know what I mean? This is soul! This is soul! Feel the soul, babe! What is soul, babe? Don't you know? What is soul, babe?</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Tonight you're mine, completely You give your love so sweetly Tonight the light of love is in your eyes But will you love me tomorrow Is this a lasting treasure Or just a moment's pleasure Can I believe the magic of your sighs Will you still love me tomorrow Tonight with words unspoken You say that I'm the only one But will my heart be broken When the night meets the morning sun I have to know that your love Is a love I can be sure of So tell me now, and I won't ask again Will you still love me tomorrow Tonight you're mine completely You give your love so sweetly Tonight the light of love is in your eyes But will you love me tomorrow Will you still love me tomorrowYou might also like</t>
+          <t>Tonight you're mine, completely You give your love so sweetly Tonight the light of love is in your eyes But will you love me tomorrow Is this a lasting treasure Or just a moment's pleasure Can I believe the magic of your sighs Will you still love me tomorrow Tonight with words unspoken You say that I'm the only one But will my heart be broken When the night meets the morning sun I have to know that your love Is a love I can be sure of So tell me now, and I won't ask again Will you still love me tomorrow Tonight you're mine completely You give your love so sweetly Tonight the light of love is in your eyes But will you love me tomorrow Will you still love me tomorrow</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>I was six feet under for the one and only Spent the nights feeling bitter, sad and lonely Didn't realize how much fear controlled me Until you came and loved me like I'm holy Now I'm ready to give life one more chance Think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes Think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes Ooh, ooh, ooh Never thought I would be high on life but sober Didn't think that I'd be able to turn this over Let's make stories to talk about when we're older Come and rest your pretty head upon my shoulder Now I'm ready to give life one more chance I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes Ooh, ooh, ooh Say yes, say yes, say yes Ooh, ooh, ooh You might also like Let's make stories to talk about when we're older Hmm Come and rest your pretty head up on my shoulder Ooh, ooh, oh Say yes, say yes Say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes Say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, so just say yes6</t>
+          <t>I was six feet under for the one and only Spent the nights feeling bitter, sad and lonely Didn't realize how much fear controlled me Until you came and loved me like I'm holy Now I'm ready to give life one more chance Think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes Think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes Ooh, ooh, ooh Never thought I would be high on life but sober Didn't think that I'd be able to turn this over Let's make stories to talk about when we're older Come and rest your pretty head upon my shoulder Now I'm ready to give life one more chance I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes Ooh, ooh, ooh Say yes, say yes, say yes Ooh, ooh, ooh Let's make stories to talk about when we're older Hmm Come and rest your pretty head up on my shoulder Ooh, ooh, oh Say yes, say yes Say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes Say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, so just say yes6</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Every time I kiss somebody new, I Make believe I'm kissing you but I can't kid my aching heart 'cause My heart know we're still apart and Each night is like a thousand years, oh I can't lose these young boy blues I wanna cry when I hear your name, but If I cry, I feel ashamed, so I let my pride be my guide and I keep those tears inside, so Each night is like a thousand years, oh Since I got these young boy blues, mmm Don't know where to go Don't know what to do I'm so lonesome and lonely Since I lost you Every time I kiss somebody new, I Make believe I'm kissing you but I can't kid my aching heart 'cause My heart know we're still apart and You might also likeEach night is like a thousand years, oh I can't lose these young boy blues, mmm Each night is like a thousand years, oh I can't lose these young boy blues, mmm</t>
+          <t>Every time I kiss somebody new, I Make believe I'm kissing you but I can't kid my aching heart 'cause My heart know we're still apart and Each night is like a thousand years, oh I can't lose these young boy blues I wanna cry when I hear your name, but If I cry, I feel ashamed, so I let my pride be my guide and I keep those tears inside, so Each night is like a thousand years, oh Since I got these young boy blues, mmm Don't know where to go Don't know what to do I'm so lonesome and lonely Since I lost you Every time I kiss somebody new, I Make believe I'm kissing you but I can't kid my aching heart 'cause My heart know we're still apart and Each night is like a thousand years, oh I can't lose these young boy blues, mmm Each night is like a thousand years, oh I can't lose these young boy blues, mmm</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>For your love Oh, I would do anything I would do anything For your love For your kiss ah, ah, ah, ah Oh, I would go anywhere ah, ah, ah, ah I would go anywhere ah, ah, ah, ah For your kiss More foolish I grow With each heartbeat But we all get foolish That's why I repeat For your love ah, ah, ah, ah Oh, I would do anything ah, ah, ah, ah I would do anything For your kiss Ah, ah, ah, ah Ah, ah, ah, ah You might also like I would do anything ah, ah, ah, ah For your love For your love ah, ah, ah, ah Ah, ah</t>
+          <t>For your love Oh, I would do anything I would do anything For your love For your kiss ah, ah, ah, ah Oh, I would go anywhere ah, ah, ah, ah I would go anywhere ah, ah, ah, ah For your kiss More foolish I grow With each heartbeat But we all get foolish That's why I repeat For your love ah, ah, ah, ah Oh, I would do anything ah, ah, ah, ah I would do anything For your kiss Ah, ah, ah, ah Ah, ah, ah, ah I would do anything ah, ah, ah, ah For your love For your love ah, ah, ah, ah Ah, ah</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Ben-J_songs.xlsx
+++ b/data/02_intermediate/cleaned_Ben-J_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guilty Conscience</t>
+          <t>My Darlin’</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11 Bombay Bicycle Club - I Can Hardly Speak Eric Bellinger - Agree 2 Disagree ft. La'Myia Eric Bellinger - Build Something Files J - Ascend From Darkness ft. Sleeping Music Maker Hailee Steinfeld - Wrong Direction Hannah Grace - When I Ruled the World Lil Tjay - 2020 RXLVND, Thouxanbanfauni Terrance Escobar - Kickback Wild Nothing - Foyer Wiley - The Game 2019 12 Lauv - Changes Pet Shop Boys - Monkey business Walk off the Earth - Lonely ft. Steve Terreberry 13 2 Chainz - Falcons Hawks Braves 24kGoldn - VALENTINO Remix ft. Lil Tjay 645AR - 4 DA TRAP Dami Im - Kiss You Anyway Gabrielle Aplin Nina Nesbitt - Miss You 2 JAYLIEN - So High ft. Marc E. Bassy Joey Trap - KG Wentworth Julie Bergan Seeb - Kiss Somebody Justin Bieber - Yummy Lil Tr33zy - Wolf ft. A Boogie Wit da Hoodie Mick Jenkins - Carefree Moneybagg Yo - U Played ft. Lil Baby Oh Wonder - Happy Quando Rondo - Bad Vibe ft. 2 Chainz A Boogie Wit da Hoodie REASON - Flick It Up Remix ft. Jah The Great, Junii Bas Sam Hunt - Sinning with You Stabbing Westward - Dead And Gone T.R.U., 2 Chainz Skooly - Virgil Discount Yung Pinch - Beach Ballin' ft. blackbear 14 CXRPSE - DISPOSAL ft. BRUHMANEGOD, Lil Darkie STONEMAN 15 Wiley - Eediyat Skengman Stormzy Send 16 Delta Goodrem - Let It Rain Lisa Børud NO - Talking About Us M Huncho - Ni's Message Moses Sumney - Me in 20 Years Raylee - Wild Stormzy - DISAPPOINTED TC ALONE - Flowers 17 Agnes Obel - Broken Sleep Caroline Rose - Feel the Way I Want Dot Rotten - Oi Stormzy , Sit Back Down Georgia - 24 Hours Joey Trap - John Wayne Joywave - Half Your Age Knxwledge - Do You Mura Masa, Ellie Rowsell Wolf Alice - Teenage Headache Dreams Wiley - Eediyat Skengman 2 Stormzy Send 18 Amber Liu - Stay Calm Circa Waves - Move to San Francisco Daddy Yankee Nicky Jam - Muévelo Easy Life - Dead Celebrities Grouplove - Deleter Magic Sword - Depths of Power Marr Grey - Walk Away Stormzy - STILL DISAPPOINTED Susanne Sundfør - When The Lord Tame Impala - Lost in Yesterday 19 Alicia Keys - Underdog C. Tangana Alizzz - Yelo Cadel - World War III Caitlyn Smith - Long Time Coming Celeste - Stop This Flame Conan Gray - The Story Dappy RussMB - Splash J Balvin - Morado Kerri Watt - Psychotic Girl Khalid - Eleven Kida Kudz - 1AM League of Legends - Warriors Mac Miller - Good News Yxng Bane - Gang Shit 110 070 Shake - Guilty Conscience Aly Ryan Ugly God - You Ain't Him Always Never - Take Me Back in Time Amanda Tenfjord - As If Baby Goth - Afterparty Bankrol Hayden - Costa Rica Becky Hill - Better Off Without You ft. Shift K3Y Carnage - Hella Neck ft. Shoreline Mafia, Takeoff Tyga Conan Gray - The Story DC The Don - Red Light ft. YBN Almighty Jay DDG Doja Cat - Harley EDEN - isohel Ella Vos - Cellophane Elley Duhé - MIDDLE OF THE NIGHT Flora Cash - You Love Me Future - Life is Good ft. Drake Gengahr - Never a Low Germ - BURNT OUT gnash - hungover i miss u Halsey - You should be sad Hannah Grace - Sweet Like You John Legend - Conversations in the Dark Key Glock - Look At They Face Kiesza - When Boys Cry Kodaline - Wherever You Are Kodie Shane - No Cap Rap ft. Trippie Redd KXNG Crooked - I Luv Y'all Leyla Blue - Peppa Pig Lil Baby - Sum 2 Prove Luke James - Blow Megan Thee Stallion Normani - Diamonds Morrissey - Bobby, Don't You Think They Know? Nez - Wild Youngsta Ozzy Osbourne - Ordinary Man ft. Elton John Picture This - Winona Ryder Quinn XCII - Two 10s Robin Schulz - In Your Eyes ft. Alida S-X - Neither Would I Sam Feldt Sigma - 2 Hearts ft. Gia Koka SAYGRACE - Loyal Seafret - Most Of Us Are Strangers Shallou Daya - Older SHY Martin - Slow Sia - Original Sonny Alven Mags - I Cried At the Rave Static Ben El - Further Up ft. Pitbull Tennis - Need Your Love The Blaze Octavian - Somewhere The Highway Women - God Made Me Right TINI Mau y Ricky - Recuerdo Torine - Make U Cry Vargas Lagola - Somebody That Understands Me ft. Ludwig Göransson Warhol.SS - 12OZS Remix ft. Xavier Wulf Whethan - Stay Forever ft. STRFKR Wiley - Eediyat Skengman 3 Stormzy Send 112 Lil Smaller - Thoughts 113 Dreamville Ari Lennox - BUSSIT Dreamville EARTHGANG - Still Up ft. REASON Magdalena Bay - How to Get Physical Mura Masa - Live Like Were Dancing ft. Georgia Shakira Anuel AA - Me Gusta U.S. Girls - Overtime 114 Alice Boman - Everybody Hurts Anna Burch - Not So Bad Banoffee - Count on You Bombay Bicycle Club - Is It Real Jai Wolf - Moon Rider ft. Wrabel King Krule - Dont Let the Dragon Draag On Love Fame Tragedy - Riding a Wave Mandy Moore - Save A Little For Yourself Moby - Power Is Taken ft. D. H. Peligro Sea Girls - Ready For More Soccer Mommy - circle the drain TOKiMONSTA - Fried for the Night ft. EARTHGANG Valee - Not Playin Vistas - Sucker Wiley - Mazza 115 Ant Clemons - Beep ATLiens - Meltdown DDG - Cotton Mouth Jack River - Dark Star Jacob Latimore - Details ft. CalBoy Kayzo Atreyu - Battle Drums Luna Shadows - millenia Miles Chancellor - SCARED ! Okay Kaya - Psych Ward Orla Gartland - Heavy Pop Smoke - Christopher Walking RA The Rugged Man - Legendary Loser Sega Bodega - Salv Goes to Hollywood TORRES - Dressing America Tove Lo - Bikini Porn Tove Lo - Passion Pain tastes the same when I'm Weak Trophy Eyes - Figure Eight 116 Alec Benjamin - Demons Avenged Sevenfold - Set Me Free blackbear - me ur ghost Bugzy Malone - Cause a Commotion ft. Skip Marley COIN - Youuu Ella Eyre - New Me Green Day - Oh Yeah! H.E.R. - Slide Remix ft. Pop Smoke, A Boogie wit da Hoodie Chris Brown InMe - I Swear Josef Salvat - in the afternoon Josef Salvat - playground love iamnotshane - Perfect Lauv - Tattoos Together Lil Quill - Back On It ft. Yung Mal Lil Quill - Cinnabon ft. Millie Go Lightly Mahmood - Rapide Pop Smoke - Christopher Walking Pouya Boobie Lootaveli - Bitch, Park Backwards TC ALONE - Bombay The Naked and Famous - Bury Us The 1975 - Me You Together Song Violet Skies - Bruises Yellow Claw, CORSAK Julia Wu - Take Me Back 117 2 Chainz - Dead Man Walking ft. Future Alec King - Dangerous American Authors - Microphone BadMoodRude Lil Xan - Love Me Based Savage - Blind Man ft. Lil horty Benjamin Ingrosso - The Dirt Best Coast - Everything Has Changed Brianna Cash Tory Lanez - Numb BTS - Black Swan Charlotte Lawrence - Joke's on You Chloe Lilac - Here's Your Song Christian French - time of our lives Christopher - Ghost Co Cash - OLd Me, nEw MoNeY Common Kings - Fish in the Sea ft. Marc E. Bassy D Smoke - Fly ft. Davion Farris DC the Don - Campfire Duke Dumont - Therapy dvsn - A Muse Ebenezer - Flaws and All Fickle Friends - Pretty Great Gab3 KILLY - Fast Life Gabrielle Aplin - Dear Happy Garrett Kato Julia Stone - Breathe It In Grey - Body Count ft. Thutmose Isaiah - Thinking About You Isak Danielson - Light Up Jhené Aiko - PUY Fairy OTW Johan Lenox wifisfuneral - Bad Decisions Jonas Brothers - What A Man Gotta Do John K Kelsea Ballerini - If We Never Met Key Glock - Mr. Glock Kodie Shane - No Rap Kap ft. Trippie Redd Krewella - Greenlights Lasso Cami - Odio Que No Te Odio Lil Blurry - Ball With You Lil Spacely - Still Trappin ft. Elijah Yo Lily Moore - Now I Know lovefrank - Perfect, Pt. 2 Louisa - Like I Love Me Louis Tomlinson - Walls und- Skin Bones Matt Fax - Animal ft. Trove Meghan Trainor - Blink Mike Williams - Make You Mine ft. Moa Lisa MOLI - Something I Said Nascar Aloe - Iraq Iwreck New Hope Club R3HAB - Let Me Down Slow Niia - Obsession Peking Duk - Move ft. Alisa Xayalith Plu2o Nash - Live at the Roxy ft. Drego Lucki Polo G Lil Tjay - First Place Rayven Justice - Not That Serious ft. Guapdad 4000 Rich the Kid - Money Talk ft. YoungBoy Never Broke Again Rina Sawayama - Comme des garçons Like the Boys Royce da 5'9' - Overcomer ft. Westside Gunn Rvssian, Shenseea Swae Lee - IDKW ft. Young Thug Ryan Beatty - Casino Sam Sparro - Eye 2 Eye SAYGRACE - Priorities Skip Marley H.E.R. - Slow Down Acoustic Soko - Being Sad is Not a Crime Steve Aoki Maluma - Maldad Surfaces - Lazy Tritonal, SCHALA Jorza - Long Way Home ft. HALIENE Tungorna - BETTER MAN ft. Man Without Country Ufo361 - Big Drip ft. Future Vanessa Carlton - The Only Way to Love Wiktoria - We Don't Talk YBN Almighty Jay - Ooouuu ft. Blac Youngsta YSN Flow - Want Beef Remix ft. Quando Rondo Yung Bambi Fukkit - 23 Yung Gravy bbno - Welcome to Chilis 118 DAGames - Sky High Josh A Darko - BETTER THINGS 119 Jessie Reyez - No Sweat 120 Alina Baraz - Trust Tom Grennan - This is the Place TroyBoi - Mmmm 121 Alex the Astronaut - I Think You're Great All Time Low - Some Kind Of Disaster Felly - Love And Fear Honey Harper - Something Relative Inhaler - We Have To Move On Jack Harlow - Whats Poppin L Devine - Boring People Mitski - Cop Car Pearl Jam - Dance Of The Clairvoyants Porches - Do U Wanna T.R.U. Skooly - How I Feel Remix ft. Quando Rondo NoCap Uché - Whatever ft. Bootsy Collins Yumi Zouma - Cool For A Second 122 Big Havi - 9 Times Out of 10 Remix ft. Lil Baby Chiiild - Hands Off Me Faouzia - The Road Hayley Williams - Simmer LION BABE - Hot In Herre MDMA - Teleport OnCue - No Setbacks Ren - new way Skaiwater - Zack Cody TOBi - City Blues Remix ft. The Game 123 67 - Way Before UDN AURORA - Walking In The Air Billy Marchiafava - French Fry Dinner ft. TrippythaKid Billy Raffoul - It's a Beautiful Life Cage The Elephant - Broken Boy Remix ft. Iggy Pop Doja Cat - Boss Bitch Four Tet - Baby iyla - Tattoo Tears Jessie Reyez - Love in the Dark La Roux - Automatic Driver Mae Muller - Therapist Marlo - 1st N 3rd ft. Future Lil Baby mxmtoon - fever dream Pouya Boobie Lootaveli Spock - Get Money Take Money Poppy Ajudha - Low Ride ft. Mahalia Ricky Martin - Tiburones ROSALÍA - Juro Qué SLUMBERJACK FOMO - Hades Slushii - Candy Flip Xavier Weeks - Got me Started 124 6 Dogs - Wallaby Absofacto - Rewind Marian Hill Remix Alaina Castillo - valentine's day Alec Chambers - Cold Alex Aiono - Another Life ft. Destiny Rogers Ali Gatie - What If I Told You that I Love You? AWOLNATION - Mayday!!! Fiesta Fever ft. Alex Ebert Beau Young Prince - In Real Life ft. Young Nudy Bishara Leia - Say It Ain't So Cash Cash - Mean It ft. Wrabel Clara DNK - Thank Me Later CNCO - My Boo Colton Dixon - Miracles COY - Promises D Smoke - No Commas Dionne Bromfield - Bad Intentions Dua Lipa - Dont Start Now Regard Remix FadedwithFriends - Ghost Franc Moody - Skin on Skin FUTURISTIC - Sorry for Yall GASHI - Safety 2020 ft. DJ Snake, Afro B Chris Brown GRAACE - Complicated Hardo - Every Night Hardo, Peewee Longway Tay Keith - Nothin To Me ft. Doe Boy iann dior - Good Day ILIRA - ROYALTY Jarryd James - Problems Jay Worthy, Pressa Cardo - Off the Shits JETTA - Livin' JP Cooper - In These Arms Kesha - Raising Hell Justin Caruso Remix Kelsea Ballerini - la Kiana Ledé - Mad At Me. Kygo, Avicii Sandro Cavazza - Forever Yours Lil Boom - Don't Cry 2B Liquidarlo Celuloide - Lluvia Negra LOVA - Jealous Of My Friends Luh Soldier Young Dolph - What Happened Remix LV - Done Wit It ft. DDG Max Frost - Back In the Summer Max George - That's Not Me Megan Thee Stallion - B.I.T.C.H Missy Higgins - Carry You MONUMENTS - Animus No Dice - Chloe Norman Perry - She ohtrapstar - On Fleek Ookay LAXX - Pull Up the Drop Picturesque - Necessary Pure Shores - Like a Fool R3HAB, Clara Mae Frank Walker - More Than OK REASON - Show Stop Rob tone - Cant Sleep Sarah Close - Cool Sik World - Tired Thalía Mau y Ricky - Ya Tú Me Conoces Tiny Meat Gang - Broke Bitch Tom MacDonald, MadChild, Nova Rockafeller - Sober Two Feet - Grey Tyla Yaweh - High Right Now Remix ft. Wiz Khalifa Violet Skies - Half My Life Wiz Khalifa, Ty Dolla ign, Sueco The Child Lil Yachty - Speed Me Up WSTRN - Re Up Yael Naim - How Will I Know YBN Nahmir - Talkin Yo Gotti - H.O.E. Heaven On Earth Yung Tory - 2020 Ziggy Alberts - Together Andrew Star - Yummy 126 H.E.R. - Sometimes ReptileLegit - waifu anthem ft. MC Prophet TC ALONE - Strange Feelings 127 Anna Calvi - Don't Beat The Girl out of My Boy Hunted Version ft. Courtney Barnett Ashley McBride - Hang In There Girl Blossoms - If You Think This Is Real Life Demi Lovato - Anyone Lil Nas X Nas - Rodeo Remix Meek Mill - Letter To Nipsey ft. Roddy Ricch M.E.T.A.L. - Hells Elite 128 Caribou - Never Come Back Gorillaz - Song Machine Theme Tune Justin Bieber - Get Me ft. Kehlani Kaash Paige - Love Songs Remix ft. 6LACK Kesha - Tonight Key Glock - Im Just Sayin Little Dragon - Hold On nothing,nowhere. - nightmare Trinidad James Fyre - Jame Woo Woo Young Nudy - No Go 129 AAP Ferg - Value anders - On Me Asaka - The Sunshower Austra - Risk It CJ Fly - Show You Dan Bull - Blame the Game Dawn Richard - Buttah Dawn Richard - Die Without You Declan McKenna - Beautiful Faces Donna Missal - Hurt By You Fish Narc - WiLDFiRE HARLOE - Crush On You Hazel English - Off My Mind Kierra Luv - Cant Stand It ft. Tory Lanez MKTO - Simple Things Pardison Fontaine - Wrong Wit Me Porter Robinson - Get your Wish Sevdaliza - Oh My God Tabby - Kelly Green These New Puritans - The Mirage Tycho - Outer Sunset Yo Gotti - More Ready Than Ever 130 changing cleo - chew Charlotte OC - This Pain Childish Major - Dem Know ft. BEAM Gorillaz - Momentary Bliss ft. slowthai Slaves Hayley Williams - Leave It Alone Headie One - Charades Stormzy - Own It Toddla T Remix ft. Ed Sheeran, Stylo G Burna Boy Noel Gallagher's High Flying Birds - Blue Moon Rising Tender - 6 in the morning 131 A.A.L Against All Logic - Alucinao ft. FKA twigs Estado Unido A.A.L Against All Logic - Illusions Of Shameless Abundance ft. Lydia Lunch A Boogie wit da Hoodie - King of My City Aesop Rock - Rogue Wave Allie X - Devil I Know Amber Mark - Generous Anitta - Jogação ft. Psirico AQUIHAYAQUIHAY - Tiempo Perfecto Ayanis - Lil Boi Big Talk ft. Queen Naija Britney Spears - Toxic Y2K Alexander Lewis Remix Caribou - Never Come Back Cheat Codes - No Service in the Hills ft. blackbear, PRINCE ROSIE Trippie Redd Cosmo's Midnight Ruel - Down for You D Smoke - Top of the Morning Diplo Julia Michaels - Heartless ft. Morgan Wallen DMAS - Life Is A Game Of Changing Drake Future - Desires Dua Lipa - Physical Duck Sauce, A-Trak Armand Van Helden - Smiley Face Dune Rats - Stupid Is As Stupid Does ft. K.Flay Elley Duhé - LOVE ME HARD Flash Gottii - Paper Chase ft. Trippie Redd Fleur East - Lucky Frank Casino - Block Hot Gang Starr - Bad Name Remix ft. Method Man Redman GNAR Germ - Perc 300 Gia Woods - HUNGRY Grace Davies - Invisible Grant Landis - Still Dream About U Hannah Grace - Blue Hannah Jane Lewis - Lemonade Incubus - Our Love J Nanks - Rain ft. YNW Melly Jadakiss - Kisses To The Sky ft. Rick Ross Emanny Jaguar Jonze - Rabbit Hole Jaxxon D. Silva Brennan Savage - Blackout Joe Trufant - What Does She Know JON VINYL - Moments Jubël - Blue Jeans KAROL G Nicki Minaj - Tusa English Version KAWALA - Animals Kayzo Lil Texas - Rules of the Game Kid Ink - Holy Grail Kota the Friend - Volvo KSI - Wake Up Call ft. Trippie Redd Landon Cube - Drugs Lil Blurry - Important ft. DJ Khaled Lil Candy Paint - Raining Lil Wookie Guap Tarantino - Two Nights Louis The Child - Dont Mind lovelytheband - Loneliness for Love Lucky Daye - Fade Away from the Photograph Madison Beer - Good in Goodbye Mia Vaile - Satellite Micky Munday - Let It Go ft. Mally Mall Migos Mike Perry - Told You So ft. Orange Villa Montaigne - Don't Break Me Morrissey - Love Is On Its Way Out Mr Eazi - Kpalanga Nadine Coyle - All That I Know Nate Rose - Heavy Is the Head With the Crown ft. wifisfuneral Nikki Vianna - Mambo ODIE - Slowly Phony Ppl - Fkn Around ft. Megan Thee Stallion POORSTACY - I Can't Sleep ft. iann dior Ramriddlz - SCUMROD Raveena - Headaches RonSoCold - HAD 2 Royce da 5'9 - I Don't Age Roy Woods - Shot Again Rhys Lewis - When Was The Last Time? Samantha Jade - In the Morning San Holo - Honest ft. Broods Saweetie GALXARA - Sway With Me Slaves - Bury A Lie Soleima - Roses Sons of Yusuf - Diving for Pearls ft. Jay Electronica Sueco The Child - dork Remix ft. Rich The Kid Suigeneris - Brown Justin Bieber Taylor Swift - Only The Young Featured in Miss Americana teamwork., Loote John K - Wasted Summer The Kid LAROI. - Diva ft. Lil Tecca Thouxanbanfauni - North Side North Side ft. UnoTheActivist Tory Lanez - K Lo K ft. Fivio Foreign Trevor Daniel Summer Walker - Falling Summer Walker Remix True Story Gee - Racks ft. K CAMP True Story Ro Witt Lowry - The Rise XYLØ - Tongue In The Bag YORKE. - Treading Water YNW BSlime - Just Want You Remix ft. Lil Yachty Young M.A - 2020 Vision Yung Beef - Mátame ft. Faberoa, Paul Marmota, Kiid Favelas, Goa, La Zowi, Papi Trujillo Albany Zaytoven, Lil Keed Lil Yachty - A-Team You Ain't Safe ft. Lil Gotit ZZ Ward - Break Her Heart1</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>My Darlin’</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Save the Last Dance for Me</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Baby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Save the Last Dance for Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Baby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>Spanish Harlem</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>There is a rose in Spanish Harlem A red rose up in Spanish Harlem It is the special one, it's never seen the sun It only comes out when the moon is on the run And all the stars are gleaming It's growing in the street Right up through the concrete But soft and sweet and dreaming There is a rose in Spanish Harlem A red rose up in Spanish Harlem With eyes as black as coal That looks down in my soul And starts a fire there and then I lose control I have to beg your pardon I'm going to pick that rose And watch her as she grows in my garden I'm going to pick that rose And watch her as she grows in my garden There is a rose in Spanish Harlem La la la, la la la, la la la la There is a rose in Spanish Harlem La la la, la la la, la la la la There is a rose in Spanish Harlem3</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Spanish Harlem</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>There is a rose in Spanish Harlem A red rose up in Spanish Harlem It is the special one, it's never seen the sun It only comes out when the moon is on the run And all the stars are gleaming It's growing in the street Right up through the concrete But soft and sweet and dreaming There is a rose in Spanish Harlem A red rose up in Spanish Harlem With eyes as black as coal That looks down in my soul And starts a fire there and then I lose control I have to beg your pardon I'm going to pick that rose And watch her as she grows in my garden I'm going to pick that rose And watch her as she grows in my garden There is a rose in Spanish Harlem La la la, la la la, la la la la There is a rose in Spanish Harlem La la la, la la la, la la la la There is a rose in Spanish Harlem3</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>There Goes My Baby</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>There Goes My Baby</t>
+          <t>Te Quiero</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>Someone like you Nena es un recuerdo Esa última vez que te vi Ya no queda tiempo Cuando me gritabas, estaba' Encendía' y solita pa' mi Y ahora no sé donde está' Estoy perdío' en la ciudad Pensando si tiene otro o si regresará Dejaste mi cora' roto y espero respuesta Que desde que tú te fuiste, no me quiero enredar Sé que nada es como antes Perdón si volví a buscarte Pero en mi piel te grabaste yeah Y ahora escribo pa' olvidarte Y ahora escribo pa' olvidarte Y ahora escribo pa' olvidarte Otro día con otra puta a mi lao' Y yo nunca me he enredao' He intentado con miles y no me ha funcionao' Mai' te quise demasiao' Y otra vez que aprendo para dar el estrés Puede que en este mundo ya no esté Y solo quisiera verte una última vez Solo una, vuelvo otra vez Para darte de nuevo, y chingarte de nuevo Yo caí en tu juego, y me quema este fuego Para darte de nuevo, y chingarte de nuevo Yo caí en tu juego, oh Nena es un recuerdo Esa última vez que te vi Ya no queda tiempo Cuando me gritabas, estaba' Encendía' y solita pa' mi Y ahora no sé donde está' Estoy perdío' en la ciudad Pensando si tiene otro o si regresará Dejaste mi cora' roto y espero respuesta Que desde que tú te fuiste, no me quiero enredar Que desde que tú te fuiste, no me quiero enredar Que desde que tú te fuiste, no me quiero enredar Ye' ye' Benja Valencia mami, ye' Y8 mami, ye', gang Chris Lopez, Hedo music, ye'</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Guilty Conscience (Tame Impala Remix)</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11 Bombay Bicycle Club - I Can Hardly Speak Eric Bellinger - Agree 2 Disagree ft. La'Myia Eric Bellinger - Build Something Files J - Ascend From Darkness ft. Sleeping Music Maker Hailee Steinfeld - Wrong Direction Hannah Grace - When I Ruled the World Lil Tjay - 2020 RXLVND, Thouxanbanfauni Terrance Escobar - Kickback Wild Nothing - Foyer Wiley - The Game 2019 12 Lauv - Changes Pet Shop Boys - Monkey business Walk off the Earth - Lonely ft. Steve Terreberry 13 2 Chainz - Falcons Hawks Braves 24kGoldn - VALENTINO Remix ft. Lil Tjay 645AR - 4 DA TRAP Dami Im - Kiss You Anyway Gabrielle Aplin Nina Nesbitt - Miss You 2 JAYLIEN - So High ft. Marc E. Bassy Joey Trap - KG Wentworth Julie Bergan Seeb - Kiss Somebody Justin Bieber - Yummy Lil Tr33zy - Wolf ft. A Boogie Wit da Hoodie Mick Jenkins - Carefree Moneybagg Yo - U Played ft. Lil Baby Oh Wonder - Happy Quando Rondo - Bad Vibe ft. 2 Chainz A Boogie Wit da Hoodie REASON - Flick It Up Remix ft. Jah The Great, Junii Bas Sam Hunt - Sinning with You Stabbing Westward - Dead And Gone T.R.U., 2 Chainz Skooly - Virgil Discount Yung Pinch - Beach Ballin' ft. blackbear 14 CXRPSE - DISPOSAL ft. BRUHMANEGOD, Lil Darkie STONEMAN 15 Wiley - Eediyat Skengman Stormzy Send 16 Delta Goodrem - Let It Rain Lisa Børud NO - Talking About Us M Huncho - Ni's Message Moses Sumney - Me in 20 Years Raylee - Wild Stormzy - DISAPPOINTED TC ALONE - Flowers 17 Agnes Obel - Broken Sleep Caroline Rose - Feel the Way I Want Dot Rotten - Oi Stormzy , Sit Back Down Georgia - 24 Hours Joey Trap - John Wayne Joywave - Half Your Age Knxwledge - Do You Mura Masa, Ellie Rowsell Wolf Alice - Teenage Headache Dreams Wiley - Eediyat Skengman 2 Stormzy Send 18 Amber Liu - Stay Calm Circa Waves - Move to San Francisco Daddy Yankee Nicky Jam - Muévelo Easy Life - Dead Celebrities Grouplove - Deleter Magic Sword - Depths of Power Marr Grey - Walk Away Stormzy - STILL DISAPPOINTED Susanne Sundfør - When The Lord Tame Impala - Lost in Yesterday 19 Alicia Keys - Underdog C. Tangana Alizzz - Yelo Cadel - World War III Caitlyn Smith - Long Time Coming Celeste - Stop This Flame Conan Gray - The Story Dappy RussMB - Splash J Balvin - Morado Kerri Watt - Psychotic Girl Khalid - Eleven Kida Kudz - 1AM League of Legends - Warriors Mac Miller - Good News Yxng Bane - Gang Shit 110 070 Shake - Guilty Conscience Aly Ryan Ugly God - You Ain't Him Always Never - Take Me Back in Time Amanda Tenfjord - As If Baby Goth - Afterparty Bankrol Hayden - Costa Rica Becky Hill - Better Off Without You ft. Shift K3Y Carnage - Hella Neck ft. Shoreline Mafia, Takeoff Tyga Conan Gray - The Story DC The Don - Red Light ft. YBN Almighty Jay DDG Doja Cat - Harley EDEN - isohel Ella Vos - Cellophane Elley Duhé - MIDDLE OF THE NIGHT Flora Cash - You Love Me Future - Life is Good ft. Drake Gengahr - Never a Low Germ - BURNT OUT gnash - hungover i miss u Halsey - You should be sad Hannah Grace - Sweet Like You John Legend - Conversations in the Dark Key Glock - Look At They Face Kiesza - When Boys Cry Kodaline - Wherever You Are Kodie Shane - No Cap Rap ft. Trippie Redd KXNG Crooked - I Luv Y'all Leyla Blue - Peppa Pig Lil Baby - Sum 2 Prove Luke James - Blow Megan Thee Stallion Normani - Diamonds Morrissey - Bobby, Don't You Think They Know? Nez - Wild Youngsta Ozzy Osbourne - Ordinary Man ft. Elton John Picture This - Winona Ryder Quinn XCII - Two 10s Robin Schulz - In Your Eyes ft. Alida S-X - Neither Would I Sam Feldt Sigma - 2 Hearts ft. Gia Koka SAYGRACE - Loyal Seafret - Most Of Us Are Strangers Shallou Daya - Older SHY Martin - Slow Sia - Original Sonny Alven Mags - I Cried At the Rave Static Ben El - Further Up ft. Pitbull Tennis - Need Your Love The Blaze Octavian - Somewhere The Highway Women - God Made Me Right TINI Mau y Ricky - Recuerdo Torine - Make U Cry Vargas Lagola - Somebody That Understands Me ft. Ludwig Göransson Warhol.SS - 12OZS Remix ft. Xavier Wulf Whethan - Stay Forever ft. STRFKR Wiley - Eediyat Skengman 3 Stormzy Send 112 Lil Smaller - Thoughts 113 Dreamville Ari Lennox - BUSSIT Dreamville EARTHGANG - Still Up ft. REASON Magdalena Bay - How to Get Physical Mura Masa - Live Like Were Dancing ft. Georgia Shakira Anuel AA - Me Gusta U.S. Girls - Overtime 114 Alice Boman - Everybody Hurts Anna Burch - Not So Bad Banoffee - Count on You Bombay Bicycle Club - Is It Real Jai Wolf - Moon Rider ft. Wrabel King Krule - Dont Let the Dragon Draag On Love Fame Tragedy - Riding a Wave Mandy Moore - Save A Little For Yourself Moby - Power Is Taken ft. D. H. Peligro Sea Girls - Ready For More Soccer Mommy - circle the drain TOKiMONSTA - Fried for the Night ft. EARTHGANG Valee - Not Playin Vistas - Sucker Wiley - Mazza 115 Ant Clemons - Beep ATLiens - Meltdown DDG - Cotton Mouth Jack River - Dark Star Jacob Latimore - Details ft. CalBoy Kayzo Atreyu - Battle Drums Luna Shadows - millenia Miles Chancellor - SCARED ! Okay Kaya - Psych Ward Orla Gartland - Heavy Pop Smoke - Christopher Walking RA The Rugged Man - Legendary Loser Sega Bodega - Salv Goes to Hollywood TORRES - Dressing America Tove Lo - Bikini Porn Tove Lo - Passion Pain tastes the same when I'm Weak Trophy Eyes - Figure Eight 116 Alec Benjamin - Demons Avenged Sevenfold - Set Me Free blackbear - me ur ghost Bugzy Malone - Cause a Commotion ft. Skip Marley COIN - Youuu Ella Eyre - New Me Green Day - Oh Yeah! H.E.R. - Slide Remix ft. Pop Smoke, A Boogie wit da Hoodie Chris Brown InMe - I Swear Josef Salvat - in the afternoon Josef Salvat - playground love iamnotshane - Perfect Lauv - Tattoos Together Lil Quill - Back On It ft. Yung Mal Lil Quill - Cinnabon ft. Millie Go Lightly Mahmood - Rapide Pop Smoke - Christopher Walking Pouya Boobie Lootaveli - Bitch, Park Backwards TC ALONE - Bombay The Naked and Famous - Bury Us The 1975 - Me You Together Song Violet Skies - Bruises Yellow Claw, CORSAK Julia Wu - Take Me Back 117 2 Chainz - Dead Man Walking ft. Future Alec King - Dangerous American Authors - Microphone BadMoodRude Lil Xan - Love Me Based Savage - Blind Man ft. Lil horty Benjamin Ingrosso - The Dirt Best Coast - Everything Has Changed Brianna Cash Tory Lanez - Numb BTS - Black Swan Charlotte Lawrence - Joke's on You Chloe Lilac - Here's Your Song Christian French - time of our lives Christopher - Ghost Co Cash - OLd Me, nEw MoNeY Common Kings - Fish in the Sea ft. Marc E. Bassy D Smoke - Fly ft. Davion Farris DC the Don - Campfire Duke Dumont - Therapy dvsn - A Muse Ebenezer - Flaws and All Fickle Friends - Pretty Great Gab3 KILLY - Fast Life Gabrielle Aplin - Dear Happy Garrett Kato Julia Stone - Breathe It In Grey - Body Count ft. Thutmose Isaiah - Thinking About You Isak Danielson - Light Up Jhené Aiko - PUY Fairy OTW Johan Lenox wifisfuneral - Bad Decisions Jonas Brothers - What A Man Gotta Do John K Kelsea Ballerini - If We Never Met Key Glock - Mr. Glock Kodie Shane - No Rap Kap ft. Trippie Redd Krewella - Greenlights Lasso Cami - Odio Que No Te Odio Lil Blurry - Ball With You Lil Spacely - Still Trappin ft. Elijah Yo Lily Moore - Now I Know lovefrank - Perfect, Pt. 2 Louisa - Like I Love Me Louis Tomlinson - Walls und- Skin Bones Matt Fax - Animal ft. Trove Meghan Trainor - Blink Mike Williams - Make You Mine ft. Moa Lisa MOLI - Something I Said Nascar Aloe - Iraq Iwreck New Hope Club R3HAB - Let Me Down Slow Niia - Obsession Peking Duk - Move ft. Alisa Xayalith Plu2o Nash - Live at the Roxy ft. Drego Lucki Polo G Lil Tjay - First Place Rayven Justice - Not That Serious ft. Guapdad 4000 Rich the Kid - Money Talk ft. YoungBoy Never Broke Again Rina Sawayama - Comme des garçons Like the Boys Royce da 5'9' - Overcomer ft. Westside Gunn Rvssian, Shenseea Swae Lee - IDKW ft. Young Thug Ryan Beatty - Casino Sam Sparro - Eye 2 Eye SAYGRACE - Priorities Skip Marley H.E.R. - Slow Down Acoustic Soko - Being Sad is Not a Crime Steve Aoki Maluma - Maldad Surfaces - Lazy Tritonal, SCHALA Jorza - Long Way Home ft. HALIENE Tungorna - BETTER MAN ft. Man Without Country Ufo361 - Big Drip ft. Future Vanessa Carlton - The Only Way to Love Wiktoria - We Don't Talk YBN Almighty Jay - Ooouuu ft. Blac Youngsta YSN Flow - Want Beef Remix ft. Quando Rondo Yung Bambi Fukkit - 23 Yung Gravy bbno - Welcome to Chilis 118 DAGames - Sky High Josh A Darko - BETTER THINGS 119 Jessie Reyez - No Sweat 120 Alina Baraz - Trust Tom Grennan - This is the Place TroyBoi - Mmmm 121 Alex the Astronaut - I Think You're Great All Time Low - Some Kind Of Disaster Felly - Love And Fear Honey Harper - Something Relative Inhaler - We Have To Move On Jack Harlow - Whats Poppin L Devine - Boring People Mitski - Cop Car Pearl Jam - Dance Of The Clairvoyants Porches - Do U Wanna T.R.U. Skooly - How I Feel Remix ft. Quando Rondo NoCap Uché - Whatever ft. Bootsy Collins Yumi Zouma - Cool For A Second 122 Big Havi - 9 Times Out of 10 Remix ft. Lil Baby Chiiild - Hands Off Me Faouzia - The Road Hayley Williams - Simmer LION BABE - Hot In Herre MDMA - Teleport OnCue - No Setbacks Ren - new way Skaiwater - Zack Cody TOBi - City Blues Remix ft. The Game 123 67 - Way Before UDN AURORA - Walking In The Air Billy Marchiafava - French Fry Dinner ft. TrippythaKid Billy Raffoul - It's a Beautiful Life Cage The Elephant - Broken Boy Remix ft. Iggy Pop Doja Cat - Boss Bitch Four Tet - Baby iyla - Tattoo Tears Jessie Reyez - Love in the Dark La Roux - Automatic Driver Mae Muller - Therapist Marlo - 1st N 3rd ft. Future Lil Baby mxmtoon - fever dream Pouya Boobie Lootaveli Spock - Get Money Take Money Poppy Ajudha - Low Ride ft. Mahalia Ricky Martin - Tiburones ROSALÍA - Juro Qué SLUMBERJACK FOMO - Hades Slushii - Candy Flip Xavier Weeks - Got me Started 124 6 Dogs - Wallaby Absofacto - Rewind Marian Hill Remix Alaina Castillo - valentine's day Alec Chambers - Cold Alex Aiono - Another Life ft. Destiny Rogers Ali Gatie - What If I Told You that I Love You? AWOLNATION - Mayday!!! Fiesta Fever ft. Alex Ebert Beau Young Prince - In Real Life ft. Young Nudy Bishara Leia - Say It Ain't So Cash Cash - Mean It ft. Wrabel Clara DNK - Thank Me Later CNCO - My Boo Colton Dixon - Miracles COY - Promises D Smoke - No Commas Dionne Bromfield - Bad Intentions Dua Lipa - Dont Start Now Regard Remix FadedwithFriends - Ghost Franc Moody - Skin on Skin FUTURISTIC - Sorry for Yall GASHI - Safety 2020 ft. DJ Snake, Afro B Chris Brown GRAACE - Complicated Hardo - Every Night Hardo, Peewee Longway Tay Keith - Nothin To Me ft. Doe Boy iann dior - Good Day ILIRA - ROYALTY Jarryd James - Problems Jay Worthy, Pressa Cardo - Off the Shits JETTA - Livin' JP Cooper - In These Arms Kesha - Raising Hell Justin Caruso Remix Kelsea Ballerini - la Kiana Ledé - Mad At Me. Kygo, Avicii Sandro Cavazza - Forever Yours Lil Boom - Don't Cry 2B Liquidarlo Celuloide - Lluvia Negra LOVA - Jealous Of My Friends Luh Soldier Young Dolph - What Happened Remix LV - Done Wit It ft. DDG Max Frost - Back In the Summer Max George - That's Not Me Megan Thee Stallion - B.I.T.C.H Missy Higgins - Carry You MONUMENTS - Animus No Dice - Chloe Norman Perry - She ohtrapstar - On Fleek Ookay LAXX - Pull Up the Drop Picturesque - Necessary Pure Shores - Like a Fool R3HAB, Clara Mae Frank Walker - More Than OK REASON - Show Stop Rob tone - Cant Sleep Sarah Close - Cool Sik World - Tired Thalía Mau y Ricky - Ya Tú Me Conoces Tiny Meat Gang - Broke Bitch Tom MacDonald, MadChild, Nova Rockafeller - Sober Two Feet - Grey Tyla Yaweh - High Right Now Remix ft. Wiz Khalifa Violet Skies - Half My Life Wiz Khalifa, Ty Dolla ign, Sueco The Child Lil Yachty - Speed Me Up WSTRN - Re Up Yael Naim - How Will I Know YBN Nahmir - Talkin Yo Gotti - H.O.E. Heaven On Earth Yung Tory - 2020 Ziggy Alberts - Together Andrew Star - Yummy 126 H.E.R. - Sometimes ReptileLegit - waifu anthem ft. MC Prophet TC ALONE - Strange Feelings 127 Anna Calvi - Don't Beat The Girl out of My Boy Hunted Version ft. Courtney Barnett Ashley McBride - Hang In There Girl Blossoms - If You Think This Is Real Life Demi Lovato - Anyone Lil Nas X Nas - Rodeo Remix Meek Mill - Letter To Nipsey ft. Roddy Ricch M.E.T.A.L. - Hells Elite 128 Caribou - Never Come Back Gorillaz - Song Machine Theme Tune Justin Bieber - Get Me ft. Kehlani Kaash Paige - Love Songs Remix ft. 6LACK Kesha - Tonight Key Glock - Im Just Sayin Little Dragon - Hold On nothing,nowhere. - nightmare Trinidad James Fyre - Jame Woo Woo Young Nudy - No Go 129 AAP Ferg - Value anders - On Me Asaka - The Sunshower Austra - Risk It CJ Fly - Show You Dan Bull - Blame the Game Dawn Richard - Buttah Dawn Richard - Die Without You Declan McKenna - Beautiful Faces Donna Missal - Hurt By You Fish Narc - WiLDFiRE HARLOE - Crush On You Hazel English - Off My Mind Kierra Luv - Cant Stand It ft. Tory Lanez MKTO - Simple Things Pardison Fontaine - Wrong Wit Me Porter Robinson - Get your Wish Sevdaliza - Oh My God Tabby - Kelly Green These New Puritans - The Mirage Tycho - Outer Sunset Yo Gotti - More Ready Than Ever 130 changing cleo - chew Charlotte OC - This Pain Childish Major - Dem Know ft. BEAM Gorillaz - Momentary Bliss ft. slowthai Slaves Hayley Williams - Leave It Alone Headie One - Charades Stormzy - Own It Toddla T Remix ft. Ed Sheeran, Stylo G Burna Boy Noel Gallagher's High Flying Birds - Blue Moon Rising Tender - 6 in the morning 131 A.A.L Against All Logic - Alucinao ft. FKA twigs Estado Unido A.A.L Against All Logic - Illusions Of Shameless Abundance ft. Lydia Lunch A Boogie wit da Hoodie - King of My City Aesop Rock - Rogue Wave Allie X - Devil I Know Amber Mark - Generous Anitta - Jogação ft. Psirico AQUIHAYAQUIHAY - Tiempo Perfecto Ayanis - Lil Boi Big Talk ft. Queen Naija Britney Spears - Toxic Y2K Alexander Lewis Remix Caribou - Never Come Back Cheat Codes - No Service in the Hills ft. blackbear, PRINCE ROSIE Trippie Redd Cosmo's Midnight Ruel - Down for You D Smoke - Top of the Morning Diplo Julia Michaels - Heartless ft. Morgan Wallen DMAS - Life Is A Game Of Changing Drake Future - Desires Dua Lipa - Physical Duck Sauce, A-Trak Armand Van Helden - Smiley Face Dune Rats - Stupid Is As Stupid Does ft. K.Flay Elley Duhé - LOVE ME HARD Flash Gottii - Paper Chase ft. Trippie Redd Fleur East - Lucky Frank Casino - Block Hot Gang Starr - Bad Name Remix ft. Method Man Redman GNAR Germ - Perc 300 Gia Woods - HUNGRY Grace Davies - Invisible Grant Landis - Still Dream About U Hannah Grace - Blue Hannah Jane Lewis - Lemonade Incubus - Our Love J Nanks - Rain ft. YNW Melly Jadakiss - Kisses To The Sky ft. Rick Ross Emanny Jaguar Jonze - Rabbit Hole Jaxxon D. Silva Brennan Savage - Blackout Joe Trufant - What Does She Know JON VINYL - Moments Jubël - Blue Jeans KAROL G Nicki Minaj - Tusa English Version KAWALA - Animals Kayzo Lil Texas - Rules of the Game Kid Ink - Holy Grail Kota the Friend - Volvo KSI - Wake Up Call ft. Trippie Redd Landon Cube - Drugs Lil Blurry - Important ft. DJ Khaled Lil Candy Paint - Raining Lil Wookie Guap Tarantino - Two Nights Louis The Child - Dont Mind lovelytheband - Loneliness for Love Lucky Daye - Fade Away from the Photograph Madison Beer - Good in Goodbye Mia Vaile - Satellite Micky Munday - Let It Go ft. Mally Mall Migos Mike Perry - Told You So ft. Orange Villa Montaigne - Don't Break Me Morrissey - Love Is On Its Way Out Mr Eazi - Kpalanga Nadine Coyle - All That I Know Nate Rose - Heavy Is the Head With the Crown ft. wifisfuneral Nikki Vianna - Mambo ODIE - Slowly Phony Ppl - Fkn Around ft. Megan Thee Stallion POORSTACY - I Can't Sleep ft. iann dior Ramriddlz - SCUMROD Raveena - Headaches RonSoCold - HAD 2 Royce da 5'9 - I Don't Age Roy Woods - Shot Again Rhys Lewis - When Was The Last Time? Samantha Jade - In the Morning San Holo - Honest ft. Broods Saweetie GALXARA - Sway With Me Slaves - Bury A Lie Soleima - Roses Sons of Yusuf - Diving for Pearls ft. Jay Electronica Sueco The Child - dork Remix ft. Rich The Kid Suigeneris - Brown Justin Bieber Taylor Swift - Only The Young Featured in Miss Americana teamwork., Loote John K - Wasted Summer The Kid LAROI. - Diva ft. Lil Tecca Thouxanbanfauni - North Side North Side ft. UnoTheActivist Tory Lanez - K Lo K ft. Fivio Foreign Trevor Daniel Summer Walker - Falling Summer Walker Remix True Story Gee - Racks ft. K CAMP True Story Ro Witt Lowry - The Rise XYLØ - Tongue In The Bag YORKE. - Treading Water YNW BSlime - Just Want You Remix ft. Lil Yachty Young M.A - 2020 Vision Yung Beef - Mátame ft. Faberoa, Paul Marmota, Kiid Favelas, Goa, La Zowi, Papi Trujillo Albany Zaytoven, Lil Keed Lil Yachty - A-Team You Ain't Safe ft. Lil Gotit ZZ Ward - Break Her Heart1</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Te Quiero</t>
+          <t>Hands On Me</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Someone like you Nena es un recuerdo Esa última vez que te vi Ya no queda tiempo Cuando me gritabas, estaba' Encendía' y solita pa' mi Y ahora no sé donde está' Estoy perdío' en la ciudad Pensando si tiene otro o si regresará Dejaste mi cora' roto y espero respuesta Que desde que tú te fuiste, no me quiero enredar Sé que nada es como antes Perdón si volví a buscarte Pero en mi piel te grabaste yeah Y ahora escribo pa' olvidarte Y ahora escribo pa' olvidarte Y ahora escribo pa' olvidarte Otro día con otra puta a mi lao' Y yo nunca me he enredao' He intentado con miles y no me ha funcionao' Mai' te quise demasiao' Y otra vez que aprendo para dar el estrés Puede que en este mundo ya no esté Y solo quisiera verte una última vez Solo una, vuelvo otra vez Para darte de nuevo, y chingarte de nuevo Yo caí en tu juego, y me quema este fuego Para darte de nuevo, y chingarte de nuevo Yo caí en tu juego, oh Nena es un recuerdo Esa última vez que te vi Ya no queda tiempo Cuando me gritabas, estaba' Encendía' y solita pa' mi Y ahora no sé donde está' Estoy perdío' en la ciudad Pensando si tiene otro o si regresará Dejaste mi cora' roto y espero respuesta Que desde que tú te fuiste, no me quiero enredar Que desde que tú te fuiste, no me quiero enredar Que desde que tú te fuiste, no me quiero enredar Ye' ye' Benja Valencia mami, ye' Y8 mami, ye', gang Chris Lopez, Hedo music, ye'</t>
+          <t>Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Come on! Uh! If you're ready, I'm willin' and able Help me lay my cards out on the table You're mine and I'm yours for the takin' Right now the rules that we made are meant for breakin' Yeah What you get ain't always what you see But satisfaction is guaranteed They say that what you give is always what you need, oh-whoa If you want me to lay my hands on you Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Yeah! I'm a fighter, I'm a poet, I'm a preacher I've been to school yeah baby, I've been the teacher If you show me how to get up off the ground, ground, ground I can show you how to fly, never, ever come back down Everything you want is what I need But satisfaction is, huh, guaranteed But the ride don't never, ever come for free, oh If you want me to lay my hands on you Lay your hands on me Lay your hands on me Lay your hands on me All you got to do is Lay your hands on me Lay your hands on me Lay your hands on me Yeah, yeah Don't you know I always aim to please? Yeah If you want me to lay my hands on you Lay your hands on me Lay your hands on me Lay your hands on me You got to do is Lay your hands on me Lay your hands on me Lay your hands on me Lay 'em down Lay your hands on me Lay your hands on me Aw, lay 'em down Lay your hands on me Yeah Oh-oh-oh-oh-oh, oh-oh-oh-oh-oh Won't you lay 'em down Lay your hands on me Yeah, yeah Oh-oh-oh-oh-oh Oh, yeah Oh-oh-oh-oh-oh Lay your hands on me I can hear my heart sing Oh-oh-oh-oh-oh Oh Oh-oh-oh-oh-oh I can hear my heart sing Lay your hands on me C'mon, c'mon Yeah Oh-oh-oh-oh-oh Oh Oh-oh-oh-oh-oh Won't you lay 'em down? Lay your hands on me</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hands On Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Come on! Uh! If you're ready, I'm willin' and able Help me lay my cards out on the table You're mine and I'm yours for the takin' Right now the rules that we made are meant for breakin' Yeah What you get ain't always what you see But satisfaction is guaranteed They say that what you give is always what you need, oh-whoa If you want me to lay my hands on you Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Lay your hands on me Yeah! I'm a fighter, I'm a poet, I'm a preacher I've been to school yeah baby, I've been the teacher If you show me how to get up off the ground, ground, ground I can show you how to fly, never, ever come back down Everything you want is what I need But satisfaction is, huh, guaranteed But the ride don't never, ever come for free, oh If you want me to lay my hands on you Lay your hands on me Lay your hands on me Lay your hands on me All you got to do is Lay your hands on me Lay your hands on me Lay your hands on me Yeah, yeah Don't you know I always aim to please? Yeah If you want me to lay my hands on you Lay your hands on me Lay your hands on me Lay your hands on me You got to do is Lay your hands on me Lay your hands on me Lay your hands on me Lay 'em down Lay your hands on me Lay your hands on me Aw, lay 'em down Lay your hands on me Yeah Oh-oh-oh-oh-oh, oh-oh-oh-oh-oh Won't you lay 'em down Lay your hands on me Yeah, yeah Oh-oh-oh-oh-oh Oh, yeah Oh-oh-oh-oh-oh Lay your hands on me I can hear my heart sing Oh-oh-oh-oh-oh Oh Oh-oh-oh-oh-oh I can hear my heart sing Lay your hands on me C'mon, c'mon Yeah Oh-oh-oh-oh-oh Oh Oh-oh-oh-oh-oh Won't you lay 'em down? Lay your hands on me</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Beautiful Girls (Remix)</t>
+          <t>Don’t Play That Song (You Lied)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ranking has ended, so this page is no longer in use. To keep track of the finalized lists and the rest of the EOY process, check for updates in the Year End List Timeline 2017 thread.This is the ranking page for the 2017 Year End Lists. The initial ordering for albums and songs is based on the results of a Google form voting processclick here to learn more. Please do not edit the lyrics of this page. If you would like something changed, discuss it in the suggestions or message Empath.Example Annotation Artist - AlbumSongTop 65 Albums1. Kendrick Lamar - DAMN. 2. Tyler, the Creator - Flower Boy 3. SZA - Ctrl 4. JAY-Z - 444 5. Sampha - Process 6. Lorde - Melodrama 7. Migos - Culture 8. BROCKHAMPTON - Saturation I II 9. Vince Staples - Big Fish Theory 10. Joey Bada - ALL AMERIKKKAN BADA 11. Kelela - Take Me Apart 12. Harry Styles - Harry Styles 13. Daniel Caesar - Freudian 14. Rapsody - Laila's Wisdom 15. Big K.R.I.T. - 4Eva Is A Mighty Long Time 16. J Hus - Common Sense 17. Lana Del Rey - Lust for Life 18. Paramore - After Laughter 19. Young Thug - Beautiful Thugger Girls 20. Lecrae - All Things Work Together 21. Run the Jewels - Run the Jewels 3 22. Wiley - Godfather 23. Lil Uzi Vert - Luv Is Rage 2 24. J.I.D - The Never Story 25. 2 Chainz - Pretty Girls Like Trap Music 26. Drake - More Life 27. Björk - Utopia 28. Gorillaz - Humanz 29. Thundercat - Drunk 30. Halsey - hopeless fountain kingdom 31. Gucci Mane - Droptopwop 32. Father John Misty - Pure Comedy 33. Moses Sumney - Aromanticism 34. Fleet Foxes - Crack Up 35. NF - Perception 36. Dvsn - Morning After 37. The xx - I See You 38. Jaden Smith - SYRE 39. Casper - Lang Lebe Der Tod 40. Meek Mill - Wins Losses 41. Big Sean - I Decided 42. Khalid - American Teen 43. Perfume Genius - No Shape 44. Corbin - Mourn 45. Childish Gambino - Awaken, My Love! 46. Future - FUTURE 47. Logic - Everybody 48. Andy Mineo Wordsplayed - Magic Bird 49. J. Cole - 4 Your Eyez Only 50. Kesha - Rainbow 51. Sam Smith - The Thrill of It All 52. IDK - IWasVeryBad 53. Mac Demarco - This Old Dog 54. King Krule - The OOZ 55. Ty Dolla ign - Beach House 3 56. 21 Savage, Offset, Metro Boomin - Without Warning 57. A Boogie Wit Da Hoodie - The Bigger Artist 58. Calvin Harris - Funk Wav Bounces Vol. 1 59. milo - who told you to think??!!?!?! 60. Amine - Good For You 61. Witt Lowry - I Could Not Plan This 62. Joji - In Tongues 63. Future - HNDRXX 64. Future Young Thug - SUPER SLIMEY 65. Kehlani - SweetSexySavageNotable albums released after voting closed but before Dec. 4YGG - World DominationTBDTBDTBDTBDCritically acclaimed albums not on the listRick Ross - Rather You Than MeSyd - FinStormzy - Gang Signs PrayerWilliam Patrick Corgan - OgilalaCyHi The Prynce - No Dope On SundaysJoyner Lucas - 508-507-2209Talib Kweli - Radio SilenceLil Peep - Come Over When You're Sober, Pt. IChoker - PEAKNeck Deep - The Peace And The PanicBrent Faiyaz Sonder SonJidenna - The ChiefIbeyi - AshBenjamin Booker - WitnessSt. Vincent - MASSEDUCTIONThe War On Drugs - A Deeper UnderstandingPost Malone - StoneyTBDTBDAlbum GraveyardMacklemore - GeminiDJ Khaled - GratefulMarilyn Manson - Heaven Upside DownXXXTENTACION - 17Ed Sheeran - ÷Katy Perry - WitnessLinkin Park - One More LightPlayboi Carti - Playboi CartiTaylor Swift - reputationBrand New - Science FictionTBDTop 65 Songs1. Frank Ocean - Chanel 2. Lil Uzi Vert - XO Tour Llife 3. Kendrick Lamar - DNA. 4. JAY-Z - The Story of O.J 5. Calvin Harris - Slide feat. Frank Ocean Migos 6. Kendrick Lamar - XXX feat. U2 7. Vince Staples - Yeah Right feat. Kendrick Lamar 8. Future - Mask Off 9. Tyler, the Creator - See You Again feat. Kali Uchis 10. Harry Styles - Sign Of The Times 11. Khalid - Location 12. Cardi B - Bodak Yellow 13. NF - Let You Down 14. Frank Ocean - Biking feat. Tyler, the Creator JAY-Z 15. Kendrick Lamar - LOVE. 16. Migos - T-Shirt 17. Logic - 1-800-273-8255 18. SZA - Love Galore feat. Travis Scott 19. Goldlink - Crew 20. Tyler, the Creator - Boredom feat. Anna of the North, Corinne Bailey Rae Rex Orange County 21. Lorde - Green Light 22. Lil Uzi Vert - Neon Guts feat. Pharrell Williams 23. Drake - Teenage Fever 24. SZA - The Weekend 25. Travis Scott - Butterfly Effect 26. Kesha - Praying 27. Joey Bada - Rockabye Baby feat. ScHoolboy Q 28. French Montana - Unforgettable 29. Sampha - No One Knows Me Like The Piano 30. Kelela - LMK 31. Playboi Carti - Magnolia 32. Lana Del Rey - Love 33. Post Malone - rockstar feat. 21 Savage 34. Frank Ocean - Provider 35. Camila Cabello- Havana feat. Young Thug 36. AAP Mob - RAF feat. Quavo, AAP Rocky, Lil Uzi Vert, Playboi Carti Frank Ocean 37. Portugal. The Man - Feel It Still 38. Lil Uzi Vert - The Way Life Goes 39. Mac Demarco - My Old Man 40. N.E.R.D - Lemon feat. RIhanna 41. Tyler, the Creator - Who Dat Boy? feat. AAP Rocky 42. DJ Khaled - Wild Thoughts feat. Rihanna Bryson Tiller 43. Lecrae - I'll Find You 44. A Boogie Wit Da Hoodie - Drowning 45. Marshmello - Silence feat. Khalid 46. Young Thug Carnage - Homie feat. Meek Mill 47. Selena Gomez - Fetish 48. Freddie Gibbs - Crushed Glass 49. JAY-Z - Family Feud 50. Ski Mask The Slump God - Catch Me Outside 51. Meek Mill - 1942 Flows 52. 2 Chainz - 4 AM feat. Travis Scott 53. AAP Ferg - Plain Jane 54. Big Sean - Sacrifices feat. Migos 55. Jaden Smith - Icon 56. Khalid - Young Dumb Broke 57. Lil Peep - Awful Things 58. BROCKHAMPTON - SWAMP 59. Lorde - Homemade Dynamite 60. Tyler, the Creator - I Aint Got Time! 61. Tyler, the Creator - 911 Mr. Lonely 62. BROCKHAMPTON - SWEET 63. Lil Pump - Gucci Gang 64. 21 Savage - Bank Account 65. Miguel - Sky WalkerNotable songs released after voting closed but before Dec. 4TBDTBDTBDCritically acclaimed songs not on the listFuturistic - EpiphanyCorbin - ICEBOYMabel - Finders' KeepersBig Sean - No Favors feat. EminemKendrick Lamar - DUCKWORTH.Moses Sumney - Quarrel2 Chainz - Good Drank feat. Gucci Mane QuavoHalsey - Now or NeverHalsey - Eyes ClosedVince Staples - Big FishThe xx - ReplicaThe xx - DangerousOffset Metro Boomin - Ric Flair DripMigos - Slippery feat. Gucci ManeYoung Thug - RelationshipCalvin Harris - Rollin feat. Future KhalidDua Lipa - New RulesKodak Black - Tunnel VisionKyle - iSpy feat. Lil YachtyMarian Hill - DownCarly Rae Jepsen - Cut to the FeelingLuis Fonsi Daddy Yankee - Despacito Remix feat. Justin BieberKendrick Lamar - FEEL.Kali Uchis - Tyrant feat. Jorja SmithA.CHAL - To the LightJ.I.D - NEVERSZA - Doves In The Wind feat. Kendrick LamarGorillaz - Sleeping PowderIDK - Maryland Ass Nigga feat. Swizz BeatzBaka - Live Up To My Name21 Savage - Nothing NewBad Bunny - Soy PeorDrake - Portland ft. Travis Scott QuavoYBN Nahmir - Rubbin Off The PaintDrake - Ice Melts feat. Young ThugTBDRich Chigga - Glow Like DatFabolous Jadakiss - Theme MusicTBDTBDTBDTBDTBDTBDTBDSong GraveyardKendrick Lamar - LUST.Kendrick Lamar - FEAR.Kendrick Lamar - ELEMENT.Playboi Carti - wokeuplikethis feat. Lil Uzi VertSelena Gomez - Bad LiarXXXTENTACION - Jocelyn FloresMigos - Bad and Boujee feat. Lil Uzi VertKendrick Lamar - HUMBLE.JAY-Z - Marcy MeEd Sheeran - Shape of YouCyHi The Prynce - Dat Side feat. Kanye WestEminem - Walk On Water feat. BeyonceDrake - GyalchesterTaylor Swift - Getaway CarDrake - PassionfruitDaniel Caesar - Get You' feat. Kali UchisChildish Gambino - RedboneBig Sean - Bounce BackTBDTBDTBDTBD9</t>
+          <t>Don't play it no more Don't play it no more Don't play it no more No, no, no, no, no, no, no Don't play that song for me It brings back memories Of days that I once knew The days that I spent with you Oh no, don't let it play It fills my heart with pain Please stop it right away I remember jus-a what it said It said Darling, I love you You know that you lied Darling, I love you You know that you lied Darling, I love you You know that you lied Woah, you lied Woah You lied, lied, lied I remember on our first date You kissed me and you walked away You were only seventeen I never thought you'd act so mean But baby, you told me you loved me You told me you cared You said, I'll go with you, darling Almost anywhere Bud, darling, you know that Darling, I love you You know that you lied Darling, I love you You know that you lied Darling, I love you You know that you lied You lied, you lied, lied, lied, lied Don't play it no more Don't play it no more Stop it, baby, no, no, no, no, no, no, no Don't play it no more Baby, please don't play it, baby Don't play it no more, no, no, no, no, no, no, no Stop it, baby Darling, I love you You know you lied Darling, I love you You know you lied Darling, I love you You know you lied</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>I (Who Have Nothing)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>I, I who have nothing I, I who have no one Adore you and want you so I'm just a no one With nothing to give you but, oh I love you He, he buys you diamonds Bright, sparkling diamonds But believe me, hear what I say That he can give you the world But he'll never love you the way I love you He can take you any place he wants To fancy clubs and restaurants But I can only watch you with My nose pressed up against the window pane I, I who have nothing I, I who have no one Must watch you go dancing by Wrapped in the arms of somebody else When darling, it's I Who loves you</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>Stand by Meme</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hanh, Yo Que du bon y'en a pas encore finish Hard core phénomène Kiffe mon slang, même si c'est pas du spanish Des rimes en lingo Chiale, baby, chiale Si tu lèves ton flingue haut Moi, je fly, baby, fly Ma situation, mes proches l'a naiss-co C'est pas ce qui se fait de mieux Mais je fais avec, amigo Mon nom est DaFunkyla, ghetto superstar Déteste les mecs qui sont en super-retard Pour ma génération, préparation Freestyle en coulisse, hard core lyrics Du style on nique la Police Les groupies chialent Les larmes innondent Daomen sur les ondes C'est boule à zéro, Timberlands Ce soir c'est sexe, alcool, caviar Showcase improvisé, bédo, Sinsemilla Mon rôle dans la vie mérite un Oscar ou un Grammy Award Jerry DaFunkyla représente pour le Black Power Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yo, Yo Je mène une triste vie, on dirait de la comédie Il y a des jours où je me dis, je vais me retrouver à Hollywood comme Eddy Mais ma réalité est trop hard core Elle me rappelle que je demeure un black flavor Sur le track je donne, j'explose comme une bonbonne Je suis un MC sapé large avec un gros bonnet Au mic je flingue sec, volontaire est l'homicide Mes pratiques sont répugnantes Mes victimes ont recours au suicide Je débarque, t'embarque dans mon concept de fouleck Et dans la foulée j'en place une pour mes zoulettes Dédicace aux MC's non-tricards Ceux qui sont fiers de représenter leur tié-quar Je suis pas un mafioso, on m'appelle pas Gambino Ma vie je la vois simple, avec une femme et plein de bambino Chiale, baby, chiale DaFunkyla, street niggas Emmène des rimes en roro qui valent plus de 10 keuss' Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yo, Yo, Yo On fait tout pour pas que les guns sonnent Moi, je tope mon flow à la Ben Johnson Après chaque prestation on tire le rideau Interview en standby, you know how we do Evite de me chauffer quand je fais le maniacks Y'a des jours où je fume un max Mes potes me disent que je suis maniaque Hard core nègre, boule à zéro à la Mouss Diouf J'en place une pour ceux qui galèrent au gnouf Underground revelation On dira que mon style est dope Demain on sera encore là pour mettre ça au top Yo, Chiale, baby, chiale Sur le riddim je suis mortel Daomen c'est le style qui fout le bordel Je représente pour la génération next Mes frères et moi chauffons Babylone car hard core sont nos textes Je marche droit pour pas que ma mère chiale Je veux faire partie de ceux qui n'ont pas les mains sales Yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yesh yesh y'all And you don't stop Daomen, hunh Daomen, hunh Please, Please Yesh yesh y'all And you don't stop Jerry DaFunkyla Nouvelle Donne Records Yesh yesh y'all And you don't stop Clark Gordon Nouvelle Donne Records Please, Please Yesh yesh y'all And you don't stop Hunh, hunh, hunh Daomen, yo</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Don’t Play That Song (You Lied)</t>
+          <t>Supernatural Thing</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Don't play it no more Don't play it no more Don't play it no more No, no, no, no, no, no, no Don't play that song for me It brings back memories Of days that I once knew The days that I spent with you Oh no, don't let it play It fills my heart with pain Please stop it right away I remember jus-a what it said It said Darling, I love you You know that you lied Darling, I love you You know that you lied Darling, I love you You know that you lied Woah, you lied Woah You lied, lied, lied I remember on our first date You kissed me and you walked away You were only seventeen I never thought you'd act so mean But baby, you told me you loved me You told me you cared You said, I'll go with you, darling Almost anywhere Bud, darling, you know that Darling, I love you You know that you lied Darling, I love you You know that you lied Darling, I love you You know that you lied You lied, you lied, lied, lied, lied Don't play it no more Don't play it no more Stop it, baby, no, no, no, no, no, no, no Don't play it no more Baby, please don't play it, baby Don't play it no more, no, no, no, no, no, no, no Stop it, baby Darling, I love you You know you lied Darling, I love you You know you lied Darling, I love you You know you lied</t>
+          <t>Your love, your love Supernatural thing Your love, your love It's a supernatural thing, oh babe Your love Your love, your love Supernatural thing Supernatural Oh, babe Supernatural Your love, your love Your love, your love Supernatural thing Supernatural Mm, babe Supernatural When we touch, give me such a funny feeling in my brain I'm so possessed by your love, sometimes I don't even know my name When we kiss, you know you make me hot I break out sometimes in little bitty green spots You give me, give me all you got Don't stop it, baby, 'cause I need a lot Your love Your love, your love Lord, it's a supernatural thing Supernatural Oh woman Supernatural Your love, your love Your love, your love Supernatural thing Supernatural Mmhmm Supernatural Say, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural Listen, interplanetary, oh, extraordinary love Interplanetary I like it Extraordinary That way you love me Supernatural Oh baby Supernatural You give me cosmic feeling, every time that I squeeze you Your love's so electrifying, so satisfying, Lord knows I ain't lyin' Your love Your love, your love Supernatural thing Supernatural Oh woman Supernatural Your love Your love, your love Lord, it's a supernatural thing Supernatural What you say? Supernatural Say, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural Listen, interplanetary, oh, extraordinary love Interplanetary I like it Extraordinary That way you love me Supernatural Oh babe Supernatural Listen, interplanetary, oh extraordinary, ooh Interplanetary I like it Extraordinary Surely I like it Supernatural Baby Supernatural One more time, doo doo do doo do, do doo do doo Do doo do doo do do doo do, uh Supernatural I like it Supernatural I like it Supernatural I like it Supernatural Ooh, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural You give me soul Makes my feeling grow Woman, I love it Love the way you love me Oh baby, I love Love the way you love me Your love Your love, your love Supernatural Supernatural Help me Supernatural Your love Your love, your love Oh, it's a supernatural thing Supernatural Help me Supernatural I've got it Supernatural I've got it Supernatural I've got it Supernatural Lord knows I've got it Supernatural I've got the feeling Supernatural I've got the feeling Supernatural Mm, babe Supernatural Ooh, baby Supernatural Ooh, baby Supernatural Ooh, baby Supernatural You give me Supernatural You give me things Supernatural Make my body hot Supernatural Make my body hot Supernatural Oh, I've got it Supernatural Got the feeling Supernatural Mama, I've got it Supernatural I've got the feeling Supernatural Your love Your love, your love Said it's a supernatural thing Supernatural Help me Supernatural Your love Your love, your love Oh, it's a supernatural thing Supernatural Help me Supernatural Oh Supernatural What you say? Supernatural What you say? Interplanetary, oh, extraordinary, uh! Interplanetary I like it Extraordinary Surely I like it Supernatural Baby Supernatural One more time, doo doo do doo do, do doo do doo Do doo do doo do do doo do, uh Supernatural I like it Supernatural I like it Supernatural I like it Supernatural Ooh, Interplanetary, girl, extraordinary love Interplanetary I like it Extraordinary Help me say it Supernatural I like it Supernatural Ooh, boo boo buh buh-buh-buh-buh Buh buh buh buh-buh-buh-boo Supernatural Oh baby Supernatural I love it Supernatural Tell me, baby Supernatural</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>I (Who Have Nothing)</t>
+          <t>Quizas, Quizas, Quizas (Perhaps, Perhaps, Perhaps)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>I, I who have nothing I, I who have no one Adore you and want you so I'm just a no one With nothing to give you but, oh I love you He, he buys you diamonds Bright, sparkling diamonds But believe me, hear what I say That he can give you the world But he'll never love you the way I love you He can take you any place he wants To fancy clubs and restaurants But I can only watch you with My nose pressed up against the window pane I, I who have nothing I, I who have no one Must watch you go dancing by Wrapped in the arms of somebody else When darling, it's I Who loves you</t>
+          <t>You won't admit you love me, and so How am I ever to know? You always tell me Perhaps, perhaps, perhaps A million times I've asked you, and then I ask you over again You only tell me Quizas, quizas, quizas If you can't make your mind up We'll never get started And I don't wanna wind up Being parted, broken-hearted So if you really love me, say yes But if you don't dear, confess And please don't tell me Perhaps, perhaps, perhaps Quizas, perhaps, perhaps So if you really love me, say yes But if you don't dear, confess And please don't tell me Quizas, quizas, quizas Mmm, quizas, quizas, quizas Mmm, quizas, quizas Quizas, quizas, quizas, la la la la</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Stand by Meme</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hanh, Yo Que du bon y'en a pas encore finish Hard core phénomène Kiffe mon slang, même si c'est pas du spanish Des rimes en lingo Chiale, baby, chiale Si tu lèves ton flingue haut Moi, je fly, baby, fly Ma situation, mes proches l'a naiss-co C'est pas ce qui se fait de mieux Mais je fais avec, amigo Mon nom est DaFunkyla, ghetto superstar Déteste les mecs qui sont en super-retard Pour ma génération, préparation Freestyle en coulisse, hard core lyrics Du style on nique la Police Les groupies chialent Les larmes innondent Daomen sur les ondes C'est boule à zéro, Timberlands Ce soir c'est sexe, alcool, caviar Showcase improvisé, bédo, Sinsemilla Mon rôle dans la vie mérite un Oscar ou un Grammy Award Jerry DaFunkyla représente pour le Black Power Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yo, Yo Je mène une triste vie, on dirait de la comédie Il y a des jours où je me dis, je vais me retrouver à Hollywood comme Eddy Mais ma réalité est trop hard core Elle me rappelle que je demeure un black flavor Sur le track je donne, j'explose comme une bonbonne Je suis un MC sapé large avec un gros bonnet Au mic je flingue sec, volontaire est l'homicide Mes pratiques sont répugnantes Mes victimes ont recours au suicide Je débarque, t'embarque dans mon concept de fouleck Et dans la foulée j'en place une pour mes zoulettes Dédicace aux MC's non-tricards Ceux qui sont fiers de représenter leur tié-quar Je suis pas un mafioso, on m'appelle pas Gambino Ma vie je la vois simple, avec une femme et plein de bambino Chiale, baby, chiale DaFunkyla, street niggas Emmène des rimes en roro qui valent plus de 10 keuss' Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yo, Yo, Yo On fait tout pour pas que les guns sonnent Moi, je tope mon flow à la Ben Johnson Après chaque prestation on tire le rideau Interview en standby, you know how we do Evite de me chauffer quand je fais le maniacks Y'a des jours où je fume un max Mes potes me disent que je suis maniaque Hard core nègre, boule à zéro à la Mouss Diouf J'en place une pour ceux qui galèrent au gnouf Underground revelation On dira que mon style est dope Demain on sera encore là pour mettre ça au top Yo, Chiale, baby, chiale Sur le riddim je suis mortel Daomen c'est le style qui fout le bordel Je représente pour la génération next Mes frères et moi chauffons Babylone car hard core sont nos textes Je marche droit pour pas que ma mère chiale Je veux faire partie de ceux qui n'ont pas les mains sales Yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Hey yo Chiale, baby, chiale Pour ma génération Peut-être tes larmes vont changer la situation Please, Please DaFunkyla, black superstar Mon rôle dans la vie mérite un Oscar Yesh yesh y'all And you don't stop Daomen, hunh Daomen, hunh Please, Please Yesh yesh y'all And you don't stop Jerry DaFunkyla Nouvelle Donne Records Yesh yesh y'all And you don't stop Clark Gordon Nouvelle Donne Records Please, Please Yesh yesh y'all And you don't stop Hunh, hunh, hunh Daomen, yo</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Supernatural Thing</t>
+          <t>Balla Balla</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Your love, your love Supernatural thing Your love, your love It's a supernatural thing, oh babe Your love Your love, your love Supernatural thing Supernatural Oh, babe Supernatural Your love, your love Your love, your love Supernatural thing Supernatural Mm, babe Supernatural When we touch, give me such a funny feeling in my brain I'm so possessed by your love, sometimes I don't even know my name When we kiss, you know you make me hot I break out sometimes in little bitty green spots You give me, give me all you got Don't stop it, baby, 'cause I need a lot Your love Your love, your love Lord, it's a supernatural thing Supernatural Oh woman Supernatural Your love, your love Your love, your love Supernatural thing Supernatural Mmhmm Supernatural Say, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural Listen, interplanetary, oh, extraordinary love Interplanetary I like it Extraordinary That way you love me Supernatural Oh baby Supernatural You give me cosmic feeling, every time that I squeeze you Your love's so electrifying, so satisfying, Lord knows I ain't lyin' Your love Your love, your love Supernatural thing Supernatural Oh woman Supernatural Your love Your love, your love Lord, it's a supernatural thing Supernatural What you say? Supernatural Say, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural Listen, interplanetary, oh, extraordinary love Interplanetary I like it Extraordinary That way you love me Supernatural Oh babe Supernatural Listen, interplanetary, oh extraordinary, ooh Interplanetary I like it Extraordinary Surely I like it Supernatural Baby Supernatural One more time, doo doo do doo do, do doo do doo Do doo do doo do do doo do, uh Supernatural I like it Supernatural I like it Supernatural I like it Supernatural Ooh, interplanetary, extraordinary love Interplanetary What you say? Extraordinary Hey Supernatural I like it Supernatural You give me soul Makes my feeling grow Woman, I love it Love the way you love me Oh baby, I love Love the way you love me Your love Your love, your love Supernatural Supernatural Help me Supernatural Your love Your love, your love Oh, it's a supernatural thing Supernatural Help me Supernatural I've got it Supernatural I've got it Supernatural I've got it Supernatural Lord knows I've got it Supernatural I've got the feeling Supernatural I've got the feeling Supernatural Mm, babe Supernatural Ooh, baby Supernatural Ooh, baby Supernatural Ooh, baby Supernatural You give me Supernatural You give me things Supernatural Make my body hot Supernatural Make my body hot Supernatural Oh, I've got it Supernatural Got the feeling Supernatural Mama, I've got it Supernatural I've got the feeling Supernatural Your love Your love, your love Said it's a supernatural thing Supernatural Help me Supernatural Your love Your love, your love Oh, it's a supernatural thing Supernatural Help me Supernatural Oh Supernatural What you say? Supernatural What you say? Interplanetary, oh, extraordinary, uh! Interplanetary I like it Extraordinary Surely I like it Supernatural Baby Supernatural One more time, doo doo do doo do, do doo do doo Do doo do doo do do doo do, uh Supernatural I like it Supernatural I like it Supernatural I like it Supernatural Ooh, Interplanetary, girl, extraordinary love Interplanetary I like it Extraordinary Help me say it Supernatural I like it Supernatural Ooh, boo boo buh buh-buh-buh-buh Buh buh buh buh-buh-buh-boo Supernatural Oh baby Supernatural I love it Supernatural Tell me, baby Supernatural</t>
+          <t>What Happen! OOUU! OOUU! I Love You Benji Its Ty Balla! Balla Brothers, The Movement! We Stuck Starring In The Past That We Wished Was Our Present Not Realizing We Missing The Messages Girl Your Heart Is My Home Like Its The Residents And Honestly Its Your Beauty Your Intelligence I Never Met No One Like You I Know You Heard All That Before Thinking Of So Many Ways I Could Show You Off We Reminiscing, Look At The Stars! Trust Me 1-Day, We Gone Get Ours I Wanna Wake Up To Your Face In The Mornings YEAH! You Like The Way I Put My Fingers All Through Your Hair YEAH! Its No Tomorrow! Last Night We Made Love In The Taho A lot Of Things Change, Baby Yeah I Know I Know But How Low Can You Go!? I Wanna Dive In Your Sunken Place I Aint Talking About Pot Holes YEAH YEAH! Cause Baby Its Your Essence! OOUU! I Dont Know What It Is But You A Blessing YOU A BLESSING! I Was Thinking Loud But You Got Me Rolling YOU GOT ME ROLLING! Shorty You Enjoying The Moment OOUU! Im Just In The Moment Enjoying You! ENJOYING YOU! Now I Dont Know What To Do KNOW WHAT TO DO! But Im Glad Its Just Me You JUST ME YOU! YEAH YEAH! You A Gorgeous Wreck HMM! Even On Your Worst Days You The Best OOUU! OOUU! I Gotta Get This Off My Chest I Wanna Say Next Baby You My Beautiful Mess! YEAH YEAH! Girl You My Beautiful Mess! YEAH YEAH! HMM! My Beautiful Mess! My Love For You Is Like Going Rogue Yeah Its A High Speed Chase! Girl Its Me In The Flesh Vain From A LBJ X A ThrowAway I Really Noticed I Need To Show It Was Moral Change! Shorty I Swear I Think About You All Night Day And Every Line About You Was Written In Tye-Kay So Over The Years I Learned I Had To Stay In My Lanes UH! They Always Pocket Watching Like They Some Weirdos YEAH! She Be Screaming That's My ManMan Like Dinero YEAH! Shorty You Could Forgive But Don't Let Go Hardheaded When She Just Wanna Be Hard To Handle! I Heard They Like It When I Rap Like This She Said I Aint Know You Could Sing On A Track Like This! You Aint Know I Can Blow You Out Your Back Like This! Got Our Future Planned Out She Wanna Have My Kids Cause Baby Its Your Essence! OOUU! I Dont Know What It Is But You A Blessing YOU A BLESSING! I Was Thinking Loud But You Got Me Rolling YOU GOT ME ROLLING! Shorty You Enjoying The Moment OOUU! Im Just In The Moment Enjoying You! ENJOYING YOU! Now I Dont Know What To Do KNOW WHAT TO DO! But Im Glad Its Just Me You JUST ME YOU! YEAH YEAH! You A Gorgeous Wreck HMM! Even On Your Worst Days You The Best OOUU! OOUU! I Gotta Get This Off My Chest I Wanna Say Next Baby You My Beautiful Mess! YEAH YEAH! Girl You My Beautiful Mess! YEAH YEAH! HMM! My Beautiful Mess!</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Quizas, Quizas, Quizas (Perhaps, Perhaps, Perhaps)</t>
+          <t>We’re Gonna Groove</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>You won't admit you love me, and so How am I ever to know? You always tell me Perhaps, perhaps, perhaps A million times I've asked you, and then I ask you over again You only tell me Quizas, quizas, quizas If you can't make your mind up We'll never get started And I don't wanna wind up Being parted, broken-hearted So if you really love me, say yes But if you don't dear, confess And please don't tell me Perhaps, perhaps, perhaps Quizas, perhaps, perhaps So if you really love me, say yes But if you don't dear, confess And please don't tell me Quizas, quizas, quizas Mmm, quizas, quizas, quizas Mmm, quizas, quizas Quizas, quizas, quizas, la la la la</t>
+          <t>...written a little tune, he thinks it has possibilities if it's properly arranged I'm to help you arrange it Well he said thathe told you that I was the greatest arranger in America and I should give you a few lessons Oh well, my friend, he's right, there's only one catch I've given up arranging I'm through dressing up silly little tunes for girls shows and beer halls I'm gonna write some real music for a change Momma call me selfish It's a good thing I be handsome Quick to call the Uber, getting moody, throw a tantrum Summrtime maneuvers, doing stupid shit in sandals Summrtime illusions, doing shit to get me cancelled Deep breath, gasp Bitch, don't make me amped up If money grow on trees, well it do and I have some Count it by the twos, playing blues and some jazz songs Desert haikus, I grew outta sandstorms I don't feel the pressure, but the pressure tryna catcall Deception in they ethic, I'm an optimist, I transform Seven steps of severance between me and seven fast cars Electric or unleaded, either way it cost a leg and arm Shh, vroom Buying things for women, tried to tell that girl to wait it out Now I'm finally winning, stacking chips inside my bank account Now I be pertinent, now they love to go and chant loud Now I'm finally trending, make a million off of rap songs Ha ha ha But like off the record, ion really like to brag about it Humble, humble, humble, watch it, watch it, they all mad about it Watch the men who crumble They all fumbled baguette after baguette Baggage undercover Me, I love to live and laugh about it Blaka, Blaka What the fuck you doin' standin' there Daily meditation, medicated, with a manicure Pause our conversation boy, I'm late to blast up outta here As-salmu alaykum Let her pay the check and hope it clear Feel the vibe, feel the wind Feeling free to pretend Feel alive, I realize We all die in the end Criticized, imatized Really, I need a friend Been on trial, in denial Like my mind's a prison Simmer down, simmer down The show now will begin Running 'round my hometown Feeling wild, feeling mint Tell myself, I'll be fine if I just dial in Who said life was a vibe? It was me bitch, I did Ohh, shit Alright, alright, look The three of us gonna have to learn to get along, bro, if we're gonna do this shit Brrt brrt, Storybook life Okay look, can y'allcan y'all just give me one second Ay, shut the fuck up If we fucking work together shut the fuck up, bitch we ca Hey, I got something to say Alright, alright that's fine, don't listen to me Brrt Ahhhhh If a picture worth a thousand word Then bitch I'm worth a hundred flicks My partner call me Benjamin Ya partner call ya counterfeit 5 blunts on a Tuesday Watch a movie that I'm acting in I got two accountants, dawg my tax's 32 I been around the world, my mama worried imma lose this shit Started drinking bourbon to subdue the stoop and soothe the kid I usually never do this, they don't look like you though usually It's cool girl, I'm the smoothest dude that's grooving, come and groove with me You say what? Welcome, welcome, welcome, welcome... Welcome to the storybook life</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>Alte Liebe rostet nie</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>PART 1 PARØSE P-A-RØSE, Clap, Dikka, das ist Gangshit zwei. Habe die Grillz in der Fresse, doch licke die Pussys im Bett nach dem Candlelight. UH! Ich geb ein Fick auf dein Werdegang. Dikka die Clit deiner dreckigen Tochter ist breiter als ich nach nem Doublecup Lean oder meinem so riesigen Pferdeschwanz. Jeder Rapper auf der Welt hat es doch sicherlich erkannt, Jede Nutte die mich dissen will Hat sich an mir verbrannt. Viele Leute heutzutage sind nur Gimpel oder Punks, Deshalb fick ich sie mit Mucke, diese Ficker haben Angst. YTL fickt den Müttern fett in den Arsch, Mark my words you faggot Bald gehen wir mit Tracks in die Charts. Jeder der heute rappt, möchte nur Geld und mit Fame dann auch irgendwann G sein. JA! Schwören auf Gott, dass so keiner ist, also was eigenes, aber sie tragen dann Levis. Y-T-L, P-A-RØSE, Dikka so viele Shows, Keep the realness for street of coke, Fuck in the backyard we need some hoes. AY! Ich bete zu Gott, bitte schick mir den Leancup auf Erden. SKURRR Sonst werde ich pissig und werde auf Rapper mit Viehkacke werfen. Lebe mein Leben mit Sprite Vibes! UH! Lean in den Cup und das zeitgleich! UH! Tanke den Stoff sowie Bleifrei! UH! Dago und Fokus die Einheit! UH! BRIDGE Dago und Fokus sind Ficker, Together we sippin the Sizzurp. Fuck all these gangs in the city Dago und Fokus sind Killer. x2 HOOK Renn, Renn! Beweg dich du Fotze und leg dich nicht an mit der Gang-GANG! Kipp noch was nach, denn wir brauchen das Purple zum Drank! DRANK! Es wird langsam Zeit, dass die Masse uns feiert und kennt! KENNT! Leg dich nicht an mit der GANG! FOTZE! X2 PART 2 NEELIX Louis V slingbag und Roli am glänzen Neelix und Parøse 2 junge Legenden Gebe kein fick lila Substanz im Cup Sip weiter mein Becher bis alles hier klappt 500k in der goyard Die Krone ist mein und ich verschütt das lean Ein sip für die Legenden Und noch einen sip für die Gs We pull up das ist gangshit Mit ner Cash cannon voll benjis X6 oder Benz Jeep Junge Fick nich mit der Family Fick nich mit dem squad Nacken brechen bei dem drop Meine scheisse is on top Und Dein letztes Release n Flop Neelix Parøse ficken seit gangshit das Game wie Marc Anthony jlo Fuck it man ich bin im beastmode Und gebe meine Liebe nur der Street hoe Pass auf den jetzt komm wir beiden Flowmonster doch hab mehr Technik als die meisten Sitz in meim Zimmer alleine Check meine Ap Geh nie wieder pleite Geh nie wieder pleite Noch immer fick ich Adriana Lima Parøse brudi komm und pass mir die cohiba Nur jetzt hab ich auch noch Geld auf der visa Und groupie Fan Girls wie ein Fußballspieler Volume auf 100 im Beamer X6 bitch viva la vida Kiff kiff nur pur spliff sativa Fokus dmg nh Andre liga Aye Ketten um Hals und Gold um die Zähne Halt die die Waffe gegen deine Schlefe Voll Leaned out kommen wir in die scene Immer chillig nehmen dir trotzdem wenn du bellst deine ehre BRIDGE NEELIX PARØSE Dago und Fokus sind Ficker, Together we sippin the Sizzurp. Fuck all these gangs in the city Dago und Fokus sind Killer. x2 HOOK NEELIXPARØSE Renn, Renn! Beweg dich du Fotze und leg dich nicht an mit der Gang-GANG! Kipp mir noch was nach, denn wir brauchen das Purple zum Drank! DRANK! Es wird langsam Zeit, dass die Masse uns feiert und kennt! KENNT! Leg dich nicht an mit der GANG! FOTZE! X2</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Balla Balla</t>
+          <t>A Man Without a Dream</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>What Happen! OOUU! OOUU! I Love You Benji Its Ty Balla! Balla Brothers, The Movement! We Stuck Starring In The Past That We Wished Was Our Present Not Realizing We Missing The Messages Girl Your Heart Is My Home Like Its The Residents And Honestly Its Your Beauty Your Intelligence I Never Met No One Like You I Know You Heard All That Before Thinking Of So Many Ways I Could Show You Off We Reminiscing, Look At The Stars! Trust Me 1-Day, We Gone Get Ours I Wanna Wake Up To Your Face In The Mornings YEAH! You Like The Way I Put My Fingers All Through Your Hair YEAH! Its No Tomorrow! Last Night We Made Love In The Taho A lot Of Things Change, Baby Yeah I Know I Know But How Low Can You Go!? I Wanna Dive In Your Sunken Place I Aint Talking About Pot Holes YEAH YEAH! Cause Baby Its Your Essence! OOUU! I Dont Know What It Is But You A Blessing YOU A BLESSING! I Was Thinking Loud But You Got Me Rolling YOU GOT ME ROLLING! Shorty You Enjoying The Moment OOUU! Im Just In The Moment Enjoying You! ENJOYING YOU! Now I Dont Know What To Do KNOW WHAT TO DO! But Im Glad Its Just Me You JUST ME YOU! YEAH YEAH! You A Gorgeous Wreck HMM! Even On Your Worst Days You The Best OOUU! OOUU! I Gotta Get This Off My Chest I Wanna Say Next Baby You My Beautiful Mess! YEAH YEAH! Girl You My Beautiful Mess! YEAH YEAH! HMM! My Beautiful Mess! My Love For You Is Like Going Rogue Yeah Its A High Speed Chase! Girl Its Me In The Flesh Vain From A LBJ X A ThrowAway I Really Noticed I Need To Show It Was Moral Change! Shorty I Swear I Think About You All Night Day And Every Line About You Was Written In Tye-Kay So Over The Years I Learned I Had To Stay In My Lanes UH! They Always Pocket Watching Like They Some Weirdos YEAH! She Be Screaming That's My ManMan Like Dinero YEAH! Shorty You Could Forgive But Don't Let Go Hardheaded When She Just Wanna Be Hard To Handle! I Heard They Like It When I Rap Like This She Said I Aint Know You Could Sing On A Track Like This! You Aint Know I Can Blow You Out Your Back Like This! Got Our Future Planned Out She Wanna Have My Kids Cause Baby Its Your Essence! OOUU! I Dont Know What It Is But You A Blessing YOU A BLESSING! I Was Thinking Loud But You Got Me Rolling YOU GOT ME ROLLING! Shorty You Enjoying The Moment OOUU! Im Just In The Moment Enjoying You! ENJOYING YOU! Now I Dont Know What To Do KNOW WHAT TO DO! But Im Glad Its Just Me You JUST ME YOU! YEAH YEAH! You A Gorgeous Wreck HMM! Even On Your Worst Days You The Best OOUU! OOUU! I Gotta Get This Off My Chest I Wanna Say Next Baby You My Beautiful Mess! YEAH YEAH! Girl You My Beautiful Mess! YEAH YEAH! HMM! My Beautiful Mess!</t>
+          <t>I want the fame, I want the money, I want the love, I want it all... She got dreams of a million I got dreams wit no ceilings The sky ain't the limit imma need about a billion Bitch I gotta touch money like, Oh, What a feelin' Union Money Gang these niggas Know we finna make a killin' She got dreams of a million I got dreams wit no ceilings The sky ain't the limit imma need about a billion Bitch I gotta touch money like, Oh, What a feelin' Union Money Gang these bitches Know we finna make a killin' She my bottom bitch, lady and a tramp She suck a couple dicks, she get my latest stamp She do what daddy say, she never make demands She just tryna feed her seed, she gon take the chance For her daughter she gon make the choice She never fuck for free, the paper make her moist I tell the bitch to shoot a bundle just to keep her poise Daddy do the talkin for you baby save your voice I keep it simple wit the pimpin I'm like a god to her, say whatever and she listened She believe in me, say that money's her religion Cuz we marathon running and she down to go the distance She a rider... I know it's wrong but we past that Still chasing after money we ain't grasp yet Yea that's my bitch, you can smash that Don't be surprised if she ask where the cash at You are not fuckin wit a loser, ball hard like an Indiana Hoosier Eric Gordon, what I make make it's not important But sooner, than later getting paper no bullshit Like Derrick Rose or da bul Boozer.. ya feel me Work harder than a Mexican, but spend like a white man I'm scheming like a African, make plays like a tight end Got my shorty at my right, and she got dreams of a million I tell her I need them Benjamins to stack up pass the ceiling What's a dream without action, couple niggas wit me packin They tell me to stick to rappin, but show up like nigga what's happening And you ain't fucking wit no ordinary nigga, that want ordinary figures Don't want ordinary bitches, extraordinary riches Lowkey they only see me if you takin pictures I gave that wedding ring to paper it could never fit ya And if you can't fuck wit that then imma fuckin miss ya Ya coming second if I'm fuckin wit ya 1</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>We’re Gonna Groove</t>
+          <t>Amor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>...written a little tune, he thinks it has possibilities if it's properly arranged I'm to help you arrange it Well he said thathe told you that I was the greatest arranger in America and I should give you a few lessons Oh well, my friend, he's right, there's only one catch I've given up arranging I'm through dressing up silly little tunes for girls shows and beer halls I'm gonna write some real music for a change Momma call me selfish It's a good thing I be handsome Quick to call the Uber, getting moody, throw a tantrum Summrtime maneuvers, doing stupid shit in sandals Summrtime illusions, doing shit to get me cancelled Deep breath, gasp Bitch, don't make me amped up If money grow on trees, well it do and I have some Count it by the twos, playing blues and some jazz songs Desert haikus, I grew outta sandstorms I don't feel the pressure, but the pressure tryna catcall Deception in they ethic, I'm an optimist, I transform Seven steps of severance between me and seven fast cars Electric or unleaded, either way it cost a leg and arm Shh, vroom Buying things for women, tried to tell that girl to wait it out Now I'm finally winning, stacking chips inside my bank account Now I be pertinent, now they love to go and chant loud Now I'm finally trending, make a million off of rap songs Ha ha ha But like off the record, ion really like to brag about it Humble, humble, humble, watch it, watch it, they all mad about it Watch the men who crumble They all fumbled baguette after baguette Baggage undercover Me, I love to live and laugh about it Blaka, Blaka What the fuck you doin' standin' there Daily meditation, medicated, with a manicure Pause our conversation boy, I'm late to blast up outta here As-salmu alaykum Let her pay the check and hope it clear Feel the vibe, feel the wind Feeling free to pretend Feel alive, I realize We all die in the end Criticized, imatized Really, I need a friend Been on trial, in denial Like my mind's a prison Simmer down, simmer down The show now will begin Running 'round my hometown Feeling wild, feeling mint Tell myself, I'll be fine if I just dial in Who said life was a vibe? It was me bitch, I did Ohh, shit Alright, alright, look The three of us gonna have to learn to get along, bro, if we're gonna do this shit Brrt brrt, Storybook life Okay look, can y'allcan y'all just give me one second Ay, shut the fuck up If we fucking work together shut the fuck up, bitch we ca Hey, I got something to say Alright, alright that's fine, don't listen to me Brrt Ahhhhh If a picture worth a thousand word Then bitch I'm worth a hundred flicks My partner call me Benjamin Ya partner call ya counterfeit 5 blunts on a Tuesday Watch a movie that I'm acting in I got two accountants, dawg my tax's 32 I been around the world, my mama worried imma lose this shit Started drinking bourbon to subdue the stoop and soothe the kid I usually never do this, they don't look like you though usually It's cool girl, I'm the smoothest dude that's grooving, come and groove with me You say what? Welcome, welcome, welcome, welcome... Welcome to the storybook life</t>
+          <t>Amor, amor, my love This word so sweet That I repeat Means I adore you Amor, amor, my love Would you deny This heart that I Have placed before you? I can't find another word with meaning so clear My lips try to whisper sweeter things in your ear But somehow or other nothing sounds quite so dear As this soft caressing word I know Amor, amor, my love When you're away There is no day And I know that nights are lonely Amor, amor, my love Make life divine Say you'll be mine And love me only Amor, amor, my love When you're away There is no day And I know that nights are lonely Amor, amor, my love Make life divine Say you'll be mine And love me only Amor, amor, amor Amor</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Alte Liebe rostet nie</t>
+          <t>A Star in the Ghetto</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PART 1 PARØSE P-A-RØSE, Clap, Dikka, das ist Gangshit zwei. Habe die Grillz in der Fresse, doch licke die Pussys im Bett nach dem Candlelight. UH! Ich geb ein Fick auf dein Werdegang. Dikka die Clit deiner dreckigen Tochter ist breiter als ich nach nem Doublecup Lean oder meinem so riesigen Pferdeschwanz. Jeder Rapper auf der Welt hat es doch sicherlich erkannt, Jede Nutte die mich dissen will Hat sich an mir verbrannt. Viele Leute heutzutage sind nur Gimpel oder Punks, Deshalb fick ich sie mit Mucke, diese Ficker haben Angst. YTL fickt den Müttern fett in den Arsch, Mark my words you faggot Bald gehen wir mit Tracks in die Charts. Jeder der heute rappt, möchte nur Geld und mit Fame dann auch irgendwann G sein. JA! Schwören auf Gott, dass so keiner ist, also was eigenes, aber sie tragen dann Levis. Y-T-L, P-A-RØSE, Dikka so viele Shows, Keep the realness for street of coke, Fuck in the backyard we need some hoes. AY! Ich bete zu Gott, bitte schick mir den Leancup auf Erden. SKURRR Sonst werde ich pissig und werde auf Rapper mit Viehkacke werfen. Lebe mein Leben mit Sprite Vibes! UH! Lean in den Cup und das zeitgleich! UH! Tanke den Stoff sowie Bleifrei! UH! Dago und Fokus die Einheit! UH! BRIDGE Dago und Fokus sind Ficker, Together we sippin the Sizzurp. Fuck all these gangs in the city Dago und Fokus sind Killer. x2 HOOK Renn, Renn! Beweg dich du Fotze und leg dich nicht an mit der Gang-GANG! Kipp noch was nach, denn wir brauchen das Purple zum Drank! DRANK! Es wird langsam Zeit, dass die Masse uns feiert und kennt! KENNT! Leg dich nicht an mit der GANG! FOTZE! X2 PART 2 NEELIX Louis V slingbag und Roli am glänzen Neelix und Parøse 2 junge Legenden Gebe kein fick lila Substanz im Cup Sip weiter mein Becher bis alles hier klappt 500k in der goyard Die Krone ist mein und ich verschütt das lean Ein sip für die Legenden Und noch einen sip für die Gs We pull up das ist gangshit Mit ner Cash cannon voll benjis X6 oder Benz Jeep Junge Fick nich mit der Family Fick nich mit dem squad Nacken brechen bei dem drop Meine scheisse is on top Und Dein letztes Release n Flop Neelix Parøse ficken seit gangshit das Game wie Marc Anthony jlo Fuck it man ich bin im beastmode Und gebe meine Liebe nur der Street hoe Pass auf den jetzt komm wir beiden Flowmonster doch hab mehr Technik als die meisten Sitz in meim Zimmer alleine Check meine Ap Geh nie wieder pleite Geh nie wieder pleite Noch immer fick ich Adriana Lima Parøse brudi komm und pass mir die cohiba Nur jetzt hab ich auch noch Geld auf der visa Und groupie Fan Girls wie ein Fußballspieler Volume auf 100 im Beamer X6 bitch viva la vida Kiff kiff nur pur spliff sativa Fokus dmg nh Andre liga Aye Ketten um Hals und Gold um die Zähne Halt die die Waffe gegen deine Schlefe Voll Leaned out kommen wir in die scene Immer chillig nehmen dir trotzdem wenn du bellst deine ehre BRIDGE NEELIX PARØSE Dago und Fokus sind Ficker, Together we sippin the Sizzurp. Fuck all these gangs in the city Dago und Fokus sind Killer. x2 HOOK NEELIXPARØSE Renn, Renn! Beweg dich du Fotze und leg dich nicht an mit der Gang-GANG! Kipp mir noch was nach, denn wir brauchen das Purple zum Drank! DRANK! Es wird langsam Zeit, dass die Masse uns feiert und kennt! KENNT! Leg dich nicht an mit der GANG! FOTZE! X2</t>
+          <t>Broadway, you never shine a light on me I may never live to see my name in lights on a Carnegie Hall marquee Oh, but that's alright Lord, that's alright with me I'm as happy, happy as a man can be Folks in New York may never know my name I may not win that music Hall of Fame Music Hall of Fame Gonna keep on singing my song just the same If I don't make it there, I won't be ashamed 'Cause I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...got to say, oh no Oh no Hollywood, Hollywood Hollywood will never be my style But I know I'm good, oh yeah, not just alright City lights, city lights City lights may never shine for me I may never make it to the top, no, win myself a Grammy Folks in New York may never know my name I may not win that music Hall of Fame Music Hall of Fame But I'm gonna keep on singing my song, whew baby, just the same If I never make it there I won't feel ashamed 'Cause I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, sugar, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...what they got to say, oh no Oh no Think I'm gonna make it funky Feel like getting down, y'all Think I wanna make it funky Feel like getting down, yeah Blow your horn Yeah, it's alright Well, go blow your horn They say it's alright Feel the music Feel the music I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...I don't care what they got to say, ah nah I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, sugar, that'll be okay Keep on shining I don't care what the folks in Hollywood got to say I'm a star in the ghetto I don't care anyway, ah no I'm star I'm a star in the ghetto and I'm shining, and I'm shining I'm a star I'm a star in the ghetto Yes, I am, yeah, yeah Keep on shining I'm a star in the ghetto If I never make Broadway, that'll be okay If I never make it to Broadway... Keep on shining, keep on shining...said that will be okay People in New York City, ah, they don't bother me... Keep on shining, keep on shining...not at all, not at all I'm gonna make it the top Keep on shining, keep on shining Among the distant stars, alright Keep on shining, keep on shining Sugar, it's alright I'm a star in the ghetto Keep on shining, keep on shining I'm a star in the ghetto</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A Man Without a Dream</t>
+          <t>At Last</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>I want the fame, I want the money, I want the love, I want it all... She got dreams of a million I got dreams wit no ceilings The sky ain't the limit imma need about a billion Bitch I gotta touch money like, Oh, What a feelin' Union Money Gang these niggas Know we finna make a killin' She got dreams of a million I got dreams wit no ceilings The sky ain't the limit imma need about a billion Bitch I gotta touch money like, Oh, What a feelin' Union Money Gang these bitches Know we finna make a killin' She my bottom bitch, lady and a tramp She suck a couple dicks, she get my latest stamp She do what daddy say, she never make demands She just tryna feed her seed, she gon take the chance For her daughter she gon make the choice She never fuck for free, the paper make her moist I tell the bitch to shoot a bundle just to keep her poise Daddy do the talkin for you baby save your voice I keep it simple wit the pimpin I'm like a god to her, say whatever and she listened She believe in me, say that money's her religion Cuz we marathon running and she down to go the distance She a rider... I know it's wrong but we past that Still chasing after money we ain't grasp yet Yea that's my bitch, you can smash that Don't be surprised if she ask where the cash at You are not fuckin wit a loser, ball hard like an Indiana Hoosier Eric Gordon, what I make make it's not important But sooner, than later getting paper no bullshit Like Derrick Rose or da bul Boozer.. ya feel me Work harder than a Mexican, but spend like a white man I'm scheming like a African, make plays like a tight end Got my shorty at my right, and she got dreams of a million I tell her I need them Benjamins to stack up pass the ceiling What's a dream without action, couple niggas wit me packin They tell me to stick to rappin, but show up like nigga what's happening And you ain't fucking wit no ordinary nigga, that want ordinary figures Don't want ordinary bitches, extraordinary riches Lowkey they only see me if you takin pictures I gave that wedding ring to paper it could never fit ya And if you can't fuck wit that then imma fuckin miss ya Ya coming second if I'm fuckin wit ya 1</t>
+          <t>At last my love has come along My lonely days are over And life is like a song Mhm, mhm At last the skies above are blue My heart was wrapped in clover The night that I looked at you I found a dream that I can speak to A dream that I can call my own I found a thrill to press my cheek to A thrill I've never known Mhm And you smiled, you smiled, you smiled, you smiled Mhm I said then the spell was cast And here we are, here we are in our heaven For you are mine at last Mhm For you are mine, baby For you are mine at last</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amor</t>
+          <t>Beautiful Girls</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Amor, amor, my love This word so sweet That I repeat Means I adore you Amor, amor, my love Would you deny This heart that I Have placed before you? I can't find another word with meaning so clear My lips try to whisper sweeter things in your ear But somehow or other nothing sounds quite so dear As this soft caressing word I know Amor, amor, my love When you're away There is no day And I know that nights are lonely Amor, amor, my love Make life divine Say you'll be mine And love me only Amor, amor, my love When you're away There is no day And I know that nights are lonely Amor, amor, my love Make life divine Say you'll be mine And love me only Amor, amor, amor Amor</t>
+          <t>Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Heb alles om me heen gefilterd, loop nu bijna alleen Album af, maar ga pas vieren als we landen op 1 Mensen houden veel van liegen, ik kijk dwars door ze heen Heb je overal problemen, ben je zelf het probleem, huh Normen, waarden en principes, blijf niet liggen als ik val, ookal hebben ze niets liever Een lach op mijn gezicht, maar ik heb ook verdriet in me Wil gewoon me team zien winnen, ik hoef niets minder Liet muziek veel te lang links liggen, maar ben veranderd Lag te slapen in de klas, wist van mezelf dat ik anders was Had een plan, maar volgens mij was dat plan te zwak Nu zijn ze verbaasd, ik zeg ze, Wat had je dan verwacht? Ben nog steeds, op dreef, ben al zo lang bezig zit te denken aan stoppen soms Na regen komt zon, maar zag toch veel dagen zonder zon Me hele team is fam, ik hou die pap liever onder ons, Ramzi Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Ik stap in de booth met Yeezy's, ik voel me Kanye Op veld net als Mane, die mannen hebben niks op me Dit is 34 euro per gram, daarna stunten met de winst, kleine bradda, ik ga iets shoppen Ik zit effe in de stress, maar geen stress, dit is niets nieuws, ik doe dit al te lang Je bitch deed al te hype toen dat ze hoorde dat ik kwam Van hoodfame naar shows gaan doen door heel het land Zoveel zeiden dat ik niet kon, afgeleid door beautiful girls net Sean Kingston Bradda, kijk, ik win dom, sinds ik in de scene kom ben ik geen Freddie Konings meer, maar Winston Bro, ik ben een pakje Marlboro, jullie zijn Winston Die chick weet ik bepaal wat er gebeurd, noem me Kim Yung Real gebleven van begin tot het einde Van de hoek naar een hook, maar refreinen Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A Star in the Ghetto</t>
+          <t>Beautiful Girls</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Broadway, you never shine a light on me I may never live to see my name in lights on a Carnegie Hall marquee Oh, but that's alright Lord, that's alright with me I'm as happy, happy as a man can be Folks in New York may never know my name I may not win that music Hall of Fame Music Hall of Fame Gonna keep on singing my song just the same If I don't make it there, I won't be ashamed 'Cause I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...got to say, oh no Oh no Hollywood, Hollywood Hollywood will never be my style But I know I'm good, oh yeah, not just alright City lights, city lights City lights may never shine for me I may never make it to the top, no, win myself a Grammy Folks in New York may never know my name I may not win that music Hall of Fame Music Hall of Fame But I'm gonna keep on singing my song, whew baby, just the same If I never make it there I won't feel ashamed 'Cause I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, sugar, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...what they got to say, oh no Oh no Think I'm gonna make it funky Feel like getting down, y'all Think I wanna make it funky Feel like getting down, yeah Blow your horn Yeah, it's alright Well, go blow your horn They say it's alright Feel the music Feel the music I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, that'll be okay Keep on shining I don't care what the folks up there in New York... I'm a star in the ghetto...I don't care what they got to say, ah nah I'm a star in the ghetto I'm a star in the ghetto If I never make Broadway, sugar, that'll be okay Keep on shining I don't care what the folks in Hollywood got to say I'm a star in the ghetto I don't care anyway, ah no I'm star I'm a star in the ghetto and I'm shining, and I'm shining I'm a star I'm a star in the ghetto Yes, I am, yeah, yeah Keep on shining I'm a star in the ghetto If I never make Broadway, that'll be okay If I never make it to Broadway... Keep on shining, keep on shining...said that will be okay People in New York City, ah, they don't bother me... Keep on shining, keep on shining...not at all, not at all I'm gonna make it the top Keep on shining, keep on shining Among the distant stars, alright Keep on shining, keep on shining Sugar, it's alright I'm a star in the ghetto Keep on shining, keep on shining I'm a star in the ghetto</t>
+          <t>Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Heb alles om me heen gefilterd, loop nu bijna alleen Album af, maar ga pas vieren als we landen op 1 Mensen houden veel van liegen, ik kijk dwars door ze heen Heb je overal problemen, ben je zelf het probleem, huh Normen, waarden en principes, blijf niet liggen als ik val, ookal hebben ze niets liever Een lach op mijn gezicht, maar ik heb ook verdriet in me Wil gewoon me team zien winnen, ik hoef niets minder Liet muziek veel te lang links liggen, maar ben veranderd Lag te slapen in de klas, wist van mezelf dat ik anders was Had een plan, maar volgens mij was dat plan te zwak Nu zijn ze verbaasd, ik zeg ze, Wat had je dan verwacht? Ben nog steeds, op dreef, ben al zo lang bezig zit te denken aan stoppen soms Na regen komt zon, maar zag toch veel dagen zonder zon Me hele team is fam, ik hou die pap liever onder ons, Ramzi Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Ik stap in de booth met Yeezy's, ik voel me Kanye Op veld net als Mane, die mannen hebben niks op me Dit is 34 euro per gram, daarna stunten met de winst, kleine bradda, ik ga iets shoppen Ik zit effe in de stress, maar geen stress, dit is niets nieuws, ik doe dit al te lang Je bitch deed al te hype toen dat ze hoorde dat ik kwam Van hoodfame naar shows gaan doen door heel het land Zoveel zeiden dat ik niet kon, afgeleid door beautiful girls net Sean Kingston Bradda, kijk, ik win dom, sinds ik in de scene kom ben ik geen Freddie Konings meer, maar Winston Bro, ik ben een pakje Marlboro, jullie zijn Winston Die chick weet ik bepaal wat er gebeurd, noem me Kim Yung Real gebleven van begin tot het einde Van de hoek naar een hook, maar refreinen Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>At Last</t>
+          <t>Because of You</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>At last my love has come along My lonely days are over And life is like a song Mhm, mhm At last the skies above are blue My heart was wrapped in clover The night that I looked at you I found a dream that I can speak to A dream that I can call my own I found a thrill to press my cheek to A thrill I've never known Mhm And you smiled, you smiled, you smiled, you smiled Mhm I said then the spell was cast And here we are, here we are in our heaven For you are mine at last Mhm For you are mine, baby For you are mine at last</t>
+          <t>I will not make the same mistakes that you did I will not let myself Cause my heart so much misery I will not break the way you did You fell so hard I've learned the hard way To never let it get that far Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I find it hard to trust not only me, but everyone around me Because of you I am afraid I lose my way And it's not too long before you point it out I cannot cry Because I know that's weakness in your eyes I'm forced to fake A smile, a laugh everyday of my life My heart can't possibly break When it wasn't even whole to start with Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I find it hard to trust not only me, but everyone around me Because of you I am afraid I watched you die I heard you cry every night in your sleep I was so young You should have known better than to lean on me You never thought of anyone else You just saw your pain And now I cry in the middle of the night For the same damn thing Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I try my hardest just to forget everything Because of you I don't know how to let anyone else in Because of you I'm ashamed of my life because it's empty Because of you I am afraid Because of you</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Beautiful Girls</t>
+          <t>Bésame Mucho</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Heb alles om me heen gefilterd, loop nu bijna alleen Album af, maar ga pas vieren als we landen op 1 Mensen houden veel van liegen, ik kijk dwars door ze heen Heb je overal problemen, ben je zelf het probleem, huh Normen, waarden en principes, blijf niet liggen als ik val, ookal hebben ze niets liever Een lach op mijn gezicht, maar ik heb ook verdriet in me Wil gewoon me team zien winnen, ik hoef niets minder Liet muziek veel te lang links liggen, maar ben veranderd Lag te slapen in de klas, wist van mezelf dat ik anders was Had een plan, maar volgens mij was dat plan te zwak Nu zijn ze verbaasd, ik zeg ze, Wat had je dan verwacht? Ben nog steeds, op dreef, ben al zo lang bezig zit te denken aan stoppen soms Na regen komt zon, maar zag toch veel dagen zonder zon Me hele team is fam, ik hou die pap liever onder ons, Ramzi Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Ik stap in de booth met Yeezy's, ik voel me Kanye Op veld net als Mane, die mannen hebben niks op me Dit is 34 euro per gram, daarna stunten met de winst, kleine bradda, ik ga iets shoppen Ik zit effe in de stress, maar geen stress, dit is niets nieuws, ik doe dit al te lang Je bitch deed al te hype toen dat ze hoorde dat ik kwam Van hoodfame naar shows gaan doen door heel het land Zoveel zeiden dat ik niet kon, afgeleid door beautiful girls net Sean Kingston Bradda, kijk, ik win dom, sinds ik in de scene kom ben ik geen Freddie Konings meer, maar Winston Bro, ik ben een pakje Marlboro, jullie zijn Winston Die chick weet ik bepaal wat er gebeurd, noem me Kim Yung Real gebleven van begin tot het einde Van de hoek naar een hook, maar refreinen Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen</t>
+          <t>Bésame, bésame mucho Each time I cling to your kiss, I hear music divine Oh bésame, bésame mucho Come on and hold me my darling and make all my dreams come true This joy is something new My arms enfolding you Never knew this thrill before Whoever thought I'd be Holding you close to me Whispering It's you I adore Mmm, dearest one, if you should leave me Each little dream would take wings and my life would be through Oh bésame, bésame mucho Love me forever and make all my dreams come true This joy is something new My arms enfolding you Never knew this thrill before, mmm Whoever thought I'd be Holding you close to me Whispering It's you I adore Ahh, but dearest one, if you should leave me Each little dream would take wings and my life would be through Oh bésame, aww bésame mucho Come on and love me forever and make all my dreams come true Baby, baby Come on and love me forever and make all my dreams come true Darling, com on Come on and love me forever and make all my dreams come true</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Beautiful Girls</t>
+          <t>Brace Yourself</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Heb alles om me heen gefilterd, loop nu bijna alleen Album af, maar ga pas vieren als we landen op 1 Mensen houden veel van liegen, ik kijk dwars door ze heen Heb je overal problemen, ben je zelf het probleem, huh Normen, waarden en principes, blijf niet liggen als ik val, ookal hebben ze niets liever Een lach op mijn gezicht, maar ik heb ook verdriet in me Wil gewoon me team zien winnen, ik hoef niets minder Liet muziek veel te lang links liggen, maar ben veranderd Lag te slapen in de klas, wist van mezelf dat ik anders was Had een plan, maar volgens mij was dat plan te zwak Nu zijn ze verbaasd, ik zeg ze, Wat had je dan verwacht? Ben nog steeds, op dreef, ben al zo lang bezig zit te denken aan stoppen soms Na regen komt zon, maar zag toch veel dagen zonder zon Me hele team is fam, ik hou die pap liever onder ons, Ramzi Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen Ik stap in de booth met Yeezy's, ik voel me Kanye Op veld net als Mane, die mannen hebben niks op me Dit is 34 euro per gram, daarna stunten met de winst, kleine bradda, ik ga iets shoppen Ik zit effe in de stress, maar geen stress, dit is niets nieuws, ik doe dit al te lang Je bitch deed al te hype toen dat ze hoorde dat ik kwam Van hoodfame naar shows gaan doen door heel het land Zoveel zeiden dat ik niet kon, afgeleid door beautiful girls net Sean Kingston Bradda, kijk, ik win dom, sinds ik in de scene kom ben ik geen Freddie Konings meer, maar Winston Bro, ik ben een pakje Marlboro, jullie zijn Winston Die chick weet ik bepaal wat er gebeurd, noem me Kim Yung Real gebleven van begin tot het einde Van de hoek naar een hook, maar refreinen Uh Hoofd heet, de blok weet dat ik de realest uit de scene ben, bradda, ik moet niets zeggen uhuh Stoot 2, ben oké, ik zie mannen veel praten in hun track's, maar kunnen niet rappen cap Geen stress, straight facts, als ik het spit op een track, bro, je moet niet eens twijfelen shh Gladde jongens gooien een optie en dan glijden we Die chick heeft veel te veel klasse, ik ga spijbelen</t>
+          <t>Mmm, but I had to come say something to you, girl Now when I saw you standing over there in the corner, yeah I told myself, good God, she's nice and I want her So here I am baby, on the spot You'll need an army to make me stop So pay attention to this You're gonna get kissed You better brace yourself Just snap your finger and I'll start into hopping, yeah You got my mind going wild and there's no stopping So here I am baby, please don't run I know that we could have lots of fun So pay attention to this You're gonna get kissed You'd better brace yourself You make me feel like I've never felt before, whoa I feel like I could lift a hundred tons or more I'd go to pieces, baby, if you should reject me And I know I'd die if I thought you'd forget me I don't know what's come over me I only know that it's heavenly So pay attention to this You're gonna get kissed You'd better brace yourself Here I come baby With all that's love Here I come, baby, with lips that's gonna kiss you Whoa, you better brace yourself</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Beautiful Girls (A Cappella)</t>
+          <t>Come Closer to Me</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>51 Duwap Kaine - Fuck Court Rod Wave - sorry 4 the wait Sarah Close - Liars Like You 52 Alison Wonderland - Something Real Aly AJ - Like Whoa AA Version Black Birdie - RATED R Juicy J Duke Deuce - Step Back 53 Bandalos Chinos - Cállame Bizzy Banks - Don't Know How to Act Carlos Vives - Babel ft. Fito Páez CHAI - SURPRISE Cloud Wan - Wing of Desire Elcamino - Better Than Love ft. Curreny Hovvdy - Hide Jay Critch - Sade ft. Mally Bandz Kany García Alejandro Sanz - Muero L-Gante - Engafado Lady Gaga - Hold My Hand Lil Kari - Who For Me Marlon Williams - My Boy Maximus Wel - Bad Bih Morelli - Mala Conmigo Porridge Radio - End of Last Year STONEBWOY - Therapy Tove Lo - No One Dies from Love Trueno - MANIFIESTO FREESTYLE Wallice - Funral YXNG K.A - Closed Case ft. B-Lovee 54 070 Shake - Wb Beach Bunny - Karaoke Benji Gramitos Sayian Jimmy - Quiere Ma Dougie B - I'm Back Emeli Sandé - Ready to Love Everything Everything - Pizza Boy grentperez - Wishful Thinking Jamie T - The Old Style Raiders Javiielo Nekxum - Mi Casi Algo John C WET DUBAI - PASTILLAS DE COLORES LATENIGHTJIGGY - Úsame Lil Pump - 1ST OFF Lozeak - No Saving You Margaret - Cry In My Gucci Noah Davis - Peaches Cream Pond - Hang a Cross on Me ft. Cowboy John Rapsody - Dust to Diamonds ft. Faouzia Rei Callejero Fino - Tu Turrito Rolling Blackouts Coastal Fever - Dive Deep Tony Shhnow - LAST CHANCE ft. ZelooperZ Winona Oak - Jojo YN Jay - Coochie Island ft. Babyface Ray 55 3AM - Si Caigo AAP Rocky - D.M.B. Better Temperatures - Out of Bounds ft. BIGBABYGUCCI Chucky73 - Freestyle 73 Cosmo's Midnight - Bang My Line ft. Tkay Maidza Dermot Kennedy - Something to Someone Dylan J - Before It Started EL IMA - Papi Suena Fanny Lu - Amor de mi vida Flor Vigna - Guión HaAsh - Serías Tú Headie One - Came in the Scene Hideyoshi - Shinpainai ft. AKLO Ian Chan - Got U Immasoul - Na Pa Ti ft. Kofi J Álvarez Ñengo Flow - Química Jaguar Jonze - PUNCHLINE Jesse Joy - Imagina Jon Z - Joven de la Calle Kapo, La Gabi Nath - Moka Kevin Roldán - Llanogrande Luana Thyago - PA' SIEMPRE M Huncho - Who We Are ft. Yung Bleu Motherflowers - Qué Quieres Tú De Mí? Mya K - Tipsy NSG LD - Roadblock Odeal - Coffee don't read signs Paula Jivén - Rude Girl Pip Millett - Downright Princesa Alba Paula Cendejas - besitos, cuídate Remix Sofia Thompson Sobrino - Gotas Sorana - Karaoke Susana Cala Bacilos - Paralizante TINI - La Triple T Ventino - Mariposas Willow Kayne - Final Notice Wilmer Roberts - Fama y Dinero Xcelencia - Isla Verde 56 AJ Tracey - Reasonable Alaina Castillo - sad girls always finish first American Authors - Good 4 U Amesty Ovy On The Drums - Química Andy Grammer R3HAB - Saved My Life Anna Clendening - Sweatshirt Annika Wells - Stay High Anthem Lights - You Are My Sunshine Ashe - Hope You're Not Happy Bad Bunny - Moscow Mule Badda TD - Moonwalking ft. Ron Suno DJ Drama Belinda - Eden Berre - Say My Name Bishat - Manners Boyce Avenue - Only Time Busy Signal - Thank You Jah Call Me Loop - Pattern of Behaviour Carlo Laquinta - Plan B Carly Rae Jepsen - Western Wind Casero - Cosas Que Creo Chappell Roan - My Kink is Karma Chris Andrew, Wisin Dreah - Mató a Cupido Remix Christian Nodal - Vivo en el 6 Christina Perri - mothers Cris Mj, Mendoza Ghetto Kids - Webcam Crooked Stilo - Ella Me Da Dana Williams - Bleu Derivakat - Pomegranate Lips DIXSON - CHERRY SORBET ft. Sevyn Streeter DNCE - Move Doja Cat - Vegas Dro Kenji - They Don't Know Duke Deuce - CRUNKSTARZ Duncan Lawrence - Take My Breath Away Dylan Fuentes Sael - Sonrisa Falsa Dylan Scott Jimmie Allen - In Our Blood EDDISON Lei - habit Edén Muñoz Michelle Maciel - No Sabía Cuánto Edith - Falling Away ft. Taj Ralph ELIO - I LUV MY BRAIN! Flowtiago - Que Dios Me Libre Francisca Valenzuela - Dar y Dar Gian Varela Steve Andreas - Veneno ft. Felicia Gretta Ray - Vienna Gryffin Calle Lehman - Alive Guitarricadelafuente - A carta cabal Icewear Vezzo - Sicc Of Y'all James Johnston - COUNTRY BOYS JAYLIEN - Take Me with You Jenn Morel - Sigue y Sigue Jeris Johnson - RAINING BLOOD ft. ZillaKami Joel Corry, David Guetta Bryson Tiller - What Would You Do? Alle Farben Remix Jonas Blue, Sam Feldt, Sam DeRosa Endless Summer - Till The End J. Stone - Weekend ft. Young Dolph Kaio Viana, Bad Gyal Totoy El Frío - Formosa Remix ft. MC CJ Kane Brown - Like I Love Country Kasabian - SCRIPTVRE KayCyy - Borrow KEY! - Boom Kota the Friend - UP Kygo - Freeze Lakeyah - I Look Good lilbubblegum Letoa - chiropractor Lil Gnar Yung Bans - My Bruddas Lil Jon Ghastly - Dance Lil PJ - Red Rum Lola Indigo - Spinelli Logic - Therapy Music ft. Russ Louie Ray - Next to A M ft. Baby Money Lucas Estrada, Twan Ray Solar State - 100 Stars Lucki - GOOD MEMORIES Maisie Peters - Cate's Brother Meg Myers - CHILDREN OF LIGHT II Métricas Frías, Zor Beats Doble Porción - Aviso Parental MIA GLADSTONE Matt Martians - EMPATHY Mili - GIVE ME RICE Mocedades Morat - Sobreviviremos Morray - Momma's Love Mothica - LAST CIGARETTE ft. AuRa Mozzy Shordie Shordie - Tell The Truth Natalia Lacunza - Todo Va A Cambiar ft. Karma C NGeeYL - Escalade NGeeYL - Red Light Oli Harper Jason Walker - Better Nights Oliver Heldens - I Was Made For Lovin' You ft. House Gospel Choir Nile Rodgers OMB Peezy - Mission OmenXIII - LIVE FAST DIE SLOW ft. Travis Barker Pailita Nio García - Yo Quiero Quelly Woo - Get Better Rae Morris - Go Dancing ft. Fryars Rah Swish - Tell Em Río Roma - Amor Eterno Ralphy Dreamz - Se Me Olvidó Otra Vez Rio Da Yung OG - Cold Hearted ft. Louie Ray Robin Schulz David Guetta - On Repeat Rombai - Vamo A Tomar Una Roy Woods - Insecure S-X KSI - Locked Out Sabino - Dime Tú Sandee Chan - Beautiful Sin Shy Glizzy - Borderline ft. EST Gee Sin Bandera - Nadie Skott - Sunshine Stunna 4 Vegas - BMF ft. Icewear Vezzo Tayc - Sans effet Taylor Swift - This Love Taylor's Version The Snuts - End of the Road ft. Rachel Chinouriri Thouxanbanfauni - DRASTIC MEASURES ft. UnoTheActivist Toosii - Keeper Tove Styrke - YouYouYou Two Friends - Wish You Were Here Tyga - Sheikh Talk Unlike Pluto - Sorry to Bother You The Vamps - Wake Up Spanish Version WESTSIDE BOOGIE - STUCK wolfacejoeyy - okay! Wrabel - closure YEDRY - KI-KI YoungBoy Never Broke Again - Don't Rate Me ft. Quavo YUNGBLUD WILLOW - Memories 58 Jessica Mauboy - Automatic Kai Cenat - Bustdown Rollie Avalanche ft. NLE Choppa Kendrick Lamar - The Heart Part 5 59 IV JAY - Good Karma Jay Fizzle - Paper Route Bidness Lil Mexico Slimelife Shawty - Bad Habits Pale Waves - Lies Starcrawler - Roadkill 510 Alex Dupree - Fake Diamonds, False Powers Amaia Aitana - La Canción Que No Quiero Cantarte Andy Lai - Leap Becky G - BAILÉ CON MI EX Bill Wurtz - if the world doesn't end BKTHERULA - ????? Chlöe - Gyalis Remix DaniLeigh - Dead to Me Joy Oladokun - Purple Haze REASON - Churchill Downs Freestyle Santa Fe Klan - Eres Shygirl - Firefly YGTUT - Thinkin Bout 511 5 Seconds of Summer - Me, Myself I Arlie - landline Big Gigantic, VIC MENSA Mick Jenkins - Just the Same Chance the Rapper, VIC MENSA Smoko Ono - Wraith DaBaby - BONNET ft. Pooh Shiesty DaBaby Moneybagg Yo - WIG Dreezy - Balance My Lows ft. Coi Leray Kabasaki Mala Rodríguez - No Vales Na Micro TDH, Jerry Di Big Soto - EN SOLEDAD ft. ADSO Akapellah Miquela - Masterpiece Nova Twins - Puzzles Rusherking - Ice Cream Wet - Tell Me Why 512 Abraham Mateo Ana Mena - Quiero Decirte Alex Rose Wisin Yandel - Sentido Ambar Lucid - GIRL UR SO PRETTY Andy Rivera, Ñejo Ryan Castro - Monumento Remix' Bazzi - Will It Ever Feel the Same? bLAck pARty - Hotline Carlos Vives, Black Eyed Peas Play-N-Skillz - El Teke Teke Cat Burns - Go Remix ft. Loski Russ Millions Chris Lebron, Sech Jay Wheeler - Desde Mis Ojos Remix D-Block Europe - Black Beatles Dende - Round Trip to Atlanta DJ Tao L-Gante - L-Gante DJ Tao Turreo Session 10 Fabbio Sael - Que Te Vaya Bien Feid - Castigo Frank Louis Luar La L - Piénsame Funkmaster Flex - Hitta ft. Bobby Shmurda Hins Cheung - Cherlas Jan Blakeee, Brytiago Gønza - Esquinita Jason Chan - Dare to Fall ft. Novel Fergus Juliana - Toda la Vida KG970 - JALEO Lautaro Lopez - Cuántas Veces María José - Me Quedo Aquí Abajo Matt Louis - To' Los Días Melymel Shadow Blow - Profundo Moffa - Ninfómanos Mont - ZUKI Nath - Sin Maquillaje Post Malone - Cooped Up ft. Roddy Ricch Rc La Sensación - Papá Dios renforshort Travis Barker - we'll make this ok Selfmxdebless - HELL'O'LAND Sabrina Cheung - Maybe That's the Right Time ft. LEWSZ TDA Papi - No y Si ft. Leslie Shaw Tion Wayne La Roux - IFTK Trueno - TIERRA ZANTA UMI - moonlit room 513 Afourteen - OMNIVORE Akim - Fettuccine Ana Mancebo - sed de ti Anson Kong - Sin No Maki Arin Ray - Gold Armin van Buuren, AVIRA Chicane - Offshore Belinda - Colorblind BORJA Valentina Rico - tensión Brett Eldredge - Wait Up For Me Bret McKenzie - A Little Tune Burna Boy - Last Last Clever - Cup of Tea Cris Mj - Empezamos de 0 CyHi Jacquees - Tears Dani Roig - Stop Talking ft. Dylan Goldstein Gaby Diaz Davido - Stand Strong ft. The Samples Drew Parker - Little Miss Saturday Night EDDISON - Murda Five Finger Death Punch - IOU Fritz Hager - Hearts Align Galantis - 1x1 Gryffin Olivia O'Brien - Caught Up ILLENIUM - Shivering ft. Spiritbox Inayah - Always Something Ir Sais Anselmo Ralph - Chikita Mala Remix James Bay - One Life JAY MAX - Take a Look ft. Kontra Marín John Lindahl - I Think I Did It Again Join The Riot - Betty Love Jon Bryant - This Book Josephlee - Dormitorio Juan Vegas Nicole Favre - Me Encanta Joy Again - Who Knows Juseph Quevedo - Yatekomo Katia Morales - Lento Kina - I'll always wait 4 u ft. Kehard King Combs DreamDoll - Gas You Up Lara D - Better By Myself Lera Lynn - Something More Than Love Leven Kali - EVERYTHING I WANT Lil Tracy - Paranoid Loreen - Neon Lights Luclover - NUMB ENOUGH Lunay - Bandida Maffio ChocQuibTown - Jaguayuken Måneskin - Supermodel Mark Ronson - Too Much ft. Lucky Daye Matt Ox - Blastoff Megami - Tenerte Aquí MIKA - Yo Yo Morgan Wallen - You Proof Muni Long - Pain Nakkia Gold - Low Profile Never Broke Again, YoungBoy Never Broke Again P Yungin - Gang Baby ft. Rojay MLP RJAE NextYoungin - F My X Ne-Yo - Don't Love Me NGHTMRE KLAXX - The One Noah Cyrus - Mr. Percocet Noah Thompson - One Day Tonight NOTD Kenzie - Worst Thing OneRepublic - I Ain't Worried PmBata - i hate her boyfriend's face Projexx - Brace It Remix ft. Konshens remy - closer to thirty Ria Sean - Thai Food Riley Green - Hell of a Way to Go Rita Ora - Finish Line Rosie Darling - Fucked Up Summer Sematary - BLEED A RIVER Shawn Mendes - When You're Gone Acoustic Smash Mouth Owl City - All Star Owl City Remix st. Pedro - En La Cama Steve Aoki Natanael Cano - Kong 2.0 Sub Urban - CANDYMAN Tate McRae - what would you do? Terence Lam - doodoodoo The Aquadolls - Help I'm Falling 4u and I Can't Get up Thouxanbanfauni - SPEND A MINUTE Tory Lanez - Shot Clock Violations Trey Lewis - Whatever She Sees in Me Unlike Pluto - It Goes Inside My Head Vory - Do Not Disturb ft. Yung Bleu NAV Why Don't We - Just Friends X Ambassadors ROBI - Palo Santo Remix yvngxchris - DAMN HOMIE ft. Lil Yachty Zao Elar - Si Me Pego Mañana 514 Soulja Boy - Whip It Up YoungBoy Never Broke Again - See Me Now 516 Cazzu - Jefa Ed Sheeran - 2step Brazilian Remix ft. Chefin Gigi Cheung - PANDA Kevin Gates - Bad For Me Lil Zay Osama - glah glah Moneybagg Yo Kodak Black - Rocky Road Since99 - Semi High Toosii - Secrets Ty Segall - Saturday Pt. 2 517 BVDLVD - LAYIN BRICKS Deante' Hitchcock - All My Children Deante' Hitchcock - Callin' ft. Big K.R.I.T. WESTSIDE BOOGIE Duwap Kaine - Coolin Flume - Hollow ft. Emma Louise Fredo Bang - Dead Man Kamaiyah - F.W.I. ft. DaBoii ROBI Moffa - Un Momento Snoop Dogg - Touch Away ft. October London Thaiboy Digital - Im Fresh 518 Ayoni - You Said I Love You Too Soon Blessd - 10 PM Desiigner - WAIT FOR U REMIX John Legend - DOPE ft. J.I.D. Kristiane - State Lines Maxo Kream - JIGGA DAME Zelos Wong - Show ft. Luna Is A Bep sophiemarie.B - Trouble Tommy Torres DELI - Poco a Poco Will Linley - i dont wanna be yours Yungeen Ace - It Go 519 10KDunkin - G-CODE ft. Eyedress Alfred Hui - Fan the Flames Asian Doll - To The Moon Freestyle Bella Shmurda - Fvck Off Camilo - Pegao Cold Hart - FLIPSONG Conan Gray - Yours Chris Jedi, Chencho Corleone, Anuel AA Ñengo Flow - La Llevo Al Cielo Eladio Carrión NICKI NICOLE - Nota Farruko - Nazareno FKJ - A Moment of Mystery ft. Toro y Moi Gareth.T - confidence Headie One Gazo - 22 Carats Jason Derulo - Slidin' ft. Kodak Black Jason Derulo - Slidin' Solo Julietta - Something Better Kent Jamz - All The Smoce ft. GoodJoon Kevtopo, Nohemy Toxicboys - Trance Lil' Ashes - finish it don't quit Luis Figueroa - Vienes Lupe Fiasco - AUTOBOTO ft. Nayirah M Huncho - Pray 2 The East ft. BNXN fka Buju Mariah Angeliq - A Kind of Magic Coke Studio Session Mili - world.executeme Key Ingredient ver. Pardison Fontaine Mr. Chicken - Safe Word Peiker El Tira Letra - KARMA Remix ft. Rc La Sensación Tivi Gunz Rina Sawayama - This Hell Sech - Noche de Teteo Selfmxdebless - !ERASEHIM! Sophia Scott - More Me Steff - Pa PRIVE Taichu Tiago PZK - FASHION DILLER TINI - Carne y Hueso Wafia - In the Honey 520 070 Shake - Body ft. Christine and the Queens Aiden Hung - Single By Willpower Aitch - 1989 Alexander Oscar - Beauty The Joke Ali Gatie - IDK Ally Salort - Stranger Things Avery Lynch - Love Of My Life Ayanis - U Betta ft. Kali bbno - piccolo Ben Platt - Grow As We Go Remix ft. Sara Bareilles Blu DeTiger Chromeo - Blutooth Blu DeTiger Chromeo - enough 4 u Blueface DDG - Meat This Brennan Savage - Mood Switch Call Me Karizma - Sad Money Carlitos Rossy - Tus Besos CG5 - Bred to be Bad Chalynn - What You Do Dímelo Flow, Wisin Ozuna - Crazy ft. Jay Wheeler, Lenny Tavárez Arcángel Elisama - Demasiado Rico Em Beihold - Too Precious FaZe Kaysan, Sheck Wes Fivio Foreign - MVP FCG Heem - Walkin Lick Forest Blakk - Give You Love Fousheé - i'm fine French Montana - Alcatraz Hayley Kiyoko - for the girls Hurricane Wisdom YNW BSlime - How It Feels iLoveMakonnen - Too Faded Jada Kingdom - Last Night Jacquees - Say Yea Jasiah Lil Darkie - SCORN Kapla y Miky - Bajo Perfil Kuttem Reese - Back In That Mode Laura Marano - breakup song Lauri Garcia - CTM LeAnn Rimes - the only ft. Ziggy Marley, Ledisi Ben Harper Lil Kee - Automatic Lil PJ - South Side Lilyisthatyou - Gorgeous Gorgeous Girls Logic - Vinyl Days ft. DJ Premier Louie Ray - Out of My Hand ft. Lil Migo Luh Kel - Be This Way Mabel 24kGoldn - Overthinking Mikey Polo - RED Morat Duki - París NLE Choppa - Set Up Story, Pt.1 Oliver Tree - I Hate You OMB Peezy - Mufasa ft. G Herbo Paris Jackson - lighthouse Pollari - Blessing Quavo Takeoff - HOTEL LOBBY Unc and Phew Raquel Sofía - Plan Z ft. Pedro Capó Sael - Lucifer Sara Diamond - Happy With Me Shaybo - Crocs Slump6s - Juggernaut Sprite Lee - Style ft. Lil Skies Supa Bwe - BUGGIN The Change - Cicatrices The Notorious B.I.G. - G.O.A.T. ft. Ty Dolla ign Bella Alubo THEY. - Blu Moon Tory Lanez - It Doesn't Matter Transviolet - Run Towards the Monster Tyler Hubbard - 5 Foot 9 Solis Mist - You... Unlike Pluto - Fool's Paradise Yung Filly - Long Time 522 kayan9896 - Not too close Soulja Boy - Epidemic ft. Boosie Badazz 523 Alex G - Blessing BasedNas - do it Cazzu María Becerra - Maléfica Janice Vidal - Love 101 NateWantsToBattle - Mixed Nuts From Spy x Family Selfmxdebless - SLICE UP 524 Duwap Kaine - Off the Lean K CAMP - Woozie Kai Whiston - Between Lures Luna is a Bep - overthinking my little airport - Nausea Ohana Bam Cozz - Play Games Witchu Rico Nasty - Intrusive 525 BLK ODYSSY Baby Rose - COMPLEX OF KILLING A MAN care - MUREDERER IN VELVET JEANS Empress Of - Dance For You JNYBeatz - No More Words To Say ft. Ivory Chu Delta T HKG Kelly Clarkson - Happier Than Ever koi - 200 bucks Matoma JP Cooper - Midnight Sun Noga Erez - NAILS PGF Nuk - Talk My Shit Sky Ferreira - Don't Forget Sleepy Hallow - Die Young ft. 347aidan Tessa Violet - BREAKDOWN Tony Shhnow - Keep In Touch wolfacejoeyy - 50 YN Jay - Shake That A Baby Zelly Ocho - Internet Punch 526 Bhavi Bizarrap - PUFF Cixqo - Reckless ft. Pompay, Breana Marin C.R.O Negro Dub - Otra Vez Te Soñé DoRoad - NFTs Emanero, Rusherking FMK - BANDIDO ft. Estani Ir Sais, Farina Konshens - Flauta Joyce Cheng - ngo5 dei6 Juliito - Coscucaracha Kwengface - Step Out. ft. DUSTY LOCANE LIT killah Lil Mosey - Bipolar Mak Sauce - Lit ft. Lonny P Manuel Turizo - La Bachata M.I.A. - The One Mimi Webb - Goodbye Rezz fknsyd - Sweet Dreams Are Made of This SleazyWorld Go - Sleazy Flow Remix ft. Lil Baby Soulja Boy - Sippin Wock Wisin Yandel, Jhay Cortez Sech - Llueve Yoyo Sham - Being Here XYLØ - red hot winter 527 Alejandro Santamaria Jerry Di - OBSESIONADO Alexa Cappelli - Couldve Just Left Me Alone Alexander 23 - The Hardest Part Alkaline - Static Anuel AA - Qué Nos Pasó? Armin van Buuren - Feel Again ft. Wrabel Bad Gyal - La Prendo Bankrol Hayden - Van Hayden Beéle, Myke Towers Feid - Barranquilla Bajo Cero blackbear - gfy ft. Machine Gun Kelly Bobby Shmurda - Getting Em Back BRS Kash - New Money Bryce Vine - y cant we b friends? Calvin Harris, Dua Lipa Young Thug - Potion CG5 - Mommys Here ft. Nola Klop Elsie Lovelock Chance the Rapper - A Bar About a Bar Christian French - golden years Cosette - Strings Dixie - Wild Dee Watkins - Cardi B Duwap Kaine - Loded Diper Ewan Mainwood - Worry Felix Jaehn - Do It Better ft. Zoe Wees Gabbie Hanna - Trouble JAY MAX - Los Dos Jex Nwalor - Come Back Jimmie Allen Jennifer Lopez - on my way Jonas Blue Julian Perretta - Perfect Melody Jordan Davis - What My World Spins Around JYDN HILL - 3Am Kaash Paige Lil Tjay - 24 Hrs KAMILLE - learning Kanye West XXXTENTACION - TRUE LOVE Kevin Powers - Melody Kill Jasper - Backdoor KYOTTO Tomás García - Mentiras Logan Michael - Leave Me Alone Logic - Orville ft. Like Blu Exile Luclover - ROSE GOLD Maddy Hicks - Kinda Over It Max Drazen - Let Me Down Slow Mike Posner The Futuristics - Turn Up Moderatto Aitana - Sálvame Moneybagg Yo - See Wat I'm Sayin Naaz - Sad Violins NEIKED, Anne-Marie Latto - I Just Called Nuski2Squad - Sport Mode Pia Toscano - I'm Good Real Boston Richey - Certified Dripper Rei Brown - Thinking Bout You ft. Joji Rockit Music - One Bite Sad Frosty, DC The Don BIG TEEZO - GANG GANG Sadie Jean - WYD Now? Remix ft. Zai1k Zakhar SERA - She Kissed Me First Sigma - Give It to Me ft. Kelly Kiara ZieZie Squash - Destiny YoGambii Jamby El Favo - Shorty 528 CeeFineAss - Let 'Em 529 Acid Souljah - When I Wake Up The Hertz HKG - So Deep! 530 CG5 - Noot Noot Christina Aguilera TINI - Suéltame CY - Psychotic Emilia NICKI NICOLE - intoxicao Lil Yachty DC2Trill - Set It Off Freestyle 531 Brandon Kai - Red Hot CHRIST DILLINGER - Play Bout It ft. Swami cupcakKe - H2hoe DJ Snake - Disco Maghreb glaive - pretty stupid lol 77 Kevin Kaho Tsui - Take Me Back Lil Loaded - Cell Tales salem ilese - Crypto Boy Vory - Daylight ft. Kanye West Why Dont We - How Do You Love Somebody</t>
+          <t>Come closer to me So I can see heaven in your eyes Ah, come closer to me So I can be close to paradise Thrill me with your kisses Let me learn what bliss is Kiss me once and then We'll kiss and kiss again And life will be divine Come closer my dear So I can hear music in my heart I've waited so long to hear The song that your love will start Darling, I'll adore you Live my life just for you All I ask is this Please give me on more kiss And say that you'll be mine Hacr why vá ter más, why más Why más, pero mucho más Viver sole assím, assím, assím Como queirás tu Darling, I'll adore you I'll live my life just for you All I ask is this Please give me one more kiss And say that you'll be mine Viver sole assím Viver sole assím Come closer to me</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Beautiful Girls (Radio Disney Version)</t>
+          <t>Dance With Me</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Please, this shit's so fuckin' hard Helluva Beats Yeah, ayy, ayy Thirty-thousand words in a rap That's a first, and, in fact, that's the most in the world on a track Yeah, I've been searchin' the map For like any other person who could work it like that Do it perfectly slow and then perfectly fast I'm the only one that's out here, and I'm certain of that Play me a beat, it gets turned into ash If I play you a beat, it gets turned into trash Ayy, hold up, wait When I'm on the track, I make no mistakes I can do the shit for like thirty-thousand hours Fuck thirty-thousand words, I don't slow my breaks I go UK, then I make so many pounds Everybody think I'm overweight Gettin' bread, see me eatin' But I gotta go in, better hold my plate Ooh, ooh, gotta switch up I'm so godly, I'm the bishop Now these haters wanna link up My bars make them get the hiccups So I had to run it up real quick Freestyle, gotta do some real shit real quick Everything I do is real big 'Cause I gotta get the crowd to feel this, real lit, real shit Nowadays, they write me and I don't write it back See my future demons like a psychic and a psychopath Swear I'm drivin' down the road and I might'a crashed Do the dash, always movin', don't know where to find me at Hey, movin' on, gotta find a team Earnin' all my stripes like Camilla, but I'm lima beans All these rappers 'bout to get fucked like they Riley Reid I'm your teacher, so be quiet or I am assignin' seats Pioneer to the shit, Leif Eriksson I was even hunted, 2012, like I'm Jerry Lynn All these places got me sneezin', need a Claritin Until I fall off next year, I'ma be arrogant Yeah, I'm runnin' all this shit, run it up Yeah, you know that I be comin' up for a hun'ed bucks At the start, all I wanted was like thirty-thousand hits Got bored, add a couple zeroes for the shits Why not? Look what I got, look what I bought Camera is my true eye, I'm a side-clause Shoes, they go too high, only high-tops Fuck yeah, I'm the new guy, what am I on? Come in, Jaden Smith, I'm a motherfuckin' icon Boy, I'm too cold, I don't even have on my ice on Too lit, I don't even have the mic on And I'm too bright, I don't even have the lights on Better wait up Shit's too easy, like a layup And my bitch too entertainin' See the note, you gotta stay up Takin' bets on that I'll fail It's time to pay up Now you tryna hide your face I'm pretty sure that that ain't make-up, uh I'm droppin' hits and gettin' world records Who's your favorite artist, 'cause I'm sure better? Well, maybe not, but I tried, though Post Malone, I go psycho Leave you a stink, like a rhino 'Cause I rap beef, no gyro And I rhyme fast and I rhyme slow Turned my L's into W's typo Uh, hop into the track Give you the love and you give it right back Ten different flows I be spittin', some trap And some other shit get in it's get on the map Done this for like a year, and now, my writing's clear I've been gettin' respect, 'cause now I am here And I'm here to stay, did you hear me say I'm not here to play? He got a flow and a voice now I remember when he chokin' a boy out But he's back in, showin' no choice now Don't you know that he's gonna destroy now? So I'm gonna get there, and I know how Got these beats, I be blarin' 'em so loud When we talk about bitches and money, this shit is so funny My parents are so proud, damn I'm startin' to try Tryin' the shots at it, look at the ground and see stars in the sky Drawin' the line All of you rappers are dizzy, I can see the stars in your eyes You're probably high If you think that you compare to me, it must be part of the lines Copyin' guys You better send all those beats back to Future, like Marty McFly Thirty-thousand words on a track, lil' bitch Now these people turn my vid on and react, lil' bitch Know I got the clout, I got the stats, lil' bitch And you givin' me a headache, where's the Advil, bitch? But I'm doin' all I can, and I did it in the past-tense Makin' all this money up off of YouTube, off me AdSense Money up off of YouTube, off AdSense All of you are wack, that's a fact, I'ma rap then And I rap, huh, I'm a laptop Eminem holds the world record for Rap God 1.6K words Though, we already have that topped And we'll do it for another hour And I'm underrated and I'm underpowered My bars are so filthy, uh All of y'all need to take another shower For every fan, there's a hundred doubters And they let me know up in the comments But you know that we ain't done 'Cause I gotta talk my nonsense And I gotta keep it clean, uh Do exactly what my mom says And I know when they headed for the top And we still be makin' progress I can spit bars for nine months Then deliver you a new life Yeah, we eatin' in this bitch, uh All y'all better take a huge bite And I didn't even write that shit 'Cause I freestyle, you still like that shit See my video, press 'like' on it That subscribe button? Better wipe that shit I'm getting tired of this beat I think it's time to change it 'Cause I'll spaz on trap Old school boom-bap, you name it Think of that as a intro Now we get into the meat of it This some shit you didn't see comin' I don't give a fuck 'bout what you think of it! Heh, ayy! Ayy, ayy Uh, switch up Yeah, ayy, ayy, ayy Look out the window, see past it, but we're faintin' reflections You never laugh like you used to, you've got fainter expressions You headin' down the wrong path and they changin' directions Maybe don't mention 'bout how I made me your blessin' And lately, I question the shit that was taught to me I'm awkwardly stoppin' these conversations Hey, how long you waitin' till the day you wake up and thank God you made it? I don't like to dwell, but man, I gotta say it, don't like my songs, but you still gotta play it Don't like your road, just N.W.A., Dr. Dre it Stop contemplatin' and stop complainin' And recreate it, actually, don't recreate it, be creative Reached the place where you still vibe in that shit when we replay it Living a life of pain just to alleviate it When you haven't used nothing but distractions to really take it Yeah, maybe they'll change when they see we made it We headin' onto new platforms and leavin' the basics Uh, my creative process is making progress Despite my background, I haven't gotten to playin' lacrosse yet Don't you know we got a good thing goin'? I've been watchin' all these shows while I could be showin' I've been creeping up on the door, so dangerous You looking at statistics, while I figure how I'm changin' them I done learned so many things in my past life Now I don't give a single shit about the rap life That's nice, ain't it? That's nice to be given advice when I paint it Have twice much the fame, and I can't even comprehend that much in the future Hatin' the teacher, but you loving the tutor Enter the game, I'm a fuckin' intruder Stealin' these flows, man, I'm stuck as a looter Procrastinatin' 'cause my fucking computer No willpower, I'm just stuck as a loser Sittin' alone at 3 AM Chillin' on a late night is the weekday's friend Man, this shit is too wild, I must behave, Ben That's what the teachers are preachin' to me, but even when I'm on the top of this drop and they're rocking the world with confidence Accomplishments topplin' everyone and you try stoppin' it? -Obvious there's a problem, and solvin' it just ain't up to me Luckily, I've been trained to test the system, don't you fuck with me I hope you like my company, I hope you do appreciate it I hope that one day, you'll see we made it No, you cannot recreate it, all of this pain, I just alleviate it I'm just trying to find the mindset, grinding to be the greatest That is why I'm strivin', livin', tryin', I'm buyin' I'm givin' dignity, cryin', I'm winnin', but feel like dyin' I'm shining, I'm like a diamond, but I am dead on the inside Guessin' now we'll rest with this, but set it on my big mind And I'm in time -Workin' all my life, get that in line I'm tryna figure out, everyone get their pictures out Nobody's gonna live without this shit on the incline I'm on the incline, I'm on the incline Stay in your lane, you got your place and I'm in mine I'm on the incline, bitch, I'm on the incline Nobody can really understand how my shit climb Have I been livin' yet? Spendin' time on the internet I'm wastin', they hatin' it, I should be makin' it, aimin' for goals but takin' this shit instead I stay in bed, laughin' at stupid shit, ludicrous Who is this ten-year-old pregnant with two new kids? Why am I doing this? Why the fuck do I care? I don't, but I kinda do I don't know what I try to do, but whatever it is, I say, Bye, to you Hey, me, I lied to you! Don't realize? Well it's time you do You have no idea what I can do, when the skies are gray, you gotta find a blue You gotta try to do, something to put you into a new positive mindset Set headlines, go wreck lines, pass deadlines, leave lines dead I guess that I digress, and I digest the way I'm blessed Impressed after I'm pressed, you seek intent for what I said But I'm just gonna move on, get your groove on for my new song Do right, and you do wrong, got a big head, Jimmy Neutron You try to hate, well, get in line, just delivered some quick rhymes Some straight bars, we have came far, but we lookin' up on the incline Water break I got a lot to say It's been eleven minutes so far Actually, it hasn't, it's been shorter How can I have a believable meaning When all of you livin' in paradise, livin' in luxury Nobody seen it or greet it? But what if it's different? I mean, it's all seeming to be And it's in inconceivable dreaming I know it's so unbelievable, being Stuck in this rare unachievable feeling They givin' me something, I ended up leaving They givin' me nothing, I ended up grievin' No positive side, ended up seeing What life could be like from a different lead in Thank God for a cover zone So I know when and where to cross it All over the place I'm surprised I haven't lost it Yeah, ayy, and I'm feeling like I'm at the top, uh Livin' to the max now Yeah, that's how, and I'ma say it that loud I'm steppin' up, I never back down, more focused on my background And the music and how my rap sounds, speak up, cut the track down Go till the end, I don't back out, stuck in the trap, figure that out After, I'll do the math now, it's garbage, take the trash out But I'm here to stay till I pass out, blackout Okay, it's time to go fast So sit back and relax, and just maybe you'll get it About time, but maybe you're mad I said it You gon' pay attention, cash or credit? I have to let it go back a second I have some lyrics in the past that I have to edit Now we're back in the middle of the track and fed it Mix it up and if you talk, then, nah, forget it We moved on, walked past the exit Want you to come back and pass a message -Never pack bags and trash, you left it Kinda sucks that sometimes we have to end it Money, never am glad I spent it If I ever had told you I'm mad, I meant it If you ever feel bad or sad, accept it Think back to the track and the rap that Ben did Yeah, pretty obvious I'm killing it If this isn't my time, then maybe you need a syllabus I'm feelin' all the rhythm, you can tell that I am into this Voice is more powerful than a million instruments Suddenly, lyrics go demon, like it's somebody else People want me to grow because of you But I'm never going to level my endeavors to be better Than the people that never had trust in me Yeah, uh And I'm feeling like I'm at the top, yeah Livin' to the max now, uh Yeah, that's how, and I'ma say it that loud I'm stepping up, I never back down, more focused on background And the music and how my rap sounds Speak up, and they're messing with the track now People are tellin' me that I'm fallin' short Looking back at you when you're missing all the cash now And I'm mad at the fact that I'm not in my right mind Meant to be a half-decent rapper But I keep on saying all the wrong words at the right time Lookin' at yourself, you never know what you might find Lookin' at the sky in the middle of the nighttime I find so much life I wonder why I can't just find mine Got so many confusing questions So much knowledge, I can't use the lessons I'm emerging out with a new profession I'ma do the best with my new perfection And I'm doin' it I'm moving onto this future shit These hooligans are complete fools in that They just don't understand that I am through with it Improvin' it, I'm improvin' it I got my brain, and I'm usin' it And I'ma make it out alive when I'm playin' and takin' And makin' this cash, that I'm tearing these tools to bits You're clueless Ninety percent of y'all ignorant Keeping your minds oh-so limited Get off your high horse, because it is time to figure it out Seeming so close, I can picture it now Success in my drink, and I'm sippin' it now Envisioning deeper ambitions, and now I'ma get to it, that is what living's about Uh, God! Uh My voice is gone already, shit Alright, ayy, ayy, ayy Think I've got a consensus, bein' lost in the trenches Adolescent lessons expressin' God's job is to tempt us Makin' it hard to stay alive, it's so easy to die Makin' you hang your head low, but say, Reach for the skies Life is a walkin' contradiction, I see through its lies I'm just tryna tell the stories I've seen through its eyes I feel I'm forcing and feeding of off reasons to cry With all this fake deep bullshit, I'm too eager to try Yeah, everybody sendin' blessings in need of reply Tryna sell their own tears, for they bleedin', they dry Fuck your demons inside, I'm in need of the, Why? So I can summarize my life through my breathing and sigh Like, oh well, I can say that I tried Hopped into life and then I stayed for the ride So many beautiful faces, but they vacant inside And I'm just patiently waiting for the day I decide, damn This reminds me of days when I drive in L.A. I'm screamin', Hi to the sky up with a smile on my face Now I'm hidin' my face, I keep tryin' to trace All of the steps that I had taken to findin' my place Swept out to oceans so lonely, waves feel like an embrace And now I'm lookin' at my mic like it's sent as a prophet I used to be an atheist, but that turned me agnostic Recently, I've been wondering if I've fuckin' lost it See my friends from kindergarten go to rehab That's the type of shit that makes you think back To simpler times, blissfully ignorant minds Before reality could ground us, we would live in the skies And as a- and as a kid, I never thought I'd be bein' like this Nah Man, as a kid, I never thought this would even exist I felt elusive, intangible, just steam in the mist And now I'm wakin' up feelin' I ain't even this shit You only look at what you got once you see that it's lost And life's too gradual for me to believe in my sauce Don't understand rappers braggin', I got that paper on me Man, I got kids in schools who doin' presentations on me So what the fuck you really value tryin' to take that from me? To me, I'll take that over Rollies and makin' some money Rain or sunny, I'ma do this every day, I study And write these lyrics till my brain is fuzzy, damn Like Tyler, Creator tweets, I just capitalize These Romans tally up my hits with the capital 'I's This is a natural high I see it comin' from afar, I'm still actin' surprised, but I ain't mastered the skies I wrote this album so much passion, I actually cried They say 'cause I was never trappin', my rap is a lie They think 'cause I'm a awkward kid, I'm invalid As DJ Khaled's son receivin' a platinum plaque for bein' alive Threw out half of my album, it wasn't good enough Shit, I mean it still isn't good enough I'm like a active volcano, I know I could erupt But I guess I am not full enough, damn I swear, the higher you get, that's the lower you feel Man, that's more shit you gotta do, or you won't get a deal Man, that's more shit you gotta prove so they know that it's real Thirty seconds of listenin', thinkin' you know how I feel Yeah, said this a motherfucking thesis statement Yeah, came a long way, I cannot be complacent Every day I wake up stressed, I have to be the greatest And if not, then that's a day I truly feel I've wasted Most of the pressure on my shoulders is comin' from me So when I die, I know I left us with something to leave So when I wake up in the morning with something to see Yeah, I got so much shit that I'm wantin' to be Benny, Ben, Benjamin, Selena Gomez has said If you ready, come get it then, everyone is jealous- Many want to get friends with them just in case he is relevant Got iPhone camera lenses to get the Instagram evidence Yeah, I know I'm way too cocky But I'm workin', I'm figurin' it all out So when people say you can't, that makes you wanna get better That's benefit of the doubt I've been on the top of this, never droppin' the bottom It's opposite from the positives, got them from talkin' often And I'm locked in a pocket of all my thoughts, and they keep turnin' around Always stoppin' my songs 'cause they keep burnin' the sound, I'm like- Yeah, this is freedom of speech Tryna' murder all the people who be keepin' the peace Sacrifice your whole life 'cause you need a degree Opportunity in front of you, you need to achieve, I'm like- Nah, I'm just tryna find some clarity Apparently, it all has to do with popularity There will be obstacles, primarily, people blinded to What is carefully being prepared to me Sometimes you'll have hilarity, parody, and prosperity I'm askin' Hillary Clinton to marry me, powerful in the very least Giving you all of my money, but never see legacy every day that I'm meant to see Everyone here is impaired, it is so scary and menacing, but I know enemy 'Cause I go- uh, walking away, hopping block and what's often the case Shot in the face, gun locked and loaded, been off at the race, droppin' the bass Off of the place, brought in a way, predict what I will probably say And at the end of the day, you still talking to me, so obviously, let the audience say So let me explain this to those who came in, looking at the stages Seeing a white kid thinking he's famous, when they don't understand That I take risks and I make hits, from basic playlist to the greatest Entertaining the nation, be patient whilst waiting for me to break in -Re-energize, got lyrics to memorize Start an enterprise of better guys who cannot be successful and never try That's my dream job, bein' lazy, just sittin' With the TV on, they say that I'm bright like neon But I ain't takin' responsibility, pay me for havin' Limited ability with little humility But whatever I'm doin', it seems to be killin' me I'm unwillingly artistically fittin' into this history Tryna show you why I'm better, but none of you believe me Tryna win this gold and try hard, good game, gg You beat me, and now you see me in 3D, but you can't feel me Showin' up on your device, controloptiondelete Consider myself elite, measure myself in retweets I be talkin' way more chill so you can reach me Instead of pretendin' you understand what I am talkin' 'bout I'm the exhibit you kinda scared for, like a haunted house Tryna show you something instead of just sittin' on the couch I'll be honest now, I rarely- end up walkin' out Into reality, in normality actually happily Found myself doin' nothing, and you don't laugh at me, why? 'Cause, ideally, you would do the same thing Nothing 'cause for- a brain that is amazing Not complainin', but the best part of life is not even livin' it Love sleepin' and just usin' the internet But my time is limited, and I better figure this Before I'm slippin' this opportunity, out my fingertips And let me just tell you what I have came to do Tryna show you I can rap as fast as I'm able to Tryna show you I can hop in here, like a kangaroo And say some stupid metaphors and leave after I'm breakin' through And if a major record label is looking at me I'm a nice guy with bad teeth, got a nice eye for bad beats I can rap fast, and rap slow I may make mistakes but everyone, has, so I'm like MJ back when he had the afro Also, I'm not black, so... maybe not But before everyone gets angry, stop I'm that person, then people naturally hate me, block All the people who keep on going crazy off 'Cause I won't be making amazing songs in a mainstream, got A lot of prominent features, I'm a confident speaker With some dominant teachers I deserve to be a starter, but constantly on the bleachers I'm awfully small-achiever when I'm up on the spot, and eager They be fearin' this every time that they hearin' it To know that my lyrics have the precision to buildin' a pyramid So when you're nearin' this, please let me know When I'm standin' here frozen, please let it go Hear the metronome combined in the compilation To unlock super-stardom and move all across the nation But that is just a dream, and probably a combination Of a big ego and false encouragement on the way in But when I'm playin', just know it's all a big game I was tryna blow up- bang! Have a big name But when you think about it, it is all insane What can be created from chemicals in this brain But when you look at me, you lackin' respect When I'm crackin' my neck so that I can rap to my chest Has in a breath, some say that it's magic, I step Until I'm on the same stage, and you have it again But, but when you think about the hall-of-fame You think about how people used to sit and call you names And you check and wonder if it will be all the same Step back into reality, it all remains, damn Alright, I just spilled water on my computer right now On my computer-'s breaking while I'm doing this thirty-thousands words shit Hold on, uh Goddamn it My lyrics are not showing up on the screen, you knowin' just what I mean This is off the top, I don't need to use no machines Hold up, I know I can freestyle, but I can't do it forever But I am very clever, okay, okay I'm gonna take a drink, if you're watchin' this, take a drink too These are some shit' that you can drink to But drink water unless you're of age You know what I'm sayin'? Ayy Okay, okay Uh Uh Ayy I feel like I'm way too different, ridiculous -Most of humanity's made of idiots I barely even get myself, and you thinkin' you understand? You think hiding behind a screen gives you the upper-hand? Please... what I do is barely poetry There's hope for me, I'm noticing people starting to notice me But still consider me confident Still consider me ready and giving out all my flawlessness But honestly, all of this is haunting me, probably It is just my sense of myself wobbling, toppling Into awfully small pieces, normally all bleedin' It's tragic and not fleetin', it follows me all evening It's calling my name constantly, makes it so hard to stay awake I close my eyes and let it go, and it all fades away Yeah, we're just tryna find that great escape To get away from how we're living life day-to-day Some people find it in a drink or in a cup Or in some bling or in a drug, or in the things that give us love But all I know is that it's tough And all I know is that this stuff isn't enough it's way too much I'm young and ill, like the dictator, man, what I gotta do to make the quick paper? These kid-haters are like ten years old but still claim to be big players That shit will make me go, but I'm aiming high, and you aiming low Got amazing rhymes and a crazy flow, and I may be lyin', but I came to show What I can do when I get on the mic, and I'm keeping it moving, you said I'm the hype And I'm seeing it through in successes inside, I don't take it for granted with plans in this life -Set on the wrong, forgetting the right, like, 2 AM in my head in the lights Ahead of the best of 'em, lettin' the rest of 'em go off to bed in the night -Getting it like I be livin' in first class, I know that you never will surpass -Getting the worst task for this burnt trash whenever I work fast Remember the memos they sendin' and sendin' again and again and they never will end it And say it is splendid, but never relented and every sentence I say is perfected Take a deep breath, 'cause I need that Most of y'all don't even care what I'm saying, you really just like how I speak fast My bars are meta, I got meta bars with meta-eights and metaphors You want better cores and better cars, but you don't know what I'm headin' towards Say that I am the king of this shit, crazy rhymes, they ain't thinkin' of this I'm singin' and rappin', and makin' it happen and makin' you laugh when I'm bringin' this shit Tryna find the other way, y'all just waiting for another day 'Cause what other fourteen-year-old had hit 100K? I'm making the most of a crazier flow, so many ways it could go I'm taking the throne and you chillin' and stayin' at home, I'm willing to make it my own I'm bakin' my cake, and you know that I'm eating it, even if staying up late is the needed bit Reason is, stayin' the same, I'm just fleein' it, leavin' my life while I'm seeing these seasons switch Meaning, these people ain't feelin' rich, reach in the fire, I'm heatin' it Pleasin' these liars, they've peaked, and so now they're recedin' agreein' to be a live without leading it Flow's so dope, I think it's time that we take a break We all make mistakes and play some hate, I got 808s here to save the day 'Cause I am on top of it, lost in my thoughts and I gotta be stoppin' it, rockin' it You know my flow is so dominant, positive, confident, full of accomplishments, compliments All of these offers is boring as fuck, though I am not a part of 'em Start a new part to the charts and I gotta be sure this art is the star on the map when I'm starting it Breaking it up, like cartilage, flow is so crazy, it's dope and you know it I know that you hate to admit it, but really, this shit is the business, rhymes keep darkenin' Under the radar, you don't know what's comin', I'm comin' right up, and your bitch started runnin' I found to be part of a little of something called love, and I guess that's the art of it I try to go slow, but it don't work -Gettin' better, and that don't hurt, and you think I'm dead, and you're sure You're salty and not kosher, slave to the corporates and the owners This is live and love, call it Shrek, like the ogre Hah, bitch, I have had enough, and I am sure I ain't mad enough Forgettin' the rest while I'm gettin' success, and I look at the numbers, I add 'em up My chart is like a parabola, thank you a lot for havin' us And so, every day, I take one step up, man, I am takin' the ladder up -Hundred K- get the plaque, lookin' forward, not heading back Remember what I had said is that we ain't givin' up, remember that Hit me up when you're done whining, I'll hit you up when I'm done rhyming Listen up, 'cause I'm combining all my skills into one finding We run, grinding, you know we do, we got the shit that we're goin' through These lyrics go over you, you don't listen, so you don't know it's true 'Cause we in, and we've done it, thousands, now we a hundred Shoutout to Didac and Momo and the others Shit, I consider them brothers, shit, I consider you all are my family Shoutout to those who will stand with me, even when all of the others abandon me Yeah, drama, we move past that, now I look at you with the last laugh Better trackback, now I rap fast, so many skills in my backpack Started off so terribly, now all of these people compare to me In the past, I never anticipated what there would be And see ya, so long now, off to the end of the song now See ya next at five-hundred and a million, it's on now It's on now Oh shit, I'm almost out of water This is a hard- this a- real challenge This like, physically difficult, ayy When I walk up in the scene, I hear a orchestra Now everybody telling me I don't perform enough My math teacher told me that I'd never be shit And now, I'm searched more then the quadratic formula I got the formula, I got the formula You got the sauce, but goddamn, I got the formula, ayy People always asking Ben, Why you record so much? I got to fry up all these rappers quick, like, order up Formula, like I'm Mr. Krabs I change and transform it up, you stuck in the past Yeah, I wear Supreme goggles to my science lab Uh, it hurts to write this song, 'cause I don't like to brag And now I've tied myself up, like a Nike Mag' People love to criticize me for the life I've had They make it 'bout white and black, like I'm Michael Jack' I make these haters look confused, like it's Dora asking where Swipper at, ayy Uh, bitch, I'm supreme, 'cause I got it on me, now they copy that, like a walkie-talkie And I'm feelin' like they really want to stop me, tryna fold my paper, like it's origami Wanna justify the hate, they call me cocky, and I am, 'cause your girl call me, 'Papi' Tryna take ti-t-uh.. paparazzi, I'm a fax machine up in a lot of copies Ayy, still saying, Who would'a thought?, like, who would'a guessed it? Haven't lifted weights in two years, but somehow, I'm always flexing If you really want to find the answer to your question, here is where you should look Want the secret to the sauce, motherfucker? Better go and find a cookbook Ayy, they doubt a fucker with a dream Looking to the stars for some money and a scheme, yeah Looking at the cars, all the hundreds and the greens Serpent's told you, No, and it's like nothing's as it seems God damn, I guess I really thought he was the man I guess I really thought he had some fans, but that shit is all a sham All that cash he stocked was from a scam All the views he got was from some spam I've been living like, Man, ain't why he been doin' what he can? Why ain't he just sticking to the plan? How has he been living with no limits, getting millions by the minutes? I don't get it, I don't really understand I've been living like, Damn, he ain't getting money by the 'Gram I'll do better if I study my exams, do I really wanna stand Next to all these average fucking sad duds? So I hate this motherfucker with a dream, 'cause he has one Yeah Hate a motherfucker with a dream, 'cause he has one Ayy Just because you gave up, doesn't mean I'm a backup Uh, uh, uh Feel all my good times get replaced by the bad ones And so they hate a motherfucker with a dream, 'cause he 'Cause he been living this passion, I'ma just sit and imagine I've got a bitch on my lap and she listen to rap, and she really been digging my track, and I'm livin' for Snap That shit invisible now, I'm unoriginal now I'm making a- minimum wage, this is literal AIDS, and I'm needin' to figure this out How did I get to the stage? I wanna get up on stage, do this shit everyday And I won't care 'bout whatever they say, let 'em all pester away But I just can't shoot my shot, got a bad gun So I hate this motherfucker with a dream 'cause he has one By now, if you're still watching this shit You are a boss and you deserve some applause for this shit But we ain't over, we ain't done, though Am I takin' a break? Are you dumb, bro? Well, we nearin' 10K, but I still need 30K While all you sit around, I would rather work than play go through your dome, through your vertebrae Hit you back and forth till you end up at the pearly gates That was actually a pretty good bar I just wrote that like, right- a second ago, before I recorded this Ayy, ayy You know, just to add some- fill stuff in, uh Sometimes, I don't know what to think Sometimes, I don't know what'll Make it okay, make it okay I'm snorin' all day for dreams, yeah, ayy Uh, I wake up pondering, damn, my mind is wandering All these opportunities left squandered in my oxygen All accomplishments left haunted in my lack of confidence Often is the result of falling under consciousness You'd make babies cry, I make crazy lives You're just angry, 'cause you're livin' in a fading lie And I've been feeling this energy, feeling that somebody's getting the penalty Fearing that, one day ,you'll end up ahead of me, feeling that this is the end of me No, will I tell you? No, never- I think I'm so clever But in the grand scheme of things, I know that I'm no better But I don't ever Want to go to show, just one mo' letter I'm a go-getter, I go get A's and get grades And get A's, then wake up, and get C's, but get paid Uh... my life is so unusual To most, it isn't suitable, to me, it's irrefutable Can't see me in a cubicle, I'd rather watch my funeral I'd rather go back to stab my own brains out back in utero Uh, but you know that I'm capable You know I'ma pounce at any chance that is available Feeling so unique and I think it's not explainable No one hears my lyrics, and says, OMG, relatable! No, that's not what I'm here to give Been waiting years for this, you're about to experience Something that I've spent time, money and thought on Learned about all the times money had thought wrong Kinda funny, it's long gone, but time is crummy and not long I ain't lucky, I'm not calm, not by a lo</t>
+          <t>Now the band is playing very slow Once again I'll get my coat and go A lonely wallflower, waiting by the wall Without the willpower to face the music at all Please... Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me I feel so silly in my patent shoes So many partners but none of them will choose A lonely wallflower, growing very tired Into the small hours and feeling undesired Please... Won't somebody dance with me Start up a romance with me Just someone somewhere Someone who'll dare Take a chance with me Won't somebody dance with me Start up a romance with me Just someone somewhere Someone who'll dare Take a chance with me Just someone to care Someone somewhere For a dance with me Hi my name is Doug would you like to dance ? Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Beautiful Girls / Stand By Me</t>
+          <t>Darling</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>He drained his third cup of watery tea to the dregs and set to chewing the crusts of fried bread that were scattered near him, staring into the dark pool of the jar. The yellow dripping had been scooped out like a boghole and the pool under it brought back to his memory the dark turf-coloured water of the bath in Clongowes. The box of pawn tickets at his elbow had just been rifled and he took up idly one after another in his greasy fingers the blue and white dockets, scrawled and sanded and creased and bearing the name of the pledger as Daly or MacEvoy. 1 Pair Buskins 1 D. Coat 3 Articles and White 1 Man's Pants Then he put them aside and gazed thoughtfully at the lid of the box, speckled with louse marks, and asked vaguely How much is the clock fast now? His mother straightened the battered alarm clock that was lying on its side in the middle of the mantelpiece until its dial showed a quarter to twelve and then laid it once more on its side. An hour and twenty-five minutes, she said. The right time now is twenty past ten. The dear knows you might try to be in time for your lectures. Fill out the place for me to wash, said Stephen. Katey, fill out the place for Stephen to wash. Boody, fill out the place for Stephen to wash. I can't, I'm going for blue. Fill it out, you, Maggy. When the enamelled basin had been fitted into the well of the sink and the old washing glove flung on the side of it he allowed his mother to scrub his neck and root into the folds of his ears and into the interstices at the wings of his nose. Well, it's a poor case, she said, when a university student is so dirty that his mother has to wash him. But it gives you pleasure, said Stephen calmly. An ear-splitting whistle was heard from upstairs and his mother thrust a damp overall into his hands, saying Dry yourself and hurry out for the love of goodness. A second shrill whistle, prolonged angrily, brought one of the girls to the foot of the staircase. Yes, father? Is your lazy bitch of a brother gone out yet? Yes, father. Sure? Yes, father. Hm! The girl came back, making signs to him to be quick and go out quietly by the back. Stephen laughed and said He has a curious idea of genders if he thinks a bitch is masculine. Ah, it's a scandalous shame for you, Stephen, said his mother, and you'll live to rue the day you set your foot in that place. I know how it has changed you. Good morning, everybody, said Stephen, smiling and kissing the tips of his fingers in adieu. The lane behind the terrace was waterlogged and as he went down it slowly, choosing his steps amid heaps of wet rubbish, he heard a mad nun screeching in the nuns' madhouse beyond the wall. Jesus! O Jesus! Jesus! He shook the sound out of his ears by an angry toss of his head and hurried on, stumbling through the mouldering offal, his heart already bitten by an ache of loathing and bitterness. His father's whistle, his mother's mutterings, the screech of an unseen maniac were to him now so many voices offending and threatening to humble the pride of his youth. He drove their echoes even out of his heart with an execration but, as he walked down the avenue and felt the grey morning light falling about him through the dripping trees and smelt the strange wild smell of the wet leaves and bark, his soul was loosed of her miseries. The rain-laden trees of the avenue evoked in him, as always, memories of the girls and women in the plays of Gerhart Hauptmann and the memory of their pale sorrows and the fragrance falling from the wet branches mingled in a mood of quiet joy. His morning walk across the city had begun, and he foreknew that as he passed the sloblands of Fairview he would think of the cloistral silver-veined prose of Newman that as he walked along the North Strand Road, glancing idly at the windows of the provision shops, he would recall the dark humour of Guido Cavalcanti and smile that as he went by Baird's stonecutting works in Talbot Place the spirit of Ibsen would blow through him like a keen wind, a spirit of wayward boyish beauty and that passing a grimy marine dealer's shop beyond the Liffey he would repeat the song by Ben Jonson which begins I was not wearier where I lay His mind when wearied of its search for the essence of beauty amid the spectral words of Aristotle or Aquinas turned often for its pleasure to the dainty songs of the Elizabethans. His mind, in the vesture of a doubting monk, stood often in shadow under the windows of that age, to hear the grave and mocking music of the lutenists or the frank laughter of waist-coateers until a laugh too low, a phrase, tarnished by time, of chambering and false honour stung his monkish pride and drove him on from his lurking-place The lore which he was believed to pass his days brooding upon so that it had rapt him from the companionship of youth was only a garner of slender sentences from Aristotle's poetics and psychology and a SYNOPSIS PHILOSOPHIAE SCHOLASTICAE AD MENTEM DIVI THOMAE. His thinking was a dusk of doubt and self-mistrust, lit up at moments by the lightnings of intuition, but lightnings of so clear a splendour that in those moments the world perished about his feet as if it had been fire-consumed and thereafter his tongue grew heavy and he met the eyes of others with unanswering eyes, for he felt that the spirit of beauty had folded him round like a mantle and that in revery at least he had been acquainted with nobility. But when this brief pride of silence upheld him no longer he was glad to find himself still in the midst of common lives, passing on his way amid the squalor and noise and sloth of the city fearlessly and with a light heart Near the hoardings on the canal he met the consumptive man with the doll's face and the brimless hat coming towards him down the slope of the bridge with little steps, tightly buttoned into his chocolate overcoat, and holding his furled umbrella a span or two from him like a divining rod. It must be eleven, he thought, and peered into a dairy to see the time. The clock in the dairy told him that it was five minutes to five but, as he turned away, he heard a clock somewhere near him, but unseen, beating eleven strokes in swift precision. He laughed as he heard it for it made him think of McCann, and he saw him a squat figure in a shooting jacket and breeches and with a fair goatee, standing in the wind at Hopkins' corner, and heard him say Dedalus, you're an antisocial being, wrapped up in yourself. I'm not. I'm a democrat and I'll work and act for social liberty and equality among all classes and sexes in the United States of the Europe of the future Eleven! Then he was late for that lecture too. What day of the week was it? He stopped at a newsagent's to read the headline of a placard. Thursday. Ten to eleven, English eleven to twelve, French twelve to one, physics. He fancied to himself the English lecture and felt, even at that distance, restless and helpless. He saw the heads of his classmates meekly bent as they wrote in their notebooks the points they were bidden to note, nominal definitions, essential definitions and examples or dates of birth or death, chief works, a favourable and an unfavourable criticism side by side. His own head was unbent for his thoughts wandered abroad and whether he looked around the little class of students or out of the window across the desolate gardens of the green an odour assailed him of cheerless cellar-damp and decay. Another head than his, right before him in the first benches, was poised squarely above its bending fellows like the head of a priest appealing without humility to the tabernacle for the humble worshippers about him. Why was it that when he thought of Cranly he could never raise before his mind the entire image of his body but only the image of the head and face? Even now against the grey curtain of the morning he saw it before him like the phantom of a dream, the face of a severed head or death-mask, crowned on the brows by its stiff black upright hair as by an iron crown. It was a priest-like face, priest-like in its palor, in the wide winged nose, in the shadowings below the eyes and along the jaws, priest-like in the lips that were long and bloodless and faintly smiling and Stephen, remembering swiftly how he had told Cranly of all the tumults and unrest and longings in his soul, day after day and night by night, only to be answered by his friend's listening silence, would have told himself that it was the face of a guilty priest who heard confessions of those whom he had not power to absolve but that he felt again in memory the gaze of its dark womanish eyes Through this image he had a glimpse of a strange dark cavern of speculation but at once turned away from it, feeling that it was not yet the hour to enter it. But the nightshade of his friend's listlessness seemed to be diffusing in the air around him a tenuous and deadly exhalation and He found himself glancing from one casual word to another on his right or left in stolid wonder that they had been so silently emptied of instantaneous sense until every mean shop legend bound his mind like the words of a spell and his soul shrivelled up sighing with age as he walked on in a lane among heaps of dead language. His own consciousness of language was ebbing from his brain and trickling into the very words themselves which set to band and disband themselves in wayward rhythms The ivy whines upon the wall And whines and twines upon the wall The yellow ivy upon the wall Ivy, ivy up the wall Did anyone ever hear such drivel? Lord Almighty! Who ever heard of ivy whining on a wall? Yellow ivy that was all right. Yellow ivory also. And what about ivory ivy? The word now shone in his brain, clearer and brighter than any ivory sawn from the mottled tusks of elephants. IVORY, IVOIRE, AVORIO, EBUR. One of the first examples that he had learnt in Latin had run INDIA MITTIT EBUR and he recalled the shrewd northern face of the rector who had taught him to construe the Metamorphoses of Ovid in a courtly English, made whimsical by the mention of porkers and potsherds and chines of bacon. He had learnt what little he knew of the laws of Latin verse from a ragged book written by a Portuguese priest Contrahit orator, variant in carmine vates The crises and victories and secessions in Roman history were handed on to him in the trite words IN TANTO DISCRIMINE and he had tried to peer into the social life of the city of cities through the words IMPLERE OLLAM DENARIORUM which the rector had rendered sonorously as the filling of a pot with denaries. The pages of his time-worn Horace never felt cold to the touch even when his own fingers were cold they were human pages and fifty years before they had been turned by the human fingers of John Duncan Inverarity and by his brother, William Malcolm Inverarity. Yes, those were noble names on the dusky flyleaf and, even for so poor a Latinist as he, the dusky verses were as fragrant as though they had lain all those years in myrtle and lavender and vervain but yet it wounded him to think that he would never be but a shy guest at the feast of the world's culture and that the monkish learning, in terms of which he was striving to forge out an esthetic philosophy, was held no higher by the age he lived in than the subtle and curious jargons of heraldry and falconry The grey block of Trinity on his left, set heavily in the city's ignorance like a dull stone set in a cumbrous ring, pulled his mind downward and while he was striving this way and that to free his feet from the fetters of the reformed conscience he came upon the droll statue of the national poet of Ireland He looked at it without anger for, though sloth of the body and of the soul crept over it like unseen vermin, over the shuffling feet and up the folds of the cloak and around the servile head, it seemed humbly conscious of its indignity. It was a Firbolg in the borrowed cloak of a Milesian and he thought of his friend Davin, the peasant student. It was a jesting name between them, but the young peasant bore with it lightly Go on, Stevie, I have a hard head, you tell me. Call me what you will The homely version of his christian name on the lips of his friend had touched Stephen pleasantly when first heard for he was as formal in speech with others as they were with him. Often, as he sat in Davin's rooms in Grantham Street, wondering at his friend's well-made boots that flanked the wall pair by pair and repeating for his friend's simple ear the verses and cadences of others which were the veils of his own longing and dejection, the rude Firbolg mind of his listener had drawn his mind towards it and flung it back again, drawing it by a quiet inbred courtesy of attention or by a quaint turn of old English speech or by the force of its delight in rude bodily skillfor Davin had sat at the feet of Michael Cusack, the Gaelrepelling swiftly and suddenly by a grossness of intelligence or by a bluntness of feeling or by a dull stare of terror in the eyes, the terror of soul of a starving Irish village in which the curfew was still a nightly fear Side by side with his memory of the deeds of prowess of his uncle Mat Davin, the athlete, the young peasant worshipped the sorrowful legend of Ireland. The gossip of his fellow-students which strove to render the flat life of the college significant at any cost loved to think of him as a young fenian. His nurse had taught him Irish and shaped his rude imagination by the broken lights of Irish myth. He stood towards the myth upon which no individual mind had ever drawn out a line of beauty and to its unwieldy tales that divided against themselves as they moved down the cycles in the same attitude as towards the Roman catholic religion, the attitude of a dull-witted loyal serf. Whatsoever of thought or of feeling came to him from England or by way of English culture his mind stood armed against in obedience to a password and of the world that lay beyond England he knew only the foreign legion of France in which he spoke of serving Coupling this ambition with the young man's humour Stephen had often called him one of the tame geese and there was even a point of irritation in the name pointed against that very reluctance of speech and deed in his friend which seemed so often to stand between Stephen's mind, eager of speculation, and the hidden ways of Irish life One night the young peasant, his spirit stung by the violent or luxurious language in which Stephen escaped from the cold silence of intellectual revolt, had called up before Stephen's mind a strange vision. The two were walking slowly towards Davin's rooms through the dark narrow streets of the poorer jews A thing happened to myself, Stevie, last autumn, coming on winter, and I never told it to a living soul and you are the first person now I ever told it to. I disremember if it was October or November. It was October because it was before I came up here to join the matriculation class Stephen had turned his smiling eyes towards his friend's face, flattered by his confidence and won over to sympathy by the speaker's simple accent I was away all that day from my own place over in Buttevant I don't know if you know where that isat a hurling match between the Croke's Own Boys and the Fearless Thurles and by God, Stevie, that was the hard fight. My first cousin, Fonsy Davin, was stripped to his buff that day minding cool for the Limericks but he was up with the forwards half the time and shouting like mad. I never will forget that day. One of the Crokes made a woeful wipe at him one time with his caman and I declare to God he was within an aim's ace of getting it at the side of his temple. Oh, honest to God, if the crook of it caught him that time he was done for I am glad he escaped, Stephen had said with a laugh, but surely that's not the strange thing that happened you? Well, I suppose that doesn't interest you, but leastways there was such noise after the match that I missed the train home and I couldn't get any kind of a yoke to give me a lift for, as luck would have it, there was a mass meeting that same day over in Castletownroche and all the cars in the country were there. So there was nothing for it only to stay the night or to foot it out. Well, I started to walk and on I went and it was coming on night when I got into the Ballyhoura hills, that's better than ten miles from Kilmallock and there's a long lonely road after that. You wouldn't see the sign of a christian house along the road or hear a sound. It was pitch dark almost. Once or twice I stopped by the way under a bush to redden my pipe and only for the dew was thick I'd have stretched out there and slept. At last, after a bend of the road, I spied a little cottage with a light in the window. I went up and knocked at the door. A voice asked who was there and I answered I was over at the match in Buttevant and was walking back and that I'd be thankful for a glass of water. After a while a young woman opened the door and brought me out a big mug of milk. She was half undressed as if she was going to bed when I knocked and she had her hair hanging and I thought by her figure and by something in the look of her eyes that she must be carrying a child. She kept me in talk a long while at the door, and I thought it strange because her breast and her shoulders were bare. She asked me was I tired and would I like to stop the night there. She said she was all alone in the house and that her husband had gone that morning to Queenstown with his sister to see her off. And all the time she was talking, Stevie, she had her eyes fixed on my face and she stood so close to me I could hear her breathing. When I handed her back the mug at last she took my hand to draw me in over the threshold and said 'COME IN AND STAY THE NIGHT HERE. YOU'VE NO CALL TO BE FRIGHTENED. THERE'S NO ONE IN IT BUT OURSELVES...' I didn't go in, Stevie. I thanked her and went on my way again, all in a fever. At the first bend of the road I looked back and she was standing at the door The last words of Davin's story sang in his memory and the figure of the woman in the story stood forth reflected in other figures of the peasant women whom he had seen standing in the doorways at Clane as the college cars drove by, as a type of her race and of his own, a bat-like soul waking to the consciousness of itself in darkness and secrecy and loneliness and, through the eyes and voice and gesture of a woman without guile, calling the stranger to her bed A hand was laid on his arm and a young voice cried Ah, gentleman, your own girl, sir! The first handsel today, gentleman. Buy that lovely bunch. Will you, gentleman? The blue flowers which she lifted towards him and her young blue eyes seemed to him at that instant images of guilelessness, and he halted till the image had vanished and he saw only her ragged dress and damp coarse hair and hoydenish face Do, gentleman! Don't forget your own girl, sir! I have no money, said Stephen Buy them lovely ones, will you, sir? Only a penny Did you hear what I said? asked Stephen, bending towards her. I told you I had no money. I tell you again now Well, sure, you will some day, sir, please God, the girl answered after an instant Possibly, said Stephen, but I don't think it likely He left her quickly, fearing that her intimacy might turn to jibing and wishing to be out of the way before she offered her ware to another, a tourist from England or a student of Trinity. Grafton Street, along which he walked, prolonged that moment of discouraged poverty. In the roadway at the head of the street a slab was set to the memory of Wolfe Tone and he remembered having been present with his father at its laying. He remembered with bitterness that scene of tawdry tribute. There were four French delegates in a brake and one, a plump smiling young man, held, wedged on a stick, a card on which were printed the words VIVE L'IRLANDE! But the trees in Stephen's Green were fragrant of rain and the rain-sodden earth gave forth its mortal odour, a faint incense rising upward through the mould from many hearts. The soul of the gallant venal city which his elders had told him of had shrunk with time to a faint mortal odour rising from the earth and he knew that in a moment when he entered the sombre college he would be conscious of a corruption other than that of Buck Egan and Burnchapel Whaley It was too late to go upstairs to the French class. He crossed the hall and took the corridor to the left which led to the physics theatre. The corridor was dark and silent but not unwatchful. Why did he feel that it was not unwatchful? Was it because he had heard that in Buck Whaley's time there was a secret staircase there? Or was the jesuit house extra-territorial and was he walking among aliens? The Ireland of Tone and of Parnell seemed to have receded in space He opened the door of the theatre and halted in the chilly grey light that struggled through the dusty windows. A figure was crouching before the large grate and by its leanness and greyness he knew that it was the dean of studies lighting the fire. Stephen closed the door quietly and approached the fireplace Good morning, sir! Can I help you? The priest looked up quickly and said One moment now, Mr Dedalus, and you will see. There is an art in lighting a fire. We have the liberal arts and we have the useful arts. This is one of the useful arts I will try to learn it, said Stephen Not too much coal, said the dean, working briskly at his task, that is one of the secrets He produced four candle-butts from the side-pockets of his soutane and placed them deftly among the coals and twisted papers. Stephen watched him in silence. Kneeling thus on the flagstone to kindle the fire and busied with the disposition of his wisps of paper and candle-butts he seemed more than ever a humble server making ready the place of sacrifice in an empty temple, a levite of the Lord. Like a levite's robe of plain linen the faded worn soutane draped the kneeling figure of one whom the canonicals or the bell-bordered ephod would irk and trouble. His very body had waxed old in lowly service of the Lordin tending the fire upon the altar, in bearing tidings secretly, in waiting upon worldlings, in striking swiftly when biddenand yet had remained ungraced by aught of saintly or of prelatic beauty. Nay, his very soul had waxed old in that service without growing towards light and beauty or spreading abroad a sweet odour of her sanctitya mortified will no more responsive to the thrill of its obedience than was to the thrill of love or combat his ageing body, spare and sinewy, greyed with a silver-pointed down The dean rested back on his hunkers and watched the sticks catch. Stephen, to fill the silence, said I am sure I could not light a fire You are an artist, are you not, Mr Dedalus? said the dean, glancing up and blinking his pale eyes. The object of the artist is the creation of the beautiful. What the beautiful is is another question He rubbed his hands slowly and drily over the difficulty Can you solve that question now? he asked Aquinas, answered Stephen, says PULCRA SUNT QUAE VISA PLACENT This fire before us, said the dean, will be pleasing to the eye. Will it therefore be beautiful? In so far as it is apprehended by the sight, which I suppose means here esthetic intellection, it will be beautiful. But Aquinas also says BONUM EST IN QUOD TENDIT APPETITUS. In so far as it satisfies the animal craving for warmth fire is a good. In hell, however, it is an evil Quite so, said the dean, you have certainly hit the nail on the head He rose nimbly and went towards the door, set it ajar and said A draught is said to be a help in these matters As he came back to the hearth, limping slightly but with a brisk step, Stephen saw the silent soul of a jesuit look out at him from the pale loveless eyes. Like Ignatius he was lame but in his eyes burned no spark of Ignatius's enthusiasm. Even the legendary craft of the company, a craft subtler and more secret than its fabled books of secret subtle wisdom, had not fired his soul with the energy of apostleship. It seemed as if he used the shifts and lore and cunning of the world, as bidden to do, for the greater glory of God, without joy in their handling or hatred of that in them which was evil but turning them, with a firm gesture of obedience back upon themselves and for all this silent service it seemed as if he loved not at all the master and little, if at all, the ends he served. SIMILITER ATQUE SENIS BACULUS, he was, as the founder would have had him, like a staff in an old man's hand, to be leaned on in the road at nightfall or in stress of weather, to lie with a lady's nosegay on a garden seat, to be raised in menace The dean returned to the hearth and began to stroke his chin When may we expect to have something from you on the esthetic question? he asked From me! said Stephen in astonishment. I stumble on an idea once a fortnight if I am lucky These questions are very profound, Mr Dedalus, said the dean. It is like looking down from the cliffs of Moher into the depths. Many go down into the depths and never come up. Only the trained diver can go down into those depths and explore them and come to the surface again If you mean speculation, sir, said Stephen, I also am sure that there is no such thing as free thinking inasmuch as all thinking must be bound by its own laws Ha! For my purpose I can work on at present by the light of one or two ideas of Aristotle and Aquinas I see. I quite see your point I need them only for my own use and guidance until I have done something for myself by their light. If the lamp smokes or smells I shall try to trim it. If it does not give light enough I shall sell it and buy another Epictetus also had a lamp, said the dean, which was sold for a fancy price after his death. It was the lamp he wrote his philosophical dissertations by. You know Epictetus? An old gentleman, said Stephen coarsely, who said that the soul is very like a bucketful of water He tells us in his homely way, the dean went on, that he put an iron lamp before a statue of one of the gods and that a thief stole the lamp. What did the philosopher do? He reflected that it was in the character of a thief to steal and determined to buy an earthen lamp next day instead of the iron lamp A smell of molten tallow came up from the dean's candle butts and fused itself in Stephen's consciousness with the jingle of the words, bucket and lamp and lamp and bucket. The priest's voice, too, had a hard jingling tone. Stephen's mind halted by instinct, checked by the strange tone and the imagery and by the priest's face which seemed like an unlit lamp or a reflector hung in a false focus. What lay behind it or within it? A dull torpor of the soul or the dullness of the thundercloud, charged with intellection and capable of the gloom of God? I meant a different kind of lamp, sir, said Stephen Undoubtedly, said the dean One difficulty, said Stephen, in esthetic discussion is to know whether words are being used according to the literary tradition or according to the tradition of the marketplace. I remember a sentence of Newman's in which he says of the Blessed Virgin that she was detained in the full company of the saints. The use of the word in the marketplace is quite different. I HOPE I AM NOT DETAINING YOU Not in the least, said the dean politely No, no, said Stephen, smiling, I mean Yes, yes I see, said the dean quickly, I quite catch the point DETAIN He thrust forward his under jaw and uttered a dry short cough To return to the lamp, he said, the feeding of it is also a nice problem. You must choose the pure oil and you must be careful when you pour it in not to overflow it, not to pour in more than the funnel can hold What funnel? asked Stephen The funnel through which you pour the oil into your lamp That? said Stephen. Is that called a funnel? Is it not a tundish? What is a tundish? That. The... funnel Is that called a tundish in Ireland? asked the dean. I never heard the word in my life It is called a tundish in Lower Drumcondra, said Stephen, laughing, where they speak the best English A tundish, said the dean reflectively. That is a most interesting word. I must look that word up. Upon my word I must His courtesy of manner rang a little false and Stephen looked at the English convert with the same eyes as the elder brother in the parable may have turned on the prodigal. A humble follower in the wake of clamorous conversions, a poor Englishman in Ireland, he seemed to have entered on the stage of jesuit history when that strange play of intrigue and suffering and envy and struggle and indignity had been all but given througha late-comer, a tardy spirit. From what had he set out? Perhaps he had been born and bred among serious dissenters, seeing salvation in Jesus only and abhorring the vain pomps of the establishment. Had he felt the need of an implicit faith amid the welter of sectarianism and the jargon of its turbulent schisms, six principle men, peculiar people, seed and snake baptists, supralapsarian dogmatists? Had he found the true church all of a sudden in winding up to the end like a reel of cotton some fine-spun line of reasoning upon insufflation on the imposition of hands or the procession of the Holy Ghost? Or had Lord Christ touched him and bidden him follow, like that disciple who had sat at the receipt of custom, as he sat by the door of some zinc-roofed chapel, yawning and telling over his church pence? The dean repeated the word yet again Tundish! Well now, that is interesting! The question you asked me a moment ago seems to me more interesting. What is that beauty which the artist struggles to express from lumps of earth, said Stephen coldly The little word seemed to have turned a rapier point of his sensitiveness against this courteous and vigilant foe. He felt with a smart of dejection that the man to whom he was speaking was a countryman of Ben Jonson. He thought The language in which we are speaking is his before it is mine. How different are the words HOME, CHRIST, ALE, MASTER, on his lips and on mine! I cannot speak or write these words without unrest of spirit. His language, so familiar and so foreign, will always be for me an acquired speech. I have not made or accepted its words. My voice holds them at bay. My soul frets in the shadow of his language And to distinguish between the beautiful and the sublime, the dean added, to distinguish between moral beauty and material beauty. And to inquire what kind of beauty is proper to each of the various arts. These are some interesting points we might take up Stephen, disheartened suddenly by the dean's firm, dry tone, was silent and through the silence a distant noise of many boots and confused voices came up the staircase In pursuing these speculations, said the dean conclusively, there is, however, the danger of perishing of inanition. First you must take your degree. Set that before you as your first aim. Then, little by little, you will see your way. I mean in every sense, your way in life and in thinking. It may be uphill pedalling at first. Take Mr Moonan. He was a long time before he got to the top. But he got there I may not have his talent, said Stephen quietly You never know, said the dean brightly. We never can say what is in us. I most certainly should not be despondent. PER ASPERA AD ASTRA He left the hearth quickly and went towards the landing to oversee the arrival of the first arts' class Leaning against the fireplace Stephen heard him greet briskly and impartially every Student of the class and could almost see the frank smiles of the coarser students. A desolating pity began to fall like dew upon his easily embittered heart for this faithful serving-man of the knightly Loyola, for this half-brother of the clergy, more venal than they in speech, more steadfast of soul than they, one whom he would never call his ghostly father and he thought how this man and his companions had earned the name of worldlings at the hands not of the unworldly only but of the worldly also for having pleaded, during all their history, at the bar of God's justice for the souls of the lax and the lukewarm and the prudent The entry of the professor was signalled by a few rounds of Kentish fire from the heavy boots of those students who sat on the highest tier of the gloomy theatre under the grey cobwebbed windows. The calling of the roll began and the responses to the names were given out in all tones until the name of Peter Byrne was reached Here! A deep bass note in response came from the upper tier, followed by coughs of protest along the other benches The professor paused i</t>
+          <t>Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Ik kan je brengen naar de wild wild west Maar luister goed naar wat je mama zegt Want ik heb hier die badman flex En je weet ik heb die badman sex, en Je weet ik heb die badman sauce No lie, ik houd het echt met jou Je weet dat ik vecht met jou That way, ik ga weg met jou my girl I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Bad gyal o be dada mi Ik wil niet dat je aan me zit aan me zit Maar ik wil dat je met me danst yeah, yeah Come again, want ik grijp mijn kans Pull up selecta Club shutdown like Skepta Matta op de bank, Manchester Ik was al lit voor ik rapte Oh je kijkt me zolang aan Kan je die dingen ook langzaam? Ja ik weet een manier wooh, wooh Manier hoe het kan gaan Baby, ik wil niet meer blijven hangen aan de zijkant Jij bent veel mooier aan mijn hand Wat is het niet, wat is het wel, wat gaat het zijn dan Ik wil niet meer in wachten in de rij, want Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Nobody haffi know, say we're gon' fuck ey Heb die pussy on lock Fine China, you wanna glow up Ik bel Kleine, you wanna turn up Tell me wan fi di whine pon me All the night, till the next morning Je ziet de ice, wanna be darling Je ziet de ice, wanna be darling Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Because of You</t>
+          <t>Didn’t It</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>I will not make the same mistakes that you did I will not let myself Cause my heart so much misery I will not break the way you did You fell so hard I've learned the hard way To never let it get that far Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I find it hard to trust not only me, but everyone around me Because of you I am afraid I lose my way And it's not too long before you point it out I cannot cry Because I know that's weakness in your eyes I'm forced to fake A smile, a laugh everyday of my life My heart can't possibly break When it wasn't even whole to start with Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I find it hard to trust not only me, but everyone around me Because of you I am afraid I watched you die I heard you cry every night in your sleep I was so young You should have known better than to lean on me You never thought of anyone else You just saw your pain And now I cry in the middle of the night For the same damn thing Because of you I never stray too far from the sidewalk Because of you I learned to play on the safe side so I don't get hurt Because of you I try my hardest just to forget everything Because of you I don't know how to let anyone else in Because of you I'm ashamed of my life because it's empty Because of you I am afraid Because of you</t>
+          <t>I didn't know what time it was Then I met you Oh, what a lovely time it was How sublime it was too! I didn't know what day it was Then you held my hand Warm like the month of May it was And I'll say it was grand Grand to be alive, to be young To be mad, to be yours alone Grand to see your face, feel your touch Hear your voice say I'm all your own I didn't know what year it was Life was no prize I wanted love and here it was Shining out of your eyes I'm wise and I know what time it is now</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bésame Mucho</t>
+          <t>Do It In the Name Of Love</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bésame, bésame mucho Each time I cling to your kiss, I hear music divine Oh bésame, bésame mucho Come on and hold me my darling and make all my dreams come true This joy is something new My arms enfolding you Never knew this thrill before Whoever thought I'd be Holding you close to me Whispering It's you I adore Mmm, dearest one, if you should leave me Each little dream would take wings and my life would be through Oh bésame, bésame mucho Love me forever and make all my dreams come true This joy is something new My arms enfolding you Never knew this thrill before, mmm Whoever thought I'd be Holding you close to me Whispering It's you I adore Ahh, but dearest one, if you should leave me Each little dream would take wings and my life would be through Oh bésame, aww bésame mucho Come on and love me forever and make all my dreams come true Baby, baby Come on and love me forever and make all my dreams come true Darling, com on Come on and love me forever and make all my dreams come true</t>
+          <t>Do it, do it, you can do it Do it in the name of love Do it baby do it I like to see you Do it in the name of love Oh, woman, why don't you do it I'd like to see you try do it Why don't you do it Do it in the name of love My mama told me a long time ago Remember, in love There's no easy road You've got to give more than you get You never know what to expect Hey, sometimes you're up up Sometimes you're down down Sometimes you whole word will Come crashing down crashing down Oh, love can be No more than you make it Hang on in there And you're gonna make it Just get your strength From the Lord above Hey, do it do it do do it Do it in the name of love Do it oh, yeah do it Why don't you do it In the name of love do it You've got to work work Fight fight Try with all your might Get your strength from The Lord up above, oh, oh, hey Do it in the name of love Do it and I'd like to see you try Do it why don't you Do it in the name of love I'd like to see you try do it Why don't you do it oh, no, no Do it in the name of love There's temptations all around Don't you let it get you down Think about your woman Think about your woman Think about your man Think about your man Keep it together Stay hand in hand Hand in hand Sometimes you cause Each other so much pain And then again You're sweet as sugar cane You've got to show What you give for each other Then you will succeed as lovers Just get your strength from The Lord up above Lord above And do it, do it Do it in the name of love Do it yeah, hey, hey do it Why don't you do it in The name of love do it You've got to work work Fight fight Try with all your might Get your strength from The Lord up above From the Lord above oh Do it in the name of love Do it why don't you try do it Do it, do it, do it Do it in the name of love Hey, honey Why don't you try do it You can do it do it Why don't you Do it in the name of love</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Brace Yourself</t>
+          <t>Down Home</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mmm, but I had to come say something to you, girl Now when I saw you standing over there in the corner, yeah I told myself, good God, she's nice and I want her So here I am baby, on the spot You'll need an army to make me stop So pay attention to this You're gonna get kissed You better brace yourself Just snap your finger and I'll start into hopping, yeah You got my mind going wild and there's no stopping So here I am baby, please don't run I know that we could have lots of fun So pay attention to this You're gonna get kissed You'd better brace yourself You make me feel like I've never felt before, whoa I feel like I could lift a hundred tons or more I'd go to pieces, baby, if you should reject me And I know I'd die if I thought you'd forget me I don't know what's come over me I only know that it's heavenly So pay attention to this You're gonna get kissed You'd better brace yourself Here I come baby With all that's love Here I come, baby, with lips that's gonna kiss you Whoa, you better brace yourself</t>
+          <t>Down home... Oh, down home There used to be rivers and trees Fresh bread every single morning And sweet magnolia in the breeze Oh, fishing lines and young dreams Oh, I hear them calling to me But there's no way to get down home Cuz down home's just a memory Wish I could leave this big town City living ain't living to me But there's no way to get down home No you can't retrieve it Cuz once you leave it Oh, down home's just a memory Down home... Oh, down home</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Come Closer to Me</t>
+          <t>Dream Lover</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Come closer to me So I can see heaven in your eyes Ah, come closer to me So I can be close to paradise Thrill me with your kisses Let me learn what bliss is Kiss me once and then We'll kiss and kiss again And life will be divine Come closer my dear So I can hear music in my heart I've waited so long to hear The song that your love will start Darling, I'll adore you Live my life just for you All I ask is this Please give me on more kiss And say that you'll be mine Hacr why vá ter más, why más Why más, pero mucho más Viver sole assím, assím, assím Como queirás tu Darling, I'll adore you I'll live my life just for you All I ask is this Please give me one more kiss And say that you'll be mine Viver sole assím Viver sole assím Come closer to me</t>
+          <t>Every night I hope and pray A dream lover will come my way A girl to hold in my arms And know the magic of her charms 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Dream lover, where are you With a love, oh, so true And the hand that I can hold To feel you near as I grow old 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Someday, I don't know how I hope she'll hear my plea Some way, I don't know how She'll bring her love to me Dream lover, until then I'll go to sleep and dream again That's the only thing to do Till all my lover's dreams come true 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Dream lover, until then I'll go to sleep and dream again That's the only thing to do Till all my lover's dreams come true 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Please don't make me dream alone I beg you don't make me dream alone No, I don't wanna dream</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dance With Me</t>
+          <t>Ecstasy</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Now the band is playing very slow Once again I'll get my coat and go A lonely wallflower, waiting by the wall Without the willpower to face the music at all Please... Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me I feel so silly in my patent shoes So many partners but none of them will choose A lonely wallflower, growing very tired Into the small hours and feeling undesired Please... Won't somebody dance with me Start up a romance with me Just someone somewhere Someone who'll dare Take a chance with me Won't somebody dance with me Start up a romance with me Just someone somewhere Someone who'll dare Take a chance with me Just someone to care Someone somewhere For a dance with me Hi my name is Doug would you like to dance ? Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me Won't somebody dance with me Start up a romance with me Just someone to care Someone so rare For a dance with me</t>
+          <t>The magic of your kiss Is holding you like this Is ecstasy ecstasy The love that you have given Makes this life I'm livin' Ecstasy ecstasy Never let me go Let that love light show Ah, take me by the hand a And lead me to the land Of ecstasy ecstasy The first time that I saw you You showed me the door To ecstasy ecstasy Now I just keep prayin' That you're always thinkin' Ecstasy ecstasy Oh, but don't you go away For a single day Come on and take me by the hand And lead me to the land Of ecstasy ecstasy Travel up and down Much never have I found Such ecstasy ecstasy Now dear that I know You everywhere I go Through ecstasy ecstasy Kiss me dear and then Oh, kiss me once again Come on and take me by the hand And lead me to the land Of ecstasy ecstasy Ecstasy Ecstasy Baby, baby, baby</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Darling</t>
+          <t>Evil</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Ik kan je brengen naar de wild wild west Maar luister goed naar wat je mama zegt Want ik heb hier die badman flex En je weet ik heb die badman sex, en Je weet ik heb die badman sauce No lie, ik houd het echt met jou Je weet dat ik vecht met jou That way, ik ga weg met jou my girl I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me I'm looking for a bad gyal to dansi for me Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Bad gyal o be dada mi Ik wil niet dat je aan me zit aan me zit Maar ik wil dat je met me danst yeah, yeah Come again, want ik grijp mijn kans Pull up selecta Club shutdown like Skepta Matta op de bank, Manchester Ik was al lit voor ik rapte Oh je kijkt me zolang aan Kan je die dingen ook langzaam? Ja ik weet een manier wooh, wooh Manier hoe het kan gaan Baby, ik wil niet meer blijven hangen aan de zijkant Jij bent veel mooier aan mijn hand Wat is het niet, wat is het wel, wat gaat het zijn dan Ik wil niet meer in wachten in de rij, want Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Nobody haffi know, say we're gon' fuck ey Heb die pussy on lock Fine China, you wanna glow up Ik bel Kleine, you wanna turn up Tell me wan fi di whine pon me All the night, till the next morning Je ziet de ice, wanna be darling Je ziet de ice, wanna be darling Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey Ben je mami wata, schat, of ben je dat niet? Ik wil dat je waka met je lovely body Ik wil dat je danst, yeah-yeah, dans it for me Ik wil dat je waka met je lovely body ey, ey, ey</t>
+          <t>You mothafuckas I eat you for fuckin' breakfast And not even be fuckin' full You're fuckin' appetizers You're my breakfast, fuckin' appetizers Shyea Jesus Christ, I can see in his eyes that he's conniving I'll be defiant till achieving highness like Leonidas I speak my mind and these demons are preaching silence You're marketed like the industry's slut and I'ma treat you like it Get slapped up, kiss ass punk Get snatched up for trying to distract us, diss track this I'll bury you, that's established You know the shit that make you think that your shit's whack? Well, this that shit Ditch that shit, you'll never create a legacy You're the lamest lame will ever be They want me to name an enemy But why would I end a career they ain't even start yet? That's a waste of energy Waste of energy Pay attention, we create our pedigree While they especially are praying desperately to cage us mentally They eventually will taste the recipe of angry tendencies So page the deputy I'll make sure they will credit me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me And we don't fuck around You don't actually burn calories when you go run your mouth, so why you sweating so hard? I am the underground, they see the roots in me They root for me, my routine is being the rude teen Who's he? Token I'm different than you chumps though Do I brag about the money, clothes, drugs, hoes While musically losing control? Do I perform a thirty minute set while only using one flow? Fuck no! That's where I draw the line They're loving the intellectual homicide Only really care about the dollar signs Anyone who is gullible qualifies They colonize all your minds and occupy each thought they find Everybody looking like a puppet to me but everyone too stupid to see it, I'm not surprised, nah I am the stop to this I am the prophet not only intent on profiting But still psycho to my psychologist He said the only person fit to battle me is my second personality So I bodied him When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me Yeah Token is a visionary in a fairly twisted, scary, scripted parody And he carries emissaries fit to bury sissy fairies In the very cemetery he's getting married to the dictionary at That's how he kills canaries Blah! I kill a rival on arrival Ever since I went viral they call me vile And I don't use the word faggot anymore cause critics twist my words into a spiral Just tell them I'm feeling homo-cidal I don't know polite Man I'm telling you rappers, you don't need to keep up, you can look at me like a poltergeist If you need a ghost to write I'll blow your mind If I don't, I'll blow your mind I ought to make 'em an ultimatum They automate them then control what they say Say That controls how you think Think, that's controlling your day Day That's controlling your life Life So cut your strings, I'll show you the knife We're needed in this game, I don't give a fuck if they like it When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me3</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Didn’t It</t>
+          <t>Fever</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>I didn't know what time it was Then I met you Oh, what a lovely time it was How sublime it was too! I didn't know what day it was Then you held my hand Warm like the month of May it was And I'll say it was grand Grand to be alive, to be young To be mad, to be yours alone Grand to see your face, feel your touch Hear your voice say I'm all your own I didn't know what year it was Life was no prize I wanted love and here it was Shining out of your eyes I'm wise and I know what time it is now</t>
+          <t>Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten Baby, jij geeft me fever Ben je m'n Hailey? Schat, dan word ik je Bieber Ey Luister habiba, van ik je kent my baby, had ik geen type Nee-ay Ze zegt ik ben een dief, nu is alles van mij Small waist hoe je movet, baby geef me iets kleins Kijk me ook al daar in Dub, daarna door naar Parijs Baby, zeg alleen maar Poef, en je weet je verdwijnt En ben ik effe weg, ben ik calling Ben een junk voor je font- en je back en Schat, ik weet niet maar je juice is verslavend Want ik wil 't weer again and again and again Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten Baby, ik voel de liefde Ik wil je hebben, baby, kan niet meer liegen Yeah Je laat me je pleasen We kunnen samen overal naartoe vliegen Baby Ik ben weer in de mood, zet je body op mij Echt je heupen zijn gevaalijk, dit kan zo m'n dood zijn Lieve schat, je bent een ster hoe je in de nacht schijnt Met jou ik heb geen haast, baby girl, ik heb tijd En ben ik effe weg, ben ik calling Ben een junk voor je font- en je back en Schat, ik weet niet maar je juice is verslavend Want ik wil 't weer again and again and again Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Do It In the Name Of Love</t>
+          <t>First Taste of Love</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Do it, do it, you can do it Do it in the name of love Do it baby do it I like to see you Do it in the name of love Oh, woman, why don't you do it I'd like to see you try do it Why don't you do it Do it in the name of love My mama told me a long time ago Remember, in love There's no easy road You've got to give more than you get You never know what to expect Hey, sometimes you're up up Sometimes you're down down Sometimes you whole word will Come crashing down crashing down Oh, love can be No more than you make it Hang on in there And you're gonna make it Just get your strength From the Lord above Hey, do it do it do do it Do it in the name of love Do it oh, yeah do it Why don't you do it In the name of love do it You've got to work work Fight fight Try with all your might Get your strength from The Lord up above, oh, oh, hey Do it in the name of love Do it and I'd like to see you try Do it why don't you Do it in the name of love I'd like to see you try do it Why don't you do it oh, no, no Do it in the name of love There's temptations all around Don't you let it get you down Think about your woman Think about your woman Think about your man Think about your man Keep it together Stay hand in hand Hand in hand Sometimes you cause Each other so much pain And then again You're sweet as sugar cane You've got to show What you give for each other Then you will succeed as lovers Just get your strength from The Lord up above Lord above And do it, do it Do it in the name of love Do it yeah, hey, hey do it Why don't you do it in The name of love do it You've got to work work Fight fight Try with all your might Get your strength from The Lord up above From the Lord above oh Do it in the name of love Do it why don't you try do it Do it, do it, do it Do it in the name of love Hey, honey Why don't you try do it You can do it do it Why don't you Do it in the name of love</t>
+          <t>Mmm, the very first time you kissed me, it was so thrilling What made it so great was I knew that your heart was willing I never thought that I'd give love a try Then you came a-walking by And gave me my first taste of love Mmm, the very first time you held me, it was so nice I finally found this place they call paradise Oh, I was such a sad and lonely guy Then you came a walking by And gave me my first taste of love Your lips upon my lips Your arms around my waist How can I forget that first date Mmm, so keep your head on my shoulder Stay real close, baby, don't let go Don't think of tomorrow Let's live for tonight because I love you so You see that love light gleaming in my eye Swear it's gonna never die 'Cause I've got my first taste of love You see that love light gleaming in my eye Swear it's never gonna die 'Cause I've got my first taste of love Swear it's never gonna die 'Cause I've got my first taste of love Swear it's gonna never die 'Cause I've got my first taste of love</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Down Home</t>
+          <t>Frenesi</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Down home... Oh, down home There used to be rivers and trees Fresh bread every single morning And sweet magnolia in the breeze Oh, fishing lines and young dreams Oh, I hear them calling to me But there's no way to get down home Cuz down home's just a memory Wish I could leave this big town City living ain't living to me But there's no way to get down home No you can't retrieve it Cuz once you leave it Oh, down home's just a memory Down home... Oh, down home</t>
+          <t>It was fiesta down in Mexico And so I stopped a while to see the show I knew that frenesí meant 'please love me' And I could say frenesí A lovely señorita caught my eye I stood enchanted as she wandered by And never knowing that it came from me I gently sighed frenesí She stopped and raised her eyes to mine Her lips just pleaded to b kissed Her eys were soft as candle shine So how could I resist? Mmm, without a heart that I could call my own Oh, greater happiness I've never known Because her kisses are for me alone Who wouldn't have said frenesí? She stopped and raised her eyes to mine Her lips just pleaded to be kissed Her eyes were soft as candle shine So how was I to resist Mmm, without a heart that I could call my own Oh, greater happiness I've never known Because her kisses are for me alone Who wouldn't have said frenesí? Who wouldn't have said frenesí? Mmm, who wouldn't have said frenesí?</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dream Lover</t>
+          <t>Get It Up For Love</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Every night I hope and pray A dream lover will come my way A girl to hold in my arms And know the magic of her charms 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Dream lover, where are you With a love, oh, so true And the hand that I can hold To feel you near as I grow old 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Someday, I don't know how I hope she'll hear my plea Some way, I don't know how She'll bring her love to me Dream lover, until then I'll go to sleep and dream again That's the only thing to do Till all my lover's dreams come true 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Dream lover, until then I'll go to sleep and dream again That's the only thing to do Till all my lover's dreams come true 'Cause I want A girl To call My own I want a dream lover So I don't have to dream alone Please don't make me dream alone I beg you don't make me dream alone No, I don't wanna dream</t>
+          <t>Its a tricky situation Hard to say just what the outcome will be If you saw the riddle you can save your soul Chase loves shadows till the rivers running cold Hey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love Theres a longing in the people No one knows just when the heartaches will cease You can free and tell her, you can stay and fight You can stand in line and scream Hey, its just my right Hey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love So a smile, another fallin star ........................... So until we find Just put your hand in mine, oh yeah Its a tricky situation Heaven knows just where the struggle must end If it takes forever, Id got the time above I wont desert you when the tables have turned Hey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love All the way for love, get it up all the way Get it up all the way</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ecstasy</t>
+          <t>Goodnight my love</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The magic of your kiss Is holding you like this Is ecstasy ecstasy The love that you have given Makes this life I'm livin' Ecstasy ecstasy Never let me go Let that love light show Ah, take me by the hand a And lead me to the land Of ecstasy ecstasy The first time that I saw you You showed me the door To ecstasy ecstasy Now I just keep prayin' That you're always thinkin' Ecstasy ecstasy Oh, but don't you go away For a single day Come on and take me by the hand And lead me to the land Of ecstasy ecstasy Travel up and down Much never have I found Such ecstasy ecstasy Now dear that I know You everywhere I go Through ecstasy ecstasy Kiss me dear and then Oh, kiss me once again Come on and take me by the hand And lead me to the land Of ecstasy ecstasy Ecstasy Ecstasy Baby, baby, baby</t>
+          <t>Goodnight, my love, the tired old moon is descending Goodnight, my love, my moment with you now is ending It was so heavenly, holding you close to me It will be heavenly to hold you again in a dream The stars above have promised to meet us tomorrow 'Til then, my love, how dreary the new day will seem So for the present, dear, we'll have to part Sleep tight, my love, goodnight, my love Remember that you're mine, sweetheart</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Evil</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>You mothafuckas I eat you for fuckin' breakfast And not even be fuckin' full You're fuckin' appetizers You're my breakfast, fuckin' appetizers Shyea Jesus Christ, I can see in his eyes that he's conniving I'll be defiant till achieving highness like Leonidas I speak my mind and these demons are preaching silence You're marketed like the industry's slut and I'ma treat you like it Get slapped up, kiss ass punk Get snatched up for trying to distract us, diss track this I'll bury you, that's established You know the shit that make you think that your shit's whack? Well, this that shit Ditch that shit, you'll never create a legacy You're the lamest lame will ever be They want me to name an enemy But why would I end a career they ain't even start yet? That's a waste of energy Waste of energy Pay attention, we create our pedigree While they especially are praying desperately to cage us mentally They eventually will taste the recipe of angry tendencies So page the deputy I'll make sure they will credit me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me And we don't fuck around You don't actually burn calories when you go run your mouth, so why you sweating so hard? I am the underground, they see the roots in me They root for me, my routine is being the rude teen Who's he? Token I'm different than you chumps though Do I brag about the money, clothes, drugs, hoes While musically losing control? Do I perform a thirty minute set while only using one flow? Fuck no! That's where I draw the line They're loving the intellectual homicide Only really care about the dollar signs Anyone who is gullible qualifies They colonize all your minds and occupy each thought they find Everybody looking like a puppet to me but everyone too stupid to see it, I'm not surprised, nah I am the stop to this I am the prophet not only intent on profiting But still psycho to my psychologist He said the only person fit to battle me is my second personality So I bodied him When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me Yeah Token is a visionary in a fairly twisted, scary, scripted parody And he carries emissaries fit to bury sissy fairies In the very cemetery he's getting married to the dictionary at That's how he kills canaries Blah! I kill a rival on arrival Ever since I went viral they call me vile And I don't use the word faggot anymore cause critics twist my words into a spiral Just tell them I'm feeling homo-cidal I don't know polite Man I'm telling you rappers, you don't need to keep up, you can look at me like a poltergeist If you need a ghost to write I'll blow your mind If I don't, I'll blow your mind I ought to make 'em an ultimatum They automate them then control what they say Say That controls how you think Think, that's controlling your day Day That's controlling your life Life So cut your strings, I'll show you the knife We're needed in this game, I don't give a fuck if they like it When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me When the sky falls down When the clouds on the ground I'll be in the studio making the sound to it How could this be? I'm the necessary evil when you're telling all your people 'bout me3</t>
+          <t>Granada I'm falling under your spell And if you could speak What a fascinating tale you would tell Of an age The world has long forgotten Of an age That weaves the silent magic in Granada today The dawn in the sky Greets the day with a sigh for Granada For she can remember The splendor that once was Granada It still can be found In the hills all around as I wander along Entranced by the beauty before me Entranced by the land full of sunshine and flowers and song And when day is done And the sun starts to set in Granada I envy the bliss of th snow clad serenada For soon it will welcom the stars While a thousand guitars play a soft Habanera The moonlight Granada will live again The glory of yesterday, romantic and gay</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fever</t>
+          <t>Groovin’</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten Baby, jij geeft me fever Ben je m'n Hailey? Schat, dan word ik je Bieber Ey Luister habiba, van ik je kent my baby, had ik geen type Nee-ay Ze zegt ik ben een dief, nu is alles van mij Small waist hoe je movet, baby geef me iets kleins Kijk me ook al daar in Dub, daarna door naar Parijs Baby, zeg alleen maar Poef, en je weet je verdwijnt En ben ik effe weg, ben ik calling Ben een junk voor je font- en je back en Schat, ik weet niet maar je juice is verslavend Want ik wil 't weer again and again and again Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten Baby, ik voel de liefde Ik wil je hebben, baby, kan niet meer liegen Yeah Je laat me je pleasen We kunnen samen overal naartoe vliegen Baby Ik ben weer in de mood, zet je body op mij Echt je heupen zijn gevaalijk, dit kan zo m'n dood zijn Lieve schat, je bent een ster hoe je in de nacht schijnt Met jou ik heb geen haast, baby girl, ik heb tijd En ben ik effe weg, ben ik calling Ben een junk voor je font- en je back en Schat, ik weet niet maar je juice is verslavend Want ik wil 't weer again and again and again Baby, jij geeft me fever Body nice, laat me vliegen Hoofd heet, kom me healen Jij geeft me fever Ga niet meer voor je liegen Ik verlies m'n principes Ma, ma, ma, ma, ma, fever Maakt me high als sativa Tien hoog, Four Seasons Jij geeft me fever Ik zie die mandem skiemen Maar deze laat ik niet schieten</t>
+          <t>See my baby coming down the track Bet you my baby's comin' back Soon as she gets back to me We're gonna raise a family And we're gonna groove, oh, groove We're all groove, yeah , groove And we're gonna love, love, until the break of dawn Ah ha hah ha One of these mornings, and it won't be long You'll look for me, and I'll be gone Goin' back to where I'll belong Where 'please' means 'please' and 'come' means com And we're gonna groove, yah, groove We're gonna groove, yeah, groove And we're gonna love, love, love, love, love until the break of dawn Ah ha hah hah Yeah Sweet as sweet as sweet can be You don't know what you doin' to me You had set my soul on fire Let me say you're my one desire And we're gonna groove, yeah, groove We're gonna groove, oh, groove And we're gonna love, love, love, love, love, love, until the break of dawn Oh oh oh Yes, I'm groovin', woah, groovin' We're gonna groove, yeah, groove And we're gonna love, love, love, love, love, until the break of dawn Ah ha hah hah Come on, babe Hey, babe Hey, babe Hey, babe Come on, babe Come on, babe Hey, babe</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>First Taste of Love</t>
+          <t>Groovin’</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mmm, the very first time you kissed me, it was so thrilling What made it so great was I knew that your heart was willing I never thought that I'd give love a try Then you came a-walking by And gave me my first taste of love Mmm, the very first time you held me, it was so nice I finally found this place they call paradise Oh, I was such a sad and lonely guy Then you came a walking by And gave me my first taste of love Your lips upon my lips Your arms around my waist How can I forget that first date Mmm, so keep your head on my shoulder Stay real close, baby, don't let go Don't think of tomorrow Let's live for tonight because I love you so You see that love light gleaming in my eye Swear it's gonna never die 'Cause I've got my first taste of love You see that love light gleaming in my eye Swear it's never gonna die 'Cause I've got my first taste of love Swear it's never gonna die 'Cause I've got my first taste of love Swear it's gonna never die 'Cause I've got my first taste of love</t>
+          <t>See my baby coming down the track Bet you my baby's comin' back Soon as she gets back to me We're gonna raise a family And we're gonna groove, oh, groove We're all groove, yeah , groove And we're gonna love, love, until the break of dawn Ah ha hah ha One of these mornings, and it won't be long You'll look for me, and I'll be gone Goin' back to where I'll belong Where 'please' means 'please' and 'come' means com And we're gonna groove, yah, groove We're gonna groove, yeah, groove And we're gonna love, love, love, love, love until the break of dawn Ah ha hah hah Yeah Sweet as sweet as sweet can be You don't know what you doin' to me You had set my soul on fire Let me say you're my one desire And we're gonna groove, yeah, groove We're gonna groove, oh, groove And we're gonna love, love, love, love, love, love, until the break of dawn Oh oh oh Yes, I'm groovin', woah, groovin' We're gonna groove, yeah, groove And we're gonna love, love, love, love, love, until the break of dawn Ah ha hah hah Come on, babe Hey, babe Hey, babe Hey, babe Come on, babe Come on, babe Hey, babe</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Frenesi</t>
+          <t>Gypsy</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>It was fiesta down in Mexico And so I stopped a while to see the show I knew that frenesí meant 'please love me' And I could say frenesí A lovely señorita caught my eye I stood enchanted as she wandered by And never knowing that it came from me I gently sighed frenesí She stopped and raised her eyes to mine Her lips just pleaded to b kissed Her eys were soft as candle shine So how could I resist? Mmm, without a heart that I could call my own Oh, greater happiness I've never known Because her kisses are for me alone Who wouldn't have said frenesí? She stopped and raised her eyes to mine Her lips just pleaded to be kissed Her eyes were soft as candle shine So how was I to resist Mmm, without a heart that I could call my own Oh, greater happiness I've never known Because her kisses are for me alone Who wouldn't have said frenesí? Who wouldn't have said frenesí? Mmm, who wouldn't have said frenesí?</t>
+          <t>I said you looked fair in the evening snow But still a daisy with a yellow glow Now you're off somewhere I don't know But not to a place that I'm willing to go And all those nights when I told you things Traveled far and bought silver rings I'm going back to those stars, yes, I am For I wanna see the sunrise My facing the sea And does the gypsy still dance in your room? Using incense as our daily perfume Cleaning our hands with the same desires Or waking up early to see the fires To see the fires And all those nights when I told you things Traveled far and bought silver rings I'm going back to those stars, yes, I am For I wanna see the sunrise My facing the sea</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Get It Up For Love</t>
+          <t>Here Comes the Night</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Its a tricky situation Hard to say just what the outcome will be If you saw the riddle you can save your soul Chase loves shadows till the rivers running cold Hey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love Theres a longing in the people No one knows just when the heartaches will cease You can free and tell her, you can stay and fight You can stand in line and scream Hey, its just my right Hey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love So a smile, another fallin star ........................... So until we find Just put your hand in mine, oh yeah Its a tricky situation Heaven knows just where the struggle must end If it takes forever, Id got the time above I wont desert you when the tables have turned Hey, babe, get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love Get it up, get it up for love, babe Get it up, get it up for love All the way for love, get it up all the way Get it up all the way</t>
+          <t>Here comes the night See the stars in the sky Shining up above, night of love Darling, just you and I And here comes the night How I thrill to your kiss Music fills the air everywhere Night of magic and bliss Think of the moments, the hours and hours That we were apart Moments and hours that kept bringing showers of Tears to my heart, oh oh And here comes the night Like the others before But tonight's divine You are mine once more Think of the moments, the hours and hours That we were apart Moments and hours that kept bringing showers of Tears to my heart, oh oh And here comes the night Like the others before But tonight's divine You are mine once more Here comes the night</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Goodnight my love</t>
+          <t>He Will Break Your Heart</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Goodnight, my love, the tired old moon is descending Goodnight, my love, my moment with you now is ending It was so heavenly, holding you close to me It will be heavenly to hold you again in a dream The stars above have promised to meet us tomorrow 'Til then, my love, how dreary the new day will seem So for the present, dear, we'll have to part Sleep tight, my love, goodnight, my love Remember that you're mine, sweetheart</t>
+          <t>He don't love you like I love you If he did, he wouldn't break your heart He don't love you like I love you He's try-in' to tear us apart Fare thee well, I know you're leavin' I know you're leavin' For the new love that you've found The handsome guy that you've been dating, whoa I got a feelin' he's gonna put you down 'cause He don't love you like I love you If he did, he wouldn't break your heart He don't love you like I love you He's try-in' to tar us apart He uses all the great quotations Says the things I wish I could say Whoa, but he's has so many rehearsals Girl, to him it's just another play but wait When the final act is over And you're left standing all alone When he takes his bow and makes his exit Girl, I'll be there to take you home He don't love you and he never will like I love you If he did, he wouldn't break your heart Oh, he don't love you, girl, like I love you He's try-in' to tear us apart Whoa, he don't love you</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Go Tell It on the Mountain</t>
+          <t>How Can I Forget</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>101Adriel Cruz - Out With a Bang Ascent Project - Living Water Ashley Lagunas - Mighty Hero Gideon Beach Chapel - Shiny Stuff Brandon Heath - Human Nature Acoustic daFoo - Fighting With A Young Heart Daniela Galeano, Omy Alka Kev Miranda - Gracia Dillon Chase - Already Won Eliza King - Feel Holy Esperanza de Vida - Lo Mejor Está Por Llegar Honor Glory - Come Alive Hopeful. - Enough feat. Hunter Jackson Randy James IMRSQD, Moflo Music Sammie Lee - lifetime Influence Music - 10,000 Armies Live feat. Whitney Medina Jillian Edwards - Flourishing, Thriving Jimi Cravity - Wonder JJ Heller - When I Care for You John Michal Howell - Just Friends Joshua Luke Smith - Odyssy Live feat. Jacques Miché Limoblaze Konola - Come Outside Lion of Judah - Sometimes I Feel Low LZ7 - Back In Time Marie Love Faith Lofi - will it be enough? Melanie Penn - How to Sing Memphis May Fire - Somebody MBL Worship Brennan Joseph - My Eyes Have Seen the King Spontaneous MBL Worship Brennan Joseph - One Look Live Mission House - Your Eyes See Me Acoustic feat. Nashville Life Music, Jess Ray Taylor Leonhardt Moriah - Trust Nicole Harris - Testify Paul Wilbur - Shouts Of Joy Sing For Joy Roni, Roni, Bat Zion Medley Prince Tai - Come By Here Rae Rae - Cover Me Ricardo Montaner Kirk Franklin - Amén feat. Mau y Ricky, Camilo Evaluna Montaner Ryan Ellis - Need Salt Of The Sound - On Holy Ground Sarah Nathalié - Honey feat. Nina Sengson Scootie Wop, BigBreeze GodFearin - LAY UP Remix Steven Malcolm - On Point feat. KB Terrian - Wake Up The Hoppers - Glory Up Ahead Wilder Adkins - Crown Him with Many Crowns feat. Tenielle Neda Zambroa William Lee Golden and The Goldens - Come and Dine WorshipMob - Spirit Move106Fuego - Estar Presente108Aaron Cole - FRONT ROW All Creatures - Wonder Working Neon Feather Remix Alvin Cedric - Lost In the Feels A Sudden Branch for Safety Young Oceans - Reason Austin Joyce - EXHALE feat. Christopher Syncere Bethany Music - Satisfied feat. Chris Burns Charlin Neal Brooke Nicholls - Still feat. Movement Worship City Students Worship Church of the City - Alleluia feat. Paige Lewis CRC Music - You Restore Dami Im - Pray Dan Bremnes - Run Away With Me Emissary - Anthem of Our Souls Ethan Nathaniel - Corners of My Room F'rael - da' Weekend feat. Kalin Jones Cj Pitts Gatton - Landslide Hillsong Worship - Never Walk Alone Live feat. Mi-kaisha Rose Janet Blair - Oh Be My Vision John Mark McMillan - Has It Been You feat. Sarah McMillan Jonathan Allen Wright - Doorways and Tombstones JUDAH., Dante Bowe Aaron Moses - i love You Kennis Clark - No Excuses Keyondra Lockett - Made A Way feat. Q Parker Kinnship Pablo Nouvelle - Stones Geysers MAKEBA - Vulnerable Mark Barlow - Waterfall Mark Lee - Finest Hour More Rain - Only Jesus NIRVA - Higher Point of Grace - Gloria The King Has Come RICHLIN - My Promised Land Rick Pino - Nothing Else Live feat. Abbie Gamboa River Valley AGES - Tightrope R-Swift Sho Baraka - Real Ones Winning feat. Avila Saint James, Alphein Lundi - No Fake Love Sanctus Real - How Many Times S.O. Shopé - Prosper Remix The Belonging Co Andrew Holt - Jesus Over Everything Radio Edit The Color - Too Many Times The Vigil Project - May We be One feat. Corrie Marie Tim Timmons - This is the Day Live With Friends Wade Walker - Golden Hour Will Edwards - My Cup Overflows1010knwbdy - runaway1013Poor Bishop Hooper - Psalm 941014Blessing Offor - Brighter Days Blessing Offor - Tin Roof1015Aaron David - On The Way Abby Robertson - How He Loves Live from Ocean Way Ale Fdz Chris Quilala - Es por tu amor Alan Cox - You Make Me Better Battz - Yeshua Freestyle Benny Manaligod - Street Where U Grew Up feat. Darla Baltazar Nina Sengson Benjamin Hastings - Faith Is Benjamin Hastings - Homeward Bloodlines - Ruah Brandon Heath - Another Song About Love Caleb McCoy - Render Unto Caesar feat. Disciple D.I. CalledOut Music - Say So Citizens - Why Don't You Marry Christmas Citizen Way - Fight My Fight for Me feat. Trampolines Covenant Worship - Where is Our King? Crossroads Music - Anything to Bless Your Heart C3 NYC - Lifetime Live daFOO - Shalom Salem Crayon 88 Remix Eversmith - My Soul Magnifies First15 Worship - Refreshing Gabriel Cartulano Miel San Marcos - No Temas Gas Street Music Luke Hellebronth - Return to You Grace City - Why Would I Wait Live feat. Michael Delgado Anna Hallsten Gungor - Everything Is Hallelujah Jabari Johnson - One Touch Radio Edit James Paek - Exit Us Jay Kalyl - Quema Por Dentro Jenn Bostic - Leave It At The Cross John Mark Pantana - What a Love Jonathan Miller - At the Mention Jonathan Ogden Chris Howland - Alright Remix Jonathan Ogden Chris Howland - Alright Remix Joshua Luke Smith - The Void Live feat. Sophia Rebekah Mitchell Kevin Quinn - I'm Still Breathing Lauren Grace - It's Alright Mack Brock - What A Good God Melanie Waldman - Show Me Mercy Psalm 140 feat. Jesse Isley Mission House - My Eyes Are Open Acoustic Montell Fish - Call U Tomorrow Mudhouse - I Think I Love You Muntjac - Return to Eden Nathan Wagner 4th Point - Run Nu Tone Rio 24k - Your Voice feat. Yohan Yemba Propaganda - 230 Pursue Worship - We Make Room Rachael Lampa - We Can Be Free Red Rocks Worship - Echo Holy In Studio Relena-Rochelle - Nothing Else Rock City Worship - Kingdom Crowns Sarah Hawkyard - Who is Guiding You? Sarah Kroger - Light Has Come Sarah Reeves - Go Tell It On The Mountain SEU Worship - Walk with You feat. Dan Rivera Simple Hymns - How Great You Are Stars Go Dim - The First Noel Swaizy - HEATIN UP The Sing Team - Do You Hear What I Hear Vertical Worship - How Good Is He Live from Chicago Victory Worship, Sam Mow Dominic DeMeo - Better Vineyard Worship - Prayer of Consecration feat. Olu Meduoye Wolves at the Gate - Shadows Xander Sallows Sam Bowman - someone1020Poor Bishop Hooper - Psalm 951022Aaron Shust - Every Morning AHI - Say It to Me Alvin Cedric - Enough feat. Joseph Goulding Amongst Wolves - See You Instead Andy Cherry - Orphan Live Anna Beaden - Awe! Anne Wilson - My Jesus feat. Crowder Apex Frazier Noah Brown - DeLorean aquatonic - When You Called Audacious Worship - No One Else BigBreeze - Play It Safe Brandyn Kalani - EVERY LITTLE THING Brent Cobb - We Shall Rise Casting Crowns - The Power of the Cross CRC Music - You Restore Acoustic Erica Reed - Building What are you waiting on? GV3 Duo Franco - Rise Up Hannah Kerr - Grave He Is We - Finish Line Hillsong Worship - That's The Power Live feat. Benjamin Hastings Hollyn - Opinions James Gardin Terem - Damage Jason Crabb - Home For Christmas J.Dapper - Edicius. feat. nobigdyl. Jesse10s Kingdmusic - Yesu Bambi Acoustic Joe Garza - Lean Back Jordan Feliz - Joy To Our World Jordan St. Cyr - Rejoice Joseph O'Brien - Stages JXHN PVUL - nostalgic love Kirby Kaple - Let It Be So K-SEE - On My Block feat. S.E.J., A3 350 LEÓN - Believe In Me feat. 1K Phew Levi Mitchell - You Lindsay McCaul - Come, O Lord Maranatha Lou Fellingham - Nothing but the Blood of Jesus Mark Barlow - You Didn't Break It Marqus Anthony - In The Water Melody Lynn - Broke My Own Heart Metro Life Worship, Steph Alessi Muiña Mary Alessi - Earth Quaking Live Miles Minnick - IONEEDUM MUCH MORE - Good 2 Me PRESTXN - VERTIGO RAY G Xay Hill - Real Ones feat. Brian Morales Rebecca St. James and for KING COUNTRY - Kingdom Come Rel McCoy - Because Of You RIDERS Circuit Rider Music - Without You Riley Clemmons - Stuck Inside My Head Single Mix Ronny Hinson - The Lighthouse 50 Year Celebration SongLab- We Love Live feat. Edwin Stephens Connianna Conrad Steffany Gretzinger - As The Deer The Church Will Sing - Messiah feat. Jordan St. Cyr Eagle Brook Music The Old Paths - Every Story Whispers His Name The Young Escape - It's Gonna Get Better Tribl Cecily - Defender United Pursuit - Calm Before the Storm Verses - Psalm 1217-8 feat. Rivers Robots Verses - 1 Corinthians 1551-52 feat. Ghost Ship Vive Worship - Nothing Less Live WILLO - Remember1023Jem Pryse - calm in the storm1024Caleb Gordon - Holy Spirit Activate feat. Hulvey1029Abby Holliday - Better By Now All Creatures - The Night The Sky Joined In Anderson Freire - Confiar em Deus Spotify Singles Anthony Evans - Promise Keeper Ben Lawrence J.Steph - why do i feel this way... Sam Bowman Remix feat. Sam Bowman BigBreeze - Super Charged Brave Worship - Famous For I Believe feat. Krissy Nordhoff, Tamar Chipp Amanda Kinner Caleb Lockwood - Take A Moment Chris Cron - Christmas, I'm Not Ready Chris Howland - Sweet Somehow Christian Singleton Matias Ruiz - Heart of Worship reimagined Community Music - Grace Like Waters feat. Cecily Lucas Evelyn Cortazio Dani Miché Josh Ellis - Help Me Josh Ellis Remix Dara MacLean - Back To The Beginning Dawson Hollow - Lovely Day D. Morton and Gifted - IDKY Jesus Loves Me Elias Dummer - Carry feat. JJ Heller Emily Faith - Rebel Remix Free Worship - Venga Tu Reino Futures - Angels gio. - do u know my name? Grace City - Nothing Is Wasted Live feat. Bobby Walker Kenzie Walker Gui Brazil SARVIA - Trust Hold on Tight, Live at Hsn Germany 2021 Henrik - MATTER OF TIME Hillside Recording Eliza King - Gratitude Acoustic Hillsong UNITED - Sure Thing Jasmine Simone - Dreamteam feat. 1K Phew Jillian Edwards - Let Not Your Heart Be Troubled Jordan Smith - O Come Let Us Adore Konata Small S.O. - Whole Team Winning Landry Cantrell - Last Christmas With You Leanna Crawford - Breath Of Heaven Mary's Song Lil Goat Bachi - Heart On Fire Love The Outcome - Christmas Lights Lovkn - Greater is He Lovkn - Lean Back Lucky Luciano - Lift You Up feat. Gabe De La Fuego Marc Martel - Welcome To Our World feat. Leigh Nash MBL Worship, Brennan Joseph Carly Joseph - One King Live Melissa Bethea - You're Coming Out Middle River Hymnal - In The Bleak Midwinter Moriah - Worth LIVE from the Quarry feat. Joel Smallbone Morisette - WATERWALK MRCLS - House of Miracles Neon Feather - This Is My Son feat. Seth Schleuter Newsboys - The Christmas Song PEABOD - My Favorite Part NK4 Red Tips - My Zone Rachael Nemiroff - One Heart Two Homes Raging Moses - Refocus RED Hands - Can't Wait Radio Edit feat. Jonathan McReynolds Rhett Walker - All I Want For Christmas Is You Rick Pino - High And Lifted Up Live feat. Abbie Gamboa Ricky Dillard - Behold Christ The Lord Live Rita Springer, Seth Condrey Centricity Worship - You See Me In Focus Ron Rawls - Liquid Prayers Ryan Clair Music - Go Down Moses Sanctuary Co. - In the Fields Sarah Reeves - Winter Wonderland Sharp Dialect - Breakdown Spencer Annis - Safe Place Acoustic Stars Go Dim Hannah Ellis - Home Stephen Christian - Awaken sxxnt. Joseph Whettam - What Can Wash Away? Tatiana Manaois - 25 DOING JUST FINE Temitoope - Let Fire Fall Temitope - Silver Lining feat. Nathan Jess Tobe Nwigwe - Day Ones Swagger Edition Tribl - Ways for Me feat. Dante Bowe Tribl - We Have Hope feat. Joe L Barnes, Jonathan Traylor Lizzie Morgan UPCI Music - Won't Let Me Go Spanish Version feat. Abel Bonilla Scarlett Elms Uzuhan - Never Going Back Village Lights - King of Salvation feat. Ricky Vazquez Wade Walker - Broken Down Body We Are Leo - My Peace We The Kingdom Dante Bowe - God So Loved Live</t>
+          <t>What if I had the power to gather all of my favorite MCs With the illest comic book characters and make them arch enemies? Inconcievable? Unbelievable? Yet as wild as it seems The Emperor and Stan Lee would coach the two opposing teams What if I took my love for hip-hop and comics and made it equal And gave the people Secret Wars Part Two the long awaited sequel An animated hip-hop grudge match, I'll make it lethal How would my favorite rappers perform in the face of evil? I'd take the RZA from Wu-Tang, yes the Rzarector Versus Captain America, our nation's oldest protector Of homeland security, the top defender, top Avenger He gets dropped and injured when raw hip-hop commences Now it gets critical when Bobby Digital crosses Captain America Perhaps the Red Skull would have to jump in it too But the RZA was too nimble, the Red Skull licked off shots to hit him RZA then launches the Wu symbol into the New York skyline Timed the Red Skull, get blown apart by the Ghostface Killah alias Tony Starks AKA Iron Man, Ghost Deini the scientist The top contender what other Wu members could I enlist? Who's next to die in this? I would take Masta Killa and Golden Arms versus Power Man and Iron Fist Imagine Blade the black hunter of vampires Goin after DMX the dog from the Ruff Ryders RRRRR... I mean there's no tellin how they might react, I've seen how X can bite the track Would Blade be afraid or fight and then leave with his life intact? Yo Blade, I think you got me wrong, I ain't that type of cat And if you're tryin' to step to the dog I'll have to bite you back I saw DMX break him apart, take him apart He played with the art, I saw X drive a stake through his heart Another mission accomplished, X came, saw and he conquered Buried Blade's body in a shallow graveyard in Yonkers Imagine after seein X puttin in work Watch in the ring, you'll see the illest pitbull in a skirt Reppin' the double R, the first lady from Philly, Eve y'all Versus David Banner's amazon cousin called the She-Hulk Jump in the ring and starts swingin I see punches, they're movin in and out Two femme fatales engaged in a cage match, two woman bout A lot of female rap is played but not Eve They done got Eve knockin chickens out like Leila Ali Then I see the She-Hulk hits the canvas, Stan Lee now gets embarrassed So his plan is to summon Sub-Mariner from Atlantis Far due to include ATL in this war It's foolishness, I just get Ludacris to settle the score In any bout or brawl you're about to fall I spit alcohol, a drowned person named Moore Actually he's no match for me I put him to sleep You need to see and then came Thor Ludacris and the mighty Thor, the battle I chose Had Thor swingin' his hammer while Cris was throwin' 'em bones He sent Thor back to Valhalla, made Sub-Mariner sea-sick Scores a victory for hip-hop plus the DTP clique, uh My battle-rappin is war, my raps is hardcore Imagine the Roc-A-Fella camp versus the Fantastic Four As I get deep with it, Marvel Comics street lyrics As we proceed with it, Jay-Z versus Reed Richards Imagine Mr Fantastic and Hova goin' at it, Jigga spits like an automatic Click click click, it's over damn it Any static from Human Torch, y'all know the procedure Send a message to Young Memphis, he'll go and defeat him Am easy, believe me Johnny callin' my name out, come with it I spit it real cool and I'm puttin' your flame out, uh Remember Memphis, Secret Wars is a critical world Where rappers disappear like a meal in the invincible girl But let's not forget Benjamin J. Grimm Now what kind of rapper could Roc-A-Fella get to slay him? I mean, who would step inside the ring Who would have the right to swing Enough muscle and might to bring? Beanie Sigel fights the Thing! Imagine Beanie and Ben Grimm goin spit for spit Beanie Sigel and The Thing going brick for brick Now what I saw was the board get gully He messed around and got knucked out by the Broad Street bully But yo we got a slight problem as the Hobgoblin glides in I see him droppin' bombs on the crowd So I'll just have to get Freeway with the buckshot He shot him, firing, knockin him down Ow, Reppin the city of Philly back to the ring when I'm distracted by Joey Crack Fat Joe knocks out the Kingpin The Kingpin thought that he could extort Don Cartagena But not in this terrordome, this is Terror Squad's arena And there's a lot of room for these rappers that I produced Keith Murray came home in a hurry to box Dr Doom My miscellaneous instantaneous battle techniques will leave him scarred Courtesy of the Death Squad and LOD Let's see the crowd's reaction from action, turn up the lights No doubt it's hype from all these rappers in my house tonight But live via satellite look who's about to fight From the Brick City it's the Outsidaz versus Alpha Flight The Jersey regulators, Young Zee versus Vindicator Rah Digga took out Snowbird with words that she served and then she slayed her And later Asis and Slangtongue with their pattern of rhymin' Kick back to back freestyles that took out Puck and the Shaman The Outs tore it down like they're doin' on tour Pace1 punched out the Sasquatch and yelled I declare war Now it seems World War 3 is in progress Of course the Punisher would target the leader from Onyx Yeah, Sticky Fingaz, I kill rappers while holdin' my gat That means I slam the Punisher and put a hole in his back You know how I act, what up, try and look, let's see He's finished, I'm in it to win it for the USG As you can see there's no casualties on my team Me versus Stan Lee is more like man vs machine I've seen Xzibit from the West flyin' in Versus Colossus, X-Man with the iron skin Xzibit suckerpunched the rushin' knocked the thing There's no choice in my arena, it's either die or win, but then This is all that happens if heroes target rappers Then wouldn't Matt Murdoch be going after Marshal Mathers Would Eminem then use the Daredevil for target practice Slim Shady maybe Ben Affleck catch record then cause disaster Somebody find a gurdy, I'm'a stretch then blind the turdy Bury him alive and burn him, tell D12 he tried to earn me Now this certainly serves as a hideous mixed win I call D12 to fight the Insidious Six and This fight music produces bumps and bruises as the Scorpion and Rhino fight Kuniva and Proof Swifty McVeigh slayed Mysterio on his illusions Kon Artis gave the Chameleon some minor contusions Then I heard this loud sound at first I thought was a bomb No you idiot! It's just Bizarre versus the Blob They went and took the belt from a battle I felt they insured Back to the 8 Mile where it's wild and held it down for Detroit Now as the time went out, Stan Lee is checkin' the clock There's room for one last battle, let's see if y'all feel me or not My ultimate tag-team would be like Biggie and Pac Stan Lee would get the Black Panther to team up with Juggernaut Biggie snatched off his helmet, threw it to a fan in the audience Turned to the crowd uh and said So all be sure give that man a warning Cuz I'm'a fought'em this is real my performance I'm the, weed smoke helps my endurance Yeah Big, still reppin blocks in BK I say one of the best who was ever destined to rock Rhyme sayer and slayer of Xavier's brother Juggernaut But now let's not forget the Black Panther and Pac Holla if ya hear me, superheroes is tryin' to kill me The son of a panther to slam ya, ride with me It's Stan Lee, I'm sure you remember me, even in death my words leave a legacy Two hip-hop titans and giants at war when they died In the afterlife standin' together, fightin' side by side From Marvel to DC to Dark Horse to Image Bear witness the power of hip-hop, there are no limits To all worthy opponents, heroes, challengers, contenders These are the Last Emperor's Secret Wars, I'm finished1</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>How Often</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Granada I'm falling under your spell And if you could speak What a fascinating tale you would tell Of an age The world has long forgotten Of an age That weaves the silent magic in Granada today The dawn in the sky Greets the day with a sigh for Granada For she can remember The splendor that once was Granada It still can be found In the hills all around as I wander along Entranced by the beauty before me Entranced by the land full of sunshine and flowers and song And when day is done And the sun starts to set in Granada I envy the bliss of th snow clad serenada For soon it will welcom the stars While a thousand guitars play a soft Habanera The moonlight Granada will live again The glory of yesterday, romantic and gay</t>
+          <t>NARRATOR Planet Earth, 1835 Samuel Stratford sits behind a desk A reporter for the New York Sun A new newspaper trying to compete But they're going down and everyone knows it Young man with a pencil Immigrant son with a heart made of gold Young man with potential Imagination, twenty-seven years old SAMUEL Planet Earth needs something different CHORUS Samuel Stratford's flipping through a notebook NARRATOR Earnest, anxious, full of passion Samuel wants to show his boss BENJAMIN He's gonna hate it, everyone knows it NARRATOR Samuel's best friend Benjamin knows it SAMUEL Benjamin, you need to see this Rose and I have written something awesome BENJAMIN Every time you have that notebook I know you are gonna cause a problem CHORUS Benjamin, the editor Keys to the press and keys to the door NARRATOR Best friend, the editor He's had this conversation before SAMUEL There are fifteen hundred newspapers in New York City BENJAMIN No there aren't SAMUEL I'm just saying- The one that pays us to produce Is one of many Even if there's minor variations In the way the story's told The news is just the news And the news is getting old CHORUS In 1835 The news of the world has passed us by SAMUEL Now it will take a miracle To keep our printing press alive CHORUS When you look up 1835 Honestly, we would not be surprised If there was not a single word About our ultimate demise BENJAMIN But the Sun revolves 'round Planet Earth And nothing's gonna change that SAMUEL The sun doesn't revolve around the Earth BENJAMIN The one from New York does SAMUEL Why not add a little bit of fiction? Why not add a little bit of style? Why not add a little bit of swagger? Why not add adventure to the pile? A featured story, it could be anything Science, horror, myth, or magic Future lands and future glories BENJAMIN I suppose you'd write the stories SAMUEL Well, you know that we have a few ideas... BENJAMIN We? You and Rose? SAMUEL My sister is incredible Her imagination's just as big as mine BENJAMIN Your sister is incredible But I'm telling you that this is not the time SAMUEL I promised Rose BENJAMIN It's for the best SAMUEL But this is good BENJAMIN Give it a rest I am doing you a favor CHORUS Our paper writes the news BENJAMIN Save your fantasies later NARRATOR Chester Thomas Owner of the New York Sun Opens his door And stares at everyone Standing tall as he projects Power as he puffs his chest But he's nervous as the rest Imagination's been destroyed In his mind, there is a void Failure's made him paranoid He can feel he's losing grip Captain of a sinking ship Still, he's sneering as he quips THOMAS The New York Sentinel THOMAS, CHORUS Our rival THOMAS Have given us our daily pounding Every day is a fight for THOMAS,CHORUS Survival THOMAS I know that isn't news But how often we lose Is really quite astounding Benjamin BENJAMIN Yes? THOMAS Our deadline has arrived Do you have our articles together? BENJAMIN Almost ready, I'm just helping Samuel fix his story on the weather SAMUEL The weather? BENJAMIN The weather SAMUEL But- BENJAMIN Not now NARRATOR Chester Thomas squints his eyes He can tell that Samuel lies THOMAS This is not a trick, is it? Not another trick, Samuel Let me see your notebook SAMUEL ... No THOMAS What? Let me see your notebook BENJAMIN Please, sir, don't- THOMAS I've lost track of all the times You come to me with grand designs My orders always undermined In the name of fiction Tell me, do you think That will save us from the brink? That trash isn't worth the ink SAMUEL You're wrong! SAMUEL It is 1835 Sir, you've got to open your eyes Simply being good is not enough, we must be wise That readers in 1835 Don't just wanna live, they wanna feel alive THOMAS The only one not good enough is you, I've realized Samuel, let me see your notebook CHORUS Let him see your notebook THOMAS Let me see your notebook CHORUS Let him see your notebook Let him see your notebook Let him see your notebook Now THOMAS Great Astronomical Discoveries... NARRATOR Thomas tears the notebook in half He shows Samuel to the door and laughs THOMAS laughs You're fired CHORUS The Sun revolves 'round Planet Earth And nothing's gonna change that THOMAS Everybody, back to work BENJAMIN Samuel... I'm sorry NARRATOR When the working day is through Samuel walks the avenue His footsteps' heavy as they hit the cobblestone Manhattan is a gorgeous site Broadway lit by candle lights And the only city he's ever known He wonders if his boss is right If this is all a losing fight There is one person who might change his mind...</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Groovin’</t>
+          <t>I Count the Tears</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>See my baby coming down the track Bet you my baby's comin' back Soon as she gets back to me We're gonna raise a family And we're gonna groove, oh, groove We're all groove, yeah , groove And we're gonna love, love, until the break of dawn Ah ha hah ha One of these mornings, and it won't be long You'll look for me, and I'll be gone Goin' back to where I'll belong Where 'please' means 'please' and 'come' means com And we're gonna groove, yah, groove We're gonna groove, yeah, groove And we're gonna love, love, love, love, love until the break of dawn Ah ha hah hah Yeah Sweet as sweet as sweet can be You don't know what you doin' to me You had set my soul on fire Let me say you're my one desire And we're gonna groove, yeah, groove We're gonna groove, oh, groove And we're gonna love, love, love, love, love, love, until the break of dawn Oh oh oh Yes, I'm groovin', woah, groovin' We're gonna groove, yeah, groove And we're gonna love, love, love, love, love, until the break of dawn Ah ha hah hah Come on, babe Hey, babe Hey, babe Hey, babe Come on, babe Come on, babe Hey, babe</t>
+          <t>Aye, I defy gravity I'm going up to a whole 'nother galaxy Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I'm puttin' in work for what's mine My heart was the only casualty Somehow i turn all the stars into poetry Turn a butterfly knife into butterfly wings In the absence of thought, moments of peace Swim through the clouds, otherwise driftin' out to sea Leave em' thunderstruck, make em' fall in love Reach for the stars above, watch it all turn to dust I used to drink till' I was numb, there's nowhere that I'm from The darkness comin' on, by morning I'll be gone Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I put in work for what's mine My heart was the only casualty I stay in the cut, don't fly close to the sun Paper rose drifty I'm dressed like a bum I run it up to marathon, I used to panhandle with skinny jeans on I pair the denim with the camouflage, do this forever with my dawgs Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I put in work for what's mine My heart was the only casualty Leave em' thunderstruck, make em' fall in love Reach for the stars above i put in work for what's mine My heart was the only casualty Watch it all turn to dust I used to drink till' I was numb, there's nowhere that I'm from The darkness comin' on, by morning I'll be gone but my heart was the only casualty</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Groovin’</t>
+          <t>I Feel Good All Over</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>See my baby coming down the track Bet you my baby's comin' back Soon as she gets back to me We're gonna raise a family And we're gonna groove, oh, groove We're all groove, yeah , groove And we're gonna love, love, until the break of dawn Ah ha hah ha One of these mornings, and it won't be long You'll look for me, and I'll be gone Goin' back to where I'll belong Where 'please' means 'please' and 'come' means com And we're gonna groove, yah, groove We're gonna groove, yeah, groove And we're gonna love, love, love, love, love until the break of dawn Ah ha hah hah Yeah Sweet as sweet as sweet can be You don't know what you doin' to me You had set my soul on fire Let me say you're my one desire And we're gonna groove, yeah, groove We're gonna groove, oh, groove And we're gonna love, love, love, love, love, love, until the break of dawn Oh oh oh Yes, I'm groovin', woah, groovin' We're gonna groove, yeah, groove And we're gonna love, love, love, love, love, until the break of dawn Ah ha hah hah Come on, babe Hey, babe Hey, babe Hey, babe Come on, babe Come on, babe Hey, babe</t>
+          <t>Intro DJ J Hart Masta Ace J Hart, Budamunk, it's ya boy Masta Ace, MA, let's go Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Verse 1 Masta Ace Panorama rap, people from multiple sides Four dimensions, full attention and cultural pride My inventions and extensions that force you to ride With the windows down, those clowns toss 'em aside Like onions on a salad, them sounds are invalid I got something for your palette, that's actual talent They be screaming on the track, when in fact they be silent You listen to the best music, now act like I'm Khaled? Cool Another one, fall back 'til this brother's done Here for the long hole, like Scatman Crothers' run My voice dance on these tracks like doing the Bogle Every time out you hear something new in the vocal Read between the lines, see what I do to insult you Intimidate, eliminate your whole crew and approach you These are fightin' words, dressed in a spiritual touch Holdin' the game in the lyrical clutch, let's go Chorus DJ J Hart Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Verse 2 Masta Ace I'm a lumberjack knockin' rappers down like bank timber We playin' Spades and I'm holdin' every gang member In the palm of my hand, like I'm King Simba Your clothes small, little boy, like you're King Jimba Recede?, rappers are in jeopardy still If I don't get you then the deputy will This is what you call especially skill And I feel good all over like I'm Stephanie Mills, or cool Patrice Rushen, this percussion is worth a discussion Head trauma flow, give the whole Earth a concussion A CAT scan couldn't protect you from that man This black man is holdin' it down for the Rap fan I'm sick and tired of being tired of being sick and tired Understand that I was hired so you can get inspired To compete in this heat, 'til you win in every race On this real rocky road like Ben Jerry</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Guilty Conscience (Devault Remix)</t>
+          <t>Imagine</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>41 Alan Walker Ruben - Heading Home Alan Walker Ruben - headinghomedemo2016.wav Amber Mark - Heart-Shaped Box Aquilo - Just Asking Asian Da Brat - Come Find Me Bazzi - Renee's Song Berner B-Real - Candy ft. Rick Ross Biig Piig - Switch DaBaby - Find My Way Future - Tycoon JT Music - Song for Daisy K CAMP - Cry To You KAROL G Anuel AA - Follow MexikoDro - Ar Orville Peck - Summertime RAC - Carefree ft. LeyeT Rod Wave - The Greatest The Pussycat Dolls - React Cash Cash Remix Token - Curfew Troye Sivan - Take Yourself Home Unlike Pluto - Shadow Valee - Jaywalking 42 Caleb Hyles - I'd Rather Be Me With You Dee Watkins - Bad Ass Jit Remix ft. Young Dolph Turbo, Gunna Young Thug - Quarantine Clean Hayley Williams - Over Yet Isaac Dunbar - comme des garçons like the boys Kllo - Still Here Lila Drew - Dad's van Liss - Waste My Time NIKI - Switchblade Sech - Relación Thundercat - Innerstellar Love Warhol.SS - Hell Yeah 43 645AR - Yoga Abby Jasmine - Groovy ft. Guapdad 4000 Alessia Cara - I Choose Ali Gatie - What If I Told You That I Love You Don Diablo Remix Anne-Marie - Birthday Blinkie Remix Anne-Marie - Birthday Borgeous Remix Anuel AA - 3 de Abril Ashton Travis - On Edge BIA - COVER GIRL Boulevards La Roux - Too Far BVDLVD - BALLYMORY ft. Quade PoundSign Cher Lloyd - M.I.A Knightlight Remix Clara Mae - Run Into You CNCO Natti Natasha - Honey Boo Coi Leray - Messy DC the Don - EPIDEMIC Dillon Francis - You Do You ft. BabyJake DJ Carisma - That's Facts ft. Ty Dolla ign, Toni Romiti Azjah Dinah Jane - Missed a Spot Doja Cat - Say So Snakehips Remix Drake - Toosie Slide DubVision - Into You Dynoro Fumaratto - Me Provocas Earl Graves - Tyrant Ella Vos - Burning Bridges Emma Blackery - Wolves Famous Dex - What I Like ft. Rich the Kid Tyga Florian Picasso - Like You Do ft. GASHI Ally Brooke Fredo Bang - Trust Issues Ghastly KARRA - Help ILLENIUM, Excision I Prevail - Feel Something INNA - Not My Baby Izzy Bizu - Work Kid Ink - FLY 2 MARS ft. Rory Fresco Kygo Sasha Sloan - I'll Wait Lauren Cimorelli - These Days Lemaitre - Wondering If Ill Ever Come Down Like Saturn - So Worthless Lil West Brevin Kim - Luck LilCockPump - Spare Coochie ft. Lil Barnacle Lindsay Lohan - Back to Me Lonr. - Make the Most ft. H.E.R. Loote - Somebody Else Louis the Child - Little Things ft. Quinn XCII Chelsea Cutler LOVA - Own Worst Enemy Madison Beer - Stained Glass Marshmello, Southside, Giggs SAINt JHN - Been Thru This Before Now United - Hoops Oh Wonder - Lonely Star OTR AuRa - Broken Phora - No Love Freestyle Phora - When Hell Falls Down ft. Lil Coffin Problem - Dont Be Mad At Me Reo Cragun - Grown Men Dont Cry Rina Sawayama - Chosen Family Rockit Gaming - Playing Along Seddy Hendrinx - We Got Em In ft. OMB Peezy Sheff G - Moody Skip Marley - Slow Down P2J Remix ft. H.E.R. Sleepy Hallow - Deep End Freestyle Slim 400 Steelz - Brackin Thru The Ghetto ft. Sada Baby Sofia Karlberg - A Thousand Slivers The 1975 - Jesus Christ 2005 God Bless America The LOX - Loyalty and Love Toby Keith - Whats up Cuz tobi lou - Skin Care Tutorial 2020 Tory Lanez - Who Needs Love TroyBoi - Casper TryHardNinja - Thinking of You ft. Laurel Rothamel Westside Tut - Issues ft. YoungBoy Never Broke Again WHIPPED CREAM - I Do the Most ft. Lil Keed 44 RetcH - Whip Out 45 Laura Marling - Held Down Nafe Smallz - Ocean Deep ft. Wretch 32 46 Ferdinand - Stay at Home to Save the World Fit for an Autopsy - Fear Tomorrow Gorillaz - Machine Bitez 6 JT Music - Entangled ft. Andrea Storm Kaden Kevin Gates - Wetty Freestyle MO3 - Broken Love NoCap - TheHoodDoctor Ramin Djawadi - Wicked Games The Aces - Lost Angeles The Strokes - Brooklyn Bridge to Chorus Toni Braxton - Do It Willie J Healey - True Stereo YoungBoy Never Broke Again - AI Nash YoungBoy Never Broke Again - Step on Shit 47 Alfie Templeman - Happiness In Liquid Form Alina Baraz - Endlessly Asylums - A Perfect Life in a Perfect World BlocBoy JB - Out West Freestyle Chelsea Jade - Superfan Ghostpoet - Nowhere to Hide Now Gryffin Chris Lane - Hold You Tonight Hazel English - Five and Dime Jewel - Grateful TEAM PICTURE - Baby Rattlesnake The Lagoons - Wanna Know Something Moyka - Spaces Ohmme - 3 2 4 3 Ohmme - Ghost Oliver Tree - Let Me Down Saint Jude - Keep the Light Inside the House Sweet Spirit - No Dancing Varsity - Runaway 48 Alesso - Midnight ft. Liam Payne Fast Cash Boyz Tay Keith - Bad Habits ft. Murda Beatz Gracie Abrams - I miss you, Im sorry Jackboy - Cleaning Crew Jamie Webster - Youll Never Walk Alone NHS Charity Single Jean Deaux - Moody! Luna Shadows - Palm Springs ft. In.Drip. Machine Gun Kelly - Whats Poppin Freestyle Mozzy - Pricetag ft. Lil Poppa Polo G Omar Apollo - Imagine U Quadeca - Where'd You Go? John Gabbana - Goin Up Remi Wolf - Woo! REZZ Grabbitz - Someone Else Unlike Pluto - Starlight 49 Alec Benjamin - Six Feet Apart Alexander 23 - IDK You Yet Charli XCX - forever Dee Watkins - Chosen One Dua Lipa - Physical Alok Remix Hayley Williams - My Friend Jack Harlow - Fire in the Booth, Pt.1 mxmtoon - lessons Parker - Space Phoebe Bridgers - Kyoto Rexx Life Raj - Canadian Bacon Rico Nasty - Popstar Rockit Gaming - Kill Tonight ft. Lindsay Joan T9ine - Mind of a Real Remix Tash Sultana - Pretty Lady Tech N9ne - Just Die? Intro 1 twenty one pilots - Level of Concern Yxng Bane - Section 410 070 Shake - Guilty Conscience Devault Remix 100 gecs - gec 2 Ü Remix ft. Dorian Electra Abidaz - Evigheten ft. Yung Lean ALLBLACK - Chevron 2 Ambré - Slip ft. BEAM AuRa - Ideas Black Eyed Peas, Ozuna J. Rey Soul - MAMACITA blackbear - emotions shit Buddy Kent Jamz - She Think Cautious Clay - Reaching CeeLo Green - Lead Me CG5 - Into the Unknown Cody Simpson - Captains Dance With the Devil Craig Xen - Master Roshi Demi Lovato - I Love Me Zac Samuel Remix Diplo Wax Motif - Love To The World Dirty Projectors - Isolation Dove Cameron - Remember Me ft. BIA DREAMERS - Heat Seeker Remix ft. grandson Duzzled SARE - Aerith dvsn Ty Dolla ign - Dangerous City ft. Buju Banton E-40 - Go EST - MAYBE ITS ME Fredo Bang - Saucy gnash - leave IDRYS - No Ma'am IDK - In My White Tee India Shawn - NOT TOO DEEP ft. 6LACK J.I. - Proud Of Me Jesse McCartney - Yours Kacy Hill - Porsche Kenny Chesney - Knowing You Kid Ink - Just Chill KILLY, Houdini 6ixbuzz - VVs Kinfolk Jon, Lil Xan teven Cannon - Gassed Kosa - Off White ft. Lil Durk Kyle Allen - Move On Laura Marano - When You Wake Up Lee Brice - One Of Them Girls Lennon Stella - Fear of Being Alone Leon Bridges - Inside Friend ft. John Mayer Like Saturn - Floating in Time Lil Boom - crying in da club Lil Darkie - SOXNSANDALS Lil Gotit - Bricks In The Attic Lil Kapow - WASH YOUR HANDS Lil Loaded - Shotta Shit lilspirit - nothing2prove Little Mix - Break Up Song Acoustic Version Luh Kel - Wrong Remix ft. Lil Tjay Machine Gun Kelly - Pretty Toxic Revolver MadMarcc - Like Home ft. Lil Baby Marissa - Fall 4 Me Matt Fax - Set Your Sails ft. RBBTS Michael Calfan Martin Solveig - No Lie Nieman J, Eric Bellinger Joe Moses - Cheat Code Mode ft. Young Thug OMB Peezy - Everybody Parker McCollum - Like A Cowboy phem Alison Wonderland - W.W.C.B.D. Pink Sweat - Ride with Me Polo G - DND Pouya, Boobie Lootaveli Spock - Muddy Waters Rich Brian Guapdad 4000 - Bali RMR - DEALER Shy Glizzy - Lonely Vibes SHY Martin - can I call you back? SmooveL - IM DA SHIT Sneakbo - I Used To ft. Stickz 150 ST. PANTHER - Infrastructure Tony K - Pause Trav - Prada Shoes ft. NAV Travis Barker, Jasiah Nascar Aloe - Dogshit Trouble - Lend Your Heart TyFontaine - Fetish UnoTheActivist - Night Mode ft. 2GRAMCAM Usher, Lil Jon Ludacris - SexBeat vowl. PhiloSofie - need you Yella Beezy - Headlocc ft. Young Thug Yung Pinch - Looking 4 Existence 411 Quando Rondo - Who Died 412 Bryson Tiller - Slept On You Ruston Kelly - Brave 413 Becky G - They Aint Ready CHLOBOCOP Lee Lewis - Bell Me Back Dan Bull - Sombra of '69 Gerry Cinnamon - Head In The Clouds Pitbull - I Believe That We Will Win World Anthem Retirement Party - Runaway Dog The Streets - Call My Phone Thinking Im Doing Nothing Better ft. Tame Impala 414 Built to Spill - Mountain Top Diet Cig - Who Are You? girl in red - midnight love Kid Cudi - Leader of the Delinquents Machine Gun Kelly - In These Walls The Stupendium - Rip Tear My Way to Your Heart TisaKorean - Bate Onna Bo TOBi - 180 Remix ft. Kemba Yung Lean - Violence 415 A Day to Remember - Mindreader Amber Mark - Waiting Demo Berner B-Real - Fuel ft. Dave East Brad Paisley - No I in Beer Brittany Howard - Stay High Spotify Singles Brittany Howard - You and Your Folks, Me and My Folks Cheap Cuts - Check Your Phone ft. Pete Wentz Deante Hitchcock - I Got Money Now ft. JID Dillon Francis - Touch ft. BabyJake Drainpuppet - luvvvvvv Faye Webster - In a Good Way Jamie xx - Idontknow Kayzo Calcium - Spin It Back LBS Keevin NoCap - Diverse Lil Keed - No Dealings Lil Smaller Lil Noodle - Soon As Rob Markman - Death Around the Corner ft. Trizz DviousMindZ Sammie - Friend Zone The Magnetic Fields - I Want to Join a Biker Gang The Weeknd - Blinding Lights Major Lazer Remix Unlike Pluto - That's What She Said ft. Coruja 416 Bob Dylan - I Contain Multitudes Dan Bull - Battle Rap ft. Duane Jackson Genesis Elijah Dance Gavin Dance - Three Wishes Hayley Williams - Why We Ever Joji - Gimme Love Kehlani - Everybody Business Kelly Clarkson - I Dare You Oh Wonder - Keep On Dancing Playboi Carti - MEH Sam Smith Demi Lovato - I'm Ready Shadrow - Return of the Lifestream Tate McRae - you broke me first 417 21 Savage Summer Walker - Secret Ashton Travis Chase B - CASINO Bazzi - I Got You bbno Lenora - What Would Baby Do Bishop Nehru - MEATHEAD ft. MF DOOM Blueface - Tour ft. Kiddo Curry, Sada Baby, NLE Choppa, 9lokkNine Asian Da Brat Bon Iver - PDLIF ft. Rob Moose Kacy Hill Boona - Emotional ft. JayDaYoungan Brett Eldredge - Gabrielle BVDLVD - FALLING OVER CG5 - The Legend of Siren Head Chloe x Halle - Catch Up ft. Swae Lee Mike WiLL Made-It Christian French - i think too much Craig Xen - Rambo Daylyt, UTK, Ab-Soul Loaded Lux - Talk to Em 2 Desiigner - Survivor Diplo Blanco Brown - Do Si Do DJ Unwind - Let Go ft. Black Milk Freddie Gibbs Dolly White - Gotta Be Careful ft. Gunna Fintan McKahey - Platinum Florence The Machine - Light of Love French Montana - Thats A Fact Gabby Barrett - I Hope Remix ft. Charlie Puth Gabbie Hanna - Dandelion GARZI - SICK OF ME ft. Travis Barker Gavin DeGraw - The Remedy Gianni - De La Hoya ft. Don Toliver Good Times Ahead - Quando Toca Essa Guapdad 4000 - Embezzle ft. Jigga Juice 1000 iann dior - Sick and Tired ft. Machine Gun Kelly Travis Barker Jack Gilinsky - My Love ft. Don Toliver Jackboy - Like a Million ft. Kodak Black Jason Mraz - Look For The Good Jessie Ware - Ooh La La Joël - WOES Joey Montana - Al Tiempo John Legend - Bigger Love Justin Jesso - If youre meant to come back K CAMP - Lottery Renegade Remix ft. Quavo Kaash Paige - Frank Ocean Kelly Rowland - Coffee Kenny Chesney - Guys Named Captain Kygo - Freedom ft. Zak Abel La Roux - Automatic Driver Remix ft. Tyler, The Creator Lauren Jauregui - 50ft. Like Saturn - Love You Anyway Lil Gotit - Never Legit Lil Loaded - Wit The Business Lil Tecca - Out of Love ft. Internet Money Lil Zay Osama - Pick Yo Homie Up Lilmar - 50 Days Lost Frequencies, Zonderling Kelvin Jones - Love to Go Lucki - Faith Lund - Broken Macy Kate - Real Thing Molly Hammar - Alone Morgan Wallen - More Than My Hometown Noah Reid - Hold On Phoebe Ryan - Ring Powfu - im used to it Project Youngin - Ain't Leavin Rvssian - No Me Ame ft. Anuel AA Juice WRLD Sad Frosty DDG - Pull Up Selah Sue - You Skip Marley - Slow Down Remix ft. Wale H.E.R. SlickLaFlare - I Pray ft. 24hrs Slim 400 Steelz - She Want It ft. Yella Beezy Sueco The Child - Juice The Kid LAROI - Fade Away ft. Lil Tjay THEMXXNLIGHT - Its Over THEMXXNLIGHT - Miss Me Tiësto Becky Hill - Nothing Really Matters Tired God - Make It Out ft. YSN Flow Trouble - Medusa ft. Jeezy TyFontaine - Huh!? Y2K - Go Dumb ft. blackbear, Bankroll Hayden The Kid LAROI Yung Pinch - Illusion Zhavia Ward - Waiting 419 Iglooghost - Amu 420 Ab-Soul - Dangerookipawaa Freestyle ACOT - POTHEAD Buju Banton - Ganja Man Chip - 0420 R.I.P Black the Ripper Dan Bull - Return of Django Reinhardt Flight - Disingenuous Jack Garratt - Better Jack Garratt - Get in My Way Jack Garratt - Mend a Heart Joey Trap - Keep Smokin' Kyle Allen - Puppets Never Die ft. Elsie Lovelock Lil Darkie - FUCK YOU I AM VERY ANGRY AND SERIOUS Lil Skies - Fidget Luis Fonsi - Sway Migo Domingo - Real Ro James - Selfish Rockit Gaming - Enemies ft. Dan Bull Shoreline Mafia - Gangstas Sippas ft. Q Da Fool SoMo - Mi Amor Tokyo Machine - New Horizons ZaeHD CEO - At The Door ft. TisaKorean 421 Bright Eyes - Forced Convalescence CORii - What If Dounia - Disrespectful Hopsin - Covid Mansion Masego - Veg Out Wasting Thyme Parisalexa - Slimthick Rileyy Lanez - Foul Play Tyedie - Monopoly Victoria Monét - Dive Zacari - Edamame Zacari - This Woman's Work ft. Che Ecru 422 Alicia Keys - Good Job Bhad Bhabie - That's What I Said Flo Milli - Eat It Up guccihighwaters - needle thread Haley Reinhart - Piece of My Heart Isaiah Rashad - Why Worry James Mercy Mia Vaile - A Little Less Conversation K CAMP T-Pain - Lottery Renegade Lil Poppa - Frontline MisterWives - rock bottom Now United - By My Side Octavian, Take A Daytrip Obongjayar - Poison ft. Santi UMI - Mother Unlike Pluto - Gaze Sneakbo - Last Night In Brixton YUNGBLUD - Weird! 423 Alina Baraz - Off the Grid ft. Khalid Car Seat Headrest - There Must Be More Than Blood Charli XCX - claws Everything Everything - In Birdsong Goody Grace - If I Want To Jaebanzz - 247 JPEGMAFIA - BODYGUARD! Khalid Disclosure - Know Your Worth Remix ft. Tems Davido Lamb of God - New Colossal Hate Lil Baby - All In SiR - Rapper Weed ft. Boogie The 1975 - If Youre Too Shy Let Me Know The Rolling Stones - Living In A Ghost Town Woodkid - Goliath 424 2Scratch Swisha T - No Love Akon Wizkid - Escape Alanis Morissette - Diagnosis Ambré - Color Blind ft. Maeta Avril Lavigne - We Are Warriors Bad Suns - I'm Not Having Any Fun Bino Rideaux - Brand New ft. Blxst Black Coffee Sabrina Claudio - SBCNCSLY BSF Black Soprano Family - Da Mob ft. Heemer Da Steemer, Rick Hyde BENNY THE BUTCHER Cassius Jay Trap Jazz - Go Get It ft. Jeezy Chief Keef CG5 - It's Been So Long Cheat Codes - On My Life Cher Lloyd - Lost Chloe Lilac - Moderation Cole Swindell - Doin' What to Goin' On Crazy Cousinz - Outline ft. Julie Bergan Dan Shay - Stars DC the Don - MR. NOT NICE deadman - Molly. Earl Sweatshirt - WHOLE WORLD ft. Maxo EBEN - Sad Song Emily Burns - Press Pause Evanescence - Wasted On You Frvrfriday - Nana FUTURISTIC - Pull Up ft. Kap G Galantis Wrabel - The Lake Ghastly - Stay ft. Micah Martin grandson phem - How Bout Now Guapdad 4000 - Trade Places With Them Jeans Haiti Babii - California Haitian HEDEGAARD - Stay Or Go Iamkeynotes - Buss It Down ft. Petey Pablo DaBaby Jacob Whitesides - God Took a Bow Jake Bugg - Saviours of the City James Blake - You're Too Precious Jessie Ware - Ooh La La JG - Broken Record ft. Taylor Belle Jidenna - Feng Shui Jordyn Jones - Blind Joyner Lucas, Yandel G-Eazy - Lotto Remix Juice WRLD - Righteous Keith Urban - Polaroid Kenny Chesney - We Do Kofi - Nuff Talk ft. Rodney KSI - Houdini ft. Swarmz Tion Wayne Leven Kali - PERFECT IS BORING ft. Ty Dolla ign Like Saturn - Cherry Rain lil aaron - VANS UNTIED Lil Pump Anuel AA - Illuminati lilspirit - nobody else Lolo Zouaï - It's My Fault MALINDA - When It's Not Now Mario - Closer Martina McBride - Everlasting in Love Matoma brando - The Bender MAX - Where Am I At Remix ft. Witt Lowry Mitch Ann Marie - Like This MOD SUN - Stay Away ft. Machine Gun Kelly and Goody Grace Nasty Cherry - Shoulda Known Better Njomza - Bite PDE Twin Young Nudy - It's Official Peg Parnevik - Not Gonna Be There Perto - Go Away ft. iann dior Phi11a - Witness ft. Trippie Redd Problem - G Shit Raja Kumari - N.R.I. Random Encounters - God of War Ravyn Lenae - Rewind REASON - Might Not Make It Regard RAYE - Secrets RonSoCold - Still Goin In Rubi Rose - Pretty MF Rufus Wainwright - Alone Time Sam Tompkins - google luv Sarah Barrios - I Didn't Mean To SG Lewis - Chemicals Shakewell - Late Night Sheppard - Come Back Smooky MarGielaa - Rocktar Stephanie Poetri - Straight To You Stunna 4 Vegas - Freestyle T-Pain - Wake Up Dead ft. Chris Brown The Score - Best Part THE SCOTTS - THE SCOTTS TroyBoi Healthy Chill - Favorite Walker Hayes - Trash My Heart Whethan - So Good ft. bülow Will Sparks New World Sound - Lies Young Dolph - Blue Diamonds Yung Tory - Double Ds ZenAware - All Love 425 Amir Obè - POETRY JT Music - Gun Show Yung Baby Tate - Do Me Like That ft. Buddy Jack Reynolds - Fever Rush AlistianShadow Remix ft. AlistianShadow 426 Various Artists - Lean On Me ft. Justin Bieber, Walk off the Earth, Tyler Shaw, The Tenors, TIKA, Shawn Hook, Scott Helman, Sarah McLachlan, Ryland James, Olivia Lunny, Michael Bublé, Marie-Mai, Jules Halpern, Josh Ramsay, Johnny Orlando, Jann Arden, Geddy Lee, Fefe Dobson, Donovan Woods, Desiire, Dan Kanter, Command Sisters, Buffy Sainte-Marie, Bryan Adams, BAD CHILD Avril Lavigne 427 NOT - FEAR ft. Thouxanbanfauni H.E.R. - Wrong Places halfalive - RUNAWAY w orchestra Lil Durk - Viral Moment Rockit Gaming - Break In 428 BRONSON - HEART ATTACK ft. lau.ra BRONSON - VAULTS Freddie Dredd - Necklace Kossisko G-Eazy - The End Lance Skiiiwalker - In The World Medhane - ALLEGEDLY Mykki Blanco - You Will Find It OR3O - 100 Years Quando Rondo - Sticc to the Code TryHardNinja - From the Machine ft. SquigglyDigg 429 24kGoldn - Unbelievable ft. Kaash Paige AJ Tracey - Dinner Guest ft. MoStack Amber Mark - 1894 Big Thief - Love In Mine Coi Leray - Better Days ft. Fetty Wap Dashboard Confessional - Circles Dashboard Confessional - Screaming Infidelities Spotify Singles Freshie - Doin the Most G-Eazy Devon Baldwin - Angel Cry G-Eazy Jack Harlow - Moana HAIM - I Know Alone halfalive - still feel. w Orchestra Hayden James Icona Pop - Right Time IRIS - Rock Bottom Kayzo Crankdat - The Fire Kevin Gates - Still Hold Up King Von - Grandson for President Matt Ox MIYACHI - PLEASE SHUT UP Megan Thee Stallion - Savage Remix ft. Beyoncé Punch - Pay No Attention to the Man Behind The Curtains Trey Songz - Back Home ft. Summer Walker Unlike Pluto - Yippee Ki Yay Yung Lean - Pikachu YungManny - Margiela 430 Anna Leone - Wondering Arca - Nonbinary Bree Runway - Damn Daniel ft. Yung Baby Tate Don Toliver Remixed - No Idea Crooked Colours Remix Don Toliver Remixed - No Idea Logic1000 Remix Kehlani - FMU M.E.T.A.L. - Live a Broken Life Oasis - Dont Stop... Demo Parker - Noise Party Favor - ALIEN PARTY ft. Yung Pinch Sech - Casino Tinie Tempah - Moncler ft. Tion Wayne</t>
+          <t>Imagine there's no heaven, it's easy if you try No hell below us, above us only sky Imagine all the people living for today Imagine there's no countries, it isn't hard to do Nothing to kill or die for and no religion too Imagine all the people living life in peace You, you may say I'm a dreamer but I'm not the only one I hope someday you'll join us and the world will be as one Imagine no possessions, I wonder if you can No need for greed or hunger, a brotherhood of man Imagine all the people sharing all the world You, you may say I'm a dreamer but I'm not the only one I hope someday you'll join us and the world will live as one</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Gypsy</t>
+          <t>In the Midnight Hour/Lay Lady Lay</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>I said you looked fair in the evening snow But still a daisy with a yellow glow Now you're off somewhere I don't know But not to a place that I'm willing to go And all those nights when I told you things Traveled far and bought silver rings I'm going back to those stars, yes, I am For I wanna see the sunrise My facing the sea And does the gypsy still dance in your room? Using incense as our daily perfume Cleaning our hands with the same desires Or waking up early to see the fires To see the fires And all those nights when I told you things Traveled far and bought silver rings I'm going back to those stars, yes, I am For I wanna see the sunrise My facing the sea</t>
+          <t>Gonna wait, 'til that midnight hour That's when my love, come tumbling down Gonna wait 'til that midnight hour When there's no one, I mean no one else around I'm gonna, take you girl, gonna hold ya I'm gonna do all those, GOOD THINGS that I told ya In the midnight hour-hour-hour-hour-ah-hour in the midnight hour There's no one else around I'm gonna wait, till that midnight hour That's when ya, see my love come tumbling down That's when you'll Lay lady lay You'll lay down on my big brass bed In the midnight in the midnight in the midnight hour Lay lady lay Lay down on my big brass bed In the midnight in the midnight in the midnight hour What ever colors you have, IN YO MIND I'LL SHOW THEM TO YOU, see them shine Stay, lady, stay Stay until I fix my head In the midnight in the midnight in the midnight hour Lay lady lay Lay down in my big brass bread In th midnight in the midnight in the midnight hour Gonna take yo girl, gonna hold hr one time I'm gonna do all those good thangs that i told her one mo time In the midnight hour-hour-hour-hour-ah-hour in the midnight hour Um-hmm-hmm-hmmm In the midnight in the midnight in the midnight hour Um-hmmm hmmmm-hmm-hmm-hmmm In the midnight in the midnight in the midnight hour Umm-uh-hmmm huh-um-um-hmm-hmmm In the midnight in the midnight in the midnight hour His clothes are dirty, but his hands are clean Girl YOU'RE THE BEST THING that the man has ever seen STAY LADY STAY Lady Stay with your man awhile In the midnight in the midnight in the midnight hour Lay lady lay Lay-down-in-my-big-brass-bed In the midnight in the midnight in the midnight hour Lay lady Layyy Stay until I fix my head In the midnight in the midnight in the midnight hour Why want you stay here Why want YOU STAY HERE? In The Midnight WHY WAIT ANY LONGER? In the midnight CAN HAVE YOUR CAKE AND EAT IT TOO In The Midnight WHY WAIT ANY LONGER FOR THIS LOVE In The Midnight When It's STANDING RIGHT HERE in front of you In The Midnight I LONG TO SEE YA, IN THE MORNIN' LIGHT In The Midnight AND I LONG TO REACH OUT FOR YA, IN THE MIDNIGHT In The Midnight Midnight hour In The midnight hour In the midnight hour I love ya lady</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Here Comes the Night</t>
+          <t>It Ain’t Fair</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Here comes the night See the stars in the sky Shining up above, night of love Darling, just you and I And here comes the night How I thrill to your kiss Music fills the air everywhere Night of magic and bliss Think of the moments, the hours and hours That we were apart Moments and hours that kept bringing showers of Tears to my heart, oh oh And here comes the night Like the others before But tonight's divine You are mine once more Think of the moments, the hours and hours That we were apart Moments and hours that kept bringing showers of Tears to my heart, oh oh And here comes the night Like the others before But tonight's divine You are mine once more Here comes the night</t>
+          <t>People all around me But I don't even have a friend Lord knows I've been trying But I just can't win Everything I do Seems to turn out wrong Sometimes I wish Oh, I wish I never was born Talkin' 'bout teardrops Nobody, nobody knows Talkin' 'bout long, lonely nights I've had more than my share Just ain't fair Just ain't fair Some folks got it easy They live the life of love and play Lord knows I've got to struggle Got to struggle to make my way One of these days, y'all Gonna reach the top, yes I will I know I can make it 'Cause these tears won't let me stop Talkin' 'bout teardrops Nobody, nobody cares Talkin' 'bout long, lonely nights, listen I've had more than my share It just ain't fair It just ain't fair It just ain't fair You know it ain't fair Nobody to call my own it just ain't fair Just stay at home it just ain't fair Listen to my own it just ain't fair No, it ain't fair it just ain't fair</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>He Will Break Your Heart</t>
+          <t>It’s All in the Game</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>He don't love you like I love you If he did, he wouldn't break your heart He don't love you like I love you He's try-in' to tear us apart Fare thee well, I know you're leavin' I know you're leavin' For the new love that you've found The handsome guy that you've been dating, whoa I got a feelin' he's gonna put you down 'cause He don't love you like I love you If he did, he wouldn't break your heart He don't love you like I love you He's try-in' to tar us apart He uses all the great quotations Says the things I wish I could say Whoa, but he's has so many rehearsals Girl, to him it's just another play but wait When the final act is over And you're left standing all alone When he takes his bow and makes his exit Girl, I'll be there to take you home He don't love you and he never will like I love you If he did, he wouldn't break your heart Oh, he don't love you, girl, like I love you He's try-in' to tear us apart Whoa, he don't love you</t>
+          <t>Many a tear has to fall But it's all in the game All in the wonderful game That we know has love You have words with him And your future's looking dim But these things Your heart can rise above Once in a while he won't call But it's all in the game Soon he'll be there at your side With a sweet ok And he'll kiss your lips And caress your waiting fingertips And your heart will fly away Once in a while he won't call But it's all in the game Soon he'll be there at your side With a sweet ok And he'll kiss your lips And caress your waiting fingertips And your heart will fly away And your heart will fly away And your heart will fly away</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>How Can I Forget</t>
+          <t>It’s All Over</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>What if I had the power to gather all of my favorite MCs With the illest comic book characters and make them arch enemies? Inconcievable? Unbelievable? Yet as wild as it seems The Emperor and Stan Lee would coach the two opposing teams What if I took my love for hip-hop and comics and made it equal And gave the people Secret Wars Part Two the long awaited sequel An animated hip-hop grudge match, I'll make it lethal How would my favorite rappers perform in the face of evil? I'd take the RZA from Wu-Tang, yes the Rzarector Versus Captain America, our nation's oldest protector Of homeland security, the top defender, top Avenger He gets dropped and injured when raw hip-hop commences Now it gets critical when Bobby Digital crosses Captain America Perhaps the Red Skull would have to jump in it too But the RZA was too nimble, the Red Skull licked off shots to hit him RZA then launches the Wu symbol into the New York skyline Timed the Red Skull, get blown apart by the Ghostface Killah alias Tony Starks AKA Iron Man, Ghost Deini the scientist The top contender what other Wu members could I enlist? Who's next to die in this? I would take Masta Killa and Golden Arms versus Power Man and Iron Fist Imagine Blade the black hunter of vampires Goin after DMX the dog from the Ruff Ryders RRRRR... I mean there's no tellin how they might react, I've seen how X can bite the track Would Blade be afraid or fight and then leave with his life intact? Yo Blade, I think you got me wrong, I ain't that type of cat And if you're tryin' to step to the dog I'll have to bite you back I saw DMX break him apart, take him apart He played with the art, I saw X drive a stake through his heart Another mission accomplished, X came, saw and he conquered Buried Blade's body in a shallow graveyard in Yonkers Imagine after seein X puttin in work Watch in the ring, you'll see the illest pitbull in a skirt Reppin' the double R, the first lady from Philly, Eve y'all Versus David Banner's amazon cousin called the She-Hulk Jump in the ring and starts swingin I see punches, they're movin in and out Two femme fatales engaged in a cage match, two woman bout A lot of female rap is played but not Eve They done got Eve knockin chickens out like Leila Ali Then I see the She-Hulk hits the canvas, Stan Lee now gets embarrassed So his plan is to summon Sub-Mariner from Atlantis Far due to include ATL in this war It's foolishness, I just get Ludacris to settle the score In any bout or brawl you're about to fall I spit alcohol, a drowned person named Moore Actually he's no match for me I put him to sleep You need to see and then came Thor Ludacris and the mighty Thor, the battle I chose Had Thor swingin' his hammer while Cris was throwin' 'em bones He sent Thor back to Valhalla, made Sub-Mariner sea-sick Scores a victory for hip-hop plus the DTP clique, uh My battle-rappin is war, my raps is hardcore Imagine the Roc-A-Fella camp versus the Fantastic Four As I get deep with it, Marvel Comics street lyrics As we proceed with it, Jay-Z versus Reed Richards Imagine Mr Fantastic and Hova goin' at it, Jigga spits like an automatic Click click click, it's over damn it Any static from Human Torch, y'all know the procedure Send a message to Young Memphis, he'll go and defeat him Am easy, believe me Johnny callin' my name out, come with it I spit it real cool and I'm puttin' your flame out, uh Remember Memphis, Secret Wars is a critical world Where rappers disappear like a meal in the invincible girl But let's not forget Benjamin J. Grimm Now what kind of rapper could Roc-A-Fella get to slay him? I mean, who would step inside the ring Who would have the right to swing Enough muscle and might to bring? Beanie Sigel fights the Thing! Imagine Beanie and Ben Grimm goin spit for spit Beanie Sigel and The Thing going brick for brick Now what I saw was the board get gully He messed around and got knucked out by the Broad Street bully But yo we got a slight problem as the Hobgoblin glides in I see him droppin' bombs on the crowd So I'll just have to get Freeway with the buckshot He shot him, firing, knockin him down Ow, Reppin the city of Philly back to the ring when I'm distracted by Joey Crack Fat Joe knocks out the Kingpin The Kingpin thought that he could extort Don Cartagena But not in this terrordome, this is Terror Squad's arena And there's a lot of room for these rappers that I produced Keith Murray came home in a hurry to box Dr Doom My miscellaneous instantaneous battle techniques will leave him scarred Courtesy of the Death Squad and LOD Let's see the crowd's reaction from action, turn up the lights No doubt it's hype from all these rappers in my house tonight But live via satellite look who's about to fight From the Brick City it's the Outsidaz versus Alpha Flight The Jersey regulators, Young Zee versus Vindicator Rah Digga took out Snowbird with words that she served and then she slayed her And later Asis and Slangtongue with their pattern of rhymin' Kick back to back freestyles that took out Puck and the Shaman The Outs tore it down like they're doin' on tour Pace1 punched out the Sasquatch and yelled I declare war Now it seems World War 3 is in progress Of course the Punisher would target the leader from Onyx Yeah, Sticky Fingaz, I kill rappers while holdin' my gat That means I slam the Punisher and put a hole in his back You know how I act, what up, try and look, let's see He's finished, I'm in it to win it for the USG As you can see there's no casualties on my team Me versus Stan Lee is more like man vs machine I've seen Xzibit from the West flyin' in Versus Colossus, X-Man with the iron skin Xzibit suckerpunched the rushin' knocked the thing There's no choice in my arena, it's either die or win, but then This is all that happens if heroes target rappers Then wouldn't Matt Murdoch be going after Marshal Mathers Would Eminem then use the Daredevil for target practice Slim Shady maybe Ben Affleck catch record then cause disaster Somebody find a gurdy, I'm'a stretch then blind the turdy Bury him alive and burn him, tell D12 he tried to earn me Now this certainly serves as a hideous mixed win I call D12 to fight the Insidious Six and This fight music produces bumps and bruises as the Scorpion and Rhino fight Kuniva and Proof Swifty McVeigh slayed Mysterio on his illusions Kon Artis gave the Chameleon some minor contusions Then I heard this loud sound at first I thought was a bomb No you idiot! It's just Bizarre versus the Blob They went and took the belt from a battle I felt they insured Back to the 8 Mile where it's wild and held it down for Detroit Now as the time went out, Stan Lee is checkin' the clock There's room for one last battle, let's see if y'all feel me or not My ultimate tag-team would be like Biggie and Pac Stan Lee would get the Black Panther to team up with Juggernaut Biggie snatched off his helmet, threw it to a fan in the audience Turned to the crowd uh and said So all be sure give that man a warning Cuz I'm'a fought'em this is real my performance I'm the, weed smoke helps my endurance Yeah Big, still reppin blocks in BK I say one of the best who was ever destined to rock Rhyme sayer and slayer of Xavier's brother Juggernaut But now let's not forget the Black Panther and Pac Holla if ya hear me, superheroes is tryin' to kill me The son of a panther to slam ya, ride with me It's Stan Lee, I'm sure you remember me, even in death my words leave a legacy Two hip-hop titans and giants at war when they died In the afterlife standin' together, fightin' side by side From Marvel to DC to Dark Horse to Image Bear witness the power of hip-hop, there are no limits To all worthy opponents, heroes, challengers, contenders These are the Last Emperor's Secret Wars, I'm finished1</t>
+          <t>Outside her window That's where I am Every night and every day And outside her window I cry-y-y-y my life away There's a jukebox playing Just a half a block down Saying I'm going to the river Gonna jump right in and drown But I ain't gonna do that, girl No, no, I'll just keep on hanging around Even though it's All over Can't you hear me All over Don't you leave me It's all over Now, now, now, now, now, now Now, now, now, now, now, now Outside her window A pretty bird come to play And I know I cried, I cried a tear I must have scared that pretty little thing That pretty little thing away, yes, I did When I see two young lovers Walking down the street, yes, indeed Whoa, how it kills me When I see their two lips meet Then I pass my hand right over Where my heart once used to be And you know it's All over I wonder, do you believe me All over I don't think you understand me It's all over oh, yes, it is Now, now, now, now, now, now Now, now, now, now, now, now I've got to say it Just one more time now Yes, it's all over Soembody help me tell my story All over yes, it is It's all over Now, now, now, now, now, now Now, now, now, now, now, now</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>How Often</t>
+          <t>Jää mun luo</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NARRATOR Planet Earth, 1835 Samuel Stratford sits behind a desk A reporter for the New York Sun A new newspaper trying to compete But they're going down and everyone knows it Young man with a pencil Immigrant son with a heart made of gold Young man with potential Imagination, twenty-seven years old SAMUEL Planet Earth needs something different CHORUS Samuel Stratford's flipping through a notebook NARRATOR Earnest, anxious, full of passion Samuel wants to show his boss BENJAMIN He's gonna hate it, everyone knows it NARRATOR Samuel's best friend Benjamin knows it SAMUEL Benjamin, you need to see this Rose and I have written something awesome BENJAMIN Every time you have that notebook I know you are gonna cause a problem CHORUS Benjamin, the editor Keys to the press and keys to the door NARRATOR Best friend, the editor He's had this conversation before SAMUEL There are fifteen hundred newspapers in New York City BENJAMIN No there aren't SAMUEL I'm just saying- The one that pays us to produce Is one of many Even if there's minor variations In the way the story's told The news is just the news And the news is getting old CHORUS In 1835 The news of the world has passed us by SAMUEL Now it will take a miracle To keep our printing press alive CHORUS When you look up 1835 Honestly, we would not be surprised If there was not a single word About our ultimate demise BENJAMIN But the Sun revolves 'round Planet Earth And nothing's gonna change that SAMUEL The sun doesn't revolve around the Earth BENJAMIN The one from New York does SAMUEL Why not add a little bit of fiction? Why not add a little bit of style? Why not add a little bit of swagger? Why not add adventure to the pile? A featured story, it could be anything Science, horror, myth, or magic Future lands and future glories BENJAMIN I suppose you'd write the stories SAMUEL Well, you know that we have a few ideas... BENJAMIN We? You and Rose? SAMUEL My sister is incredible Her imagination's just as big as mine BENJAMIN Your sister is incredible But I'm telling you that this is not the time SAMUEL I promised Rose BENJAMIN It's for the best SAMUEL But this is good BENJAMIN Give it a rest I am doing you a favor CHORUS Our paper writes the news BENJAMIN Save your fantasies later NARRATOR Chester Thomas Owner of the New York Sun Opens his door And stares at everyone Standing tall as he projects Power as he puffs his chest But he's nervous as the rest Imagination's been destroyed In his mind, there is a void Failure's made him paranoid He can feel he's losing grip Captain of a sinking ship Still, he's sneering as he quips THOMAS The New York Sentinel THOMAS, CHORUS Our rival THOMAS Have given us our daily pounding Every day is a fight for THOMAS,CHORUS Survival THOMAS I know that isn't news But how often we lose Is really quite astounding Benjamin BENJAMIN Yes? THOMAS Our deadline has arrived Do you have our articles together? BENJAMIN Almost ready, I'm just helping Samuel fix his story on the weather SAMUEL The weather? BENJAMIN The weather SAMUEL But- BENJAMIN Not now NARRATOR Chester Thomas squints his eyes He can tell that Samuel lies THOMAS This is not a trick, is it? Not another trick, Samuel Let me see your notebook SAMUEL ... No THOMAS What? Let me see your notebook BENJAMIN Please, sir, don't- THOMAS I've lost track of all the times You come to me with grand designs My orders always undermined In the name of fiction Tell me, do you think That will save us from the brink? That trash isn't worth the ink SAMUEL You're wrong! SAMUEL It is 1835 Sir, you've got to open your eyes Simply being good is not enough, we must be wise That readers in 1835 Don't just wanna live, they wanna feel alive THOMAS The only one not good enough is you, I've realized Samuel, let me see your notebook CHORUS Let him see your notebook THOMAS Let me see your notebook CHORUS Let him see your notebook Let him see your notebook Let him see your notebook Now THOMAS Great Astronomical Discoveries... NARRATOR Thomas tears the notebook in half He shows Samuel to the door and laughs THOMAS laughs You're fired CHORUS The Sun revolves 'round Planet Earth And nothing's gonna change that THOMAS Everybody, back to work BENJAMIN Samuel... I'm sorry NARRATOR When the working day is through Samuel walks the avenue His footsteps' heavy as they hit the cobblestone Manhattan is a gorgeous site Broadway lit by candle lights And the only city he's ever known He wonders if his boss is right If this is all a losing fight There is one person who might change his mind...</t>
+          <t>Ey, ey, 035 is binnen Bariorecords is binnen Ey Ze zegt dat ik de beste ben Asha heeft al uitgespeeld Die klap wordt niet ontvangen broeder Hij wordt eerder uitgedeeld Verbrandde visie Maar toch ben ik liever buiten beeld Die man ziet tien taja Droomt alleen dat die naar buiten wilt Hij drinkt want dat verzacht de pijn Hij weet niet waar z'n matties zijn Van 100 koppen tellen naar weer werken in de appie heijn Dat is hoe het leven is Geloven als het tegen zit We trekken als er reden is Zelfs parra als er vrede is En jij rapt over shows, maar je zit thuis bro, je levert niks Rust aan m'n hoofd sinds m'n leven wat verbeterd is M'n boys met hoge eisen, jij zit nog voor een zedelict Geef me tien seconden nog voor die dooie gast gelezen is Ey, en jij maakt geen hap, geen grap Rijden in een hooptie of kan rijden in een V8 De meest bekende, maar ik ga niet op de fame af We schreeuwen 'fack rap' maar als het moet maak ik de game af Ik ga op stage en daarna weer van de stage af Veels te bruut hoe ik bitches in die Range klap We eten hier aan koppen, ik maak tonnen, meisje geen dank Al m'n brieven hebben geur, meisje geen stank Ik weet nog goed hoe al mijn haters nieuwe matties leken Koud door mij ik moet die actie geven Volop de aanval maar die jongen kan die gimma'tje ook tactisch spelen Wie ben jij a bro, jij mag niet spreken Ik moest er komen had m'n vader gezegd Als ik kijk naar hoe het loopt, heb ik het aardig gered, toch? Ik was het leventje beu Ik draag die ding op m'n heup Want bro we hadden geen keus Wat begint met een lach eindigt vaak in een breuk Je bent verslaafd, je kan niet meer zonder shit in je neus Je wordt gek als je niemand ziet Zo parranoia dat je gek wordt als je iemand ziet Wat weet je van de pijn, verdriet Van een soldier die z'n dingen voor z'n moeder doet Zit je aan m'n trots of eer ik laat je in je onderbroek Stap in de auto en we rijden richting morgen toe Drie nummer één hits op naam, dat weet je dondersgoed Zelfs in m'n trinna drip ik beter dan jouw domme look We staan sterk als Lukaku, noem me Romalu Ook Elon Musk is aan het werk, het is nooit genoeg Bloed, zweet en tranen die gevoel bro heb je nooit gevoeld Ik voel me lekker, ik ben independent Alsof ik ben bevrijd door de interpol Ik zeg die man ga niet te ver, jongen ken je grenzen Ik laat hem uit of trek hem in je mond Omgekeerde wereld, jongens lopen nu als bitches rond Bitches weer als jongens, domme jongens, sjonge jonge Heb respect voor m'n lady Ik zit al jaren in de trap, je beweegt niet Kom eens uit je daydreams Echt ik had al daar moeten zijn Maar ze hielden me tegen Ik was jong en onwetend Maar ook jong en ontketend Gewoon iemand die z'n dromen volgt De beste in de game en zoek je les ben ik de protocol De één zoekt kappers en de ander heeft de hoop op school Me hoofd op buit en deze kanten waren onze hoofden vol Je zag toen niks in mij, maar de kamer is al overvol All-inclusive, Ashafar is overal Ey, want ik ben op die do or die Ze kent mij en ze voelt me vibe Asha, ey De vraag is of je goed voor mij Ze zitten aan de M, terwijl ik een M sla Bradda luister opnieuw Ze houdt van me stem en ze weet dat ik ham ga Bro, want ik trek en ik duw In Amsterdam, en ik cho in een panthouse Wow, zie de stad als m'n view Stop met die rap, want echt waar je bent oud Hehe, want m'n patta is nieuw, wat is de deal, je wou dat ik viel Ik ben met je zusje in een Tiel, ieuw Asha is slim en jij een debiel De buurt die is heet, je hoort wieuw wieuw Ze weet dat ik trap all night, ik ben op cash all night Pak m'n buit en weg We leven die fast fast live, want ik ben een handsome guy Zeg me geen stress De vraag is wat je doet voor mij, weet 't niet Want ik ben op die do or die, probably Ze kent mij en ze voelt me vibe, o man gerie De vraag is ben je goed voor mij, weet 't niet De vraag is wat je doet voor mij, weet 't niet Want ik ben op die do or die, probably Ze kent mij en ze voelt me vibe, o man gerie De vraag is ben je goed voor mij, weet 't niet Ja man, een dikke SO naar Morad voor deze man, sjees A, a, a, ey Woe En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo Ey, laat me vliegen naar Panama als Tony Montana Geen Fandy maar DolceGabana Me jongen heeft class, ze heeft doekoe in tas Zegt vandaag niet in mood, schat ik zie je tamara Me ezy in Kom van ghana, paranoid deze libi is harra Houd er met hakar, luister naar Lijpe of Martar Ik ben zo zat oe me mara Zij ziet de pijn niet, Asha is consistentie Stand, ik geloof niet in de systeem Ik leef voor de rat die de police scamt Liesscan, niemand nodig ik move alleen Alleen, Rap als er even als kwenka Scarface geen manola ma kenla Ik ben niks, jij beweegt met agenda Kijk nu ik ben daar, ik rij nog steeds op de Vespa Ik sta nog steeds aan kop, ik sta nog steeds aan top Maar ben eenzaam ook Ik heb de game op slot Broeder ik geef geen fock, nee ik geef geen fock Ik ben met 50 of Makka, Sjakie of Zamza Rapper die levert ook Ik heb die game op slot, ik heb de game op slot, de game op slot En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo 035 is binnen voor deze gaan we een beetje losgaan Wazup guys, ey, ey Molenbeek aan vers, elke flow is vers Ilias, Ilias, tro bie, deze beat ik own die, motherfuck de police Ashafar zegt buit na Stacken stacken voor een Panamera Jongen daarvoor was d'r geen hoop Metro kwam in gezeik door m'n ego En we stuurden die blokken geen Lego Ga van Barca naar Londen als Deko Fock die mix heb genoeg aan een demo Door ballon worden drerries hier demoon In de streets en m'n boys hebben geen loon Die eten is bah net als dembah Januari zo spits als december Weer een junk die me belt en om hem vraagt Doe die junk op de pof en ik tem haar Ik ben op de weg, onderweg naar cash Waggie in z'n S, maar geen stress want ik ken het Keek naar mij, ken je mij, voor je ben het Broer die man is niet barkie, ey melk Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Phillip, Phillip Heb de picknick van Je hebt fans Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Noem m'n tijd en ik ben daar Ik move nog stiller dan Tesla's Ben op een fissa met kheb.. Ben van die meta, komen van brakka's op Vespa's Zeg ie niet twee keer, maar één maal Op een moment Banditia In groep één werd die Asha al Liga Als je klaagt ga ik zoeken naar vila's Scheur maar aan Fiat Luister naar Moment supreme Ik was jarig maar kreeg geen surprise, ja Angelina Jolie, zeg je eerlijk die vrouw is te nice, ja Je wordt wakker uit je droom met een big naast je Ik wordt wakker uit m'n droom met je bitch naast me Bel niet aan m'n deur, maar geen Sint Maarten Laat me met rust, ga de Sint vragen Waggie Duits, RR Trappen nu omhoog net als Jetlie Misschien dat ik verdwijn uit NL Haal die taggie uit je mond, bro ik ken die Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Pillip Phillip Heb de picknick van Je hebt fans Want ze vlogen omhoog als een raket Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Phillip, Phillip Heb de picknick van Je hebt fans Want ze vlogen omhoog als een raket Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Sjees Dit was 'm man rotjoch 035 was binnen Dikke SO naar iedereen Freezoeloe nog steeds</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>I Count the Tears</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Aye, I defy gravity I'm going up to a whole 'nother galaxy Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I'm puttin' in work for what's mine My heart was the only casualty Somehow i turn all the stars into poetry Turn a butterfly knife into butterfly wings In the absence of thought, moments of peace Swim through the clouds, otherwise driftin' out to sea Leave em' thunderstruck, make em' fall in love Reach for the stars above, watch it all turn to dust I used to drink till' I was numb, there's nowhere that I'm from The darkness comin' on, by morning I'll be gone Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I put in work for what's mine My heart was the only casualty I stay in the cut, don't fly close to the sun Paper rose drifty I'm dressed like a bum I run it up to marathon, I used to panhandle with skinny jeans on I pair the denim with the camouflage, do this forever with my dawgs Aye, I defy gravity I'm going up to a whole 'nother galaxy after me Count up the benjis with tears in my eyes, bein broke was a tragedy I put in work for what's mine My heart was the only casualty Leave em' thunderstruck, make em' fall in love Reach for the stars above i put in work for what's mine My heart was the only casualty Watch it all turn to dust I used to drink till' I was numb, there's nowhere that I'm from The darkness comin' on, by morning I'll be gone but my heart was the only casualty</t>
+          <t>Katherine I heard his mother Talking about you Saying how cute you are Oh, but for her son, girl, you'll never do And here's one more thing I've got to let you know If he decided to ever let you go Girl, just call me when things get rough They say you'll never be good enough I hope you'll never be good enough for him But you're good enough for me Katherine They say wedding plans Have already been made I can hear his mother say Oh I'd love to put off until a later day And if he don't seem interested at all Dial my number I'll be waiting on your call Girl, you'll never be good enough They say you'll never be good enough I pray you'll never be good enough for him But you're good enough for me Oh, Katherine They may never understand I love you Place nobody else right here above you Ooh Katherine I heard his mother talking about you</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>I Feel Good All Over</t>
+          <t>Love Me, Love Me</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Intro DJ J Hart Masta Ace J Hart, Budamunk, it's ya boy Masta Ace, MA, let's go Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Verse 1 Masta Ace Panorama rap, people from multiple sides Four dimensions, full attention and cultural pride My inventions and extensions that force you to ride With the windows down, those clowns toss 'em aside Like onions on a salad, them sounds are invalid I got something for your palette, that's actual talent They be screaming on the track, when in fact they be silent You listen to the best music, now act like I'm Khaled? Cool Another one, fall back 'til this brother's done Here for the long hole, like Scatman Crothers' run My voice dance on these tracks like doing the Bogle Every time out you hear something new in the vocal Read between the lines, see what I do to insult you Intimidate, eliminate your whole crew and approach you These are fightin' words, dressed in a spiritual touch Holdin' the game in the lyrical clutch, let's go Chorus DJ J Hart Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Cool, 'cause I don't get upset Verse 2 Masta Ace I'm a lumberjack knockin' rappers down like bank timber We playin' Spades and I'm holdin' every gang member In the palm of my hand, like I'm King Simba Your clothes small, little boy, like you're King Jimba Recede?, rappers are in jeopardy still If I don't get you then the deputy will This is what you call especially skill And I feel good all over like I'm Stephanie Mills, or cool Patrice Rushen, this percussion is worth a discussion Head trauma flow, give the whole Earth a concussion A CAT scan couldn't protect you from that man This black man is holdin' it down for the Rap fan I'm sick and tired of being tired of being sick and tired Understand that I was hired so you can get inspired To compete in this heat, 'til you win in every race On this real rocky road like Ben Jerry</t>
+          <t>Love me, love me, love me, love me Love me, love me, darlin' dear Love me, love me, love me, love me Love me like I love you Tell me, tell me, tell me, tell me Tell me, tell me, darling, do Ahh, that you love me, love me, love me, love me Love me like I love you Mmm, when you kiss me, kiss me, kiss me, kiss me Kiss me, kiss me, darling dear Ah, you say, say, say Say the words I've longed to hear Oh, c'mon and hold me, hold me Hold me, hold me, dear Just love me, love me, love me, love me Love me, love me, my darling dear Ahh, mmm, I love you Mmm, mmm, and I love you Just love me, love me, love me, love me Love me, love me, my darling do Love me, love me, love me, love me Love me, love me, darlin' do Love me, love me, love me, love me Love me like I love you Oh, c'mon and hold me, hold me Hold me, hold me, dear Just love me, love me, love me, love me Love me like I love you C'mon, love me, love me, love me, love me Love me like I love you Love me, love me, love me, love me Love me like I love you</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Imagine</t>
+          <t>Lucky Day</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Imagine there's no heaven, it's easy if you try No hell below us, above us only sky Imagine all the people living for today Imagine there's no countries, it isn't hard to do Nothing to kill or die for and no religion too Imagine all the people living life in peace You, you may say I'm a dreamer but I'm not the only one I hope someday you'll join us and the world will be as one Imagine no possessions, I wonder if you can No need for greed or hunger, a brotherhood of man Imagine all the people sharing all the world You, you may say I'm a dreamer but I'm not the only one I hope someday you'll join us and the world will live as one</t>
+          <t>Uh, uh Uh, uh You ruin everything, uh Uh, uh Darkspin Yeah, yeah Chopper sing like Lucky Daye It might end your lucky day Got a check that's comin' in, I'm still gon' run it up today Dummy tried to cross me, I might take his ass to church today He say he like fashion, we gon' put him on a shirt today I like all my hoes like my clothes, foreign If I see the goal, I'm scorin' I just did a show, I'm tourin' I work like a machine, Florence You can't get in this room, you need a key Uh-uh He make like three-K in a month, I did that seven days a week Yeah, I'm a wild boy like Steve-O I still don't go outside much 'cause I don't like people I want this green lik eco Got some, but I need more Don't wanna catch anothr case, so we gon' kill his ego The weed stink, laundry day, the cutter sing like Lana Rey Shawty tried to lock me down, I had to go exonerate She like the force and altercate Shout out The bank deposits automate Okay She rushin' me to blow a bag, I told her that girl, Yeah, all the way, huh She a size five, but I rock NUMBER NINE I count five to nine checks like I just worked a nine to five Yeah, Smith Wesson on me, wanna rob, let's see you try Tell your people, Go inside if they don't wanna see you die They gon' watch you when you down, but won't look up to see you fly I had way too many shots, I'm way too drunk to even drive Girl, don't call me 'til you sober 'cause you always kill my vibe Twelve was lookin' through my Lexus, took the weed I couldn't hide Did my night in jail, got out by the morning, still was high Yeah I walked outside the door, a baddie waitin' on me right outside My shawty picked me up, that's when I learned she really ride or die Yeah I got back to the crib and ate an Adderall to clear my mind Ha Chopper sing like Lucky Daye It might end your lucky day Got a check that's comin' in, I'm still gon' run it up today Dummy tried to cross me, I might take his ass to church today He say he like fashion, we gon' put him on a shirt today Darkspin I like all my hoes like my clothes, foreign If I see the goal, I'm scorin' I just did a show, I'm tourin' I work like a machine, Florence You can't get in this room, you need a key He make like three-K in a month, I did that seven days a week</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>In the Midnight Hour/Lay Lady Lay</t>
+          <t>Made For Each Other</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gonna wait, 'til that midnight hour That's when my love, come tumbling down Gonna wait 'til that midnight hour When there's no one, I mean no one else around I'm gonna, take you girl, gonna hold ya I'm gonna do all those, GOOD THINGS that I told ya In the midnight hour-hour-hour-hour-ah-hour in the midnight hour There's no one else around I'm gonna wait, till that midnight hour That's when ya, see my love come tumbling down That's when you'll Lay lady lay You'll lay down on my big brass bed In the midnight in the midnight in the midnight hour Lay lady lay Lay down on my big brass bed In the midnight in the midnight in the midnight hour What ever colors you have, IN YO MIND I'LL SHOW THEM TO YOU, see them shine Stay, lady, stay Stay until I fix my head In the midnight in the midnight in the midnight hour Lay lady lay Lay down in my big brass bread In th midnight in the midnight in the midnight hour Gonna take yo girl, gonna hold hr one time I'm gonna do all those good thangs that i told her one mo time In the midnight hour-hour-hour-hour-ah-hour in the midnight hour Um-hmm-hmm-hmmm In the midnight in the midnight in the midnight hour Um-hmmm hmmmm-hmm-hmm-hmmm In the midnight in the midnight in the midnight hour Umm-uh-hmmm huh-um-um-hmm-hmmm In the midnight in the midnight in the midnight hour His clothes are dirty, but his hands are clean Girl YOU'RE THE BEST THING that the man has ever seen STAY LADY STAY Lady Stay with your man awhile In the midnight in the midnight in the midnight hour Lay lady lay Lay-down-in-my-big-brass-bed In the midnight in the midnight in the midnight hour Lay lady Layyy Stay until I fix my head In the midnight in the midnight in the midnight hour Why want you stay here Why want YOU STAY HERE? In The Midnight WHY WAIT ANY LONGER? In the midnight CAN HAVE YOUR CAKE AND EAT IT TOO In The Midnight WHY WAIT ANY LONGER FOR THIS LOVE In The Midnight When It's STANDING RIGHT HERE in front of you In The Midnight I LONG TO SEE YA, IN THE MORNIN' LIGHT In The Midnight AND I LONG TO REACH OUT FOR YA, IN THE MIDNIGHT In The Midnight Midnight hour In The midnight hour In the midnight hour I love ya lady</t>
+          <t>Now, that we won I'll never ever be the same again This is perfection This is perfection You're making it all so aaaah You know we'll make it through the night Right, from the start You knew just how to fill this lonely heart A pure confection A pure confection Sweetness of your hmmm hmm I've never felt like this before Made for each other Made for each other You and I You and I Made for each other Made for each other We're flying high We're flying high I'm not afraid to show I want the world to know i'm by your side By your side And, so you'll see We, two, have got the perfect harmony A true reflection Of all you gave to me You know i'll always be with you Made for each other Made for each other You and I You and I Made for each other Made for each other We're flying high We're flying high I'm not afraid to show I want the world to know I'm by your side I'm by your side Made for each other You and I Made for each other Oh you and I, we're flying high We're flying high I want the world to know I'm not afraid to show I'm by your side I'm by your side Made for each other Made for each other You and I You and I We're made for each other Made for each other We're flying high We're flying high I want the world to know I'm not afraid to show I'm by your side I'm by your side You and I are Made for each other Made for each other Just you and I You and I Made for each other Made for each other We're flying high Flying high I'm not afraid to show I want the world to know that I'm by your side I'm by your side We're made for each other Made for each other You and I Hey babe, Made for each other We're flying high I want the world to know I'm not afraid to show I'm by your side Oh, I'm by your side You and I Made for each other You and I Made for each other We're flying high I want the world to know I'm not afraid to show I'm by your side One man on by your side One man on by your side One man on by your side One man on by your side</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>It Ain’t Fair</t>
+          <t>Moon River</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>People all around me But I don't even have a friend Lord knows I've been trying But I just can't win Everything I do Seems to turn out wrong Sometimes I wish Oh, I wish I never was born Talkin' 'bout teardrops Nobody, nobody knows Talkin' 'bout long, lonely nights I've had more than my share Just ain't fair Just ain't fair Some folks got it easy They live the life of love and play Lord knows I've got to struggle Got to struggle to make my way One of these days, y'all Gonna reach the top, yes I will I know I can make it 'Cause these tears won't let me stop Talkin' 'bout teardrops Nobody, nobody cares Talkin' 'bout long, lonely nights, listen I've had more than my share It just ain't fair It just ain't fair It just ain't fair You know it ain't fair Nobody to call my own it just ain't fair Just stay at home it just ain't fair Listen to my own it just ain't fair No, it ain't fair it just ain't fair</t>
+          <t>Moon river, wider than a mile I'm crossing you in style some day Oh, dream maker, you heart breaker Wherever you're goin', I'm goin' your way Two drifters, off to see the world There's such a lot of world to see Were after the same rainbows end, waitin' round the bend My huckleberry friend, moon river, and me Moon river, wider than a mile I'm crossin' you in style some day Oh, dream maker, you heart breaker Wherever you're goin', I'm goin' your way Two drifters, off to see the world There's such a lot of world to see We're after that same rainbows end, waitin' round the bend My huckleberry friend, moon river, and me</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>It’s All in the Game</t>
+          <t>My Foolish Heart</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Many a tear has to fall But it's all in the game All in the wonderful game That we know has love You have words with him And your future's looking dim But these things Your heart can rise above Once in a while he won't call But it's all in the game Soon he'll be there at your side With a sweet ok And he'll kiss your lips And caress your waiting fingertips And your heart will fly away Once in a while he won't call But it's all in the game Soon he'll be there at your side With a sweet ok And he'll kiss your lips And caress your waiting fingertips And your heart will fly away And your heart will fly away And your heart will fly away</t>
+          <t>The night is like a lovely tune Beware my foolish heart How white the ever constant moon Take care my foolish heart There's a line between love and fascination That's hard to see, how many names such as this For they both have the very same sensation When you're locked in the magic of a kiss Her lips are much too close to mine Beware my foolish heart But should our eager lips combine Then let the fire start For this time it isn't fascination Or a dream that will fade and fall apart It's love, this time it's love My foolish heart</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>It’s All Over</t>
+          <t>My Heart Cries for You</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Outside her window That's where I am Every night and every day And outside her window I cry-y-y-y my life away There's a jukebox playing Just a half a block down Saying I'm going to the river Gonna jump right in and drown But I ain't gonna do that, girl No, no, I'll just keep on hanging around Even though it's All over Can't you hear me All over Don't you leave me It's all over Now, now, now, now, now, now Now, now, now, now, now, now Outside her window A pretty bird come to play And I know I cried, I cried a tear I must have scared that pretty little thing That pretty little thing away, yes, I did When I see two young lovers Walking down the street, yes, indeed Whoa, how it kills me When I see their two lips meet Then I pass my hand right over Where my heart once used to be And you know it's All over I wonder, do you believe me All over I don't think you understand me It's all over oh, yes, it is Now, now, now, now, now, now Now, now, now, now, now, now I've got to say it Just one more time now Yes, it's all over Soembody help me tell my story All over yes, it is It's all over Now, now, now, now, now, now Now, now, now, now, now, now</t>
+          <t>If you're in Arizona, I'll follow you If you're in Minnesota, I'll be there too You'll have a million chances to start anew Because my love is endless for you My heart cries for you Sighs for you, dies for you And my arms long for you Please come back to me An unimportant quarrel was what we had We have to learn to live with the good and bad Together we were happy, apart we're sad This loneliness is driving me mad My heart cries for you Sighs for you, dies for you And my arms long for you Pleas come back to me Pleas come back to me Please come back, come back, come back to me</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Jää mun luo</t>
+          <t>Noh bei mir</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ey, ey, 035 is binnen Bariorecords is binnen Ey Ze zegt dat ik de beste ben Asha heeft al uitgespeeld Die klap wordt niet ontvangen broeder Hij wordt eerder uitgedeeld Verbrandde visie Maar toch ben ik liever buiten beeld Die man ziet tien taja Droomt alleen dat die naar buiten wilt Hij drinkt want dat verzacht de pijn Hij weet niet waar z'n matties zijn Van 100 koppen tellen naar weer werken in de appie heijn Dat is hoe het leven is Geloven als het tegen zit We trekken als er reden is Zelfs parra als er vrede is En jij rapt over shows, maar je zit thuis bro, je levert niks Rust aan m'n hoofd sinds m'n leven wat verbeterd is M'n boys met hoge eisen, jij zit nog voor een zedelict Geef me tien seconden nog voor die dooie gast gelezen is Ey, en jij maakt geen hap, geen grap Rijden in een hooptie of kan rijden in een V8 De meest bekende, maar ik ga niet op de fame af We schreeuwen 'fack rap' maar als het moet maak ik de game af Ik ga op stage en daarna weer van de stage af Veels te bruut hoe ik bitches in die Range klap We eten hier aan koppen, ik maak tonnen, meisje geen dank Al m'n brieven hebben geur, meisje geen stank Ik weet nog goed hoe al mijn haters nieuwe matties leken Koud door mij ik moet die actie geven Volop de aanval maar die jongen kan die gimma'tje ook tactisch spelen Wie ben jij a bro, jij mag niet spreken Ik moest er komen had m'n vader gezegd Als ik kijk naar hoe het loopt, heb ik het aardig gered, toch? Ik was het leventje beu Ik draag die ding op m'n heup Want bro we hadden geen keus Wat begint met een lach eindigt vaak in een breuk Je bent verslaafd, je kan niet meer zonder shit in je neus Je wordt gek als je niemand ziet Zo parranoia dat je gek wordt als je iemand ziet Wat weet je van de pijn, verdriet Van een soldier die z'n dingen voor z'n moeder doet Zit je aan m'n trots of eer ik laat je in je onderbroek Stap in de auto en we rijden richting morgen toe Drie nummer één hits op naam, dat weet je dondersgoed Zelfs in m'n trinna drip ik beter dan jouw domme look We staan sterk als Lukaku, noem me Romalu Ook Elon Musk is aan het werk, het is nooit genoeg Bloed, zweet en tranen die gevoel bro heb je nooit gevoeld Ik voel me lekker, ik ben independent Alsof ik ben bevrijd door de interpol Ik zeg die man ga niet te ver, jongen ken je grenzen Ik laat hem uit of trek hem in je mond Omgekeerde wereld, jongens lopen nu als bitches rond Bitches weer als jongens, domme jongens, sjonge jonge Heb respect voor m'n lady Ik zit al jaren in de trap, je beweegt niet Kom eens uit je daydreams Echt ik had al daar moeten zijn Maar ze hielden me tegen Ik was jong en onwetend Maar ook jong en ontketend Gewoon iemand die z'n dromen volgt De beste in de game en zoek je les ben ik de protocol De één zoekt kappers en de ander heeft de hoop op school Me hoofd op buit en deze kanten waren onze hoofden vol Je zag toen niks in mij, maar de kamer is al overvol All-inclusive, Ashafar is overal Ey, want ik ben op die do or die Ze kent mij en ze voelt me vibe Asha, ey De vraag is of je goed voor mij Ze zitten aan de M, terwijl ik een M sla Bradda luister opnieuw Ze houdt van me stem en ze weet dat ik ham ga Bro, want ik trek en ik duw In Amsterdam, en ik cho in een panthouse Wow, zie de stad als m'n view Stop met die rap, want echt waar je bent oud Hehe, want m'n patta is nieuw, wat is de deal, je wou dat ik viel Ik ben met je zusje in een Tiel, ieuw Asha is slim en jij een debiel De buurt die is heet, je hoort wieuw wieuw Ze weet dat ik trap all night, ik ben op cash all night Pak m'n buit en weg We leven die fast fast live, want ik ben een handsome guy Zeg me geen stress De vraag is wat je doet voor mij, weet 't niet Want ik ben op die do or die, probably Ze kent mij en ze voelt me vibe, o man gerie De vraag is ben je goed voor mij, weet 't niet De vraag is wat je doet voor mij, weet 't niet Want ik ben op die do or die, probably Ze kent mij en ze voelt me vibe, o man gerie De vraag is ben je goed voor mij, weet 't niet Ja man, een dikke SO naar Morad voor deze man, sjees A, a, a, ey Woe En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo Ey, laat me vliegen naar Panama als Tony Montana Geen Fandy maar DolceGabana Me jongen heeft class, ze heeft doekoe in tas Zegt vandaag niet in mood, schat ik zie je tamara Me ezy in Kom van ghana, paranoid deze libi is harra Houd er met hakar, luister naar Lijpe of Martar Ik ben zo zat oe me mara Zij ziet de pijn niet, Asha is consistentie Stand, ik geloof niet in de systeem Ik leef voor de rat die de police scamt Liesscan, niemand nodig ik move alleen Alleen, Rap als er even als kwenka Scarface geen manola ma kenla Ik ben niks, jij beweegt met agenda Kijk nu ik ben daar, ik rij nog steeds op de Vespa Ik sta nog steeds aan kop, ik sta nog steeds aan top Maar ben eenzaam ook Ik heb de game op slot Broeder ik geef geen fock, nee ik geef geen fock Ik ben met 50 of Makka, Sjakie of Zamza Rapper die levert ook Ik heb die game op slot, ik heb de game op slot, de game op slot En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo En lo bueno siempre están, y en lo malo no los veo Y sienta hacerlo bien, no te vayas en lo feo 035 is binnen voor deze gaan we een beetje losgaan Wazup guys, ey, ey Molenbeek aan vers, elke flow is vers Ilias, Ilias, tro bie, deze beat ik own die, motherfuck de police Ashafar zegt buit na Stacken stacken voor een Panamera Jongen daarvoor was d'r geen hoop Metro kwam in gezeik door m'n ego En we stuurden die blokken geen Lego Ga van Barca naar Londen als Deko Fock die mix heb genoeg aan een demo Door ballon worden drerries hier demoon In de streets en m'n boys hebben geen loon Die eten is bah net als dembah Januari zo spits als december Weer een junk die me belt en om hem vraagt Doe die junk op de pof en ik tem haar Ik ben op de weg, onderweg naar cash Waggie in z'n S, maar geen stress want ik ken het Keek naar mij, ken je mij, voor je ben het Broer die man is niet barkie, ey melk Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Phillip, Phillip Heb de picknick van Je hebt fans Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Noem m'n tijd en ik ben daar Ik move nog stiller dan Tesla's Ben op een fissa met kheb.. Ben van die meta, komen van brakka's op Vespa's Zeg ie niet twee keer, maar één maal Op een moment Banditia In groep één werd die Asha al Liga Als je klaagt ga ik zoeken naar vila's Scheur maar aan Fiat Luister naar Moment supreme Ik was jarig maar kreeg geen surprise, ja Angelina Jolie, zeg je eerlijk die vrouw is te nice, ja Je wordt wakker uit je droom met een big naast je Ik wordt wakker uit m'n droom met je bitch naast me Bel niet aan m'n deur, maar geen Sint Maarten Laat me met rust, ga de Sint vragen Waggie Duits, RR Trappen nu omhoog net als Jetlie Misschien dat ik verdwijn uit NL Haal die taggie uit je mond, bro ik ken die Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Pillip Phillip Heb de picknick van Je hebt fans Want ze vlogen omhoog als een raket Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Het is impossible Want ze doen me na, maar ik laat ze gaan Het is impossible Phillip, Phillip Heb de picknick van Je hebt fans Want ze vlogen omhoog als een raket Heel de game is m'n target Zie de troon en ik pak het Kom eraan je verwacht het Ik zocht naar buit in de nachten Klom door je ruit in die nachten Sjees Dit was 'm man rotjoch 035 was binnen Dikke SO naar iedereen Freezoeloe nog steeds</t>
+          <t>FSK16, macht die Ohr'n eurer Kinder zu Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Yeah Dissen auch uns're Idole, Mann Yeah, ich bleibe real, alle Hater verstumm'n Yeah Wer hat geredet, der redet nicht mehr ohne einen Grund Nie mehr wieder Denn sie gehen bei SKRREON und BeSa in Deckung Ohren zu, Ya Kelb denn wir machen Altersbeschränkung, yeah Ha, ha, ha Rapper machen mir auf TikTok-Streamer Hö? Aber haben wieder Schiss, denn ich diss' sie wieder Immer wieder Bange deinen Promo-Rap mal solo weg, BeSa und SKRREON Yeah Wir bringen Fire in the Booth und deine Wohnung brennt Ja, ja, ja Sie treiben Beef, Bruder, einfach mit 'nem 16 Jährigen Ja, die Pisser haben nichts zu tun, außer uns wegzuhaten No, no Tagelang sind sie nur faded, machen ein'n auf integrated Hö? Aber sind die selben, die die Story-Posts auf Insta faken Du Hund Stimme brennt und der Beat läuft Yeah Ja, wir haben Präzision am Start so wie De Bruyne De Bruyne Guck jetzt zu, wie ich paar Rapper töte, abtauche Und die ganze Szene jetzt mal kurz erwacht wie bei G-Floyd Yeah FSK16, macht die Ohr'n eurer Kinder zu Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu Ah, ah Unter dem Bandana Lächeln, Yeah wir sind die Täter, werden dein'n Rap zerfetzen Und wieder erretten, echt endkrass, wetten, dass Rapper betteln Ha, ha Möchtegern-Männer steppen in Streams, beleidigen arme Frau'n Barello kriegt kein Messer-, nein, Beretta-Level Pow, pow YAKARY, du warst nach all nach den Disses und Bela Memme Ah Doch kriegtest von NGEE Schellen, bald schon bist du Kek vergessen Cano Die Szene macht nur Fitna, Nutte, wer ist jetzt am bellen? Ihr nicht mehr, denn jetzt habt ihr Eierflattern, ihr Gangster-Rapper Ha, ha Paar Jugendliche dissen sie, denn sie hab'n Dreck am Stecken Oh Flizzy seine Family schreibt mit Freude seine Testamente Vendetta, brechen Yeah seine Verräter-Fresse Yeah Ehrenlos so wie Elimination Chamber Matches BeSa, SKRREON, fick' auf Robbie, schreibe selber Texte Yeah Werd' nie jemanden verhau'n, wen soll ein Zwerg verletzen? Ha, ha, ha Sie stapeln Drecks-Paletten, werf' auf sie 'nen Drecks-Paar Letten Das' FSK16 Yeah, yeah, yeah FSK16, macht die Ohr'n eurer Kinder zu Mach! Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu Diss' jeden, wenn ich will, also fick' ich diesen Kolle, doch Mache JBG Sound Ha, ha und ticke nie mit Knollen Bin mit SKRREON und ich habe keine Angst vor wem auch immer Vor wem? Ich bringe Bars und sie küren mich zu dem Gewinner, ey Ha, ha Sie wollen harten Rap-Sound Ja, ja Bin am Start und dann kriegen sie die Bars in den Bauch Pow, pow Mit dem Alman BeSa, bring'n wir tighte Bretter Sehen wir Rapper zu Boden hechten wie Weidenfeller, yeah Yeah Ey, hör' ich Yakary, den Piç Überleg', ich mir dabei, wie ich sein'n Body zersieb' Du Hund Ich fick' Hunde wie Fler, Yeah weil sie monoton bleiben Kommen zu euch rein und alle gehen zur Seite Zur Seite Sie sagen, weil ich Noname bin No-Name Ist es cringe zu dissen und bei mir ohnehin Yeah, Benjo Mach' ich ein Bild mit Farid Bang, bin ich sehr fotogen Ya Kelb Und sag' ihm Kannst du Hackfresse aus mein'm Foto geh'n? Die Zähne sind ja schlimmer als meine FSK16, macht die Ohr'n eurer Kinder zu Mach! Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>On the Horizon</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Katherine I heard his mother Talking about you Saying how cute you are Oh, but for her son, girl, you'll never do And here's one more thing I've got to let you know If he decided to ever let you go Girl, just call me when things get rough They say you'll never be good enough I hope you'll never be good enough for him But you're good enough for me Katherine They say wedding plans Have already been made I can hear his mother say Oh I'd love to put off until a later day And if he don't seem interested at all Dial my number I'll be waiting on your call Girl, you'll never be good enough They say you'll never be good enough I pray you'll never be good enough for him But you're good enough for me Oh, Katherine They may never understand I love you Place nobody else right here above you Ooh Katherine I heard his mother talking about you</t>
+          <t>On the horizon Out where the ocean meets the sky On the horizon I saw a ship go sailing by This was the ship that I'd often dreamed of A ship made of gold with a golden sail above This was the ship that I dreamed would someday Bring my love On the horizon Out where the lonely seagulls cry On the horizon My ship of dreams came sailing by Sailing to me with this cargo so rare It kept comin' closer and closer, I swear Closer and closer till I woke up and Found you there Mmhmm hmm Oh, on the horizon, the horizon, the horizon Mmm hmm Mmm hmm</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Love Me, Love Me</t>
+          <t>On the Street Where You Live</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Love me, love me, love me, love me Love me, love me, darlin' dear Love me, love me, love me, love me Love me like I love you Tell me, tell me, tell me, tell me Tell me, tell me, darling, do Ahh, that you love me, love me, love me, love me Love me like I love you Mmm, when you kiss me, kiss me, kiss me, kiss me Kiss me, kiss me, darling dear Ah, you say, say, say Say the words I've longed to hear Oh, c'mon and hold me, hold me Hold me, hold me, dear Just love me, love me, love me, love me Love me, love me, my darling dear Ahh, mmm, I love you Mmm, mmm, and I love you Just love me, love me, love me, love me Love me, love me, my darling do Love me, love me, love me, love me Love me, love me, darlin' do Love me, love me, love me, love me Love me like I love you Oh, c'mon and hold me, hold me Hold me, hold me, dear Just love me, love me, love me, love me Love me like I love you C'mon, love me, love me, love me, love me Love me like I love you Love me, love me, love me, love me Love me like I love you</t>
+          <t>I have often walked down this street before But the pavement always stayed beneath my feet before All at once am I several stories high Knowing I'm on the street where you live Are there lilac trees in the heart of town? Can you hear a lark in any other part of town? Does enchantment pour out of every door? No, it's just on the street where you live And oh, the towering feeling Just to know somehow you are near The overpowering feeling That any second you may suddenly appear People stop and stare, they don't bother me For there's nowhere else on earth that I would rather be Let the time go by, I won't care if I Can be here on the street where you live And oh, the towering feeling Just to know somehow you are near The overpowering feeling That any second you may suddenly appear People stop and stare, they don't bother me For there's nowhere else on earth that I would rather be Let the time go by, I won't care if I Can be here on the street where you live Can be here on the street where you live Standing right here on the street where you live</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lucky Day</t>
+          <t>Perfidia</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Uh, uh Uh, uh You ruin everything, uh Uh, uh Darkspin Yeah, yeah Chopper sing like Lucky Daye It might end your lucky day Got a check that's comin' in, I'm still gon' run it up today Dummy tried to cross me, I might take his ass to church today He say he like fashion, we gon' put him on a shirt today I like all my hoes like my clothes, foreign If I see the goal, I'm scorin' I just did a show, I'm tourin' I work like a machine, Florence You can't get in this room, you need a key Uh-uh He make like three-K in a month, I did that seven days a week Yeah, I'm a wild boy like Steve-O I still don't go outside much 'cause I don't like people I want this green lik eco Got some, but I need more Don't wanna catch anothr case, so we gon' kill his ego The weed stink, laundry day, the cutter sing like Lana Rey Shawty tried to lock me down, I had to go exonerate She like the force and altercate Shout out The bank deposits automate Okay She rushin' me to blow a bag, I told her that girl, Yeah, all the way, huh She a size five, but I rock NUMBER NINE I count five to nine checks like I just worked a nine to five Yeah, Smith Wesson on me, wanna rob, let's see you try Tell your people, Go inside if they don't wanna see you die They gon' watch you when you down, but won't look up to see you fly I had way too many shots, I'm way too drunk to even drive Girl, don't call me 'til you sober 'cause you always kill my vibe Twelve was lookin' through my Lexus, took the weed I couldn't hide Did my night in jail, got out by the morning, still was high Yeah I walked outside the door, a baddie waitin' on me right outside My shawty picked me up, that's when I learned she really ride or die Yeah I got back to the crib and ate an Adderall to clear my mind Ha Chopper sing like Lucky Daye It might end your lucky day Got a check that's comin' in, I'm still gon' run it up today Dummy tried to cross me, I might take his ass to church today He say he like fashion, we gon' put him on a shirt today Darkspin I like all my hoes like my clothes, foreign If I see the goal, I'm scorin' I just did a show, I'm tourin' I work like a machine, Florence You can't get in this room, you need a key He make like three-K in a month, I did that seven days a week</t>
+          <t>To you My heart cries out Perfidia For I found you, the love of my life In somebody else's arms Your eyes Are echoing Perfidia Forgetful of our promise of love You're sharing another's charms With a sad lament my dreams have faded Like a broken melody While the gods of love look down and laugh At what romantic fools we mortals be And now I know my love was not for you And so I'll take it back with a sigh Perfidious one, goodbye With a sad lament my dreams are faded Like a broken melody While the gods of love look down and laugh At what romantic fools we mortals be And now I know my love was not for you And so I'll take it back with a sigh Perfidious one, goodbye Mmhmm, goodbye Baby baby baby, goodbye I've been mistreated</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Made For Each Other</t>
+          <t>River of Tears</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Now, that we won I'll never ever be the same again This is perfection This is perfection You're making it all so aaaah You know we'll make it through the night Right, from the start You knew just how to fill this lonely heart A pure confection A pure confection Sweetness of your hmmm hmm I've never felt like this before Made for each other Made for each other You and I You and I Made for each other Made for each other We're flying high We're flying high I'm not afraid to show I want the world to know i'm by your side By your side And, so you'll see We, two, have got the perfect harmony A true reflection Of all you gave to me You know i'll always be with you Made for each other Made for each other You and I You and I Made for each other Made for each other We're flying high We're flying high I'm not afraid to show I want the world to know I'm by your side I'm by your side Made for each other You and I Made for each other Oh you and I, we're flying high We're flying high I want the world to know I'm not afraid to show I'm by your side I'm by your side Made for each other Made for each other You and I You and I We're made for each other Made for each other We're flying high We're flying high I want the world to know I'm not afraid to show I'm by your side I'm by your side You and I are Made for each other Made for each other Just you and I You and I Made for each other Made for each other We're flying high Flying high I'm not afraid to show I want the world to know that I'm by your side I'm by your side We're made for each other Made for each other You and I Hey babe, Made for each other We're flying high I want the world to know I'm not afraid to show I'm by your side Oh, I'm by your side You and I Made for each other You and I Made for each other We're flying high I want the world to know I'm not afraid to show I'm by your side One man on by your side One man on by your side One man on by your side One man on by your side</t>
+          <t>It seems that I just can't win I've been hurt time and time again Every time I give my heart somebody tears it all apart Through the years, lord knows I must have shed a river of tears I tried to be fair in every way I'd even ignored, yes, I have, things that people say Oh, still I'm lonely and all alone I've got no one I can call my own Through the years I know I must have shed a river of tears A river of tears, oh, how I yearned, yeah Tears that flow Somebody tell me what I'm doing wrong Isn't there anyone I can depend on Through the years I know I must have shed a river of tears A river of tears, oh, how I've yearned, yes, I have Tears that flow' oh, how I've yearned Talking 'bout' talkin' 'bout a river Talkin' 'bout a river</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Moon River</t>
+          <t>Save the Last Dance for Me</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Moon river, wider than a mile I'm crossing you in style some day Oh, dream maker, you heart breaker Wherever you're goin', I'm goin' your way Two drifters, off to see the world There's such a lot of world to see Were after the same rainbows end, waitin' round the bend My huckleberry friend, moon river, and me Moon river, wider than a mile I'm crossin' you in style some day Oh, dream maker, you heart breaker Wherever you're goin', I'm goin' your way Two drifters, off to see the world There's such a lot of world to see We're after that same rainbows end, waitin' round the bend My huckleberry friend, moon river, and me</t>
+          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Baby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>My Foolish Heart</t>
+          <t>Save the Last Dance for Me</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>The night is like a lovely tune Beware my foolish heart How white the ever constant moon Take care my foolish heart There's a line between love and fascination That's hard to see, how many names such as this For they both have the very same sensation When you're locked in the magic of a kiss Her lips are much too close to mine Beware my foolish heart But should our eager lips combine Then let the fire start For this time it isn't fascination Or a dream that will fade and fall apart It's love, this time it's love My foolish heart</t>
+          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Baby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>My Heart Cries for You</t>
+          <t>Seven Letters</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>If you're in Arizona, I'll follow you If you're in Minnesota, I'll be there too You'll have a million chances to start anew Because my love is endless for you My heart cries for you Sighs for you, dies for you And my arms long for you Please come back to me An unimportant quarrel was what we had We have to learn to live with the good and bad Together we were happy, apart we're sad This loneliness is driving me mad My heart cries for you Sighs for you, dies for you And my arms long for you Pleas come back to me Pleas come back to me Please come back, come back, come back to me</t>
+          <t>This is my last letter Dear, to you This is my last letter, baby I just can't write you anymore My poor little finger's swollen I'm tired of pacing the floor, yes, I am Threw away our favorite record It was tearing me apart This is my seventh letter, baby Just to satisfy my heart One Monday, I wrote and told you I was all alone and blue Two Tuesday, I wrote again, baby I said I loved no one, no one No one but you, no, I don't Three Wednesday, I wired you a cable Begging you to call Four Thursday, I sent the message I said I was wrong and, darling Please come back home Five Friday, I woke up crying With the sniff of a tear Six come along long lonesome Saturday I did the same thing all over again Yes, I did Seven this is my seventh letter, baby On this bright Sunday morning Just got off my knees from praying I said, Oh, Lord, oh, Lord Please send her back home Can't she hear me talking to her This is my last letter Dear, to you Seven letters, seven days Seven long, lonely days There, I said it This is my last letter Dear, to you yes, it is Yes, it is, yes, it is Oh, yes, it is</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Noh bei mir</t>
+          <t>Show Me the Way</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FSK16, macht die Ohr'n eurer Kinder zu Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Yeah Dissen auch uns're Idole, Mann Yeah, ich bleibe real, alle Hater verstumm'n Yeah Wer hat geredet, der redet nicht mehr ohne einen Grund Nie mehr wieder Denn sie gehen bei SKRREON und BeSa in Deckung Ohren zu, Ya Kelb denn wir machen Altersbeschränkung, yeah Ha, ha, ha Rapper machen mir auf TikTok-Streamer Hö? Aber haben wieder Schiss, denn ich diss' sie wieder Immer wieder Bange deinen Promo-Rap mal solo weg, BeSa und SKRREON Yeah Wir bringen Fire in the Booth und deine Wohnung brennt Ja, ja, ja Sie treiben Beef, Bruder, einfach mit 'nem 16 Jährigen Ja, die Pisser haben nichts zu tun, außer uns wegzuhaten No, no Tagelang sind sie nur faded, machen ein'n auf integrated Hö? Aber sind die selben, die die Story-Posts auf Insta faken Du Hund Stimme brennt und der Beat läuft Yeah Ja, wir haben Präzision am Start so wie De Bruyne De Bruyne Guck jetzt zu, wie ich paar Rapper töte, abtauche Und die ganze Szene jetzt mal kurz erwacht wie bei G-Floyd Yeah FSK16, macht die Ohr'n eurer Kinder zu Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu Ah, ah Unter dem Bandana Lächeln, Yeah wir sind die Täter, werden dein'n Rap zerfetzen Und wieder erretten, echt endkrass, wetten, dass Rapper betteln Ha, ha Möchtegern-Männer steppen in Streams, beleidigen arme Frau'n Barello kriegt kein Messer-, nein, Beretta-Level Pow, pow YAKARY, du warst nach all nach den Disses und Bela Memme Ah Doch kriegtest von NGEE Schellen, bald schon bist du Kek vergessen Cano Die Szene macht nur Fitna, Nutte, wer ist jetzt am bellen? Ihr nicht mehr, denn jetzt habt ihr Eierflattern, ihr Gangster-Rapper Ha, ha Paar Jugendliche dissen sie, denn sie hab'n Dreck am Stecken Oh Flizzy seine Family schreibt mit Freude seine Testamente Vendetta, brechen Yeah seine Verräter-Fresse Yeah Ehrenlos so wie Elimination Chamber Matches BeSa, SKRREON, fick' auf Robbie, schreibe selber Texte Yeah Werd' nie jemanden verhau'n, wen soll ein Zwerg verletzen? Ha, ha, ha Sie stapeln Drecks-Paletten, werf' auf sie 'nen Drecks-Paar Letten Das' FSK16 Yeah, yeah, yeah FSK16, macht die Ohr'n eurer Kinder zu Mach! Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu Diss' jeden, wenn ich will, also fick' ich diesen Kolle, doch Mache JBG Sound Ha, ha und ticke nie mit Knollen Bin mit SKRREON und ich habe keine Angst vor wem auch immer Vor wem? Ich bringe Bars und sie küren mich zu dem Gewinner, ey Ha, ha Sie wollen harten Rap-Sound Ja, ja Bin am Start und dann kriegen sie die Bars in den Bauch Pow, pow Mit dem Alman BeSa, bring'n wir tighte Bretter Sehen wir Rapper zu Boden hechten wie Weidenfeller, yeah Yeah Ey, hör' ich Yakary, den Piç Überleg', ich mir dabei, wie ich sein'n Body zersieb' Du Hund Ich fick' Hunde wie Fler, Yeah weil sie monoton bleiben Kommen zu euch rein und alle gehen zur Seite Zur Seite Sie sagen, weil ich Noname bin No-Name Ist es cringe zu dissen und bei mir ohnehin Yeah, Benjo Mach' ich ein Bild mit Farid Bang, bin ich sehr fotogen Ya Kelb Und sag' ihm Kannst du Hackfresse aus mein'm Foto geh'n? Die Zähne sind ja schlimmer als meine FSK16, macht die Ohr'n eurer Kinder zu Mach! Der Deutsche, der alles zerlegt, ich hab' es in mein'm Blut Alman-DNA und der Tamil-Bratan Dissen auch uns're Idole, Mann Woah Ey, meine Lines sind on Point so wie Elfer Pow Un naai kathai veendam Yeah Ich beweis' es jedem, auch den Feinden und Hatern Ya Kelb Yeah, du bist so wie Benzema neun Ich bin alt genug, denn ich bleibe FSK treu</t>
+          <t>If I had to swim a river Or climb a mountain tall I'd do anything you ask Anything at all No river, no mountain Can keep us apart Show me the way, whoa, whoa, whoa, oh, oh Show me the way to your heart I would gladly cross a desert To prove my love is true I would sail the stormy sea Just to be with you No desert, no storm Can keep us apart Show me the way, whoa, whoa, whoa, yeah, yeah, yeah Show me the way to your heart If you ask for a palace I'll build you two If you ask me for dew I'll bring stardust to you Only you And if all you're asking Is love in all its care I will pledge true love to you Love beyond compare My darling, I need you Why must we be apart? Show me the way, whoa, whoa, whoa, oh, oh, oh Show me the way to your heart</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>On the Horizon</t>
+          <t>So Delicious</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>On the horizon Out where the ocean meets the sky On the horizon I saw a ship go sailing by This was the ship that I'd often dreamed of A ship made of gold with a golden sail above This was the ship that I dreamed would someday Bring my love On the horizon Out where the lonely seagulls cry On the horizon My ship of dreams came sailing by Sailing to me with this cargo so rare It kept comin' closer and closer, I swear Closer and closer till I woke up and Found you there Mmhmm hmm Oh, on the horizon, the horizon, the horizon Mmm hmm Mmm hmm</t>
+          <t>I eat the fried calamari with the kobe steak My bitch eat pussy even though she straight I clean the plate and then she throw me face I take her drawers off, a plush beat down at the waldorf I'm whipping the wrangler with the doors off The young Nino, sawed off shooter torpedo leave you in the fetal Living like Vito Andolini in his early age All my opponents meet an early grave So pray you see them pearly gates I treat that .40 caliber just like excalibur My hammer game compares to Gallagher Tell any challenger I'll change your calendar I cut your day short, a made boss, Bernie Madoff, beige porsche Fuck a loss, tuck the corpse then we cut the costs Ain't no checking for his vital signs The devil checking for a idle mind Flight to the top, check the arrival time Peasants idolize, they know the title's mine We made it from the rags to the riches I brought the dope, who brought the swishers I cook the yola in the kitchen, bag it up and then she do the dishes Everything we do is so explicit We made it from the rags to the riches That surf and turf is so delicious Get all my niggas out of jail and excel is my only wishes Everything we do is so explicit Killer nigga roll a joint with his obituary Tattle-tailing type a shit to get you niggas buried Catch me twisted in the cemetery I'm legendary, cold as Ben Jerry's, shoot like Jason Terry So much money that she started crying tears of joy But got it all from moving squares of boy I light the loud and I inhale the noise, but still I keep my poise I get her moist soon as she hear my voice Ain't taking shorts see I need every payment The prosecution pushing for arraignments Ducking detainment but still on the pavement Like the laces of a pair of asics, you know the basis Came up from the basement, now it's the top floor I chop the raw and then get mop by your top whore Still got them Glocks tucked in the sock drawer I smoke the pot while the yacht tours The shots pour while our stocks soar I smoke the pot while the yacht tours We made it from the rags to the riches I brought the dope, who brought the swishers I cook the yola in the kitchen, bag it up and then she do the dishes Everything we do is so explicit We made it from the rags to the riches That surf and turf is so delicious Get all my niggas out of jail and excel is my only wishes Everything we do is so explicit1</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>On the Street Where You Live</t>
+          <t>Someday We’ll All Be Free</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>I have often walked down this street before But the pavement always stayed beneath my feet before All at once am I several stories high Knowing I'm on the street where you live Are there lilac trees in the heart of town? Can you hear a lark in any other part of town? Does enchantment pour out of every door? No, it's just on the street where you live And oh, the towering feeling Just to know somehow you are near The overpowering feeling That any second you may suddenly appear People stop and stare, they don't bother me For there's nowhere else on earth that I would rather be Let the time go by, I won't care if I Can be here on the street where you live And oh, the towering feeling Just to know somehow you are near The overpowering feeling That any second you may suddenly appear People stop and stare, they don't bother me For there's nowhere else on earth that I would rather be Let the time go by, I won't care if I Can be here on the street where you live Can be here on the street where you live Standing right here on the street where you live</t>
+          <t>Hang on to the world as it spins around Just don't let the spin get you down Think of moving fast Hold on tight and you will last Give your self respect, your manly pride Get yourself in gear Keep your stride Never mind your fears Brighter days will soon be here Take it from me, someday we'll all be free, yeah Keep on walking tall Hold your head up high Lay your dreams right up to the sky Sing your greatest song And you'll keep going, going on Take it from me, someday we'll all be free Hey, just wait and see, some day we'll all be free, yeah Take it from me, someday we'll all be free It won't be long, take it from me, someday we'll all be free Take it from me, take it from me, take it from me...</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Perfidia</t>
+          <t>So Much Love</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>To you My heart cries out Perfidia For I found you, the love of my life In somebody else's arms Your eyes Are echoing Perfidia Forgetful of our promise of love You're sharing another's charms With a sad lament my dreams have faded Like a broken melody While the gods of love look down and laugh At what romantic fools we mortals be And now I know my love was not for you And so I'll take it back with a sigh Perfidious one, goodbye With a sad lament my dreams are faded Like a broken melody While the gods of love look down and laugh At what romantic fools we mortals be And now I know my love was not for you And so I'll take it back with a sigh Perfidious one, goodbye Mmhmm, goodbye Baby baby baby, goodbye I've been mistreated</t>
+          <t>In the midst of all my darkness, baby You came along to guide me You took pity on a lonely man When you said you'd stand beside me I'll never forget you for what you've done I'll never turn my back on you for anyone 'Cause I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you My world was cold and empty And my life was so unfilling When I needed someone to pick me up Ooh, girl, you were oh-so-willing Now to you that might seem like a little thing But to me it's like changing winter to spring I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you There's so few women nowadays Who understand the soul of a man They're always on the taking end Never giving, never offering a helping hand But baby, I can count on you Whenever trouble calls, you see me through You show your love, babe, in so many ways I'm gonna love you, baby, the rest of my days Baby, I've got so much love to give you Baby, I've got so much love to give you Well, there's more than enough to last a whole life through And it's all for you</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Queen of Daytona Beach</t>
+          <t>So Much Love</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>61 Ahmad Anonimis - Cant Wake Up ft. Trilly Amenazzy - Hey Chanty BLK ODYSSY, Benny the Butcher George Clinton - BENNY'S GOT A GUN Calum Scott - Boys in The Street CXRPSE - BOTTOMLESS PIT Danny Beau - MY SUMMER Denzel Curry Key Glock - Walkin' Remix Eli Fross - Menace ft. Fredo Bang KT Tunstall - Canyons Maggie Rogers - Want Want Maisie Peters - Cate's Brother Matt's Version ft. Matt Maltese María Becerra - OJALÁ midwxst - sidelines MISSIO - Failure to Comply MISSIO - gimmeakiss MISSIO - I Wanna Fight and You Know It Muse - Will of the People MYA - TAZA TAZA Nikone Lionware - Si Vuelves Tarde Panic! at the Disco - Viva Las Vengeance Paolo Nutini - Shine a Light Pepe Vizio - Pides Demasiao Phoenix - Alpha Zulu Rei Quevedo - FERNET Sarah Close - Words Will Never Do She Him - Wouldn't It Be Nice Vance Joy - Every Side Of You Yeah Yeah Yeahs - Spitting Off the Edge of the World ft. Perfume Genius Yo Gotti, Moneybagg Yo CMG The Label - Big League ft. Lil Poppa Mozzy 62 Alex Sensation Justin Quiles - Te Veré Blunted Vato - Normal Chema Rivas - Fiel Chris Andrew - A Tu Nombre Duki - Antes de Perderte George Ezra - I Went Hunting Juliette - Solar Lasso - Ojos Marrones Nikki Lane - First High sangiovanni Aitana - mariposas Since99 - Like Yao Tiago PZK Ozuna - Nos Comemos Squash - Don Dada Yuridia - Con Qué Se Pega Un Corazón? 63 almost monday - sun keeps on shining Ana Mena - Mezzanotte Asmir Young - Si Supieras AViVA - LONELY Betty Who - Blow Out My Candle BigKayBeezy - Outta Nowhere ft. Shoebox Baby B-Lovee Coi Leray - Demon BONES drew the architect - PackRippedOpen Brent Cobb - Wild And Blue Brooklyn Queen - Throw Sum Clara - Weirdo Clinton Kane - 14 CXRPSE - JUMPIN IN THE PIT FREESTYLE Dagny - Brightsider De La Ghetto Rauw Alejandro - Loco Por Perrearte Remix EDEN - Modern Warfare Erubey - Perreito en L.A. GALE - Problemas Goth Babe - Taking Over the Sun Gucci Mane - Mrs. Davis Hotboii - WTF India Shawn - EXCHANGE Jubël - Diamonds ft. Aleyna Tilki Julieta Venegas - Caminar Sola KAHDAMI - Famine ft. XLOVCLO Kasabian - CHEMICALS Kash Doll, Rubi Rose DreamDoll - Abow ft. ShantiiP Kayzo - Poser ft. conner KB Mike - Need U ft. Scorey kurtains - no magician Lakeyah - Mind Yo Business ft. Latto lentra - out of the blue Logic - Bleed It Lola Indigo - AN1MAL Lola Marsh - Love Me on the Phone Lost Frequencies James Arthur - Questions Louie Ray - P.Y.C.O Lous and The Yakuza - Monsters Lucho SSJ ARÓN - Que Dios Me Perdone Maggie Lindemann Siiickbrain - break me! Marc Seguí Rusherking - 360 Remix Masicka - Tom Brady Freestyle Mikey Polo - Great Xscape Monsieur Nov - Entre Nous moon tang - i hate u Morelli - Todo MUNA - Sometimes NateWantsToBattle - Bring Back From The Rising of the Shield Hero NextYoungin SpainDaGoat - Harry Potter Nicole Favre, Aczino Sabino - Mala Manía NIKI - Before Niko Rubio - Over for Real Paula Cendejas - x ti Pitou - Big Tear Polo G - Distraction Real Boston Richey Lil Durk - Keep Dissing 2 Reneé Rapp - Tattoos Rowdy Rebel - Woo Nina Rytikal - Bang Bang Sada Baby - 2 Freaks ft. Snoop Dogg SIDEPIECE Lee Foss - One, Two Step Skibs - The Tao Pt. 1 Skillibeng - Whap Whap Remix ft. French Montana Fivio Foreign Skylar Stecker - Know Its Wrong St. Vincent - Funkytown Stan Walker - Feelings ft. The Kings Swae Lee Diplo - Tupelo Shuffle thea wang - Word On The Street Thouxanbanfauni Matt Ox - Tragic Tory Lanez - Wait for You Freestyle YBN Nahmir - Dead Wrong Yungeen Ace - Where They At 64 Christian Nodal - Girasol EL NOBA, Callejero Fino Juanka - Tamo Chelo Remix ft. Dinero en el Beat, DT.Bilardo, Kaleb Di Masi L-Gante wolfacejoeyy - scars 65 Hook - ur first tattoo was a animal 66 All Time Low - Blinding Lights Cat Burns - Go Sam Smith Remix ft. Sam Smith Darren Hayes - Poison Blood Denzel Curry - 1st Quarter ft. REASON Josh Levi - DON'T THEY REMIX ft. Normani Phoebe Green - Sweat 67 645AR - Litty ft. Rico Nasty Editors - Karma Climb Inhaler - These Are The Days Mike Dimes - Home Remix ft. JID Party Favor - Hollow ft. DeathbyRomy Regina Spektor - Loveology REY GWEN - Static Electricity Robbie Williams - Angels XXV Shygirl - Come For Me Wet - I'm Not Her 68 Anson Lo - King Kong Apel8 - My Bloody Nails ft. Powers Pleasant, ZillaKami BabyTron - Caught An Opp ft. TrDee Beach Bunny - Entropy Bizarrap Villano Antillano - Villano Antillano Bzrp Music Sessions, Vol. 51 Danger Mouse Black Thought - Because ft. Joey Bada, Russ Dylan Cartlidge Dende - Block Me iii On Chan - Thunderless Dylan Fraser - It Took A Lot To Get To This flowerovlove - Hannah Montana iann dior - Live Fast Die Numb Jack White - If I Die Tomorrow King Princess - Cursed King Princess - Too Bad Lil Maru - Heartless Marian Hill - i think you know ft. Steve Davit Metric - What Feels Like Eternity Miloe - Floating Nina Nesbitt - Pressure Makes Diamonds ODESZA - Wide Awake ft. Charlie Houston PACKS - dont go for the goats milk Pale Waves - Reasons to Live Pixey - Come Around Sunny Day Pixies - There's a Moon On Rae Sremmurd - Denial Rich Homie Quan - Still Sinning Shady Blu - Jealousy Shelley FKA DRAM - Chocolate Covered Strawberries SwaVay - JUGG The Aces - Girls Make Me Wanna Die Zakhar - Fly Away Young King Slaton - AnyTime, AnyPlace Freestyle 69 Bag Raiders - Never Forget Betzabeth - Ahora Es Ella Black Birdie - body Carlos Feria - No te creo Cath Wong - Kiss, Pain, Sing FMK - De Vacaciones Freddie Dredd - Wrath Halsey - So Good Imani Williams - Fuck Alone Kevin Gates - Super General Freestyle Kita Alexander - Storm Lebra Jolie - Spring, Summer Marcianeke - Calle y Pistola Mati Gómez - Prometí Mere Raj - inmyhead MOTHICA - BEDTIME STORIES MOTHICA - BLOOD Nina - 10 noches Pabllo Vittar - Mais Uma Voz Paty Cantú - Bailo Sola Princess Nokia - Diva Sebastián Yatra - TV Soccer Mommy - newdemo 610 UICIDEBOY - Escape from BABYLON 10KDunkin - CLIQUIN UP 2Tone - Should Go Home Alejo Young Miko - Un Poquito Andrew Garden - it hurts to change Ant Saunders - Camaro Arizona Zervas 24kGoldn - OH MY LORD Bailey Zimmerman - Rock and A Hard Place Bastille - Remind Me Benjamin Ingrosso - Dancing on a Sunny Day Betta Lemme - Rumours Big Time Rush - Fall Carmen DeLeon - Mala Memoria Cate - Ruin Cecilia Castleman - Lonely Nights Chris Lane Lauren Alaina - Dancin' In the Moonlight Chronic Law - You Cochise - TURN IT UP Coi Leray - The One Capella Grey - OT ft. Ty Dolla ign Consequence - BLOOD STAIN Craig David - G Love ft. Nippa Dax - Dear Alcohol Remix ft. Elle King DDG - Storyteller Demi Lovato - SKIN OF MY TEETH Doodie Lo Worldwide Hustle Devoo - Zip Lock Eddie Benjamin Alessia Cara - Only You Eizander - Mantengo elijah woods - ilu Elisama - Speaker Fitz and The Tantrums - Sway French Montana Harry Fraud - Drive By ft. Babyface Ray Futuristic - Gucci G Perico - Thats My Dawg Greentea Peng - Stuck In The Middle Guapdad 4000 - Pose ft. Wiz Khalifa Curreny Gyakie - SOMETHING HAEVN - Trade it for the Night iyla - 2LATE J.I the Prince of N.Y - Riot Jacob Banks - By Design Jacob Collier - Never Gonna Be Alone ft. John Mayer Lizzy McAlpine Jaden Michaels - Wrong Jaira Burns - Daytime JGreen - Everywhere Jimmie Allen - settle on back Jimmy Eat World - Something Loud Joji - Glimpse of Us Joss Favela - 700 Días Kameron Marlowe - Girl On Fire Kid Cudi - Do What I Want Kyle Gee - Revenge Leslie Shaw - Poderes Lily Rose - I'd Be You LINK - I Belong to You Lissie - Flowers ft. Bre Kennedy Lizzo - Grrrls Logic - Breath Control ft. Wiz Khalifa LOVA - One Too Far Machine Gun Kelly glaive - more than life Mallory Merk - Thorns Maluma Chencho Corleone - Nos Comemos Vivos Manu Manzo - PAELLA Marshmello Khalid - Numb Metteson - Never Let Me Go Mia Rodriguez - Superglue Miya Folick - Ordinary Montell Fish - Hollow Love Mr Eazi - Legalize Muni Long Saweetie - Baby Boo Nardo Wick - Riot Nicole Acosta - Home NLE Choppa - Apart From Me Nohemy - Tuya Paloma Ford - Bentley Truck PEDRO SAMPAIO, Anitta Dadju - DANÇARINA Remix ft. Nicky Jam MC Pedrinho Pharrell Williams - CASH IN CASH OUT ft. 21 Savage Tyler, The Creator PLUM-BLOSSOM - Imagine being Overrated R3HAB Amy Shark - Sway My Way Rah Swish Don Q - Rolling Stone Ron Suno - What They Gon Say Remix ft. Rowdy Rebel Rubi Rose - Wifey Ryan Trey - Only Us ft. Babyface Ray Rylo Rodriguez - Benz Truck salem ilese, Alan Walker Abdul Cisse - PS5 Fortnite Battle Pass Gamer Remix Saucy Santana - Booty ft. Latto Seeb Julie Bergan - Always Will Sharlene Corina Smith - Brutal Skeng - Limited Edition Skibs - Rise Fall Smash Mouth - Never Gonna Give You Up SSGKobe - shoota Steve Aoki Taking Back Sunday - Just Us Two Surfaces - What's Been On Your Mind? Tank - Slow ft. J. Valentine Teddy Swims - 2 Moods The Chainsmokers Ship Wrek - The Fall The Rasmus - Rise Thouxanbanfauni - ROWDY ft. MDMA DP THE KID Tom Speight - Roll the Dice Again Unlike Pluto - Fata Morgana UnoTheActivist - PAY UP! Violet Days - First Times Wendigo - Searching For You ft. BRUHMANEGOD, JOHNNASCUS, CXRPSE, MKULTRA CHRIST DILLINGER Yung Gravy - Betty Get Money 611 Jackboy - Havin My Way 613 iayze - AKs ARs Jason Chan - Dare To Fall Novel Fergus Remix ft. Novel Fergus JID - Freestyle 29 Soulja Boy - Shit Talker 614 Biig Piig - FUN BRELAND - Natural Cub Sport - Always Got The Love Dry Cleaning - Don't Press Me Duwap Kaine - Tonight Foals - Crest of the Wave Jess Connelly - Better Julia Jacklin - I Was Neon LUCKI - Y NOT? Röyksopp - Sorry ft. Jamie Irrepressible Selfmxdebless - P.J.K.Y. Simple Minds - Vision Thing 615 Bananarama - Masquerade beabadoobee - 1036 Ben Harper - We Need to Talk About It C.R.O, Nahuel The Coach Nath - Hagámoslo De Nuevo Carlos Jean John Martin - Ride Cautious Clay - Puffer Gabrielle Aplin - Call Me Highway - Next Weekend Ingrid Andress - Pain Jay Fizzle - Last Song Kadhja Bonet - JGS Marlon Williams - Thinking Of Nina New Hope Club - Getting Better New Hope Club - Girl Who Does Both Powers Pleasant - Overseas ft. Bas, Maxo Kream, Erick the Architect Kenny Mason Röyksopp - Unity ft. Karen Harding Santigold - Ain't Ready Seaforth Sean Kingston - Queen of Daytona Beach Selfmxdebless - GoUpWtfAreYouDoing? Valentina Zenere - Cero Coma Young the Giant - Wake Up 616 Aya Nakamura - Méchante bLAck pARty - On My Way Camilo Alejandro Sanz - NASA DAAZ Ingratax - Necesito un Break de Tanta Pendejad Eminem - The King and I ft. CeeLo Green FABRO, MYA CNCO - Suelta, Sola y Tranquila Remix FKA twigs - Killer Jon Z Morad - Gol Key Glock - 712AM Kim Loaiza Mr. Pig - Pa' Eso Se Hizo Llane Danny Ocean - Fino Luana - Por Ti MoStack - Fake Fake Fake Pitizion - A Tiempo Polimá WestCoast, Pailita Feid - ULTRA SOLO Remix ft. Paloma Mami De La Ghetto Ramon Vega Michelle Macie - eScoRpiÓn Robleis - IDIOTA Selfmxdebless - WhatMakesyouDie? st. Pedro - Esa Noche Steve Lacy - Mercury Symon Dice, Kaleb Di Masi LATENIGHTJIGGY - Pelinegra Tayc - Laisse moi te dire ft. Hamza Tei Shi - GRIP Two Door Cinema Club - Wonderful Life Zilo - Underwater 617 Alan Walker AuRa - Somebody Like U Alok, Ella Eyre Kenny Dope - Deep Down Ana Mena Belinda - LAS 12 Babyface - Keeps On Fallin ft. Ella Mai Bad Gyal - Tremendo Culón BIG30 - Dead Guyz Black Eyed Peas, Shakira David Guetta - DON'T YOU WORRY BROCKHAMPTON - Hollywood Swinging Bryant Myers - Guarida Bryce Vine - Nobody Chance the Rapper - The Highs the Lows ft. Joey Bada Chlöe - Surprise Chris Brown - Call Me Every Day ft. Wizkid DDG - Stay In My Circle deadmau5 - XYZ Derivakat Yuki - Unravel From Tokyo Ghoul - Acoustic Version Diddy Bryson Tiller - Gotta Move On DJ Frass Stefflon Don - Sweet Bounce ELHAE - Know Eli Sostre - Lonely Highway ft. johan lenox Escarlata - Donde Nadie Flo Milli - Conceited French Montana Harry Fraud - Blue Chills French Montana, Harry Fraud Rick Ross - Kind of Girl Headie One Luciano - Cloud Hitmaka, Fabolous Jeremih - Down Bad Horrid1, SavO Black Haze - Trinibad GMFT Icona Pop Ultra Naté - You're Free iLoveMakonnen YoungBoy Never Broke Again - ALL MY SHIT IS STUPID INNA - Magical Love Jarom Su'a, Seven Kayne Vibarco - EN CARTAGENA ft. Maia Reficco JAY1 - Mercedes JELEEL! Mike Dimes - CLUBHOUSE! JELEEL! - UNCIVILIZED! GO! John Legend - Honey ft. Muni Long KALENN - En tu lado de mi cama Kay Flock - Make A Movie ft. Fivio Foreign Kidd Keo - Wannabes Kota the Friend - FATHER'S DAY LAYA - Sock It 2 Me Leon Bridges Kevin Kaarl - Summer Moon Lil Baby 42 Dugg - U-Digg ft. Veeze LION BABE - Yaya ft. bbymutha Luke Combs - The Kind of Love We Make Lul Bob - 'Outside Måneskin - If I Can Dream MAR MEJÍA - Nascar MØ - True Romance Natti Natasha, Daddy Yankee Wisin Yandel - Mayor Que Usted Ne-Yo - You Got The Body Nova Miller - venus PGF Nuk - Pass The Ball Pollari - 4AM in Agoura Remix ft. Tony Shhnow REASON Jay Rock - Is What It Is Rico Nasty - BLACK PUNK Rocco Hunt, Elettra Lamborghini Lola Indigo - Caramello Sam Fischer - All My Loving Samantha Jade - Dance Again SBTRKT - BODMIN MOOR Selfmxdebless - HeartsCold sevensevenseven Chief Keef - make me mad ShaboozeY - GAS! Skibs - Back N Forth Skott - Evergreen SleazyWorld Go Offset - Step 1 Stepz - Cramp Dat Tom Walker - Number 10 Tory Lanez - City Boy Summer Wendigo - The Dark Army ft. Quadie Diesel, ize Matt Ox Vaishalini - Don't Say I Didn't Warn You VIZE, Abraham Mateo Sofía Martín - Yo Por Ti Wu Qing Feng AURORA - Storm Xavier Omär - Tarantino YNW BSlime - Pocket Watching Yoza - Fine By Me 619 Ramz - Best Service 620 Aitch Bakar - In Disguise boy pablo - Don't You Want Me ft. Celine Autumn Dark Wong - Old School DIRTYBUTT - mama said dont cry 2 long live borne KirbLaGoop Bleachdiego - Kop Wit Ease NateWantsToBattle - With You ft. DAGames Nedarb Wicca Phase Springs Eternal - ill be the fire Soulja Boy - Baseball 621 Alex G - Runner Beyoncé - BREAK MY SOUL Bill Wurtz - the ground plane Blessd Rels B - Energía BlueBucksClan - Just Hit Me Ciara - Treat Dayglow - Then It All Goes Away El Alfa - Chu Chu Pamela Icewear Vezzo, Peezy Payroll Giovanni - The Commission JayDaYoungan - First Day Out Pt2 Influential Freestyle Lady A - Summer State Of Mind Oliver Malcolm - Baby Don't Go Stella Donnelly - Flood The Game - Violence The Snuts - The Rodeo Tove Lo - True Romance Zacari Isaiah Rashad - Bliss 622 Acid Souljah - Cheezlworld Ceo Ashe - Angry Woman COBRAH - BRAND NEW BITCH Dee Watkins - For The Birds Djo - Change Eli Fross - Free 1031 First Aid Kit - Angel Gorillaz - Cracker Island ft. Thundercat Harry Hudson - A song I wrote after therapy Kacey Musgraves - Can't Help Falling in Love koi - 8 days a week L-Gante, DT.Bilardo Al Records - MI WOMAN Lali - N5 LATENIGHTJIGGY - Nela Leo Ku Edan Lui - Floating Classroom Lil Durk - Did Shit To Me ft. Doodie Lo Marian Hill - back in time Matt Ox - GET OUT MY WAY! Mura Masa, Channel Tres Shygirl - hollaback bitch Netsky Rita Ora - Barricades Paolo Nutini - Acid Eyes Paolo Nutini - Petrified In Love Pure Shores - Light of My Life sophie meiers - untangle me Tai Verdes - sheluvme TRST - The Shore Zac Brown Band Blake Shelton - Out In The Middle 623 A1 x J1 Mabel - Deal Or No Deal Ambar Lucid - La Torre Arkells, Cur de Pirate Aly AJ - Dance With You BFB Da Packman - Megan Knees Casper Mágico - De Rumba Chris Brown - Psychic ft. Jack Harlow CNCO - No Apagues la Luz DDG - Making The Band Duki - Celosa Eix, Beéle Maffio - Cuando Te Veo Greyson Chance - Palladium Ingratax Banda MS de Sergio Lizárraga - Un Chingazo Ingrid Laien Los Del Fino - Déjame Revisarte el Celular 2 James Vincent McMorrow - Heads Look Like Drums Justin Quiles Robin Schulz - AEIOU La Ross Maria Ghetto Kids - Calentón Lefty Sm - Confundido merci, mercy - Black Cloud NEEDTOBREATHE - Talk of the Town Noah Cyrus - Ready To Go Not3s - Where You Been? renforshort - i miss myself Sam Hunt - Water Under The Bridge Sylvan Esso - Your Reality The Interrupters - Jailbird Tony Shhnow - real runtz Tyson Yoshi - if i die tonight Yandel, Maluma Eladio Carrión - Nunca Y Pico 624 Aaron Cole - Choose You Aidan Bissett - Twenty Something Alexander 23 - Somebody's Nobody Amanda Tenfjord - All In anders - Come With Me Andy Lucas - Son de Amores Remix ft. Abraham Mateo Lérica Andy Grammer - Good Man First Love Arizona Zervas - ON TEN ASHA - Fille d'Afrique Ashley Kutcher - Emotionless Avery Lynch - Im Sorry If I Hurt U Sometimes Ayzha Nyree - Woke Up Like This bbno Diplo - pogo Big Yavo - OVO BKTHERULA Ski Mask the Slump God - THROUGH 2 U Remix carolesdaughter - xo hope u die Charlie Puth - Left and Right ft. Jung Kook Chayanne - Te Amo y Punto Christina Perri - home Christine and the Queens - Je te vois enfin Chxrry22 - Call Me Citizen Queen - XO Coi Leray - Involved Cuco Bratty - Fin Del Mundo DaBaby Davido - SHOWING OFF HER BODY Dave - My 24th Birthday Dess Dior - Rich and Raw Dimitri Vegas, David Guetta Nicole Scherzinger - The Drop ft. Azteck DMX - Know What I Am Dot Da Genius - Talk About Me ft. Kid Cudi, Denzel Curry JID Dougie B - Uzi Dove Cameron - Breakfast Echosmith - Hang Around Edurne NIA - Te Quedaste Solo Elle King Nile Rodgers - Honky Tonk Disco Nights Elley Duhé - PIECES Eminem Snoop Dogg - From The D 2 The LBC FLETCHER - Her Body Is Bible Fly By Midnight - Dance GASHI - Gasoline glaive - minnesota is a place that exists G Perico - Westside Connection ft. J. Stone H.E.R. - Dance To The Music Hayley Kiyoko - deep in the woods Huey Mack - My Favorite ILIRA - Another Heart Imagine Dragons - Sharks Jake Miller - 8 Tattoos James Bay - Everybody Needs Someone Jaz Karis - OPTION Jenn Morel - Estilo Cochino Jessie Reyez - FRAUD Jonathan Young Caleb Hyles - Wolf Within Josie Man - no one cares Kalan.FrFr. - No Stoppin ft. Blxst KIRBY - New D LARRENWONG - Deacon Leah Kate - Twinkle Twinkle Little Bitch Lena - Looking For Love Lexie Carroll - if i built my home from paper Lil Nas X YoungBoy Never Broke Again - Late To Da Party Lolo Zouaï - Blur lovelytheband - sail away Mads Langer - Double Trouble Matt Maeson - A Memory Away Meghan Trainor - Bad For Me ft. Teddy Swims Mina Okabe - Waiting Is A Waste Ms Banks - Bounce Nessa Barrett - die first Nightly - On Your Sleeve Peach Tree Rascals - Let U Go Phora - Fake Smiles 3 ROA - JETSKI ROSIE - Something I Hate Russ - Yes Sir Sam Creighton - Heaven From LA Sam Feldt salem ilese - Hate Me Serrini - kiki mami Skibs - Blue Ferrari Sophie Cates - Nasty Taylor Swift - Carolina Tedashii, Trip Lee Lecrae - Respect My Team The Kooks - Cold Heart Thouxanbanfauni - Hell Shot ft. Robb Bank Tommy Genesis Charlie Heat - all the bands Totoy El Frio - El Cielo Tyler Hubbard - 35's VEDO OG Parker - Face Down WILLOW - maybe it's my fault Wiz Khalifa - Bad Ass Bitches Young Devyn - Decisions YG, Tyga 21 Savage - Run ft. BIA Zella Day - Radio Silence ZieZie - Make a Wish 625 wolfacejoeyy - shake it 626 BABYXSOSA - FACETIME TEXTING BFB Da Packman - Stained Couch DAGames - Blue SSD Skeng - Simple Dutt 627 Jae Stephens - What's a Monday Melvoni - Trust Issues Nadia Rose - Lyrical Assassin Pale Waves - Jealousy per se - The Spark Rina Sawayama - Catch Me In The Air Young King Slaton - Dance On The Floor 628 Dave East - How We Livin' Fancy Hagood - Blue Dream Baby ft. Kacey Musgraves Lauv - Kids Are Born Stars Lil Gotit - MF TRIMM MAR MEJÍA - Así Somos Sampa the Great - Never Forget ft. Tio Nason, Mwanje Chef 187 Superorganism - Into the Sun ft. Pi Ja Ma, Stephen Malkmus Gen Hoshino Terence Lam - Summer Yeat - Rich Minion 629 Aaron Smith - You Anitta Luck Muzik - TROPA Anna of the North - Dandelion Blue - Dance With Me Claire Rosinkranz - i'm too pretty for this Daya - Love You When You're Gone Derivakat Yuki - Glassy Sky From Tokyo Ghoul Dermot Kennedy - Dreamer Emotional Oranges - Make Me Wanna Enchanting - What I Want ft. Jacquees FEYZAL - No Attachments Gia Woods - Lesbionic Gryffin MØ - Reckless Gucci Mane - All Dz Chainz ft. Lil Baby iayze - Cracked I'm Him 2 JBee CRYSTAL MILLZ - Changed Kailee Morgue - Trainwreck Kidd Kenn - Want Not A Need ft. Baby Tate Lloyd Banks Conway the Machine - Menace Mabel - Let Love Go ft. Lil Tecca Maya Hawke - Thérèse Men I Trust - Hard To Let Go Oscar Lang Wallice - I've Never Been To LA Paulo Londra - Nublado Paulo Londra - Luces RÊVE - Tongue Steve Lacy - Bad Habit Tayla Parx - Flowers YUNGBLUD - Don't Feel Like Feeling Sad Today 630 Austin Meade - Red Roof Estates B Young - Ocean ft. BNXN fka Buju Big Time Rush - Honey daine - sleepwalking Dreamer Boy - HUES ECKO, Kaleb Di Masi Omar Varela - PÉGATE RKT Remix ft. Lautaro DDJ, Alejo Isakk Salastkbron El Osito Wito, Kaleb Di Masi Mesita - Coqueta Remix ft. Salastkbron, Alejo Isakk, Roldan Emi Rodrii Ortiz Flo Rida - What a Night Freddie Dredd - Greed Kay Tse - Life Just Goes On Headie One Frenna - Bigger Than Life J Balvin Ryan Castro - Nivel De Perreo Levi Hummon - Good Riddance ft. Filmore YABOYZ Matilda Mann - Hell Miriam Rodríguez - La Última Función Ng Lam Fung - Groundhog Day RAYE - Hard Out Here Sad Frosty Chief Keef - GENGAR Sael Emilia - Q-Lito Seven Kayne Diablo - NO SÉ XQ Stay Flee Get Lizzy, Lancey Foux SL - Simple Steff - La Puerta T3 - A Pleasure Tiësto Charli XCX - Hot In It Young Cister - LA TERAPIA Zachary Knowles - CIGARETTES Zeno Koo - XY Zion Lennox María Becerra - Berlín</t>
+          <t>In the midst of all my darkness, baby You came along to guide me You took pity on a lonely man When you said you'd stand beside me I'll never forget you for what you've done I'll never turn my back on you for anyone 'Cause I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you My world was cold and empty And my life was so unfilling When I needed someone to pick me up Ooh, girl, you were oh-so-willing Now to you that might seem like a little thing But to me it's like changing winter to spring I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you There's so few women nowadays Who understand the soul of a man They're always on the taking end Never giving, never offering a helping hand But baby, I can count on you Whenever trouble calls, you see me through You show your love, babe, in so many ways I'm gonna love you, baby, the rest of my days Baby, I've got so much love to give you Baby, I've got so much love to give you Well, there's more than enough to last a whole life through And it's all for you</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>River of Tears</t>
+          <t>Souvenir Of Mexico</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>It seems that I just can't win I've been hurt time and time again Every time I give my heart somebody tears it all apart Through the years, lord knows I must have shed a river of tears I tried to be fair in every way I'd even ignored, yes, I have, things that people say Oh, still I'm lonely and all alone I've got no one I can call my own Through the years I know I must have shed a river of tears A river of tears, oh, how I yearned, yeah Tears that flow Somebody tell me what I'm doing wrong Isn't there anyone I can depend on Through the years I know I must have shed a river of tears A river of tears, oh, how I've yearned, yes, I have Tears that flow' oh, how I've yearned Talking 'bout' talkin' 'bout a river Talkin' 'bout a river</t>
+          <t>She was standing there before me With the stars shining above her I took one look in her dark eyes Ah, and I knew that I would love her Told her I'd love her forever That I'd never leave, no, never Then she gave me her heart Ooh, ooh Souvenir of Mexico When I kissed her, I was shakin' Such a kiss I've never tasted Though I've kissed many before her All my kisses, they were wasted I never felt a perfection Never knew such sweet affection Kisses straight from the heart Ooh, ooh-hoo Souvenir of Mexico Tropical light with the moon shining bright Holding her in my arms Ah, the soft summer breeze Sing a song through the trees and the palm Yeah, the next a-morning, we went walking, mmm Through the hills where I first met her With a tear in her eyes, she told me Boy It's best for you, it's best for you to forget it, mmm 'Cause she made a vow to her mother Vow that she would wed another Now I'm left with a broken heart Ah, souvenir of Mexico</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Save the Last Dance for Me</t>
+          <t>Stand by me</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Baby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Save the Last Dance for Me</t>
+          <t>Stand by me</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>You can dance Every dance with the guy Who gave you the eye Let him hold you tight You can smile Every smile for the man Who held your hand 'Neath the pale moonlight But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Oh I know That the music is fine Like sparkling wine Go and have your fun Laugh and sing But while we're apart Don't give your heart To anyone But don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Baby don't you know I love you so? Can't you feel it when we touch? I will never, never let you go I love you oh so much You can dance Go and carry on Till the night is gone And it's time to go If he asks If you're all alone Can he take you home You must tell him no 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me 'Cause don't forget who's taking you home And in whose arms you're gonna be So darlin' Save the last dance for me, mmm Save the last dance for me, mmm Save the last dance for me</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Seven Letters</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>This is my last letter Dear, to you This is my last letter, baby I just can't write you anymore My poor little finger's swollen I'm tired of pacing the floor, yes, I am Threw away our favorite record It was tearing me apart This is my seventh letter, baby Just to satisfy my heart One Monday, I wrote and told you I was all alone and blue Two Tuesday, I wrote again, baby I said I loved no one, no one No one but you, no, I don't Three Wednesday, I wired you a cable Begging you to call Four Thursday, I sent the message I said I was wrong and, darling Please come back home Five Friday, I woke up crying With the sniff of a tear Six come along long lonesome Saturday I did the same thing all over again Yes, I did Seven this is my seventh letter, baby On this bright Sunday morning Just got off my knees from praying I said, Oh, Lord, oh, Lord Please send her back home Can't she hear me talking to her This is my last letter Dear, to you Seven letters, seven days Seven long, lonely days There, I said it This is my last letter Dear, to you yes, it is Yes, it is, yes, it is Oh, yes, it is</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Show Me the Way</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>If I had to swim a river Or climb a mountain tall I'd do anything you ask Anything at all No river, no mountain Can keep us apart Show me the way, whoa, whoa, whoa, oh, oh Show me the way to your heart I would gladly cross a desert To prove my love is true I would sail the stormy sea Just to be with you No desert, no storm Can keep us apart Show me the way, whoa, whoa, whoa, yeah, yeah, yeah Show me the way to your heart If you ask for a palace I'll build you two If you ask me for dew I'll bring stardust to you Only you And if all you're asking Is love in all its care I will pledge true love to you Love beyond compare My darling, I need you Why must we be apart? Show me the way, whoa, whoa, whoa, oh, oh, oh Show me the way to your heart</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>So Delicious</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>I eat the fried calamari with the kobe steak My bitch eat pussy even though she straight I clean the plate and then she throw me face I take her drawers off, a plush beat down at the waldorf I'm whipping the wrangler with the doors off The young Nino, sawed off shooter torpedo leave you in the fetal Living like Vito Andolini in his early age All my opponents meet an early grave So pray you see them pearly gates I treat that .40 caliber just like excalibur My hammer game compares to Gallagher Tell any challenger I'll change your calendar I cut your day short, a made boss, Bernie Madoff, beige porsche Fuck a loss, tuck the corpse then we cut the costs Ain't no checking for his vital signs The devil checking for a idle mind Flight to the top, check the arrival time Peasants idolize, they know the title's mine We made it from the rags to the riches I brought the dope, who brought the swishers I cook the yola in the kitchen, bag it up and then she do the dishes Everything we do is so explicit We made it from the rags to the riches That surf and turf is so delicious Get all my niggas out of jail and excel is my only wishes Everything we do is so explicit Killer nigga roll a joint with his obituary Tattle-tailing type a shit to get you niggas buried Catch me twisted in the cemetery I'm legendary, cold as Ben Jerry's, shoot like Jason Terry So much money that she started crying tears of joy But got it all from moving squares of boy I light the loud and I inhale the noise, but still I keep my poise I get her moist soon as she hear my voice Ain't taking shorts see I need every payment The prosecution pushing for arraignments Ducking detainment but still on the pavement Like the laces of a pair of asics, you know the basis Came up from the basement, now it's the top floor I chop the raw and then get mop by your top whore Still got them Glocks tucked in the sock drawer I smoke the pot while the yacht tours The shots pour while our stocks soar I smoke the pot while the yacht tours We made it from the rags to the riches I brought the dope, who brought the swishers I cook the yola in the kitchen, bag it up and then she do the dishes Everything we do is so explicit We made it from the rags to the riches That surf and turf is so delicious Get all my niggas out of jail and excel is my only wishes Everything we do is so explicit1</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Someday We’ll All Be Free</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Hang on to the world as it spins around Just don't let the spin get you down Think of moving fast Hold on tight and you will last Give your self respect, your manly pride Get yourself in gear Keep your stride Never mind your fears Brighter days will soon be here Take it from me, someday we'll all be free, yeah Keep on walking tall Hold your head up high Lay your dreams right up to the sky Sing your greatest song And you'll keep going, going on Take it from me, someday we'll all be free Hey, just wait and see, some day we'll all be free, yeah Take it from me, someday we'll all be free It won't be long, take it from me, someday we'll all be free Take it from me, take it from me, take it from me...</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>So Much Love</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>In the midst of all my darkness, baby You came along to guide me You took pity on a lonely man When you said you'd stand beside me I'll never forget you for what you've done I'll never turn my back on you for anyone 'Cause I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you My world was cold and empty And my life was so unfilling When I needed someone to pick me up Ooh, girl, you were oh-so-willing Now to you that might seem like a little thing But to me it's like changing winter to spring I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you There's so few women nowadays Who understand the soul of a man They're always on the taking end Never giving, never offering a helping hand But baby, I can count on you Whenever trouble calls, you see me through You show your love, babe, in so many ways I'm gonna love you, baby, the rest of my days Baby, I've got so much love to give you Baby, I've got so much love to give you Well, there's more than enough to last a whole life through And it's all for you</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>So Much Love</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>In the midst of all my darkness, baby You came along to guide me You took pity on a lonely man When you said you'd stand beside me I'll never forget you for what you've done I'll never turn my back on you for anyone 'Cause I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you My world was cold and empty And my life was so unfilling When I needed someone to pick me up Ooh, girl, you were oh-so-willing Now to you that might seem like a little thing But to me it's like changing winter to spring I've got so much love to give you Baby, I've got so much love to give you Girl, there's more than enough to last a whole life through And it's all for you There's so few women nowadays Who understand the soul of a man They're always on the taking end Never giving, never offering a helping hand But baby, I can count on you Whenever trouble calls, you see me through You show your love, babe, in so many ways I'm gonna love you, baby, the rest of my days Baby, I've got so much love to give you Baby, I've got so much love to give you Well, there's more than enough to last a whole life through And it's all for you</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Souvenir Of Mexico</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>She was standing there before me With the stars shining above her I took one look in her dark eyes Ah, and I knew that I would love her Told her I'd love her forever That I'd never leave, no, never Then she gave me her heart Ooh, ooh Souvenir of Mexico When I kissed her, I was shakin' Such a kiss I've never tasted Though I've kissed many before her All my kisses, they were wasted I never felt a perfection Never knew such sweet affection Kisses straight from the heart Ooh, ooh-hoo Souvenir of Mexico Tropical light with the moon shining bright Holding her in my arms Ah, the soft summer breeze Sing a song through the trees and the palm Yeah, the next a-morning, we went walking, mmm Through the hills where I first met her With a tear in her eyes, she told me Boy It's best for you, it's best for you to forget it, mmm 'Cause she made a vow to her mother Vow that she would wed another Now I'm left with a broken heart Ah, souvenir of Mexico</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Stand By Be (Live at Brunel University, London, 1987)</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>The elections of 1994 are described as a political earthquake, a triumph of conservatism that reflects the continuing drift to the right on the part of the American population. The victorious Gingrich army of well-trained, well-funded conservatives call for a Contract with America that will finally get government off our backs so that we can return to the happy days when the free market reigned. They will restore family values, ridding us of the excesses of the welfare state and the other residues of the failed big government policies of New Deal liberalism and Johnson's Great Society. By dismantling the nanny state they will succeed, where the Democrats have failed, to achieve the shared goal of all elite and leadership elements to create jobs for Americans and win security and freedom for the middle class. And they will take over and successfully lead the crusade to establish the American Dream of free market democracy, worldwide. One of the great achievements of contemporary ideological warfare has been to debase the terms of political discourse so thoroughly that such statements as these are not entirely false, if we keep to what has become conventional usage. As Orwell predicted, this achievement has undermined the possibility even of talking sensibly about what is happening in the world. Still, independent minds -- including any authentic conservatives who might be located in the outer reaches of the political arena or intellectual world -- can refuse to be swept up in the fashionable currents and use terms with their actual meanings to describe what is happening, and why. 1. The Triumph of Conservatism Most of this, we also heard just ten years ago, when Reagan was elected by a 2-1 vote, the second conservative landslide in four years. In his 1980 triumph, presidential historian William Leuchtenberg observed, Reagan, far from having won in a landslide, got little more than a bare majority of the popular vote and only 28 of the potential electorate, and exit polls showed that the vote was not for Reagan but against Carter, who had in fact initiated the policies that the Reaganites took up and implemented, with the general support of congressional Democrats accelerating military spending meaning, in particular, the state sector of the economy while cutting back programs that aid the vast majority. Polls in 1980 revealed that 11 of Reagan voters chose him because he's a real conservative -- whatever that term is supposed to mean. In 1984, despite vast attempts to get out the vote, the totals increased by 1. The percentage who chose Reagan because he was a real conservative dropped to 4, while 70 of all voters with an opinion on the matter opposed Reaganite legislative programs, and public opinion studies showed a continuation of the steady drift towards a kind of New Deal-style welfare state liberalism on the part of the general population. Their concerns and desires were not articulated in the political system, however one reason, surely, why voting was so sharply skewed towards privileged sectors. The reasons why voting is so dramatically an elite affair in the United States are revealed by comparative studies. Analysis of thirty democracies showed a significant correlation between high voter turnout and the presence of political parties representing clearly defined strata of society -- that is, parties strongly tied to specific income classes, religious groupings, or language groups political commentator Thomas Edsall, 1984. In economic policy, Edsall added, the U.S. political system fails to represent the interests of the bottom three-fifths of society. To use a phrase that is unspeakable in polite society without shock quotes, when the class interests of the privileged and powerful are the guiding commitment of all political parties, people who do not share these interests tend to stay home. The class pattern of abstention seems inseparably linked to another crucial comparative peculiarity of the American political system, political scientist William Dean Burnham observed the total absence of a socialist or laborite party as an organized competitor in the electoral market. That absence relates to and is fortified by the effective dismantling of civil society unions, political organizations, and so on.1 In the 1980s, the U.S. and Britain took the lead in the triumph of conservatism, accelerating processes already underway. They therefore lead the developed world in impoverishment and degradation, inequality, homelessness, destruction of family values, hunger, and other values of contemporary conservatism. A study by the British charitable organization Action for Children, founded in 1869 with the Queen as patron, concludes that the gap between rich and poor is as wide today as it was in Victorian times, and in some ways worse. A million and a half families cannot afford to provide their children with the diet fed to a similar child living in a Bethnal Green Workhouse in 1876, a sad reflection on British society. Britain has proportionately more children living in poverty than any European country apart from Portugal and Ireland, and the proportion is rising faster than any country in Europe, though the U.S. still holds the lead. Britain has also not yet matched the achievements of the doctrinal system crafted by our highly class conscious business community, with the assistance of those whom the lively 19th century working class press called the bought priesthood of respectable intellectuals. The fact that there is class conflict and that the rich and powerful mobilize state power to serve their interests, a truism to Adam Smith, remains within popular consciousness. The 1994 Gallup Political and Economic Index gives interesting information about popular attitudes on these matters I put aside small numbers, 3-10, expressing no opinion. The study reports that over four-fifths of the population think there is a class struggle in this country and that too little is being done to level up the classes. Two-thirds disagree strongly with the statement Britain is a classless society. Nine out of ten feel that the Government does too little for the working class, four-fifths that it does too much for the well-to-do, and over 90 that it does too little for people living on small pensionsincome. Half also think it does too little for the middle classes. Three-fourths think of Britain as divided into haves and have-nots, and a third describe themselves as among the haves.2 Let's return to 1994, the next in the series of conservative landslides, this time under the leadership of Newt Gingrich. Republicans claimed about 52 percent of all votes cast for candidates in contested House seats, slightly better than a two-point improvement from 1992 Richard Morin, director of polling for the Washington Post. One out of six voters described the outcome as an affirmation of the Republican agenda 60 said it was a repudiation of the Democrats. A more conservative Congress was considered to be an issue by a rousing 12 of the voters. An overwhelming majority had never heard of the Gingrich Contract with America, articulating the Republican agenda, though a majority opposed one of its central components defense increases, a code-word for public subsidies to advanced industry. The chief pollster of the Los Angeles Times pointed out that just before the election, 61 of those polled said that spending for domestic programs should be increased. All of this echoes the situation of a decade ago. The opposition to Democrats is more nuanced. Clinton-style New Democrats -- in effect, moderate Republicans -- lost their seats at twice the rate of their more liberal colleagues, Ken Silverstein and Alexander Cockburn report. The more liberal Democrats are those who tried to activate the old Democratic coalition of working people, women, the poor the majority of the population who see themselves, correctly, as effectively disenfranchised. To put these figures in further perspective, it must be recalled that voting was even more heavily skewed towards the wealthy and privileged than before. As compared with 1992, 7 more voters were wealthy, 7 fewer were working class, political scientist Peter Levine comments, noting also that Democrats were overwhelmingly preferred by voters who earn less than 30,000 a year and ran even with Republicans in the 30,000-49,000 range. There was also a very large gender and color gap, white males voting mostly Republican, while women, Blacks and Hispanics voted for Democrats overwhelmingly, in the Black-Hispanic category, where participation was low. Those with no more than high school education, along with those with postgraduate education, favored Democrats. Those who sensed a decline in their standard of living voted for Republicans by close to two to one -- mostly white males with just high school degrees whose economic futures are highly uncertain, Thomas Edsall observes just those who would have been part of a left-populist coalition committed to equitable economic growth and political democracy, were such an option to intrude into our business-run political system. The message, however, was just the opposite Clinton must abandon the left-wing agenda that the voters had just overwhelmingly rejected and return to what he had promised to be in 1992 a New Democrat. And he was quick to pick up the cues. In a satellite address to the National League of cities, Clinton used some variation of the words work,' jobs' or working families' more than 40 times as he raised New Democrat' themes such as welfare reform, national service, lifelong job training, and the need to attack problems that feed dependency', the Boston Globe reported under the headline Clinton seen returning to New Democrat' stance. The report didn't say when he had left that stance for some different one, on any issue of importance to rich and powerful. If he had, Business Week hadn't noticed. Corporate America did fine riding in tandem with Clinton, the journal reports, though it did equally well when they diverged. Despite all his efforts to please, still business basically hates the Clinton Administration, Business Week continues, and gives him little credit for advancing the corporate agenda. Why? The reasons they give, and cite from polls of executives, are hard to take seriously. But there is one very good reason. Leading sectors of wealth and privilege taste blood. They think, with some reason, that they have the world's population by the throat, and are in a position to roll back the hated welfare state for the general population and everything that goes with it health and safety standards, labor rights and human rights generally, indeed any infringement on their right to pursue the vile maxim, as Adam Smith described the goal of the masters all for ourselves, and nothing for other people. Given that awareness, it makes sense to hate anyone who may have a somewhat flawed commitment to the sole human value Gain Wealth, forgetting all but Self, the New Spirit of the Age denounced by the lively and vigorous working class press 150 years ago, as working people fought to save human values from the rising tide of private tyranny.3 Yet another factor, scarcely noted here, has to be taken into account in evaluating the electoral results. Under the headline Big money still garners the big vote, George Graham observed in the London Financial Times that money spoke as loud as ever in the most expensive campaign on record. With a few notable exceptions, electoral victory tracked campaign financing closely -- again, no departure from the norm and natural in a political system in which the less affluent majority does not participate and is scarcely represented.4 Voters selected welfare reform as their top priority, with health care reform second and crime also ranking high. These choices, which in part reflect a grasp of reality, also have to be understood against the background of recent propaganda offensives. To begin with reality, for most of the population, conditions of life and work are grim and declining, something new in the history of industrial society. Median income declined even during the Clinton recovery, falling to 7 below the 1989 level by late 1993, the Census Bureau reported. The decline was accompanied by -- and in no small measure caused by -- much-lauded improvements in flexibility of labor markets. The latter is a technical term referring to elimination of job security and other such market rigidities that interfere with economic health, another ideological construct. As designed for the purposes of population control, economic health is unrelated to the welfare of the population but crafted to measure what is valued by the rich speculators, bond holders, investors, professionals who serve the state-corporate sector. Continuing the decline during the Reagan years, after a decade of stagnation, pay for private sector employees fell 4 from 1988 to 1994, with blue collar wages suffering most and white collar wages still below 1990 and well below 1988. Despite much misleading hype, the Bureau of Labor Statistics reports a continuing shift to lower-wage industries and higher wage-occupations, executive and professional, while noting that the overwhelming majority of these are in lower-paid service industries motel manager, and the like. That means sharply increased inequality, with the majority suffering reductions in absolute terms along with much worse work conditions.5 But some folks are doing just fine. The percentage of corporate income devoted to payrolls is hovering near a record low, Fortune magazine reported in November, having dropped sharply during the conservative landslide of the early 1980s, and again since 1992. With the New Democrats at the helm, 1993 was a bracingly upbeat year for the FORTUNE 500, the journal exulted in its April 1994 annual review of the state of the important people, who posted dazzling profits despite virtually stagnant sales growth. The ecstatic story was headed Hats Off! It Was a Heck of a Year -- at least, for those who matter.6 While in part realistic, the expressed concerns of voters reflect the great victories of the ideological warfare that has been conducted with relentless intensity since the early 1970s in the effort to overcome the perceived crisis of democracy. Across the political spectrum, privileged sectors were naturally appalled by the attempts of the great majority of the population to escape from the apathy and marginalization that is their proper place and to enter the political arena, forgetting that in a democracy the role of the ignorant and meddlesome outsiders is to be mere spectators, not participants, as Walter Lippmann put it in his progressive essays on democracy 70 years ago, expressing the doctrines of Wilsonian idealism. It therefore became necessary to renew with much greater intensity the constant campaign to tame and cage that great beast, as Alexander Hamilton termed the people with horror and indignation as he was laying the foundations for state-guided industrial democracy. The beast may not yet be tamed, but it is being caged sometimes quite literally, sometimes in chains of dogma and deceit, an important victory. We may recall, in passing, that fear of democracy and freedom has always been one of the factors motivating the terror and sometimes outright aggression undertaken to eliminate rotten apples that might spoil the barrel and viruses that might infect others, in the terminology favored by leading planners -- the main concern, of course, being independence, whatever cast it takes. That helps explain the passion of Washington's terrorist wars in Central America in recent years, or to take a current example, Washington's not-so-tacit support for its trainees and associates in the Haitian military as they did their necessary work, and the restoration of the rule of their backers among the Haitian elite under the guise of democracy, now that the work is done and the Generals can be sent off to the life of luxury, which, they understood correctly, would be their reward for services rendered. Behind the supercilious racist rhetoric about civilizing Aristide and teaching him lessons in democracy lies a real fear that the democratic virus in Haiti might even infect these shores. People here might realize that we have a great deal to learn about democracy from the peasants and slum-dwellers of Haiti, who constructed a vibrant civil society that offered the great beast a chance to take some control over their lives. Their crime brings to mind the call for freedom for all people that was sounded for the first time in Haiti two centuries ago, outraging the civilized opinion of that day. One consequence of the huge propaganda campaigns of the past several decades is the mood of antipolitics reported in feature stories. Concealed from public view is the fact that politics is the shadow cast on society by big business, as John Dewey stated the truism familiar at least since Adam Smith, adding that as long as this is so, the attenuation of the shadow will not change the substance. Reforms are of limited utility. Democracy requires that the source of the shadow be removed, not only because of its domination of the political arena, but because the very institutions of private power undermine democracy and freedom again, an observation familar back to the Founding Fathers. But the source of the shadow has to be driven from the mind. Naturally, this is a leading theme of the literature of the ultraright foundations that are seeking to drive the educational system and media towards an even narrower fringe of the permissible spectrum. At the other extreme, Clinton campaign literature spoke movingly about workers and their firms and how government must help them missing from the picture were bosses, profits, investors, and the like. There are entrepreneurs, nice folk who appear now and then to help the workers and their firms. They then sink into the background along with the unmentionables, who are laboring for the common good, selflessly seeking to provide jobs and decent lives for ordinary people in the civil society in which all participate.7 The fanaticism of the effort to conceal the obvious has reached comic proportions. After the latest APEC summit in Jakarta in November, front-page headlines announced that Clinton Is Stern With Indonesia On Rights but Gleeful on Trade New York Times. The sternness on rights consisted of a few whimpers denounced by Indonesian human rights activists and labor leaders those still out of jail, but the Glee on Trade was real enough. It reflects the successes of the Administration's campaign of commercial diplomacy that will mean jobs for Americans, Times political correspondent Elaine Sciolino reported with admiration. Clinton firmed up 40 billion in joint projects in his campaign for jobs for Americans at least 35 billion, possibly more, was an arrangement between Exxon and the Indonesian state oil company Pertamina to develop an off-shore natural gas field, which could mean new jobs for US businesses that help set up wells and off-shore platforms, the Boston Globe reported. Exxon's Indonesia affiliate and Pertamina are expected to sell the liquified gas almost exclusively in Asia. GE, Hughes, Fluor Daniel, and other major corporations won contracts as well for projects in Indonesia. Another Exxon-Pertamina project is a new plant to supply Indonesia's state-owned electricity company, the London Financial Times added, noting also that U.S. taxpayers are generously helping to fund the projects by credits from the U.S. Export-Import Bank, part of new US Tied-Aid' credit offers. All of this is sure to provide a huge flow of jobs for Americans -- at least lawyers, bankers, executives and managers, maybe a handful of skilled workers for a short period. But profits for U.S. investors? Perish the thought! The good news for U.S. workers caused a sharp increase in Exxon's stock.8 Another victory for efficient propaganda is that people wildly overestimate the percentage of the federal budget that goes to foreign aid and welfare. In fact, over half of discretionary federal spending is devoted to the military, one reason why the United States faces social and structural economic problems of a magnitude unknown to other economically advanced states, Benjamin Schwarz of the RAND corporation notes, including higher rates of infant mortality, illiteracy, malnutrition, and poverty than any other advanced industrialized country. All getting worse, predictably, as the class war of the past decades intensifies in vigor and savagery. A study of the Bread for the World Institute reported a considerable decline in people suffering from hunger throughout the world in the 1980s, with only two exceptions Africa, which registered an increase from 36 to 37, and the United States, where the numbers increased 50 from 1985 to 1990 as conservative reforms took hold, increasing since. The problem is most severe among children, with effects that are permanent it is well-known that development of the brain is strongly influenced by the quality of the nourishment and nurturance given to infants and children, among other effects of adverse environments early in life that can lead to permanent defects in memory and learning medical researchers John Frank and Fraser Mustard. But hunger among the elderly is also surging, the Wall Street Journal reports several million older Americans are going hungry -- and their numbers are growing steadily, despite a federal law in force for 20 years aimed at providing free meals to anyone over 60. Many are literally starving to death while some 5 million, about 16 of the population over 60, are either hungry or malnourished to some degree -- again, phenomena unknown in other developed societies, which lag behind us in the crusade for freedom and justice. The level of malnutrition and real hunger is only increasing, the assistant secretary for aging at the U.S. Department of Health reports. To fully comprehend the meaning of such facts, one must bear in mind the unparalleled advantages of the United States. To select merely one indication, health and life expectancy levels of mid-18th century Americans were not achieved by the upper classes in Britain until the early 20th century -- not to speak of less privileged parts of the world. The social and economic catastrophe of American capitalism is quite an extraordinary phenomenon -- for the great beast, that is.9 Only 30 of the population are aware that military spending is the largest item on the Federal budget, and few of those know its scale or its purpose. Over a quarter think foreign aid is the biggest item. In fact, it is barely detectable. The U.S. has the most miserly record among the developed countries. The record is even worse if we exclude the parts intended to enhance U.S. control over Middle East energy reserves, aid to Israel, Egypt, and Turkey. By far the largest per capita component goes to a rich country, Israel -- artificially rich, because of the completely unparalleled flow of foreign capital including not just aid but also tax-deductible contributions that are used to maintain the sharp divisions between first- and second-class citizens, and despite disclaimers for the joint U.S.-Israel project of incorporating the bulk of the occupied territories within the eventual state of Israel. Eliminate that, and U.S. aid virtually vanishes -- putting aside its character and effects. One-fifth of the population believe welfare to be the largest Federal expense. It is not too surprising, then, that the top priority for voters in 1994 was welfare reform 46. The welfare system is just out of control, voters felt, though it pays to look more closely at actual attitudes. 44 of respondents feel that we are spending too much on welfare and 23 too little, economist Nancy Folbre notes, but when the phrase assistance to the poor is substituted for welfare in the same question, 13 say we are spending too much and 64 too little. A reasonable speculation is that many people have absorbed Reaganite lies about welfare Queens by insinuation, Black driving Cadillacs, and believe that working people are supporting rich welfare recipients -- as they are, but not in the sense they imagine we return to that.10 As already noted, the second-ranking priority for voters was health care reform 37, though the impressive ideological warfare of the past year has left people utterly confused about what the realistic options might be. Public debate was framed within narrow bounds, the Clinton plan being the liberal option, with a few gestures to the radical extremists who thought the U.S. might consider joining the rest of the industrial world. The incomprehensible Clinton plan -- basically, a giveaway to huge insurance companies -- was rejected as just another big government proposal that would place people's fate in the hands of pointy-headed bureaucrats who steal our money by imposing a crushing tax burden a publicly funded insurance program, to the extent it could even be considered, is still more odious in that respect. The option preferred by the privileged is for the fate of everyone else to be in the hands of insurance company executives whose goal, as Milton Friedman can explain, is to ensure maximum profit and market share meaning the worst possible health care elimination of personal choice except for the rich huge bureaucracies to micromanage physicians public subsidy for advertising, profits, and multiple layers of high-paid managers and executives and other massive inefficiencies that drive the U.S. off the spectrum in costs for heath care. The real meaning of the conservative option was illustrated right after the November election at the annual scientific convention of the American Heart Association, where leading specialists reported that insurers are increasingly unwilling to pay for preventive care that would reduce hospitalization rates by 75 Dr. Lynne Stevenson of Boston's Brigham and Women's hospital. In contrast, they are quite willing to pay for heart transplants -- high tech operations that enrich the right people and institutions. One radical extremist thought that rarely reached threshold is that in a civilized society, the costs of health care should be borne by progressive taxation, on the basis of the principle that the poor should be exempted from taxation, which should tax the higher portions of property in geometrical progression as they rise -- as observed by the noted Marxist Thomas Jefferson in a letter to his fellow-subversive James Madison. The United States is, again, off the spectrum on this aspect of human rights and needs, as measured by public share of health-care spending which is as progressive as the tax system. The U.S. is far below any country that has achieved any form of development, even Greece and Portugal it is barely above Turkey.11 2. Really existing conservatism The propaganda victories come into sharper focus when we compare popular perceptions with social and economic realities. Take welfare. It has sharply declined in real terms since 1970, Nancy Folbre observes, a downward spiral that is continuing, with more reductions in Aid to Families with Dependent Children AFDC in 1991 than in any year since 1981. From 1970, maximum AFDC benefits for a family of three with no other income fell over 40, and the national average of AFDC benefits and food stamps combined is now at the level of AFDC alone in 1960 before the food-stamp program was initiated. A still more severe distortion is the unspoken premise that child care is not work it comes free, like women's domestic labor generally -- the main reason why free-enterprise economies have worked relatively well over the decades, economist Sylvia Ann Hewlett comments. Child care therefore contrasts with Real Work speculating in currency markets, devising tax shelters for the rich, arranging mergers and acquisitions that significantly reduce RD and hence economic growth, and other contributions that rank high on the scale of social utility and merit according to standard dogma, which measures it by economic reward to the worker. In particular, single women taking care of children are plainly not working, and therefore must be driven to the official workforce on grounds of economic efficiency not to speak of justice, bipartisan doctrine holds. The assumptions are somewhere between nonsensical and insane, though reasonable enough within the general intellectual culture, with its tacit dedication to class warfare. Even on the narrowest grounds, Folbre observes in the American Economic Association proceedings, public policy literally transfers resources from parents to nonparents by providing social insurance based on participation in paid employment without explicitly valuing time, effort, or money devoted to children, who are, in the longer term, the crucial factor determining economic health even in the highly distorted ideological sense of the technical notion. When real incomes in the middle quintile about 30,000 in 1992 dollars are adjusted for child care costs, they decline slightly through the 1970s, quite sharply from 1980 to the present as conservatism triumphed.12 Responding to the public mood that has been shaped by a propaganda offensive of unusual intensity and fervor, the highest priority for the new Gingrich conservatives is to dismantle the welfare system. They announced at once that they would repeal the Food Stamp Act of 1977, the Child Nutrition Act of 1966, the National School Lunch Act of 1946, the Emergency Food Assistance Act of 1983, and other Federals laws intended to prevent hunger, particularly among children, which has not increased rapidly enough to satisfy the advocates of family values and free market verities. Furthermore, what programs remain are to be transferred to states, so as to bar any response to the typical sharp increase in need for food assistance when there is a recession, as in 1991-2, when food stamp rolls sometimes grew by 300,000 people a month. The plans will lead to a dramatic increase in hunger, Senator Patrick Leahy observed realistically but that's nothing that has ever troubled the more loyal servants of the rich. Also on the legislative agenda -- with the support of the New Democrats -- are work obligations for mothers who do not work, by ideological fiat and reduction of AFDC, the main Federal Welfare program, which reaches 14.3 million people, over 9 million of them young children, who must learn responsibility and internalize our values that there are no human rights, apart from what can be won in the labor market. It would be unfair, however, to regard the leader, Newt Gingrich, as a heartless wretch. He proposes that the money saved from AFDC programs be used to build orphanages or group homes for children of families rendered destitute -- the state being the proper provider for children, not their mothers, under the doctrine of family values. Perhaps the proposal is intended as a special contribution to the 1994 International Year of the Family. Or perhaps it is simply another useful federal subsidy, providing benefits to the construction industry, lawyers, and other people of the right sort.13 The real meaning of free market conservatism is illustrated by a closer look at the most passionate enthusiasts for getting the government off our backs and letting the market reign undisturbed. Take Newt Gingrich, the leader of the victorious congressional army who are taking over under a master plan that relied on huge contributions for Gingrich's GOPAC committee from corporate donors and others whose identity is a carefully-guarded secret. The measures are of dubious legality GOPAC is now being sued by the Federal Elections Commission on grounds that it failed to register and report as a political committee. But legal questions aside, the power play was a calculated political operation, unique on the contemporary American political scene Ellen Miller, director of the nonpartisan Center for Responsive Politics, yet another blow at the despised principles of democracy and the pretensions of the great beast to meddle where it doesn't belong.14 Gingrich represents Cobb County Georgia, which the New York Times -- reasonably enough -- selected in a recent front-page story to illustrate the rising tide of conservatism aimed at ridding us of the nanny state. The headline reads Conservatism Flowering Among the Malls, in this wealthy suburb of Atlanta, one of several that offer -- particularly to whites -- a sense of prosperity and safety, conservative Southern values and a relaxed, friendly way of li</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Stand by me</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Stand by me</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Stand By Me</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>Stand by me - acappella version</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come And the land is dark And the moon is the only light we'll see No I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darling, darling Stand by me, oh stand by me Oh stand, stand by me Stand by me If the sky that we look upon Should tumble and fall All the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darling, darling Stand by me, oh stand by me Oh stand now, stand by me Stand by me So darling, darling Stand by me, oh stand by me Oh stand now, stand by me, stand by me Whenever you're in trouble won't you stand by me Oh stand by me, oh won't you stand now, stand Stand by me</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>Stand By Me (remix)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>Bazzi - Young Alive Megan Thee Stallion - Captain Hook Demi Lovato - I Love Me Katy Perry - Never Worn White Lil Uzi Vert - That Way Jhené Aiko - B.S. feat. H.E.R. Bad Bunny - La Difícil Lauv - Invisible Things Alaina Castillo - ocean waves Dixie Chicks - Gaslighter Trevor Daniel - Past Life Gunna - SKYBOX BROCKHAMPTON - SUGAR Remix LoveLeo - ROSIE Alec Benjamin - The Book of You I HAIM - The Steps Niall Horan - Lover - Recorded at Air Studios, London Mickey Guyton - What Are You Gonna Tell Her? merci, mercy - Fucked Myself Up brakence - fwb Jessie Reyez - ANKLES Rich The Kid - Red Rina Sawayama - XS Shoffy - Tricky feat. Sabrina Carpenter Louis The Child - Every Color with Foster The People AJ Mitchell - Spring Break feat. Rich The Kid Blacc Zacc - Bang feat. DaBaby Lil Skies - Havin My Way feat. Lil Durk Buscabulla - NTE Empress Of - Give Me Another Chance Alesso - One Last Time Steve Aoki - Halfway Dead feat. Global Dan Travis Barker Bad Bunny - La Santa Austin McBroom - Only One Rod Wave - Thief In The Night Healy - Nikes On Christian French - crowded room Mandy Moore - Tryin' My Best, Los Angeles Lauren Alaina - In My Veins X Ambassadors - Belong flora cash - Still Alive Blueface - Holy Moly feat. NLE Choppa 88GLAM - Swim JAHMED - JEEP Ro James - Touchy Feely Absofacto - Lemon Drop Grace VanderWaal - Today and Tomorrow From Disney's Stargirl Phantogram - Dear God The Aces - Daydream Little Dragon - Are You Feeling Sad? Dalex - Perfume Ashnikko - Tantrum NOT - PRESSURE POORSTACY - Darkness Bush - Flowers On A Grave PVRIS - Dead Weight Kito - Alone With You feat. AlunaGeorge Christian Paul - Here Tonight Lola Young - Pick Me Up The Marías - Hold It Together M.O - Going Out Of My Way feat. Mr Eazi Leven Kali - 12345 Get Real Kranium - Money In The Bank feat. Kelvyn Colt Ebenezer - 3am in London RARE Sound - Big Dawg Status Medasin - Everytime Huron John - Andy Hamilton Leithauser - Isabella Overcoats - New Shoes MORGAN - My Year Rexx Life Raj - Rose Bowl NoCap - Stop Spinnin CJ Fly - I TRIED feat. OSHUN Jutes - Where Are You Going Asking Alexandria - Antisocialist Grouplove - Youth Cyn - Drinks - From Promising Young Woman Soundtrack Kodaline - Sometimes Brandy Clark - Pawn Shop Millie Turner - Jungle White Panda - Somebody Loves You VAVO - Day N' Night Carlos Vives - No Te Vayas Xavier Weeks - No Go Johan Lenox - i need a vacation Peach Pit - Black Licorice Caro - the first one John Newman - Stand By Me Lauren Auder - the shepherd</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>Stand by me - single/lp version</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When the night has come and the land is dark And the moon is the only light we see No, I won't be afraid, oh, I won't be afraid Just as long as you stand, stand by me So darling, darling, stand by me, oh, stand by me Oh, stand, stand by me, stand by me If the sky that we look upon should tumble and fall Or the mountain should crumble to the sea I won't cry, I won't cry, no, I won't shed a tear Just as long as you stand, stand by me And darling, darling, stand by me Darling, darling, stand by me Whenever you're in trouble Won't you stand by me, oh, stand by me1</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>Stand By Me (The Road Up North Remix)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>Finny Music Who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out These niggas got plenty Anna but they ain't got plenty guns I'm bustin' out luxury cars, still got these hoes on the run I'm hearin' plenty mean words, but ain't no actions to boot We can do some straight war for war, we can do some stickin' and movin' We can meet in the middle of these streets or in the middle of this ring I can pop your chest, plastic Glock, or pop your jaw diamond rings Bitch don't hate me hate the bank, for stacks of cheese that I take Or hate my shiny wristband, and big ass rims I rotate See people flip when I'm comin', got suckas sick at the stomach They wonderin' what I brought in, they wonderin' what I got comin' Niggas I'm comin' like this, off in your mouth like a bitch Trust me when you think of me, I'm bringing water, I'll start it What's the business? It's that player that you love to hate, always see come out the bank Always have to mention my name, when you high on that drank Catch up with this boy you can't, cause you know I'm holdin' rank When you see the platinum Rolex with the ice it make you faint Through the streets now have you heard, 'bout the Mafia droppin' birds Runnin' from the narcs and cops, tossin' out the bags of herb Ain't afraid to pop the steel, hollow tips to make you feel If you wanna punk me out, Cartier's and a Dracula grill These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out I can't take anymore, I'm 'bout to explode I'm 'bout to overload, I'm 'bout to get it, boy All I wanna know is where the G's at, where the key's at Keep it easy, you don't want to get skeeted All on this motherfuckin' room, nigga, boom Lay down on your back so you can get up soon Stab you in your heart with a har-fuckin-poon Nigga, boom, nigga, boom Scarecrow's on it, I'm still hungry, starvin' for a platinum supper Wipe it easy, some black founded, crooked ass set'll be eating rubber 'Cause if they skit-skat, gun 'em all down, even ghost towns Splish-Splash, brains on the ground, with a cannon round Ball bat, bash him in his back, beatin' bitches down Battleaxe blaze from the cross, body never found Catch a close encounter cause the Anna kills off these rap bums Chemical reaction cobra venom shot into his arm These, these, these bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one of y'all step, the first one I'm a toss out Here we go, all you weak ass hoes In my face like you my friend Triple Six dropped in again, time to make ends Dope game, my game, hoes lame, it's a shame How that Gangsta Boo is runnin' the click up on you bitches man Fat cat, what I be, packin', how you love that Fuck a platinum plaque, gimme money, where the dollars at Blap, blap You're dead in a second for 10 G's Where you from? Black haven is where I be on my P's and Q's Parents please, watch out for your children This the one that'll lock 'em in the basement Some of them talkin' so rugged, some corrupted ugly pussa-pussa Close your fucking mouth, my nigga, Koopsta tryin' to tell ya somethin' Peter-Peter, pussy eater, one of them fucked by Koopsta Knicca Lord, I done some sins, cause she married, but I don't know that nigga Figured he is a killa, so he figures he'll watch us fuckin' Put them muthafuckin' slugs upside that thug, cuz, oh my These, the-these, these, these bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one of y'all step, the first one I'm a toss out For that dick game, wouldn't buy your bitch with my loose change Thirsty niggas eatin' bitches ass with the shit stain Insane like my motherfuckin' wrist game, nigga Houses on the hill cost the same fuckin' thing Counted up a hunnid this mornin' Then I went spent me 50 Then I hit the VLive, tryna buy me some ass and titties Rappers sample my old shit, keep runnin' 'em bags, I'm uh rich Get 'em samples cleared 'cause that publish you might not get some Niggas act like they don't owe me somethin' I'm the reason bitches twerkin' they ass, now show me somethin' Payin' homage is a real nigga move, bitch I paid my dues Sold a million out the trunk, you niggas uber poo Pour that mud up like that butter, first nigga with that pipe in the club Used to have to turn my shit up, had niggas tryna fight in the club Y'all leaving with them, we hit them hoes right in the club And I know I'm icy'd up, pinky just like that dub You gotta like my shit, you a hater or somethin' I'm a grown ass man, you a baby or somethin' Probably fucked yo mama on the come up in the 80's, homie Don't you ever try to play me, homie Got a wife now like Kanye And I wish a bitch would try to bite her like Beyonce My daughter 2 months and she been paid Boutta sign more deals, cop more real estate Me and Pat used to rob for 'em petty things Now it's nothin' less than private jets, 7 figure checks Hater, catch yo fuckin' breathe, you broke, ain't got nothin' left We them niggas in Dubai from the north, don't you ever flex Mafia, runnin' shit, Juicy J ain't never quit Ain't a bitch I never hit, still countin' paper, bitch When the smoke clears, nigga, I'm still here Higher than I been in 20 goddamn years, uh Motherfuckin' legend get your smoke right, dope right Who run it Ain't no conversation for that broke life, show right, Who run it bitch Let me talk my shit real quick Who run it, all the real niggas gon' feel this How that's yo' kid but he ain't got bills? Can't find you in family pics Food stamps, they go so quick when you up in a family of six So it's funny how they sell that shit for a little pack of weed and a new pair of kicks Man, I'm so dead, I can't, inside I feel so blank Little girls on Twitter talkin' 'bout they break up, girl, sit back on Paint If I'm alive, no complaints, none of these judges saints Let the black beat her, that's 10 years, but if white beat her, nice tank It's so ridiculous, ain't shit funny, ain't ticklish Don't test me if I'm with the shits, end up in a cage, no Nicholas Everything about me is interesting, I'ma need more and more Benjamins Damn, I can't breathe, stop smoking them trees, got your insides looking like Christmas Ungrateful hoes, get the fuck out of here, you had a rough day and I had a rough year So when I get money I really do care, go and invest it, not spending on gear Think about that, just stating facts, niggas don't chart when it's real rap Earn my respect then you get it right back, that go hand in hand ain't talkin' dap A lot of issues in my past still hurt me to this day, to the core I don't ever open up 'cause I know people change like the oil Over 100k up on tour, still got a mindset like I'm poor But I'm on the roll when it come to rappin' like a pack of aluminum foil Man, I love walking barefoot, I really like the feel when I'm at the bottom what? 'Cause I know it's only for a couple of seconds, then I'm right back to my stardom that's right Motherfuckers ain't woke, man, I gotta fuck around and re-alarm 'em I'm woke all day, 3 AM, when they call me Jake from State Farm Okay, lil' bitch, act like you know, anything I say is right like nose Walk right over there, hoe, like roach, and it's over for these hoes, no dose Walk in that bitch with a white T, they don't really like me but you know how that goes Walk out that bitch you would think I'm little red riding hood, how I got blood on my clothes These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out All I smoke is loud, you got that mild like Darius yeah My son ain't gotta work because he gon' inherit it, uh huh gon' inherit it We yell, Gang-gang first, you don't even know your heritage bitch Took the cash from verses, I give that shit to charity Lovin' my city like Chano, I swear Why the fuck I still gotta ride everywhere with it? Herb I seen you on the news, I was worried We was just jokin' with y'all, that's a parody We don't talk too much, got D's everywhere everywhere We still fresh, double G's everywhere everywhere I put the VV's everywhere everywhere I do Mike Amiri's, every pair And they know me for shittin' on everybody I'm the one that do shit that you hear about I'm the one that told y'all that I move like Obama Then how the fuck they end up with my whereabouts? Hold on everybody gotta clear it out Middle of summer, hot like a sauna We was laid back in the back of the Honda Told young to sneak up, anaconda It ain't happen, not one day, your honor I was somewhere eatin' Benihana's Get valet and Lil' Benny to park it All my life I had been in apartments Move to Bali, get a brib, Im ballin My bitch always primpin', keep ballin' Yes I'm a lil' workaholic Hit the crib with a 50 and all 20's I'ma just make her count all of 'em But I get the backend all blues Nah don't fuck around, bruh, do all of it Know it's goin' right to lil' dude Already got a closet, all shoes Bought 10 pairs of baby G-Fazos And my bitch got a closet with some Loubs Cashed out on the crib, I ain't get the view I'm like, Fuck it, no problem, it'll do Mama's crib got a pond, not a pool We had roaches and rats, I ain't get to move I survived through it all, it's true yes, it's true Slept on couches and floors all through middle school Now I'm cool, now I'm 'bool Now my car go vroom, vroom Niggas hatin' on me, but it's bool Guess I got rich too soon Nigga, I've been rappin' like six years what? I seen ten niggas get killed What about me turnin' down them deals? Huh Now you pissed off 'cause I switched wheels? Uh, who run it? Limit No Limit run it No Limit man No Limit Who run it? G Herbo I'm done with this shit Who y'all think you foolin'? Not me Y'all niggas really ain't airin' nothin' This bust down, tryna scare us or some' Your shit weak, tryna compare us or somethin' What I made last week? Like a million or somethin' Rich, mad 'cause your bitch ate my kids or somethin' Man, I could fuck your wife like you sharin' or somethin' Galore ass mansion with lira or somethin' Nigga tried to get my ho, tried to fuck my bitch You think I'ma miss that? Man she sucked Meen's dick and she sucked Rock's dick So you think I'ma kiss that? I was in L.A., bitch powdered her nose Told her I ain't with that Boy you trippin', SI diamonds on your neck Mean you better give your wrist back Me no broke, Akademiks, yeah, that's where you get your news at Ask your bros, Grammy-nominated songs just to prove that Know your bros told you, nah, you better not just do that, uh I'm going mode, T.Y., tell me when to go, boy, you ain't rich, you a bitch facts Oh you T'd out? Bitch, you beat out Y'all worried 'bout me, better get your lick back Just like bitches, y'all all chit chat Car so foreign got an engine in the back Balenciaga with the Gucci and the Prada With the Louis and the Pucci and it's all mismatched Ho, it's Lil Uzi and I'm far from a goofy In Chiraq, 150, be strapped Got a 40 shorty, boy, better get back Gun loud, backyard party, kick back How I'm broke If I just hired myself a hitman? Be quiet, bro, them niggas over there'll turn to six rats Not lyin', bro, I been fucked this bitch for six racks After I drop that shit, me, Herbo, Ari and my bitch is gonna relax Prolly somewhere on a beach, prolly somewhere on an island You know that my Rollie got XO diamonds in it, so that's that Perfect Timing Said, Elliot, bezel it, ice kettle chips, I run it back like a Heisman Pull up, I'm swervin', I'm mergin', I got the whip, yeah the one right with the curtains Got boys that be workin' their block to be twerkin', the Tesla pull up for diversion On the beat, me and Herbo, we purgin', the Perky the molly the lean got us slurrin' You call her phone, you think she sleep, but she suckin' my dick while her words keep on slurpin' She said that my shit the same size as a two-liter ginger ale, why she keep burpin' I take out my hair and I stand on my money, your bitch think I'm Julius Erving These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out on God I'm on Percocet's, I think I'm finna skydive yeah You little pussycat, you must think you got nine lives 21 I'm so sick of all this fruity shit, you niggas on thin ice That stick gon' cut you half-time, now these niggas wanna switch sides straight up I ain't really with that takin' shit, lil' nigga, I'm walkin' up straight up That .30 like a tree lil' nigga, watch where you barkin' up straight up We got way too many shots, y'all lil' niggas can't dodge enough on God We can even challenge ya, 'cause y'all lil' niggas ain't charged enough fast Quarter million dollar for a walkthrough straight up Get the utmost respect when I walk through straight up I love the way you suck that dick, lil' bitch, don't forget who taught you straight up Way too much, can't stalk you straight up Bogeyman, nigga, I'll haunt you on God All these bullets 'round me, nigga, I ain't got time to punch you 21 Hit 'em wit' the 3-2, all y'all niggas see through yeah Broad day, I'll see food, had to hit a lick at Kiku yeah-yeah Lil' bitch I don't need you yeah-yeah Hell Nah, I can't eat you yeah-yeah Let the whole gang G you, then I left that bitch at Jeju yeah-yeah You must be scared or some, nigga, let's bet the spread or some 21 That's your main bitch, but I bet that lil' bitch spread for some on God I got all these blues like I ain't bangin' red or somethin' trre I bought all these cars like l ain't got no legs or somethin' yeah Fuck that other side, pull up in ya hood switch it 21 Sex, money, murder, two guns, nigga, big B's 21 Every time I hit that bitch she come back like a frisbee yeah I ain't got time to play with nobody kids, go watch Disney yeah Skin made of concrete, nigga, you can never be me 21 My brother down the road with a touchscreen and a FeFe BF Candlelight gang, leave a nigga on the TV 21 Fish fry gang, y'all can't even afford to die Bitch, I'm way too real, I can't even afford to lie Make a bitch wanna stare or something Niggas stare, you queer or somethin'? You's a bitch, yeah we stay done Chose a whip but I'm staying sunny Diamonds sunny like I'm Cher or something Smiley faces with the glasses Fashion brands invite you to Paris Boy you late that's a demerit, dang it Get fucking maggot brain having Rappers claiming the trap and the fashion They only got Louis and the trap I'm causing the flood and the traffic The way that you be moving is whack All of them rumors is facts They've been in clap for the clap back Your baby mama a nag nag Nag nag nag nag nag nag... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Lil' nigga let them llamas fly, leave a young nigga so traumatized Totin' gats jit, all my niggas ride Don't make me make another mama cry Do a drill, catch another homicide Fix your face, nigga, you got butterflies? Chopper at your throat and you afraid to die Big 14, fuck the other side Jugg, jugg, got all this jewelry Man, this shit ain't new to me Your bitch new to you, she ain't new to me I ain't really with the fucking foolery Glistenin' in these fucking diamonds Bad bitch and I'm fucking shining I got a bad bitch from the fucking islands Taking trips to the fucking islands Guess these guys don't realize When they talking fly, man, it's suicide Don't talk, do a nigga do or die Nobody else, nigga, you and I Big chopper, I'ma let the bullets fly That red dot right between your eyes I don't play, pussy, wish a nigga try 'Cause that'd be the night niggas die Niggas act like I ain't G.O.A.T. or somethin' Take a trip, go chill with the bros or somethin' Call a few bitches, chill with some hoes or somethin' Niggas be flexin', they bold or somethin' They don't want that war, go home or somethin' Internet flexin' with the phone or somethin' You a lil' pup, nigga, fetch a bone or somethin' Niggas male strippers when them poles bummin' Gang uh, gang uh, huh, gang uh 1400 gang yuh, 800 gang yuh 1400 gang yuh, 800 gang yuh Lil' nigga talkin' down, we gon' snatch his chain yuh, yuh, yuh, yuh, yuh Hold on Lil Boat Ayy, who you think you ahead of? Not us uh And these niggas they mad 'cause I'm richer than them Stay ganged up, I ain't clickin' with them You can get shot, Terry Richardson them Nigga, I ball like the Pistons and them uh Fuck around, you come up missin' like them yeah You the type run to the sheriff ha Act like you hard and you careless yeah Nigga, I'm a real ass nigga, ain't fake a nigga Free my big brother out the prison cell woo QC and P told 'em, Give 'em hell Ridin' 'round in a Maybach with my nigga Pellz Glock out, running we empty 12 Bitch on my dick, that's a love spell yeah Bitch with the shits, call her Annabelle yeah If they won't call, I don't gotta yell yeah Hundreds so crisp like a pack of kettles Fuckin' her jewels with my nigga Jack Crotched up, all of my brothers sack yep Gotta run up them Ricky Racks yep In the safe in the real, we got hella plaques yep Got more plaques on my wall than your brother teeth facts Boy, you young, where your Similac? Buyin' whips, yeah, we into that yep Fuckin' hoes, yeah, we into that yep Loving hoes, yeah, no nigga Got a .223 inside the Hellcat doot-doot Keep it all in the pack, huh Hundred niggas in your section Hmm, where the hoes? Nigga, that's weird pussy, pussy Cop a new Lamb, cop a new 'Rari Just to go and switch gears skrt Burn out, burn out Every time we turn out, make a big scene yeah 2K, 3K, 4K, 5K, spent it on my new jeans skrt skrt skrt Gave big bro twenty-seven racks for his birthday, the world made a scene facts Y'all don't even know how a nigga live Spend twenty racks like two bands facts Uh, came with the sticks like they hunting nigga Throwing gang signs, call it taunting nigga Can't nobody at QC get punked, nigga What is a one-on-one, nigga? We jumpin' niggas We got the strap, nigga, fuck it, we stompin' niggas I'm just as rich as your favorite rapper, nigga, might be richer yeah Hit the pent like I'm Derek Fisher Fuck the bitch right, then I kiss her Ride around town, you the one who licked her ew Ha, real player like my pops pops Thirty round in my Glock doot-doot-doot We run it, not opps ha Ten toes on my sole, niggas wouldn't double dare to cross the big Boat yeah Last year These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Twenty racks in the back of jeans Tatted sleeves, Patek freeze Pretty nigga, that indeed Thottie with me, black and cream African, Japanese I just call her blackanese I'm just gonna tap that and leave I don't leave the house unless I got a bag waitin' for me at the front door If you short on my cash, thirty niggas hoppin' out a Uber truck So don't try your luck, hoes down to fuck Top floor of the hotel Smokin' weed in the bathroom, put the shower on so it's no smell Street cold, don't tell But I'd rather live where it's no hell It's funny how hatin' niggas be the ones who names ring no bells Oh well, my bitch bad And her pussy got a soap smell She a model, nah she a model She a little bougie And I'm just tryna put this big wet tongue on top of that coochie Earlier she a little mad at me, she a little moody Sometimes I don't understand the bitch, she a little confusing Like half the time I don't be even doin' shit, and she be assuming Like I ain't loyal or somethin' You act like I don't call you or somethin' You act like you a little spoiled or somethin' Is you hot like you boiling somethin'? So all you rappers it's a rap for you like aluminum foil or somethin' Better crown her, came from the ground up, from the soil or somethin' Been 'bout it, every nigga with me poppin' like oil or somethin' I was slackin', had to get on track like I'm recordin' or somethin' I hear a lot of talk, but honestly they ain't really talkin' 'bout nothin' And nowadays I don't trust a thing, so I ain't really sure about nothin' I just fucked your bitch in Givenchy flip flops And yeah we spendin' money, but we also spin blocks Bend blocks, shout out my nigga Jezz, big opps They ain't open up them doors, I had to pick locks Free Bobby, free Rowdy, free the whole 9 Got lit on my own nigga, didn't need a cosign It's Red Lyfe, no red lights, green lights go time But before you get on the road, nigga make sure you know your road signs He asked did I fuck his bitch, I said uh yeah nigga, four times My sex drive longer than my show lines, make her cum in no time RL that's the bro sign, can't come in, we got closed sign Can't hang here, this is not a clothesline Fuck around and get clotheslined No ghostwriter, I wrote mine Wrote the whole rap and the whole rhyme They like MA, where the album at? I just need a lil' more time I got guns, but if I ain't usin' it, no need to show mine Don't mean I won't blow, ma Bitch nigga, you could blow, ma In the club I drink out the bottle, ain't no need to even pour mine Stripper bitches don't like me 'cause I get money and don't throw mine Y'all niggas can't fuck with me, ain't gotta say it, you already know why If I had a dick, you could suck it If I had nuts, you could hold mine I said, if I had some nuts, you could hold mine Haha If I had some nuts, you could hold mine Fuck y'all niggas Ooh, ooh, ooh Ooh, ooh These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Ayy When I look around, don't see nobody in my lane See these rappers need the clout, that's why they always say my name I'm only gettin' better, bitter bitch it ain't gon' change Why you tryna hang around me, bitch, get off 'cause you ain't gang You ain't gang, treat you like a stain All my biz is straight, I'd still be good without the fame I got so many cousins, aunts, uncles that I never knew On me for my revenue, I'm big now like I'm 7'2 New whip and my leather smooth, try me, I'ma play it cool Windows down, AC blowin', 20 below, I'm extra cool You lookin' fed up 'cause of my bread up, I keep my head to the sky Run up, and I'm back to where I'm droppin' the fire Who want it? Tell me, bitches, who blunted? You ain't know my crew run it? All we see is blue hundreds On my dash, 200, these bitches sad and can't run it Ho I'm a star, you wanna walkthrough you better tell me who fundin' These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Ay bitch, this a brand new chain Put her in Vera Wang She got a crazy top I let her go insane G-shit in my veins Limited seats on my plane Get to the country they know my name I could pay for anything I'm ordering Whether it's bitches, California weed, fourth down Got 20 inches I'm rolling up hella green by the pound You wanna pinch this Wondering what the stench is Always played my position We balling cause we the realest ... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Just make sure to always stay true to who you are, and I did that Jeans black with a pink hat Sorry, I don't wanna come to ya kickback Oh no, so cold like Frozone 9-2-0, what I rep, that's home Big racks, big facts, no foolery Got 'em like God damn, man, who is he? It's me, ya boy Roy so crispy Really had to go and hit 'em with the quick speed Too fast, look left, look right You ain't gon' see nothin' like me in sight Hit my dance real quick, ouu, I just might Wanna sleep on me? Okay, good night I'm gone, new song comin' soon Ya boy Roy really been up in the stu' It's nothin' new, yeah, this what I do Been makin' music way before all the views Whi-white T with the white vans Oh man, god damn, I'm fresh Kickin', laid back, life's good, no stress I don't gotta flex, you know I'm up next Sike, bitch, I'm up now I'm holdin' it down I'm feelin' great I cannot frown Who Run It remix Just something light Had to snap real quick, now I'm droppin' the mic Okay Ayy, ayy, gang Y'all know how the fuck I'm rockin' man I'm hearin' a whole lot of talk about who run this shit I be countin' stacks Who run Ohio, that's me Which one of y'all hotter than me? Leave the beat like a hundred degrees And it's still all this ice on me Who getting plays like me? Who getting paid like me? Y'all was not made like me And I put that on my G's Remember they hated on me I knew all I needed was cheese Ran it up and I blew it on jeans Had to run it back up times three None of y'all wanna be like me Run around with them pipes like me Fresh pair of Off-Whites on my feet Gold chain on a Polo white tee In a trap with a whole lot of P's Smoking dope 'til we Vietnamese I threw bro lil thirty He threw like fifty to me All of these rappers is broke That shit be sickening to me You blew the whole bag on the road You look like a victim to me I just pulled up in a foreign And you got a Honda on E All black tints on all my whips 'Cause I know they're looking for me Just know wherever I go It's a glizzy with me right up under the seat I give a fuck what you claiming you is You can get touched with the heat I remember being irrelevant Now I get bands for all of my feats Remember totin' tourists Now we got AR's that's chopping down trees It's a fifty on bro and a thirty on me You don't really really want the beef You can talk that shit on the internet Run up, get done up, get wrapped up in sheets They was talking crazy last night 'Til a hundred shots hit they block I don't even know who got hit with that shit But we smoking all opps Everywhere I go I'm with the gang It's at least three or four of them Glocks If you speaking on who run it, ain't say my name, you smoking on rocks I'm in the street like fuck 12, bitch I'm off the Henny You can find me with the gang 'cause I don't fuck with many Them my brothers, if I'm busting they gon' dump it with me They know I'm a threat and that's the reason they ain't fucking with me, gang These bitches ain't run, shit but they mouths These niggas ain't run, shit but they mouths These bitches ain't run, shit but they mouths These niggas ain't run, shit but they mouths These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Put a nigga in a moutherfucking dropbox Sleepin on rap niggas like its hopscotch Got yo bitch bowin' down like its crockpot Niggas goin down fast like stop drop Run Shit No pass, I can't drop Niggas switch in my lane but I can't stop Trash talk on your bitch like a raindrop Then drop her ass off at the train stop I'm rappin this shit, it get vital These rappers be working with writers Pop a pill on the plane, i'm blind I ride like fast furious Neva text that bitch cause she curious These niggas act like they ain't hearin us Imma make these niggas look up to us These rappers signed up for a couple bucks Neva trust them when its one to trust I stay fast, talking racks Blew a stack on her back Then I left it where it's at Dressed in black Never rat Neva argue neva slack Watch yo back and that's facts Bitch we only fuck a track And i'm straight from the south Use to mob up on How you axe what i'm bout When you ain't got shit or clout? Pussy nigga what you bout'? All I know, it ain't shit Better watch yo fuckin mouth I can end it in this bitch Pullin up on a nigga Get mysterious in dis bitch Fuck that bitch All that shit, she got the in that bitch Ion give a fuck bout shit Imma motherfuckin piper Like its UFC bitch Imma mothafuckin striker They say I'm bougie and cocky I say I'm just getting started Threw a bag at my baby mama here you go, go shopping Every other day I'm waking up to new money Gettin deposits in From negative to positive Dollar boy just landed In the city of angels ... Point me out to who run it Fuckin' man or a woman I kick they ass in the stomach until they vomit from it Nigga I'm sick I'm bubonic and you and that bitch is platonic Stab your ass in the stomach and clean the mess up with Comet Fuck all that extra shit I'm in the bed with a naked bitch and her head just twist like damn exorcist What ya tryna posses me with The way she suck my dick was an accident cause I ain't even have to ask the bitch Nigga I'm stingy as hell I'm face my hoes nigga I don't even pass the bitch And I shit on niggas on accident like I ate some laxatives Try to impress me with that bullshit turn him to an acronym Nigga its Prick Harper I'm a shit starter And all that bullshit you talkin' make my dick harder I treat a rapper like his father I don't text him I don't call him I don't bother Nigga I let the Glock solve problems These rappers ain't runnin' shit but ya bitch Who, where</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>Street Tough</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>Living on the city street tough Living on the city street tough Living on the city street tough When you're street tough You came down the ups and downs of life turnin' you round You got to keep on moving on Places you know, people you see thats where you find The answers to survive, learning things as you go And now you're traveling down the path Of life where only fools dare to go And even though you're losing You know you just can't let it show When you're street tough You got to learn to be strong When you're street tough You got to take care of your own Street tough Win or lose live or die Street tough When you're street tough And through the years you hold your tears You have to face, you got to to survive Doing the things you got to do, you know you're better If you want to stay alive stay alive You're traveling down the path Of life where only fools dare to go And even though you're losing You know you just can't let it show When you're street tough You got to try for yourself When you're street tough You got to fight like hell to get somewhere Street tough There's nobody out there who really cares Street tough Lord, when you're street tough Living on the city street tough And now you're traveling down the path Of life where only fools dare to go And even though you lose sometimes You just can't let it show When you're street tough Living on the city street tough Living on the city street tough Living on the city street tough Round and round the chances go Where you'll stop nobody knows When you're street tough Lord, when you're street tough Whats right for you is wrong for them Don't wanna hurt nobody but you got to make it for yourself When you're street tough Living on the city street tough</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>Sway</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>When marimba rhythms start to play Dance with me, oh, make me sway Like a lazy ocean hugs the shore Hold me close, sway me more Like the flowers bending in the breeze Bend with me, sway with ease When we dance you have a way with me Stay with me, oh, sway with me Other dancers may be on the floor Dear, but my eyes can see only you Only you have that magic technique When we sway I go weak I can hear the sounds of violins Long before it begins Make me thrill as only you know how Sway me smooth, come on and sway me now Other dancers may be on the floor Dear, but my eyes can see only you Only you have that magic technique When I sway, I go weak I can hear the sounds of violins Long before it begins Make the rhythm as only you know how Sway me smooth, come on and sway me now Make the rhythm as you know how Sway me smooth, come on and sway me now</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>Sweet and Gentle</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>I was sweet and gentle Ah, kind of sentimental No one will deny it I was once so quiet And then one magic night, I learned to do the cha cha And now I'll never be the same For I have turned into a dancing Cucaracha And my muchacha is the same Oh, how can I be gentle Sweet and sentimental While the cha cha's playing And my heart is swaying I find that I am even dancing when I'm walking I'm haunted by that cha cha beat I hear the rhythm start whenever we are walking I do the cha cha in my sleep I find that I am even dancing when I'm walking I'm haunted by that cha cha beat I hear the rhythm start whenever we are walking I do the cha cha in my sleep I do the cha cha in my sleep I do the cha cha in my sleep Cha, cha, cha</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>Tears, Tears, Tears</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>Yeah Let them know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese Let them know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Woah way too tipsy, baby Yeah, yeah, yeah, yeah, yeah, yeah, yeah No sleep, I'm in my zone Whole team on 10, yeah We outside while you stay home So I come back with the city I know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese Me, me, me, me Repeat, repeat, repeat, repeat Wanna meet, meet, meet, meet These tears, tears, tears</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>That’s When It Hurts</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>Today we're here to talk about, what is luxury? Michaelwarren I just spent a bag 'cause I'm sick of feelin' sad When I pop this pill, I hope I forget who I am It's because every time you talk to me I wanna go back It's because I just keep fucking up, can't go through this again I just keep telling myself that nothing of this is real I just keep telling myself that someone cares about how I feel And I struggle a lot, feel like I'm not enough I don't wanna give up, but I keep nodding off And I struggle a lot, feel like im not enough I dont wanna give up but I keep nodding off Do me dirty like my Prada's I'm breathing in the stardust I don't wanna feel like this That's why I keep spending dollars That's why I keep spending Benji's And maybe it's not healthy Falling back into bad habit's I cannot undo the damage And even if it's over I hope you won't forget me I just want you to know that I keep you in my memories Don't like it when I'm sober Because that's when it hurts the most I think this is going nowhere I wish we would still be close I wish we would still be close Michaelwarren I just spent a bag 'cause I'm sick of feelin' sad When I pop this pill, I hope I forget who I am It's because every time you talk to me I wanna go back It's because I just keep fucking up, can't go through this again I just keep telling myself that nothing of this is real I just keep telling myself that someone cares about how I feel And I struggle a lot, feel like I'm not enough I don't wanna give up, but I keep nodding off</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Stand By Me</t>
+          <t>The Hermit Of Misty Mountain</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No, I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darlin', darlin', stand by me Oh, stand by me Oh, stand Stand by me, stand by me If the sky that we look upon Should tumble and fall Or the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darlin', darlin', stand by me Oh, stand by me Woah, stand now Stand by me, stand by me Darlin', darlin', stand by me Oh, stand by me Oh, stand now Stand by me, stand by me Whenever you're in trouble, won't you stand by me? Oh, stand by me Woah, just stand now Oh, stand, stand by me88</t>
+          <t>I went to a Hermit of Misty Mountain who lives in a cave above And I asked this wise old man Oh, Mr Hermit, what is a love...? He said, Love is a boat that sails to heaven on a river that has no end... Its a magic carpet to the Valley of Dreams... thats a love my friend... So I asked this Hermit of a Misty Mountain who lives where the cold winds blow If I find this thing called love... oh, Mr Hermit, how will I know...? He said, Youll see the Sun when it isnt shining and the stars when they dont glow... And youll hear songs when there aint no singing... Thats a-how youll know... So I said to a Hermit of Misty Mountain before these things are thru When I find this thing called love,.. oh, Mr Hermit, what do I do? He said, Treasure this love much more than gold and care for it tenderly... Or youll be a Hermit on a Misty Mountain A fool like me A fool like me Aaaw, youll be a fool like me A fool like me...1</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Stand by me - acappella version</t>
+          <t>There Goes My Baby</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>When the night has come And the land is dark And the moon is the only light we'll see No I won't be afraid Oh, I won't be afraid Just as long as you stand, stand by me So darling, darling Stand by me, oh stand by me Oh stand, stand by me Stand by me If the sky that we look upon Should tumble and fall All the mountains should crumble to the sea I won't cry, I won't cry No, I won't shed a tear Just as long as you stand, stand by me And darling, darling Stand by me, oh stand by me Oh stand now, stand by me Stand by me So darling, darling Stand by me, oh stand by me Oh stand now, stand by me, stand by me Whenever you're in trouble won't you stand by me Oh stand by me, oh won't you stand now, stand Stand by me</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Stand By Me (Acoustic Live)</t>
+          <t>There Goes My Baby</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>31 Drake - Chicago Freestyle ft. Giveon Drake - When to Say When Lil Uzi Vert - That Way Loreen - Fiction Feels Good 32 EPTHEMARS - Benz Truck ft. SwaVay JAHMED - JEEP Lilmar - Sad and Sober NoCap - Stop Spinnin' Rina Sawayama - XS The Lemon Twigs - The One YoungBoy Never Broke Again - Ten Talk 33 Cub Sport - Confessions Dan Bull - Tinker, Tailor, Soldier 76 Eleni Foureira - Yayo Empress Of - Give Me Another Chance Four Tet - 4T Recordings Giraffage - Workout Grouplove - Youth HAIM - The Steps Macy Kate - L.O.V.E. Orchards - Magical Thinking RARE Sound - Big Dawg Status REASON - Trapped In ft. Ab-Soul Boogie Silverstein - Madness ft. Princess Nokia 34 Aquilo - Sober AURORA - Into the Unknown Dermot Kennedy - Resolution Dixie Chicks - Gaslighter Dwn2earth - Ice on Me Ego Ella May - How Long 'Til We're Home Fickle Friends - Eats Me Up Greentea Peng - Ghost Town Hazel English - Combat Jeangu Macrooy - Grow Lil Skies - Havin' My Way ft. Lil Durk Little Dragon - Are You Feeling Sad? ft. Kali Uchis Louis the Child Foster the People - Every Color pronoun - Song Number 1.5 PVRIS - Dead Weight Róisín Murphy - Murphy's Law SLANDER Said the Sky - Potions Acoustic ft. JT Roach The Aces - Daydream TOPS - Colder Closer Nurko - Faith ft. Dia Frampton 35 88GLAM - Swim Aitch AJ Tracey - Rain ft. Tay Keith Alec Benjamin - These Two Windows Austra - Anywayz Bazzi - Young Alive Biffy Clyro - End Of Bree Runway - APESHIT Chet Porter - Bummed ft. Alison Wonderland DABEATFREAKZ - Self-Obsessed ft. Deno Driz, Krept Konan D-Block Europe Katy Perry - Never Worn White Lil Toe - No Opptions Lola Young - Pick Me Up Morgan - My Year Runway - Fire ft. DJ Snake French Montana 36 4B - Lucid ft. Abraham Mateo Austin Mahone 42 Dugg - Palm Angels In the Sky Abraxis Crystal Skies - Night Rider AJ Mitchell - Spring Break ft. Rich The Kid Alan Walker K-391 - End of Time ft. Ahrix Alesso Dubvision - One Last Time Ashnikko - Tantrum Based Savage - Glitter ft. GNAR Beatrich - Flashback Bianca - Woman BJ the Chicago Kid - The People Blueface - Holy Moly ft. NLE Choppa BROCKHAMPTON - SUGAR Remix ft. Dua Lipa C-Dubb - My Wayz ft. 2 Chainz CG5 - To the Dungeons ft. NateWantsToBattle Cobi - Keep Climbing cupcakKe - Lawd Jesus Cyn - DRINKS David Guetta MORTEN - Detroit 3AM Demi Lovato - I Love Me Deniro Farrar - Ubiquitous ft. Erick Lottary Desiigner - Diva DJ Chose - Might Not ft. Fredo Bang Elderbrook - Numb FUTURISTIC - Motion Grace VanderWaal - Today and Tomorrow Gunna - SKYBOX Hinds - Come Back and Love Me 3 Hogland KIDDO - Without Wings John Newman - Stand By Me Kiesza - All of the Feelings Kito - Alone With You ft. AlunaGeorge Kodaline - Sometimes Kranium - Money in the Bank Remix ft. Kelvyn Colt Leven Kali - 12345 Get Real Lil Dude Goonew - HOMICIDEDOUBLEBACK Lil Esco 28 RobThePlayboy - Corona Lil Zay Osama - BMW Lil Zay Osama - Soul Cry LoveLeo - ROSIE M.O - Going Out Of My Way ft. Mr Eazi Matt Fax - Light On Mia Vaile - Chasing California Millie Turner - Jungle Niall Horan - No Judgement Acoustic Peach Pit - Black Licorice Peg Parnevik - Bad Bitch POORSTACY - DARKNESS Project Youngin - Permanent Scars Ramriddlz - Helluva Rich The Kid - Red Ro James - Touchy Feely Selena Gomez - Rare Live from the Village Studio Shoffy - Tricky ft. Sabrina Carpenter Smurf G - Go Get It ft. Fredd G OMB Peezy Sondr VIZE - Kids ft. Lilly Ahlberg Stan Walker - I Dont Want the Fame Steve Aoki - Halfway Dead ft. Global Dan Travis Barker Trevor Daniel - Past Life Unlike Pluto - Life in a Hole WHIPPED CREAM Jasiah - DUMB SH!T Wiley - Wearing My Rolex Remix ft. Hypo 37 JT Music - Rest in Ink ft. Andrea Storm Kaden Now United - Come Together 38 Rockit Gaming - Darkest Nights 39 Dan Bull - Zarya Codes Egzod - Face the Facts Grouplove - Inside Out Lil Darkie - SATAN LIVES IN HOLLYWOOD Lil Yachty DaBaby - Oprah's Bank Account ft. Drake Monique Lawz - Worth It ft. Wiley SoMo - Sinkin Down Who-ya Extended - Synthetic Sympathy Wiz Khalifa - Bammer ft. Mustard Yves Tumor - Kerosene! ft. Diana Gordon 310 Alina Baraz - Morocco ft. 6LACK Anderson .Paak Justin Timberlake - Dont Slack Anna Burch - Tell Me Whats True Dream Wife - Sports! Duke Dumont - Love Song Far Caspian - Today Fenne Lily - Hypochondriac John Gabbana - About To Be Rich John-Robert - Urs KaiyaA - Negus Poem 1 2 Mozzy - Tunnel Vision Porter Robinson - something comforting RDGLDGRN - Danger ft. Alexandra Stan Nitty Scott Sharon Van Etten - Staring at a Mountain Suigeneris - Scrubs ft. Yung Pinch Xanman - Pain In Me Yaeji - Waking Up Down YoungBoy Never Broke Again - DROPEM 311 Cadet - Support Me Circa Waves - Battered Bruised Dan Bull - Super Smash Bros Confession ft. DAGames Felly - Something Restless Flume - The Difference ft. Toro y Moi JFDR - Think Too Fast Kacy Hill - I Believe In You ft. Francis and the Lights Kayzo JUMEX - Breakable Margo Price - Twinkle Twinkle Maya B - Sink ft. SAINt JHN mxmtoon - quiet motions p4rkr - sum1 tht i knew RAC - Stuck on You ft. Phil Good Sean Paul Tove Lo - Calling on Me NY Performance Tom Misch Yussef Dayes - Lift Off ft. Rocco Palladino Westerman - Think Ill Stay ZenAware - Falling 312 Ava Max - Kings Queens Bandingo YGNE - Baby Powder 2 Deb Never Kenny Beats - Stone Cold girlpool - Like Im Winning It Joyner Lucas - Lotto Kevin Gates Charlie Sloth - Fire In The Booth KEY! - Sugar Rice Lil Boom - Fuck Rudy Gobert Luh Kel - Wrong Remix ft. Lil Tjay Mei River - Her STRFKR - Deep Dream The Killers - Caution Tones and I - Bad Child Tones and I - Cant Be Happy All the Time 313 24hrs DJ Drama - Selfies 8 Graves - Better Off Dead A.CHAL - Pink Dust Ace Hood - Confident B La B - WHO I BE B. Lou - No Trust bbno Lentra - mememe BENNY THE BUTCHER - Did I Black Atlass - By My Side ft. SONIA Ceraadi - Secure the Bag CG5 - Happy Accidents Col3trane - Good News Cuban Doll - Cut the Check ft. Sukihana D Savage - MIA Dance Gavin Dance - Strawberrys Wake DaniLeigh - Levi High ft. DaBaby Dinah Jane - Lottery Ellie Goulding - Worry About Me ft. blackbear Emilie Nicolas - Whos Gonna Love You Far Out Karra - Constellation Felix Cartal Sophie Simmons - Mine Felix Jaehn - SICKO ft. FAANGS GASHI Fivio Foreign - Big Drip Remix ft. Lil Baby Quavo FLETCHER - Forever FUTURISTIC - Champion Gatlin - I Think About You All The Time Gia Woods EGO Global Dan Global Chi - F.T.B. Guapdad 4000 - Greedy Hayley Williams - Simmer Caroline Polachek Remix Helynt - Animal Crossing Jackboy - Murda ft. Casanova Jazz Cartier - Itchin' for a Lick JoJo - Man Jonas Blue Paloma Faith - Mistakes Club Mix Kehlani - Toxic Kiana Ledé - Forfeit ft. Lucky Daye Kierra Luv - Good Day ft. Ray Moon Kota Banks - Italiana Laura Goldthorp - Movie Rain Lennon Stella - Jealous LIL MAYO - I Do What I Want When I Want To Lil Tecca - All Star ft. Lil Tjay Lil West Brevin Kim - Bleach Little Big - UNO Love Regenerator Calvin Harris - Give Me Strength Love Regenerator Calvin Harris - Peace Love Happiness M-22 - Cant Stop Loving You Machine Gun Kelly - Bullets with Names ft. Lil Duke, RJmrLA Young Thug MIMI - Home ft. Mwuana MOTHERMARY - Catch Fire Norah Jones - Im Alive Octavian Skepta - Papi Chulo OneRepublic - Didn't I Pip Millett - June R3HAB Elena Temnikova - Where You Wanna Be Ria Mae - For Your Love Rita Ora - How to Be Lonely Rufus Wainwright - Peaceful Afternoon Saint Motel - A Good Song Never Dies Soko - Are You a Magician? Teyana Taylor - We Got Love ft. Lauryn Hill THEY. - Red Light Green Light Tyga Megan Thee Stallion - FREAK YNW Melly - Suicidal Remix ft. Juice WRLD Yung Booke - Pissed Off ft. Box Head Lil Baby Yung Pinch - 21 Xanman - Different 314 Shontelle - Remember Me Smino - TEMPO 315 Groundbreaking - music to feel alone to Rockit Gaming - Just Too Late ft. Lindsay Joan 316 Dan Bull - Half-Life 2 Låpsley - Speaking of the End Masego - Kings Rant Perfume Genius - On the Floor Shura - elevator girl ft. Ivy Sole Smokepurpp - Excuse Me Tinie Tempah - Top Winners ft. Not3s Waxahatchee - Can't Do Much wifisfuneral - ColdAsIce 317 All Time Low - Getaway Green BABii - SNAKE Early Eyes - Marigolds Pretenders - The Buzz Rico Nasty - Lightning Thundercat - Fair Chance ft. Lil B Ty Dolla ign Vistas - 15 Years 318 Alexander 23 - Loving You Gets Hard Conan Gray - Wish You Were Sober Dua Lipa - Physical Remix ft. Hwa Sa Giraffage - Basketball JG - OUTSIDE ft. Byrus West Kai Wachi Dylan Matthew - Run Maya Hawke - By Myself Nothing But Thieves - Is Everybody Going Crazy? Purity Ring - peacefall Purity Ring - pink lightning Rod Wave - Pray 4 Love Sevdaliza - Lamp Lady The Avalanches - Running Red Lights ft. Pink Siifu Rivers Cuomo Unlike Pluto - 8 Legged Dreams 319 Cat Pierce - The Beginning of the End Childish Major - Wife You Dan Bull - Doom Doom Doom Doom Doom Doom Doom Doom Doom Doom Doom Doom Doom Danity Kane - New Kings dvsn - Between Us ft. Snoh Aalegra Hayley Williams - RosesLotusVioletIris Holly Humberstone - Falling Asleep at the Wheel Isaac Dunbar - scortons creek JPEGMAFIA - Covered In Money! Kevin Gates - Always Be Gangsta Freestyle KEY! - Lets Go Love Fame Tragedy - Multiply ft. Jack River Manny Norté, 6LACK, Rema Tion Wayne - 4AM ft. Love Renaissance LVRN Mavi Phoenix - 12 Inches Lucki - Role Play Melanie C - Who I Am OR3O - Gentleman Georges Theme Pabllo Vittar - Tímida ft. Thalía Random Encounters - Goose on Holiday RHODES - This Shouldn't Work RIMON - The Morning Terror Jr - Fun The Shadowboxers - How Many Ways YBN Nahmir - 2 Seater ft. G-Eazy Offset 320 Aaron Carpenter - You ADE - Dont Cry ft. Trevor Jackson Almondmilkhunni - Cherry ft. lil aaron Arlissa - Healing Azealia Banks - Slow Hands B La B - SHARP SCISSORS ft. Mag1k The Notorious Gooxh Bryce Vine - Baby Girl Remix ft. Jeremih Buju Banton - Trust Remix ft. Tory Lanez Casper the Ghost Yaeger - Peace n War Cavetown - I Miss My Mum CG5 - Stay at Home Chloe Lilac - Obvious Comethazine - NO FRONT Dinah Jane - 1501 Don Diablo - Bad ft. Zak Abel Ea Kaya - Kitchen Table Eyelar - Couple Hours Grace Davies - Addicted to Blue Guapdad 4000 - Platinum Falcon Hot Chelle Rae - Tomorrow Me HoodCelebrityy - Run Di Road Isak Danielson - Domino Jada - Nudes John Legend - Actions Josef Salvat - paper moons Justin Rarri - RICCHEZZA K CAMP - Black Men Don't Cheat ft. Ari Lennox, 6LACK Tink Kaiba Chief Keef - Overdose Kap G - No Heart ft. Lil Keed Koethe - Whiteout Lafawndah - Deep See Lauren Jauregui Tainy - Lento Last Hereos - Underneath The Waves ft. Monika Santucci Lecrae - Set Me Free ft. YK Osiris Like Saturn - You Were Gone lil ricefield - Symphony Lil Tracy Marvy Ayy - bonjour! LilCockPump - Twitch Lilly Ahlberg - Hurting Lisa Cimorelli - Lose My Mind Lukas Graham - Scars Mabes - Keeping the Noise Down Matisse Sadko - Strings Again MGMT - As You Move Through the World Nebu Kiniza - Can't Deny ft. Lil Tecca Noah Cyrus - I Got So High That I Saw Jesus Oh Land - I Miss One Week Ago Passenger - The Way That I Love You PHresher - Point Em Out ft. A Boogie Wit da Hoodie Pouya Danny Towers - Florida's Finest Quin NFN - All Blues Rebecca Fiona - Fet House Mode Refractions - Ur Man ft. Andrés Riot Ten Shaquille O'Neal - Ultimate ft. T-Wayne Rockit Gaming - Raze Hell ft. VideoGameRapBattles Neebs Gaming Rudimental The Martinez Brothers - Easy On Me SAYGRACE - Boys Ain't Shit Estos Chicos No Lo Son Remix ft. Becky G Sinéad Harnett - Be the One Remix ft. Col3trane Snakehips TroyBoi - Wavez somegirlnamedanna - hello i am Steve Aoki - Love You More ft. LAY will.i.am Tamar Braxton - Crazy Kind of Love Tee Grizzley - Payroll ft. Payroll Giovanni thasup - COVID-19 Freestyle The Marías - Jupiter Tove Lo - I'm Coming Twin Tides - Wish You Were Here Tyde Levi - AAA Tymedust - On the Beach of Dreams Vic Sage - College ft. Mike Stud Wallows - OK Wankelmut SVEA - Give Take Young Chris, Wale Guapdad 4000 - Ryu Ken 321 JT Music - Home to Hell ft. Andrea Storm Kaden Lil Durk - Chiraq Demons ft. G Herbo Valee - Drop Yuh 322 Anne-Marie - Her DAGames - F Kyle Allen - Our New Horizon The Kid LAROI. - Addison Rae M.E.T.A.L. - To the End of Times 323 Gordi - Aeroplane Bathroom IceJJFish - Jesus is the Way Josie Proto - BTEC Lily Allen LilCockPump - Drake Josh Magic Sword - Empress Tory Lanez - W Wiz Khalifa - Contact ft. Tyga 324 All Time Low - Melancholy Kaleidoscope Conway the Machine The Alchemist - Shoot Sideways ft. ScHoolboy Q Jeremy Zucker - julia KILL.ZERO - lovely ROSALÍA - Dolerme Run the Jewels - Yankee and the Brave ep. 4 The Stupendium - Nook, Line Sinker 325 5 Seconds of Summer - Wildflower Becky and the Birds - Wondering Classixx - One More Song ft. Roosevelt Dua Lipa - Break My Heart Emily Burns - Terrified Jacob Collier - In My Bones ft. Tank and the Bangas Kimbra Joey Trap - I Do Joyner Lucas - Will Keke Palmer - FYG Kid Buu - Death2Soundcloud P2 Kirko Bangz - No Calls Kirko Bangz - No Clothes ft. Propain Lido - Postclubridehomemusic MAJ - Quarantine Freestyle Moby Rich - Get High Nia Sioux - Low Key Love OneRepublic - Better Days Pearl Jam - Quick Escape Run the Jewels - Ooh LA LA ft. Greg Nice DJ Premier SahBabii - Double Dick Skepta, Chip Young Adz - Waze TOPS - Direct Sunlight Trav - You Choose ft. Tory Lanez TryHardNinja - Don't Forget ft. Not a Robot Unlike Pluto - Crawling 326 Alina Baraz - More Than Enough BlocBoy JB - Swervin Caleb Hyles - Bubblegum K.K. Vocal Cover Hailee Steinfeld - I Love You's Katelyn Tarver - Feel Bad Major Lazer - Lay Your Head on Me ft. Marcus Mumford Nasty C - There They Go Party Favor - ONCE MORE ft. Georgia Ku SwaVay - Okay Westside Tut - Get Back ft. YoungBoy Never Broke Again ZZ Ward - The Dark 327 2KBABY - OLD STREETS Remix ft. Lil Durk 2Scratch - Rich ft. Jooanmo 24hrs Ty Dolla ign - Superstar 645AR - In Love with a Stripper Alaina Castillo - just a boy Alex Mali - Problem Alexander Oscar - Bad Intentions Alicia Keys - Underdog Remix ft. Protoje Chronixx Asher Roth - Flowers on the Weekend Audrey Mika - Y U Gotta B Like That Remix ft. KYLE Augustine - Picking Up Speed Aura Dione - Colorblind AUSTN - Phases Bankrol Hayden - Costa Rica Remix ft. The Kid LAROI. BIA - FREE BIA 1ST DAY OUT Billy Raffoul - Swimming in the Deep End Bishop Nehru - Emperor Blanche - Fences Bright Light Bright Light - This Was My House ft. Niki Haris, Donna De Lory Initial Talk Call Me Karizma - Quarantine with Me Carlie Hanson - Daze Inn Channel Tres - Weedman chloe mk - Cosmic Colton Dixon - Devil Is A Liar Coucou Chloe - NOBODY Cub Sport - Drive DDG - Toxic Eli Sostre - Fish Elijah Blake - Frenemies Familiar - You Fivio Foreign - Wetty Florida Georgia Line - I Love My Country GASHI - Greatness grandson DREAMERS - Whole Lotta Guapdad 4000 - Dolce Gabbana Dalai Lama guccihighwaters - smother Hannah Jane Lewis - Love Letters Hanne Leland - Out of My Mind Ingrid Andress - Anything But Love ISA - Gravity Josh A Jake Hill - Wash Your Hands Kailee Morgue - Knew You KAMILLE - Love Attention Kane Brown John Legend - Last Time I Say Sorry Kayzo HELLBOUND! - No Regrets KREAM Imanos - Choices KSI - Poppin' ft. Smokepurpp Lil Pump Kygo, Zara Larsson Tyga - Like It Is Like Saturn - Not a Grunge Song Lil Loaded - Hit Em Up Lil Tjay - Only the Team ft. Lil Mosey Lil Xan - Everything I Own Little Mix - Break Up Song Lourdiz - Suicide Down ft. Lil Gotit LOVE SEPT. - WALK! lovelytheband - Waste Maisie Peters - Daydreams Mapei - Diamond Maurice Moore - Diamonds On Splash Matt Fax - The Wave ft. Ava Silver Maty Noyes - Sunlight Mick Jenkins - Frontstreet Mick Jenkins - Snakes Studio ft. Kojey Radical Mokita - Take It Back ft. Ella Vos Murda Beatz YNW Melly - Banana Split ft. Lil Durk MUST DIE! - NERVE DAMAGE NAV Gunna - Turks ft. Travis Scott Northshore - Fairweather Oliver Malcolm - Helen Paul Bartolomé - Not Okay ft. Matt Good Qveen Herby - Check R3HAB Andy Grammer - Good Example Rileyy Lanez - Left 4 Me Rockit Gaming - Radioactive S.L.M.N anders - Love in the Winter Sam Feldt - Hold Me Close ft. Ella Henderson Secrets - Comedown Sheppard - Somebody Like You Sigma Shakka - Rest Of My Life Slaves - Talk to a Friend Sody - Charlotte Steve Aoki Slushii - One True Love STRFKR - Budapest ft. Shy Boys Teejayx6 - Mosh Pit Tom Aspaul - W.M. Tory Lanez - Do the Most Trouble - Popped ft. Quavo UPSAHL - 12345SEX Zachary Knowles - cherry wine 328 gate - One Lilmar - All Girls Are Thots Tyga Curtis Roach - Bored in the House 329 Clever - Emotions in Motion DAGames - Hands of a Slayer Lil Durk - All Love 330 Drakeo the Ruler - Ion Rap Beef Remix ft. 03 Greedo Earl Sweatshirt Everything is Recorded - 1155 AM THIS WORLD Queen Naija - More Love ft. Mod da God Thomas Rhett - Be a Light ft. Keith Urban, Chris Tomlin, Hillary Scott Reba McEntire 331 Anthony Russo - Typical bbno Lentra - quarantine freestyle CG5 - Being Human Empress Of - Love is a Drug FISHER - Wanna Go Dancin' Lil Poppa - Misled Us Machine Gun Kelly Travis Barker - Misery Business Nascar Aloe - Angel Dust Rolling Blackouts Coastal Fever - She's There SVDDEN DEATH Snails - DEATHMATCH TM88 MadeinTYO - Tokyo Nights Xan Griffin - Newport Beach ft. Beau Rich Yung Baby Tate - Don't Want It Yung Trench - Brown Eyes</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Stand By Me (Ben E. King Cover)</t>
+          <t>There Goes My Baby</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ENTER HESPERUS, CYNTHIA, ARETE, TIME, PHRONESIS, AND THAUMA. MUSIC ACCOMPANIED. HESPERUS SINGS. Queen and huntress, chaste and fair, Now the sun is laid to sleep, Seated in thy silver chair, State in wonted manner keep Hesperus entreats thy light, Goddess, excellently bright. Earth, let not thy envious shade Dare itself to interpose Cynthia's shining orb was made Heav'n to clear, when day did close Bless us then with wished sight, Goddess excellently bright. Lay thy bow of pearl apart, And thy crystal shining quiver Give unto the flying hart Space to breathe, how short soever Thou, that mak'st a day of night, Goddess excellently bright. Cyn. When hath Diana, like an envious wretch, That glitters only to his soothed self, Denying to the world the precious use Of hoarded wealth, withheld her friendly aid? Monthly we spend our still-repaired shine, And not forbid our virgin-waxen torch To burn and blaze, while nutriment doth last That once consumed, out of Jove's treasury A new we take, and stick it in our sphere, To give the mutinous kind of wanting men Their look'd-for light. Yet what is their desert? Bounty is wrong'd, interpreted as due Mortals can challenge not a ray, by right, Yet do expect the whole of Cynthia's light. But if that deities withdrew their gifts For human follies, what could men deserve But death and darkness? It behoves the high, For their own sakes, to do things worthily. Are. Most true, most sacred goddess for the heavens Receive no good of all the good they do Nor Jove, nor you, nor other heavenly Powers, Are fed with fumes, which do from incense rise, Or sacrifices reeking in their gore Yet, for the care which you of mortals have, Whose proper good it is that they be so You well are pleased with odours redolent But ignorant is all the race of men, Which still complains, not knowing why, or when. Cyn. Else, noble Arete, they would not blame, And tax, or for unjust, or for as proud, Thy Cynthia, in the things which are indeed The greatest glories in our starry crown Such is our chastity, which safely scorns, Not love, for who more fervently doth love Immortal honour, and divine renown? But giddy Cupid, Venus' frantic son. Yet, Arete, if by this veiled light We but discover'd what we not discern Any the least of imputations stand Ready to sprinkle our unspotted fame With note of lightness, from these revels near Not, for the empire of the universe, Should night, or court, this whatsoever shine, Or grace of ours, unhappily enjoy. Place and occasion are two privy thieves And from poor innocent ladies often steal The best of things, an honourable name To stay with follies, or where faults may be, Infers a crime, although the party free. Are. How Cynthianly, that is, how worthily And like herself, the matchless Cynthia speaks! Infinite jealousies, infinite regards, Do watch about the true virginity But Phoebe lives from all, not only fault, But as from thought, so from suspicion free. Thy presence broad-seals our delights for pure What's done in Cynthia's sight, is done secure. Cyn. That then so answer'd, dearest Arete, What th' argument, or of what sort our sports Are like to be this night, I not demand. Nothing which duty, and desire to please, Bears written in the forehead, comes amiss. But unto whose invention must we owe The complement of this night's furniture? Are. Excellent goddess, to a man's, whose worth, Without hyperbole, I thus may praise One at least studious of deserving well, And, to speak truth, indeed deserving well. Potential merit stands for actual, Where only opportunity doth want, Not will, nor power both which in him abound, One whom the Muses and Minerva love For whom should they, than Crites, more esteem, Whom Phoebus, though not Fortune, holdeth dear? And, which convinceth excellence in him, A principal admirer of yourself Even through the ungentle injuries of Fate, And difficulties, which do virtue choke, Thus much of him appears. What other things Of farther note do lie unborn in him, Them I do leave for cherishment to shew, And for a goddess graciously to judge. Cyn. We have already judged him, Arete, Nor are we ignorant how noble minds Suffer too much through those indignities Which times and vicious persons cast on them. Ourself have ever vowed to esteem As virtue for itself, so fortune, base Who's first in worth, the same be first in place. Nor farther notice, Arete, we crave Then thine approval's sovereign warranty Let 't be thy care to make us known to him Cynthia shall brighten what the world made dim. THE FIRST MASQUE. ENTER CUPID, DISGUISED AS ANTEROS, FOLLOWED BY STORGE, AGLAIA, EUPHANTASTE, AND APHELEIA. Cup. Clear pearl of heaven, and, not to be farther ambitious in titles, Cynthia! the fame of this illustrious night, among others, hath also drawn these four fair virgins from the palace of their queen Perfection, a word which makes no sufficient difference betwixt her's and thine, to visit thy imperial court for she, their sovereign, not finding where to dwell among men, before her return to heaven, advised them wholly to consecrate themselves to thy celestial service, as in whose clear spirit the proper element and sphere of virtue they should behold not her alone, their ever-honoured mistress, but themselves more truly themselves to live enthronised. Herself would have commended them unto thy favour more particularly, but that she knows no commendation is more available with thee, than that of proper virtue. Nevertheless she willed them to present this crystal mound, a note of monarchy, and symbol of perfection, to thy more worthy deity which, as here by me they most humbly do, so amongst the rarities thereof, that is the chief, to shew whatsoever the world hath excellent, howsoever remote and various. But your irradiate judgment will soon discover the secrets of this little crystal world. Themselves, to appear more plainly, because they know nothing more odious then false pretexts, have chosen to express their several qualities thus in several colours. The first, in citron colour, is natural affection, which, given us to procure our good, is sometime called Storge and as every one is nearest to himself, so this handmaid of reason, allowable Self-love, as it is without harm, so are none without it her place in the court of Perfection was to quicken minds in the pursuit of honour. Her device is a perpendicular level, upon a cube or square the word, se suo modulo alluding to that true measure of one's self, which as every one ought to make, so is it most conspicuous in thy divine example. The second, in green is Aglaia, delectable and pleasant conversation, whose property it is to move a kindly delight, and sometime not without laughter her office to entertain assemblies, and keep societies together with fair familiarity. Her device, within a ring of clouds, a heart with shine about it the word, 'curarum nubila pello' an allegory of Cynthia's light, which no less clears the sky then her fair mirth the heart. The third, in the discoloured mantle spangled all over, is Euphantaste, a well-conceited Wittiness, and employed in honouring the court with the riches of her pure invention. Her device, upon a Petasus, or Mercurial hat, a crescent The word sic laus ingenii inferring that the praise and glory of wit doth ever increase, as doth thy growing moon. The fourth, in white, is Apheleia, a nymph as pure and simple as the soul, or as an abrase table, and is therefore called Simplicity without folds, without plaits, without colour, without counterfeit and to speak plainly plainness itself. Her device is no device. The word under her silver shield, omnis abest fucus alluding to thy spotless self, who art as far from impurity as from mortality. Myself, celestial goddess, more fit for the court of Cynthia than the arbours of Cytherea, am called Anteros, or Love's enemy the more welcome therefore to thy court, and the fitter to conduct this quaternion, who, as they are thy professed votaries, and for that cause adversaries to Love, yet thee, perpetual virgin, they both love, and vow to love eternally. RE-ENTER ARETE, WITH CRITES. Cyn. Not without wonder, nor without delight Mine eyes have view'd, in contemplation's depth, This work of wit, divine and excellent What shape, what substance, or what unknown power, In virgin's habit, crown'd with laurel leaves, And olive-branches woven in between, On sea-girt rocks, like to a goddess shines! O front! O face! O all celestial, sure, And more than mortal! Arete, behold Another Cynthia, and another queen, Whose glory, like a lasting plenilune, Seems ignorant of what it is to wane. Nor under heaven an object could be found More fit to please. Let Crites make approach. Bounty forbids to pall our thanks with stay, Or to defer our favour, after view The time of grace is, when the cause is new. Are. Lo, here the man, celestial Delia, Who like a circle bounded in itself Contains as much as man in fulness may. Lo, here the man who not of usual earth, But of that nobler and more precious mould Which Phoebus' self doth temper, is composed And who, though all were wanting to reward, Yet to himself he would not wanting be Thy favours gain is his ambition's most, And labour's best who humble in his height Stands fixed silent in thy glorious sight. Cyn. With no less pleasure than we have beheld This precious crystal work of rarest wit, Our eye doth read thee, now instiled, our Crites Whom learning, virtue, and our favour last, Exempteth from the gloomy multitude. With common eye the Supreme should not see Henceforth be ours, the more thyself to be. Cri. Heaven's purest light, whose orb may be eclipsed, But not thy praise divinest Cynthia! How much too narrow for so high a grace, Thine save therein the most unworthy Crites Doth find himself! for ever shine thy fame Thine honours ever, as thy beauties do. In me they must, my dark world's chiefest lights, By whose propitious beams my powers are raised To hope some part of those most lofty points, Which blessed Arete hath pleased to name, As marks, to which my endeavour's steps should bend Mine, as begun at thee, in thee must end. THE SECOND MASQUE. ENTER MERCURY AS A PAGE, INTRODUCING EUCOSMOS, EUPATHES, EUTOLMOS, AND EUCOLOS. Mer. Sister of Phoebus, to whose bright orb we owe, that we not complain of his absence these four brethren for they are brethren, and sons of Eutaxia, a lady known, and highly beloved of your resplendent deity not able to be absent, when Cynthia held a solemnity, officiously insinuate themselves into thy presence for, as there are four cardinal virtues, upon which the whole frame of the court doth move, so are these the four cardinal properties, without which the body of compliment moveth not. With these four silver javelins, which they bear in their hands they support in princes' courts the state of the presence, as by office they are obliged which, though here they may seem superfluous, yet, for honour's sake, they thus presume to visit thee, having also been employed in the palace of queen Perfection. And though to them that would make themselves gracious to a goddess, sacrifices were fitter than presents, or impresses, yet they both hope thy favour, and in place of either use several symbols, containing the titles of thy imperial dignity. First, the hithermost, in the changeable blue and green robe, is the commendably-fashioned gallant Eucosmos whose courtly habit is the grace of the presence, and delight of the surveying eye whom ladies understand by the names of Neat and Elegant. His symbol is, divae virgini, in which he would express thy deity's principal glory, which hath ever been virginity. The second, in the rich accoutrement, and robe of purple, empaled with gold, is Eupathes who entertains his mind with an harmless, but not incurious variety all the objects of his senses are sumptuous, himself a gallant, that, without excess, can make use of superfluity, go richly in embroideries, jewels, and what not, without vanity, and fare delicately without gluttony and therefore not without cause is universally thought to be of fine humour. His symbol is, divae optimae an attribute to express thy goodness, in which thou so resemblest Jove thy father. The third, in the blush-coloured suit, is Eutolmos, as duly respecting others, as never neglecting himself commonly known by the title of good Audacity to courts and courtly assemblies a guest most acceptable. His symbol is, divae viragini to express thy hardy courage in chase of savage beasts, which harbour in woods and wildernesses. The fourth, in watchet tinsel, is the kind and truly benefique Eucolos, who imparteth not without respect, but yet without difficulty, and hath the happiness to make every kindness seem double, by the timely and freely bestowing thereof. He is the chief of them, who by the vulgar are said to be of good nature. His symbol is, divae maximae an adjunct to signify thy greatness, which in heaven, earth, and hell, is formidable. MUSIC. A DANCE BY THE TWO MASQUES JOINED, DURING WHICH CUPID AND MERCURY RETIRE TO THE SIDE OF THE STAGE. Cup. Is not that Amorphus, the traveller? Mer. As though it were not! do you not see how his legs are in travail with a measure? Cup. Hedon, thy master is next. Mer. What, will Cupid turn nomenclator, and cry them? Cup. No, faith, but I have a comedy toward, that would not be lost for a kingdom. Mer. In good time, for Cupid will prove the comedy. Cup. Mercury, I am studying how to match them. Mer. How to mismatch them were harder. Cup. They are the nymphs must do it I shall sport myself with their passions above measure. Mer. Those nymphs would be tamed a little indeed, but I fear thou has not arrows for the purpose. Cup. O yes, here be of all sorts, flights, rovers, and butt-shafts. But I can wound with a brandish, and never draw bow for the matter. Mer. I cannot but believe it, my invisible archer, and yet methinks you are tedious. Cup. It behoves me to be somewhat circumspect, Mercury for if Cynthia hear the twang of my bow, she'll go near to whip me with the string therefore, to prevent that, I thus discharge a brandish uponit makes no matter which of the couples. Phantaste and Amorphus, at you. Mer. Will the shaking of a shaft strike them into such a fever of affection? Cup. As well as the wink of an eye but, I pray thee, hinder me not with thy prattle. Mer. Jove forbid I hinder thee Marry, all that I fear is Cynthia's presence, which, with the cold of her chastity, casteth such an antiperistasis about the place, that no heat of thine will tarry with the patient. Cup. It will tarry the rather, for the antiperistasis will keep it in. Mer. I long to see the experiment. Cup. Why, their marrow boils already, or they are all turn'd eunuchs. Mer. Nay, an't be so, I'll give over speaking, and be a spectator only. Amo. Cynthia, by my bright soul, is a right exquisite and spendidious lady yet Amorphus, I think, hath seen more fashions, I am sure more countries but whether I have or not, what need we gaze on Cynthia, that have ourself to admire? Pha. O, excellent Cynthia! yet if Phantaste sat where she does, and had such attire on her head, for attire can do much, I say no morebut goddesses are goddesses, and Phantaste is as she is! I would the revels were done once, I might go to my school of glass again, and learn to do myself right after all this ruffling. Mer. How now Cupid? here's a wonderful change with your brandish! do you not hear how they dote? Cup. What prodigy is this? no word of love, no mention, no motion! Mer. Not a word my little ignis fatue, not a word. Cup. Are my darts enchanted? is their vigour gone? is their virtue Mer. What! Cupid turned jealous of himself? ha, ha, ha! Cup. Laughs Mercury? Mer. Is Cupid angry? Cup. Hath he not cause, when his purpose is so deluded? Mer. A rare comedy, it shall be entitled Cupid's? Cup. Do not scorn us Hermes. Mer. Choler and Cupid are two fiery things I scorn them not. But I see that come to pass which I presaged in the beginning. Cup. You cannot tell perhaps the physic will not work so soon upon some as upon others. It may be the rest are not so resty. Mer. Ex ungue you know the old adage as these so are the remainder. Cup. I'll try this is the same shaft with which I wounded Argurion. Mer. Ay, but let me save you a labour, Cupid there were certain bottles of water fetch'd, and drunk off since that time, by these gallants. Cup. Jove strike me into the earth! the Fountain of Self-love! Mer. Nay faint not Cupid. Cup. I remember'd it not. Mer. Faith, it was ominous to take the name of Anteros upon you you know not what charm or enchantment lies in the word you saw, I durst not venture upon any device in our presentment, but was content to be no other then a simple page. Your arrows' properties, to keep decorum, Cupid, are suited, it should seem, to the nature of him you personate. Cup. Indignity not to be borne! Mer. Nay rather, an attempt to have been forborne. Cup. How might I revenge myself on this insulting Mercury? there's Crites, his minion, he has not tasted of this water? It shall be so. Is Crites turn'd dotard on himself too? Mer. That follows not, because the venom of your shafts cannot pierce him, Cupid. Cup. As though there were one antidote for these, and another for him? Mer. As though there were not or, as if one effect might not arise of diverse causes? What say you to Cynthia, Arete, Phronesis, Time, and others there? Cup. They are divine. Mer. And Crites aspires to be so. Cup. But that shall not serve him. Mer. 'Tis like to do it, at this time. But Cupid is grown too covetous, that will not spare one of a multitude. Cup. One is more than a multitude. Mer. Arete's favour makes any one shot-proof against thee, Cupid. I pray thee, light honey-bee, remember thou art not now in Adonis' garden, but in Cynthia's presence, where thorns lie in garrison about the roses. Soft, Cynthia speaks. Cyn. Ladies and gallants of our court, to end, And give a timely period to our sports, Let us conclude them, with declining night Our empire is but of the darker half. And if you judge it any recompence For your faire pains, t' have earn'd Diana's thanks, Diana grants them, and bestows their crown To gratify your acceptable zeal. For you are they, that not, as some have done, Do censure us, as too severe and sour, But as, more rightly, gracious to the good Although we not deny, unto the proud, Or the profane, perhaps indeed austere For so Actaeon, by presuming far, Did, to our grief, incur a fatal doom And so, swoln Niobe, comparing more Than he presumed, was trophaeed into stone. But are we therefore judged too extreme? Seems it no crime to enter sacred bowers, And hallowed places, with impure aspect, Most lewdly to pollute? Seems it no crime To brave a deity? Let mortals learn To make religion of offending heaven. And not at all to censure powers divine. To men this argument should stand for firm, A goddess did it, therefore it was good We are not cruel, nor delight in blood. But what have serious repetitions To do with revels, and the sports of court? We not intend to sour your late delights With harsh expostulation. Let it suffice That we take notice, and can take revenge Of these calumnious and lewd blasphemies. For we are no less Cynthia than we were, Nor is our power, but as ourself, the same Though we have now put on no tire of shine, But mortal eyes undazzled may endure. Years are beneath the spheres, and time makes weak Things under heaven, not powers which govern heaven. And though ourself be in ourself secure, Yet let not mortals challenge to themselves Immunity from thence. Lo, this is all Honour hath store of spleen, but wanteth gall. Once more we cast the slumber of our thanks On your ta'en toil, which here let take an end And that we not mistake your several worths, Nor you our favour, from yourselves remove What makes you not yourselves, those clouds of masque Particular pains particular thanks do ask. How! let me view you. Ha! are we contemn'd? Is there so little awe of our disdain, That any under trust of their disguise Should mix themselves with others of the court, And, without forehead, boldly press so far, As farther none? How apt is lenity To be abused! severity to be loath'd! And yet, how much more doth the seeming face Of neighbour virtues, and their borrow'd names, Add of lewd boldness to loose vanities! Who would have thought that Philautia durst Or have usurped noble Storge's name, Or with that theft have ventured on our eyes? Who would have thought, that all of them should hope So much of our connivence, as to come To grace themselves with titles not their own? Instead of med'cines, have we maladies? And such imposthumes as Phantaste is Grow in our palace? We must lance these sores, Or all will putrify. Nor are these all, For we suspect a farther fraud than this Take off our veil, that shadows many depart, And shapes appear, beloved AreteSo, Another face of things presents itself, Than did of late. What! feather'd Cupid masqued, And masked like Anteros? And stay! more strange! Dear Mercury, our brother, like a page, To countenance the ambush of the boy! Nor endeth our discovery as yet Gelaia, like a nymph, that, but erewhile, In male attire, did serve Anaides? Cupid came hither to find sport and game, Who heretofore hath been too conversant Among our train, but never felt revenge And Mercury bare Cupid company. Cupid, we must confess, this time of mirth, Proclaim'd by us, gave opportunity To thy attempts, although no privilege Tempt us no farther we cannot endure Thy presence longer vanish hence, away! You Mercury, we must entreat to stay, And hear what we determine of the rest For in this plot we well perceive your hand. But, for we mean not a censorian task, And yet to lance these ulcers grown so ripe, Dear Arete, and Crites, to you two We give the charge impose what pains you please Th' incurable cut off, the rest reform, Remembering ever what we first decreed, Since revels were proclaim'd, let now none bleed. Are. How well Diana can distinguish times, And sort her censures, keeping to herself The doom of gods, leaving the rest to us! Come, cite them, Crites, first, and then proceed. Cri. First, Philautia, for she was the first, Then light Gelaia in Aglaia's name, Thirdly, Phantaste, and Moria next, Main Follies all, and of the female crew Amorphus, or Eucosmos' counterfeit, Voluptuous Hedon ta'en for Eupathes, Brazen Anaides, and Asotus last, With his two pages, Morus, and Prosaites And thou, the traveller's evil, Cos, approach, Impostors all, and male deformities Are. Nay, forward, for I delegate my power. And will that at thy mercy they do stand, Whom they so oft, so plainly scorn'd before. 'Tis virtue which they want, and wanting it, Honour no garment to their backs can fit. Then, Crites, practise thy discretion. Cri. Adored Cynthia, and bright Arete, Another might seem fitter for this task, Than Crites far, but that you judge not so For I not to appear vindicative, Or mindful of contempts, which I contemn'd, As done of impotence must be remiss Who, as I was the author, in some sort, To work their knowledge into Cynthia's sight, So should be much severer to revenge The indignity hence issuing to her name But there's not one of these who are unpain'd, Or by themselves unpunished for vice Is like a fury to the vicious mind, And turns delight itself to punishment. But we must forward, to define their doom. You are offenders, that must be confess'd Do you confess it? All. We do. Cri. And that you merit sharp correction? All. Yes. Cri. Then we reserving unto Delia's grace Her farther pleasure, and to Arete What Delia granteth thus do sentence you That from this place for penance known of all, Since you have drunk so deeply of Self-love You, two and two, singing a Palinode, March to your several homes by Niobe's stone, And offer up two tears a-piece thereon, That it may change the name, as you must change, And of a stone be called Weeping-cross Because it standeth cross of Cynthia's way, One of whose names is sacred Trivia. And after penance thus perform'd you pass In like set order, not as Midas did, To wash his gold off into Tagus' stream But to the Well of knowledge, Helicon Where, purged of your present maladies, Which are not few, nor slender, you become Such as you fain would seem, and then return, Offering your service to great Cynthia. This is your sentence, if the goddess please To ratify it with her high consent The scope of wise mirth unto fruit is bent. Cyn. We do approve thy censure belov'd Crites Which Mercury, thy true propitious friend, A deity next Jove beloved of us, Will undertake to see exactly done. And for this service of discovery, Perform'd by thee, in honour of our name, We vow to guerdon it with such due grace As shall become our bounty, and thy place. Princes that would their people should do well, Must at themselves begin, as at the head For men, by their example, pattern out Their imitations, and regard of laws A virtuous court, a world to virtue draws. EXEUNT CYNTHIA AND HER NYMPHS, FOLLOWED BY ARETE AND CRITES AMORPHUS, PHANTASTE, ETC., GO OFF THE STAGE IN PAIRS, SINGING THE FOLLOWING PALINODE. Amo. From Spanish shrugs, French faces, smirks, irpes, and all affected humours, CHORUS. Good Mercury defend us. Pha. From secret friends, sweet servants, loves, doves, and such fantastic humours, CHORUS. Good Mercury defend us. Amo. From stabbing of arms, flap-dragons, healths, whiffs, and all such swaggering humours, CHORUS. Good Mercury defend us. Pha. From waving fans, coy glances, glicks, cringes, and all such simpering humours, CHORUS. Good Mercury defend us. Amo. From making love by attorney, courting of puppets, and paying for new acquaintance. CHORUS. Good Mercury defend us. Pha. From perfumed dogs, monkies, sparrows, dildoes, and paraquettoes. CHORUS. Good Mercury defend us. Amo. From wearing bracelets of hair, shoe-ties, gloves, garters, and rings with poesies. CHORUS. Good Mercury defend us. Pha. From pargetting, painting, slicking, glazing, and renewing old rivelled faces. CHORUS. Good Mercury defend us. Amo. From 'squiring to tilt yards, play-houses, pageants, and all such public places. CHORUS. Good Mercury defend us. Pha. From entertaining one gallant to gull another, and making fools of either, CHORUS. Good Mercury defend us. Amo. From belying ladies' favours, noblemen's countenance, coining counterfeit employments, vain-glorious taking to them other men's services, and all self-loving humours, CHORUS. Good Mercury defend us. MERCURY AND CRITES SING. Now each one dry his weeping eyes, And to the Well of Knowledge haste Where, purged of your maladies, You may of sweeter waters taste And, with refined voice, report The grace of Cynthia, and her court. EXEUNT. THE EPILOGUE. Gentles, be't known to you, since I went in I am turn'd rhymer, and do thus begin. The author jealous how your sense doth take His travails hath enjoined me to make Some short and ceremonious epilogue But if I yet know what, I am a rogue He ties me to such laws as quite distract My thoughts, and would a year of time exact. I neither must be faint, remiss, nor sorry, Sour, serious, confident, nor peremptory But betwixt these. Let's see to lay the blame Upon the children's action, that were lame. To crave your favour, with a begging knee, Were to distrust the writer's faculty. To promise better at the next we bring, Prorogues disgrace, commends not any thing. Stiffly to stand on this, and proudly approve The play, might tax the maker of Self-love. I'll only speak what I have heard him say, By'tis good, and if you like't, you may. Ecce rubet quidam, pallet, stupet, oscitat, odit Hoc volo nunc nobis carmina nostra placent. GLOSSARY ABATE, cast down, subdue. ABHORRING, repugnant to, at variance. ABJECT, base, degraded thing, outcast. ABRASE, smooth, blank. ABSOLUTELY, faultlessly. ABSTRACTED, abstract, abstruse. ABUSE, deceive, insult, dishonour, make ill use of. ACATER, caterer. ACATES, cates. ACCEPTIVE, willing, ready to accept, receive. ACCOMMODATE, fit, befitting. The word was a fashionable one and used on all occasions. See Henry IV., pt. 2, iii. 4. ACCOST, draw near, approach. ACKNOWN, confessedly acquainted with. ACME, full maturity. ADALANTADO, lord deputy or governor of a Spanish province. ADJECTION, addition. ADMIRATION, astonishment. ADMIRE, wonder, wonder at. ADROP, philosopher's stone, or substance from which obtained. ADSCRIVE, subscribe. ADULTERATE, spurious, counterfeit. ADVANCE, lift. ADVERTISE, inform, give intelligence. ADVERTISED, be, be it known to you. ADVERTISEMENT, intelligence. ADVISE, consider, bethink oneself, deliberate. ADVISED, informed, aware are you? have you found that out? AFFECT, love, like aim at move. AFFECTED, disposed beloved. AFFECTIONATE, obstinate prejudiced. AFFECTS, affections. AFFRONT, give the, face. AFFY, have confidence in betroth. AFTER, after the manner of. AGAIN, AGAINST, in anticipation of. AGGRAVATE, increase, magnify, enlarge upon. AGNOMINATION. See Paranomasie. AIERY, nest, brood. AIM, guess. ALL HID, children's cry at hide-and-seek. ALL-TO, completely, entirely all-to-be-laden. ALLOWANCE, approbation, recognition. ALMA-CANTARAS astronomy, parallels of altitude. ALMAIN, name of a dance. ALMUTEN, planet of chief influence in the horoscope. ALONE, unequalled, without peer. ALUDELS, subliming pots. AMAZED, confused, perplexed. AMBER, AMBRE, ambergris. AMBREE, MARY, a woman noted for her valour at the siege of Ghent, 1458. AMES-ACE, lowest throw at dice. AMPHIBOLIES, ambiguities. AMUSED, bewildered, amazed. AN, if. ANATOMY, skeleton, or dissected body. ANDIRONS, fire-dogs. ANGEL, gold coin worth 10 shillings, stamped with the figure of the archangel Michael. ANNESH CLEARE, spring known as Agnes le Clare. ANSWER, return hit in fencing. ANTIC, ANTIQUE, clown, buffoon. ANTIC, like a buffoon. ANTIPERISTASIS, an opposition which enhances the quality it opposes. APOZEM, decoction. APPERIL, peril. APPLE-JOHN, APPLE-SQUIRE, pimp, pander. APPLY, attach. APPREHEND, take into custody. APPREHENSIVE, quick of perception able to perceive and appreciate. APPROVE, prove, confirm. APT, suit, adapt train, prepare dispose, incline. APTLY, suitabley, opportunely. APTITUDE, suitableness. ARBOR, make the, cut up the game Gifford. ARCHES, Court of Arches. ARCHIE, Archibald Armstrong, jester to James I. and Charles I. ARGAILE, argol, crust or sediment in wine casks. ARGENT-VIVE, quicksilver. ARGUMENT, plot of a drama theme, subject matter in question token, proof. ARRIDE, please. ARSEDINE, mixture of copper and zinc, used as an imitation of gold-leaf. ARTHUR, PRINCE, reference to an archery show by a society who assumed arms, etc., of Arthur's knights. ARTICLE, item. ARTIFICIALLY, artfully. ASCENSION, evaporation, distillation. ASPIRE, try to reach, obtain, long for. ASSALTO Italian, assault. ASSAY, draw a knife along the belly of the deer, a ceremony of the hunting-field. ASSOIL, solve. ASSURE, secure possession or reversion of. ATHANOR, a digesting furnace, calculated to keep up a constant heat. ATONE, reconcile. ATTACH, attack, seize. AUDACIOUS, having spirit and confidence. AUTHENTICAL, of authority, authorised, trustworthy, genuine. AVISEMENT, reflection, consideration. AVOID, begone! get rid of. AWAY WITH, endure. AZOCH, Mercurius Philosophorum. BABION, baboon. BABY, doll. BACK-SIDE, back premises. BAFFLE, treat with contempt. BAGATINE, Italian coin, worth about the third of a farthing. BAIARD, horse of magic powers known to old romance. BALDRICK, belt worn across the breast to support bugle, etc. BALE of dice, pair. BALK, overlook, pass by, avoid. BALLACE, ballast. BALLOO, game at ball. BALNEUM BAIN MARIE, a vessel for holding hot water in which other vessels are stood for heating. BANBURY, brother of, Puritan. BANDOG, dog tied or chained up. BANE, woe, ruin. BANQUET, a light repast dessert. BARB, to clip gold. BARBEL, fresh-water fish. BARE, meer bareheaded it was a particular mark of state and grandeur for the coachman to be uncovered Gifford. BARLEY-BREAK, game somewhat similar to base. BASE, game of prisoner's base. BASES, richly embroidered skirt reaching to the knees, or lower. BASILISK, fabulous reptile, believed to slay with its eye. BASKET, used for the broken provision collected for prisoners. BASON, basons, etc., were beaten by the attendant mob when bad characters were carted. BATE, be reduced abate, reduce. BATOON, baton, stick. BATTEN, feed, grow fat. BAWSON, badger. BEADSMAN, prayer-man, one engaged to pray for another. BEAGLE, small hound fig. spy. BEAR IN HAND, keep in suspense, deceive with false hopes. BEARWARD, bear leader. BEDPHERE. See Phere. BEDSTAFF, ? woo</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Stand By Me (Ben E. King Cover)</t>
+          <t>There Goes My Baby</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ENTER HESPERUS, CYNTHIA, ARETE, TIME, PHRONESIS, AND THAUMA. MUSIC ACCOMPANIED. HESPERUS SINGS. Queen and huntress, chaste and fair, Now the sun is laid to sleep, Seated in thy silver chair, State in wonted manner keep Hesperus entreats thy light, Goddess, excellently bright. Earth, let not thy envious shade Dare itself to interpose Cynthia's shining orb was made Heav'n to clear, when day did close Bless us then with wished sight, Goddess excellently bright. Lay thy bow of pearl apart, And thy crystal shining quiver Give unto the flying hart Space to breathe, how short soever Thou, that mak'st a day of night, Goddess excellently bright. Cyn. When hath Diana, like an envious wretch, That glitters only to his soothed self, Denying to the world the precious use Of hoarded wealth, withheld her friendly aid? Monthly we spend our still-repaired shine, And not forbid our virgin-waxen torch To burn and blaze, while nutriment doth last That once consumed, out of Jove's treasury A new we take, and stick it in our sphere, To give the mutinous kind of wanting men Their look'd-for light. Yet what is their desert? Bounty is wrong'd, interpreted as due Mortals can challenge not a ray, by right, Yet do expect the whole of Cynthia's light. But if that deities withdrew their gifts For human follies, what could men deserve But death and darkness? It behoves the high, For their own sakes, to do things worthily. Are. Most true, most sacred goddess for the heavens Receive no good of all the good they do Nor Jove, nor you, nor other heavenly Powers, Are fed with fumes, which do from incense rise, Or sacrifices reeking in their gore Yet, for the care which you of mortals have, Whose proper good it is that they be so You well are pleased with odours redolent But ignorant is all the race of men, Which still complains, not knowing why, or when. Cyn. Else, noble Arete, they would not blame, And tax, or for unjust, or for as proud, Thy Cynthia, in the things which are indeed The greatest glories in our starry crown Such is our chastity, which safely scorns, Not love, for who more fervently doth love Immortal honour, and divine renown? But giddy Cupid, Venus' frantic son. Yet, Arete, if by this veiled light We but discover'd what we not discern Any the least of imputations stand Ready to sprinkle our unspotted fame With note of lightness, from these revels near Not, for the empire of the universe, Should night, or court, this whatsoever shine, Or grace of ours, unhappily enjoy. Place and occasion are two privy thieves And from poor innocent ladies often steal The best of things, an honourable name To stay with follies, or where faults may be, Infers a crime, although the party free. Are. How Cynthianly, that is, how worthily And like herself, the matchless Cynthia speaks! Infinite jealousies, infinite regards, Do watch about the true virginity But Phoebe lives from all, not only fault, But as from thought, so from suspicion free. Thy presence broad-seals our delights for pure What's done in Cynthia's sight, is done secure. Cyn. That then so answer'd, dearest Arete, What th' argument, or of what sort our sports Are like to be this night, I not demand. Nothing which duty, and desire to please, Bears written in the forehead, comes amiss. But unto whose invention must we owe The complement of this night's furniture? Are. Excellent goddess, to a man's, whose worth, Without hyperbole, I thus may praise One at least studious of deserving well, And, to speak truth, indeed deserving well. Potential merit stands for actual, Where only opportunity doth want, Not will, nor power both which in him abound, One whom the Muses and Minerva love For whom should they, than Crites, more esteem, Whom Phoebus, though not Fortune, holdeth dear? And, which convinceth excellence in him, A principal admirer of yourself Even through the ungentle injuries of Fate, And difficulties, which do virtue choke, Thus much of him appears. What other things Of farther note do lie unborn in him, Them I do leave for cherishment to shew, And for a goddess graciously to judge. Cyn. We have already judged him, Arete, Nor are we ignorant how noble minds Suffer too much through those indignities Which times and vicious persons cast on them. Ourself have ever vowed to esteem As virtue for itself, so fortune, base Who's first in worth, the same be first in place. Nor farther notice, Arete, we crave Then thine approval's sovereign warranty Let 't be thy care to make us known to him Cynthia shall brighten what the world made dim. THE FIRST MASQUE. ENTER CUPID, DISGUISED AS ANTEROS, FOLLOWED BY STORGE, AGLAIA, EUPHANTASTE, AND APHELEIA. Cup. Clear pearl of heaven, and, not to be farther ambitious in titles, Cynthia! the fame of this illustrious night, among others, hath also drawn these four fair virgins from the palace of their queen Perfection, a word which makes no sufficient difference betwixt her's and thine, to visit thy imperial court for she, their sovereign, not finding where to dwell among men, before her return to heaven, advised them wholly to consecrate themselves to thy celestial service, as in whose clear spirit the proper element and sphere of virtue they should behold not her alone, their ever-honoured mistress, but themselves more truly themselves to live enthronised. Herself would have commended them unto thy favour more particularly, but that she knows no commendation is more available with thee, than that of proper virtue. Nevertheless she willed them to present this crystal mound, a note of monarchy, and symbol of perfection, to thy more worthy deity which, as here by me they most humbly do, so amongst the rarities thereof, that is the chief, to shew whatsoever the world hath excellent, howsoever remote and various. But your irradiate judgment will soon discover the secrets of this little crystal world. Themselves, to appear more plainly, because they know nothing more odious then false pretexts, have chosen to express their several qualities thus in several colours. The first, in citron colour, is natural affection, which, given us to procure our good, is sometime called Storge and as every one is nearest to himself, so this handmaid of reason, allowable Self-love, as it is without harm, so are none without it her place in the court of Perfection was to quicken minds in the pursuit of honour. Her device is a perpendicular level, upon a cube or square the word, se suo modulo alluding to that true measure of one's self, which as every one ought to make, so is it most conspicuous in thy divine example. The second, in green is Aglaia, delectable and pleasant conversation, whose property it is to move a kindly delight, and sometime not without laughter her office to entertain assemblies, and keep societies together with fair familiarity. Her device, within a ring of clouds, a heart with shine about it the word, 'curarum nubila pello' an allegory of Cynthia's light, which no less clears the sky then her fair mirth the heart. The third, in the discoloured mantle spangled all over, is Euphantaste, a well-conceited Wittiness, and employed in honouring the court with the riches of her pure invention. Her device, upon a Petasus, or Mercurial hat, a crescent The word sic laus ingenii inferring that the praise and glory of wit doth ever increase, as doth thy growing moon. The fourth, in white, is Apheleia, a nymph as pure and simple as the soul, or as an abrase table, and is therefore called Simplicity without folds, without plaits, without colour, without counterfeit and to speak plainly plainness itself. Her device is no device. The word under her silver shield, omnis abest fucus alluding to thy spotless self, who art as far from impurity as from mortality. Myself, celestial goddess, more fit for the court of Cynthia than the arbours of Cytherea, am called Anteros, or Love's enemy the more welcome therefore to thy court, and the fitter to conduct this quaternion, who, as they are thy professed votaries, and for that cause adversaries to Love, yet thee, perpetual virgin, they both love, and vow to love eternally. RE-ENTER ARETE, WITH CRITES. Cyn. Not without wonder, nor without delight Mine eyes have view'd, in contemplation's depth, This work of wit, divine and excellent What shape, what substance, or what unknown power, In virgin's habit, crown'd with laurel leaves, And olive-branches woven in between, On sea-girt rocks, like to a goddess shines! O front! O face! O all celestial, sure, And more than mortal! Arete, behold Another Cynthia, and another queen, Whose glory, like a lasting plenilune, Seems ignorant of what it is to wane. Nor under heaven an object could be found More fit to please. Let Crites make approach. Bounty forbids to pall our thanks with stay, Or to defer our favour, after view The time of grace is, when the cause is new. Are. Lo, here the man, celestial Delia, Who like a circle bounded in itself Contains as much as man in fulness may. Lo, here the man who not of usual earth, But of that nobler and more precious mould Which Phoebus' self doth temper, is composed And who, though all were wanting to reward, Yet to himself he would not wanting be Thy favours gain is his ambition's most, And labour's best who humble in his height Stands fixed silent in thy glorious sight. Cyn. With no less pleasure than we have beheld This precious crystal work of rarest wit, Our eye doth read thee, now instiled, our Crites Whom learning, virtue, and our favour last, Exempteth from the gloomy multitude. With common eye the Supreme should not see Henceforth be ours, the more thyself to be. Cri. Heaven's purest light, whose orb may be eclipsed, But not thy praise divinest Cynthia! How much too narrow for so high a grace, Thine save therein the most unworthy Crites Doth find himself! for ever shine thy fame Thine honours ever, as thy beauties do. In me they must, my dark world's chiefest lights, By whose propitious beams my powers are raised To hope some part of those most lofty points, Which blessed Arete hath pleased to name, As marks, to which my endeavour's steps should bend Mine, as begun at thee, in thee must end. THE SECOND MASQUE. ENTER MERCURY AS A PAGE, INTRODUCING EUCOSMOS, EUPATHES, EUTOLMOS, AND EUCOLOS. Mer. Sister of Phoebus, to whose bright orb we owe, that we not complain of his absence these four brethren for they are brethren, and sons of Eutaxia, a lady known, and highly beloved of your resplendent deity not able to be absent, when Cynthia held a solemnity, officiously insinuate themselves into thy presence for, as there are four cardinal virtues, upon which the whole frame of the court doth move, so are these the four cardinal properties, without which the body of compliment moveth not. With these four silver javelins, which they bear in their hands they support in princes' courts the state of the presence, as by office they are obliged which, though here they may seem superfluous, yet, for honour's sake, they thus presume to visit thee, having also been employed in the palace of queen Perfection. And though to them that would make themselves gracious to a goddess, sacrifices were fitter than presents, or impresses, yet they both hope thy favour, and in place of either use several symbols, containing the titles of thy imperial dignity. First, the hithermost, in the changeable blue and green robe, is the commendably-fashioned gallant Eucosmos whose courtly habit is the grace of the presence, and delight of the surveying eye whom ladies understand by the names of Neat and Elegant. His symbol is, divae virgini, in which he would express thy deity's principal glory, which hath ever been virginity. The second, in the rich accoutrement, and robe of purple, empaled with gold, is Eupathes who entertains his mind with an harmless, but not incurious variety all the objects of his senses are sumptuous, himself a gallant, that, without excess, can make use of superfluity, go richly in embroideries, jewels, and what not, without vanity, and fare delicately without gluttony and therefore not without cause is universally thought to be of fine humour. His symbol is, divae optimae an attribute to express thy goodness, in which thou so resemblest Jove thy father. The third, in the blush-coloured suit, is Eutolmos, as duly respecting others, as never neglecting himself commonly known by the title of good Audacity to courts and courtly assemblies a guest most acceptable. His symbol is, divae viragini to express thy hardy courage in chase of savage beasts, which harbour in woods and wildernesses. The fourth, in watchet tinsel, is the kind and truly benefique Eucolos, who imparteth not without respect, but yet without difficulty, and hath the happiness to make every kindness seem double, by the timely and freely bestowing thereof. He is the chief of them, who by the vulgar are said to be of good nature. His symbol is, divae maximae an adjunct to signify thy greatness, which in heaven, earth, and hell, is formidable. MUSIC. A DANCE BY THE TWO MASQUES JOINED, DURING WHICH CUPID AND MERCURY RETIRE TO THE SIDE OF THE STAGE. Cup. Is not that Amorphus, the traveller? Mer. As though it were not! do you not see how his legs are in travail with a measure? Cup. Hedon, thy master is next. Mer. What, will Cupid turn nomenclator, and cry them? Cup. No, faith, but I have a comedy toward, that would not be lost for a kingdom. Mer. In good time, for Cupid will prove the comedy. Cup. Mercury, I am studying how to match them. Mer. How to mismatch them were harder. Cup. They are the nymphs must do it I shall sport myself with their passions above measure. Mer. Those nymphs would be tamed a little indeed, but I fear thou has not arrows for the purpose. Cup. O yes, here be of all sorts, flights, rovers, and butt-shafts. But I can wound with a brandish, and never draw bow for the matter. Mer. I cannot but believe it, my invisible archer, and yet methinks you are tedious. Cup. It behoves me to be somewhat circumspect, Mercury for if Cynthia hear the twang of my bow, she'll go near to whip me with the string therefore, to prevent that, I thus discharge a brandish uponit makes no matter which of the couples. Phantaste and Amorphus, at you. Mer. Will the shaking of a shaft strike them into such a fever of affection? Cup. As well as the wink of an eye but, I pray thee, hinder me not with thy prattle. Mer. Jove forbid I hinder thee Marry, all that I fear is Cynthia's presence, which, with the cold of her chastity, casteth such an antiperistasis about the place, that no heat of thine will tarry with the patient. Cup. It will tarry the rather, for the antiperistasis will keep it in. Mer. I long to see the experiment. Cup. Why, their marrow boils already, or they are all turn'd eunuchs. Mer. Nay, an't be so, I'll give over speaking, and be a spectator only. Amo. Cynthia, by my bright soul, is a right exquisite and spendidious lady yet Amorphus, I think, hath seen more fashions, I am sure more countries but whether I have or not, what need we gaze on Cynthia, that have ourself to admire? Pha. O, excellent Cynthia! yet if Phantaste sat where she does, and had such attire on her head, for attire can do much, I say no morebut goddesses are goddesses, and Phantaste is as she is! I would the revels were done once, I might go to my school of glass again, and learn to do myself right after all this ruffling. Mer. How now Cupid? here's a wonderful change with your brandish! do you not hear how they dote? Cup. What prodigy is this? no word of love, no mention, no motion! Mer. Not a word my little ignis fatue, not a word. Cup. Are my darts enchanted? is their vigour gone? is their virtue Mer. What! Cupid turned jealous of himself? ha, ha, ha! Cup. Laughs Mercury? Mer. Is Cupid angry? Cup. Hath he not cause, when his purpose is so deluded? Mer. A rare comedy, it shall be entitled Cupid's? Cup. Do not scorn us Hermes. Mer. Choler and Cupid are two fiery things I scorn them not. But I see that come to pass which I presaged in the beginning. Cup. You cannot tell perhaps the physic will not work so soon upon some as upon others. It may be the rest are not so resty. Mer. Ex ungue you know the old adage as these so are the remainder. Cup. I'll try this is the same shaft with which I wounded Argurion. Mer. Ay, but let me save you a labour, Cupid there were certain bottles of water fetch'd, and drunk off since that time, by these gallants. Cup. Jove strike me into the earth! the Fountain of Self-love! Mer. Nay faint not Cupid. Cup. I remember'd it not. Mer. Faith, it was ominous to take the name of Anteros upon you you know not what charm or enchantment lies in the word you saw, I durst not venture upon any device in our presentment, but was content to be no other then a simple page. Your arrows' properties, to keep decorum, Cupid, are suited, it should seem, to the nature of him you personate. Cup. Indignity not to be borne! Mer. Nay rather, an attempt to have been forborne. Cup. How might I revenge myself on this insulting Mercury? there's Crites, his minion, he has not tasted of this water? It shall be so. Is Crites turn'd dotard on himself too? Mer. That follows not, because the venom of your shafts cannot pierce him, Cupid. Cup. As though there were one antidote for these, and another for him? Mer. As though there were not or, as if one effect might not arise of diverse causes? What say you to Cynthia, Arete, Phronesis, Time, and others there? Cup. They are divine. Mer. And Crites aspires to be so. Cup. But that shall not serve him. Mer. 'Tis like to do it, at this time. But Cupid is grown too covetous, that will not spare one of a multitude. Cup. One is more than a multitude. Mer. Arete's favour makes any one shot-proof against thee, Cupid. I pray thee, light honey-bee, remember thou art not now in Adonis' garden, but in Cynthia's presence, where thorns lie in garrison about the roses. Soft, Cynthia speaks. Cyn. Ladies and gallants of our court, to end, And give a timely period to our sports, Let us conclude them, with declining night Our empire is but of the darker half. And if you judge it any recompence For your faire pains, t' have earn'd Diana's thanks, Diana grants them, and bestows their crown To gratify your acceptable zeal. For you are they, that not, as some have done, Do censure us, as too severe and sour, But as, more rightly, gracious to the good Although we not deny, unto the proud, Or the profane, perhaps indeed austere For so Actaeon, by presuming far, Did, to our grief, incur a fatal doom And so, swoln Niobe, comparing more Than he presumed, was trophaeed into stone. But are we therefore judged too extreme? Seems it no crime to enter sacred bowers, And hallowed places, with impure aspect, Most lewdly to pollute? Seems it no crime To brave a deity? Let mortals learn To make religion of offending heaven. And not at all to censure powers divine. To men this argument should stand for firm, A goddess did it, therefore it was good We are not cruel, nor delight in blood. But what have serious repetitions To do with revels, and the sports of court? We not intend to sour your late delights With harsh expostulation. Let it suffice That we take notice, and can take revenge Of these calumnious and lewd blasphemies. For we are no less Cynthia than we were, Nor is our power, but as ourself, the same Though we have now put on no tire of shine, But mortal eyes undazzled may endure. Years are beneath the spheres, and time makes weak Things under heaven, not powers which govern heaven. And though ourself be in ourself secure, Yet let not mortals challenge to themselves Immunity from thence. Lo, this is all Honour hath store of spleen, but wanteth gall. Once more we cast the slumber of our thanks On your ta'en toil, which here let take an end And that we not mistake your several worths, Nor you our favour, from yourselves remove What makes you not yourselves, those clouds of masque Particular pains particular thanks do ask. How! let me view you. Ha! are we contemn'd? Is there so little awe of our disdain, That any under trust of their disguise Should mix themselves with others of the court, And, without forehead, boldly press so far, As farther none? How apt is lenity To be abused! severity to be loath'd! And yet, how much more doth the seeming face Of neighbour virtues, and their borrow'd names, Add of lewd boldness to loose vanities! Who would have thought that Philautia durst Or have usurped noble Storge's name, Or with that theft have ventured on our eyes? Who would have thought, that all of them should hope So much of our connivence, as to come To grace themselves with titles not their own? Instead of med'cines, have we maladies? And such imposthumes as Phantaste is Grow in our palace? We must lance these sores, Or all will putrify. Nor are these all, For we suspect a farther fraud than this Take off our veil, that shadows many depart, And shapes appear, beloved AreteSo, Another face of things presents itself, Than did of late. What! feather'd Cupid masqued, And masked like Anteros? And stay! more strange! Dear Mercury, our brother, like a page, To countenance the ambush of the boy! Nor endeth our discovery as yet Gelaia, like a nymph, that, but erewhile, In male attire, did serve Anaides? Cupid came hither to find sport and game, Who heretofore hath been too conversant Among our train, but never felt revenge And Mercury bare Cupid company. Cupid, we must confess, this time of mirth, Proclaim'd by us, gave opportunity To thy attempts, although no privilege Tempt us no farther we cannot endure Thy presence longer vanish hence, away! You Mercury, we must entreat to stay, And hear what we determine of the rest For in this plot we well perceive your hand. But, for we mean not a censorian task, And yet to lance these ulcers grown so ripe, Dear Arete, and Crites, to you two We give the charge impose what pains you please Th' incurable cut off, the rest reform, Remembering ever what we first decreed, Since revels were proclaim'd, let now none bleed. Are. How well Diana can distinguish times, And sort her censures, keeping to herself The doom of gods, leaving the rest to us! Come, cite them, Crites, first, and then proceed. Cri. First, Philautia, for she was the first, Then light Gelaia in Aglaia's name, Thirdly, Phantaste, and Moria next, Main Follies all, and of the female crew Amorphus, or Eucosmos' counterfeit, Voluptuous Hedon ta'en for Eupathes, Brazen Anaides, and Asotus last, With his two pages, Morus, and Prosaites And thou, the traveller's evil, Cos, approach, Impostors all, and male deformities Are. Nay, forward, for I delegate my power. And will that at thy mercy they do stand, Whom they so oft, so plainly scorn'd before. 'Tis virtue which they want, and wanting it, Honour no garment to their backs can fit. Then, Crites, practise thy discretion. Cri. Adored Cynthia, and bright Arete, Another might seem fitter for this task, Than Crites far, but that you judge not so For I not to appear vindicative, Or mindful of contempts, which I contemn'd, As done of impotence must be remiss Who, as I was the author, in some sort, To work their knowledge into Cynthia's sight, So should be much severer to revenge The indignity hence issuing to her name But there's not one of these who are unpain'd, Or by themselves unpunished for vice Is like a fury to the vicious mind, And turns delight itself to punishment. But we must forward, to define their doom. You are offenders, that must be confess'd Do you confess it? All. We do. Cri. And that you merit sharp correction? All. Yes. Cri. Then we reserving unto Delia's grace Her farther pleasure, and to Arete What Delia granteth thus do sentence you That from this place for penance known of all, Since you have drunk so deeply of Self-love You, two and two, singing a Palinode, March to your several homes by Niobe's stone, And offer up two tears a-piece thereon, That it may change the name, as you must change, And of a stone be called Weeping-cross Because it standeth cross of Cynthia's way, One of whose names is sacred Trivia. And after penance thus perform'd you pass In like set order, not as Midas did, To wash his gold off into Tagus' stream But to the Well of knowledge, Helicon Where, purged of your present maladies, Which are not few, nor slender, you become Such as you fain would seem, and then return, Offering your service to great Cynthia. This is your sentence, if the goddess please To ratify it with her high consent The scope of wise mirth unto fruit is bent. Cyn. We do approve thy censure belov'd Crites Which Mercury, thy true propitious friend, A deity next Jove beloved of us, Will undertake to see exactly done. And for this service of discovery, Perform'd by thee, in honour of our name, We vow to guerdon it with such due grace As shall become our bounty, and thy place. Princes that would their people should do well, Must at themselves begin, as at the head For men, by their example, pattern out Their imitations, and regard of laws A virtuous court, a world to virtue draws. EXEUNT CYNTHIA AND HER NYMPHS, FOLLOWED BY ARETE AND CRITES AMORPHUS, PHANTASTE, ETC., GO OFF THE STAGE IN PAIRS, SINGING THE FOLLOWING PALINODE. Amo. From Spanish shrugs, French faces, smirks, irpes, and all affected humours, CHORUS. Good Mercury defend us. Pha. From secret friends, sweet servants, loves, doves, and such fantastic humours, CHORUS. Good Mercury defend us. Amo. From stabbing of arms, flap-dragons, healths, whiffs, and all such swaggering humours, CHORUS. Good Mercury defend us. Pha. From waving fans, coy glances, glicks, cringes, and all such simpering humours, CHORUS. Good Mercury defend us. Amo. From making love by attorney, courting of puppets, and paying for new acquaintance. CHORUS. Good Mercury defend us. Pha. From perfumed dogs, monkies, sparrows, dildoes, and paraquettoes. CHORUS. Good Mercury defend us. Amo. From wearing bracelets of hair, shoe-ties, gloves, garters, and rings with poesies. CHORUS. Good Mercury defend us. Pha. From pargetting, painting, slicking, glazing, and renewing old rivelled faces. CHORUS. Good Mercury defend us. Amo. From 'squiring to tilt yards, play-houses, pageants, and all such public places. CHORUS. Good Mercury defend us. Pha. From entertaining one gallant to gull another, and making fools of either, CHORUS. Good Mercury defend us. Amo. From belying ladies' favours, noblemen's countenance, coining counterfeit employments, vain-glorious taking to them other men's services, and all self-loving humours, CHORUS. Good Mercury defend us. MERCURY AND CRITES SING. Now each one dry his weeping eyes, And to the Well of Knowledge haste Where, purged of your maladies, You may of sweeter waters taste And, with refined voice, report The grace of Cynthia, and her court. EXEUNT. THE EPILOGUE. Gentles, be't known to you, since I went in I am turn'd rhymer, and do thus begin. The author jealous how your sense doth take His travails hath enjoined me to make Some short and ceremonious epilogue But if I yet know what, I am a rogue He ties me to such laws as quite distract My thoughts, and would a year of time exact. I neither must be faint, remiss, nor sorry, Sour, serious, confident, nor peremptory But betwixt these. Let's see to lay the blame Upon the children's action, that were lame. To crave your favour, with a begging knee, Were to distrust the writer's faculty. To promise better at the next we bring, Prorogues disgrace, commends not any thing. Stiffly to stand on this, and proudly approve The play, might tax the maker of Self-love. I'll only speak what I have heard him say, By'tis good, and if you like't, you may. Ecce rubet quidam, pallet, stupet, oscitat, odit Hoc volo nunc nobis carmina nostra placent. GLOSSARY ABATE, cast down, subdue. ABHORRING, repugnant to, at variance. ABJECT, base, degraded thing, outcast. ABRASE, smooth, blank. ABSOLUTELY, faultlessly. ABSTRACTED, abstract, abstruse. ABUSE, deceive, insult, dishonour, make ill use of. ACATER, caterer. ACATES, cates. ACCEPTIVE, willing, ready to accept, receive. ACCOMMODATE, fit, befitting. The word was a fashionable one and used on all occasions. See Henry IV., pt. 2, iii. 4. ACCOST, draw near, approach. ACKNOWN, confessedly acquainted with. ACME, full maturity. ADALANTADO, lord deputy or governor of a Spanish province. ADJECTION, addition. ADMIRATION, astonishment. ADMIRE, wonder, wonder at. ADROP, philosopher's stone, or substance from which obtained. ADSCRIVE, subscribe. ADULTERATE, spurious, counterfeit. ADVANCE, lift. ADVERTISE, inform, give intelligence. ADVERTISED, be, be it known to you. ADVERTISEMENT, intelligence. ADVISE, consider, bethink oneself, deliberate. ADVISED, informed, aware are you? have you found that out? AFFECT, love, like aim at move. AFFECTED, disposed beloved. AFFECTIONATE, obstinate prejudiced. AFFECTS, affections. AFFRONT, give the, face. AFFY, have confidence in betroth. AFTER, after the manner of. AGAIN, AGAINST, in anticipation of. AGGRAVATE, increase, magnify, enlarge upon. AGNOMINATION. See Paranomasie. AIERY, nest, brood. AIM, guess. ALL HID, children's cry at hide-and-seek. ALL-TO, completely, entirely all-to-be-laden. ALLOWANCE, approbation, recognition. ALMA-CANTARAS astronomy, parallels of altitude. ALMAIN, name of a dance. ALMUTEN, planet of chief influence in the horoscope. ALONE, unequalled, without peer. ALUDELS, subliming pots. AMAZED, confused, perplexed. AMBER, AMBRE, ambergris. AMBREE, MARY, a woman noted for her valour at the siege of Ghent, 1458. AMES-ACE, lowest throw at dice. AMPHIBOLIES, ambiguities. AMUSED, bewildered, amazed. AN, if. ANATOMY, skeleton, or dissected body. ANDIRONS, fire-dogs. ANGEL, gold coin worth 10 shillings, stamped with the figure of the archangel Michael. ANNESH CLEARE, spring known as Agnes le Clare. ANSWER, return hit in fencing. ANTIC, ANTIQUE, clown, buffoon. ANTIC, like a buffoon. ANTIPERISTASIS, an opposition which enhances the quality it opposes. APOZEM, decoction. APPERIL, peril. APPLE-JOHN, APPLE-SQUIRE, pimp, pander. APPLY, attach. APPREHEND, take into custody. APPREHENSIVE, quick of perception able to perceive and appreciate. APPROVE, prove, confirm. APT, suit, adapt train, prepare dispose, incline. APTLY, suitabley, opportunely. APTITUDE, suitableness. ARBOR, make the, cut up the game Gifford. ARCHES, Court of Arches. ARCHIE, Archibald Armstrong, jester to James I. and Charles I. ARGAILE, argol, crust or sediment in wine casks. ARGENT-VIVE, quicksilver. ARGUMENT, plot of a drama theme, subject matter in question token, proof. ARRIDE, please. ARSEDINE, mixture of copper and zinc, used as an imitation of gold-leaf. ARTHUR, PRINCE, reference to an archery show by a society who assumed arms, etc., of Arthur's knights. ARTICLE, item. ARTIFICIALLY, artfully. ASCENSION, evaporation, distillation. ASPIRE, try to reach, obtain, long for. ASSALTO Italian, assault. ASSAY, draw a knife along the belly of the deer, a ceremony of the hunting-field. ASSOIL, solve. ASSURE, secure possession or reversion of. ATHANOR, a digesting furnace, calculated to keep up a constant heat. ATONE, reconcile. ATTACH, attack, seize. AUDACIOUS, having spirit and confidence. AUTHENTICAL, of authority, authorised, trustworthy, genuine. AVISEMENT, reflection, consideration. AVOID, begone! get rid of. AWAY WITH, endure. AZOCH, Mercurius Philosophorum. BABION, baboon. BABY, doll. BACK-SIDE, back premises. BAFFLE, treat with contempt. BAGATINE, Italian coin, worth about the third of a farthing. BAIARD, horse of magic powers known to old romance. BALDRICK, belt worn across the breast to support bugle, etc. BALE of dice, pair. BALK, overlook, pass by, avoid. BALLACE, ballast. BALLOO, game at ball. BALNEUM BAIN MARIE, a vessel for holding hot water in which other vessels are stood for heating. BANBURY, brother of, Puritan. BANDOG, dog tied or chained up. BANE, woe, ruin. BANQUET, a light repast dessert. BARB, to clip gold. BARBEL, fresh-water fish. BARE, meer bareheaded it was a particular mark of state and grandeur for the coachman to be uncovered Gifford. BARLEY-BREAK, game somewhat similar to base. BASE, game of prisoner's base. BASES, richly embroidered skirt reaching to the knees, or lower. BASILISK, fabulous reptile, believed to slay with its eye. BASKET, used for the broken provision collected for prisoners. BASON, basons, etc., were beaten by the attendant mob when bad characters were carted. BATE, be reduced abate, reduce. BATOON, baton, stick. BATTEN, feed, grow fat. BAWSON, badger. BEADSMAN, prayer-man, one engaged to pray for another. BEAGLE, small hound fig. spy. BEAR IN HAND, keep in suspense, deceive with false hopes. BEARWARD, bear leader. BEDPHERE. See Phere. BEDSTAFF, ? woo</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Stand By Me (Lover Stax Mix)</t>
+          <t>There Goes My Baby</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>11 Jay Oc - Broken, Vol. 1 - EP - 55 Lewis Capaldi - Broken By Desire To Be Heavenly Sent Extended Edition - 1717 twikipedia - still-life - 77 12 Alemán - Confesiones - EP - 77 13 Darkiel - Todo A Su Tiempo vol.1 - 510 14 Luis R Conriquez - Corridos Bélicos, Vol. IV - 2323 15 Davus - No Cap 2.5 - 2525 Dj Booker NLE Choppa - The Chosen Ones - 77 Israel B, Ergo Pro Ill Pekeño - Galerias Deva - EP - 55 Ñengo Flow - RealG4Life, Vol. 4 - 2121 Pile - Hot Air Balloon - EP - 55 rubyred - business casual - 315 Sarunosa - one of these nights - 1010 Shed Seven - A Matter Of Time - 1212 SPRINTS - Ltter To Self - 1111 16 Dimelow Pro - Surtido Rico Vol. 1 - EP - 46 Moona Hoshinova - ORBITURE - EP - 55 18 ITZY - BORN TO BE - 1010 Prme - Penthouse - 1212 110 Emirsito - Karmeis - 210 Nicki Minaj - FTCU - EP - 55 Teezo Touchdown - How Do You Sleep At Night? With You - 1717 Umer Anjum - Against All Odds - EP - 66 111 Blackthoven Cecilio G. - LIFE IN PLASTIC 2 - 99 KHEA - SEROTONINA Deluxe - 1616 Kindapatri - AUTOSABOTAJE - EP - 55 Milo j - Live Set - 111 - EP - 44 Tracy McGrady - URANO - 212 Vesta Lugg - MUY MUCHO - 211 112 - Are You There God? It's Me, - EP - 55 6ix9ine - BLACKBALLED - 99 21 Savage - american dream - 1515 22Gz - Growth Development II - 1010 Armin van Buuren - Breathe In - 1212 Bill Ryder-Jones - Iechyd Da - 1313 Blueface - Free Blueface - 77 Casey - How To Disappear - 1212 Cast of Mean Girls - Mean Girls Music From The Motion Picture - 1313 Chanel - Agua! - 1212 D-Block Europe - Rolling Stone - 1515 Dante - Ártico - 1112 Dexta Daps - TRILOGY - 416 Folly Group - Down There! - 1010 GMO Stax - Youngest N Charge 2 - 615 Jeymes Samuel - The Book of Clarence - 99 Joel Corry - Hey DJ The Remixes 2 - 44 K CAMP - Float 2 London - 1818 Kali Uchis - ORQUÍDEAS - 1414 Kid Cudi - INSANO - 2121 Marika Hackman - Big Sigh - 1010 Rebe - es que acaso no me oyes?? - 1111 S4BRINA - PORCELAINANGEL - 911 Samaria - Even Paradise Rains - 88 SLIFT - ILION - 48 The Vaccines - Pick-Up Full Of Pink Carnations - 1010 Unknown T - Blood Diamond - 1717 Vacations - No Place Like Home - 1010 YAUX - GORE STREET BOSS - 77 YG Teck - 4th Quarter Gangsta Grillz - 1616 113 Nicki Minaj - Pink Friday 2 Gag City PLUTO Edition - 2525 115 Jenry Cancura, Mc Unabez DJ Perez - Recuerdos para Olvidar - 012 xaviersobased - keep it goin xav - 1515 116 Los Encinos De Sinaloa - El Precavido En Vivo - 09 118 Ana Tijoux - Vida - 1515 Ariana Grande - yes, and? - 88 Buitres - 360 En Vivo - 018 Los Nocheros - Nocheros en la mesa - 16 Mushkaa - SexiSensible - 99 Myriam Hernández - Tauro - 1010 Roylets - LOOK MOM I'M HUMAN! - 08 119 1K Phew Zaytoven - Pray for Atlanta - 99 Abigail Osborn - how do you know when it feels right? - EP - 55 Achepe, Sipo One T-Killa - Trinidad - 012 Ben J. Connolly - Phaethon - Becalmed feat. Echo Collective - 817 Birthmark - Birth of Omni - 410 Caceres - Ligaito Vol. 1 Acustico - 06 DESTIN CONRAD - SUBMISSIVE2 - 99 Eladio Carrión - Sol María - 1717 Estilo Sin Limite - MMV - 313 Enno Bunger - Das beste Verlierer - 1212 ericdoa - DOA - 1010 FlyCharlie - En Un Viaje Original - 07 Fredo Bang - Yes, I'm Sad - 1414 Goldin - HIGH FASHION - EP - 55 glass beach - plastic death - 1313 Green Day - Saviors - 1515 Jeremy Renner - Love and Titanium - 16 Kyle Dion - If My Jeans Could Talk - 88 La Faraona - Sahara - 08 Lil Dicky - Penith The DAVE Soundtrack - 2222 Lil Tecca - TEC Bonus - 1717 Los Ramones De Nuevo Leon - De Qué Color Es La Suerte? - 010 Lyan - Bundle Pack - EP - 16 Mick Jenkins - The Patience Deluxe Edition - 1313 Neck Deep - Neck Deep - 1010 PACKS - Melt the Honey - 1111 PLK - Chambre 140 Part. 1 - 1111 Shay - Pourvu qu'il pleuve - 1515 SheedTs - C My Side Deluxe - 2020 Sleater-Kinney - Little Rope - 1010 SVDDEN DEATH - Harbinger - 910 UMI - talking to the wind - EP - 44 UNEEK - SICK - EP - 33 Valley - songs that got lost in translation - 2222 Various Artists - Hazbin Hotel Original Soundtrack Part 1 - 66 120 Algariithe1 - Después Del Perreo - EP - 05 MECHAYRXMEO - RX Un lujo - EP - 66 121 Los Canelos de Durango - En Vivo Con Banda En Vivo - 013 122 LUCKI - 2 Faced - 22 123 Alicia Keys - Alicia Keys Rehearsal Room Live - 33 Daby Morondo Patser - BLOCKSTARS - EP - 36 EVILGIANE - HEAVENSGATE VOL. 1 - 2323 Madonna - Material Girl 2024 Remaster - EP - 33 Sintaxis - Volumen II - 28 124 ariox - ARIOX IS SUPER SAD - 013 Bon Jovi - Bon Jovi Deluxe Edition - 1818 Loam - Grief Outlet - 13 Young Cister - PLANES DE MEDIANOCHE - 1313 125 Blessd - SI SABE - 1414 Dafina Zeqiri - The Absolute Vol. 1 - 1212 Jacquees - Back to Me - 1616 Luka Simons 8belial - Joven Belleza - EP - 06 Mooroo - Bittersweet - EP - 14 Yan Block - Pitcher - 77 126 22Gz, DJ Candlestick OG Ron C - Growth Development II CHOPPED NOT SLOPPED - 112 Albee Al - ALBEE FOR PRESIDENT - 1515 Ashley Kutcher - House On The Water - 1010 Bad Gyal - La Joia - 1515 Bea Kres - Zz - 88 BEN plg - Dire je t'aime - 1414 Benny the Butcher - Everybody Can't Go - 1212 Connor Kauffman - Two Hearts - 38 Courting - New Last Name - 99 CRIMEAPPLE Preservation - El León - 111 Curreny Trauma Tone - Highway 600 Deluxe Edition - 1217 Danny Yash - TELL ME THINGS, Vol. 01 - 014 El Proyecto - DRAMA - 1111 Emotional Oranges Nonso Amadi - Blended - EP - 44 Etta Marcus - The Death Of Summer Other Promises - 88 Future Islands - People Who Aren't There Anymore - 1212 Gruff Rhys - Sadness Sets Me Free - 1010 Henry Moodie - in all of my lonely nights - EP - 66 Jade Naïa - 1414 - 33 James Arthur - Bitter Sweet Love - 1313 Jorkan - YOUNG LEGEND UNC - 07 junodream - Pools of Colour - 1010 Katy Kirby - Blue Raspberry - 1111 Kevin Gates - The Ceremony - 1717 Lenin Ramírez - Bien Positivo - 512 LP - Love Lines Deluxe Version - 1515 Lyrical Lemonade - All Is Yellow - 1414 Madeline Juno - Nur zu Besuch - 314 mademoiselle lou - LES OMBRES - EP - 66 Mägo de Oz - Alicia en el Metal Verso - 99 Morgan Wallen - Stand Alone 10th Anniversary Deluxe Edition - 1313 NewDad - MADRA - 1111 NGeeYL - SSetilian - 1316 PLK - Chambre 140 Part. 2 - 1010 Quarters of Change - Portraits - 1111 Raffaella - LIVE, RAFF, LOVE Act II - 66 Rob tone - BONA FIDE - 320 Sigma - London Sound - 1115 slowshift - world going one way - 69 Static-X - Project Regeneration, Vol. 2 - 1414 The Reytons - Ballad Of A Bystander - 1212 The Smile - Wall of Eyes - 88 The Umbrellas - Fairweather Friend - 310 Tom Odell - Black Friday - 1313 TORRES - What an Enormous Room - 1010 tuv - ear candy 1.5 - EP - 55 Ty Segall - Three Bells - 1515 Various Artists - Hazbin Hotel Original Soundtrack Part 2 - 44 Willi Carlisle - Critterland - 1010 Wos LasPalmas - Muerto Sería Rico - 615 Zexta Alianza - Van Hablar - 015 127 Belle Mariano - And Solemn - EP - 55 130 Madonna - Keep It Together - EP - 55 131 George Martins - PowerFuel - 55 Gloria Trevi - Mi Soundtrack, Vol. 3 - 911 KYR4 - No Llores - EP - 66 SZA - Apple Music Live SZA - 20201</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Stand By Me (One World: Together At Home)</t>
+          <t>There Goes My Baby</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>31 Drake - Chicago Freestyle ft. Giveon Drake - When to Say When Lil Uzi Vert - That Way Loreen - Fiction Feels Good 32 EPTHEMARS - Benz Truck ft. SwaVay JAHMED - JEEP Lilmar - Sad and Sober NoCap - Stop Spinnin' Rina Sawayama - XS The Lemon Twigs - The One YoungBoy Never Broke Again - Ten Talk 33 Cub Sport - Confessions Dan Bull - Tinker, Tailor, Soldier 76 Eleni Foureira - Yayo Empress Of - Give Me Another Chance Four Tet - 4T Recordings Giraffage - Workout Grouplove - Youth HAIM - The Steps Macy Kate - L.O.V.E. Orchards - Magical Thinking RARE Sound - Big Dawg Status REASON - Trapped In ft. Ab-Soul Boogie Silverstein - Madness ft. Princess Nokia 34 Aquilo - Sober AURORA - Into the Unknown Dermot Kennedy - Resolution Dixie Chicks - Gaslighter Dwn2earth - Ice on Me Ego Ella May - How Long 'Til We're Home Fickle Friends - Eats Me Up Greentea Peng - Ghost Town Hazel English - Combat Jeangu Macrooy - Grow Lil Skies - Havin' My Way ft. Lil Durk Little Dragon - Are You Feeling Sad? ft. Kali Uchis Louis the Child Foster the People - Every Color pronoun - Song Number 1.5 PVRIS - Dead Weight Róisín Murphy - Murphy's Law SLANDER Said the Sky - Potions Acoustic ft. JT Roach The Aces - Daydream TOPS - Colder Closer Nurko - Faith ft. Dia Frampton 35 88GLAM - Swim Aitch AJ Tracey - Rain ft. Tay Keith Alec Benjamin - These Two Windows Austra - Anywayz Bazzi - Young Alive Biffy Clyro - End Of Bree Runway - APESHIT Chet Porter - Bummed ft. Alison Wonderland DABEATFREAKZ - Self-Obsessed ft. Deno Driz, Krept Konan D-Block Europe Katy Perry - Never Worn White Lil Toe - No Opptions Lola Young - Pick Me Up Morgan - My Year Runway - Fire ft. DJ Snake French Montana 36 4B - Lucid ft. Abraham Mateo Austin Mahone 42 Dugg - Palm Angels In the Sky Abraxis Crystal Skies - Night Rider AJ Mitchell - Spring Break ft. Rich The Kid Alan Walker K-391 - End of Time ft. Ahrix Alesso Dubvision - One Last Time Ashnikko - Tantrum Based Savage - Glitter ft. GNAR Beatrich - Flashback Bianca - Woman BJ the Chicago Kid - The People Blueface - Holy Moly ft. NLE Choppa BROCKHAMPTON - SUGAR Remix ft. Dua Lipa C-Dubb - My Wayz ft. 2 Chainz CG5 - To the Dungeons ft. NateWantsToBattle Cobi - Keep Climbing cupcakKe - Lawd Jesus Cyn - DRINKS David Guetta MORTEN - Detroit 3AM Demi Lovato - I Love Me Deniro Farrar - Ubiquitous ft. Erick Lottary Desiigner - Diva DJ Chose - Might Not ft. Fredo Bang Elderbrook - Numb FUTURISTIC - Motion Grace VanderWaal - Today and Tomorrow Gunna - SKYBOX Hinds - Come Back and Love Me 3 Hogland KIDDO - Without Wings John Newman - Stand By Me Kiesza - All of the Feelings Kito - Alone With You ft. AlunaGeorge Kodaline - Sometimes Kranium - Money in the Bank Remix ft. Kelvyn Colt Leven Kali - 12345 Get Real Lil Dude Goonew - HOMICIDEDOUBLEBACK Lil Esco 28 RobThePlayboy - Corona Lil Zay Osama - BMW Lil Zay Osama - Soul Cry LoveLeo - ROSIE M.O - Going Out Of My Way ft. Mr Eazi Matt Fax - Light On Mia Vaile - Chasing California Millie Turner - Jungle Niall Horan - No Judgement Acoustic Peach Pit - Black Licorice Peg Parnevik - Bad Bitch POORSTACY - DARKNESS Project Youngin - Permanent Scars Ramriddlz - Helluva Rich The Kid - Red Ro James - Touchy Feely Selena Gomez - Rare Live from the Village Studio Shoffy - Tricky ft. Sabrina Carpenter Smurf G - Go Get It ft. Fredd G OMB Peezy Sondr VIZE - Kids ft. Lilly Ahlberg Stan Walker - I Dont Want the Fame Steve Aoki - Halfway Dead ft. Global Dan Travis Barker Trevor Daniel - Past Life Unlike Pluto - Life in a Hole WHIPPED CREAM Jasiah - DUMB SH!T Wiley - Wearing My Rolex Remix ft. Hypo 37 JT Music - Rest in Ink ft. Andrea Storm Kaden Now United - Come Together 38 Rockit Gaming - Darkest Nights 39 Dan Bull - Zarya Codes Egzod - Face the Facts Grouplove - Inside Out Lil Darkie - SATAN LIVES IN HOLLYWOOD Lil Yachty DaBaby - Oprah's Bank Account ft. Drake Monique Lawz - Worth It ft. Wiley SoMo - Sinkin Down Who-ya Extended - Synthetic Sympathy Wiz Khalifa - Bammer ft. Mustard Yves Tumor - Kerosene! ft. Diana Gordon 310 Alina Baraz - Morocco ft. 6LACK Anderson .Paak Justin Timberlake - Dont Slack Anna Burch - Tell Me Whats True Dream Wife - Sports! Duke Dumont - Love Song Far Caspian - Today Fenne Lily - Hypochondriac John Gabbana - About To Be Rich John-Robert - Urs KaiyaA - Negus Poem 1 2 Mozzy - Tunnel Vision Porter Robinson - something comforting RDGLDGRN - Danger ft. Alexandra Stan Nitty Scott Sharon Van Etten - Staring at a Mountain Suigeneris - Scrubs ft. Yung Pinch Xanman - Pain In Me Yaeji - Waking Up Down YoungBoy Never Broke Again - DROPEM 311 Cadet - Support Me Circa Waves - Battered Bruised Dan Bull - Super Smash Bros Confession ft. DAGames Felly - Something Restless Flume - The Difference ft. Toro y Moi JFDR - Think Too Fast Kacy Hill - I Believe In You ft. Francis and the Lights Kayzo JUMEX - Breakable Margo Price - Twinkle Twinkle Maya B - Sink ft. SAINt JHN mxmtoon - quiet motions p4rkr - sum1 tht i knew RAC - Stuck on You ft. Phil Good Sean Paul Tove Lo - Calling on Me NY Performance Tom Misch Yussef Dayes - Lift Off ft. Rocco Palladino Westerman - Think Ill Stay ZenAware - Falling 312 Ava Max - Kings Queens Bandingo YGNE - Baby Powder 2 Deb Never Kenny Beats - Stone Cold girlpool - Like Im Winning It Joyner Lucas - Lotto Kevin Gates Charlie Sloth - Fire In The Booth KEY! - Sugar Rice Lil Boom - Fuck Rudy Gobert Luh Kel - Wrong Remix ft. Lil Tjay Mei River - Her STRFKR - Deep Dream The Killers - Caution Tones and I - Bad Child Tones and I - Cant Be Happy All the Time 313 24hrs DJ Drama - Selfies 8 Graves - Better Off Dead A.CHAL - Pink Dust Ace Hood - Confident B La B - WHO I BE B. Lou - No Trust bbno Lentra - mememe BENNY THE BUTCHER - Did I Black Atlass - By My Side ft. SONIA Ceraadi - Secure the Bag CG5 - Happy Accidents Col3trane - Good News Cuban Doll - Cut the Check ft. Sukihana D Savage - MIA Dance Gavin Dance - Strawberrys Wake DaniLeigh - Levi High ft. DaBaby Dinah Jane - Lottery Ellie Goulding - Worry About Me ft. blackbear Emilie Nicolas - Whos Gonna Love You Far Out Karra - Constellation Felix Cartal Sophie Simmons - Mine Felix Jaehn - SICKO ft. FAANGS GASHI Fivio Foreign - Big Drip Remix ft. Lil Baby Quavo FLETCHER - Forever FUTURISTIC - Champion Gatlin - I Think About You All The Time Gia Woods EGO Global Dan Global Chi - F.T.B. Guapdad 4000 - Greedy Hayley Williams - Simmer Caroline Polachek Remix Helynt - Animal Crossing Jackboy - Murda ft. Casanova Jazz Cartier - Itchin' for a Lick JoJo - Man Jonas Blue Paloma Faith - Mistakes Club Mix Kehlani - Toxic Kiana Ledé - Forfeit ft. Lucky Daye Kierra Luv - Good Day ft. Ray Moon Kota Banks - Italiana Laura Goldthorp - Movie Rain Lennon Stella - Jealous LIL MAYO - I Do What I Want When I Want To Lil Tecca - All Star ft. Lil Tjay Lil West Brevin Kim - Bleach Little Big - UNO Love Regenerator Calvin Harris - Give Me Strength Love Regenerator Calvin Harris - Peace Love Happiness M-22 - Cant Stop Loving You Machine Gun Kelly - Bullets with Names ft. Lil Duke, RJmrLA Young Thug MIMI - Home ft. Mwuana MOTHERMARY - Catch Fire Norah Jones - Im Alive Octavian Skepta - Papi Chulo OneRepublic - Didn't I Pip Millett - June R3HAB Elena Temnikova - Where You Wanna Be Ria Mae - For Your Love Rita Ora - How to Be Lonely Rufus Wainwright - Peaceful Afternoon Saint Motel - A Good Song Never Dies Soko - Are You a Magician? Teyana Taylor - We Got Love ft. Lauryn Hill THEY. - Red Light Green Light Tyga Megan Thee Stallion - FREAK YNW Melly - Suicidal Remix ft. Juice WRLD Yung Booke - Pissed Off ft. Box Head Lil Baby Yung Pinch - 21 Xanman - Different 314 Shontelle - Remember Me Smino - TEMPO 315 Groundbreaking - music to feel alone to Rockit Gaming - Just Too Late ft. Lindsay Joan 316 Dan Bull - Half-Life 2 Låpsley - Speaking of the End Masego - Kings Rant Perfume Genius - On the Floor Shura - elevator girl ft. Ivy Sole Smokepurpp - Excuse Me Tinie Tempah - Top Winners ft. Not3s Waxahatchee - Can't Do Much wifisfuneral - ColdAsIce 317 All Time Low - Getaway Green BABii - SNAKE Early Eyes - Marigolds Pretenders - The Buzz Rico Nasty - Lightning Thundercat - Fair Chance ft. Lil B Ty Dolla ign Vistas - 15 Years 318 Alexander 23 - Loving You Gets Hard Conan Gray - Wish You Were Sober Dua Lipa - Physical Remix ft. Hwa Sa Giraffage - Basketball JG - OUTSIDE ft. Byrus West Kai Wachi Dylan Matthew - Run Maya Hawke - By Myself Nothing But Thieves - Is Everybody Going Crazy? Purity Ring - peacefall Purity Ring - pink lightning Rod Wave - Pray 4 Love Sevdaliza - Lamp Lady The Avalanches - Running Red Lights ft. Pink Siifu Rivers Cuomo Unlike Pluto - 8 Legged Dreams 319 Cat Pierce - The Beginning of the End Childish Major - Wife You Dan Bull - Doom Doom Doom Doom Doom Doom Doom Doom Doom Doom Doom Doom Doom Danity Kane - New Kings dvsn - Between Us ft. Snoh Aalegra Hayley Williams - RosesLotusVioletIris Holly Humberstone - Falling Asleep at the Wheel Isaac Dunbar - scortons creek JPEGMAFIA - Covered In Money! Kevin Gates - Always Be Gangsta Freestyle KEY! - Lets Go Love Fame Tragedy - Multiply ft. Jack River Manny Norté, 6LACK, Rema Tion Wayne - 4AM ft. Love Renaissance LVRN Mavi Phoenix - 12 Inches Lucki - Role Play Melanie C - Who I Am OR3O - Gentleman Georges Theme Pabllo Vittar - Tímida ft. Thalía Random Encounters - Goose on Holiday RHODES - This Shouldn't Work RIMON - The Morning Terror Jr - Fun The Shadowboxers - How Many Ways YBN Nahmir - 2 Seater ft. G-Eazy Offset 320 Aaron Carpenter - You ADE - Dont Cry ft. Trevor Jackson Almondmilkhunni - Cherry ft. lil aaron Arlissa - Healing Azealia Banks - Slow Hands B La B - SHARP SCISSORS ft. Mag1k The Notorious Gooxh Bryce Vine - Baby Girl Remix ft. Jeremih Buju Banton - Trust Remix ft. Tory Lanez Casper the Ghost Yaeger - Peace n War Cavetown - I Miss My Mum CG5 - Stay at Home Chloe Lilac - Obvious Comethazine - NO FRONT Dinah Jane - 1501 Don Diablo - Bad ft. Zak Abel Ea Kaya - Kitchen Table Eyelar - Couple Hours Grace Davies - Addicted to Blue Guapdad 4000 - Platinum Falcon Hot Chelle Rae - Tomorrow Me HoodCelebrityy - Run Di Road Isak Danielson - Domino Jada - Nudes John Legend - Actions Josef Salvat - paper moons Justin Rarri - RICCHEZZA K CAMP - Black Men Don't Cheat ft. Ari Lennox, 6LACK Tink Kaiba Chief Keef - Overdose Kap G - No Heart ft. Lil Keed Koethe - Whiteout Lafawndah - Deep See Lauren Jauregui Tainy - Lento Last Hereos - Underneath The Waves ft. Monika Santucci Lecrae - Set Me Free ft. YK Osiris Like Saturn - You Were Gone lil ricefield - Symphony Lil Tracy Marvy Ayy - bonjour! LilCockPump - Twitch Lilly Ahlberg - Hurting Lisa Cimorelli - Lose My Mind Lukas Graham - Scars Mabes - Keeping the Noise Down Matisse Sadko - Strings Again MGMT - As You Move Through the World Nebu Kiniza - Can't Deny ft. Lil Tecca Noah Cyrus - I Got So High That I Saw Jesus Oh Land - I Miss One Week Ago Passenger - The Way That I Love You PHresher - Point Em Out ft. A Boogie Wit da Hoodie Pouya Danny Towers - Florida's Finest Quin NFN - All Blues Rebecca Fiona - Fet House Mode Refractions - Ur Man ft. Andrés Riot Ten Shaquille O'Neal - Ultimate ft. T-Wayne Rockit Gaming - Raze Hell ft. VideoGameRapBattles Neebs Gaming Rudimental The Martinez Brothers - Easy On Me SAYGRACE - Boys Ain't Shit Estos Chicos No Lo Son Remix ft. Becky G Sinéad Harnett - Be the One Remix ft. Col3trane Snakehips TroyBoi - Wavez somegirlnamedanna - hello i am Steve Aoki - Love You More ft. LAY will.i.am Tamar Braxton - Crazy Kind of Love Tee Grizzley - Payroll ft. Payroll Giovanni thasup - COVID-19 Freestyle The Marías - Jupiter Tove Lo - I'm Coming Twin Tides - Wish You Were Here Tyde Levi - AAA Tymedust - On the Beach of Dreams Vic Sage - College ft. Mike Stud Wallows - OK Wankelmut SVEA - Give Take Young Chris, Wale Guapdad 4000 - Ryu Ken 321 JT Music - Home to Hell ft. Andrea Storm Kaden Lil Durk - Chiraq Demons ft. G Herbo Valee - Drop Yuh 322 Anne-Marie - Her DAGames - F Kyle Allen - Our New Horizon The Kid LAROI. - Addison Rae M.E.T.A.L. - To the End of Times 323 Gordi - Aeroplane Bathroom IceJJFish - Jesus is the Way Josie Proto - BTEC Lily Allen LilCockPump - Drake Josh Magic Sword - Empress Tory Lanez - W Wiz Khalifa - Contact ft. Tyga 324 All Time Low - Melancholy Kaleidoscope Conway the Machine The Alchemist - Shoot Sideways ft. ScHoolboy Q Jeremy Zucker - julia KILL.ZERO - lovely ROSALÍA - Dolerme Run the Jewels - Yankee and the Brave ep. 4 The Stupendium - Nook, Line Sinker 325 5 Seconds of Summer - Wildflower Becky and the Birds - Wondering Classixx - One More Song ft. Roosevelt Dua Lipa - Break My Heart Emily Burns - Terrified Jacob Collier - In My Bones ft. Tank and the Bangas Kimbra Joey Trap - I Do Joyner Lucas - Will Keke Palmer - FYG Kid Buu - Death2Soundcloud P2 Kirko Bangz - No Calls Kirko Bangz - No Clothes ft. Propain Lido - Postclubridehomemusic MAJ - Quarantine Freestyle Moby Rich - Get High Nia Sioux - Low Key Love OneRepublic - Better Days Pearl Jam - Quick Escape Run the Jewels - Ooh LA LA ft. Greg Nice DJ Premier SahBabii - Double Dick Skepta, Chip Young Adz - Waze TOPS - Direct Sunlight Trav - You Choose ft. Tory Lanez TryHardNinja - Don't Forget ft. Not a Robot Unlike Pluto - Crawling 326 Alina Baraz - More Than Enough BlocBoy JB - Swervin Caleb Hyles - Bubblegum K.K. Vocal Cover Hailee Steinfeld - I Love You's Katelyn Tarver - Feel Bad Major Lazer - Lay Your Head on Me ft. Marcus Mumford Nasty C - There They Go Party Favor - ONCE MORE ft. Georgia Ku SwaVay - Okay Westside Tut - Get Back ft. YoungBoy Never Broke Again ZZ Ward - The Dark 327 2KBABY - OLD STREETS Remix ft. Lil Durk 2Scratch - Rich ft. Jooanmo 24hrs Ty Dolla ign - Superstar 645AR - In Love with a Stripper Alaina Castillo - just a boy Alex Mali - Problem Alexander Oscar - Bad Intentions Alicia Keys - Underdog Remix ft. Protoje Chronixx Asher Roth - Flowers on the Weekend Audrey Mika - Y U Gotta B Like That Remix ft. KYLE Augustine - Picking Up Speed Aura Dione - Colorblind AUSTN - Phases Bankrol Hayden - Costa Rica Remix ft. The Kid LAROI. BIA - FREE BIA 1ST DAY OUT Billy Raffoul - Swimming in the Deep End Bishop Nehru - Emperor Blanche - Fences Bright Light Bright Light - This Was My House ft. Niki Haris, Donna De Lory Initial Talk Call Me Karizma - Quarantine with Me Carlie Hanson - Daze Inn Channel Tres - Weedman chloe mk - Cosmic Colton Dixon - Devil Is A Liar Coucou Chloe - NOBODY Cub Sport - Drive DDG - Toxic Eli Sostre - Fish Elijah Blake - Frenemies Familiar - You Fivio Foreign - Wetty Florida Georgia Line - I Love My Country GASHI - Greatness grandson DREAMERS - Whole Lotta Guapdad 4000 - Dolce Gabbana Dalai Lama guccihighwaters - smother Hannah Jane Lewis - Love Letters Hanne Leland - Out of My Mind Ingrid Andress - Anything But Love ISA - Gravity Josh A Jake Hill - Wash Your Hands Kailee Morgue - Knew You KAMILLE - Love Attention Kane Brown John Legend - Last Time I Say Sorry Kayzo HELLBOUND! - No Regrets KREAM Imanos - Choices KSI - Poppin' ft. Smokepurpp Lil Pump Kygo, Zara Larsson Tyga - Like It Is Like Saturn - Not a Grunge Song Lil Loaded - Hit Em Up Lil Tjay - Only the Team ft. Lil Mosey Lil Xan - Everything I Own Little Mix - Break Up Song Lourdiz - Suicide Down ft. Lil Gotit LOVE SEPT. - WALK! lovelytheband - Waste Maisie Peters - Daydreams Mapei - Diamond Maurice Moore - Diamonds On Splash Matt Fax - The Wave ft. Ava Silver Maty Noyes - Sunlight Mick Jenkins - Frontstreet Mick Jenkins - Snakes Studio ft. Kojey Radical Mokita - Take It Back ft. Ella Vos Murda Beatz YNW Melly - Banana Split ft. Lil Durk MUST DIE! - NERVE DAMAGE NAV Gunna - Turks ft. Travis Scott Northshore - Fairweather Oliver Malcolm - Helen Paul Bartolomé - Not Okay ft. Matt Good Qveen Herby - Check R3HAB Andy Grammer - Good Example Rileyy Lanez - Left 4 Me Rockit Gaming - Radioactive S.L.M.N anders - Love in the Winter Sam Feldt - Hold Me Close ft. Ella Henderson Secrets - Comedown Sheppard - Somebody Like You Sigma Shakka - Rest Of My Life Slaves - Talk to a Friend Sody - Charlotte Steve Aoki Slushii - One True Love STRFKR - Budapest ft. Shy Boys Teejayx6 - Mosh Pit Tom Aspaul - W.M. Tory Lanez - Do the Most Trouble - Popped ft. Quavo UPSAHL - 12345SEX Zachary Knowles - cherry wine 328 gate - One Lilmar - All Girls Are Thots Tyga Curtis Roach - Bored in the House 329 Clever - Emotions in Motion DAGames - Hands of a Slayer Lil Durk - All Love 330 Drakeo the Ruler - Ion Rap Beef Remix ft. 03 Greedo Earl Sweatshirt Everything is Recorded - 1155 AM THIS WORLD Queen Naija - More Love ft. Mod da God Thomas Rhett - Be a Light ft. Keith Urban, Chris Tomlin, Hillary Scott Reba McEntire 331 Anthony Russo - Typical bbno Lentra - quarantine freestyle CG5 - Being Human Empress Of - Love is a Drug FISHER - Wanna Go Dancin' Lil Poppa - Misled Us Machine Gun Kelly Travis Barker - Misery Business Nascar Aloe - Angel Dust Rolling Blackouts Coastal Fever - She's There SVDDEN DEATH Snails - DEATHMATCH TM88 MadeinTYO - Tokyo Nights Xan Griffin - Newport Beach ft. Beau Rich Yung Baby Tate - Don't Want It Yung Trench - Brown Eyes</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Stand By Me (remix)</t>
+          <t>There Goes My Baby</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Bazzi - Young Alive Megan Thee Stallion - Captain Hook Demi Lovato - I Love Me Katy Perry - Never Worn White Lil Uzi Vert - That Way Jhené Aiko - B.S. feat. H.E.R. Bad Bunny - La Difícil Lauv - Invisible Things Alaina Castillo - ocean waves Dixie Chicks - Gaslighter Trevor Daniel - Past Life Gunna - SKYBOX BROCKHAMPTON - SUGAR Remix LoveLeo - ROSIE Alec Benjamin - The Book of You I HAIM - The Steps Niall Horan - Lover - Recorded at Air Studios, London Mickey Guyton - What Are You Gonna Tell Her? merci, mercy - Fucked Myself Up brakence - fwb Jessie Reyez - ANKLES Rich The Kid - Red Rina Sawayama - XS Shoffy - Tricky feat. Sabrina Carpenter Louis The Child - Every Color with Foster The People AJ Mitchell - Spring Break feat. Rich The Kid Blacc Zacc - Bang feat. DaBaby Lil Skies - Havin My Way feat. Lil Durk Buscabulla - NTE Empress Of - Give Me Another Chance Alesso - One Last Time Steve Aoki - Halfway Dead feat. Global Dan Travis Barker Bad Bunny - La Santa Austin McBroom - Only One Rod Wave - Thief In The Night Healy - Nikes On Christian French - crowded room Mandy Moore - Tryin' My Best, Los Angeles Lauren Alaina - In My Veins X Ambassadors - Belong flora cash - Still Alive Blueface - Holy Moly feat. NLE Choppa 88GLAM - Swim JAHMED - JEEP Ro James - Touchy Feely Absofacto - Lemon Drop Grace VanderWaal - Today and Tomorrow From Disney's Stargirl Phantogram - Dear God The Aces - Daydream Little Dragon - Are You Feeling Sad? Dalex - Perfume Ashnikko - Tantrum NOT - PRESSURE POORSTACY - Darkness Bush - Flowers On A Grave PVRIS - Dead Weight Kito - Alone With You feat. AlunaGeorge Christian Paul - Here Tonight Lola Young - Pick Me Up The Marías - Hold It Together M.O - Going Out Of My Way feat. Mr Eazi Leven Kali - 12345 Get Real Kranium - Money In The Bank feat. Kelvyn Colt Ebenezer - 3am in London RARE Sound - Big Dawg Status Medasin - Everytime Huron John - Andy Hamilton Leithauser - Isabella Overcoats - New Shoes MORGAN - My Year Rexx Life Raj - Rose Bowl NoCap - Stop Spinnin CJ Fly - I TRIED feat. OSHUN Jutes - Where Are You Going Asking Alexandria - Antisocialist Grouplove - Youth Cyn - Drinks - From Promising Young Woman Soundtrack Kodaline - Sometimes Brandy Clark - Pawn Shop Millie Turner - Jungle White Panda - Somebody Loves You VAVO - Day N' Night Carlos Vives - No Te Vayas Xavier Weeks - No Go Johan Lenox - i need a vacation Peach Pit - Black Licorice Caro - the first one John Newman - Stand By Me Lauren Auder - the shepherd</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Stand by me - single/lp version</t>
+          <t>There Goes My Baby</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>When the night has come and the land is dark And the moon is the only light we see No, I won't be afraid, oh, I won't be afraid Just as long as you stand, stand by me So darling, darling, stand by me, oh, stand by me Oh, stand, stand by me, stand by me If the sky that we look upon should tumble and fall Or the mountain should crumble to the sea I won't cry, I won't cry, no, I won't shed a tear Just as long as you stand, stand by me And darling, darling, stand by me Darling, darling, stand by me Whenever you're in trouble Won't you stand by me, oh, stand by me1</t>
+          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Stand By Me (The Road Up North Remix)</t>
+          <t>(There’s) No Place to Hide</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Finny Music Who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it Who run it, who run it These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out These niggas got plenty Anna but they ain't got plenty guns I'm bustin' out luxury cars, still got these hoes on the run I'm hearin' plenty mean words, but ain't no actions to boot We can do some straight war for war, we can do some stickin' and movin' We can meet in the middle of these streets or in the middle of this ring I can pop your chest, plastic Glock, or pop your jaw diamond rings Bitch don't hate me hate the bank, for stacks of cheese that I take Or hate my shiny wristband, and big ass rims I rotate See people flip when I'm comin', got suckas sick at the stomach They wonderin' what I brought in, they wonderin' what I got comin' Niggas I'm comin' like this, off in your mouth like a bitch Trust me when you think of me, I'm bringing water, I'll start it What's the business? It's that player that you love to hate, always see come out the bank Always have to mention my name, when you high on that drank Catch up with this boy you can't, cause you know I'm holdin' rank When you see the platinum Rolex with the ice it make you faint Through the streets now have you heard, 'bout the Mafia droppin' birds Runnin' from the narcs and cops, tossin' out the bags of herb Ain't afraid to pop the steel, hollow tips to make you feel If you wanna punk me out, Cartier's and a Dracula grill These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out I can't take anymore, I'm 'bout to explode I'm 'bout to overload, I'm 'bout to get it, boy All I wanna know is where the G's at, where the key's at Keep it easy, you don't want to get skeeted All on this motherfuckin' room, nigga, boom Lay down on your back so you can get up soon Stab you in your heart with a har-fuckin-poon Nigga, boom, nigga, boom Scarecrow's on it, I'm still hungry, starvin' for a platinum supper Wipe it easy, some black founded, crooked ass set'll be eating rubber 'Cause if they skit-skat, gun 'em all down, even ghost towns Splish-Splash, brains on the ground, with a cannon round Ball bat, bash him in his back, beatin' bitches down Battleaxe blaze from the cross, body never found Catch a close encounter cause the Anna kills off these rap bums Chemical reaction cobra venom shot into his arm These, these, these bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one of y'all step, the first one I'm a toss out Here we go, all you weak ass hoes In my face like you my friend Triple Six dropped in again, time to make ends Dope game, my game, hoes lame, it's a shame How that Gangsta Boo is runnin' the click up on you bitches man Fat cat, what I be, packin', how you love that Fuck a platinum plaque, gimme money, where the dollars at Blap, blap You're dead in a second for 10 G's Where you from? Black haven is where I be on my P's and Q's Parents please, watch out for your children This the one that'll lock 'em in the basement Some of them talkin' so rugged, some corrupted ugly pussa-pussa Close your fucking mouth, my nigga, Koopsta tryin' to tell ya somethin' Peter-Peter, pussy eater, one of them fucked by Koopsta Knicca Lord, I done some sins, cause she married, but I don't know that nigga Figured he is a killa, so he figures he'll watch us fuckin' Put them muthafuckin' slugs upside that thug, cuz, oh my These, the-these, these, these bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one of y'all step, the first one I'm a toss out For that dick game, wouldn't buy your bitch with my loose change Thirsty niggas eatin' bitches ass with the shit stain Insane like my motherfuckin' wrist game, nigga Houses on the hill cost the same fuckin' thing Counted up a hunnid this mornin' Then I went spent me 50 Then I hit the VLive, tryna buy me some ass and titties Rappers sample my old shit, keep runnin' 'em bags, I'm uh rich Get 'em samples cleared 'cause that publish you might not get some Niggas act like they don't owe me somethin' I'm the reason bitches twerkin' they ass, now show me somethin' Payin' homage is a real nigga move, bitch I paid my dues Sold a million out the trunk, you niggas uber poo Pour that mud up like that butter, first nigga with that pipe in the club Used to have to turn my shit up, had niggas tryna fight in the club Y'all leaving with them, we hit them hoes right in the club And I know I'm icy'd up, pinky just like that dub You gotta like my shit, you a hater or somethin' I'm a grown ass man, you a baby or somethin' Probably fucked yo mama on the come up in the 80's, homie Don't you ever try to play me, homie Got a wife now like Kanye And I wish a bitch would try to bite her like Beyonce My daughter 2 months and she been paid Boutta sign more deals, cop more real estate Me and Pat used to rob for 'em petty things Now it's nothin' less than private jets, 7 figure checks Hater, catch yo fuckin' breathe, you broke, ain't got nothin' left We them niggas in Dubai from the north, don't you ever flex Mafia, runnin' shit, Juicy J ain't never quit Ain't a bitch I never hit, still countin' paper, bitch When the smoke clears, nigga, I'm still here Higher than I been in 20 goddamn years, uh Motherfuckin' legend get your smoke right, dope right Who run it Ain't no conversation for that broke life, show right, Who run it bitch Let me talk my shit real quick Who run it, all the real niggas gon' feel this How that's yo' kid but he ain't got bills? Can't find you in family pics Food stamps, they go so quick when you up in a family of six So it's funny how they sell that shit for a little pack of weed and a new pair of kicks Man, I'm so dead, I can't, inside I feel so blank Little girls on Twitter talkin' 'bout they break up, girl, sit back on Paint If I'm alive, no complaints, none of these judges saints Let the black beat her, that's 10 years, but if white beat her, nice tank It's so ridiculous, ain't shit funny, ain't ticklish Don't test me if I'm with the shits, end up in a cage, no Nicholas Everything about me is interesting, I'ma need more and more Benjamins Damn, I can't breathe, stop smoking them trees, got your insides looking like Christmas Ungrateful hoes, get the fuck out of here, you had a rough day and I had a rough year So when I get money I really do care, go and invest it, not spending on gear Think about that, just stating facts, niggas don't chart when it's real rap Earn my respect then you get it right back, that go hand in hand ain't talkin' dap A lot of issues in my past still hurt me to this day, to the core I don't ever open up 'cause I know people change like the oil Over 100k up on tour, still got a mindset like I'm poor But I'm on the roll when it come to rappin' like a pack of aluminum foil Man, I love walking barefoot, I really like the feel when I'm at the bottom what? 'Cause I know it's only for a couple of seconds, then I'm right back to my stardom that's right Motherfuckers ain't woke, man, I gotta fuck around and re-alarm 'em I'm woke all day, 3 AM, when they call me Jake from State Farm Okay, lil' bitch, act like you know, anything I say is right like nose Walk right over there, hoe, like roach, and it's over for these hoes, no dose Walk in that bitch with a white T, they don't really like me but you know how that goes Walk out that bitch you would think I'm little red riding hood, how I got blood on my clothes These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out All I smoke is loud, you got that mild like Darius yeah My son ain't gotta work because he gon' inherit it, uh huh gon' inherit it We yell, Gang-gang first, you don't even know your heritage bitch Took the cash from verses, I give that shit to charity Lovin' my city like Chano, I swear Why the fuck I still gotta ride everywhere with it? Herb I seen you on the news, I was worried We was just jokin' with y'all, that's a parody We don't talk too much, got D's everywhere everywhere We still fresh, double G's everywhere everywhere I put the VV's everywhere everywhere I do Mike Amiri's, every pair And they know me for shittin' on everybody I'm the one that do shit that you hear about I'm the one that told y'all that I move like Obama Then how the fuck they end up with my whereabouts? Hold on everybody gotta clear it out Middle of summer, hot like a sauna We was laid back in the back of the Honda Told young to sneak up, anaconda It ain't happen, not one day, your honor I was somewhere eatin' Benihana's Get valet and Lil' Benny to park it All my life I had been in apartments Move to Bali, get a brib, Im ballin My bitch always primpin', keep ballin' Yes I'm a lil' workaholic Hit the crib with a 50 and all 20's I'ma just make her count all of 'em But I get the backend all blues Nah don't fuck around, bruh, do all of it Know it's goin' right to lil' dude Already got a closet, all shoes Bought 10 pairs of baby G-Fazos And my bitch got a closet with some Loubs Cashed out on the crib, I ain't get the view I'm like, Fuck it, no problem, it'll do Mama's crib got a pond, not a pool We had roaches and rats, I ain't get to move I survived through it all, it's true yes, it's true Slept on couches and floors all through middle school Now I'm cool, now I'm 'bool Now my car go vroom, vroom Niggas hatin' on me, but it's bool Guess I got rich too soon Nigga, I've been rappin' like six years what? I seen ten niggas get killed What about me turnin' down them deals? Huh Now you pissed off 'cause I switched wheels? Uh, who run it? Limit No Limit run it No Limit man No Limit Who run it? G Herbo I'm done with this shit Who y'all think you foolin'? Not me Y'all niggas really ain't airin' nothin' This bust down, tryna scare us or some' Your shit weak, tryna compare us or somethin' What I made last week? Like a million or somethin' Rich, mad 'cause your bitch ate my kids or somethin' Man, I could fuck your wife like you sharin' or somethin' Galore ass mansion with lira or somethin' Nigga tried to get my ho, tried to fuck my bitch You think I'ma miss that? Man she sucked Meen's dick and she sucked Rock's dick So you think I'ma kiss that? I was in L.A., bitch powdered her nose Told her I ain't with that Boy you trippin', SI diamonds on your neck Mean you better give your wrist back Me no broke, Akademiks, yeah, that's where you get your news at Ask your bros, Grammy-nominated songs just to prove that Know your bros told you, nah, you better not just do that, uh I'm going mode, T.Y., tell me when to go, boy, you ain't rich, you a bitch facts Oh you T'd out? Bitch, you beat out Y'all worried 'bout me, better get your lick back Just like bitches, y'all all chit chat Car so foreign got an engine in the back Balenciaga with the Gucci and the Prada With the Louis and the Pucci and it's all mismatched Ho, it's Lil Uzi and I'm far from a goofy In Chiraq, 150, be strapped Got a 40 shorty, boy, better get back Gun loud, backyard party, kick back How I'm broke If I just hired myself a hitman? Be quiet, bro, them niggas over there'll turn to six rats Not lyin', bro, I been fucked this bitch for six racks After I drop that shit, me, Herbo, Ari and my bitch is gonna relax Prolly somewhere on a beach, prolly somewhere on an island You know that my Rollie got XO diamonds in it, so that's that Perfect Timing Said, Elliot, bezel it, ice kettle chips, I run it back like a Heisman Pull up, I'm swervin', I'm mergin', I got the whip, yeah the one right with the curtains Got boys that be workin' their block to be twerkin', the Tesla pull up for diversion On the beat, me and Herbo, we purgin', the Perky the molly the lean got us slurrin' You call her phone, you think she sleep, but she suckin' my dick while her words keep on slurpin' She said that my shit the same size as a two-liter ginger ale, why she keep burpin' I take out my hair and I stand on my money, your bitch think I'm Julius Erving These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out on God I'm on Percocet's, I think I'm finna skydive yeah You little pussycat, you must think you got nine lives 21 I'm so sick of all this fruity shit, you niggas on thin ice That stick gon' cut you half-time, now these niggas wanna switch sides straight up I ain't really with that takin' shit, lil' nigga, I'm walkin' up straight up That .30 like a tree lil' nigga, watch where you barkin' up straight up We got way too many shots, y'all lil' niggas can't dodge enough on God We can even challenge ya, 'cause y'all lil' niggas ain't charged enough fast Quarter million dollar for a walkthrough straight up Get the utmost respect when I walk through straight up I love the way you suck that dick, lil' bitch, don't forget who taught you straight up Way too much, can't stalk you straight up Bogeyman, nigga, I'll haunt you on God All these bullets 'round me, nigga, I ain't got time to punch you 21 Hit 'em wit' the 3-2, all y'all niggas see through yeah Broad day, I'll see food, had to hit a lick at Kiku yeah-yeah Lil' bitch I don't need you yeah-yeah Hell Nah, I can't eat you yeah-yeah Let the whole gang G you, then I left that bitch at Jeju yeah-yeah You must be scared or some, nigga, let's bet the spread or some 21 That's your main bitch, but I bet that lil' bitch spread for some on God I got all these blues like I ain't bangin' red or somethin' trre I bought all these cars like l ain't got no legs or somethin' yeah Fuck that other side, pull up in ya hood switch it 21 Sex, money, murder, two guns, nigga, big B's 21 Every time I hit that bitch she come back like a frisbee yeah I ain't got time to play with nobody kids, go watch Disney yeah Skin made of concrete, nigga, you can never be me 21 My brother down the road with a touchscreen and a FeFe BF Candlelight gang, leave a nigga on the TV 21 Fish fry gang, y'all can't even afford to die Bitch, I'm way too real, I can't even afford to lie Make a bitch wanna stare or something Niggas stare, you queer or somethin'? You's a bitch, yeah we stay done Chose a whip but I'm staying sunny Diamonds sunny like I'm Cher or something Smiley faces with the glasses Fashion brands invite you to Paris Boy you late that's a demerit, dang it Get fucking maggot brain having Rappers claiming the trap and the fashion They only got Louis and the trap I'm causing the flood and the traffic The way that you be moving is whack All of them rumors is facts They've been in clap for the clap back Your baby mama a nag nag Nag nag nag nag nag nag... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Lil' nigga let them llamas fly, leave a young nigga so traumatized Totin' gats jit, all my niggas ride Don't make me make another mama cry Do a drill, catch another homicide Fix your face, nigga, you got butterflies? Chopper at your throat and you afraid to die Big 14, fuck the other side Jugg, jugg, got all this jewelry Man, this shit ain't new to me Your bitch new to you, she ain't new to me I ain't really with the fucking foolery Glistenin' in these fucking diamonds Bad bitch and I'm fucking shining I got a bad bitch from the fucking islands Taking trips to the fucking islands Guess these guys don't realize When they talking fly, man, it's suicide Don't talk, do a nigga do or die Nobody else, nigga, you and I Big chopper, I'ma let the bullets fly That red dot right between your eyes I don't play, pussy, wish a nigga try 'Cause that'd be the night niggas die Niggas act like I ain't G.O.A.T. or somethin' Take a trip, go chill with the bros or somethin' Call a few bitches, chill with some hoes or somethin' Niggas be flexin', they bold or somethin' They don't want that war, go home or somethin' Internet flexin' with the phone or somethin' You a lil' pup, nigga, fetch a bone or somethin' Niggas male strippers when them poles bummin' Gang uh, gang uh, huh, gang uh 1400 gang yuh, 800 gang yuh 1400 gang yuh, 800 gang yuh Lil' nigga talkin' down, we gon' snatch his chain yuh, yuh, yuh, yuh, yuh Hold on Lil Boat Ayy, who you think you ahead of? Not us uh And these niggas they mad 'cause I'm richer than them Stay ganged up, I ain't clickin' with them You can get shot, Terry Richardson them Nigga, I ball like the Pistons and them uh Fuck around, you come up missin' like them yeah You the type run to the sheriff ha Act like you hard and you careless yeah Nigga, I'm a real ass nigga, ain't fake a nigga Free my big brother out the prison cell woo QC and P told 'em, Give 'em hell Ridin' 'round in a Maybach with my nigga Pellz Glock out, running we empty 12 Bitch on my dick, that's a love spell yeah Bitch with the shits, call her Annabelle yeah If they won't call, I don't gotta yell yeah Hundreds so crisp like a pack of kettles Fuckin' her jewels with my nigga Jack Crotched up, all of my brothers sack yep Gotta run up them Ricky Racks yep In the safe in the real, we got hella plaques yep Got more plaques on my wall than your brother teeth facts Boy, you young, where your Similac? Buyin' whips, yeah, we into that yep Fuckin' hoes, yeah, we into that yep Loving hoes, yeah, no nigga Got a .223 inside the Hellcat doot-doot Keep it all in the pack, huh Hundred niggas in your section Hmm, where the hoes? Nigga, that's weird pussy, pussy Cop a new Lamb, cop a new 'Rari Just to go and switch gears skrt Burn out, burn out Every time we turn out, make a big scene yeah 2K, 3K, 4K, 5K, spent it on my new jeans skrt skrt skrt Gave big bro twenty-seven racks for his birthday, the world made a scene facts Y'all don't even know how a nigga live Spend twenty racks like two bands facts Uh, came with the sticks like they hunting nigga Throwing gang signs, call it taunting nigga Can't nobody at QC get punked, nigga What is a one-on-one, nigga? We jumpin' niggas We got the strap, nigga, fuck it, we stompin' niggas I'm just as rich as your favorite rapper, nigga, might be richer yeah Hit the pent like I'm Derek Fisher Fuck the bitch right, then I kiss her Ride around town, you the one who licked her ew Ha, real player like my pops pops Thirty round in my Glock doot-doot-doot We run it, not opps ha Ten toes on my sole, niggas wouldn't double dare to cross the big Boat yeah Last year These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Twenty racks in the back of jeans Tatted sleeves, Patek freeze Pretty nigga, that indeed Thottie with me, black and cream African, Japanese I just call her blackanese I'm just gonna tap that and leave I don't leave the house unless I got a bag waitin' for me at the front door If you short on my cash, thirty niggas hoppin' out a Uber truck So don't try your luck, hoes down to fuck Top floor of the hotel Smokin' weed in the bathroom, put the shower on so it's no smell Street cold, don't tell But I'd rather live where it's no hell It's funny how hatin' niggas be the ones who names ring no bells Oh well, my bitch bad And her pussy got a soap smell She a model, nah she a model She a little bougie And I'm just tryna put this big wet tongue on top of that coochie Earlier she a little mad at me, she a little moody Sometimes I don't understand the bitch, she a little confusing Like half the time I don't be even doin' shit, and she be assuming Like I ain't loyal or somethin' You act like I don't call you or somethin' You act like you a little spoiled or somethin' Is you hot like you boiling somethin'? So all you rappers it's a rap for you like aluminum foil or somethin' Better crown her, came from the ground up, from the soil or somethin' Been 'bout it, every nigga with me poppin' like oil or somethin' I was slackin', had to get on track like I'm recordin' or somethin' I hear a lot of talk, but honestly they ain't really talkin' 'bout nothin' And nowadays I don't trust a thing, so I ain't really sure about nothin' I just fucked your bitch in Givenchy flip flops And yeah we spendin' money, but we also spin blocks Bend blocks, shout out my nigga Jezz, big opps They ain't open up them doors, I had to pick locks Free Bobby, free Rowdy, free the whole 9 Got lit on my own nigga, didn't need a cosign It's Red Lyfe, no red lights, green lights go time But before you get on the road, nigga make sure you know your road signs He asked did I fuck his bitch, I said uh yeah nigga, four times My sex drive longer than my show lines, make her cum in no time RL that's the bro sign, can't come in, we got closed sign Can't hang here, this is not a clothesline Fuck around and get clotheslined No ghostwriter, I wrote mine Wrote the whole rap and the whole rhyme They like MA, where the album at? I just need a lil' more time I got guns, but if I ain't usin' it, no need to show mine Don't mean I won't blow, ma Bitch nigga, you could blow, ma In the club I drink out the bottle, ain't no need to even pour mine Stripper bitches don't like me 'cause I get money and don't throw mine Y'all niggas can't fuck with me, ain't gotta say it, you already know why If I had a dick, you could suck it If I had nuts, you could hold mine I said, if I had some nuts, you could hold mine Haha If I had some nuts, you could hold mine Fuck y'all niggas Ooh, ooh, ooh Ooh, ooh These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Ayy When I look around, don't see nobody in my lane See these rappers need the clout, that's why they always say my name I'm only gettin' better, bitter bitch it ain't gon' change Why you tryna hang around me, bitch, get off 'cause you ain't gang You ain't gang, treat you like a stain All my biz is straight, I'd still be good without the fame I got so many cousins, aunts, uncles that I never knew On me for my revenue, I'm big now like I'm 7'2 New whip and my leather smooth, try me, I'ma play it cool Windows down, AC blowin', 20 below, I'm extra cool You lookin' fed up 'cause of my bread up, I keep my head to the sky Run up, and I'm back to where I'm droppin' the fire Who want it? Tell me, bitches, who blunted? You ain't know my crew run it? All we see is blue hundreds On my dash, 200, these bitches sad and can't run it Ho I'm a star, you wanna walkthrough you better tell me who fundin' These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Ay bitch, this a brand new chain Put her in Vera Wang She got a crazy top I let her go insane G-shit in my veins Limited seats on my plane Get to the country they know my name I could pay for anything I'm ordering Whether it's bitches, California weed, fourth down Got 20 inches I'm rolling up hella green by the pound You wanna pinch this Wondering what the stench is Always played my position We balling cause we the realest ... These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Just make sure to always stay true to who you are, and I did that Jeans black with a pink hat Sorry, I don't wanna come to ya kickback Oh no, so cold like Frozone 9-2-0, what I rep, that's home Big racks, big facts, no foolery Got 'em like God damn, man, who is he? It's me, ya boy Roy so crispy Really had to go and hit 'em with the quick speed Too fast, look left, look right You ain't gon' see nothin' like me in sight Hit my dance real quick, ouu, I just might Wanna sleep on me? Okay, good night I'm gone, new song comin' soon Ya boy Roy really been up in the stu' It's nothin' new, yeah, this what I do Been makin' music way before all the views Whi-white T with the white vans Oh man, god damn, I'm fresh Kickin', laid back, life's good, no stress I don't gotta flex, you know I'm up next Sike, bitch, I'm up now I'm holdin' it down I'm feelin' great I cannot frown Who Run It remix Just something light Had to snap real quick, now I'm droppin' the mic Okay Ayy, ayy, gang Y'all know how the fuck I'm rockin' man I'm hearin' a whole lot of talk about who run this shit I be countin' stacks Who run Ohio, that's me Which one of y'all hotter than me? Leave the beat like a hundred degrees And it's still all this ice on me Who getting plays like me? Who getting paid like me? Y'all was not made like me And I put that on my G's Remember they hated on me I knew all I needed was cheese Ran it up and I blew it on jeans Had to run it back up times three None of y'all wanna be like me Run around with them pipes like me Fresh pair of Off-Whites on my feet Gold chain on a Polo white tee In a trap with a whole lot of P's Smoking dope 'til we Vietnamese I threw bro lil thirty He threw like fifty to me All of these rappers is broke That shit be sickening to me You blew the whole bag on the road You look like a victim to me I just pulled up in a foreign And you got a Honda on E All black tints on all my whips 'Cause I know they're looking for me Just know wherever I go It's a glizzy with me right up under the seat I give a fuck what you claiming you is You can get touched with the heat I remember being irrelevant Now I get bands for all of my feats Remember totin' tourists Now we got AR's that's chopping down trees It's a fifty on bro and a thirty on me You don't really really want the beef You can talk that shit on the internet Run up, get done up, get wrapped up in sheets They was talking crazy last night 'Til a hundred shots hit they block I don't even know who got hit with that shit But we smoking all opps Everywhere I go I'm with the gang It's at least three or four of them Glocks If you speaking on who run it, ain't say my name, you smoking on rocks I'm in the street like fuck 12, bitch I'm off the Henny You can find me with the gang 'cause I don't fuck with many Them my brothers, if I'm busting they gon' dump it with me They know I'm a threat and that's the reason they ain't fucking with me, gang These bitches ain't run, shit but they mouths These niggas ain't run, shit but they mouths These bitches ain't run, shit but they mouths These niggas ain't run, shit but they mouths These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first hater step, the first hater get tossed out These bitches ain't runnin' runnin'!, shit but y'all mouth Cause the first one a' y'all step, the first one I'm'a toss out Put a nigga in a moutherfucking dropbox Sleepin on rap niggas like its hopscotch Got yo bitch bowin' down like its crockpot Niggas goin down fast like stop drop Run Shit No pass, I can't drop Niggas switch in my lane but I can't stop Trash talk on your bitch like a raindrop Then drop her ass off at the train stop I'm rappin this shit, it get vital These rappers be working with writers Pop a pill on the plane, i'm blind I ride like fast furious Neva text that bitch cause she curious These niggas act like they ain't hearin us Imma make these niggas look up to us These rappers signed up for a couple bucks Neva trust them when its one to trust I stay fast, talking racks Blew a stack on her back Then I left it where it's at Dressed in black Never rat Neva argue neva slack Watch yo back and that's facts Bitch we only fuck a track And i'm straight from the south Use to mob up on How you axe what i'm bout When you ain't got shit or clout? Pussy nigga what you bout'? All I know, it ain't shit Better watch yo fuckin mouth I can end it in this bitch Pullin up on a nigga Get mysterious in dis bitch Fuck that bitch All that shit, she got the in that bitch Ion give a fuck bout shit Imma motherfuckin piper Like its UFC bitch Imma mothafuckin striker They say I'm bougie and cocky I say I'm just getting started Threw a bag at my baby mama here you go, go shopping Every other day I'm waking up to new money Gettin deposits in From negative to positive Dollar boy just landed In the city of angels ... Point me out to who run it Fuckin' man or a woman I kick they ass in the stomach until they vomit from it Nigga I'm sick I'm bubonic and you and that bitch is platonic Stab your ass in the stomach and clean the mess up with Comet Fuck all that extra shit I'm in the bed with a naked bitch and her head just twist like damn exorcist What ya tryna posses me with The way she suck my dick was an accident cause I ain't even have to ask the bitch Nigga I'm stingy as hell I'm face my hoes nigga I don't even pass the bitch And I shit on niggas on accident like I ate some laxatives Try to impress me with that bullshit turn him to an acronym Nigga its Prick Harper I'm a shit starter And all that bullshit you talkin' make my dick harder I treat a rapper like his father I don't text him I don't call him I don't bother Nigga I let the Glock solve problems These rappers ain't runnin' shit but ya bitch Who, where</t>
+          <t>Your heart used to shelter me from all harm Your strength used to comfort me in any storm When things were too much to bear You were there by my side Now, you're gone, I can't go on Oh, darlin', darlin Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide With you by my side I felt like a king Like a king With you by my side I could do anything Anything Then you turned your back on me Somethin' deep in me died 'Til you come on back to me Oh, darlin', darlin' Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide When you turned your back on me Somethin' deep in me died 'Til you come on back to me Oh, darlin', darlin' Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Stand By Me (VIP Remix)</t>
+          <t>This Magic Moment</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>31 88rising, ATARASHII GAKKO! Warren Hue - Freaks Bad Computer - Destroy Me Charlotte Lawrence - You Flight - Gold Digga Figures Jao - AMOR PIRATA j-hope - Blue Side Ratboys - Go Outside Sammie - Crazy Teenage Disaster - THE QUIET TIMES ft. Lil Darkie 32 Ashe FINNEAS - Till Forever Falls Apart benny blanco, Marshmello Vance Joy - You Acoustic Brittany Howard, Jay Anonymous Fred again.. - Stay High again.. Emotional Oranges - Body Soul ft. Biig Piig Erika de Casier - Drama Japanese Breakfast - Be Sweet Maple Glider - Good Thing Rostam - 4Runner The Armed - Average Death YBN Nahmir - Balcony YUKIKA - Lovemonth 33 3OH!3 - LAST BREATH Brodka - Game Change Dan Bull - How to Build a PC Derivakat - Don't Wanna Lose You girl in red - Serotonin iKON - Why Why Why Lani Rose - Overreacting Laura Mvula - Safe Passage Lil Durk, King Von Booka600 - JUMP ft. Memo600 Maroon 5 Megan Thee Stallion - Beautiful Mistakes Mette - Petrified Middle Kids - Stacking Chairs Oliver Malcolm - Skywalker Porter Robinson - Musician Remi Wolf Dominic Fike - Photo ID SLUMBERJACK - Memory ft. Tailor SLUMBERJACK - The Reprise Tate McRae - slower Unlike Pluto - Belly Flop YN Jay - Big Hoes ft. Lil Pump 34 AJ Tracey - Anxious Baker Grace - Be Ok Dawn Richard - Pilot A Lude DJ Snake Selena Gomez - Selfish Love ella jane - boredblind Hooverphonic - The Wrong Place Joey Trap - LICKED Lil Baby - Real as It Gets ft. EST Gee Loud Luxury Ship Wrek - Amnesia ft. GASHI Major Lazer - Diplomatico ft. Guaynaa Nick Jonas - This is Heaven No Rome, Charli XCX The 1975 - Spinning RAY BLK - Games ft. Giggs Roxen - Amnesia St. Vincent - Pay Your Way in Pain Una Healy - Swear It All Again Xiu Xiu - Rumpus Room ft. Liars 35 6 Dogs - Beach House ft. RIZ LA VIE Allie X - GLAM! lau.ra Remix Alvaro Soler - Magia Aly AJ - Pretty Places AuRa - Dead Girl! AURORA - Runaway Guitar Version Ayzha Nyree - Noya Baby Keem - no sense Bailey Bryan - Don't Call Me Bebe Rexha - Sacrifice BlueBucksClan - Last Minute ft. Lil Yachty Boslen - DENY ft. Tyla Yaweh Bring Me the Horizon Jeris Johnson - Can You Feel My Heart Remix Bryce Vine - Care at All Chance the Rapper - The Heart the Tongue Chris Sebastian - Hard to Get to Love CMTEN - BORED Daddex - Touchdown in LA Damar Jackson - Relax Dean Lewis - Falling Up Dice SoHo BFB da Packman - Coke in the Sprinter Evanescence - Better Without You Funkmaster Flex, Jadakiss Murda Beatz - Damn Shame Futuristic Michael Minelli - You Said It G Herbo - Break Yoself G Herbo - Really Like That Grace VanderWaal - Don't Assume What You Don't Know Jack Ingram, Miranda Lambert, Jon Randall - In His Arms Jacquees - Freaky as Me ft. Latto James Arthur - Medicine JD on tha Track Calboy - These Days Jennifer Hudson - Ain't No Mountain High Enough Jon Batiste - SHOW ME THE WAY ft. Zadie Smith Jordan Solomon - All Good Juice WRLD, Clever Post Malone - Life's a Mess II Justin Bieber - Hold On Jutes - Give U a Call Koryn Hawthorne - Speak to Me Queen Mix ft. Queen Naija KREAM - Take Control Ladyhawke Broods - Guilty Love Lavaud Reekado Banks - Oh My LBS Kee'vin - Soul Burden ft. Fredo Bang LocateEmilio 27CLUB - RING RING London Grammar - How Does It Feel Lucas Steve - Do You Want Me Matt Ox - MAINTAINED Montaigne - Technicolour NextYoungin ppcocaine - Krispy Kreme PmBata - Run It Up Rah Swish - On a Mission ft. Dread Woo REI AMI - do it right ft. Aminé Rexx Life Raj - Built for Everything Ricky Montgomery chloe moriondo - Mr. Loverman Remix Rockit Gaming - Teacher ft. shredheadred Sam Fischer Demi Lovato - What Other People Say Stripped Version Saweetie - Best Friend Remix ft. Stefflon Don Doja Cat Shad da God - Murder Me ft. Gunna SHY Martin - Break with Me Silk City Ellie Goulding - New Love Shane Codd Remix Silk Sonic - Intro Silk Sonic - Leave the Door Open Sonny Digital - Dance Steve Aoki Willy William - Mambo Timmy Trumpet Remix ft. Sean Paul, El Alfa, Sfera Ebbasta Play-N-Skillz Taleban Dooda - Trappin' Ain't Dead ft. 42 Dugg The Knocks - All About You The Knocks VIP ft. Foster the People Thomas Rhett - Growing Up Thomas Rhett - Want It Again Tiesto Ty Dolla ign - The Business, Pt. II Clean Bandit Remix Tokyo Jetz - S.O.D.D. ft. Tokyo Vanity Tom the Mail Man - Last Night Trevor Jackson - Get to You Tyler Posey - Shut Up ft. Travis Barker phem Unghetto Mathieu - Chatter ft. YBN Nahmir Wendigo - ICED OUT DROP TOP ft. Valee, CXRPSE, BRUHMANEGOD, EDDISON, 83HADES Lil Darkie Whethan - All in My Head Saint Punk Remix ft. grandson Winona Oak - Nobody Loves Me ft. ELIO Xan Griffin - Go Hard or Go Home XANAKIN SKYWOK - Jazz Hands ft. Sadfriendd YNW Melly - Thugged Out ft. Kodak Black Young Dolph Key Glock - Aspen Yung Gravy Lil Wayne - oops! Remix Yung Nugget - Down Bad 36 904TEZZO - D-Generation X ft. MrHeadATrendy 37 637godwin - Flagellum Fousheé - sing about love 38 Stevie Stone - Jumping Out the Window Voda Fuji - 32THEFACE 39 bülow - First Place London Grammar - How Does It Feel Noga Erez - Story ft. ROUSSO X Ambassadors - Blinding Lights Zacari - Good Nights 310 Allday - Void Everything Everything - Supernormal Jorja Smith - Addicted Lil Playah - Time Flies ft. KanKan Quando Rondo - Okay Rod Wave - Street Runner Sainvil - California Raindrops Unlike Pluto why mona - Rewind 311 070 Beheard 070 Shake - Said AURORA - Runaway Piano Version Bankroll Freddie - Rich Off Grass Remix ft. Young Dolph Call Me Karizma - FREE BRITNEY SPEARS Cashh M1llionz - Pounds and Dollars Gwen Stefani - Slow Clap LP - One Last Time Mulatto - Beatbox Freestyle NF - LOST ft. Hopsin Paul McCartney Dominic Fike - The Kiss of Venus Skillibeng - Coaster Stunna Gambino - Top Opp Vulture SwaVay - Shooter WSTRN - Mama Stay YSB Tril Bankrol Hayden - Touchdown YONAKA - Ordinary 312 27CLUB - Sucker AJ Mitchell - CAMERAS ON Ali Gatie - Can't Let You Go Anna Clendening - Love Song Remix ft. John K Benny the Butcher Harry Fraud - Thanksgiving Bishop Nehru - New Tulips Blxst Drakeo the Ruler - Don't Forget Blxst Russ - Fuck Boys BONES Deergod - PopRocks Brent Faiyaz - Show U Off Christopher - Fall So Hard Christopher - My Blood Comethazine - MALCOLM IN THE MIDDLE Curly Savv - 50 Shots ft. G Herbo Doja Cat - Streets Disclosure Remix Emily Weisband - Psychopath Emlyn - a thousand parties Fr6nco 916frosty - Spaceship Swervin' FRVRFRIDAY - TIME FOR YOU Futuristic Michael Minelli - Built Different Global Dan - Had Me at Goodbye Hey Violet - friends like this IAmChino, Farruko Pitbull - Ten Cuidado ft. El Alfa Omar Courtz ILLENIUM iann dior - First Time Imagine Dragons - Cutthroat Imagine Dragons - Follow You Jazz Cartier - Nothin' 2 Me ft. Cousin Stizz Joey Trap - TACKLE Jutes - Say It Out Loud Kenny Mason - Pup Kid Ink - Red Light KSI - Patience ft. YUNGBLUD Polo G LB Spiffy - Same Leyla Blue - Gasoline Like Saturn - distant galaxies Luh Soldier - Slide LunchMoney Lewis - Ocean ft. Meghan Tranior Machine Gun Kelly - DAYWALKER! ft. CORPSE MASN - 2 Times Matt Ox - POP IT MOD SUN - Heavy ft. blackbear Norman Perry - Love After Drugs R3HAB, Timmy Trumpet WW - Distant Memory Rockie Fresh - Racer ft. VIC MENSA ROSÉ - On the Ground ROSÉ - GONE Sage the Gemini Chris Brown - BABY Scorey - Dior You Shakewell - 5 Ways Silk City Ellie Goulding - New Love Armand Van Helden Remix SK8 - Famous ft. Tyla Yaweh Slimelife Shawty - No Brakes Surf - Mirror The Knocks - All About You THAT KIND Remix ft. Foster the People TyFontaine - RUN IT UP ft. SoFaygo Tyla Yaweh - All the Smoke Landy Remix ft. Wiz Khalifa, Gunna Landy WATTS Khalid - Feels Remix X Ambassadors Earl St. Clair - torture Xavier Weeks - Already YBN Nahmir - Fast Car Music Yungeen Ace - Gun Em Down 313 Rockit Gaming - The Bullies ft. Dan Bull 315 Hunter Hayes - If You Change Your Mind Rich Brian - Sydney Trey Songz - Track Star yvngxchris - Ok, Let's Get It Den!!! 316 Ant Clemons - Story of My Life Lil Mosey - Try Me Mick Jenkins - Designer Frames Middle Kids - Today We're the Greatest Mnelia - Senseless Mykki Blanco - Free Ride Now United - Turn It Up 317 Alewya - The Code ft. Moses Boyd AViVA - HOUDINI Charlotte Adigéry - Bear With Me and Ill stand bare before you David Shawty - wizard 101 DDG OG Parker - Rule 1 ft. Lil Yachty Felly, Kota the Friend Monte Booker - Everybody Loves You Foxes - Kathleen Fryars - Orange Juice G-Eazy - Break From LA Freestyle glaive - i wanna slam my head against the wall Ingrid Michaelson ZAYN - To Begin Again Inhaler - Cheer Up Baby Laura Mvula - Church Girl Lil Gotit - Wok Lydia Ainsworth - Parade MNDR Big Data - Save Yourself Monte Booker, Kenny Beats reggie - AIN'T GON' STOP ME RUSSELL! - FMU TheHxliday - Opps Unlike Pluto - Interstellar Weather Young Dolph Key Glock - Sleep with the Roaches YUNGBLUD Chloe Noone - parents Remix Zcxr - The Key to the Quest! ft. 916frosty 318 Benjamin Francis Leftwich - Cherry in Tacoma Boy in Space - Remember Me Bugzy Malone - Welcome to the Hood ft. Emeli Sandé Dreamer Boy - Let's Hold Hands ft. Melanie Faye J Balvin - Tu Veneno JAE5 - Dimension ft. Rema Skepta Liza - Done is Done Lil Playah - iMPOSTER! Lola Young - Ruin My Make Up Lucky Daye, Masego Alex Isley - Good Plenty Remix M1llionz - How Many Times ft. Lotto Ash mxmtoon - Creep Myke Towers - Cuenta Saba - Rich Don't Stop Saba - Ziplock Snoop Dogg - CEO The Coral - Lover Undiscovered YUNGBLUD - Life on Mars? Live at a Bowie Celebration 2021 319 27CLUB - TALK 2KBABY - Soon 347aidan - WHEN THE DEVIL CRIES 7evin7ins 916frosty - let go 916frosty - WHEN UR GONE Addison Rae - Obsessed Aesop Rock - Long Legged Larry Alesso CORSAK - Going Dumb Alesso, CORSAK Stray Kids - Going Dumb Remix Alexander Oscar - One More Dance Amaru Son - Private Jet ft. Ugly God Amy Shark - Baby Steps Autumn! - Noticed It! ft. TisaKorean BABii - BRUiiSE Babygirl - Nevermind Badda TD - Feel Like a Boss ft. 42 Dugg bbno lentra - bad to the bone Betta Lemme - Cry BFB da Packman - Federal Birdy - Deepest Lonely Boosie Badazz - Period ft. DaBaby brando - Yes or No brandon jenner - There You Are BRELAND - Cross Country Remix ft. Mickey Guyton Brynn Cartelli - Long Way Home Capolow - 2 Percs ft. Scando the Darklord Nef the Pharaoh carolesdaugter - Violent Acoustic Caroline Kole - DUI Caroline Kole - Ex Best Friend Charlie Heat - LADYLIKE ft. Ant Clemons CJ - Whoopty NYC ft. French Montana Rowdy Rebel Clean Bandit - Higher Acoustic ft. iann dior GRACEY Colton Dixon - Made to Fly David Cook - Fire Daniyel - IT'S OK Delta Goodrem - Billionaire Destiny Rogers - Tomboy Remix ft. Coi Leray FCG Heem - Champagne Showers FITZ - Congratulations ft. Bryce Vine flora cash - The Bright Lights Futuristic Michael Minelli - Ain't Sayin Greta Van Fleet - Broken Bells Guwop Reign - Super Pain Hayden James, Gorgon City Nat Dunn - Foolproof IDK - Just Like Martin Jackboy Russ - Own My Masters James TW - Butterflies JayDaYoungan - ZaZa John K - ilym Remix ft. ROSIE Julia Stone - Fire in Me Jutes - For You Kayzo TELLE - Never Let You Down Kevo Muney - I'm Golden Like Saturn - purple city Lil Poppa - Boys to Men Lil Tjay, Polo G Fivio Foreign - Headshot Lost Frequencies - Rise Mads Langer - Hanging with You Maeta - Toxic ft. BEAM Major Lazer Nucleya - Jadi Buti Nucleya VIP Remix ft. Rashmeet Kaur Matt Ox - PUMPED UP Nasty Cherry - Her Body Nathan James - Dancing with My Demons ft. Sueco NYCL KAI - Bodies Ola Runt - Out da Box ONEFOUR - Street Guide, Pt. 1 PJ Harding Noah Cyrus - You Belong to Somebody Else Popp Hunna - Designa Corvette Corvette, Pt. 2 Projexx - Sidepiece Rah Swish - WOO BACK salem ilese - Lonely Child Sam Feldt - Stronger Frank Walker Remix ft. Kesha Sara Kays - Picture of You Shaun Frank Ryland James - Save Me SIDEPIECE - Temptation Slayter Jay Critch - LOSSES ssgkobe - Calabasas ft. NOT Steve Aoki Kiiara - Used to Be ft. Wiz Khalifa Tay Money Flo Milli - Asthma Pump Tee Grizzley - White Lows Off Designer ft. Lil Durk Tiana Major9 SiR - Same Space Remix Tom Grennan - Little Bit of Love Remix ft. Emily Roberts Transviolet - Drugs in California GOLDHOUSE Remix Ty Dolla ign - By Yourself Remix ft. Bryson Tiller, Jhené Aiko Mustard Virginia to Vegas NOTD - Malibu Whethan - Upside Down Flux Pavilion Remix ft. Grouplove Xan Griffin - Nostalgia XIX - On My Vans Young Dolph - Yeeh Yeeh YungManny - Clap for Em ft. Flo Milli Sada Baby Yung Pooda DreamDoll - Chicken N Grits Remix ft. Trey Songz ZillaKami - CHAINS 320 Quadeca - Sisyphus 321 Polo G - For My Fans Freestyle 322 Ben Howard - Sorry Kid Calboy - Miseducation ft. Lil Wayne Chloe Angelides - Different Dawn Richard - Jacuzzi Derivakat - HONEY Hopsin - Alone with Me Lil Yachty - No More Beatboxing Freestyle Sa Vich - ''Moment of Silence'' ft. Nampson serpentwithfeet - Heart Storm ft. NAO 323 black midi - John L black midi - Despair Jungle - Keep Moving Quando Rondo - Angel Wings Rag'n'Bone Man - Fall in Love Again Tune-Yards - hypnotized YN Jay - HOLD ONNNNN ft. Lil Uzi Vert 324 8ubbles Birthdayy Partyy - Tremendous Physique All Time Low - Once in a Lifetime beabadoobee - Last Day on Earth benny blanco Gracie Abrams - Unlearn BROCKHAMPTON - BUZZCUT ft. Danny Brown Vita Flare - Dreams DREAMCATCHER - Eclipse Iglooghost - Big Protector Johnny Orlando - I Dont ft. DVBBS JVKE - Home Nuski2Squad, Yungeen Ace G Herbo - Live On Thuggin' Days Rod Wave - Tombstone Sleepy Hallow - 2 Sauce The Kid LAROI - Shot for Me VTP Rossa - Antics Yung Mal - Look at Me Now 325 Enisa - Love Cycle Remix ft. DaVido JAY1 - Patiently Lil Duke - Loyal ft. J. Cole Quavo NSG - After OT Bop ft. BackRoad Gee Russ Millions Tion Wayne - Body Savage Gap, 8percent Astrus - this one 4 the girls 326 27CLUB - MEMORIES 30 Deep Grimeyy - 4530 ft. Sada Baby 637godwin - Lotta Fishes Alaina Castillo - indica Almondmilkhunni - Say U Love Me anders, FRVRFRIDAY, 6ixbuzz - What I Like Anna of the North - Here's to Another Anthony Ramos - Say Less Audrey Mika - Chivalry BanBwoi - KKK ft. NGeeYL, Young Nudy Tay Kieth Becky Hill - Last Time Big Scarr - SoIcyBoyz 3 ft. Tay Keith, Foogiano, Pooh Shiesty Gucci Mane Big Zuu D Double E - Variation CJ - Whoopty Latin Mix ft. Anuel AA Ozuna Coi Leray - BIG PURR Prrdd ft. Pooh Shiesty David Archuleta - I Know He Lives Demi Lovato - Dancing with the Devil DJ Megan Ryte - Fall Thru ft. Flipp Dinero Guapdad 4000 DJ Megan Ryte - Fly ft. Rich The Kid, Kranium Casanova DJ Megan Ryte - Strapped ft. Sleepy Hallow ELHAE Masego - My City Eon Zero 916frosty - Side Fx Foster the People Poolside - Lamb's Wool Remix Futuristic Michael Minelli - Oh Yea ft. Charles Infamous Ghost Killer Track - Tonight ft. OBOY D-Block Europe Glass Animals iann dior - Heat Waves Remix Grace Weber - Thru the Fire ft. Chance the Rapper Internet Money - JETSKI ft. Lil Tecca Lil Mosey Jean Deaux - Easiest Thing Joey Cool - Protect Thine Energy Julia Michaels - All Your Exes JUMEX - EX BEST FRIEND Jutes - Ballerina KAMILLE - Mirror Mirror Kenny Mason - Play Ball KILLY - PYRO King Combs - Holdin' Me Down ft. Future Klass Murda - Legendary ft. Pooh Shiesty LBS Kee'vin - Run wit It Like Saturn - weary oasis Lil Boom - remedy. Lil Pump - Lonely Lil Nas X - MONTERO Call Me by Your Name LOONY Mick Jenkins - Royal Flush MC Virgins - Sundress ft. Yung Bae Mimi Webb - Good Without Moneybagg Yo Future - Hard for the Next Pacman da Gunman, Nipsey Hussle Mozzy - Zero Tolerance Parker Millsap - Dammit Princess Nokia - It's Not My Fault Raiche Ty Dolla ign - Pick a Side Remix Rejjie Snow, grouptherapy. Cam O'bi - Relax Ron Suno Sheff G - WINNERS Russ - BANKRUPT Sam Ryder - Tiny Riot Shelley FKA DRAM - Cooking with Grease Sofia Carson - Fool's Gold SpotEmGottem Shenseea - Beat Box Freestyle Studio Killers - Jenny ft. Kim Petras Sub Urban Two Feet - PATCHWERK Surf - Heavy Tay B - Stashbox ft. Lil Durk Taylor Swift - You All Over Me From the Vault ft. Maren Morris Tes X - Rover The Knocks - R U HIGH ft. Mallrat The Kooks Seeb - Naive Remix The Veronicas - GODZILLA Thouxanbanfauni - Chu Chu Vaishalini - Livin' Rent Free XANAKIN SKYWOK - Widit ft. lilbubblegum YNW Melly - Na Na Na Boo Boo YSN Flow - Money Man ZHU Yuna - SKY IS CRYING ZieZie Ya Levis - Show Me Montre Moi Zion Foster - RnDrill 327 Crypt Chris Webby - ''Voicemail'' Doja Cat - TRASH MAN 328 Lael Hansen - 300 nights Morcheeba - The Moon 329 Basside SOPHIE - FUCK IT UP Deadmau5 - Nextra Fousheé - gold fronts ft. Lil Wayne Gary Numan - Saints and Liars Waterparks - Numb 330 Drug Store Romeos - What's on Your Mind Fickle Friends - Not in the Mood Garbage - The Men Who Rule the World Vistas - Start Again 331 BREE RUNWAY - HOT HOT Half Waif - Take Away the Ache Johnathan Kash - MurderCharge ft. BONES MNDR - Love in Reverse ft. Empress Of Nick Wilson - Lead Me to the Water Nicole Dollanganger - Whispering Glades Unlike Pluto - Talk Heavy Westside Gunn - Julia Lang Westside Gunn - TV BOY2</t>
+          <t>call evry gal crew mek wi roll out Roll out Kartel call every girlfriend mek wi roll out, toll out So high up on the moon DJ mek yo body groove Dreams are there to come true Sure feels like she mi love you So high up on the moon DJ mek yo body groove Dreams are there to come true Sure feels like our honeymoon Every man grab a gyal wi a rock Bare pretty, pretty, mi nuh see no dead stock Tick to the toc mek yo bumper react Point pon a bwoy mek him haffi come back A yesterday you mek a old man catch hear attack One short shorts and a traffic you block Heaven open up when wi come together Mi feel so good fi inna this magic moment In a yo hears mi a talk up the things Gyal yo valuable more than Benjamin Must be an angel where are yo wings? Baby yo thirsty, buy her a drinks How da riddim yah suh bad? Big up King Jamis Wine paw mi gyal under bare memories Heaven open up when wi come together Mi feel so good fi inna this magic moment</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Street Tough</t>
+          <t>Til I Can’t Take It Anymore</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Living on the city street tough Living on the city street tough Living on the city street tough When you're street tough You came down the ups and downs of life turnin' you round You got to keep on moving on Places you know, people you see thats where you find The answers to survive, learning things as you go And now you're traveling down the path Of life where only fools dare to go And even though you're losing You know you just can't let it show When you're street tough You got to learn to be strong When you're street tough You got to take care of your own Street tough Win or lose live or die Street tough When you're street tough And through the years you hold your tears You have to face, you got to to survive Doing the things you got to do, you know you're better If you want to stay alive stay alive You're traveling down the path Of life where only fools dare to go And even though you're losing You know you just can't let it show When you're street tough You got to try for yourself When you're street tough You got to fight like hell to get somewhere Street tough There's nobody out there who really cares Street tough Lord, when you're street tough Living on the city street tough And now you're traveling down the path Of life where only fools dare to go And even though you lose sometimes You just can't let it show When you're street tough Living on the city street tough Living on the city street tough Living on the city street tough Round and round the chances go Where you'll stop nobody knows When you're street tough Lord, when you're street tough Whats right for you is wrong for them Don't wanna hurt nobody but you got to make it for yourself When you're street tough Living on the city street tough</t>
+          <t>Let's not fight it anymore Unpack the bags and close the door I'll never leave you, no, no Though you lied right from the start I can't convince my stupid heart Not to believe you You've got two good men strung out And there's not the slightest doubt That other men have loved you before But you work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore If I had one ounce of pride I'd stand up or step aside But girl, I love you, can't you tell it? So I'll accept the crumbs you drop 'Cause I'm a fool and I can't stop Or rise above you Let him speak up for himself I speak for me and no one else 'Cause I'm a beggar knockin' on your door You work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore I'm too far gone to turn around To lift myself up off the ground And start all over, over and over and over Now him or I must win or lose No matter which one you may choose You'll be in clover, you know you will Darlin', while you're making up your mind Well, I'll be prayin' all the time Prayin' that you'll never, never, never be letting me go But you work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore Girl, you work your thing so well Dream of Heaven and live in Hell Til I can't take it anymore You know that you work that thing so well I dream of Heaven and live in Hell Til I can't take it anymore You work it so well I dream of Heaven and live in Hell</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Supernatural Thing Pt. 1</t>
+          <t>Up On The Roof</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>BELIEF. EVERYONE knows the difference between imagining a thing and believing in its existence, between supposing a proposition and acquiescing in its truth. In the case of acquiescence or belief, the object is not only apprehended by the mind, but is held to have reality. Belief is thus the mental state or function of cognizing reality. As used in the following pages,'Belief' will mean every degree of assurance, including the highest possible certainty and conviction. There are, as we know, two ways of studying every psychic state. First, the way of analysis What does it consist in? What is its inner nature? Of what sort of mind-stuff is it composed? Second, the way of history What are its conditions of production, and its connection with other facts? Into the first way we cannot go very far. In its inner nature, belief or the sense of reality, is a sort of feeling more allied to the emotions than anything else. Mr. Bagehot distinctly calls it the 'emotion' of conviction. I just now spoke of it as acquiescence. It resembles more than anything what in the psychology of volition we know as consent. Consent is recognized by all to be a manifestation of our active nature. It would naturally be described by such terms as 'willingness' or the 'turning of our disposition.' What characterizes both consent and belief is the cessation of theoretic agitation, though the advent of an idea which is inwardly stable, and fills the mind solidly to the exclusion of contradictory ideas. When this is the case, motor effects are apt to follow. Hence the states of consent and belief, characterized by repose on the purely intellectual side, are both intimately connected with subsequent practical activity. This inward stability of the mind's content is as characteristic of disbelief as of belief. But we shall presently see that we never disbelieve anything except for the reason that we believe something else which contradicts the rest thing. Disbelief is thus an incidental complication to belief, and need not be considered by itself. The true opposite of belief, psychologically considered, are doubt and inquiry, not disbelief. In both these states the content of our mind is in unrest, and the emotion engendered thereby is, like the emotion of belief itself, perfectly distinct, but perfectly indescribable in words. Both sorts of emotion may be pathologically exalted. One of the charms of drunkenness unquestionably lies in the deepening of the sense of reality and truth which is gained therein. In whatever light things may then appear to us, they seem more utterly what they are, more 'utterly utter' than when we are sober. This goes to a fully unutterable extreme in the nitrous oxide intoxication, in which a man s very soul will sweat with conviction, and he be all the while unable to tell what he is convinced of at all. The pathological state opposed to this solidity and deepening has been called the questioning mania Grübelsucht by the Germans. It is sometimes found as a substantive affection, paroxysmal or chronic, and consists in the inability to rest in any conception, and the need of having it confirmed and explained 'Why do I stand here where I stand ?' 'Why is a glass a glass, a chair a chair' 'How is it that men are only of the size they are? Why not as big as houses,' etc., etc. There is, it is true, another pathological state which is as far removed from doubt as from belief, and which some may prefer to consider the proper contrary of the latter state of mind. I refer to the feeling that everything is hollow, unreal, dead. I shall speak of this state again upon a later page. The point I wish to notice here is simply that belief and disbelief are but two aspects of one psychic state. John Mill, reviewing various opinions about belief, comes to the conclusion that no account of it can be given What, he says is the difference to our minds between thinking of a reality and representing to ourselves an imaginary picture? I confess I can see no escape from the opinion that the distinction is ultimate and primordial. There is no more difficulty in holding it to be so than in holding the difference between a sensation and an idea to be primordial. It seems almost another aspect of the same difference.... I cannot help thinking, therefore, that there is in the remembrance of a real fact, as distinguished from that of a thought, an element which does not consist... in a difference between the mere ideas which are present to the mind in the two cases. This element, howsoever we define it, constitutes belief, and is the difference between Memory and Imagination. From whatever direction we approach, this difference seems to close our path. When me arrive at it, we seem to have reached, as it were, the central point of our intellectual nature, presupposed and built upon in every attempt we make to explain the more recondite phenomena of our mental being. If the words of Mill be taken to apply to the mere subjective analysis of belief -- to the question, What does it feel like when we have it? -- they must be held, on the whole, to be correct. Belief, the sense of reality, feels like itself -- that is about as much as we can say. Prof. Brentano, in an admirable chapter of his Psychologie, expresses this by saying that conception and belief which he names judgment are two different fundamental psychic phenomena. What I myself have called Vol. I, p.276 the 'object' of thought may be comparatively simple, like Ha! what a pain, or It-thunders or it may becomplex, like Columbus-discovered-America-in-1492,'' or There-exists-an-all-wise-Creator-of-the-world In either case, however, the mere thought of the object may exist as something quite distinct from the belief in its reality. The belief, as Brentano says, presupposes the mere thought Every object comes into consciousness in a twofold way, as simply thought of and as admitted or denied. The relation is analogous to that which is assumed by most philosophersby Kant no less than by Aristotle to obtain between mere thought and desire. Nothing is ever desired without being thought of but the desiring is nevertheless a second quite new and peculiar form of relation to the object, a second quite new way of receiving it into consciousness. No more is anything judged which is not thought of too. But we must insist that, so soon as the object of a thought becomes the object of an assenting or rejecting judgment, our consciousness steps into an entirely new relation towards it. It is then twice present in consciousness, as thought of, and as held for real or denied just as when desire awakens for it, it is both thought and simultaneously desired. P. 266. The commonplace doctrine of 'judgment' is that it consists in the combination of 'ideas' by a 'copula' into a 'proposition,' which may be of various sorts, as a formative, negative, hypothetical, etc. But who does not see that in a disbelieved or doubted or interrogative or conditional proposition, the ideas are combined in the same identical way in which they are in a proposition which is solidly believed? The way in which the ideas are combined with inner constitution the thoughts object or content. That object is sometimes an articulated whole with relations between its parts, amongst which relations, that of predicate to subject may be one. But when we have got our object with its inner constitution thus defined in a proposition, then the question comes up regarding the object as a whole 'Is it a real object? is this proposition a true proposition or not?' And in the answer Yes to this question lies that new psychic act which Brentano calls 'judgment,' but which I prefer to call 'belief.' In every proposition, then, so far as it is believed, questioned, or disbelieved, four elements are to be distinguished, the subject, the predicate, and their relationof whatever sort it be -- these form the object of belief -- and finally the psychic attitude in which our mind stands towards the proposition taken as a whole-and this is the belief itself. Admitting, then, that this attitude is a state of consciousness sui generis, about which nothing more can be said in the way of internal analysis, let us proceed to the second way of studying the subject of belief Under what circumstances do we think things real? We shall soon see how much matter this gives us to discuss. THE VARIOUS ORDERS OF REALITY. Suppose a new-born mind, entirely blank and waiting for experience to begin. Suppose that it begins in the forms of visual impression whether faint or vivid is immaterial of a lighted candle against a dark background, and nothing else, so that whilst this image lasts it constitutes the entire universe known to the mind in question. Suppose, moreover to simplify the hypothesis, that the candle is only imaginary, and that no 'original' of it is recognized by us psychologists outside. Will this hallucinatory candle be believed in, will it have a real existence for the mind? What possible sense for that mind would a suspicion have that the candle was not real? What would doubt or disbelief of it imply? When we, the onlooking psychologists, say the candle is unreal, we mean something quite definite, viz., that there is a world known to us which is real, and to which we perceive that the candle does not belong it belongs exclusively to that individual mind, has no status anywhere else, etc. It exists, to be sure, in a fashion, for it forms the content of that mind's hallucination but the hallucination itself, though unquestionably it is a sort of existing fact, has no knowledge of other facts and since those other facts are the realities par excellence for us, and the only things we believe in, the candle is simply outside of our reality and belief altogether. By the hypothesis, however, the mind which sees the candle can spin no such considerations as these about it, for of other facts, actual or possible, it has no inkling whatever. That candle is its all, its absolute. Its entire faculty of attention is absorbed by it. It is, it is that it is there no other possible candle, or quality of this candle, no other possible place, or possible object in the place, no alternative, in short, suggests itself as even conceivable so how can the mind help believing the candle real? The supposition that it might possibly not do so is, under the supposed conditions, unintelligible. This is what Spinonza long ago announced Let us conceive a boy, he said, imagining to himself a horse, and taking note of nothing else. As this imagination involves the existence of the horse, and the boy has no perception which annuls its resistance, he will necessarily contemplate the horse as present, nor will he be able to doubt of its existence, however little certain of it he maybe. I deny that a man in so far as he imagines affirms nothing. For what is it to imagine a winged horse but to affirm that, the horse has wings? For if the mind had nothing before it but the winged horse it would contemplate the same as present, would have no cause to doubt of its existence, nor any power of dissenting from its existence, unless the imagination of the winged horse were joined to an idea which contradicted its existence.Ethics, 11, 49, Scholium. The sense that anything we think of is unreal can only come, then, when that thing is contradicted by some other thing of which we think. Any object which remains uncontradicted is ipso facto believed and posited as absolute reality. Now, how comes it that one thing thought of can be contradicted by another? It cannot unless it begins the quarrel by saying something inadmissible about that other. Take the mind with the candle, or the boy with the horse. If either of them say, 'That candle or that horse, even when I don't see it, exists in the outer world,' he pushes into 'the outer world,' an object which may be incompatible with everything which he otherwise knows of that world. If so, he must take his choice of which to hold by, the present perceptions or the other knowledge of the world. If he holds to the other knowledge, the present perceptions are contradicted, so far as their relation to that world goes. Candle and horse, whatever they may be, are not existents in outward space. They are existents, of course they are mental objects mental objects have existence as mental objects. But they are situated in their own spaces, the space in which they severally appear, and neither of those spaces is the space in which the realities called 'the outer world' exist. Take again the horse with wings. If I merely dream of a horse with wings, my horse interferes with nothing else and has not to be contradicted. That horse, its wings, and its place, are all equally real. That horse exists no other-wise than as winged, and is moreover really there, for that place exists no otherwise than as the place of that horse, and claims as yet no connection with the other places of the world. But if with this horse I make an inroad into the world otherwise known, and say, for example, 'That is my old mare Maggie, having grown a pair of wings where she stands in her stall,' the whole case is altered for now the horse and place are identified with a horse and place otherwise known, and what is known of the latter objects is incompatible with what is perceived with the former. 'Maggie in her stall with wings! Never!' The wings are unreal, then, visionary. I have dreamed a lie about Maggie in her stall. The reader will recognize in these two cases the two sorts of judgment called in the logic-books existential and attributive respectively. 'The candle exists as an outer reality' is an existential, 'My Maggie has got a pair of wings' is an attributive, proposition and it follows from what was first said that all propositions, whether attributive or existential, are believed through the very fact of being conceived, unless they clash with other propositions believed at the same time, by alarming that their terms are the same with the terms of these other propositions. A dream-candle has existence, true enough but not the same existence existence for itself, namely, or extra mentem meam which the candles of waking perception have. A dream-horse has wings but then neither horse nor wings are the same with any horses or wings known to memory. That we call at any moment think of the same thing which at any former moment we thought of is the ultimate law of our intellectual constitution. But when we now think of it incompatibly with our other ways of thinking it, then we must choose which way to stand by, for we cannot continue to think in two contradictory ways at once. The whole distinction of real and unreal, the whole psychology of belief, disbelief, and doubt, is thus grounded on two mental facts -- first, that we are liable to think differently of the same and second, that when we have done so, we can choose which way of thinking to adhere to and which to disregard. The subjects adhered to become real subjects, the attributes adhered to real attributes, the existence adhered to real existence whilst the subjects disregarded become imaginary subjects, the attributes disregarded erroneous it attributes, and the existence disregarded an existence into men's land, in the limbo 'where footless fancies dwell.' The real things are, in Mr. Taine's terminology, the reductives of the things judged unreal. THE MANY WORLDS. Habitually and practically we do not count these disregarded things as existents at all. For them V victis is the law in the popular philosophy they are not even treated as appearances they are treated as if they were mere waste, equivalent to nothing at all. To the genuinely philosophic mind, however, they still have existence, though not the same existence, as the real things. As objects of fancy, as errors, as occupants of dreamland, etc., they are in their way as indefeasible parts of life, as undeniable features of the Universe, as the realities are in their way. The total world of which the philosophers must take account is thus composed of the realities plus the fancies and illusions. Two sub-universes, at least, connected by relations which philosophy tries to ascertain! Really there are more than two sub-universes of which we take account, some of us of this one, and others of that. For there are various categories both of illusion and of reality, and alongside of the world of absolute error i.e., error confined to single individuals but still within the world of absolute reality i.e., reality believed by the complete philosopher there is the world of collective error, there are the worlds of abstract reality, of relative or practical reality, of ideal relations, and there is the supernatural world. The popular mind conceives of all these sub-worlds more or less discontentedly and when dealing with one of them, forgets for the time being its relations to the rest. The complete philosopher is he who seeks not only to assign to every given object of his thought its right place in one or other of these sub-worlds, but he also seeks to determine the relation of each sub-world to the others in the total world which is. The most important sub-universes commonly discriminated from each other and recognized by most of us as existing, each with its own special and separate style of existence, are the following 1 The world of sense, or of physical 'things' as we instinctively apprehend them, with such qualities as heat, color, and sound, and such 'forces' as life, chemical affinity, gravity, electricity, all existing as such within or on the surface of the things. 2 The world of science, or of physical things as the learned conceive them, with secondary qualities and 'forces' in the popular sense excluded, and nothing real but solids and fluids and their 'laws' i.e., customs of motion. 3 The world of ideal relations, or abstract truths believed or believable by all, and expressed in logical, mathematical, metaphysical, ethical, or aesthetic propositions. 4 The world of 'idols of the tribe,' illusions or prejudices common to the race. All educated people recognize these as forming one sub-universe. The motion of the sky round the earth, for example, belongs to this world. That motion is not a recognized item of any of the other worlds but as an 'idol of the tribe' it really exists. For certain philosophers 'matter' exists only as an idol of the tribe. For science, the 'secondary qualities' of matter are but 'idols of the tribe.' 5 The various supernatural worlds, the Christian heaven and hell, the world of the Hindoo mythology, the world of Swedenborg's visa et nudita, etc. Each of these is a consistent system, with definite relations among its own parts. Neptune's trident, e.g., has no status of reality whatever in the Christian heaven but within the classic Olympus certain definite things are true of it, whether one believe in the reality of the classic mythology as a whole or not. The various worlds of deliberate fable may be ranked with these worlds of faith -- the world of the Iliad, that of King Lear, of the Pickwick Pacers, etc. 6 The various worlds of individual opinion, as numerous as men are. 7 The worlds of sheer madness and vagary, also indefinitely numerous. Every object we think of gets at last referred to one world or another of this or of some similar list. It settles into our belief as a common-sense object, a scientific object, an abstract object, a mythological object, an object of some one's mistaken conception, or a madman's object and it reaches this state sometimes immediately, but often only after being hustled and bandied about amongst other objects until it finds some which will tolerate its presence and stand in relations to it which nothing contradicts. The molecules and ether-waves of the scientific world, for example, simply kick the object's warmth and color out, they refuse to have any relations with them. But the world of 'idols of the tribe' stands ready to take them in. Just so the world of classic myth takes up the winged horse the world of individual hallucination, the vision of the candle the world of abstract truth, the proposition that justice is kingly, though no actual king be just. The various worlds themselves, however, appear as aforesaid to most men's minds in no very definitely conceived relation to each other, and our attention, when it turns to one, is apt to drop the others for the time being out of its account. Propositions concerning the different worlds are made from 'different points of view' and in this more or less chaotic state the consciousness of most thinkers remains to the end. Each world whilst it is attended to is real after its own fashion only the reality lapses with the attention. THE WORLD OF 'PRACTICAL REALITIES.' Each thinker, however, has dominant habits of attention and these practically elect from among the various worlds some one to be for him the world of ultimate realities. From this world's objects he does not appeal. Whatever positively contradicts them must get into another world or die. The horse, e.g., may have wings to its heart's content, so long as it does not pretend to be the real world's horse -- that horse is absolutely wingless. For most men, as we shall immediately see, the 'things of sense' hold this prerogative position, and are the absolutely real world's nucleus. Other things, to be sure, may be real for this man or for that things of science, abstract moral relations, things of the Christian theology, or what not. But even for the special man, these things are usually real with a less real reality than that of the things of sense. They are taken less seriously and the very utmost that can be said for anyone's belief in them is that it is as strong as his 'belief in his own senses. In all this the everlasting partiality of our nature shows itself, our inveterate propensity to choice. For, in the strict and ultimate sense of the word existence, everything which can be thought of at all exists as some sort of object, whether mythical object, individual thinker's object, or object in outer space and for intelligence at large. Errors, fictions, tribal beliefs, are parts of the whole great Universe which God has made, and He must have meant all these things to be in it, each in its respective- place. But for us finite creatures, 'tis to consider too curiously to consider so. The mere fact of appearing as an object at all is not enough to constitute reality. That may be metaphysical reality, reality for God but what we need is practical reality, reality for ourselves and, to have that, an object must not only appear, but it must appear both interesting and important. The worlds whose objects are neither interesting nor important we treat simply negatively, we brand them as unreal. In the relative sense, then, the sense in which we contrast reality with simple unreality, and in which one thing is said to have more reality than another, and to be more believed, reality means simply relation to our emotional and active life. This is the only sense which the word ever has in the mouths of practical men. In this sense, whatever excites and stimulates our interest is real whenever an object so appeals to us that we turn to it, accept it, fill our mind with it, or practically take account of it, so far it is real for us, and we believe it. Whenever, on the contrary, we ignore it, fail to consider it or act upon it, despise it, reject it, forget it, so far it is unreal for us and disbelieved Hume's account of the matter was then essentially correct, when he said that belief in anything was simply the having the idea of it in a lively and active manner I say, then, that belief is nothing but a more vivid, lively, forcible, firm, steady conception of an object than the imagination alone is ever able to attain.... It consists not in the peculiar nature or order of the ideas, but in the manner of their conception and in their feeling to the mind. I confess that it is impossible perfectly to explain this feeling or manner of conception.... Its true and proper name... is belief, which is a term that everyone sufficiently understands in common life. And in philosophy we can go no farther than assert that belief is something felt by the mind, which distinguishes the idea of the judgment from the fictions of the imagination. It gives them more weight and influence makes them appear of greater importance enforces them in the mind gives them a superior influence on the passions, and renders them the governing principle in our actions. Or as Prof. Bain puts it In its essential character, belief is a phase of our active nature -- otherwise called the Will. The object of belief, then, reality or real existence, in something quite different from all the other predicates which a subject may possess. Those are properties intellectually or sensibly intuited. When we add any one of them to the subject, we increase the intrinsic content of the latter, we enrich its picture in our mind. But adding reality does not enrich the picture in any such inward way it leaves it inwardly as it finds it, and only fixes it and stamps it in to us. The real, as Kant says, contains no more than the possible. A hundred real dollars do not contain a penny more than a hundred possible dollars.... By whatever, and by however many, predicates I may think a thing, nothing is added to it if I add that the thing exists.... Whatever, therefore, our concept of an object may contain, we must always step outside of it in order to attribute to it existence. The 'stepping outside' of it is the establishment either of immediate practical relations between it and ourselves, or of relations between it and other objects with which we have immediate practical relations. Relations of this sort, which are as yet not transcended or superseded by others, are ipso facto real relations, and confer reality upon their objective term. The fons et origo of all reality, whether from the absolute or the practical point of view, is thus subjective, is ourselves. As bare logical thinkers, without emotional reaction, we give reality to whatever objects we think of, for they are really phenomena, or objects of our pausing thought, if nothing more. But, as thinkers with emotional reaction, to give what seems to be a still higher degree of reality to whatever things we select and emphasize and turn to WITH A WILL. These are our living realities and not only these, but all the other things which are intimately connected with these. Reality, starting from our Ego, thus sheds itself from point to point-first, upon all objects which have an immediate sting of interest for our Ego in them, and next, upon the objects most continuously related with these. It only fails when the connecting thread is lost. A whole system may be real, if it only hang to our Ego by one immediately stinging term. But what contradicts any such stinging term, even though it be another stinging term itself, is either not believed, or only believe drifter settlement of the dispute. We reach thus the important conclusion that our own reality, that sense of our own, life which we at every moment possess, is the ultimate of ultimates for our belief. 'As sure as I exist!' -- this is our uttermost warrant for the being of all other things. As Descartes made the indubitable reality of the cogito go bail for the reality of all that the cogito involved, so we all of us, feeling our own present reality with absolutely coercive force, ascribe an all but equal degree of reality, first to whatever things we lay hold on with a sense of personal need, and second, to whatever farther things continuously belong with these. Mein Jetzt und Hier, as Prof. Lipps says, ist der letzte Angelpunkt für alle Wirklichkeit, also alle Erkenntniss. The world of living realities as contrasted with unrealities is thus anchored in the Ego, considered as an active and emotional term. That is the hook from which the rest dangles, the absolute support. And as from a painted hook it has been said that one can only hang a painted chain, so conversely, from a real hook only a real chain can properly be hung. Whatever things have intimate and continuous connection with my life are things of whose reality I cannot doubt. Whatever things fail to establish this connection are things which are practically no better for me than if they existed not at all. In certain forms of melancholic perversion of the sensibilities and reactive powers, nothing touches us intimately, rouses us, or wakens natural feeling. The consequence is the complaint so often heard from melancholic patients, that nothing is believed in by them as it used to be, and that all sense of reality is fled from life. They are sheathed in india-rubber nothing penetrates to the quick or draws blood, as it were. According to Griesinger, I see, I hear! such patients say, 'but the objects do not reach me, it is as if there were a wall between me and the outer world! In such patients there often is an alteration of the cutaneous sensibility, such that things feel indistinct or sometimes rough and woolly. But even were this change always present, it would not completely explain the psychic phenomenon... which reminds us more of the alteration in our psychic relations to the outer world which advancing age on the one hand, and on the other emotions and passions, may bring about in childhood we feel ourselves to be closer to the world of sensible phenomena, we lire immediately with them and in them an intimately vital tie binds us and them together. But with the ripening of reflection this tie is loosened, the warmth of our interest cools, things look differently to us, and we act more as foreigners to the outer world, even though we know it a great deal better. Joy and expansive emotions in general draw it nearer to us again. Everything makes a more lively impression, and with the quick immediate return of this warm receptivity for sense-impressions, joy makes us feel young again. In depressing emotions it is the other way. Outer things, whether living or inorganic, suddenly grow cold and foreign to us, and even our favorite objects of interest feel as if they belonged to us no more. Under these circumstances, receiving no longer from anything a lively impression, we cease to turn towards outer things, and the sense of inward loneliness grows upon us.... Where there is no strong intelligence to control this blasé condition, this psychic coldness and lack of interest, the issue of these states in which all seems so cold and hollow, the heart dried up, the world grown dead and empty, is often suicide or the deeper forms of insanity. THE PARAMOUNT REALITY OF SENSATIONS. But now we are met by questions of detail. What does this stirring, this exciting power, this interest, consist in, which some objects have? which are those 'intimate relations' with our life which give reality? And what things stand in these relations immediately, and what others are so closely connected with the former that in Hume's language we 'carry our disposition' also on to them? In a simple and direct way these questions cannot be answered at all. The whole history of human thought is but an unfinished attempt to answer them. For what have men been trying to find out, since men were men, but just those things Where do our true interests lie -- which relations shall we call the intimate and real ones -- which things shall we call living realities and which not ? A few psychological points can, however, be made clear. Any relation to our mind at all, in the absence of a stronger relation, suffices to make an object real. The barest appeal to our attention is enough for that. Revert to the beginning of the chapter, and take the candle entering the vacant mind. The mind was waiting for just some such object to make its spring upon. It makes its spring and the candle is believed. But when the candle appears at the same time with other objects, it must run the gauntlet of their rivalry, and then it becomes a question which of the various candidates for attention shall compel belief. As a rule we believe as much as we can. We would believe everything if we only could. When objects are represented by us quite unsystematically they conflict but little with each other, and the number of them which in this chaotic manner we can believe is limitless. The primitive savage's mind is a jungle in which hallucinations, dreams, superstitions, conceptions, and sensible objects all flourish alongside of each other, unregulated except by the attention turning in this way or in that. The child's mind is the same. It is only as objects become permanent and their relat</t>
+          <t>They say Jesus was a nephew, you know what I'm sayin'? Boss up, nigga They said his mom was a virgin So when he was born, they told him he was sent from God so he started goin' village to village helpin' the people and they killed his ass, that's crazy That's crazy, man They killed Jesus for helpin' the people That's why I ain't got patience with people In the Bible, God dealin' with evil They said God did a deal with the Devil That's the reason Job has sores on his feet That's the reason Job lost his house That's the reason Job lost his kids I'm readin' the Bible like, What is this? Adam made Eve off of one rib? They made the world in seven days? So Adam and Eve had a thousand kids? Cain and Abel, they fell out beefin' Me and my brother, we fell out beefin' They said cocaine that was on the tree What if Adam would've never fucked Eve? Why Eve make that nigga eat that? That's why I don't eat the bitch food now Job lost his whole fuckin' family And they said God gave him a hundred cows Like two-hunned horses or somethin' How the fuck is that worth my kids? What I did to deserve to go through this? Let me get this right, this because of Eve? Okay, I fuck with Adam, but I'll beat the shit out of Eve How the hell they live at the forbidden tree? Somebody show me the forbidden tree I believe in God, but I ain't too religious How the fuck they really got a picture of Jesus? Name one person who was alive with Jesus How the fuck they tellin' me I need Jesus? If I need Jesus, then where is Jesus? So if I get shot, I'ma meet Jesus? So I gotta die just to meet Jesus? It's a fucked up world with fucked up people The first religion, they worshipped the sun They made some bullshit story 'bout that They said the sun went down 'cause the sins And the sun was never gon' come back Every thousand years it's a new religion Unc in the streets screaming, New religion Pastor got diamonds, rockin' True Religion Pray to who? You must be trippin' Bitch, I'm prayin' to my money racks They said we livin' in Revelations Vaccine got us mutatin' So fuck it then, I'ma go take it If the whole world start purgin' My daughter gon' still have a Lambo I'ma have eighteen-hundred guns Thirty Audi's and twenty Camaros They said the world would end in 2012 I was sellin' crack in 2012 They talkin' about the calendar ended Eight years later, a pandemic Swine flu, Ebola, COVID-19, what's different? All of that shit was killin' people I ain't scared of that, guns kill people I ain't scared of guns, AIDS kill people I can die in a car crash How the fuck you gon' tell me I'm goin' to Heaven? Please tell me when you talked to the dead Who you met that came from the dead? Show me a picture and show me some proof Explain to me why the fuck Benjamin Franklin stood his ass up on the roof How he discover somethin' out the sky? If that's the case, T-Rex discovered it If you ask me, this shit made up I'ma loop the beat 'cause I ain't said enough I ain't said enough In school, I had a lot of questions Boss up, nigga Social studies teacher makin' up shit All that shit was in they head Who the fuck is Christopher Columbus? If he would've came to my block Talkin' 'bout he discovered my trap His ass would've probably got shot How the fuck I'm African American? Bitch, I'm American terrorist Fifth grade, smarter than my parents Grandma couldn't help with algebra Grandma like, What the fuck is algebra? She like, That's a goddamn shame Them people gonna keep makin' up shit Tryna keep you in the same grade They tryna hide shit in the book I was in jail readin' books OG teach me 'bout real estate Every landlord I know a crackhead I'm in the hood with the slum lords Grandma Jehovah's Witness, no Christmas Jehovah's Witnesses people move like a cult They recruitin' people at they door How you gon' force religion on somebody? How you change the Bible and tell it to everybody? Why Jehovah's Witnesses don't like Christians? They fightin' over Jesus' birthday How the fuck y'all know Jesus' birthday? Who the fuck is that white man Santa Claus? They said that nigga was eatin' kids Why would I let that man lie to my kids? Why would I go out buyin' gifts And blame it on the nigga named Santa? Shit, a nigga climb through my roof I'ma beat his ass in the head with a hammer If you eat my cookies, beat you with a hammer Drink the kids' milk, beat you with a hammer You like a hundred somethin' buyin' toys Well, Santa never dropped me off a toy Let's get back to Jehovah's Witnesses How the fuck all of y'all awake? How the fuck y'all church so small But it's a million of y'all everyday? Shit, religious people startin' to scare me Shit, the government wrote the Bible They knew who was gon' win American Idol I never liked Simon off American Idol I ain't really like how he talked to black people How the fuck Flava Flav still alive? Shit, before Kobe, before Deebo I expected his ass to up and die I ain't got nothin' against Flava Flav They said I was ugly as Flava Flav Now I got twenty hoes like Flava Flav Nigga dyin' for jewelry everyday They caught the nigga who killed MO3 How the fuck he get caught in less than three weeks? If you ask me, that's a sacrifice You ain't gotta be rich to pull a sacrifice All those times on the block, bitch, I sacrificed Put my pride to the side, bitch, I sacrificed If that's the case, I'm Illuminati How Tekashi get out before Shotti? Why Jim Jones never went to jail? And he was talkin' 'bout killin' a nigga Shit, that ain't my job, but that's conspiracy All I know is niggas get locked for conspiracy These niggas who talk, they be scarin' me They be wearin' wires in they shoes Askin' questions, wanna talk to you These niggas move like TMZ On a regular day, wanna question me Nigga move like VladTV These niggas look like VladTV They get indicted on VladTV Homie got five years for a TV So what the fuck they thought was gon' happen? They talk too much, they AR-Ab it I always thought that Cassidy was a hustler Cassidy was my favorite rapper Then I find out he wasn't hustling Boss up, nigga He was with Swizz Beatz then went broke Niggas thought Meek Mill wasn't gon' blow I ain't never heard 'bout Meek Mill Until he ran with that C.O I ain't sayin' Meek did the wrong thing But he knew Ross was a C.O Shit, a nigga gotta feed his kids I ain't never think Gucci was a clone They like, How the hell he got so skinny? When you in that cell, shit, they feed you wrong Three meals a day get a nigga right Six pack came from bein' hungry at night Nigga came home then he fixed his teeth Then they changed the subject about a week I'ma get on the beat and say what I want I love stimulus and love Donald Trump Auntie talkin' 'bout Six-hundred coming' It ain't twelve-hundred, but shit, it's somethin' I don't sit on my ass and live with my bitch Just the other day, broke up with my bitch I'd rather go rob some shit PS5 won't come out my lip The Bible told you bitches is grimey Whole Bible, bitches was lyin' They believed that a virgin had kids I hope my daughter don't tell me that shit 'Cause you ain't Mary and the baby ain't Jesus Don't lie to me 'cause I ain't Jesus My last bitch was an atheist She talkin' 'bout pullin' tarot cards She like, Come on Neph', let me tell your future I'm like, Bitch, I'm off more molly than Future I'm like, Bitch, I might die tomorrow Why the hell you tryna be a fortune teller? She on Fashion Nova and she lookin' at dresses Her ass fat, but I ain't even notice She take her time puttin' on lotion I'm like, Bitch, hurry up 'cause I got a lick They talkin' 'bout pray before you eat Bitch, you eatin' a dead animal Bitch, you barely got vegetables Everybody in the world is hypocrites Donald Trump still gon' build that wall MS-13 climbed over the wall Donald Trump can't stop immigrants Lost my ID, I'm an immigrant They pulled me over like, What's your name? Bitch, I forgot my social security number They asked about my mother maiden name I'm like, I don't know, we don't know each other Bitch, I'm on the run from Area 51 I stayed in the corner and boot up Bitch, I forgot where I parked my car My last bitch like, Who are you? I'm like, Bitch, I want sugar in water That movie ain't funny no more Y'all know I don't like Will Smith I used to know the song to Fresh Prince Now this the story all about how Now his mother kid suckin' dick Now he sad, lookin' like How? Who the fuck raised these niggas? What scientist made these niggas? What lab these niggas come from? First time I watched 'I Am Legend' I cried Especially the part when his dog died 'Cause I feel his pain when you out in the streets Then I seen another movie, he was butt naked With another man in between the sheets I'm like, Hell nah, that's 'I Am Legend'? I'ma fuck Jada too, fuck 'I Am Legend' Well Jada Pinkett, if you hear this song I'll fuck you good and you ain't gon' regret it I ain't August Alsina, you don't need him If he was real, he would've knocked out Will Yo' kids grown, fuck that nigga He the reason that y'all son gay now Bitch, shouts out to Chris Brown Will Smith should've took advice from Chris Brown Jada Pinkett should've been on the news With both her eyes black and brown Boss up, nigga Ooh, I looped it again Boss up, nigga They say Jesus was drinkin' grape juice, I'm drinkin' gin I used to think Snoop Dogg was tough I hated niggas who acted tough I used to love the Chum Bucket I used to feel like the Chum Bucket I been knew SpongeBob was a bitch That's why I fuck with the Chum Bucket Pull up lookin' like Plankton, nigga Everybody hate that nigga Cougar bitch wanna watch Martin Bitch, that shit ain't funny I fuck with Hustle Man more than him Martin always stressin' 'bout a bitch This whole world stressin' 'bout a bitch It ain't even these bitches, it's niggas too 'Cause the bitches move like niggas do And these niggas, they move like bitches do I don't even wanna get in the industry 'Cause if I do, I'm doin' somethin' crazy I'ma fuck Keke Palmer, get her pregnant Then leave her single with a baby Don't judge me, that's what Adam did If Adam and Eve had two kids Once Adam got a taste of that fruit He went to the left and found him a bitch Shit, Cain and Abel was trippin' anyway Shit, they tryna kill each other with an axe They put this shit all in the Bible So you know damn well this ain't cap They say there's seventy-seven sextillion stars in the sky I ain't even heard that number before until they told me that lie I'm like, How the fuck? Hold on, which telescope and what person count that with they eyes? When I was in church, I had questions My grandma like, Hold on, grandson got a question They passed me the mic at the kingdom hall I'm like, Who told y'all it's that many stars? They told me, Don't question the Bible I'm like, Grandma, stop goin' to the kingdom hall Them people ain't your friends anyway Nigga doin' Bible study tryna get pussy Same people bringin' demons in the house How the fuck y'all throwin' water 'round that house? How the fuck y'all make that holy water? Let me get some of that so I can cook a quarter How y'all say I'm evil for sellin' crack When I'm out here tryna feed my daughter? Where your money go? I don't judge you Them old church bitches be cougars And the pastor drive a brand new Caddy But the church broke down and raggedy How the fuck niggas scam CashApp? They thought they was scammin' CashApp Well CashApp scammed CashApp They got social numbers in CashApp Why the fuck I gotta give you my social? How you know I ain't forget my social? Why the fuck I need a drivers' license? If I crash, I'm the only one dyin' If somebody else die, it was meant to go Y'all the ones who put that shit in the Bible How the fuck y'all talkin' 'bout Turn the other cheek When y'all killin' black people left and right? I don't beef with white people, they good licks My white bitch got good credit I ain't never think Donald Trump was racist Wanna talk to him, gotta have good credit Wanna talk to me, gotta have good credit Rx Papi a bitch, the whole hood said it Meagan Good booty flat, Slitherman said it Wendy Williams a man, Slitherman said it Them big ass titties look dumb Lil Kim face look dumb Cardi B mouth look dumb Bitch talk like she always chewin' gum Migos lookin' tough, they look dumb Joe Budden told them niggas they was ass He told that shit to 'em dead in they face Boss up, nigga He was probably high off a fifty bag Yuh12</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sway</t>
+          <t>What a Difference a Day Made</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>When marimba rhythms start to play Dance with me, oh, make me sway Like a lazy ocean hugs the shore Hold me close, sway me more Like the flowers bending in the breeze Bend with me, sway with ease When we dance you have a way with me Stay with me, oh, sway with me Other dancers may be on the floor Dear, but my eyes can see only you Only you have that magic technique When we sway I go weak I can hear the sounds of violins Long before it begins Make me thrill as only you know how Sway me smooth, come on and sway me now Other dancers may be on the floor Dear, but my eyes can see only you Only you have that magic technique When I sway, I go weak I can hear the sounds of violins Long before it begins Make the rhythm as only you know how Sway me smooth, come on and sway me now Make the rhythm as you know how Sway me smooth, come on and sway me now</t>
+          <t>What a difference a day made Twenty-four little hours Brought the sun and the flowers Where there used to be rain My yesterday was blue, dear Today I'm part of you, dear My lonely nights are through, dear Since you said you were mine What a difference a day makes There's a rainbow before me Skies above can't be stormy Since that moment of bliss, that thrilling kiss It's heaven when you find romance on your menu What a difference a day made And the difference is you</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sweet and Gentle</t>
+          <t>What Is Soul</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>I was sweet and gentle Ah, kind of sentimental No one will deny it I was once so quiet And then one magic night, I learned to do the cha cha And now I'll never be the same For I have turned into a dancing Cucaracha And my muchacha is the same Oh, how can I be gentle Sweet and sentimental While the cha cha's playing And my heart is swaying I find that I am even dancing when I'm walking I'm haunted by that cha cha beat I hear the rhythm start whenever we are walking I do the cha cha in my sleep I find that I am even dancing when I'm walking I'm haunted by that cha cha beat I hear the rhythm start whenever we are walking I do the cha cha in my sleep I do the cha cha in my sleep I do the cha cha in my sleep Cha, cha, cha</t>
+          <t>What is soul? What is soul, babe? Some few people really know It's deep within us, it doesn't show A soul is somethin' that comes from deep inside But a soul is a somethin' that you can't hide What is soul? What is soul, babe? Search your heart, go deep down low Way down there you'll find your soul Come near girl, you look so cold Touch my hand and warm your soul Baby, baby, what's wrong with you You don't know what I'm going through Hold me so tight, so tight I can't breath Can't you feel it girl? Don't you know what I mean? This is soul! This is soul! Feel the soul, babe! What is soul, babe? Don't you know? What is soul, babe?</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tears, Tears, Tears</t>
+          <t>What Is Soul</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Yeah Let them know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese Let them know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Woah way too tipsy, baby Yeah, yeah, yeah, yeah, yeah, yeah, yeah No sleep, I'm in my zone Whole team on 10, yeah We outside while you stay home So I come back with the city I know it's something to be frank I'm just hanging out with Benjamin They say I changed I've been tryna keep it genuine yeah, yeah Fuck them, they don't wanna understand I'm still a high demand Yeah, then I bought her any ring I bought you everything Smoking dope and kissing lean High like 53 degree Pouring up his enemies, I got the remedy It look like straight out a magazine Brother why she fuck with me Fuck with me, me, me, me Bitch get to the bread and then we repeat, repeat, repeat And she think I'm famous wanna meet, meet, meet me I'm drunk on brainless but I'll cheese, cheese, cheese, cheese Me, me, me, me Repeat, repeat, repeat, repeat Wanna meet, meet, meet, meet These tears, tears, tears</t>
+          <t>What is soul? What is soul, babe? Some few people really know It's deep within us, it doesn't show A soul is somethin' that comes from deep inside But a soul is a somethin' that you can't hide What is soul? What is soul, babe? Search your heart, go deep down low Way down there you'll find your soul Come near girl, you look so cold Touch my hand and warm your soul Baby, baby, what's wrong with you You don't know what I'm going through Hold me so tight, so tight I can't breath Can't you feel it girl? Don't you know what I mean? This is soul! This is soul! Feel the soul, babe! What is soul, babe? Don't you know? What is soul, babe?</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>That’s When It Hurts</t>
+          <t>Will You Still Love Me Tomorrow</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Today we're here to talk about, what is luxury? Michaelwarren I just spent a bag 'cause I'm sick of feelin' sad When I pop this pill, I hope I forget who I am It's because every time you talk to me I wanna go back It's because I just keep fucking up, can't go through this again I just keep telling myself that nothing of this is real I just keep telling myself that someone cares about how I feel And I struggle a lot, feel like I'm not enough I don't wanna give up, but I keep nodding off And I struggle a lot, feel like im not enough I dont wanna give up but I keep nodding off Do me dirty like my Prada's I'm breathing in the stardust I don't wanna feel like this That's why I keep spending dollars That's why I keep spending Benji's And maybe it's not healthy Falling back into bad habit's I cannot undo the damage And even if it's over I hope you won't forget me I just want you to know that I keep you in my memories Don't like it when I'm sober Because that's when it hurts the most I think this is going nowhere I wish we would still be close I wish we would still be close Michaelwarren I just spent a bag 'cause I'm sick of feelin' sad When I pop this pill, I hope I forget who I am It's because every time you talk to me I wanna go back It's because I just keep fucking up, can't go through this again I just keep telling myself that nothing of this is real I just keep telling myself that someone cares about how I feel And I struggle a lot, feel like I'm not enough I don't wanna give up, but I keep nodding off</t>
+          <t>Tonight you're mine, completely You give your love so sweetly Tonight the light of love is in your eyes But will you love me tomorrow Is this a lasting treasure Or just a moment's pleasure Can I believe the magic of your sighs Will you still love me tomorrow Tonight with words unspoken You say that I'm the only one But will my heart be broken When the night meets the morning sun I have to know that your love Is a love I can be sure of So tell me now, and I won't ask again Will you still love me tomorrow Tonight you're mine completely You give your love so sweetly Tonight the light of love is in your eyes But will you love me tomorrow Will you still love me tomorrow</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>The Hermit Of Misty Mountain</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>I went to a Hermit of Misty Mountain who lives in a cave above And I asked this wise old man Oh, Mr Hermit, what is a love...? He said, Love is a boat that sails to heaven on a river that has no end... Its a magic carpet to the Valley of Dreams... thats a love my friend... So I asked this Hermit of a Misty Mountain who lives where the cold winds blow If I find this thing called love... oh, Mr Hermit, how will I know...? He said, Youll see the Sun when it isnt shining and the stars when they dont glow... And youll hear songs when there aint no singing... Thats a-how youll know... So I said to a Hermit of Misty Mountain before these things are thru When I find this thing called love,.. oh, Mr Hermit, what do I do? He said, Treasure this love much more than gold and care for it tenderly... Or youll be a Hermit on a Misty Mountain A fool like me A fool like me Aaaw, youll be a fool like me A fool like me...1</t>
+          <t>I was six feet under for the one and only Spent the nights feeling bitter, sad and lonely Didn't realize how much fear controlled me Until you came and loved me like I'm holy Now I'm ready to give life one more chance Think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes Think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes Ooh, ooh, ooh Never thought I would be high on life but sober Didn't think that I'd be able to turn this over Let's make stories to talk about when we're older Come and rest your pretty head upon my shoulder Now I'm ready to give life one more chance I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes Ooh, ooh, ooh Say yes, say yes, say yes Ooh, ooh, ooh Let's make stories to talk about when we're older Hmm Come and rest your pretty head up on my shoulder Ooh, ooh, oh Say yes, say yes Say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes Say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, so just say yes6</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>There Goes My Baby</t>
+          <t>Young Boy Blues</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
+          <t>Every time I kiss somebody new, I Make believe I'm kissing you but I can't kid my aching heart 'cause My heart know we're still apart and Each night is like a thousand years, oh I can't lose these young boy blues I wanna cry when I hear your name, but If I cry, I feel ashamed, so I let my pride be my guide and I keep those tears inside, so Each night is like a thousand years, oh Since I got these young boy blues, mmm Don't know where to go Don't know what to do I'm so lonesome and lonely Since I lost you Every time I kiss somebody new, I Make believe I'm kissing you but I can't kid my aching heart 'cause My heart know we're still apart and Each night is like a thousand years, oh I can't lose these young boy blues, mmm Each night is like a thousand years, oh I can't lose these young boy blues, mmm</t>
         </is>
       </c>
     </row>
@@ -3178,299 +3178,10 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>There Goes My Baby</t>
+          <t>Your Love</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
-        <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>There Goes My Baby</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>There Goes My Baby</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>There Goes My Baby</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>There Goes My Baby</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>There Goes My Baby</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>There Goes My Baby</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>...number one He's my number one He's my number one He's my number one He's my number one He's my number one He's my number one He's... They keep telling me, don't trust a beautiful girl But they can't get no girl like me Sexy like a strip show, but she got the brains though Tag-team, she's my M.V.P They ain't into us, they're so envious Trying to tell me that my girl's too dangerous But she's my Mrs. P, that's P for Perfection Her attention's all I need There goes my baby And ain't she the real thing? I got her now He's my number one He's my number one H-h-he's my number one He's my darlin' He got my heart set I'm talking 'bout She's my number one She's my number one Sh-sh-she's my number one They talk They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me All my girlfriends' j-j-jealous They don't like my man 'cause he's g-g-generous Thinking that they're way, way, way ahead of us Keep telling us, it won't never last He's a bad influence, they so envious I think the gravity is stronger 'cause I'm fallin' fast Two halves make a whole, two hearts make a soul My body, your body, baby, do the math C'mon There goes my baby And ain't she the real thing? I got her now He's my number one Oh! He's my number one H-h-he's my number one He's my darlin' Oh-ooh-ooh-ooh-ooh-ooh He got my heart set I'm talking bout She's my number one She's my number one Sh-sh-she's my number one She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh C'mon... They talk shit about me My girl is a permanent fixture Jamaican, Latina, an affirmative mixture Yeah, you talk about him bad, I'ma bury you six foot 'Cause he gon' be my man 'til the planet has blown up She's my Venus, galaxy can't get in between us We're Adam and Eve with a remix I'd get her a star from Heaven, but I can't reach it I can't find a diamond as beautiful as she is We go togewe go toge-ge-gether Don't listen to your lonely ass girlfriends ever Remember, baby, you're the Ben Jerry's, I'm the cone You're the stone, I'm the setting, you won't ever be alone Ha, no! 'Cause I'm only a call away-ay-ay Haha And though they say it just another cliché-é-é She's my la-ady and this ain't no phase She's my la-ady, je l'aime depuis lycée Hey There goes my baby Oh And ain't she the real thing? I got her now He's my number one He's my number one Oh-oh H-h-he's my number one Yeah He's my darlin' He got my heart set I'm talking 'bout Ay She's my number one She's my number one He's talking, babe Sh-sh-she's my number one There goes my baby There goes And ain't she the real thing? I got her now He's my number one He's my number one She is my number one H-h-he's my number one Uh He's my darlin' He got my heart set Oh-oh-oh-oh I'm talking bout She's my number one She's my number one She is Sh-sh-she's my number one She's my number one She's my number one They talk sh-- about me They talk sh-- about me She's my number one They talk sh-- about me They talk sh-- about me They talk sh-- about me Oh They talk sh-- about me Oh... They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me They talk sh-- about me They talkin' They talk sh-- about me Oh... They talk sh-- about me</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>(There’s) No Place to Hide</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Your heart used to shelter me from all harm Your strength used to comfort me in any storm When things were too much to bear You were there by my side Now, you're gone, I can't go on Oh, darlin', darlin Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide With you by my side I felt like a king Like a king With you by my side I could do anything Anything Then you turned your back on me Somethin' deep in me died 'Til you come on back to me Oh, darlin', darlin' Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide When you turned your back on me Somethin' deep in me died 'Til you come on back to me Oh, darlin', darlin' Darlin', darlin' There's no place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide No place to hide</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>This Magic Moment</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>call evry gal crew mek wi roll out Roll out Kartel call every girlfriend mek wi roll out, toll out So high up on the moon DJ mek yo body groove Dreams are there to come true Sure feels like she mi love you So high up on the moon DJ mek yo body groove Dreams are there to come true Sure feels like our honeymoon Every man grab a gyal wi a rock Bare pretty, pretty, mi nuh see no dead stock Tick to the toc mek yo bumper react Point pon a bwoy mek him haffi come back A yesterday you mek a old man catch hear attack One short shorts and a traffic you block Heaven open up when wi come together Mi feel so good fi inna this magic moment In a yo hears mi a talk up the things Gyal yo valuable more than Benjamin Must be an angel where are yo wings? Baby yo thirsty, buy her a drinks How da riddim yah suh bad? Big up King Jamis Wine paw mi gyal under bare memories Heaven open up when wi come together Mi feel so good fi inna this magic moment</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Til I Can’t Take It Anymore</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Let's not fight it anymore Unpack the bags and close the door I'll never leave you, no, no Though you lied right from the start I can't convince my stupid heart Not to believe you You've got two good men strung out And there's not the slightest doubt That other men have loved you before But you work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore If I had one ounce of pride I'd stand up or step aside But girl, I love you, can't you tell it? So I'll accept the crumbs you drop 'Cause I'm a fool and I can't stop Or rise above you Let him speak up for himself I speak for me and no one else 'Cause I'm a beggar knockin' on your door You work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore I'm too far gone to turn around To lift myself up off the ground And start all over, over and over and over Now him or I must win or lose No matter which one you may choose You'll be in clover, you know you will Darlin', while you're making up your mind Well, I'll be prayin' all the time Prayin' that you'll never, never, never be letting me go But you work your thing so well I'll dream of Heaven and live in Hell Til I can't take it anymore Girl, you work your thing so well Dream of Heaven and live in Hell Til I can't take it anymore You know that you work that thing so well I dream of Heaven and live in Hell Til I can't take it anymore You work it so well I dream of Heaven and live in Hell</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Up On The Roof</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>They say Jesus was a nephew, you know what I'm sayin'? Boss up, nigga They said his mom was a virgin So when he was born, they told him he was sent from God so he started goin' village to village helpin' the people and they killed his ass, that's crazy That's crazy, man They killed Jesus for helpin' the people That's why I ain't got patience with people In the Bible, God dealin' with evil They said God did a deal with the Devil That's the reason Job has sores on his feet That's the reason Job lost his house That's the reason Job lost his kids I'm readin' the Bible like, What is this? Adam made Eve off of one rib? They made the world in seven days? So Adam and Eve had a thousand kids? Cain and Abel, they fell out beefin' Me and my brother, we fell out beefin' They said cocaine that was on the tree What if Adam would've never fucked Eve? Why Eve make that nigga eat that? That's why I don't eat the bitch food now Job lost his whole fuckin' family And they said God gave him a hundred cows Like two-hunned horses or somethin' How the fuck is that worth my kids? What I did to deserve to go through this? Let me get this right, this because of Eve? Okay, I fuck with Adam, but I'll beat the shit out of Eve How the hell they live at the forbidden tree? Somebody show me the forbidden tree I believe in God, but I ain't too religious How the fuck they really got a picture of Jesus? Name one person who was alive with Jesus How the fuck they tellin' me I need Jesus? If I need Jesus, then where is Jesus? So if I get shot, I'ma meet Jesus? So I gotta die just to meet Jesus? It's a fucked up world with fucked up people The first religion, they worshipped the sun They made some bullshit story 'bout that They said the sun went down 'cause the sins And the sun was never gon' come back Every thousand years it's a new religion Unc in the streets screaming, New religion Pastor got diamonds, rockin' True Religion Pray to who? You must be trippin' Bitch, I'm prayin' to my money racks They said we livin' in Revelations Vaccine got us mutatin' So fuck it then, I'ma go take it If the whole world start purgin' My daughter gon' still have a Lambo I'ma have eighteen-hundred guns Thirty Audi's and twenty Camaros They said the world would end in 2012 I was sellin' crack in 2012 They talkin' about the calendar ended Eight years later, a pandemic Swine flu, Ebola, COVID-19, what's different? All of that shit was killin' people I ain't scared of that, guns kill people I ain't scared of guns, AIDS kill people I can die in a car crash How the fuck you gon' tell me I'm goin' to Heaven? Please tell me when you talked to the dead Who you met that came from the dead? Show me a picture and show me some proof Explain to me why the fuck Benjamin Franklin stood his ass up on the roof How he discover somethin' out the sky? If that's the case, T-Rex discovered it If you ask me, this shit made up I'ma loop the beat 'cause I ain't said enough I ain't said enough In school, I had a lot of questions Boss up, nigga Social studies teacher makin' up shit All that shit was in they head Who the fuck is Christopher Columbus? If he would've came to my block Talkin' 'bout he discovered my trap His ass would've probably got shot How the fuck I'm African American? Bitch, I'm American terrorist Fifth grade, smarter than my parents Grandma couldn't help with algebra Grandma like, What the fuck is algebra? She like, That's a goddamn shame Them people gonna keep makin' up shit Tryna keep you in the same grade They tryna hide shit in the book I was in jail readin' books OG teach me 'bout real estate Every landlord I know a crackhead I'm in the hood with the slum lords Grandma Jehovah's Witness, no Christmas Jehovah's Witnesses people move like a cult They recruitin' people at they door How you gon' force religion on somebody? How you change the Bible and tell it to everybody? Why Jehovah's Witnesses don't like Christians? They fightin' over Jesus' birthday How the fuck y'all know Jesus' birthday? Who the fuck is that white man Santa Claus? They said that nigga was eatin' kids Why would I let that man lie to my kids? Why would I go out buyin' gifts And blame it on the nigga named Santa? Shit, a nigga climb through my roof I'ma beat his ass in the head with a hammer If you eat my cookies, beat you with a hammer Drink the kids' milk, beat you with a hammer You like a hundred somethin' buyin' toys Well, Santa never dropped me off a toy Let's get back to Jehovah's Witnesses How the fuck all of y'all awake? How the fuck y'all church so small But it's a million of y'all everyday? Shit, religious people startin' to scare me Shit, the government wrote the Bible They knew who was gon' win American Idol I never liked Simon off American Idol I ain't really like how he talked to black people How the fuck Flava Flav still alive? Shit, before Kobe, before Deebo I expected his ass to up and die I ain't got nothin' against Flava Flav They said I was ugly as Flava Flav Now I got twenty hoes like Flava Flav Nigga dyin' for jewelry everyday They caught the nigga who killed MO3 How the fuck he get caught in less than three weeks? If you ask me, that's a sacrifice You ain't gotta be rich to pull a sacrifice All those times on the block, bitch, I sacrificed Put my pride to the side, bitch, I sacrificed If that's the case, I'm Illuminati How Tekashi get out before Shotti? Why Jim Jones never went to jail? And he was talkin' 'bout killin' a nigga Shit, that ain't my job, but that's conspiracy All I know is niggas get locked for conspiracy These niggas who talk, they be scarin' me They be wearin' wires in they shoes Askin' questions, wanna talk to you These niggas move like TMZ On a regular day, wanna question me Nigga move like VladTV These niggas look like VladTV They get indicted on VladTV Homie got five years for a TV So what the fuck they thought was gon' happen? They talk too much, they AR-Ab it I always thought that Cassidy was a hustler Cassidy was my favorite rapper Then I find out he wasn't hustling Boss up, nigga He was with Swizz Beatz then went broke Niggas thought Meek Mill wasn't gon' blow I ain't never heard 'bout Meek Mill Until he ran with that C.O I ain't sayin' Meek did the wrong thing But he knew Ross was a C.O Shit, a nigga gotta feed his kids I ain't never think Gucci was a clone They like, How the hell he got so skinny? When you in that cell, shit, they feed you wrong Three meals a day get a nigga right Six pack came from bein' hungry at night Nigga came home then he fixed his teeth Then they changed the subject about a week I'ma get on the beat and say what I want I love stimulus and love Donald Trump Auntie talkin' 'bout Six-hundred coming' It ain't twelve-hundred, but shit, it's somethin' I don't sit on my ass and live with my bitch Just the other day, broke up with my bitch I'd rather go rob some shit PS5 won't come out my lip The Bible told you bitches is grimey Whole Bible, bitches was lyin' They believed that a virgin had kids I hope my daughter don't tell me that shit 'Cause you ain't Mary and the baby ain't Jesus Don't lie to me 'cause I ain't Jesus My last bitch was an atheist She talkin' 'bout pullin' tarot cards She like, Come on Neph', let me tell your future I'm like, Bitch, I'm off more molly than Future I'm like, Bitch, I might die tomorrow Why the hell you tryna be a fortune teller? She on Fashion Nova and she lookin' at dresses Her ass fat, but I ain't even notice She take her time puttin' on lotion I'm like, Bitch, hurry up 'cause I got a lick They talkin' 'bout pray before you eat Bitch, you eatin' a dead animal Bitch, you barely got vegetables Everybody in the world is hypocrites Donald Trump still gon' build that wall MS-13 climbed over the wall Donald Trump can't stop immigrants Lost my ID, I'm an immigrant They pulled me over like, What's your name? Bitch, I forgot my social security number They asked about my mother maiden name I'm like, I don't know, we don't know each other Bitch, I'm on the run from Area 51 I stayed in the corner and boot up Bitch, I forgot where I parked my car My last bitch like, Who are you? I'm like, Bitch, I want sugar in water That movie ain't funny no more Y'all know I don't like Will Smith I used to know the song to Fresh Prince Now this the story all about how Now his mother kid suckin' dick Now he sad, lookin' like How? Who the fuck raised these niggas? What scientist made these niggas? What lab these niggas come from? First time I watched 'I Am Legend' I cried Especially the part when his dog died 'Cause I feel his pain when you out in the streets Then I seen another movie, he was butt naked With another man in between the sheets I'm like, Hell nah, that's 'I Am Legend'? I'ma fuck Jada too, fuck 'I Am Legend' Well Jada Pinkett, if you hear this song I'll fuck you good and you ain't gon' regret it I ain't August Alsina, you don't need him If he was real, he would've knocked out Will Yo' kids grown, fuck that nigga He the reason that y'all son gay now Bitch, shouts out to Chris Brown Will Smith should've took advice from Chris Brown Jada Pinkett should've been on the news With both her eyes black and brown Boss up, nigga Ooh, I looped it again Boss up, nigga They say Jesus was drinkin' grape juice, I'm drinkin' gin I used to think Snoop Dogg was tough I hated niggas who acted tough I used to love the Chum Bucket I used to feel like the Chum Bucket I been knew SpongeBob was a bitch That's why I fuck with the Chum Bucket Pull up lookin' like Plankton, nigga Everybody hate that nigga Cougar bitch wanna watch Martin Bitch, that shit ain't funny I fuck with Hustle Man more than him Martin always stressin' 'bout a bitch This whole world stressin' 'bout a bitch It ain't even these bitches, it's niggas too 'Cause the bitches move like niggas do And these niggas, they move like bitches do I don't even wanna get in the industry 'Cause if I do, I'm doin' somethin' crazy I'ma fuck Keke Palmer, get her pregnant Then leave her single with a baby Don't judge me, that's what Adam did If Adam and Eve had two kids Once Adam got a taste of that fruit He went to the left and found him a bitch Shit, Cain and Abel was trippin' anyway Shit, they tryna kill each other with an axe They put this shit all in the Bible So you know damn well this ain't cap They say there's seventy-seven sextillion stars in the sky I ain't even heard that number before until they told me that lie I'm like, How the fuck? Hold on, which telescope and what person count that with they eyes? When I was in church, I had questions My grandma like, Hold on, grandson got a question They passed me the mic at the kingdom hall I'm like, Who told y'all it's that many stars? They told me, Don't question the Bible I'm like, Grandma, stop goin' to the kingdom hall Them people ain't your friends anyway Nigga doin' Bible study tryna get pussy Same people bringin' demons in the house How the fuck y'all throwin' water 'round that house? How the fuck y'all make that holy water? Let me get some of that so I can cook a quarter How y'all say I'm evil for sellin' crack When I'm out here tryna feed my daughter? Where your money go? I don't judge you Them old church bitches be cougars And the pastor drive a brand new Caddy But the church broke down and raggedy How the fuck niggas scam CashApp? They thought they was scammin' CashApp Well CashApp scammed CashApp They got social numbers in CashApp Why the fuck I gotta give you my social? How you know I ain't forget my social? Why the fuck I need a drivers' license? If I crash, I'm the only one dyin' If somebody else die, it was meant to go Y'all the ones who put that shit in the Bible How the fuck y'all talkin' 'bout Turn the other cheek When y'all killin' black people left and right? I don't beef with white people, they good licks My white bitch got good credit I ain't never think Donald Trump was racist Wanna talk to him, gotta have good credit Wanna talk to me, gotta have good credit Rx Papi a bitch, the whole hood said it Meagan Good booty flat, Slitherman said it Wendy Williams a man, Slitherman said it Them big ass titties look dumb Lil Kim face look dumb Cardi B mouth look dumb Bitch talk like she always chewin' gum Migos lookin' tough, they look dumb Joe Budden told them niggas they was ass He told that shit to 'em dead in they face Boss up, nigga He was probably high off a fifty bag Yuh12</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>What a Difference a Day Made</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>What a difference a day made Twenty-four little hours Brought the sun and the flowers Where there used to be rain My yesterday was blue, dear Today I'm part of you, dear My lonely nights are through, dear Since you said you were mine What a difference a day makes There's a rainbow before me Skies above can't be stormy Since that moment of bliss, that thrilling kiss It's heaven when you find romance on your menu What a difference a day made And the difference is you</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>What Is Soul</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>What is soul? What is soul, babe? Some few people really know It's deep within us, it doesn't show A soul is somethin' that comes from deep inside But a soul is a somethin' that you can't hide What is soul? What is soul, babe? Search your heart, go deep down low Way down there you'll find your soul Come near girl, you look so cold Touch my hand and warm your soul Baby, baby, what's wrong with you You don't know what I'm going through Hold me so tight, so tight I can't breath Can't you feel it girl? Don't you know what I mean? This is soul! This is soul! Feel the soul, babe! What is soul, babe? Don't you know? What is soul, babe?</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>What Is Soul</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>What is soul? What is soul, babe? Some few people really know It's deep within us, it doesn't show A soul is somethin' that comes from deep inside But a soul is a somethin' that you can't hide What is soul? What is soul, babe? Search your heart, go deep down low Way down there you'll find your soul Come near girl, you look so cold Touch my hand and warm your soul Baby, baby, what's wrong with you You don't know what I'm going through Hold me so tight, so tight I can't breath Can't you feel it girl? Don't you know what I mean? This is soul! This is soul! Feel the soul, babe! What is soul, babe? Don't you know? What is soul, babe?</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Will You Still Love Me Tomorrow</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Tonight you're mine, completely You give your love so sweetly Tonight the light of love is in your eyes But will you love me tomorrow Is this a lasting treasure Or just a moment's pleasure Can I believe the magic of your sighs Will you still love me tomorrow Tonight with words unspoken You say that I'm the only one But will my heart be broken When the night meets the morning sun I have to know that your love Is a love I can be sure of So tell me now, and I won't ask again Will you still love me tomorrow Tonight you're mine completely You give your love so sweetly Tonight the light of love is in your eyes But will you love me tomorrow Will you still love me tomorrow</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>I was six feet under for the one and only Spent the nights feeling bitter, sad and lonely Didn't realize how much fear controlled me Until you came and loved me like I'm holy Now I'm ready to give life one more chance Think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes Think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes Ooh, ooh, ooh Never thought I would be high on life but sober Didn't think that I'd be able to turn this over Let's make stories to talk about when we're older Come and rest your pretty head upon my shoulder Now I'm ready to give life one more chance I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes Ooh, ooh, ooh Say yes, say yes, say yes Ooh, ooh, ooh Let's make stories to talk about when we're older Hmm Come and rest your pretty head up on my shoulder Ooh, ooh, oh Say yes, say yes Say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes, say yes Say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, I must confess Say yes, say yes I think my heart is beating me to death I have got an arrow through my chest I am so in love, so just say yes6</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Young Boy Blues</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Every time I kiss somebody new, I Make believe I'm kissing you but I can't kid my aching heart 'cause My heart know we're still apart and Each night is like a thousand years, oh I can't lose these young boy blues I wanna cry when I hear your name, but If I cry, I feel ashamed, so I let my pride be my guide and I keep those tears inside, so Each night is like a thousand years, oh Since I got these young boy blues, mmm Don't know where to go Don't know what to do I'm so lonesome and lonely Since I lost you Every time I kiss somebody new, I Make believe I'm kissing you but I can't kid my aching heart 'cause My heart know we're still apart and Each night is like a thousand years, oh I can't lose these young boy blues, mmm Each night is like a thousand years, oh I can't lose these young boy blues, mmm</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Ben-J</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Your Love</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
         <is>
           <t>For your love Oh, I would do anything I would do anything For your love For your kiss ah, ah, ah, ah Oh, I would go anywhere ah, ah, ah, ah I would go anywhere ah, ah, ah, ah For your kiss More foolish I grow With each heartbeat But we all get foolish That's why I repeat For your love ah, ah, ah, ah Oh, I would do anything ah, ah, ah, ah I would do anything For your kiss Ah, ah, ah, ah Ah, ah, ah, ah I would do anything ah, ah, ah, ah For your love For your love ah, ah, ah, ah Ah, ah</t>
         </is>
